--- a/Exp_Record_Alfa.xlsx
+++ b/Exp_Record_Alfa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\binxu\Documents\Monkey_Visual_Experiment_Data_Processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A5FE34-81E9-486F-9D56-DFB2C0DD574B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{867E46E9-A035-4D1F-B32B-5C30E9FE0E17}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E8F02E99-2E64-47FA-AE59-9CE3001F87A6}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="318">
   <si>
     <t>Alfa64chan-19112019-009</t>
   </si>
@@ -1281,6 +1281,9 @@
   </si>
   <si>
     <t>comments</t>
+  </si>
+  <si>
+    <t>stim_size</t>
   </si>
 </sst>
 </file>
@@ -1661,10 +1664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41ED7FA1-E8A8-4228-B00D-65813F1553E3}">
-  <dimension ref="A1:G80"/>
+  <dimension ref="A1:H80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1675,7 +1678,7 @@
     <col min="4" max="4" width="113.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>313</v>
       </c>
@@ -1697,8 +1700,11 @@
       <c r="G1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1720,8 +1726,11 @@
       <c r="G2">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1740,8 +1749,11 @@
       <c r="G3">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1763,8 +1775,11 @@
       <c r="G4">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1786,8 +1801,11 @@
       <c r="G5">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1810,7 +1828,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -1832,8 +1850,11 @@
       <c r="G7">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -1855,8 +1876,11 @@
       <c r="G8">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -1878,8 +1902,11 @@
       <c r="G9">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -1901,8 +1928,11 @@
       <c r="G10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -1924,8 +1954,11 @@
       <c r="G11">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -1947,8 +1980,11 @@
       <c r="G12">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>47</v>
       </c>
@@ -1970,8 +2006,11 @@
       <c r="G13">
         <v>32</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -1982,7 +2021,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -2004,8 +2043,11 @@
       <c r="G15">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>58</v>
       </c>
@@ -2027,8 +2069,11 @@
       <c r="G16">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>62</v>
       </c>
@@ -2050,8 +2095,11 @@
       <c r="G17">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>66</v>
       </c>
@@ -2062,7 +2110,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>69</v>
       </c>
@@ -2084,8 +2132,11 @@
       <c r="G19">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>73</v>
       </c>
@@ -2107,8 +2158,11 @@
       <c r="G20">
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>77</v>
       </c>
@@ -2130,8 +2184,11 @@
       <c r="G21">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>81</v>
       </c>
@@ -2142,7 +2199,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>84</v>
       </c>
@@ -2155,8 +2212,11 @@
       <c r="D23" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>88</v>
       </c>
@@ -2169,8 +2229,11 @@
       <c r="D24" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>92</v>
       </c>
@@ -2181,7 +2244,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>95</v>
       </c>
@@ -2203,8 +2266,11 @@
       <c r="G26">
         <v>51</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>99</v>
       </c>
@@ -2226,8 +2292,11 @@
       <c r="G27">
         <v>51</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>103</v>
       </c>
@@ -2249,8 +2318,11 @@
       <c r="G28">
         <v>51</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>107</v>
       </c>
@@ -2261,7 +2333,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>110</v>
       </c>
@@ -2283,8 +2355,11 @@
       <c r="G30">
         <v>7</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>114</v>
       </c>
@@ -2306,8 +2381,11 @@
       <c r="G31">
         <v>7</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>118</v>
       </c>
@@ -2329,8 +2407,11 @@
       <c r="G32">
         <v>7</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>122</v>
       </c>
@@ -2341,7 +2422,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>125</v>
       </c>
@@ -2363,8 +2444,11 @@
       <c r="G34">
         <v>7</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>129</v>
       </c>
@@ -2386,8 +2470,11 @@
       <c r="G35">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>133</v>
       </c>
@@ -2409,8 +2496,11 @@
       <c r="G36">
         <v>7</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>137</v>
       </c>
@@ -2432,8 +2522,11 @@
       <c r="G37">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>141</v>
       </c>
@@ -2455,8 +2548,11 @@
       <c r="G38">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>145</v>
       </c>
@@ -2478,8 +2574,11 @@
       <c r="G39">
         <v>35</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>149</v>
       </c>
@@ -2501,8 +2600,11 @@
       <c r="G40">
         <v>35</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>153</v>
       </c>
@@ -2524,8 +2626,11 @@
       <c r="G41">
         <v>35</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>157</v>
       </c>
@@ -2547,8 +2652,11 @@
       <c r="G42">
         <v>61</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>161</v>
       </c>
@@ -2570,8 +2678,11 @@
       <c r="G43">
         <v>61</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>165</v>
       </c>
@@ -2593,8 +2704,11 @@
       <c r="G44">
         <v>61</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>169</v>
       </c>
@@ -2616,8 +2730,11 @@
       <c r="G45">
         <v>33</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>173</v>
       </c>
@@ -2639,8 +2756,11 @@
       <c r="G46">
         <v>33</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>177</v>
       </c>
@@ -2662,8 +2782,11 @@
       <c r="G47">
         <v>33</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>181</v>
       </c>
@@ -2685,8 +2808,11 @@
       <c r="G48">
         <v>43</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>185</v>
       </c>
@@ -2708,8 +2834,11 @@
       <c r="G49">
         <v>43</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>189</v>
       </c>
@@ -2731,8 +2860,11 @@
       <c r="G50">
         <v>43</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>193</v>
       </c>
@@ -2754,8 +2886,11 @@
       <c r="G51">
         <v>59</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>197</v>
       </c>
@@ -2777,8 +2912,11 @@
       <c r="G52">
         <v>59</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>201</v>
       </c>
@@ -2800,8 +2938,11 @@
       <c r="G53">
         <v>59</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>205</v>
       </c>
@@ -2823,8 +2964,11 @@
       <c r="G54">
         <v>20</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>209</v>
       </c>
@@ -2846,8 +2990,11 @@
       <c r="G55">
         <v>20</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>213</v>
       </c>
@@ -2869,8 +3016,11 @@
       <c r="G56">
         <v>20</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>217</v>
       </c>
@@ -2892,8 +3042,11 @@
       <c r="G57">
         <v>49</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>221</v>
       </c>
@@ -2915,8 +3068,11 @@
       <c r="G58">
         <v>49</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>225</v>
       </c>
@@ -2938,8 +3094,11 @@
       <c r="G59">
         <v>49</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>229</v>
       </c>
@@ -2961,8 +3120,11 @@
       <c r="G60">
         <v>19</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>233</v>
       </c>
@@ -2984,8 +3146,11 @@
       <c r="G61">
         <v>19</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>237</v>
       </c>
@@ -3007,8 +3172,11 @@
       <c r="G62">
         <v>19</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>241</v>
       </c>
@@ -3030,8 +3198,11 @@
       <c r="G63">
         <v>12</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>245</v>
       </c>
@@ -3053,8 +3224,11 @@
       <c r="G64">
         <v>12</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>249</v>
       </c>
@@ -3076,8 +3250,11 @@
       <c r="G65">
         <v>12</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>253</v>
       </c>
@@ -3099,8 +3276,11 @@
       <c r="G66">
         <v>41</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>257</v>
       </c>
@@ -3122,8 +3302,11 @@
       <c r="G67">
         <v>41</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>261</v>
       </c>
@@ -3145,8 +3328,11 @@
       <c r="G68">
         <v>41</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>265</v>
       </c>
@@ -3168,8 +3354,11 @@
       <c r="G69">
         <v>63</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>269</v>
       </c>
@@ -3191,8 +3380,11 @@
       <c r="G70">
         <v>63</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>273</v>
       </c>
@@ -3214,8 +3406,11 @@
       <c r="G71">
         <v>63</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>277</v>
       </c>
@@ -3237,8 +3432,11 @@
       <c r="G72">
         <v>38</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>281</v>
       </c>
@@ -3260,8 +3458,11 @@
       <c r="G73">
         <v>38</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>285</v>
       </c>
@@ -3283,8 +3484,11 @@
       <c r="G74">
         <v>38</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>289</v>
       </c>
@@ -3306,8 +3510,11 @@
       <c r="G75">
         <v>39</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>293</v>
       </c>
@@ -3329,8 +3536,11 @@
       <c r="G76">
         <v>39</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>297</v>
       </c>
@@ -3352,8 +3562,11 @@
       <c r="G77">
         <v>39</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>301</v>
       </c>
@@ -3375,8 +3588,11 @@
       <c r="G78">
         <v>44</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>305</v>
       </c>
@@ -3398,8 +3614,11 @@
       <c r="G79">
         <v>44</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>309</v>
       </c>
@@ -3420,6 +3639,9 @@
       </c>
       <c r="G80">
         <v>44</v>
+      </c>
+      <c r="H80">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Exp_Record_Alfa.xlsx
+++ b/Exp_Record_Alfa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\binxu\Documents\Monkey_Visual_Experiment_Data_Processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{867E46E9-A035-4D1F-B32B-5C30E9FE0E17}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE630CA-AE7E-48AB-8DA6-B643D3E66EB4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E8F02E99-2E64-47FA-AE59-9CE3001F87A6}"/>
   </bookViews>
@@ -1666,7 +1666,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41ED7FA1-E8A8-4228-B00D-65813F1553E3}">
   <dimension ref="A1:H80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>

--- a/Exp_Record_Alfa.xlsx
+++ b/Exp_Record_Alfa.xlsx
@@ -1,14 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B19A0E3-F73D-4EEE-93BD-20BB0AC1F0DC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="4995" yWindow="1710" windowWidth="20355" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" fullCalcOnLoad="true"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -445,9 +452,6 @@
   </si>
   <si>
     <t>191210_ALfa_rfMapper_basic(1)</t>
-  </si>
-  <si>
-    <t>191210_Alfa_selectivity_basic(1)</t>
   </si>
   <si>
     <t>191211_Alfa_generate_parallel</t>
@@ -1266,11 +1270,14 @@
   <si>
     <t>stim_size</t>
   </si>
+  <si>
+    <t>191210_Alfa_selectivity_basic</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -1285,7 +1292,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1293,39 +1300,353 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H80"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
+    </sheetView>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="true"/>
-    <col min="2" max="2" width="30.85546875" customWidth="true"/>
-    <col min="3" max="3" width="71.28515625" customWidth="true"/>
-    <col min="4" max="4" width="139.28515625" customWidth="true"/>
-    <col min="5" max="5" width="4.85546875" customWidth="true"/>
-    <col min="6" max="6" width="14" customWidth="true"/>
-    <col min="7" max="7" width="10" customWidth="true"/>
-    <col min="8" max="8" width="9.42578125" customWidth="true"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" customWidth="1"/>
+    <col min="3" max="3" width="71.28515625" customWidth="1"/>
+    <col min="4" max="4" width="139.28515625" customWidth="1"/>
+    <col min="5" max="5" width="4.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1333,25 +1654,25 @@
         <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>314</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="2">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1359,16 +1680,16 @@
         <v>81</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G2">
         <v>29</v>
@@ -1377,7 +1698,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1385,13 +1706,13 @@
         <v>82</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G3">
         <v>29</v>
@@ -1400,7 +1721,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1408,16 +1729,16 @@
         <v>83</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G4">
         <v>29</v>
@@ -1426,7 +1747,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1434,16 +1755,16 @@
         <v>84</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G5">
         <v>29</v>
@@ -1452,7 +1773,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1460,22 +1781,22 @@
         <v>85</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E6">
         <v>2</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G6">
         <v>29</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1483,16 +1804,16 @@
         <v>86</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E7">
         <v>2</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G7">
         <v>29</v>
@@ -1501,7 +1822,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1509,16 +1830,16 @@
         <v>87</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E8">
         <v>3</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G8">
         <v>9</v>
@@ -1527,7 +1848,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1535,16 +1856,16 @@
         <v>88</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E9">
         <v>3</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G9">
         <v>9</v>
@@ -1553,7 +1874,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1561,16 +1882,16 @@
         <v>89</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E10">
         <v>3</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G10">
         <v>9</v>
@@ -1579,7 +1900,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1587,16 +1908,16 @@
         <v>90</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E11">
         <v>4</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G11">
         <v>32</v>
@@ -1605,7 +1926,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1613,16 +1934,16 @@
         <v>91</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E12">
         <v>4</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G12">
         <v>32</v>
@@ -1631,7 +1952,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1639,16 +1960,16 @@
         <v>92</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E13">
         <v>4</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G13">
         <v>32</v>
@@ -1657,7 +1978,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -1665,10 +1986,10 @@
         <v>93</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1676,16 +1997,16 @@
         <v>94</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E15">
         <v>5</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -1694,7 +2015,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -1702,16 +2023,16 @@
         <v>95</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E16">
         <v>5</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -1720,7 +2041,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -1728,16 +2049,16 @@
         <v>96</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E17">
         <v>5</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G17">
         <v>3</v>
@@ -1746,7 +2067,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -1754,10 +2075,10 @@
         <v>97</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -1765,16 +2086,16 @@
         <v>98</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E19">
         <v>6</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G19">
         <v>7</v>
@@ -1783,7 +2104,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -1791,16 +2112,16 @@
         <v>99</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E20">
         <v>6</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G20">
         <v>7</v>
@@ -1809,7 +2130,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -1817,16 +2138,16 @@
         <v>100</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E21">
         <v>6</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G21">
         <v>7</v>
@@ -1835,7 +2156,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -1843,10 +2164,10 @@
         <v>101</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -1854,16 +2175,16 @@
         <v>102</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H23">
         <v>3</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -1871,16 +2192,16 @@
         <v>103</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H24">
         <v>4</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -1888,10 +2209,10 @@
         <v>104</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -1899,16 +2220,16 @@
         <v>105</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E26">
         <v>7</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G26">
         <v>51</v>
@@ -1917,7 +2238,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -1925,16 +2246,16 @@
         <v>106</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E27">
         <v>7</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G27">
         <v>51</v>
@@ -1943,7 +2264,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -1951,16 +2272,16 @@
         <v>107</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E28">
         <v>7</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G28">
         <v>51</v>
@@ -1969,7 +2290,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -1977,10 +2298,10 @@
         <v>108</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -1988,16 +2309,16 @@
         <v>109</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E30">
         <v>8</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G30">
         <v>7</v>
@@ -2006,7 +2327,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -2014,16 +2335,16 @@
         <v>110</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E31">
         <v>8</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G31">
         <v>7</v>
@@ -2032,7 +2353,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -2040,16 +2361,16 @@
         <v>111</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E32">
         <v>8</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G32">
         <v>7</v>
@@ -2058,7 +2379,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -2066,10 +2387,10 @@
         <v>112</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -2077,16 +2398,16 @@
         <v>113</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E34">
         <v>9</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G34">
         <v>7</v>
@@ -2095,7 +2416,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -2103,16 +2424,16 @@
         <v>114</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E35">
         <v>9</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G35">
         <v>7</v>
@@ -2121,7 +2442,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -2129,16 +2450,16 @@
         <v>115</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E36">
         <v>9</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G36">
         <v>7</v>
@@ -2147,7 +2468,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -2155,16 +2476,16 @@
         <v>116</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E37">
         <v>10</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G37">
         <v>36</v>
@@ -2173,7 +2494,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
@@ -2181,16 +2502,16 @@
         <v>117</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E38">
         <v>10</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G38">
         <v>36</v>
@@ -2199,7 +2520,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
@@ -2207,16 +2528,16 @@
         <v>118</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E39">
         <v>11</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G39">
         <v>35</v>
@@ -2225,7 +2546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
@@ -2233,16 +2554,16 @@
         <v>119</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E40">
         <v>11</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G40">
         <v>35</v>
@@ -2251,7 +2572,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
@@ -2259,16 +2580,16 @@
         <v>120</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E41">
         <v>11</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G41">
         <v>35</v>
@@ -2277,7 +2598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
@@ -2285,16 +2606,16 @@
         <v>121</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E42">
         <v>12</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G42">
         <v>61</v>
@@ -2303,7 +2624,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
@@ -2311,16 +2632,16 @@
         <v>122</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E43">
         <v>12</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G43">
         <v>61</v>
@@ -2329,7 +2650,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
@@ -2337,16 +2658,16 @@
         <v>123</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E44">
         <v>12</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G44">
         <v>61</v>
@@ -2355,7 +2676,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
@@ -2363,16 +2684,16 @@
         <v>124</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E45">
         <v>13</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G45">
         <v>33</v>
@@ -2381,7 +2702,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
@@ -2389,16 +2710,16 @@
         <v>125</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E46">
         <v>13</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G46">
         <v>33</v>
@@ -2407,7 +2728,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
@@ -2415,16 +2736,16 @@
         <v>126</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E47">
         <v>13</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G47">
         <v>33</v>
@@ -2433,7 +2754,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
@@ -2441,16 +2762,16 @@
         <v>127</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E48">
         <v>14</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G48">
         <v>43</v>
@@ -2459,7 +2780,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
@@ -2467,16 +2788,16 @@
         <v>128</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E49">
         <v>14</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G49">
         <v>43</v>
@@ -2485,7 +2806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
@@ -2493,16 +2814,16 @@
         <v>129</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E50">
         <v>14</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G50">
         <v>43</v>
@@ -2511,7 +2832,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
@@ -2519,16 +2840,16 @@
         <v>130</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E51">
         <v>15</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G51">
         <v>59</v>
@@ -2537,7 +2858,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
         <v>51</v>
       </c>
@@ -2545,16 +2866,16 @@
         <v>131</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E52">
         <v>15</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G52">
         <v>59</v>
@@ -2563,7 +2884,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
         <v>52</v>
       </c>
@@ -2571,16 +2892,16 @@
         <v>132</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E53">
         <v>15</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G53">
         <v>59</v>
@@ -2589,7 +2910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
         <v>53</v>
       </c>
@@ -2597,16 +2918,16 @@
         <v>133</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E54">
         <v>16</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G54">
         <v>20</v>
@@ -2615,7 +2936,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
         <v>54</v>
       </c>
@@ -2623,16 +2944,16 @@
         <v>134</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E55">
         <v>16</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G55">
         <v>20</v>
@@ -2641,7 +2962,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
         <v>55</v>
       </c>
@@ -2649,16 +2970,16 @@
         <v>135</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E56">
         <v>16</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G56">
         <v>20</v>
@@ -2667,7 +2988,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
@@ -2675,16 +2996,16 @@
         <v>136</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E57">
         <v>17</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G57">
         <v>49</v>
@@ -2693,7 +3014,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
         <v>57</v>
       </c>
@@ -2701,16 +3022,16 @@
         <v>137</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E58">
         <v>17</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G58">
         <v>49</v>
@@ -2719,7 +3040,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
         <v>58</v>
       </c>
@@ -2727,16 +3048,16 @@
         <v>138</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E59">
         <v>17</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G59">
         <v>49</v>
@@ -2745,7 +3066,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,16 +3074,16 @@
         <v>139</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E60">
         <v>18</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G60">
         <v>19</v>
@@ -2771,7 +3092,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
         <v>60</v>
       </c>
@@ -2779,16 +3100,16 @@
         <v>140</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E61">
         <v>18</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G61">
         <v>19</v>
@@ -2797,7 +3118,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
         <v>61</v>
       </c>
@@ -2805,16 +3126,16 @@
         <v>141</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E62">
         <v>18</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G62">
         <v>19</v>
@@ -2823,7 +3144,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
         <v>62</v>
       </c>
@@ -2831,16 +3152,16 @@
         <v>142</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E63">
         <v>19</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G63">
         <v>12</v>
@@ -2849,7 +3170,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
         <v>63</v>
       </c>
@@ -2857,16 +3178,16 @@
         <v>143</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E64">
         <v>19</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G64">
         <v>12</v>
@@ -2875,24 +3196,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>144</v>
+        <v>317</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E65">
         <v>19</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G65">
         <v>12</v>
@@ -2901,24 +3222,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E66">
         <v>20</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G66">
         <v>41</v>
@@ -2927,24 +3248,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E67">
         <v>20</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G67">
         <v>41</v>
@@ -2953,24 +3274,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E68">
         <v>20</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G68">
         <v>41</v>
@@ -2979,24 +3300,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E69">
         <v>21</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G69">
         <v>63</v>
@@ -3005,24 +3326,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E70">
         <v>21</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G70">
         <v>63</v>
@@ -3031,24 +3352,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E71">
         <v>21</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G71">
         <v>63</v>
@@ -3057,24 +3378,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E72">
         <v>22</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G72">
         <v>38</v>
@@ -3083,24 +3404,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E73">
         <v>22</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G73">
         <v>38</v>
@@ -3109,24 +3430,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E74">
         <v>22</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G74">
         <v>38</v>
@@ -3135,24 +3456,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E75">
         <v>23</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G75">
         <v>39</v>
@@ -3161,24 +3482,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E76">
         <v>23</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G76">
         <v>39</v>
@@ -3187,24 +3508,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E77">
         <v>23</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G77">
         <v>39</v>
@@ -3213,24 +3534,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E78">
         <v>24</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G78">
         <v>44</v>
@@ -3239,24 +3560,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E79">
         <v>24</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G79">
         <v>44</v>
@@ -3265,24 +3586,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E80">
         <v>24</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G80">
         <v>44</v>
@@ -3292,5 +3613,6 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Exp_Record_Alfa.xlsx
+++ b/Exp_Record_Alfa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B19A0E3-F73D-4EEE-93BD-20BB0AC1F0DC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB4B248F-2B17-41EC-A374-0FD19D11DA24}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4995" yWindow="1710" windowWidth="20355" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -661,34 +661,22 @@
     <t>N:\Stimuli\2019-06-RF-mapping\2019-12-09-Alfa-chan19_SU</t>
   </si>
   <si>
-    <t>N:\Stimuli\2019-Manifold\alfa-191209a\backup_12_09_2019_13_26_55\PC_imgs</t>
-  </si>
-  <si>
     <t>N:\Stimuli\2019-06-Evolutions\alfa-191210a\backup_12_10_2019_13_07_57</t>
   </si>
   <si>
     <t>N:\Stimuli\2019-06-RF-mapping\2019-12-10-Alfa-chan12_SU</t>
   </si>
   <si>
-    <t>N:\Stimuli\2019-Manifold\alfa-191210a\backup_12_10_2019_13_07_57\PC_imgs</t>
-  </si>
-  <si>
     <t>N:\Stimuli\2019-06-Evolutions\alfa-191211a\backup_12_11_2019_13_05_38</t>
   </si>
   <si>
     <t>N:\Stimuli\2019-06-RF-mapping\2019-12-11-Alfa-chan41_SU</t>
   </si>
   <si>
-    <t>N:\Stimuli\2019-Manifold\alfa-191211a\backup_12_11_2019_13_05_38\PC_imgs</t>
-  </si>
-  <si>
     <t>N:\Stimuli\2019-06-Evolutions\alfa-191212a\backup_12_12_2019_14_50_34</t>
   </si>
   <si>
     <t>N:\Stimuli\2019-06-RF-mapping\2019-12-12-Alfa-chan63_SU</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-Manifold\alfa-191212a\backup_12_12_2019_14_50_34\PC_imgs</t>
   </si>
   <si>
     <t>N:\Stimuli\2019-06-Evolutions\alfa-191212b\backup_12_12_2019_16_06_06</t>
@@ -1272,6 +1260,18 @@
   </si>
   <si>
     <t>191210_Alfa_selectivity_basic</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-Manifold\alfa-191209a-selectivity</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-Manifold\alfa-191210a-selectivity</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-Manifold\alfa-191211a-selectivity</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-Manifold\alfa-191212a-selectivity</t>
   </si>
 </sst>
 </file>
@@ -1630,8 +1630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1657,19 +1657,19 @@
         <v>159</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1683,13 +1683,13 @@
         <v>160</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G2">
         <v>29</v>
@@ -1706,13 +1706,13 @@
         <v>82</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G3">
         <v>29</v>
@@ -1732,13 +1732,13 @@
         <v>161</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G4">
         <v>29</v>
@@ -1758,13 +1758,13 @@
         <v>162</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G5">
         <v>29</v>
@@ -1784,13 +1784,13 @@
         <v>163</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E6">
         <v>2</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G6">
         <v>29</v>
@@ -1807,13 +1807,13 @@
         <v>164</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E7">
         <v>2</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G7">
         <v>29</v>
@@ -1833,13 +1833,13 @@
         <v>165</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E8">
         <v>3</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G8">
         <v>9</v>
@@ -1859,13 +1859,13 @@
         <v>166</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E9">
         <v>3</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G9">
         <v>9</v>
@@ -1885,13 +1885,13 @@
         <v>167</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E10">
         <v>3</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G10">
         <v>9</v>
@@ -1911,13 +1911,13 @@
         <v>168</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E11">
         <v>4</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G11">
         <v>32</v>
@@ -1937,13 +1937,13 @@
         <v>169</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E12">
         <v>4</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G12">
         <v>32</v>
@@ -1963,13 +1963,13 @@
         <v>170</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E13">
         <v>4</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G13">
         <v>32</v>
@@ -1986,7 +1986,7 @@
         <v>93</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2000,13 +2000,13 @@
         <v>171</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E15">
         <v>5</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -2026,13 +2026,13 @@
         <v>172</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E16">
         <v>5</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -2052,13 +2052,13 @@
         <v>173</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E17">
         <v>5</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G17">
         <v>3</v>
@@ -2075,7 +2075,7 @@
         <v>97</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2089,13 +2089,13 @@
         <v>174</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E19">
         <v>6</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G19">
         <v>7</v>
@@ -2115,13 +2115,13 @@
         <v>175</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E20">
         <v>6</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G20">
         <v>7</v>
@@ -2141,13 +2141,13 @@
         <v>176</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E21">
         <v>6</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G21">
         <v>7</v>
@@ -2164,7 +2164,7 @@
         <v>101</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2178,7 +2178,7 @@
         <v>177</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H23">
         <v>3</v>
@@ -2195,7 +2195,7 @@
         <v>178</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="H24">
         <v>4</v>
@@ -2209,7 +2209,7 @@
         <v>104</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2223,13 +2223,13 @@
         <v>179</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E26">
         <v>7</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G26">
         <v>51</v>
@@ -2249,13 +2249,13 @@
         <v>180</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E27">
         <v>7</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G27">
         <v>51</v>
@@ -2275,13 +2275,13 @@
         <v>181</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E28">
         <v>7</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G28">
         <v>51</v>
@@ -2298,7 +2298,7 @@
         <v>108</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2312,13 +2312,13 @@
         <v>182</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E30">
         <v>8</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G30">
         <v>7</v>
@@ -2338,13 +2338,13 @@
         <v>183</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E31">
         <v>8</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G31">
         <v>7</v>
@@ -2364,13 +2364,13 @@
         <v>184</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E32">
         <v>8</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G32">
         <v>7</v>
@@ -2387,7 +2387,7 @@
         <v>112</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2401,13 +2401,13 @@
         <v>185</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E34">
         <v>9</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G34">
         <v>7</v>
@@ -2427,13 +2427,13 @@
         <v>186</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E35">
         <v>9</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G35">
         <v>7</v>
@@ -2453,13 +2453,13 @@
         <v>187</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E36">
         <v>9</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G36">
         <v>7</v>
@@ -2479,13 +2479,13 @@
         <v>188</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E37">
         <v>10</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G37">
         <v>36</v>
@@ -2505,13 +2505,13 @@
         <v>189</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E38">
         <v>10</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G38">
         <v>36</v>
@@ -2531,13 +2531,13 @@
         <v>190</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E39">
         <v>11</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G39">
         <v>35</v>
@@ -2557,13 +2557,13 @@
         <v>191</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E40">
         <v>11</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G40">
         <v>35</v>
@@ -2583,13 +2583,13 @@
         <v>192</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E41">
         <v>11</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G41">
         <v>35</v>
@@ -2609,13 +2609,13 @@
         <v>193</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E42">
         <v>12</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G42">
         <v>61</v>
@@ -2635,13 +2635,13 @@
         <v>194</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E43">
         <v>12</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G43">
         <v>61</v>
@@ -2661,13 +2661,13 @@
         <v>195</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E44">
         <v>12</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G44">
         <v>61</v>
@@ -2687,13 +2687,13 @@
         <v>196</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E45">
         <v>13</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G45">
         <v>33</v>
@@ -2713,13 +2713,13 @@
         <v>197</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E46">
         <v>13</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G46">
         <v>33</v>
@@ -2739,13 +2739,13 @@
         <v>198</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E47">
         <v>13</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G47">
         <v>33</v>
@@ -2765,13 +2765,13 @@
         <v>199</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="E48">
         <v>14</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G48">
         <v>43</v>
@@ -2791,13 +2791,13 @@
         <v>200</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E49">
         <v>14</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G49">
         <v>43</v>
@@ -2817,13 +2817,13 @@
         <v>201</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E50">
         <v>14</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G50">
         <v>43</v>
@@ -2843,13 +2843,13 @@
         <v>202</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="E51">
         <v>15</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G51">
         <v>59</v>
@@ -2869,13 +2869,13 @@
         <v>203</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E52">
         <v>15</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G52">
         <v>59</v>
@@ -2895,13 +2895,13 @@
         <v>204</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E53">
         <v>15</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G53">
         <v>59</v>
@@ -2921,13 +2921,13 @@
         <v>205</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E54">
         <v>16</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G54">
         <v>20</v>
@@ -2947,13 +2947,13 @@
         <v>206</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E55">
         <v>16</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G55">
         <v>20</v>
@@ -2973,13 +2973,13 @@
         <v>207</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E56">
         <v>16</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G56">
         <v>20</v>
@@ -2999,13 +2999,13 @@
         <v>208</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E57">
         <v>17</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G57">
         <v>49</v>
@@ -3025,13 +3025,13 @@
         <v>209</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E58">
         <v>17</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G58">
         <v>49</v>
@@ -3051,13 +3051,13 @@
         <v>210</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E59">
         <v>17</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G59">
         <v>49</v>
@@ -3077,13 +3077,13 @@
         <v>211</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E60">
         <v>18</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G60">
         <v>19</v>
@@ -3103,13 +3103,13 @@
         <v>212</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E61">
         <v>18</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G61">
         <v>19</v>
@@ -3126,16 +3126,16 @@
         <v>141</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>213</v>
+        <v>314</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E62">
         <v>18</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G62">
         <v>19</v>
@@ -3152,16 +3152,16 @@
         <v>142</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E63">
         <v>19</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G63">
         <v>12</v>
@@ -3178,16 +3178,16 @@
         <v>143</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E64">
         <v>19</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G64">
         <v>12</v>
@@ -3201,19 +3201,19 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>216</v>
+        <v>315</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E65">
         <v>19</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G65">
         <v>12</v>
@@ -3230,16 +3230,16 @@
         <v>144</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E66">
         <v>20</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G66">
         <v>41</v>
@@ -3256,16 +3256,16 @@
         <v>145</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E67">
         <v>20</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G67">
         <v>41</v>
@@ -3282,16 +3282,16 @@
         <v>146</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>219</v>
+        <v>316</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="E68">
         <v>20</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G68">
         <v>41</v>
@@ -3308,16 +3308,16 @@
         <v>147</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E69">
         <v>21</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G69">
         <v>63</v>
@@ -3334,16 +3334,16 @@
         <v>148</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E70">
         <v>21</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G70">
         <v>63</v>
@@ -3360,16 +3360,16 @@
         <v>149</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>222</v>
+        <v>317</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E71">
         <v>21</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G71">
         <v>63</v>
@@ -3386,16 +3386,16 @@
         <v>150</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E72">
         <v>22</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G72">
         <v>38</v>
@@ -3412,16 +3412,16 @@
         <v>151</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E73">
         <v>22</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G73">
         <v>38</v>
@@ -3438,16 +3438,16 @@
         <v>152</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E74">
         <v>22</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G74">
         <v>38</v>
@@ -3464,16 +3464,16 @@
         <v>153</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="E75">
         <v>23</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G75">
         <v>39</v>
@@ -3490,16 +3490,16 @@
         <v>154</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E76">
         <v>23</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G76">
         <v>39</v>
@@ -3516,16 +3516,16 @@
         <v>155</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E77">
         <v>23</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G77">
         <v>39</v>
@@ -3542,16 +3542,16 @@
         <v>156</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="E78">
         <v>24</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G78">
         <v>44</v>
@@ -3568,16 +3568,16 @@
         <v>157</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="E79">
         <v>24</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G79">
         <v>44</v>
@@ -3594,16 +3594,16 @@
         <v>158</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="E80">
         <v>24</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G80">
         <v>44</v>

--- a/Exp_Record_Alfa.xlsx
+++ b/Exp_Record_Alfa.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7182B159-017F-4AE1-B577-C33331AA62D2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="373">
   <si>
     <t>Exp_collection</t>
   </si>
@@ -643,6 +637,79 @@
 40 mins 16 blocks</t>
   </si>
   <si>
+    <t>001 Rf mapping start at 14:34
+-8:2:8 2deg</t>
+  </si>
+  <si>
+    <t>003 RF mapping starts 14:45
+-1.5:0.75:1.5  0.75 deg</t>
+  </si>
+  <si>
+    <t>004 Generate Integrated 14:54
+Testing if we don't use baseline subtracted score, can we evolve faster.
+12 [-0.5 -0.8] 1  3 deg
+30 gens
+Finish in 16 mins  plateau around 16 gens! Grows super fast!
+Very successful!</t>
+  </si>
+  <si>
+    <t>005 Generate integrated 15:14
+12 [-0.5 -0.8] 1  3 deg   ZOHA_Sphere_lr_euclid
+Mu exponential decay from 50 deg to 7.33deg in 100 generations, learning rate 1.5
+Try out my new optimizer!
+Optimizer found gradient around 16-18 gens , grow featues to excite the plateau part of the image.
+Exploration get down to 32 deg at gen 24.
+Seems to surpass the performance of CMAES finally!</t>
+  </si>
+  <si>
+    <t>006 Generate integrated 15:40
+12 [-0.5 -0.8] 1  3 deg   ZOHA_Sphere_lr_euclid
+Mu exponential decay from 50 deg to 20 deg in 100 generations, learning rate 1.5
+See if larger exploration will result in different evolutions trajectory?
+Want to test if I decayed the learning rate too fast or too slow, because both could result in a slow optimization.
+See which part of the experiment does the firing rate grows the fastest! May be that is the right rate to go.
+Starts growing around gen 16-18, exploration = 41.5. At gen 23 the step between basis are 0.442.
+Close to 30 gens, still around 38.9 degree exploration.
+Seems the plateau around 150ms doesn't evolve successfully
+Starts growing the plateau around 32 gens.
+Obviously, the evolution is much less smooth than the last one! Many stagnant and coming in and out.
+Around 35 gens still 36.5 degrees.
+37 gens 35.8 degree,
+This is much slower than the 2nd, ZOHA Sphere_lr_euclide, and slower than the first CMA-ES,
+PSTH seems different from the last one, the gap between the 2 peaks are longer!
+At around 50 gens reached 450 just
+This schedule seems not very helpful……. Try others</t>
+  </si>
+  <si>
+    <t>007 Generate Integrated 16:12
+12 [-0.5 -0.8] 1  3 deg   ZOHA_Sphere_lr_euclid
+Mu exponential decay from 40 deg to 10 deg in 100 generations, learning rate 1.5
+See if smaller exploration will result in better evolutions trajectory?
+At gen 9, the exploration around 35.3 deg
+Speed of this optimizer is similar to CMAES! Grows super fast, Exploration range around 32.9 at 15gens.
+Perhaps exploration range around 30-35deg is the sweet spot?
+Reach 400 around 30 gens, similar PSTH.
+Faster than the last one. But curiously, the result doesn't look as</t>
+  </si>
+  <si>
+    <t>008 Generate Integrated 16:45
+64 [0 -2.1] 1  4deg  ZOHA_Sphere_lr_euclid
+Same learning rate scheduling with last experiment,
+Mu exponential decay from 40 deg to 10 deg in 100 generations, learning rate 1.5
+The firing rate PSTH is very sustained! Like square wave.
+Starts growing steadily from 5 gens.
+Grow not very fast. Starts to plateau around 20 gens.
+But the learning rate schedule tuned for</t>
+  </si>
+  <si>
+    <t>009 Generate Integrated 17:03
+64 [0 -2.1]  1 4deg  ZOHA_Sphere_lr_euclid
+Mu exponential decay from 40 deg to 5 deg in 100 generations, learning rate 1.5
+Faster decay to small learning rate, see how it goes!
+The result doesn't change significantly! Seems similar speed and result
+He is a very good boy today! Seems he can give me 20 gens for this</t>
+  </si>
+  <si>
     <t>Alfa64chan-19112019-009</t>
   </si>
   <si>
@@ -898,6 +965,30 @@
     <t>Alfa64chan-10032020-006</t>
   </si>
   <si>
+    <t>Alfa64chan-16032020-001</t>
+  </si>
+  <si>
+    <t>Alfa64chan-16032020-003</t>
+  </si>
+  <si>
+    <t>Alfa64chan-16032020-004</t>
+  </si>
+  <si>
+    <t>Alfa64chan-16032020-005</t>
+  </si>
+  <si>
+    <t>Alfa64chan-16032020-006</t>
+  </si>
+  <si>
+    <t>Alfa64chan-16032020-007</t>
+  </si>
+  <si>
+    <t>Alfa64chan-16032020-008</t>
+  </si>
+  <si>
+    <t>Alfa64chan-16032020-009</t>
+  </si>
+  <si>
     <t>191119_Alfa_generate_parallel(3)</t>
   </si>
   <si>
@@ -1153,6 +1244,30 @@
     <t>200310_Alfa_generate_integrated(4)</t>
   </si>
   <si>
+    <t>200316_Alfa_rfMapper_basic</t>
+  </si>
+  <si>
+    <t>200316_Alfa_rfMapper_basic(2)</t>
+  </si>
+  <si>
+    <t>200316_Alfa_generate_integrated(1)</t>
+  </si>
+  <si>
+    <t>200316_Alfa_generate_integrated(2)</t>
+  </si>
+  <si>
+    <t>200316_Alfa_generate_integrated(3)</t>
+  </si>
+  <si>
+    <t>200316_Alfa_generate_integrated(4)</t>
+  </si>
+  <si>
+    <t>200316_Alfa_generate_integrated(5)</t>
+  </si>
+  <si>
+    <t>200316_Alfa_generate_integrated(6)</t>
+  </si>
+  <si>
     <t>N:\Stimuli\2019-06-Evolutions\alfa-191119a</t>
   </si>
   <si>
@@ -1382,13 +1497,34 @@
   </si>
   <si>
     <t>N:\Stimuli\2019-12-Evolutions\2020-03-10-Alfa-04\2020-03-10-15-29-12</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-06-RF-mapping\2020-03-16-Alfa</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-03-16-Alfa-01\2020-03-16-14-54-33</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-03-16-Alfa-02\2020-03-16-15-14-25</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-03-16-Alfa-03\2020-03-16-15-40-58</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-03-16-Alfa-04\2020-03-16-16-12-37</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-03-16-Alfa-05\2020-03-16-16-45-43</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-03-16-Alfa-06\2020-03-16-17-03-32</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1447,23 +1583,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1505,7 +1633,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1537,27 +1665,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1589,24 +1699,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1782,21 +1874,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H86"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B87" sqref="B87"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="95.42578125" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" customWidth="1"/>
-    <col min="5" max="5" width="37.140625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1822,7 +1907,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1833,10 +1918,10 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E2" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="F2">
         <v>29</v>
@@ -1845,10 +1930,10 @@
         <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1859,10 +1944,10 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E3" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="F3">
         <v>29</v>
@@ -1871,7 +1956,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1882,10 +1967,10 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="E4" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="F4">
         <v>29</v>
@@ -1894,10 +1979,10 @@
         <v>4</v>
       </c>
       <c r="H4" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1908,10 +1993,10 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E5" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="F5">
         <v>29</v>
@@ -1920,10 +2005,10 @@
         <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1934,19 +2019,19 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E6" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="F6">
         <v>29</v>
       </c>
       <c r="H6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1957,10 +2042,10 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="E7" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="F7">
         <v>29</v>
@@ -1969,10 +2054,10 @@
         <v>4</v>
       </c>
       <c r="H7" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1983,10 +2068,10 @@
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E8" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="F8">
         <v>9</v>
@@ -1995,10 +2080,10 @@
         <v>3</v>
       </c>
       <c r="H8" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2009,10 +2094,10 @@
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E9" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="F9">
         <v>9</v>
@@ -2021,10 +2106,10 @@
         <v>3</v>
       </c>
       <c r="H9" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2035,10 +2120,10 @@
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="E10" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="F10">
         <v>9</v>
@@ -2047,10 +2132,10 @@
         <v>3</v>
       </c>
       <c r="H10" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -2061,10 +2146,10 @@
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E11" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="F11">
         <v>32</v>
@@ -2073,10 +2158,10 @@
         <v>3</v>
       </c>
       <c r="H11" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -2087,10 +2172,10 @@
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E12" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="F12">
         <v>32</v>
@@ -2099,10 +2184,10 @@
         <v>3</v>
       </c>
       <c r="H12" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -2113,10 +2198,10 @@
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E13" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="F13">
         <v>32</v>
@@ -2125,21 +2210,21 @@
         <v>3</v>
       </c>
       <c r="H13" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="C14" t="s">
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E14" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -2150,10 +2235,10 @@
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E15" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="F15">
         <v>3</v>
@@ -2162,10 +2247,10 @@
         <v>3</v>
       </c>
       <c r="H15" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -2176,10 +2261,10 @@
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E16" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="F16">
         <v>3</v>
@@ -2188,10 +2273,10 @@
         <v>3</v>
       </c>
       <c r="H16" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -2202,10 +2287,10 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E17" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="F17">
         <v>3</v>
@@ -2214,21 +2299,21 @@
         <v>3</v>
       </c>
       <c r="H17" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="C18" t="s">
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="E18" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -2239,10 +2324,10 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E19" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="F19">
         <v>7</v>
@@ -2251,10 +2336,10 @@
         <v>3</v>
       </c>
       <c r="H19" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -2265,10 +2350,10 @@
         <v>28</v>
       </c>
       <c r="D20" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="E20" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="F20">
         <v>7</v>
@@ -2277,10 +2362,10 @@
         <v>3</v>
       </c>
       <c r="H20" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -2291,10 +2376,10 @@
         <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="E21" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="F21">
         <v>7</v>
@@ -2303,66 +2388,66 @@
         <v>3</v>
       </c>
       <c r="H21" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="C22" t="s">
         <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E22" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="C23" t="s">
         <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="E23" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="G23">
         <v>3</v>
       </c>
       <c r="H23" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="C24" t="s">
         <v>32</v>
       </c>
       <c r="D24" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E24" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="G24">
         <v>4</v>
       </c>
       <c r="H24" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="C25" t="s">
         <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="E25" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -2373,10 +2458,10 @@
         <v>34</v>
       </c>
       <c r="D26" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E26" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="F26">
         <v>51</v>
@@ -2385,10 +2470,10 @@
         <v>3</v>
       </c>
       <c r="H26" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -2399,10 +2484,10 @@
         <v>35</v>
       </c>
       <c r="D27" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E27" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="F27">
         <v>51</v>
@@ -2411,10 +2496,10 @@
         <v>3</v>
       </c>
       <c r="H27" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -2425,10 +2510,10 @@
         <v>36</v>
       </c>
       <c r="D28" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E28" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="F28">
         <v>51</v>
@@ -2437,21 +2522,21 @@
         <v>3</v>
       </c>
       <c r="H28" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="C29" t="s">
         <v>37</v>
       </c>
       <c r="D29" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E29" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -2462,10 +2547,10 @@
         <v>38</v>
       </c>
       <c r="D30" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="E30" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="F30">
         <v>7</v>
@@ -2474,10 +2559,10 @@
         <v>3</v>
       </c>
       <c r="H30" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -2488,10 +2573,10 @@
         <v>39</v>
       </c>
       <c r="D31" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="E31" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="F31">
         <v>7</v>
@@ -2500,10 +2585,10 @@
         <v>3</v>
       </c>
       <c r="H31" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -2514,10 +2599,10 @@
         <v>40</v>
       </c>
       <c r="D32" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E32" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="F32">
         <v>7</v>
@@ -2526,21 +2611,21 @@
         <v>3</v>
       </c>
       <c r="H32" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="C33" t="s">
         <v>41</v>
       </c>
       <c r="D33" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E33" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -2551,10 +2636,10 @@
         <v>42</v>
       </c>
       <c r="D34" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="E34" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="F34">
         <v>7</v>
@@ -2563,10 +2648,10 @@
         <v>3</v>
       </c>
       <c r="H34" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -2577,10 +2662,10 @@
         <v>43</v>
       </c>
       <c r="D35" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="E35" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="F35">
         <v>7</v>
@@ -2589,10 +2674,10 @@
         <v>3</v>
       </c>
       <c r="H35" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -2603,10 +2688,10 @@
         <v>44</v>
       </c>
       <c r="D36" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E36" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="F36">
         <v>7</v>
@@ -2615,10 +2700,10 @@
         <v>3</v>
       </c>
       <c r="H36" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -2629,10 +2714,10 @@
         <v>45</v>
       </c>
       <c r="D37" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="E37" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="F37">
         <v>36</v>
@@ -2641,10 +2726,10 @@
         <v>3</v>
       </c>
       <c r="H37" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -2655,10 +2740,10 @@
         <v>46</v>
       </c>
       <c r="D38" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="E38" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="F38">
         <v>36</v>
@@ -2667,10 +2752,10 @@
         <v>3</v>
       </c>
       <c r="H38" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -2681,10 +2766,10 @@
         <v>47</v>
       </c>
       <c r="D39" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E39" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="F39">
         <v>35</v>
@@ -2693,10 +2778,10 @@
         <v>3</v>
       </c>
       <c r="H39" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -2707,10 +2792,10 @@
         <v>48</v>
       </c>
       <c r="D40" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="E40" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="F40">
         <v>35</v>
@@ -2719,10 +2804,10 @@
         <v>3</v>
       </c>
       <c r="H40" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -2733,10 +2818,10 @@
         <v>49</v>
       </c>
       <c r="D41" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E41" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="F41">
         <v>35</v>
@@ -2745,10 +2830,10 @@
         <v>3</v>
       </c>
       <c r="H41" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -2759,10 +2844,10 @@
         <v>50</v>
       </c>
       <c r="D42" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="E42" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="F42">
         <v>61</v>
@@ -2771,10 +2856,10 @@
         <v>3</v>
       </c>
       <c r="H42" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
         <v>8</v>
       </c>
@@ -2785,10 +2870,10 @@
         <v>51</v>
       </c>
       <c r="D43" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="E43" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="F43">
         <v>61</v>
@@ -2797,10 +2882,10 @@
         <v>3</v>
       </c>
       <c r="H43" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -2811,10 +2896,10 @@
         <v>52</v>
       </c>
       <c r="D44" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="E44" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="F44">
         <v>61</v>
@@ -2823,10 +2908,10 @@
         <v>3</v>
       </c>
       <c r="H44" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -2837,10 +2922,10 @@
         <v>53</v>
       </c>
       <c r="D45" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E45" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="F45">
         <v>33</v>
@@ -2849,10 +2934,10 @@
         <v>3</v>
       </c>
       <c r="H45" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -2863,10 +2948,10 @@
         <v>54</v>
       </c>
       <c r="D46" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="E46" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="F46">
         <v>33</v>
@@ -2875,10 +2960,10 @@
         <v>3</v>
       </c>
       <c r="H46" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -2889,10 +2974,10 @@
         <v>55</v>
       </c>
       <c r="D47" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E47" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="F47">
         <v>33</v>
@@ -2901,10 +2986,10 @@
         <v>3</v>
       </c>
       <c r="H47" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -2915,10 +3000,10 @@
         <v>56</v>
       </c>
       <c r="D48" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E48" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="F48">
         <v>43</v>
@@ -2927,10 +3012,10 @@
         <v>3</v>
       </c>
       <c r="H48" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -2941,10 +3026,10 @@
         <v>57</v>
       </c>
       <c r="D49" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E49" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="F49">
         <v>43</v>
@@ -2953,10 +3038,10 @@
         <v>3</v>
       </c>
       <c r="H49" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
         <v>8</v>
       </c>
@@ -2967,10 +3052,10 @@
         <v>58</v>
       </c>
       <c r="D50" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="E50" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="F50">
         <v>43</v>
@@ -2979,10 +3064,10 @@
         <v>3</v>
       </c>
       <c r="H50" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
         <v>8</v>
       </c>
@@ -2993,10 +3078,10 @@
         <v>59</v>
       </c>
       <c r="D51" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="E51" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="F51">
         <v>59</v>
@@ -3005,10 +3090,10 @@
         <v>3</v>
       </c>
       <c r="H51" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -3019,10 +3104,10 @@
         <v>60</v>
       </c>
       <c r="D52" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="E52" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="F52">
         <v>59</v>
@@ -3031,10 +3116,10 @@
         <v>3</v>
       </c>
       <c r="H52" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
         <v>8</v>
       </c>
@@ -3045,10 +3130,10 @@
         <v>61</v>
       </c>
       <c r="D53" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E53" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="F53">
         <v>59</v>
@@ -3057,10 +3142,10 @@
         <v>3</v>
       </c>
       <c r="H53" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -3071,10 +3156,10 @@
         <v>62</v>
       </c>
       <c r="D54" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E54" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="F54">
         <v>20</v>
@@ -3083,10 +3168,10 @@
         <v>3</v>
       </c>
       <c r="H54" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -3097,10 +3182,10 @@
         <v>63</v>
       </c>
       <c r="D55" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="E55" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="F55">
         <v>20</v>
@@ -3109,10 +3194,10 @@
         <v>3</v>
       </c>
       <c r="H55" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
         <v>8</v>
       </c>
@@ -3123,10 +3208,10 @@
         <v>64</v>
       </c>
       <c r="D56" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="E56" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="F56">
         <v>20</v>
@@ -3135,10 +3220,10 @@
         <v>3</v>
       </c>
       <c r="H56" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
         <v>8</v>
       </c>
@@ -3149,10 +3234,10 @@
         <v>65</v>
       </c>
       <c r="D57" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="E57" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="F57">
         <v>49</v>
@@ -3161,10 +3246,10 @@
         <v>3</v>
       </c>
       <c r="H57" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -3175,10 +3260,10 @@
         <v>66</v>
       </c>
       <c r="D58" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="E58" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="F58">
         <v>49</v>
@@ -3187,10 +3272,10 @@
         <v>3</v>
       </c>
       <c r="H58" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" t="s">
         <v>8</v>
       </c>
@@ -3201,10 +3286,10 @@
         <v>67</v>
       </c>
       <c r="D59" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="E59" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="F59">
         <v>49</v>
@@ -3213,10 +3298,10 @@
         <v>3</v>
       </c>
       <c r="H59" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" t="s">
         <v>8</v>
       </c>
@@ -3227,10 +3312,10 @@
         <v>68</v>
       </c>
       <c r="D60" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E60" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="F60">
         <v>19</v>
@@ -3239,10 +3324,10 @@
         <v>3</v>
       </c>
       <c r="H60" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" t="s">
         <v>8</v>
       </c>
@@ -3253,10 +3338,10 @@
         <v>69</v>
       </c>
       <c r="D61" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="E61" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="F61">
         <v>19</v>
@@ -3265,10 +3350,10 @@
         <v>3</v>
       </c>
       <c r="H61" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" t="s">
         <v>8</v>
       </c>
@@ -3279,10 +3364,10 @@
         <v>70</v>
       </c>
       <c r="D62" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="E62" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="F62">
         <v>19</v>
@@ -3291,10 +3376,10 @@
         <v>3</v>
       </c>
       <c r="H62" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" t="s">
         <v>8</v>
       </c>
@@ -3305,10 +3390,10 @@
         <v>71</v>
       </c>
       <c r="D63" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="E63" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="F63">
         <v>12</v>
@@ -3317,10 +3402,10 @@
         <v>3</v>
       </c>
       <c r="H63" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" t="s">
         <v>8</v>
       </c>
@@ -3331,10 +3416,10 @@
         <v>72</v>
       </c>
       <c r="D64" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E64" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="F64">
         <v>12</v>
@@ -3343,10 +3428,10 @@
         <v>3</v>
       </c>
       <c r="H64" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" t="s">
         <v>8</v>
       </c>
@@ -3357,10 +3442,10 @@
         <v>73</v>
       </c>
       <c r="D65" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="E65" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="F65">
         <v>12</v>
@@ -3369,10 +3454,10 @@
         <v>3</v>
       </c>
       <c r="H65" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" t="s">
         <v>8</v>
       </c>
@@ -3383,10 +3468,10 @@
         <v>74</v>
       </c>
       <c r="D66" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="E66" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="F66">
         <v>41</v>
@@ -3395,10 +3480,10 @@
         <v>3</v>
       </c>
       <c r="H66" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" t="s">
         <v>8</v>
       </c>
@@ -3409,10 +3494,10 @@
         <v>75</v>
       </c>
       <c r="D67" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="E67" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="F67">
         <v>41</v>
@@ -3421,10 +3506,10 @@
         <v>3</v>
       </c>
       <c r="H67" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" t="s">
         <v>8</v>
       </c>
@@ -3435,10 +3520,10 @@
         <v>76</v>
       </c>
       <c r="D68" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="E68" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="F68">
         <v>41</v>
@@ -3447,10 +3532,10 @@
         <v>3</v>
       </c>
       <c r="H68" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" t="s">
         <v>8</v>
       </c>
@@ -3461,10 +3546,10 @@
         <v>77</v>
       </c>
       <c r="D69" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="E69" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="F69">
         <v>63</v>
@@ -3473,10 +3558,10 @@
         <v>3</v>
       </c>
       <c r="H69" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" t="s">
         <v>8</v>
       </c>
@@ -3487,10 +3572,10 @@
         <v>78</v>
       </c>
       <c r="D70" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="E70" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="F70">
         <v>63</v>
@@ -3499,10 +3584,10 @@
         <v>3</v>
       </c>
       <c r="H70" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" t="s">
         <v>8</v>
       </c>
@@ -3513,10 +3598,10 @@
         <v>79</v>
       </c>
       <c r="D71" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="E71" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="F71">
         <v>63</v>
@@ -3525,10 +3610,10 @@
         <v>3</v>
       </c>
       <c r="H71" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" t="s">
         <v>8</v>
       </c>
@@ -3539,10 +3624,10 @@
         <v>80</v>
       </c>
       <c r="D72" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="E72" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="F72">
         <v>38</v>
@@ -3551,10 +3636,10 @@
         <v>3</v>
       </c>
       <c r="H72" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" t="s">
         <v>8</v>
       </c>
@@ -3565,10 +3650,10 @@
         <v>81</v>
       </c>
       <c r="D73" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="E73" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="F73">
         <v>38</v>
@@ -3577,10 +3662,10 @@
         <v>3</v>
       </c>
       <c r="H73" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" t="s">
         <v>8</v>
       </c>
@@ -3591,10 +3676,10 @@
         <v>82</v>
       </c>
       <c r="D74" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="E74" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="F74">
         <v>38</v>
@@ -3603,10 +3688,10 @@
         <v>3</v>
       </c>
       <c r="H74" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" t="s">
         <v>8</v>
       </c>
@@ -3617,10 +3702,10 @@
         <v>83</v>
       </c>
       <c r="D75" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="E75" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="F75">
         <v>39</v>
@@ -3629,10 +3714,10 @@
         <v>3</v>
       </c>
       <c r="H75" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" t="s">
         <v>8</v>
       </c>
@@ -3643,10 +3728,10 @@
         <v>84</v>
       </c>
       <c r="D76" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="E76" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="F76">
         <v>39</v>
@@ -3655,10 +3740,10 @@
         <v>3</v>
       </c>
       <c r="H76" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" t="s">
         <v>8</v>
       </c>
@@ -3669,10 +3754,10 @@
         <v>85</v>
       </c>
       <c r="D77" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="E77" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="F77">
         <v>39</v>
@@ -3681,10 +3766,10 @@
         <v>3</v>
       </c>
       <c r="H77" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" t="s">
         <v>8</v>
       </c>
@@ -3695,10 +3780,10 @@
         <v>86</v>
       </c>
       <c r="D78" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="E78" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="F78">
         <v>44</v>
@@ -3707,10 +3792,10 @@
         <v>3</v>
       </c>
       <c r="H78" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" t="s">
         <v>8</v>
       </c>
@@ -3721,10 +3806,10 @@
         <v>87</v>
       </c>
       <c r="D79" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="E79" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="F79">
         <v>44</v>
@@ -3733,10 +3818,10 @@
         <v>3</v>
       </c>
       <c r="H79" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" t="s">
         <v>8</v>
       </c>
@@ -3747,10 +3832,10 @@
         <v>88</v>
       </c>
       <c r="D80" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E80" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="F80">
         <v>44</v>
@@ -3759,10 +3844,10 @@
         <v>3</v>
       </c>
       <c r="H80" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" t="s">
         <v>9</v>
       </c>
@@ -3770,16 +3855,16 @@
         <v>89</v>
       </c>
       <c r="D81" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="E81" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="H81" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" t="s">
         <v>9</v>
       </c>
@@ -3787,16 +3872,16 @@
         <v>90</v>
       </c>
       <c r="D82" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="E82" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="H82" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" t="s">
         <v>9</v>
       </c>
@@ -3807,10 +3892,10 @@
         <v>91</v>
       </c>
       <c r="D83" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="E83" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="F83">
         <v>13</v>
@@ -3819,10 +3904,10 @@
         <v>3</v>
       </c>
       <c r="H83" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" t="s">
         <v>9</v>
       </c>
@@ -3833,10 +3918,10 @@
         <v>92</v>
       </c>
       <c r="D84" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="E84" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="F84">
         <v>28</v>
@@ -3845,10 +3930,10 @@
         <v>3</v>
       </c>
       <c r="H84" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" t="s">
         <v>9</v>
       </c>
@@ -3859,10 +3944,10 @@
         <v>93</v>
       </c>
       <c r="D85" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="E85" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="F85">
         <v>20</v>
@@ -3871,10 +3956,10 @@
         <v>5</v>
       </c>
       <c r="H85" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" t="s">
         <v>9</v>
       </c>
@@ -3885,10 +3970,10 @@
         <v>94</v>
       </c>
       <c r="D86" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="E86" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="F86">
         <v>48</v>
@@ -3897,7 +3982,143 @@
         <v>3</v>
       </c>
       <c r="H86" t="s">
-        <v>341</v>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87" t="s">
+        <v>95</v>
+      </c>
+      <c r="D87" t="s">
+        <v>188</v>
+      </c>
+      <c r="E87" t="s">
+        <v>281</v>
+      </c>
+      <c r="H87" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88" t="s">
+        <v>96</v>
+      </c>
+      <c r="D88" t="s">
+        <v>189</v>
+      </c>
+      <c r="E88" t="s">
+        <v>282</v>
+      </c>
+      <c r="H88" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89" t="s">
+        <v>97</v>
+      </c>
+      <c r="D89" t="s">
+        <v>190</v>
+      </c>
+      <c r="E89" t="s">
+        <v>283</v>
+      </c>
+      <c r="H89" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90" t="s">
+        <v>98</v>
+      </c>
+      <c r="D90" t="s">
+        <v>191</v>
+      </c>
+      <c r="E90" t="s">
+        <v>284</v>
+      </c>
+      <c r="H90" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91" t="s">
+        <v>99</v>
+      </c>
+      <c r="D91" t="s">
+        <v>192</v>
+      </c>
+      <c r="E91" t="s">
+        <v>285</v>
+      </c>
+      <c r="H91" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" t="s">
+        <v>9</v>
+      </c>
+      <c r="C92" t="s">
+        <v>100</v>
+      </c>
+      <c r="D92" t="s">
+        <v>193</v>
+      </c>
+      <c r="E92" t="s">
+        <v>286</v>
+      </c>
+      <c r="H92" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93" t="s">
+        <v>101</v>
+      </c>
+      <c r="D93" t="s">
+        <v>194</v>
+      </c>
+      <c r="E93" t="s">
+        <v>287</v>
+      </c>
+      <c r="H93" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" t="s">
+        <v>9</v>
+      </c>
+      <c r="C94" t="s">
+        <v>102</v>
+      </c>
+      <c r="D94" t="s">
+        <v>195</v>
+      </c>
+      <c r="E94" t="s">
+        <v>288</v>
+      </c>
+      <c r="H94" t="s">
+        <v>372</v>
       </c>
     </row>
   </sheetData>

--- a/Exp_Record_Alfa.xlsx
+++ b/Exp_Record_Alfa.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47027629-3A57-4635-8E84-1F50B36DB243}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="400">
   <si>
     <t>Exp_collection</t>
   </si>
@@ -710,6 +716,62 @@
 He is a very good boy today! Seems he can give me 20 gens for this</t>
   </si>
   <si>
+    <t>001 RF MAPPER start at 1:27
+2 degrees, looking at SU in ch. 3, very sparse…
+Doesn’t seen visually responsive, we will try bigger.
+Or ch 31. looks good
+5 blocks complete, at 132
+Completed</t>
+  </si>
+  <si>
+    <t>002 Rf mapper start at 1:35. 0.75 degrees
+5 complete stop at 1:38 ish
+Completed</t>
+  </si>
+  <si>
+    <t>003 Generate integrated start at 1:45
+Ch. 31, whole channel, just hash
+31 [0 -3.5]  4 1 'CMAES'
+Didn’t seem to go anywhere
+25 blocks complete stop at 159
+Completed</t>
+  </si>
+  <si>
+    <t>004 generate integrated start at 200
+Ch 21, whole ch, just hash seems responsive
+21 [0 -1.5] 4 1 'CMAES'
+Block 21, still looks to be climbing
+Stop at block 31, 2:18
+Completed</t>
+  </si>
+  <si>
+    <t>005 Start at 2:20
+Ch 21, whole ch, just hash seems responsive
+21 [0 -1.5] 4 1 'ZOHA_Sphere_euclid_lr'
+Mu exponential decay from 50 deg to 5 deg in 100 generations, learning rate 1.5
+Reward upped to 60
+Block 18, still climbing
+Stopped after 22 blocks, at 235
+Completed</t>
+  </si>
+  <si>
+    <t>006 start 2:40
+Ch 21
+21 [0 -1.5] 4 1 'ZOHA_Sphere_euclid_lr'
+Try the new Inverse function decay of mu! Decay from 70-20 degree.
+Evolution goes pretty well! Even better than the last 2 exponential decay ones.
+Was going to stop but looks like its still going
+Okay stopped at 258, 26 blocks
+Completed</t>
+  </si>
+  <si>
+    <t>007 start at 302
+Ch 21 [0 -1.5] 4 1 'ZOHA_Sphere_lr euclid_ReducDim'
+Exactly same setting with last one, just restricted to a 50D subspace!
+Starting to take breaks, upped reward to 160 +25
+Completed</t>
+  </si>
+  <si>
     <t>Alfa64chan-19112019-009</t>
   </si>
   <si>
@@ -989,6 +1051,27 @@
     <t>Alfa64chan-16032020-009</t>
   </si>
   <si>
+    <t>Alfa64chan-17032020-001</t>
+  </si>
+  <si>
+    <t>Alfa64chan-17032020-002</t>
+  </si>
+  <si>
+    <t>Alfa64chan-17032020-003</t>
+  </si>
+  <si>
+    <t>Alfa64chan-17032020-004</t>
+  </si>
+  <si>
+    <t>Alfa64chan-17032020-005</t>
+  </si>
+  <si>
+    <t>Alfa64chan-17032020-006</t>
+  </si>
+  <si>
+    <t>Alfa64chan-17032020-007</t>
+  </si>
+  <si>
     <t>191119_Alfa_generate_parallel(3)</t>
   </si>
   <si>
@@ -1268,6 +1351,27 @@
     <t>200316_Alfa_generate_integrated(6)</t>
   </si>
   <si>
+    <t>200317_Alfa_rfMapper_basic</t>
+  </si>
+  <si>
+    <t>200317_Alfa_rfMapper_basic(1)</t>
+  </si>
+  <si>
+    <t>200317_Alfa_generate_integrated(2)</t>
+  </si>
+  <si>
+    <t>200317_Alfa_generate_integrated(3)</t>
+  </si>
+  <si>
+    <t>200317_Alfa_generate_integrated(4)</t>
+  </si>
+  <si>
+    <t>200317_Alfa_generate_integrated(5)</t>
+  </si>
+  <si>
+    <t>200317_Alfa_generate_integrated(6)</t>
+  </si>
+  <si>
     <t>N:\Stimuli\2019-06-Evolutions\alfa-191119a</t>
   </si>
   <si>
@@ -1518,13 +1622,31 @@
   </si>
   <si>
     <t>N:\Stimuli\2019-12-Evolutions\2020-03-16-Alfa-06\2020-03-16-17-03-32</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-06-RF-mapping\2020-03-17-Alfa</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-03-17-Alfa-01\2020-03-17-13-45-34</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-03-17-Alfa-02\2020-03-17-14-00-43</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-03-17-Alfa-03\2020-03-17-14-20-53</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-03-17-Alfa-04\2020-03-17-14-40-02</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-03-17-Alfa-05\2020-03-17-15-01-44</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1583,15 +1705,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1633,7 +1763,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1665,9 +1795,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1699,6 +1847,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1874,14 +2040,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H94"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="I94" sqref="I94"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="92.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1907,7 +2078,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1918,10 +2089,10 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="E2" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="F2">
         <v>29</v>
@@ -1930,10 +2101,10 @@
         <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1944,10 +2115,10 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E3" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="F3">
         <v>29</v>
@@ -1956,7 +2127,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1967,10 +2138,10 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E4" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="F4">
         <v>29</v>
@@ -1979,10 +2150,10 @@
         <v>4</v>
       </c>
       <c r="H4" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1993,10 +2164,10 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="E5" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="F5">
         <v>29</v>
@@ -2005,10 +2176,10 @@
         <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2019,19 +2190,19 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E6" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="F6">
         <v>29</v>
       </c>
       <c r="H6" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2042,10 +2213,10 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E7" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="F7">
         <v>29</v>
@@ -2054,10 +2225,10 @@
         <v>4</v>
       </c>
       <c r="H7" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -2068,10 +2239,10 @@
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="E8" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F8">
         <v>9</v>
@@ -2080,10 +2251,10 @@
         <v>3</v>
       </c>
       <c r="H8" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2094,10 +2265,10 @@
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="E9" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="F9">
         <v>9</v>
@@ -2106,10 +2277,10 @@
         <v>3</v>
       </c>
       <c r="H9" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2120,10 +2291,10 @@
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E10" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="F10">
         <v>9</v>
@@ -2132,10 +2303,10 @@
         <v>3</v>
       </c>
       <c r="H10" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -2146,10 +2317,10 @@
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="E11" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="F11">
         <v>32</v>
@@ -2158,10 +2329,10 @@
         <v>3</v>
       </c>
       <c r="H11" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -2172,10 +2343,10 @@
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E12" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="F12">
         <v>32</v>
@@ -2184,10 +2355,10 @@
         <v>3</v>
       </c>
       <c r="H12" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -2198,10 +2369,10 @@
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E13" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="F13">
         <v>32</v>
@@ -2210,21 +2381,21 @@
         <v>3</v>
       </c>
       <c r="H13" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="E14" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -2235,10 +2406,10 @@
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="E15" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="F15">
         <v>3</v>
@@ -2247,10 +2418,10 @@
         <v>3</v>
       </c>
       <c r="H15" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -2261,10 +2432,10 @@
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="E16" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="F16">
         <v>3</v>
@@ -2273,10 +2444,10 @@
         <v>3</v>
       </c>
       <c r="H16" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -2287,10 +2458,10 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="E17" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="F17">
         <v>3</v>
@@ -2299,21 +2470,21 @@
         <v>3</v>
       </c>
       <c r="H17" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E18" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -2324,10 +2495,10 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E19" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="F19">
         <v>7</v>
@@ -2336,10 +2507,10 @@
         <v>3</v>
       </c>
       <c r="H19" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -2350,10 +2521,10 @@
         <v>28</v>
       </c>
       <c r="D20" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="E20" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="F20">
         <v>7</v>
@@ -2362,10 +2533,10 @@
         <v>3</v>
       </c>
       <c r="H20" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -2376,10 +2547,10 @@
         <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E21" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="F21">
         <v>7</v>
@@ -2388,66 +2559,66 @@
         <v>3</v>
       </c>
       <c r="H21" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E22" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E23" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="G23">
         <v>3</v>
       </c>
       <c r="H23" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>32</v>
       </c>
       <c r="D24" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E24" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="G24">
         <v>4</v>
       </c>
       <c r="H24" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E25" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -2458,10 +2629,10 @@
         <v>34</v>
       </c>
       <c r="D26" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E26" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="F26">
         <v>51</v>
@@ -2470,10 +2641,10 @@
         <v>3</v>
       </c>
       <c r="H26" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -2484,10 +2655,10 @@
         <v>35</v>
       </c>
       <c r="D27" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="E27" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="F27">
         <v>51</v>
@@ -2496,10 +2667,10 @@
         <v>3</v>
       </c>
       <c r="H27" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -2510,10 +2681,10 @@
         <v>36</v>
       </c>
       <c r="D28" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="E28" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="F28">
         <v>51</v>
@@ -2522,21 +2693,21 @@
         <v>3</v>
       </c>
       <c r="H28" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>37</v>
       </c>
       <c r="D29" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="E29" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -2547,10 +2718,10 @@
         <v>38</v>
       </c>
       <c r="D30" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="E30" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="F30">
         <v>7</v>
@@ -2559,10 +2730,10 @@
         <v>3</v>
       </c>
       <c r="H30" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -2573,10 +2744,10 @@
         <v>39</v>
       </c>
       <c r="D31" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E31" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="F31">
         <v>7</v>
@@ -2585,10 +2756,10 @@
         <v>3</v>
       </c>
       <c r="H31" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -2599,10 +2770,10 @@
         <v>40</v>
       </c>
       <c r="D32" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="E32" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="F32">
         <v>7</v>
@@ -2611,21 +2782,21 @@
         <v>3</v>
       </c>
       <c r="H32" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>41</v>
       </c>
       <c r="D33" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E33" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -2636,10 +2807,10 @@
         <v>42</v>
       </c>
       <c r="D34" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="E34" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="F34">
         <v>7</v>
@@ -2648,10 +2819,10 @@
         <v>3</v>
       </c>
       <c r="H34" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -2662,10 +2833,10 @@
         <v>43</v>
       </c>
       <c r="D35" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="E35" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="F35">
         <v>7</v>
@@ -2674,10 +2845,10 @@
         <v>3</v>
       </c>
       <c r="H35" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -2688,10 +2859,10 @@
         <v>44</v>
       </c>
       <c r="D36" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="E36" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="F36">
         <v>7</v>
@@ -2700,10 +2871,10 @@
         <v>3</v>
       </c>
       <c r="H36" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -2714,10 +2885,10 @@
         <v>45</v>
       </c>
       <c r="D37" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E37" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="F37">
         <v>36</v>
@@ -2726,10 +2897,10 @@
         <v>3</v>
       </c>
       <c r="H37" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -2740,10 +2911,10 @@
         <v>46</v>
       </c>
       <c r="D38" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="E38" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="F38">
         <v>36</v>
@@ -2752,10 +2923,10 @@
         <v>3</v>
       </c>
       <c r="H38" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -2766,10 +2937,10 @@
         <v>47</v>
       </c>
       <c r="D39" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E39" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="F39">
         <v>35</v>
@@ -2778,10 +2949,10 @@
         <v>3</v>
       </c>
       <c r="H39" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -2792,10 +2963,10 @@
         <v>48</v>
       </c>
       <c r="D40" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="E40" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="F40">
         <v>35</v>
@@ -2804,10 +2975,10 @@
         <v>3</v>
       </c>
       <c r="H40" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -2818,10 +2989,10 @@
         <v>49</v>
       </c>
       <c r="D41" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E41" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="F41">
         <v>35</v>
@@ -2830,10 +3001,10 @@
         <v>3</v>
       </c>
       <c r="H41" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -2844,10 +3015,10 @@
         <v>50</v>
       </c>
       <c r="D42" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="E42" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="F42">
         <v>61</v>
@@ -2856,10 +3027,10 @@
         <v>3</v>
       </c>
       <c r="H42" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>8</v>
       </c>
@@ -2870,10 +3041,10 @@
         <v>51</v>
       </c>
       <c r="D43" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E43" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="F43">
         <v>61</v>
@@ -2882,10 +3053,10 @@
         <v>3</v>
       </c>
       <c r="H43" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -2896,10 +3067,10 @@
         <v>52</v>
       </c>
       <c r="D44" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="E44" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="F44">
         <v>61</v>
@@ -2908,10 +3079,10 @@
         <v>3</v>
       </c>
       <c r="H44" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -2922,10 +3093,10 @@
         <v>53</v>
       </c>
       <c r="D45" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E45" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="F45">
         <v>33</v>
@@ -2934,10 +3105,10 @@
         <v>3</v>
       </c>
       <c r="H45" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -2948,10 +3119,10 @@
         <v>54</v>
       </c>
       <c r="D46" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E46" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="F46">
         <v>33</v>
@@ -2960,10 +3131,10 @@
         <v>3</v>
       </c>
       <c r="H46" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -2974,10 +3145,10 @@
         <v>55</v>
       </c>
       <c r="D47" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E47" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="F47">
         <v>33</v>
@@ -2986,10 +3157,10 @@
         <v>3</v>
       </c>
       <c r="H47" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -3000,10 +3171,10 @@
         <v>56</v>
       </c>
       <c r="D48" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="E48" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="F48">
         <v>43</v>
@@ -3012,10 +3183,10 @@
         <v>3</v>
       </c>
       <c r="H48" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -3026,10 +3197,10 @@
         <v>57</v>
       </c>
       <c r="D49" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E49" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="F49">
         <v>43</v>
@@ -3038,10 +3209,10 @@
         <v>3</v>
       </c>
       <c r="H49" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>8</v>
       </c>
@@ -3052,10 +3223,10 @@
         <v>58</v>
       </c>
       <c r="D50" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="E50" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="F50">
         <v>43</v>
@@ -3064,10 +3235,10 @@
         <v>3</v>
       </c>
       <c r="H50" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>8</v>
       </c>
@@ -3078,10 +3249,10 @@
         <v>59</v>
       </c>
       <c r="D51" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="E51" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="F51">
         <v>59</v>
@@ -3090,10 +3261,10 @@
         <v>3</v>
       </c>
       <c r="H51" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -3104,10 +3275,10 @@
         <v>60</v>
       </c>
       <c r="D52" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E52" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="F52">
         <v>59</v>
@@ -3116,10 +3287,10 @@
         <v>3</v>
       </c>
       <c r="H52" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>8</v>
       </c>
@@ -3130,10 +3301,10 @@
         <v>61</v>
       </c>
       <c r="D53" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E53" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="F53">
         <v>59</v>
@@ -3142,10 +3313,10 @@
         <v>3</v>
       </c>
       <c r="H53" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -3156,10 +3327,10 @@
         <v>62</v>
       </c>
       <c r="D54" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="E54" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="F54">
         <v>20</v>
@@ -3168,10 +3339,10 @@
         <v>3</v>
       </c>
       <c r="H54" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -3182,10 +3353,10 @@
         <v>63</v>
       </c>
       <c r="D55" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="E55" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="F55">
         <v>20</v>
@@ -3194,10 +3365,10 @@
         <v>3</v>
       </c>
       <c r="H55" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>8</v>
       </c>
@@ -3208,10 +3379,10 @@
         <v>64</v>
       </c>
       <c r="D56" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="E56" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="F56">
         <v>20</v>
@@ -3220,10 +3391,10 @@
         <v>3</v>
       </c>
       <c r="H56" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>8</v>
       </c>
@@ -3234,10 +3405,10 @@
         <v>65</v>
       </c>
       <c r="D57" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="E57" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="F57">
         <v>49</v>
@@ -3246,10 +3417,10 @@
         <v>3</v>
       </c>
       <c r="H57" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -3260,10 +3431,10 @@
         <v>66</v>
       </c>
       <c r="D58" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="E58" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="F58">
         <v>49</v>
@@ -3272,10 +3443,10 @@
         <v>3</v>
       </c>
       <c r="H58" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>8</v>
       </c>
@@ -3286,10 +3457,10 @@
         <v>67</v>
       </c>
       <c r="D59" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E59" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="F59">
         <v>49</v>
@@ -3298,10 +3469,10 @@
         <v>3</v>
       </c>
       <c r="H59" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>8</v>
       </c>
@@ -3312,10 +3483,10 @@
         <v>68</v>
       </c>
       <c r="D60" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="E60" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="F60">
         <v>19</v>
@@ -3324,10 +3495,10 @@
         <v>3</v>
       </c>
       <c r="H60" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>8</v>
       </c>
@@ -3338,10 +3509,10 @@
         <v>69</v>
       </c>
       <c r="D61" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="E61" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="F61">
         <v>19</v>
@@ -3350,10 +3521,10 @@
         <v>3</v>
       </c>
       <c r="H61" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>8</v>
       </c>
@@ -3364,10 +3535,10 @@
         <v>70</v>
       </c>
       <c r="D62" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="E62" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="F62">
         <v>19</v>
@@ -3376,10 +3547,10 @@
         <v>3</v>
       </c>
       <c r="H62" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>8</v>
       </c>
@@ -3390,10 +3561,10 @@
         <v>71</v>
       </c>
       <c r="D63" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="E63" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="F63">
         <v>12</v>
@@ -3402,10 +3573,10 @@
         <v>3</v>
       </c>
       <c r="H63" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>8</v>
       </c>
@@ -3416,10 +3587,10 @@
         <v>72</v>
       </c>
       <c r="D64" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="E64" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="F64">
         <v>12</v>
@@ -3428,10 +3599,10 @@
         <v>3</v>
       </c>
       <c r="H64" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>8</v>
       </c>
@@ -3442,10 +3613,10 @@
         <v>73</v>
       </c>
       <c r="D65" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E65" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="F65">
         <v>12</v>
@@ -3454,10 +3625,10 @@
         <v>3</v>
       </c>
       <c r="H65" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>8</v>
       </c>
@@ -3468,10 +3639,10 @@
         <v>74</v>
       </c>
       <c r="D66" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="E66" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="F66">
         <v>41</v>
@@ -3480,10 +3651,10 @@
         <v>3</v>
       </c>
       <c r="H66" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>8</v>
       </c>
@@ -3494,10 +3665,10 @@
         <v>75</v>
       </c>
       <c r="D67" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="E67" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="F67">
         <v>41</v>
@@ -3506,10 +3677,10 @@
         <v>3</v>
       </c>
       <c r="H67" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>8</v>
       </c>
@@ -3520,10 +3691,10 @@
         <v>76</v>
       </c>
       <c r="D68" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="E68" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="F68">
         <v>41</v>
@@ -3532,10 +3703,10 @@
         <v>3</v>
       </c>
       <c r="H68" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>8</v>
       </c>
@@ -3546,10 +3717,10 @@
         <v>77</v>
       </c>
       <c r="D69" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="E69" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="F69">
         <v>63</v>
@@ -3558,10 +3729,10 @@
         <v>3</v>
       </c>
       <c r="H69" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>8</v>
       </c>
@@ -3572,10 +3743,10 @@
         <v>78</v>
       </c>
       <c r="D70" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="E70" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="F70">
         <v>63</v>
@@ -3584,10 +3755,10 @@
         <v>3</v>
       </c>
       <c r="H70" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>8</v>
       </c>
@@ -3598,10 +3769,10 @@
         <v>79</v>
       </c>
       <c r="D71" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="E71" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F71">
         <v>63</v>
@@ -3610,10 +3781,10 @@
         <v>3</v>
       </c>
       <c r="H71" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>8</v>
       </c>
@@ -3624,10 +3795,10 @@
         <v>80</v>
       </c>
       <c r="D72" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="E72" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="F72">
         <v>38</v>
@@ -3636,10 +3807,10 @@
         <v>3</v>
       </c>
       <c r="H72" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>8</v>
       </c>
@@ -3650,10 +3821,10 @@
         <v>81</v>
       </c>
       <c r="D73" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="E73" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="F73">
         <v>38</v>
@@ -3662,10 +3833,10 @@
         <v>3</v>
       </c>
       <c r="H73" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>8</v>
       </c>
@@ -3676,10 +3847,10 @@
         <v>82</v>
       </c>
       <c r="D74" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="E74" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="F74">
         <v>38</v>
@@ -3688,10 +3859,10 @@
         <v>3</v>
       </c>
       <c r="H74" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>8</v>
       </c>
@@ -3702,10 +3873,10 @@
         <v>83</v>
       </c>
       <c r="D75" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="E75" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="F75">
         <v>39</v>
@@ -3714,10 +3885,10 @@
         <v>3</v>
       </c>
       <c r="H75" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>8</v>
       </c>
@@ -3728,10 +3899,10 @@
         <v>84</v>
       </c>
       <c r="D76" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="E76" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="F76">
         <v>39</v>
@@ -3740,10 +3911,10 @@
         <v>3</v>
       </c>
       <c r="H76" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>8</v>
       </c>
@@ -3754,10 +3925,10 @@
         <v>85</v>
       </c>
       <c r="D77" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="E77" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="F77">
         <v>39</v>
@@ -3766,10 +3937,10 @@
         <v>3</v>
       </c>
       <c r="H77" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>8</v>
       </c>
@@ -3780,10 +3951,10 @@
         <v>86</v>
       </c>
       <c r="D78" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="E78" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="F78">
         <v>44</v>
@@ -3792,10 +3963,10 @@
         <v>3</v>
       </c>
       <c r="H78" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>8</v>
       </c>
@@ -3806,10 +3977,10 @@
         <v>87</v>
       </c>
       <c r="D79" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="E79" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="F79">
         <v>44</v>
@@ -3818,10 +3989,10 @@
         <v>3</v>
       </c>
       <c r="H79" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>8</v>
       </c>
@@ -3832,10 +4003,10 @@
         <v>88</v>
       </c>
       <c r="D80" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="E80" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="F80">
         <v>44</v>
@@ -3844,10 +4015,10 @@
         <v>3</v>
       </c>
       <c r="H80" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>9</v>
       </c>
@@ -3855,16 +4026,16 @@
         <v>89</v>
       </c>
       <c r="D81" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="E81" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="H81" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>9</v>
       </c>
@@ -3872,16 +4043,16 @@
         <v>90</v>
       </c>
       <c r="D82" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="E82" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="H82" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>9</v>
       </c>
@@ -3892,10 +4063,10 @@
         <v>91</v>
       </c>
       <c r="D83" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="E83" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="F83">
         <v>13</v>
@@ -3904,10 +4075,10 @@
         <v>3</v>
       </c>
       <c r="H83" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>9</v>
       </c>
@@ -3918,10 +4089,10 @@
         <v>92</v>
       </c>
       <c r="D84" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="E84" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="F84">
         <v>28</v>
@@ -3930,10 +4101,10 @@
         <v>3</v>
       </c>
       <c r="H84" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>9</v>
       </c>
@@ -3944,10 +4115,10 @@
         <v>93</v>
       </c>
       <c r="D85" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="E85" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="F85">
         <v>20</v>
@@ -3956,10 +4127,10 @@
         <v>5</v>
       </c>
       <c r="H85" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>9</v>
       </c>
@@ -3970,10 +4141,10 @@
         <v>94</v>
       </c>
       <c r="D86" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="E86" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="F86">
         <v>48</v>
@@ -3982,10 +4153,10 @@
         <v>3</v>
       </c>
       <c r="H86" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>9</v>
       </c>
@@ -3993,16 +4164,16 @@
         <v>95</v>
       </c>
       <c r="D87" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="E87" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="H87" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>9</v>
       </c>
@@ -4010,115 +4181,333 @@
         <v>96</v>
       </c>
       <c r="D88" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="E88" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="H88" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>9</v>
       </c>
+      <c r="B89">
+        <v>5</v>
+      </c>
       <c r="C89" t="s">
         <v>97</v>
       </c>
       <c r="D89" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="E89" t="s">
-        <v>283</v>
+        <v>297</v>
+      </c>
+      <c r="F89">
+        <v>12</v>
+      </c>
+      <c r="G89">
+        <v>3</v>
       </c>
       <c r="H89" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>9</v>
       </c>
+      <c r="B90">
+        <v>6</v>
+      </c>
       <c r="C90" t="s">
         <v>98</v>
       </c>
       <c r="D90" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="E90" t="s">
-        <v>284</v>
+        <v>298</v>
+      </c>
+      <c r="F90">
+        <v>12</v>
+      </c>
+      <c r="G90">
+        <v>3</v>
       </c>
       <c r="H90" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>9</v>
       </c>
+      <c r="B91">
+        <v>7</v>
+      </c>
       <c r="C91" t="s">
         <v>99</v>
       </c>
       <c r="D91" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="E91" t="s">
-        <v>285</v>
+        <v>299</v>
+      </c>
+      <c r="F91">
+        <v>12</v>
+      </c>
+      <c r="G91">
+        <v>3</v>
       </c>
       <c r="H91" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>9</v>
       </c>
+      <c r="B92">
+        <v>8</v>
+      </c>
       <c r="C92" t="s">
         <v>100</v>
       </c>
       <c r="D92" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="E92" t="s">
-        <v>286</v>
+        <v>300</v>
+      </c>
+      <c r="F92">
+        <v>12</v>
+      </c>
+      <c r="G92">
+        <v>3</v>
       </c>
       <c r="H92" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>9</v>
       </c>
+      <c r="B93">
+        <v>9</v>
+      </c>
       <c r="C93" t="s">
         <v>101</v>
       </c>
       <c r="D93" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="E93" t="s">
-        <v>287</v>
+        <v>301</v>
+      </c>
+      <c r="F93">
+        <v>64</v>
+      </c>
+      <c r="G93">
+        <v>4</v>
       </c>
       <c r="H93" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>9</v>
       </c>
+      <c r="B94">
+        <v>10</v>
+      </c>
       <c r="C94" t="s">
         <v>102</v>
       </c>
       <c r="D94" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="E94" t="s">
-        <v>288</v>
+        <v>302</v>
+      </c>
+      <c r="F94">
+        <v>64</v>
+      </c>
+      <c r="G94">
+        <v>4</v>
       </c>
       <c r="H94" t="s">
-        <v>372</v>
+        <v>393</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>9</v>
+      </c>
+      <c r="C95" t="s">
+        <v>103</v>
+      </c>
+      <c r="D95" t="s">
+        <v>203</v>
+      </c>
+      <c r="E95" t="s">
+        <v>303</v>
+      </c>
+      <c r="H95" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>9</v>
+      </c>
+      <c r="C96" t="s">
+        <v>104</v>
+      </c>
+      <c r="D96" t="s">
+        <v>204</v>
+      </c>
+      <c r="E96" t="s">
+        <v>304</v>
+      </c>
+      <c r="H96" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>9</v>
+      </c>
+      <c r="B97">
+        <v>11</v>
+      </c>
+      <c r="C97" t="s">
+        <v>105</v>
+      </c>
+      <c r="D97" t="s">
+        <v>205</v>
+      </c>
+      <c r="E97" t="s">
+        <v>305</v>
+      </c>
+      <c r="F97">
+        <v>31</v>
+      </c>
+      <c r="G97">
+        <v>4</v>
+      </c>
+      <c r="H97" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>9</v>
+      </c>
+      <c r="B98">
+        <v>12</v>
+      </c>
+      <c r="C98" t="s">
+        <v>106</v>
+      </c>
+      <c r="D98" t="s">
+        <v>206</v>
+      </c>
+      <c r="E98" t="s">
+        <v>306</v>
+      </c>
+      <c r="F98">
+        <v>21</v>
+      </c>
+      <c r="G98">
+        <v>4</v>
+      </c>
+      <c r="H98" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>9</v>
+      </c>
+      <c r="B99">
+        <v>13</v>
+      </c>
+      <c r="C99" t="s">
+        <v>107</v>
+      </c>
+      <c r="D99" t="s">
+        <v>207</v>
+      </c>
+      <c r="E99" t="s">
+        <v>307</v>
+      </c>
+      <c r="F99">
+        <v>21</v>
+      </c>
+      <c r="G99">
+        <v>4</v>
+      </c>
+      <c r="H99" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>9</v>
+      </c>
+      <c r="B100">
+        <v>14</v>
+      </c>
+      <c r="C100" t="s">
+        <v>108</v>
+      </c>
+      <c r="D100" t="s">
+        <v>208</v>
+      </c>
+      <c r="E100" t="s">
+        <v>308</v>
+      </c>
+      <c r="F100">
+        <v>21</v>
+      </c>
+      <c r="G100">
+        <v>4</v>
+      </c>
+      <c r="H100" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>9</v>
+      </c>
+      <c r="B101">
+        <v>15</v>
+      </c>
+      <c r="C101" t="s">
+        <v>109</v>
+      </c>
+      <c r="D101" t="s">
+        <v>209</v>
+      </c>
+      <c r="E101" t="s">
+        <v>309</v>
+      </c>
+      <c r="F101">
+        <v>21</v>
+      </c>
+      <c r="G101">
+        <v>4</v>
+      </c>
+      <c r="H101" t="s">
+        <v>399</v>
       </c>
     </row>
   </sheetData>

--- a/Exp_Record_Alfa.xlsx
+++ b/Exp_Record_Alfa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47027629-3A57-4635-8E84-1F50B36DB243}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6604E2BA-1D71-440C-B89F-6F541440233B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="428">
   <si>
     <t>Exp_collection</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>Optim_tuning</t>
+  </si>
+  <si>
+    <t>ReducDimen_Evol</t>
   </si>
   <si>
     <t>Ch 29. SU [-0.5 -1.7] 4 1.
@@ -772,6 +775,54 @@
 Completed</t>
   </si>
   <si>
+    <t>001 Rf mapper 8, [8 8] start at 1:06
+10 blocks complete, stop at 1:08</t>
+  </si>
+  <si>
+    <t>002 Rf mapper
+002 2 [8 8] start at 1:10
+Ch 1, very sparse, tiny rf field
+Ch 24, looks pretty good
+5 blocks comple, stop at 1:14</t>
+  </si>
+  <si>
+    <t>003 Generate integrated ch 30, hash, start at 1:22
+30 [0, -1.5] 3 1 'ZOHA_Sphere_lr euclid'
+30 [0, -1.5]  3 1 'ZOHA_Sphere_lr euclid_ReducDim'
+25 blocks complete, stop at 145</t>
+  </si>
+  <si>
+    <t>004 Same thing over again, start 1:46
+30 [0, -1.5] 3 1 'ZOHA_Sphere_lr euclid'
+30 [0, -1.5]  3 1 'ZOHA_Sphere_lr euclid_ReducDim'
+Stop after 27 blocks, 2:10</t>
+  </si>
+  <si>
+    <t>005 Generate integrated ch 58, whole hash
+58 [-0.7, -2] 4 1 'ZOHA_Sphere_lr euclid'
+58 [-0.7, -2]  4 1 'ZOHA_Sphere_lr euclid_ReducDim'
+We are doing the whole channel this time, but may be able to separate a SU out, try that next
+Stayed above natural images but never took off
+Going to block 20, then grab SU and try again
+19 blocks complete stop at 232</t>
+  </si>
+  <si>
+    <t>006 generate integrated ch 58, SU
+58 [-0.7, -2] 4 1 'ZOHA_Sphere_lr euclid'
+58 [-0.7, -2]  4 1 'ZOHA_Sphere_lr euclid_ReducDim'
+Looking good, climbing already at block 3
+Block 14, still slowly climbing.
+complete</t>
+  </si>
+  <si>
+    <t>007 generate integrated, ch 34 hash
+34 [0 0 ] 3 1 'ZOHA_Sphere_lr euclid'
+34  [0 0]  3 1 'ZOHA_Sphere_lr euclid_ReducDim'
+Reward at 200 plus 35 aq reward
+Will take forever…… finish him….
+8 blocks in 26 mins.</t>
+  </si>
+  <si>
     <t>Alfa64chan-19112019-009</t>
   </si>
   <si>
@@ -1072,6 +1123,27 @@
     <t>Alfa64chan-17032020-007</t>
   </si>
   <si>
+    <t>Alfa64chan-18032020-001</t>
+  </si>
+  <si>
+    <t>Alfa64chan-18032020-002</t>
+  </si>
+  <si>
+    <t>Alfa64chan-18032020-003</t>
+  </si>
+  <si>
+    <t>Alfa64chan-18032020-004</t>
+  </si>
+  <si>
+    <t>Alfa64chan-18032020-005</t>
+  </si>
+  <si>
+    <t>Alfa64chan-18032020-006</t>
+  </si>
+  <si>
+    <t>Alfa64chan-18032020-007</t>
+  </si>
+  <si>
     <t>191119_Alfa_generate_parallel(3)</t>
   </si>
   <si>
@@ -1372,6 +1444,27 @@
     <t>200317_Alfa_generate_integrated(6)</t>
   </si>
   <si>
+    <t>200318_Alfa_rfMapper_basic</t>
+  </si>
+  <si>
+    <t>200318_Alfa_rfMapper_basic(1)</t>
+  </si>
+  <si>
+    <t>200318_Alfa_generate_integrated</t>
+  </si>
+  <si>
+    <t>200318_Alfa_generate_integrated(1)</t>
+  </si>
+  <si>
+    <t>200318_Alfa_generate_integrated(2)</t>
+  </si>
+  <si>
+    <t>200318_Alfa_generate_integrated(3)</t>
+  </si>
+  <si>
+    <t>200318_Alfa_generate_integrated(4)</t>
+  </si>
+  <si>
     <t>N:\Stimuli\2019-06-Evolutions\alfa-191119a</t>
   </si>
   <si>
@@ -1640,6 +1733,24 @@
   </si>
   <si>
     <t>N:\Stimuli\2019-12-Evolutions\2020-03-17-Alfa-05\2020-03-17-15-01-44</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-06-RF-mapping\2020-03-18-Alfa</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-03-18-Alfa-01\2020-03-18-13-22-32</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-03-18-Alfa-02\2020-03-18-13-46-41</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-03-18-Alfa-03\2020-03-18-14-14-54</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-03-18-Alfa-04\2020-03-18-14-33-33</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-03-18-Alfa-05\2020-03-18-15-06-03</t>
   </si>
 </sst>
 </file>
@@ -2041,16 +2152,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:H108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="I94" sqref="I94"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="U90" sqref="U90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="92.85546875" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -2086,13 +2194,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E2" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="F2">
         <v>29</v>
@@ -2101,7 +2209,7 @@
         <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>310</v>
+        <v>332</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -2112,13 +2220,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="E3" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="F3">
         <v>29</v>
@@ -2135,13 +2243,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E4" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="F4">
         <v>29</v>
@@ -2150,7 +2258,7 @@
         <v>4</v>
       </c>
       <c r="H4" t="s">
-        <v>311</v>
+        <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2161,13 +2269,13 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="E5" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="F5">
         <v>29</v>
@@ -2176,7 +2284,7 @@
         <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>312</v>
+        <v>334</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2187,19 +2295,19 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="E6" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="F6">
         <v>29</v>
       </c>
       <c r="H6" t="s">
-        <v>313</v>
+        <v>335</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -2210,13 +2318,13 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E7" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="F7">
         <v>29</v>
@@ -2225,7 +2333,7 @@
         <v>4</v>
       </c>
       <c r="H7" t="s">
-        <v>314</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2236,13 +2344,13 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="E8" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="F8">
         <v>9</v>
@@ -2251,7 +2359,7 @@
         <v>3</v>
       </c>
       <c r="H8" t="s">
-        <v>315</v>
+        <v>337</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -2262,13 +2370,13 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E9" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="F9">
         <v>9</v>
@@ -2277,7 +2385,7 @@
         <v>3</v>
       </c>
       <c r="H9" t="s">
-        <v>316</v>
+        <v>338</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -2288,13 +2396,13 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="E10" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="F10">
         <v>9</v>
@@ -2303,7 +2411,7 @@
         <v>3</v>
       </c>
       <c r="H10" t="s">
-        <v>317</v>
+        <v>339</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -2314,13 +2422,13 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E11" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="F11">
         <v>32</v>
@@ -2329,7 +2437,7 @@
         <v>3</v>
       </c>
       <c r="H11" t="s">
-        <v>318</v>
+        <v>340</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -2340,13 +2448,13 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E12" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="F12">
         <v>32</v>
@@ -2355,7 +2463,7 @@
         <v>3</v>
       </c>
       <c r="H12" t="s">
-        <v>319</v>
+        <v>341</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -2366,13 +2474,13 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E13" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="F13">
         <v>32</v>
@@ -2381,18 +2489,18 @@
         <v>3</v>
       </c>
       <c r="H13" t="s">
-        <v>320</v>
+        <v>342</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E14" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -2403,13 +2511,13 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="E15" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="F15">
         <v>3</v>
@@ -2418,7 +2526,7 @@
         <v>3</v>
       </c>
       <c r="H15" t="s">
-        <v>321</v>
+        <v>343</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -2429,13 +2537,13 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="E16" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="F16">
         <v>3</v>
@@ -2444,7 +2552,7 @@
         <v>3</v>
       </c>
       <c r="H16" t="s">
-        <v>322</v>
+        <v>344</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -2455,13 +2563,13 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E17" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="F17">
         <v>3</v>
@@ -2470,18 +2578,18 @@
         <v>3</v>
       </c>
       <c r="H17" t="s">
-        <v>323</v>
+        <v>345</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E18" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -2492,13 +2600,13 @@
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D19" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="E19" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="F19">
         <v>7</v>
@@ -2507,7 +2615,7 @@
         <v>3</v>
       </c>
       <c r="H19" t="s">
-        <v>324</v>
+        <v>346</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -2518,13 +2626,13 @@
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D20" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="E20" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="F20">
         <v>7</v>
@@ -2533,7 +2641,7 @@
         <v>3</v>
       </c>
       <c r="H20" t="s">
-        <v>325</v>
+        <v>347</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2544,13 +2652,13 @@
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E21" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="F21">
         <v>7</v>
@@ -2559,63 +2667,63 @@
         <v>3</v>
       </c>
       <c r="H21" t="s">
-        <v>326</v>
+        <v>348</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D22" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="E22" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D23" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="E23" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="G23">
         <v>3</v>
       </c>
       <c r="H23" t="s">
-        <v>327</v>
+        <v>349</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E24" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="G24">
         <v>4</v>
       </c>
       <c r="H24" t="s">
-        <v>328</v>
+        <v>350</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D25" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="E25" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -2626,13 +2734,13 @@
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D26" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E26" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="F26">
         <v>51</v>
@@ -2641,7 +2749,7 @@
         <v>3</v>
       </c>
       <c r="H26" t="s">
-        <v>329</v>
+        <v>351</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -2652,13 +2760,13 @@
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D27" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="E27" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="F27">
         <v>51</v>
@@ -2667,7 +2775,7 @@
         <v>3</v>
       </c>
       <c r="H27" t="s">
-        <v>330</v>
+        <v>352</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -2678,13 +2786,13 @@
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D28" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="E28" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="F28">
         <v>51</v>
@@ -2693,18 +2801,18 @@
         <v>3</v>
       </c>
       <c r="H28" t="s">
-        <v>331</v>
+        <v>353</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D29" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="E29" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -2715,13 +2823,13 @@
         <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D30" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E30" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="F30">
         <v>7</v>
@@ -2730,7 +2838,7 @@
         <v>3</v>
       </c>
       <c r="H30" t="s">
-        <v>332</v>
+        <v>354</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -2741,13 +2849,13 @@
         <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D31" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="E31" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="F31">
         <v>7</v>
@@ -2756,7 +2864,7 @@
         <v>3</v>
       </c>
       <c r="H31" t="s">
-        <v>333</v>
+        <v>355</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -2767,13 +2875,13 @@
         <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D32" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E32" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="F32">
         <v>7</v>
@@ -2782,18 +2890,18 @@
         <v>3</v>
       </c>
       <c r="H32" t="s">
-        <v>334</v>
+        <v>356</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D33" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E33" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -2804,13 +2912,13 @@
         <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D34" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E34" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="F34">
         <v>7</v>
@@ -2819,7 +2927,7 @@
         <v>3</v>
       </c>
       <c r="H34" t="s">
-        <v>335</v>
+        <v>357</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -2830,13 +2938,13 @@
         <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D35" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="E35" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="F35">
         <v>7</v>
@@ -2845,7 +2953,7 @@
         <v>3</v>
       </c>
       <c r="H35" t="s">
-        <v>336</v>
+        <v>358</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -2856,13 +2964,13 @@
         <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D36" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="E36" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="F36">
         <v>7</v>
@@ -2871,7 +2979,7 @@
         <v>3</v>
       </c>
       <c r="H36" t="s">
-        <v>337</v>
+        <v>359</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -2882,13 +2990,13 @@
         <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D37" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="E37" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="F37">
         <v>36</v>
@@ -2897,7 +3005,7 @@
         <v>3</v>
       </c>
       <c r="H37" t="s">
-        <v>338</v>
+        <v>360</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -2908,13 +3016,13 @@
         <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D38" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E38" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="F38">
         <v>36</v>
@@ -2923,7 +3031,7 @@
         <v>3</v>
       </c>
       <c r="H38" t="s">
-        <v>339</v>
+        <v>361</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -2934,13 +3042,13 @@
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D39" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E39" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="F39">
         <v>35</v>
@@ -2949,7 +3057,7 @@
         <v>3</v>
       </c>
       <c r="H39" t="s">
-        <v>340</v>
+        <v>362</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -2960,13 +3068,13 @@
         <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D40" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="E40" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="F40">
         <v>35</v>
@@ -2975,7 +3083,7 @@
         <v>3</v>
       </c>
       <c r="H40" t="s">
-        <v>341</v>
+        <v>363</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -2986,13 +3094,13 @@
         <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D41" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="E41" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="F41">
         <v>35</v>
@@ -3001,7 +3109,7 @@
         <v>3</v>
       </c>
       <c r="H41" t="s">
-        <v>342</v>
+        <v>364</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -3012,13 +3120,13 @@
         <v>12</v>
       </c>
       <c r="C42" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D42" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="E42" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="F42">
         <v>61</v>
@@ -3027,7 +3135,7 @@
         <v>3</v>
       </c>
       <c r="H42" t="s">
-        <v>343</v>
+        <v>365</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -3038,13 +3146,13 @@
         <v>12</v>
       </c>
       <c r="C43" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D43" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="E43" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="F43">
         <v>61</v>
@@ -3053,7 +3161,7 @@
         <v>3</v>
       </c>
       <c r="H43" t="s">
-        <v>344</v>
+        <v>366</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -3064,13 +3172,13 @@
         <v>12</v>
       </c>
       <c r="C44" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D44" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="E44" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="F44">
         <v>61</v>
@@ -3079,7 +3187,7 @@
         <v>3</v>
       </c>
       <c r="H44" t="s">
-        <v>345</v>
+        <v>367</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -3090,13 +3198,13 @@
         <v>13</v>
       </c>
       <c r="C45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D45" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E45" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="F45">
         <v>33</v>
@@ -3105,7 +3213,7 @@
         <v>3</v>
       </c>
       <c r="H45" t="s">
-        <v>346</v>
+        <v>368</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -3116,13 +3224,13 @@
         <v>13</v>
       </c>
       <c r="C46" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D46" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="E46" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="F46">
         <v>33</v>
@@ -3131,7 +3239,7 @@
         <v>3</v>
       </c>
       <c r="H46" t="s">
-        <v>347</v>
+        <v>369</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -3142,13 +3250,13 @@
         <v>13</v>
       </c>
       <c r="C47" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D47" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="E47" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="F47">
         <v>33</v>
@@ -3157,7 +3265,7 @@
         <v>3</v>
       </c>
       <c r="H47" t="s">
-        <v>348</v>
+        <v>370</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -3168,13 +3276,13 @@
         <v>14</v>
       </c>
       <c r="C48" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D48" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="E48" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="F48">
         <v>43</v>
@@ -3183,7 +3291,7 @@
         <v>3</v>
       </c>
       <c r="H48" t="s">
-        <v>349</v>
+        <v>371</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -3194,13 +3302,13 @@
         <v>14</v>
       </c>
       <c r="C49" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D49" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E49" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="F49">
         <v>43</v>
@@ -3209,7 +3317,7 @@
         <v>3</v>
       </c>
       <c r="H49" t="s">
-        <v>350</v>
+        <v>372</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -3220,13 +3328,13 @@
         <v>14</v>
       </c>
       <c r="C50" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D50" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="E50" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="F50">
         <v>43</v>
@@ -3235,7 +3343,7 @@
         <v>3</v>
       </c>
       <c r="H50" t="s">
-        <v>351</v>
+        <v>373</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -3246,13 +3354,13 @@
         <v>15</v>
       </c>
       <c r="C51" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D51" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="E51" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="F51">
         <v>59</v>
@@ -3261,7 +3369,7 @@
         <v>3</v>
       </c>
       <c r="H51" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -3272,13 +3380,13 @@
         <v>15</v>
       </c>
       <c r="C52" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D52" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="E52" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="F52">
         <v>59</v>
@@ -3287,7 +3395,7 @@
         <v>3</v>
       </c>
       <c r="H52" t="s">
-        <v>353</v>
+        <v>375</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -3298,13 +3406,13 @@
         <v>15</v>
       </c>
       <c r="C53" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D53" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="E53" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="F53">
         <v>59</v>
@@ -3313,7 +3421,7 @@
         <v>3</v>
       </c>
       <c r="H53" t="s">
-        <v>354</v>
+        <v>376</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -3324,13 +3432,13 @@
         <v>16</v>
       </c>
       <c r="C54" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D54" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="E54" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="F54">
         <v>20</v>
@@ -3339,7 +3447,7 @@
         <v>3</v>
       </c>
       <c r="H54" t="s">
-        <v>355</v>
+        <v>377</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -3350,13 +3458,13 @@
         <v>16</v>
       </c>
       <c r="C55" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D55" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="E55" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="F55">
         <v>20</v>
@@ -3365,7 +3473,7 @@
         <v>3</v>
       </c>
       <c r="H55" t="s">
-        <v>356</v>
+        <v>378</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -3376,13 +3484,13 @@
         <v>16</v>
       </c>
       <c r="C56" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D56" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="E56" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="F56">
         <v>20</v>
@@ -3391,7 +3499,7 @@
         <v>3</v>
       </c>
       <c r="H56" t="s">
-        <v>357</v>
+        <v>379</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -3402,13 +3510,13 @@
         <v>17</v>
       </c>
       <c r="C57" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D57" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="E57" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="F57">
         <v>49</v>
@@ -3417,7 +3525,7 @@
         <v>3</v>
       </c>
       <c r="H57" t="s">
-        <v>358</v>
+        <v>380</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -3428,13 +3536,13 @@
         <v>17</v>
       </c>
       <c r="C58" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D58" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="E58" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="F58">
         <v>49</v>
@@ -3443,7 +3551,7 @@
         <v>3</v>
       </c>
       <c r="H58" t="s">
-        <v>359</v>
+        <v>381</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -3454,13 +3562,13 @@
         <v>17</v>
       </c>
       <c r="C59" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D59" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="E59" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="F59">
         <v>49</v>
@@ -3469,7 +3577,7 @@
         <v>3</v>
       </c>
       <c r="H59" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -3480,13 +3588,13 @@
         <v>18</v>
       </c>
       <c r="C60" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D60" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="E60" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="F60">
         <v>19</v>
@@ -3495,7 +3603,7 @@
         <v>3</v>
       </c>
       <c r="H60" t="s">
-        <v>361</v>
+        <v>383</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -3506,13 +3614,13 @@
         <v>18</v>
       </c>
       <c r="C61" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D61" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="E61" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="F61">
         <v>19</v>
@@ -3521,7 +3629,7 @@
         <v>3</v>
       </c>
       <c r="H61" t="s">
-        <v>362</v>
+        <v>384</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -3532,13 +3640,13 @@
         <v>18</v>
       </c>
       <c r="C62" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D62" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="E62" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="F62">
         <v>19</v>
@@ -3547,7 +3655,7 @@
         <v>3</v>
       </c>
       <c r="H62" t="s">
-        <v>363</v>
+        <v>385</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -3558,13 +3666,13 @@
         <v>19</v>
       </c>
       <c r="C63" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D63" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="E63" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="F63">
         <v>12</v>
@@ -3573,7 +3681,7 @@
         <v>3</v>
       </c>
       <c r="H63" t="s">
-        <v>364</v>
+        <v>386</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -3584,13 +3692,13 @@
         <v>19</v>
       </c>
       <c r="C64" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D64" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="E64" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="F64">
         <v>12</v>
@@ -3599,7 +3707,7 @@
         <v>3</v>
       </c>
       <c r="H64" t="s">
-        <v>365</v>
+        <v>387</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -3610,13 +3718,13 @@
         <v>19</v>
       </c>
       <c r="C65" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D65" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E65" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="F65">
         <v>12</v>
@@ -3625,7 +3733,7 @@
         <v>3</v>
       </c>
       <c r="H65" t="s">
-        <v>366</v>
+        <v>388</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -3636,13 +3744,13 @@
         <v>20</v>
       </c>
       <c r="C66" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D66" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="E66" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="F66">
         <v>41</v>
@@ -3651,7 +3759,7 @@
         <v>3</v>
       </c>
       <c r="H66" t="s">
-        <v>367</v>
+        <v>389</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -3662,13 +3770,13 @@
         <v>20</v>
       </c>
       <c r="C67" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D67" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="E67" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="F67">
         <v>41</v>
@@ -3677,7 +3785,7 @@
         <v>3</v>
       </c>
       <c r="H67" t="s">
-        <v>368</v>
+        <v>390</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -3688,13 +3796,13 @@
         <v>20</v>
       </c>
       <c r="C68" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D68" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="E68" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="F68">
         <v>41</v>
@@ -3703,7 +3811,7 @@
         <v>3</v>
       </c>
       <c r="H68" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -3714,13 +3822,13 @@
         <v>21</v>
       </c>
       <c r="C69" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D69" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="E69" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="F69">
         <v>63</v>
@@ -3729,7 +3837,7 @@
         <v>3</v>
       </c>
       <c r="H69" t="s">
-        <v>370</v>
+        <v>392</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -3740,13 +3848,13 @@
         <v>21</v>
       </c>
       <c r="C70" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D70" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="E70" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="F70">
         <v>63</v>
@@ -3755,7 +3863,7 @@
         <v>3</v>
       </c>
       <c r="H70" t="s">
-        <v>371</v>
+        <v>393</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -3766,13 +3874,13 @@
         <v>21</v>
       </c>
       <c r="C71" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D71" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="E71" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="F71">
         <v>63</v>
@@ -3781,7 +3889,7 @@
         <v>3</v>
       </c>
       <c r="H71" t="s">
-        <v>372</v>
+        <v>394</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -3792,13 +3900,13 @@
         <v>22</v>
       </c>
       <c r="C72" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D72" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="E72" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="F72">
         <v>38</v>
@@ -3807,7 +3915,7 @@
         <v>3</v>
       </c>
       <c r="H72" t="s">
-        <v>373</v>
+        <v>395</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -3818,13 +3926,13 @@
         <v>22</v>
       </c>
       <c r="C73" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D73" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="E73" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="F73">
         <v>38</v>
@@ -3833,7 +3941,7 @@
         <v>3</v>
       </c>
       <c r="H73" t="s">
-        <v>374</v>
+        <v>396</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -3844,13 +3952,13 @@
         <v>22</v>
       </c>
       <c r="C74" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D74" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="E74" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="F74">
         <v>38</v>
@@ -3859,7 +3967,7 @@
         <v>3</v>
       </c>
       <c r="H74" t="s">
-        <v>375</v>
+        <v>397</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -3870,13 +3978,13 @@
         <v>23</v>
       </c>
       <c r="C75" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D75" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="E75" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="F75">
         <v>39</v>
@@ -3885,7 +3993,7 @@
         <v>3</v>
       </c>
       <c r="H75" t="s">
-        <v>376</v>
+        <v>398</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -3896,13 +4004,13 @@
         <v>23</v>
       </c>
       <c r="C76" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D76" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="E76" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="F76">
         <v>39</v>
@@ -3911,7 +4019,7 @@
         <v>3</v>
       </c>
       <c r="H76" t="s">
-        <v>377</v>
+        <v>399</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -3922,13 +4030,13 @@
         <v>23</v>
       </c>
       <c r="C77" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D77" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="E77" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="F77">
         <v>39</v>
@@ -3937,7 +4045,7 @@
         <v>3</v>
       </c>
       <c r="H77" t="s">
-        <v>378</v>
+        <v>400</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -3948,13 +4056,13 @@
         <v>24</v>
       </c>
       <c r="C78" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D78" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="E78" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="F78">
         <v>44</v>
@@ -3963,7 +4071,7 @@
         <v>3</v>
       </c>
       <c r="H78" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -3974,13 +4082,13 @@
         <v>24</v>
       </c>
       <c r="C79" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D79" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="E79" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="F79">
         <v>44</v>
@@ -3989,7 +4097,7 @@
         <v>3</v>
       </c>
       <c r="H79" t="s">
-        <v>380</v>
+        <v>402</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -4000,13 +4108,13 @@
         <v>24</v>
       </c>
       <c r="C80" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D80" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="E80" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="F80">
         <v>44</v>
@@ -4015,7 +4123,7 @@
         <v>3</v>
       </c>
       <c r="H80" t="s">
-        <v>381</v>
+        <v>403</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -4023,16 +4131,16 @@
         <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D81" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="E81" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="H81" t="s">
-        <v>382</v>
+        <v>404</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -4040,16 +4148,16 @@
         <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D82" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="E82" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="H82" t="s">
-        <v>382</v>
+        <v>404</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -4060,13 +4168,13 @@
         <v>1</v>
       </c>
       <c r="C83" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D83" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="E83" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F83">
         <v>13</v>
@@ -4075,7 +4183,7 @@
         <v>3</v>
       </c>
       <c r="H83" t="s">
-        <v>383</v>
+        <v>405</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -4086,13 +4194,13 @@
         <v>2</v>
       </c>
       <c r="C84" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D84" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="E84" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="F84">
         <v>28</v>
@@ -4101,7 +4209,7 @@
         <v>3</v>
       </c>
       <c r="H84" t="s">
-        <v>384</v>
+        <v>406</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -4112,13 +4220,13 @@
         <v>3</v>
       </c>
       <c r="C85" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D85" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="E85" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="F85">
         <v>20</v>
@@ -4127,7 +4235,7 @@
         <v>5</v>
       </c>
       <c r="H85" t="s">
-        <v>385</v>
+        <v>407</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -4138,13 +4246,13 @@
         <v>4</v>
       </c>
       <c r="C86" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D86" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="E86" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="F86">
         <v>48</v>
@@ -4153,7 +4261,7 @@
         <v>3</v>
       </c>
       <c r="H86" t="s">
-        <v>386</v>
+        <v>408</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -4161,16 +4269,16 @@
         <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D87" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="E87" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="H87" t="s">
-        <v>387</v>
+        <v>409</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -4178,16 +4286,16 @@
         <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D88" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="E88" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="H88" t="s">
-        <v>387</v>
+        <v>409</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -4198,13 +4306,13 @@
         <v>5</v>
       </c>
       <c r="C89" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D89" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="E89" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="F89">
         <v>12</v>
@@ -4213,7 +4321,7 @@
         <v>3</v>
       </c>
       <c r="H89" t="s">
-        <v>388</v>
+        <v>410</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -4224,13 +4332,13 @@
         <v>6</v>
       </c>
       <c r="C90" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D90" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="E90" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="F90">
         <v>12</v>
@@ -4239,7 +4347,7 @@
         <v>3</v>
       </c>
       <c r="H90" t="s">
-        <v>389</v>
+        <v>411</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -4250,13 +4358,13 @@
         <v>7</v>
       </c>
       <c r="C91" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D91" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="E91" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="F91">
         <v>12</v>
@@ -4265,7 +4373,7 @@
         <v>3</v>
       </c>
       <c r="H91" t="s">
-        <v>390</v>
+        <v>412</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -4276,13 +4384,13 @@
         <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D92" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="E92" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="F92">
         <v>12</v>
@@ -4291,7 +4399,7 @@
         <v>3</v>
       </c>
       <c r="H92" t="s">
-        <v>391</v>
+        <v>413</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -4302,13 +4410,13 @@
         <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D93" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="E93" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="F93">
         <v>64</v>
@@ -4317,7 +4425,7 @@
         <v>4</v>
       </c>
       <c r="H93" t="s">
-        <v>392</v>
+        <v>414</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -4328,13 +4436,13 @@
         <v>10</v>
       </c>
       <c r="C94" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D94" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="E94" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="F94">
         <v>64</v>
@@ -4343,7 +4451,7 @@
         <v>4</v>
       </c>
       <c r="H94" t="s">
-        <v>393</v>
+        <v>415</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -4351,16 +4459,16 @@
         <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D95" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="E95" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="H95" t="s">
-        <v>394</v>
+        <v>416</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -4368,16 +4476,16 @@
         <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D96" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="E96" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="H96" t="s">
-        <v>394</v>
+        <v>416</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -4388,13 +4496,13 @@
         <v>11</v>
       </c>
       <c r="C97" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D97" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="E97" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="F97">
         <v>31</v>
@@ -4403,7 +4511,7 @@
         <v>4</v>
       </c>
       <c r="H97" t="s">
-        <v>395</v>
+        <v>417</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -4414,13 +4522,13 @@
         <v>12</v>
       </c>
       <c r="C98" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D98" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="E98" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="F98">
         <v>21</v>
@@ -4429,7 +4537,7 @@
         <v>4</v>
       </c>
       <c r="H98" t="s">
-        <v>396</v>
+        <v>418</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -4440,13 +4548,13 @@
         <v>13</v>
       </c>
       <c r="C99" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D99" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="E99" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="F99">
         <v>21</v>
@@ -4455,7 +4563,7 @@
         <v>4</v>
       </c>
       <c r="H99" t="s">
-        <v>397</v>
+        <v>419</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -4466,13 +4574,13 @@
         <v>14</v>
       </c>
       <c r="C100" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D100" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="E100" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="F100">
         <v>21</v>
@@ -4481,7 +4589,7 @@
         <v>4</v>
       </c>
       <c r="H100" t="s">
-        <v>398</v>
+        <v>420</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -4492,13 +4600,13 @@
         <v>15</v>
       </c>
       <c r="C101" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D101" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="E101" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="F101">
         <v>21</v>
@@ -4507,7 +4615,126 @@
         <v>4</v>
       </c>
       <c r="H101" t="s">
-        <v>399</v>
+        <v>421</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>10</v>
+      </c>
+      <c r="C102" t="s">
+        <v>111</v>
+      </c>
+      <c r="D102" t="s">
+        <v>218</v>
+      </c>
+      <c r="E102" t="s">
+        <v>325</v>
+      </c>
+      <c r="H102" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>10</v>
+      </c>
+      <c r="C103" t="s">
+        <v>112</v>
+      </c>
+      <c r="D103" t="s">
+        <v>219</v>
+      </c>
+      <c r="E103" t="s">
+        <v>326</v>
+      </c>
+      <c r="H103" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>10</v>
+      </c>
+      <c r="C104" t="s">
+        <v>113</v>
+      </c>
+      <c r="D104" t="s">
+        <v>220</v>
+      </c>
+      <c r="E104" t="s">
+        <v>327</v>
+      </c>
+      <c r="H104" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>10</v>
+      </c>
+      <c r="C105" t="s">
+        <v>114</v>
+      </c>
+      <c r="D105" t="s">
+        <v>221</v>
+      </c>
+      <c r="E105" t="s">
+        <v>328</v>
+      </c>
+      <c r="H105" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>10</v>
+      </c>
+      <c r="C106" t="s">
+        <v>115</v>
+      </c>
+      <c r="D106" t="s">
+        <v>222</v>
+      </c>
+      <c r="E106" t="s">
+        <v>329</v>
+      </c>
+      <c r="H106" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>10</v>
+      </c>
+      <c r="C107" t="s">
+        <v>116</v>
+      </c>
+      <c r="D107" t="s">
+        <v>223</v>
+      </c>
+      <c r="E107" t="s">
+        <v>330</v>
+      </c>
+      <c r="H107" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>10</v>
+      </c>
+      <c r="C108" t="s">
+        <v>117</v>
+      </c>
+      <c r="D108" t="s">
+        <v>224</v>
+      </c>
+      <c r="E108" t="s">
+        <v>331</v>
+      </c>
+      <c r="H108" t="s">
+        <v>427</v>
       </c>
     </row>
   </sheetData>

--- a/Exp_Record_Alfa.xlsx
+++ b/Exp_Record_Alfa.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6604E2BA-1D71-440C-B89F-6F541440233B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="473">
   <si>
     <t>Exp_collection</t>
   </si>
@@ -823,6 +817,110 @@
 8 blocks in 26 mins.</t>
   </si>
   <si>
+    <t>001 Rf mapper 2 degrees, 2 [-8 8]
+Start at 144. 5 blocks complete, stop at 149
+Completed</t>
+  </si>
+  <si>
+    <t>002 Rf mapper, 1 degree [-2 2]
+Start at 1:50. 6 blocks complete stop at 152
+Completed</t>
+  </si>
+  <si>
+    <t>003 generate integrated starts 13:59
+50 (-1.0,-2.5) 4 1 ZOHA full
+50 (-1.0,-2.5) 4 1 ZOHA reduced
+a beautiful brown convexity
+Good gap
+46 mins
+Completed</t>
+  </si>
+  <si>
+    <t>004 starts 14:50
+GI(1) is discarded… didn't start recording
+50 (-1.0,-2.5) 4 1 ZOHA reduced
+50 (-1.0,-2.5) 4 1 ZOHA reduced
+Try 2 reduced to see the variability 
+At least one of them can potentially reach as high.
+Still a brown convexity!
+Note thread 1 is pretty unstable….Step size problem? Overshoot
+PSTH looks promising. 
+Plan to reach 40 and terminates.
+Completed</t>
+  </si>
+  <si>
+    <t>46, SU, V1
+full vs reduced
+46 (0,0) 3 3 zoha full
+46 (0,0) 3 3 zoha reduced (50D)
+visualy responsive
+Didn't quite finish, but the 2 evolutions are quite intertwined.
+Completed</t>
+  </si>
+  <si>
+    <t>001 RFMapping Starts 12:33
+-8:8:8</t>
+  </si>
+  <si>
+    <t>002 RFMapping starts 13:36
+-8:2:8
+Chan 17 has very interesting</t>
+  </si>
+  <si>
+    <t>003 RFMapping starts 12:44
+-4:1:4
+chan5 looks good!</t>
+  </si>
+  <si>
+    <t>005 Generate Integrated starts 13:05
+24 [-1 -0.5] 4 1 ZOHA_Sphere_lr_Euclid
+24 [-1 -0.5] 4 1  ZOHA_Sphere_lr_Euclid_RD
+Reference Image changed to the 24's
+Single unit, very salient transient response. See if it can evolve
+Large learning rate not working for single unit it seems…..
+Seems it will takes a while to take off 9 min 13 gens
+Responsive but not evolving??? Why Step size?
+Starts growing a bit, Exploration 35.2  step size 0.237
+Grows again.
+Interestingly non successful...
+Still not going anywhere…..For both optimizers.
+Completed</t>
+  </si>
+  <si>
+    <t>006 starts 13:36
+19 [-1 -0.5] 4 1 ZOHA_Sphere_lr_Euclid
+19 [-1 -0.5] 4 1 ZOHA_Sphere_lr_Euclid_RD
+Noisy Hash unit
+38 blocks complete stop at 207
+Completed</t>
+  </si>
+  <si>
+    <t>007 generate integrated start at 14:10
+54 [-1 -2] 4 1 ZOHA_Sphere_lr_Euclid
+54 [-1 -2] 4 1 ZOHA_Sphere_lr_Euclid_RD
+There might be  a SUPER sparse SU? We can try maybe
+Yeah… so probably 2 units in total this evolution merged the 2
+Both of them climb together at first but the full evolution finds new gradients around 16 gens, so grows crazily! Sustained activity gets much higher
+Maybe should reach gen 25 see how far.
+Reach 30
+Or maybe the Optimizer recruit different unit result in the 2 different gradients?
+Completed</t>
+  </si>
+  <si>
+    <t>008  starts 14:45
+54 [-1 -2] 4 1 ZOHA_Sphere_lr_Euclid_RD
+54 [-1 -2] 4 1 ZOHA_Sphere_lr_Euclid_RD
+Do 2 RD to test the variabilty
+Gen 5 add acq to add motivation
+Notably the reference image response goes up as well.
+Seems to find some gradient ~ gen6
+Maybe the whole channel floats around?
+Around gen 10, one of them find gradient first!
+It seems to me that no acq award can motivate him? Or could be used as some punishment?
+Only gets to gen 11 and rest for 50 mins
+Completed</t>
+  </si>
+  <si>
     <t>Alfa64chan-19112019-009</t>
   </si>
   <si>
@@ -1144,6 +1242,42 @@
     <t>Alfa64chan-18032020-007</t>
   </si>
   <si>
+    <t>Alfa64chan-19032020-001</t>
+  </si>
+  <si>
+    <t>Alfa64chan-19032020-002</t>
+  </si>
+  <si>
+    <t>Alfa64chan-19032020-003</t>
+  </si>
+  <si>
+    <t>Alfa64chan-19032020-004</t>
+  </si>
+  <si>
+    <t>Alfa64chan-19032020-005</t>
+  </si>
+  <si>
+    <t>Alfa64chan-20032020-001</t>
+  </si>
+  <si>
+    <t>Alfa64chan-20032020-002</t>
+  </si>
+  <si>
+    <t>Alfa64chan-20032020-003</t>
+  </si>
+  <si>
+    <t>Alfa64chan-20032020-005</t>
+  </si>
+  <si>
+    <t>Alfa64chan-20032020-006</t>
+  </si>
+  <si>
+    <t>Alfa64chan-20032020-007</t>
+  </si>
+  <si>
+    <t>Alfa64chan-20032020-008</t>
+  </si>
+  <si>
     <t>191119_Alfa_generate_parallel(3)</t>
   </si>
   <si>
@@ -1465,6 +1599,42 @@
     <t>200318_Alfa_generate_integrated(4)</t>
   </si>
   <si>
+    <t>200319_Alfa_rfMapper_basic</t>
+  </si>
+  <si>
+    <t>200319_Alfa_rfMapper_basic(1)</t>
+  </si>
+  <si>
+    <t>200319_Alfa_generate_integrated</t>
+  </si>
+  <si>
+    <t>200319_Alfa_generate_integrated(2)</t>
+  </si>
+  <si>
+    <t>200319_Alfa_generate_integrated(3)</t>
+  </si>
+  <si>
+    <t>200320_Alfa_rfMapper_basic(1)</t>
+  </si>
+  <si>
+    <t>200320_Alfa_rfMapper_basic(2)</t>
+  </si>
+  <si>
+    <t>200320_Alfa_rfMapper_basic(3)</t>
+  </si>
+  <si>
+    <t>200320_Alfa_generate_integrated</t>
+  </si>
+  <si>
+    <t>200320_Alfa_generate_integrated(2)</t>
+  </si>
+  <si>
+    <t>200320_Alfa_generate_integrated(3)</t>
+  </si>
+  <si>
+    <t>200320_Alfa_generate_integrated(4)</t>
+  </si>
+  <si>
     <t>N:\Stimuli\2019-06-Evolutions\alfa-191119a</t>
   </si>
   <si>
@@ -1751,13 +1921,40 @@
   </si>
   <si>
     <t>N:\Stimuli\2019-12-Evolutions\2020-03-18-Alfa-05\2020-03-18-15-06-03</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-06-RF-mapping\2020-03-19-Alfa</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-03-19-Alfa-01\2020-03-19-13-59-39</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-03-19-Alfa-02\2020-03-19-14-50-56</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-03-19-Alfa-03\2020-03-19-15-45-51</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-06-RF-mapping\2020-03-20-Alfa</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-03-20-Alfa-01\2020-03-20-13-04-35</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-03-20-Alfa-02\2020-03-20-13-36-30</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-03-20-Alfa-03\2020-03-20-14-10-25</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-03-20-Alfa-04\2020-03-20-14-45-33</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1816,23 +2013,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1874,7 +2063,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1906,27 +2095,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1958,24 +2129,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2151,16 +2304,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H108"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="U90" sqref="U90"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2186,7 +2337,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -2197,10 +2348,10 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="E2" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="F2">
         <v>29</v>
@@ -2209,10 +2360,10 @@
         <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -2223,10 +2374,10 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="E3" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="F3">
         <v>29</v>
@@ -2235,7 +2386,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -2246,10 +2397,10 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="E4" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="F4">
         <v>29</v>
@@ -2258,10 +2409,10 @@
         <v>4</v>
       </c>
       <c r="H4" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2272,10 +2423,10 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="E5" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="F5">
         <v>29</v>
@@ -2284,10 +2435,10 @@
         <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2298,19 +2449,19 @@
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="E6" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="F6">
         <v>29</v>
       </c>
       <c r="H6" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2321,10 +2472,10 @@
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="E7" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="F7">
         <v>29</v>
@@ -2333,10 +2484,10 @@
         <v>4</v>
       </c>
       <c r="H7" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -2347,10 +2498,10 @@
         <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="E8" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="F8">
         <v>9</v>
@@ -2359,10 +2510,10 @@
         <v>3</v>
       </c>
       <c r="H8" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2373,10 +2524,10 @@
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E9" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="F9">
         <v>9</v>
@@ -2385,10 +2536,10 @@
         <v>3</v>
       </c>
       <c r="H9" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2399,10 +2550,10 @@
         <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="E10" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="F10">
         <v>9</v>
@@ -2411,10 +2562,10 @@
         <v>3</v>
       </c>
       <c r="H10" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -2425,10 +2576,10 @@
         <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="E11" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="F11">
         <v>32</v>
@@ -2437,10 +2588,10 @@
         <v>3</v>
       </c>
       <c r="H11" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -2451,10 +2602,10 @@
         <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="E12" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="F12">
         <v>32</v>
@@ -2463,10 +2614,10 @@
         <v>3</v>
       </c>
       <c r="H12" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -2477,10 +2628,10 @@
         <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="E13" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="F13">
         <v>32</v>
@@ -2489,21 +2640,21 @@
         <v>3</v>
       </c>
       <c r="H13" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="C14" t="s">
         <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="E14" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -2514,10 +2665,10 @@
         <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="E15" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="F15">
         <v>3</v>
@@ -2526,10 +2677,10 @@
         <v>3</v>
       </c>
       <c r="H15" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -2540,10 +2691,10 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="E16" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="F16">
         <v>3</v>
@@ -2552,10 +2703,10 @@
         <v>3</v>
       </c>
       <c r="H16" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -2566,10 +2717,10 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="E17" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="F17">
         <v>3</v>
@@ -2578,21 +2729,21 @@
         <v>3</v>
       </c>
       <c r="H17" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="C18" t="s">
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="E18" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -2603,10 +2754,10 @@
         <v>28</v>
       </c>
       <c r="D19" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="E19" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="F19">
         <v>7</v>
@@ -2615,10 +2766,10 @@
         <v>3</v>
       </c>
       <c r="H19" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -2629,10 +2780,10 @@
         <v>29</v>
       </c>
       <c r="D20" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="E20" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="F20">
         <v>7</v>
@@ -2641,10 +2792,10 @@
         <v>3</v>
       </c>
       <c r="H20" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -2655,10 +2806,10 @@
         <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="E21" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="F21">
         <v>7</v>
@@ -2667,66 +2818,66 @@
         <v>3</v>
       </c>
       <c r="H21" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="C22" t="s">
         <v>31</v>
       </c>
       <c r="D22" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="E22" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="C23" t="s">
         <v>32</v>
       </c>
       <c r="D23" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="E23" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="G23">
         <v>3</v>
       </c>
       <c r="H23" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="C24" t="s">
         <v>33</v>
       </c>
       <c r="D24" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="E24" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="G24">
         <v>4</v>
       </c>
       <c r="H24" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="C25" t="s">
         <v>34</v>
       </c>
       <c r="D25" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="E25" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -2737,10 +2888,10 @@
         <v>35</v>
       </c>
       <c r="D26" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="E26" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="F26">
         <v>51</v>
@@ -2749,10 +2900,10 @@
         <v>3</v>
       </c>
       <c r="H26" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -2763,10 +2914,10 @@
         <v>36</v>
       </c>
       <c r="D27" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="E27" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="F27">
         <v>51</v>
@@ -2775,10 +2926,10 @@
         <v>3</v>
       </c>
       <c r="H27" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -2789,10 +2940,10 @@
         <v>37</v>
       </c>
       <c r="D28" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="E28" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="F28">
         <v>51</v>
@@ -2801,21 +2952,21 @@
         <v>3</v>
       </c>
       <c r="H28" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="C29" t="s">
         <v>38</v>
       </c>
       <c r="D29" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="E29" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -2826,10 +2977,10 @@
         <v>39</v>
       </c>
       <c r="D30" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="E30" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="F30">
         <v>7</v>
@@ -2838,10 +2989,10 @@
         <v>3</v>
       </c>
       <c r="H30" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -2852,10 +3003,10 @@
         <v>40</v>
       </c>
       <c r="D31" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="E31" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="F31">
         <v>7</v>
@@ -2864,10 +3015,10 @@
         <v>3</v>
       </c>
       <c r="H31" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -2878,10 +3029,10 @@
         <v>41</v>
       </c>
       <c r="D32" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="E32" t="s">
-        <v>255</v>
+        <v>279</v>
       </c>
       <c r="F32">
         <v>7</v>
@@ -2890,21 +3041,21 @@
         <v>3</v>
       </c>
       <c r="H32" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="C33" t="s">
         <v>42</v>
       </c>
       <c r="D33" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="E33" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -2915,10 +3066,10 @@
         <v>43</v>
       </c>
       <c r="D34" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="E34" t="s">
-        <v>257</v>
+        <v>281</v>
       </c>
       <c r="F34">
         <v>7</v>
@@ -2927,10 +3078,10 @@
         <v>3</v>
       </c>
       <c r="H34" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -2941,10 +3092,10 @@
         <v>44</v>
       </c>
       <c r="D35" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="E35" t="s">
-        <v>258</v>
+        <v>282</v>
       </c>
       <c r="F35">
         <v>7</v>
@@ -2953,10 +3104,10 @@
         <v>3</v>
       </c>
       <c r="H35" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -2967,10 +3118,10 @@
         <v>45</v>
       </c>
       <c r="D36" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="E36" t="s">
-        <v>259</v>
+        <v>283</v>
       </c>
       <c r="F36">
         <v>7</v>
@@ -2979,10 +3130,10 @@
         <v>3</v>
       </c>
       <c r="H36" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -2993,10 +3144,10 @@
         <v>46</v>
       </c>
       <c r="D37" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E37" t="s">
-        <v>260</v>
+        <v>284</v>
       </c>
       <c r="F37">
         <v>36</v>
@@ -3005,10 +3156,10 @@
         <v>3</v>
       </c>
       <c r="H37" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -3019,10 +3170,10 @@
         <v>47</v>
       </c>
       <c r="D38" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="E38" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="F38">
         <v>36</v>
@@ -3031,10 +3182,10 @@
         <v>3</v>
       </c>
       <c r="H38" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -3045,10 +3196,10 @@
         <v>48</v>
       </c>
       <c r="D39" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="E39" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="F39">
         <v>35</v>
@@ -3057,10 +3208,10 @@
         <v>3</v>
       </c>
       <c r="H39" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -3071,10 +3222,10 @@
         <v>49</v>
       </c>
       <c r="D40" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="E40" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="F40">
         <v>35</v>
@@ -3083,10 +3234,10 @@
         <v>3</v>
       </c>
       <c r="H40" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -3097,10 +3248,10 @@
         <v>50</v>
       </c>
       <c r="D41" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="E41" t="s">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="F41">
         <v>35</v>
@@ -3109,10 +3260,10 @@
         <v>3</v>
       </c>
       <c r="H41" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -3123,10 +3274,10 @@
         <v>51</v>
       </c>
       <c r="D42" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="E42" t="s">
-        <v>265</v>
+        <v>289</v>
       </c>
       <c r="F42">
         <v>61</v>
@@ -3135,10 +3286,10 @@
         <v>3</v>
       </c>
       <c r="H42" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
         <v>8</v>
       </c>
@@ -3149,10 +3300,10 @@
         <v>52</v>
       </c>
       <c r="D43" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="E43" t="s">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="F43">
         <v>61</v>
@@ -3161,10 +3312,10 @@
         <v>3</v>
       </c>
       <c r="H43" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -3175,10 +3326,10 @@
         <v>53</v>
       </c>
       <c r="D44" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="E44" t="s">
-        <v>267</v>
+        <v>291</v>
       </c>
       <c r="F44">
         <v>61</v>
@@ -3187,10 +3338,10 @@
         <v>3</v>
       </c>
       <c r="H44" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -3201,10 +3352,10 @@
         <v>54</v>
       </c>
       <c r="D45" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="E45" t="s">
-        <v>268</v>
+        <v>292</v>
       </c>
       <c r="F45">
         <v>33</v>
@@ -3213,10 +3364,10 @@
         <v>3</v>
       </c>
       <c r="H45" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -3227,10 +3378,10 @@
         <v>55</v>
       </c>
       <c r="D46" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="E46" t="s">
-        <v>269</v>
+        <v>293</v>
       </c>
       <c r="F46">
         <v>33</v>
@@ -3239,10 +3390,10 @@
         <v>3</v>
       </c>
       <c r="H46" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -3253,10 +3404,10 @@
         <v>56</v>
       </c>
       <c r="D47" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="E47" t="s">
-        <v>270</v>
+        <v>294</v>
       </c>
       <c r="F47">
         <v>33</v>
@@ -3265,10 +3416,10 @@
         <v>3</v>
       </c>
       <c r="H47" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -3279,10 +3430,10 @@
         <v>57</v>
       </c>
       <c r="D48" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="E48" t="s">
-        <v>271</v>
+        <v>295</v>
       </c>
       <c r="F48">
         <v>43</v>
@@ -3291,10 +3442,10 @@
         <v>3</v>
       </c>
       <c r="H48" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -3305,10 +3456,10 @@
         <v>58</v>
       </c>
       <c r="D49" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="E49" t="s">
-        <v>272</v>
+        <v>296</v>
       </c>
       <c r="F49">
         <v>43</v>
@@ -3317,10 +3468,10 @@
         <v>3</v>
       </c>
       <c r="H49" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
         <v>8</v>
       </c>
@@ -3331,10 +3482,10 @@
         <v>59</v>
       </c>
       <c r="D50" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="E50" t="s">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="F50">
         <v>43</v>
@@ -3343,10 +3494,10 @@
         <v>3</v>
       </c>
       <c r="H50" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
         <v>8</v>
       </c>
@@ -3357,10 +3508,10 @@
         <v>60</v>
       </c>
       <c r="D51" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="E51" t="s">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="F51">
         <v>59</v>
@@ -3369,10 +3520,10 @@
         <v>3</v>
       </c>
       <c r="H51" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -3383,10 +3534,10 @@
         <v>61</v>
       </c>
       <c r="D52" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="E52" t="s">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="F52">
         <v>59</v>
@@ -3395,10 +3546,10 @@
         <v>3</v>
       </c>
       <c r="H52" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
         <v>8</v>
       </c>
@@ -3409,10 +3560,10 @@
         <v>62</v>
       </c>
       <c r="D53" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="E53" t="s">
-        <v>276</v>
+        <v>300</v>
       </c>
       <c r="F53">
         <v>59</v>
@@ -3421,10 +3572,10 @@
         <v>3</v>
       </c>
       <c r="H53" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -3435,10 +3586,10 @@
         <v>63</v>
       </c>
       <c r="D54" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="E54" t="s">
-        <v>277</v>
+        <v>301</v>
       </c>
       <c r="F54">
         <v>20</v>
@@ -3447,10 +3598,10 @@
         <v>3</v>
       </c>
       <c r="H54" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -3461,10 +3612,10 @@
         <v>64</v>
       </c>
       <c r="D55" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="E55" t="s">
-        <v>278</v>
+        <v>302</v>
       </c>
       <c r="F55">
         <v>20</v>
@@ -3473,10 +3624,10 @@
         <v>3</v>
       </c>
       <c r="H55" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
         <v>8</v>
       </c>
@@ -3487,10 +3638,10 @@
         <v>65</v>
       </c>
       <c r="D56" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="E56" t="s">
-        <v>279</v>
+        <v>303</v>
       </c>
       <c r="F56">
         <v>20</v>
@@ -3499,10 +3650,10 @@
         <v>3</v>
       </c>
       <c r="H56" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
         <v>8</v>
       </c>
@@ -3513,10 +3664,10 @@
         <v>66</v>
       </c>
       <c r="D57" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="E57" t="s">
-        <v>280</v>
+        <v>304</v>
       </c>
       <c r="F57">
         <v>49</v>
@@ -3525,10 +3676,10 @@
         <v>3</v>
       </c>
       <c r="H57" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -3539,10 +3690,10 @@
         <v>67</v>
       </c>
       <c r="D58" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="E58" t="s">
-        <v>281</v>
+        <v>305</v>
       </c>
       <c r="F58">
         <v>49</v>
@@ -3551,10 +3702,10 @@
         <v>3</v>
       </c>
       <c r="H58" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" t="s">
         <v>8</v>
       </c>
@@ -3565,10 +3716,10 @@
         <v>68</v>
       </c>
       <c r="D59" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="E59" t="s">
-        <v>282</v>
+        <v>306</v>
       </c>
       <c r="F59">
         <v>49</v>
@@ -3577,10 +3728,10 @@
         <v>3</v>
       </c>
       <c r="H59" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" t="s">
         <v>8</v>
       </c>
@@ -3591,10 +3742,10 @@
         <v>69</v>
       </c>
       <c r="D60" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="E60" t="s">
-        <v>283</v>
+        <v>307</v>
       </c>
       <c r="F60">
         <v>19</v>
@@ -3603,10 +3754,10 @@
         <v>3</v>
       </c>
       <c r="H60" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" t="s">
         <v>8</v>
       </c>
@@ -3617,10 +3768,10 @@
         <v>70</v>
       </c>
       <c r="D61" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="E61" t="s">
-        <v>284</v>
+        <v>308</v>
       </c>
       <c r="F61">
         <v>19</v>
@@ -3629,10 +3780,10 @@
         <v>3</v>
       </c>
       <c r="H61" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" t="s">
         <v>8</v>
       </c>
@@ -3643,10 +3794,10 @@
         <v>71</v>
       </c>
       <c r="D62" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="E62" t="s">
-        <v>285</v>
+        <v>309</v>
       </c>
       <c r="F62">
         <v>19</v>
@@ -3655,10 +3806,10 @@
         <v>3</v>
       </c>
       <c r="H62" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" t="s">
         <v>8</v>
       </c>
@@ -3669,10 +3820,10 @@
         <v>72</v>
       </c>
       <c r="D63" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="E63" t="s">
-        <v>286</v>
+        <v>310</v>
       </c>
       <c r="F63">
         <v>12</v>
@@ -3681,10 +3832,10 @@
         <v>3</v>
       </c>
       <c r="H63" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" t="s">
         <v>8</v>
       </c>
@@ -3695,10 +3846,10 @@
         <v>73</v>
       </c>
       <c r="D64" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="E64" t="s">
-        <v>287</v>
+        <v>311</v>
       </c>
       <c r="F64">
         <v>12</v>
@@ -3707,10 +3858,10 @@
         <v>3</v>
       </c>
       <c r="H64" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" t="s">
         <v>8</v>
       </c>
@@ -3721,10 +3872,10 @@
         <v>74</v>
       </c>
       <c r="D65" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="E65" t="s">
-        <v>288</v>
+        <v>312</v>
       </c>
       <c r="F65">
         <v>12</v>
@@ -3733,10 +3884,10 @@
         <v>3</v>
       </c>
       <c r="H65" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" t="s">
         <v>8</v>
       </c>
@@ -3747,10 +3898,10 @@
         <v>75</v>
       </c>
       <c r="D66" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="E66" t="s">
-        <v>289</v>
+        <v>313</v>
       </c>
       <c r="F66">
         <v>41</v>
@@ -3759,10 +3910,10 @@
         <v>3</v>
       </c>
       <c r="H66" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" t="s">
         <v>8</v>
       </c>
@@ -3773,10 +3924,10 @@
         <v>76</v>
       </c>
       <c r="D67" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="E67" t="s">
-        <v>290</v>
+        <v>314</v>
       </c>
       <c r="F67">
         <v>41</v>
@@ -3785,10 +3936,10 @@
         <v>3</v>
       </c>
       <c r="H67" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" t="s">
         <v>8</v>
       </c>
@@ -3799,10 +3950,10 @@
         <v>77</v>
       </c>
       <c r="D68" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="E68" t="s">
-        <v>291</v>
+        <v>315</v>
       </c>
       <c r="F68">
         <v>41</v>
@@ -3811,10 +3962,10 @@
         <v>3</v>
       </c>
       <c r="H68" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" t="s">
         <v>8</v>
       </c>
@@ -3825,10 +3976,10 @@
         <v>78</v>
       </c>
       <c r="D69" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="E69" t="s">
-        <v>292</v>
+        <v>316</v>
       </c>
       <c r="F69">
         <v>63</v>
@@ -3837,10 +3988,10 @@
         <v>3</v>
       </c>
       <c r="H69" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" t="s">
         <v>8</v>
       </c>
@@ -3851,10 +4002,10 @@
         <v>79</v>
       </c>
       <c r="D70" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="E70" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="F70">
         <v>63</v>
@@ -3863,10 +4014,10 @@
         <v>3</v>
       </c>
       <c r="H70" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" t="s">
         <v>8</v>
       </c>
@@ -3877,10 +4028,10 @@
         <v>80</v>
       </c>
       <c r="D71" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="E71" t="s">
-        <v>294</v>
+        <v>318</v>
       </c>
       <c r="F71">
         <v>63</v>
@@ -3889,10 +4040,10 @@
         <v>3</v>
       </c>
       <c r="H71" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" t="s">
         <v>8</v>
       </c>
@@ -3903,10 +4054,10 @@
         <v>81</v>
       </c>
       <c r="D72" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="E72" t="s">
-        <v>295</v>
+        <v>319</v>
       </c>
       <c r="F72">
         <v>38</v>
@@ -3915,10 +4066,10 @@
         <v>3</v>
       </c>
       <c r="H72" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" t="s">
         <v>8</v>
       </c>
@@ -3929,10 +4080,10 @@
         <v>82</v>
       </c>
       <c r="D73" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="E73" t="s">
-        <v>296</v>
+        <v>320</v>
       </c>
       <c r="F73">
         <v>38</v>
@@ -3941,10 +4092,10 @@
         <v>3</v>
       </c>
       <c r="H73" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" t="s">
         <v>8</v>
       </c>
@@ -3955,10 +4106,10 @@
         <v>83</v>
       </c>
       <c r="D74" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="E74" t="s">
-        <v>297</v>
+        <v>321</v>
       </c>
       <c r="F74">
         <v>38</v>
@@ -3967,10 +4118,10 @@
         <v>3</v>
       </c>
       <c r="H74" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" t="s">
         <v>8</v>
       </c>
@@ -3981,10 +4132,10 @@
         <v>84</v>
       </c>
       <c r="D75" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="E75" t="s">
-        <v>298</v>
+        <v>322</v>
       </c>
       <c r="F75">
         <v>39</v>
@@ -3993,10 +4144,10 @@
         <v>3</v>
       </c>
       <c r="H75" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" t="s">
         <v>8</v>
       </c>
@@ -4007,10 +4158,10 @@
         <v>85</v>
       </c>
       <c r="D76" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="E76" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="F76">
         <v>39</v>
@@ -4019,10 +4170,10 @@
         <v>3</v>
       </c>
       <c r="H76" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" t="s">
         <v>8</v>
       </c>
@@ -4033,10 +4184,10 @@
         <v>86</v>
       </c>
       <c r="D77" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="E77" t="s">
-        <v>300</v>
+        <v>324</v>
       </c>
       <c r="F77">
         <v>39</v>
@@ -4045,10 +4196,10 @@
         <v>3</v>
       </c>
       <c r="H77" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" t="s">
         <v>8</v>
       </c>
@@ -4059,10 +4210,10 @@
         <v>87</v>
       </c>
       <c r="D78" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="E78" t="s">
-        <v>301</v>
+        <v>325</v>
       </c>
       <c r="F78">
         <v>44</v>
@@ -4071,10 +4222,10 @@
         <v>3</v>
       </c>
       <c r="H78" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" t="s">
         <v>8</v>
       </c>
@@ -4085,10 +4236,10 @@
         <v>88</v>
       </c>
       <c r="D79" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="E79" t="s">
-        <v>302</v>
+        <v>326</v>
       </c>
       <c r="F79">
         <v>44</v>
@@ -4097,10 +4248,10 @@
         <v>3</v>
       </c>
       <c r="H79" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" t="s">
         <v>8</v>
       </c>
@@ -4111,10 +4262,10 @@
         <v>89</v>
       </c>
       <c r="D80" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="E80" t="s">
-        <v>303</v>
+        <v>327</v>
       </c>
       <c r="F80">
         <v>44</v>
@@ -4123,10 +4274,10 @@
         <v>3</v>
       </c>
       <c r="H80" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" t="s">
         <v>9</v>
       </c>
@@ -4134,16 +4285,16 @@
         <v>90</v>
       </c>
       <c r="D81" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="E81" t="s">
-        <v>304</v>
+        <v>328</v>
       </c>
       <c r="H81" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" t="s">
         <v>9</v>
       </c>
@@ -4151,16 +4302,16 @@
         <v>91</v>
       </c>
       <c r="D82" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="E82" t="s">
-        <v>305</v>
+        <v>329</v>
       </c>
       <c r="H82" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" t="s">
         <v>9</v>
       </c>
@@ -4171,10 +4322,10 @@
         <v>92</v>
       </c>
       <c r="D83" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="E83" t="s">
-        <v>306</v>
+        <v>330</v>
       </c>
       <c r="F83">
         <v>13</v>
@@ -4183,10 +4334,10 @@
         <v>3</v>
       </c>
       <c r="H83" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" t="s">
         <v>9</v>
       </c>
@@ -4197,10 +4348,10 @@
         <v>93</v>
       </c>
       <c r="D84" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="E84" t="s">
-        <v>307</v>
+        <v>331</v>
       </c>
       <c r="F84">
         <v>28</v>
@@ -4209,10 +4360,10 @@
         <v>3</v>
       </c>
       <c r="H84" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" t="s">
         <v>9</v>
       </c>
@@ -4223,10 +4374,10 @@
         <v>94</v>
       </c>
       <c r="D85" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="E85" t="s">
-        <v>308</v>
+        <v>332</v>
       </c>
       <c r="F85">
         <v>20</v>
@@ -4235,10 +4386,10 @@
         <v>5</v>
       </c>
       <c r="H85" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" t="s">
         <v>9</v>
       </c>
@@ -4249,10 +4400,10 @@
         <v>95</v>
       </c>
       <c r="D86" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="E86" t="s">
-        <v>309</v>
+        <v>333</v>
       </c>
       <c r="F86">
         <v>48</v>
@@ -4261,10 +4412,10 @@
         <v>3</v>
       </c>
       <c r="H86" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" t="s">
         <v>9</v>
       </c>
@@ -4272,16 +4423,16 @@
         <v>96</v>
       </c>
       <c r="D87" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="E87" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="H87" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" t="s">
         <v>9</v>
       </c>
@@ -4289,16 +4440,16 @@
         <v>97</v>
       </c>
       <c r="D88" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="E88" t="s">
-        <v>311</v>
+        <v>335</v>
       </c>
       <c r="H88" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" t="s">
         <v>9</v>
       </c>
@@ -4309,10 +4460,10 @@
         <v>98</v>
       </c>
       <c r="D89" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="E89" t="s">
-        <v>312</v>
+        <v>336</v>
       </c>
       <c r="F89">
         <v>12</v>
@@ -4321,10 +4472,10 @@
         <v>3</v>
       </c>
       <c r="H89" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" t="s">
         <v>9</v>
       </c>
@@ -4335,10 +4486,10 @@
         <v>99</v>
       </c>
       <c r="D90" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="E90" t="s">
-        <v>313</v>
+        <v>337</v>
       </c>
       <c r="F90">
         <v>12</v>
@@ -4347,10 +4498,10 @@
         <v>3</v>
       </c>
       <c r="H90" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" t="s">
         <v>9</v>
       </c>
@@ -4361,10 +4512,10 @@
         <v>100</v>
       </c>
       <c r="D91" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="E91" t="s">
-        <v>314</v>
+        <v>338</v>
       </c>
       <c r="F91">
         <v>12</v>
@@ -4373,10 +4524,10 @@
         <v>3</v>
       </c>
       <c r="H91" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" t="s">
         <v>9</v>
       </c>
@@ -4387,10 +4538,10 @@
         <v>101</v>
       </c>
       <c r="D92" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="E92" t="s">
-        <v>315</v>
+        <v>339</v>
       </c>
       <c r="F92">
         <v>12</v>
@@ -4399,10 +4550,10 @@
         <v>3</v>
       </c>
       <c r="H92" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" t="s">
         <v>9</v>
       </c>
@@ -4413,10 +4564,10 @@
         <v>102</v>
       </c>
       <c r="D93" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="E93" t="s">
-        <v>316</v>
+        <v>340</v>
       </c>
       <c r="F93">
         <v>64</v>
@@ -4425,10 +4576,10 @@
         <v>4</v>
       </c>
       <c r="H93" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" t="s">
         <v>9</v>
       </c>
@@ -4439,10 +4590,10 @@
         <v>103</v>
       </c>
       <c r="D94" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="E94" t="s">
-        <v>317</v>
+        <v>341</v>
       </c>
       <c r="F94">
         <v>64</v>
@@ -4451,10 +4602,10 @@
         <v>4</v>
       </c>
       <c r="H94" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" t="s">
         <v>9</v>
       </c>
@@ -4462,16 +4613,16 @@
         <v>104</v>
       </c>
       <c r="D95" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="E95" t="s">
-        <v>318</v>
+        <v>342</v>
       </c>
       <c r="H95" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" t="s">
         <v>9</v>
       </c>
@@ -4479,16 +4630,16 @@
         <v>105</v>
       </c>
       <c r="D96" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="E96" t="s">
-        <v>319</v>
+        <v>343</v>
       </c>
       <c r="H96" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" t="s">
         <v>9</v>
       </c>
@@ -4499,10 +4650,10 @@
         <v>106</v>
       </c>
       <c r="D97" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="E97" t="s">
-        <v>320</v>
+        <v>344</v>
       </c>
       <c r="F97">
         <v>31</v>
@@ -4511,10 +4662,10 @@
         <v>4</v>
       </c>
       <c r="H97" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" t="s">
         <v>9</v>
       </c>
@@ -4525,10 +4676,10 @@
         <v>107</v>
       </c>
       <c r="D98" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="E98" t="s">
-        <v>321</v>
+        <v>345</v>
       </c>
       <c r="F98">
         <v>21</v>
@@ -4537,10 +4688,10 @@
         <v>4</v>
       </c>
       <c r="H98" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" t="s">
         <v>9</v>
       </c>
@@ -4551,10 +4702,10 @@
         <v>108</v>
       </c>
       <c r="D99" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="E99" t="s">
-        <v>322</v>
+        <v>346</v>
       </c>
       <c r="F99">
         <v>21</v>
@@ -4563,10 +4714,10 @@
         <v>4</v>
       </c>
       <c r="H99" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" t="s">
         <v>9</v>
       </c>
@@ -4577,10 +4728,10 @@
         <v>109</v>
       </c>
       <c r="D100" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="E100" t="s">
-        <v>323</v>
+        <v>347</v>
       </c>
       <c r="F100">
         <v>21</v>
@@ -4589,10 +4740,10 @@
         <v>4</v>
       </c>
       <c r="H100" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" t="s">
         <v>9</v>
       </c>
@@ -4603,10 +4754,10 @@
         <v>110</v>
       </c>
       <c r="D101" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="E101" t="s">
-        <v>324</v>
+        <v>348</v>
       </c>
       <c r="F101">
         <v>21</v>
@@ -4615,10 +4766,10 @@
         <v>4</v>
       </c>
       <c r="H101" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" t="s">
         <v>10</v>
       </c>
@@ -4626,16 +4777,16 @@
         <v>111</v>
       </c>
       <c r="D102" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="E102" t="s">
-        <v>325</v>
+        <v>349</v>
       </c>
       <c r="H102" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" t="s">
         <v>10</v>
       </c>
@@ -4643,98 +4794,347 @@
         <v>112</v>
       </c>
       <c r="D103" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="E103" t="s">
-        <v>326</v>
+        <v>350</v>
       </c>
       <c r="H103" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" t="s">
         <v>10</v>
       </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
       <c r="C104" t="s">
         <v>113</v>
       </c>
       <c r="D104" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="E104" t="s">
-        <v>327</v>
+        <v>351</v>
+      </c>
+      <c r="F104">
+        <v>30</v>
+      </c>
+      <c r="G104">
+        <v>3</v>
       </c>
       <c r="H104" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105" t="s">
         <v>10</v>
       </c>
+      <c r="B105">
+        <v>2</v>
+      </c>
       <c r="C105" t="s">
         <v>114</v>
       </c>
       <c r="D105" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="E105" t="s">
-        <v>328</v>
+        <v>352</v>
+      </c>
+      <c r="F105">
+        <v>30</v>
+      </c>
+      <c r="G105">
+        <v>3</v>
       </c>
       <c r="H105" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106" t="s">
         <v>10</v>
       </c>
+      <c r="B106">
+        <v>3</v>
+      </c>
       <c r="C106" t="s">
         <v>115</v>
       </c>
       <c r="D106" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="E106" t="s">
-        <v>329</v>
+        <v>353</v>
+      </c>
+      <c r="F106">
+        <v>58</v>
+      </c>
+      <c r="G106">
+        <v>4</v>
       </c>
       <c r="H106" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107" t="s">
         <v>10</v>
       </c>
+      <c r="B107">
+        <v>4</v>
+      </c>
       <c r="C107" t="s">
         <v>116</v>
       </c>
       <c r="D107" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="E107" t="s">
-        <v>330</v>
+        <v>354</v>
+      </c>
+      <c r="F107">
+        <v>58</v>
+      </c>
+      <c r="G107">
+        <v>4</v>
       </c>
       <c r="H107" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108" t="s">
         <v>10</v>
       </c>
+      <c r="B108">
+        <v>5</v>
+      </c>
       <c r="C108" t="s">
         <v>117</v>
       </c>
       <c r="D108" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="E108" t="s">
-        <v>331</v>
+        <v>355</v>
+      </c>
+      <c r="F108">
+        <v>34</v>
+      </c>
+      <c r="G108">
+        <v>3</v>
       </c>
       <c r="H108" t="s">
-        <v>427</v>
+        <v>463</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" t="s">
+        <v>10</v>
+      </c>
+      <c r="C109" t="s">
+        <v>118</v>
+      </c>
+      <c r="D109" t="s">
+        <v>237</v>
+      </c>
+      <c r="E109" t="s">
+        <v>356</v>
+      </c>
+      <c r="H109" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" t="s">
+        <v>10</v>
+      </c>
+      <c r="C110" t="s">
+        <v>119</v>
+      </c>
+      <c r="D110" t="s">
+        <v>238</v>
+      </c>
+      <c r="E110" t="s">
+        <v>357</v>
+      </c>
+      <c r="H110" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" t="s">
+        <v>10</v>
+      </c>
+      <c r="C111" t="s">
+        <v>120</v>
+      </c>
+      <c r="D111" t="s">
+        <v>239</v>
+      </c>
+      <c r="E111" t="s">
+        <v>358</v>
+      </c>
+      <c r="H111" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" t="s">
+        <v>10</v>
+      </c>
+      <c r="C112" t="s">
+        <v>121</v>
+      </c>
+      <c r="D112" t="s">
+        <v>240</v>
+      </c>
+      <c r="E112" t="s">
+        <v>359</v>
+      </c>
+      <c r="H112" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" t="s">
+        <v>10</v>
+      </c>
+      <c r="C113" t="s">
+        <v>122</v>
+      </c>
+      <c r="D113" t="s">
+        <v>241</v>
+      </c>
+      <c r="E113" t="s">
+        <v>360</v>
+      </c>
+      <c r="H113" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" t="s">
+        <v>10</v>
+      </c>
+      <c r="C114" t="s">
+        <v>123</v>
+      </c>
+      <c r="D114" t="s">
+        <v>242</v>
+      </c>
+      <c r="E114" t="s">
+        <v>361</v>
+      </c>
+      <c r="H114" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" t="s">
+        <v>10</v>
+      </c>
+      <c r="C115" t="s">
+        <v>124</v>
+      </c>
+      <c r="D115" t="s">
+        <v>243</v>
+      </c>
+      <c r="E115" t="s">
+        <v>362</v>
+      </c>
+      <c r="H115" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" t="s">
+        <v>10</v>
+      </c>
+      <c r="C116" t="s">
+        <v>125</v>
+      </c>
+      <c r="D116" t="s">
+        <v>244</v>
+      </c>
+      <c r="E116" t="s">
+        <v>363</v>
+      </c>
+      <c r="H116" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" t="s">
+        <v>10</v>
+      </c>
+      <c r="C117" t="s">
+        <v>126</v>
+      </c>
+      <c r="D117" t="s">
+        <v>245</v>
+      </c>
+      <c r="E117" t="s">
+        <v>364</v>
+      </c>
+      <c r="H117" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" t="s">
+        <v>10</v>
+      </c>
+      <c r="C118" t="s">
+        <v>127</v>
+      </c>
+      <c r="D118" t="s">
+        <v>246</v>
+      </c>
+      <c r="E118" t="s">
+        <v>365</v>
+      </c>
+      <c r="H118" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" t="s">
+        <v>10</v>
+      </c>
+      <c r="C119" t="s">
+        <v>128</v>
+      </c>
+      <c r="D119" t="s">
+        <v>247</v>
+      </c>
+      <c r="E119" t="s">
+        <v>366</v>
+      </c>
+      <c r="H119" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" t="s">
+        <v>10</v>
+      </c>
+      <c r="C120" t="s">
+        <v>129</v>
+      </c>
+      <c r="D120" t="s">
+        <v>248</v>
+      </c>
+      <c r="E120" t="s">
+        <v>367</v>
+      </c>
+      <c r="H120" t="s">
+        <v>472</v>
       </c>
     </row>
   </sheetData>

--- a/Exp_Record_Alfa.xlsx
+++ b/Exp_Record_Alfa.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E75554D3-0D4E-4003-8337-C546FEF44303}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="692">
   <si>
     <t>Exp_collection</t>
   </si>
@@ -47,6 +53,9 @@
   </si>
   <si>
     <t>ReducDimen_Evol</t>
+  </si>
+  <si>
+    <t>SUHash</t>
   </si>
   <si>
     <t>Ch 29. SU [-0.5 -1.7] 4 1.
@@ -921,6 +930,452 @@
 Completed</t>
   </si>
   <si>
+    <t>Hp at 1210 PM
+001 at 1217 PM, rf mapping, -8:8:8, 8-deg
+chan 8 looks good SU wise, but RF kinda eh</t>
+  </si>
+  <si>
+    <t>002 at 1220, -8:4:8, 4-deg. RF maybe at -3,+5</t>
+  </si>
+  <si>
+    <t>003 at 1224 -8:2:8, 2-deg.  RF not responding well. It probably wants something big. We'll check one last time to see if last experiment was a fluke</t>
+  </si>
+  <si>
+    <t>004 at 1229, -8:4:8, 2-deg. -3.4,+5 again
+All completed</t>
+  </si>
+  <si>
+    <t>005 at 1253 PM
+8 (-3 +5) 4 1 CMAES
+8 (-1 -2) 4 2 CMAES (hash).
+finished at 20 blocks, let's try reduced dimensionality.
+Completed</t>
+  </si>
+  <si>
+    <t>006 at 1:10 PM
+8 (-1,-2) 4 2 zoha full
+8 (-1,-2) 4 2 zoha reduced
+results so far as expected
+finished 40 blocks
+Completed</t>
+  </si>
+  <si>
+    <t>007 at 145 PM
+37 (0 0) 3 1 ZOHA full
+37 (0,0) 3 1 ZOHA RED
+as expected
+already flat. Will go to 25
+Completed</t>
+  </si>
+  <si>
+    <t>008 maybe, 64 SU, -0.2,-0.7)
+64 (0 0) 3 1 ZOHA full
+64 (0,0) 3 1 ZOHA RED
+reduced did better at first, now tied up. If all mean rates stabilize, we'll stop. Right now it looks like 35
+Completed</t>
+  </si>
+  <si>
+    <t>Start: 1:38 pm, generate_integrated, parallel evolution from SU and hash
+Ch. 20: two SU (a = 1/5, b = 2/5), one hash (4/5)
+Ch. 20 [1 -1] 3 1, SUa
+Ch. 20 [1 -1] 3 3, hash
+Matlab completely crashed at block 25….</t>
+  </si>
+  <si>
+    <t>Start: 2:03 pm, restarted evolution
+generate_integrated, parallel evolution from SU and hash
+Ch. 20: two SU (a = 1/5, b = 2/5), one hash (4/5)
+Ch. 20 [1 -1] 3 1, SUa
+Ch. 20 [1 -1] 3 3, hash
+Stopped at 38 blocks, not evolving and he's not fixating well</t>
+  </si>
+  <si>
+    <t>005 generate_integrated   SU vs Hash
+Ch. 33 [0 0 ] 3 1, Su
+Ch. 33 [0 0]  3 2, hash
+Gabor as reference images
+Both evolve pretty good~ at a similar pace. Although hash has a higher baseline than SU.
+Hash saturated earlier than SU! SU grows steadily at 20 gen as well.
+It Crashed !! aAt around 12:44
+Thank god the data is saved. 27 generations
+Completed</t>
+  </si>
+  <si>
+    <t>007 generate_integrated  SU vs Hash
+Ch. 38 [0 0 ] 3 1, SU  CMA
+Ch. 38 [0 0 ] 3 2, Hash  CMA
+The Hash and SU response are both bi-peaky, they are kind of ON + OFF
+And the 2 peaks are correlated.
+The evolution is very much not significant…..?
+After a rest fr of Hash gets a lot larger!
+Gets evolving starts from 16 gens
+Suddenly became more sustained in 80-100 ms rsp and higher than natural images.
+Start to grows at 17 gens. 
+Matlab Crashes totally again.
+Completed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ch. 7 [0 -2] 3 1 'CMAES'
+Ch. 7 [0 -2] 3 2 'CMAES'
+SU vs. hash
+Start: 4:42 pm
+Eye signal is really bad today.  Fix window at 1.2 and he's struggling.  28% accuracy at block 7
+Recalibrated eye signals, accuracy went up significantly
+Evolutions seem to be climbing at block 15
+50 blocks, complete </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SU v Hash ch. 63 [0, -2] SU 1/5 very visually responsive. Start at 10:30
+63 [0, -2] 3 1 
+63 [0, -2] 3 2
+I took out 200 mL water, so he started with 200, not 400. plan to add grape juice.
+Working great now, 75%.
+(Mary remember it's taking off and doing good)
+Crashed at block 13. 
+Feb. 13th Using the function same as beto rig! </t>
+  </si>
+  <si>
+    <t>001RFMapping 
+starts 11:59 AM
+-8:2:8 2deg image.
+Seems the plotting function doesn'tget loaded ?
+Seemse the plot generation mechanism is also slow, takes a few min to generate the post hoc plot. Why???
+59 has a SU but quite sparse
+63 also has a SU, less sparse?
+Complete</t>
+  </si>
+  <si>
+    <t>002 generate_integrated
+63 [0, -2] 3 1  CMAES
+63 [0, -2] 3 2  CMAES 
+Following the last crashed experiment.
+Load the 63 ch bigset, alfa , the reference images seem to be about eyes, monkey faces and trees ???
+The overall pace is slow….. Is that because I add too many flags to write info to disk?
+Cannot see the eye signal on the screen during experiment… Same problem, let's restart the experiment.
+aborted</t>
+  </si>
+  <si>
+    <t>003 generate_integrated
+Re open ML2, change the memory_log file and disable the TrialRecord size checking part.
+Run the same task
+63 [0, -2] 3 1  CMAES
+63 [0, -2] 3 2  CMAES 
+(Seems adding too many flags and checking the size of TrialRecord is really slow the inter trial interval down. OMB)
+(Overall correct rate is bad! )
+Seems pretty successful! SU and Hash both go up nicely. Beautiful result!
+Stopped at 2:51. supper slow but no crashing….? 32 blocks
+Note from memory_log we know the memory increase from 4037.8MB at the starts
+To 10596.9 MB at 14:50
+Increase by 6GB in 2 hours!?! (In line with the fact that he has many incorrect trails which will increase memory like crazy. )
+Complete
+Updates the Plexon API to newer native version.</t>
+  </si>
+  <si>
+    <t>001 RFMapper   starts
+-1.5:0.5:1.5 mapping 1 deg</t>
+  </si>
+  <si>
+    <t>002 RFMapper starts 12:49
+-8:2:8 mapping 2 deg
+(Monkey generally feels harder to fixate for larger peripheral objects)
+Seems after a while, monkey adapt and feel easier to fixate without saccade to the peripheral stimuli popping up.
+30 threshold changed a little</t>
+  </si>
+  <si>
+    <t>005 generate_integrated
+Black line (is this SU or hash?) climbing at block 30, evolution still running relatively slowly, about 7.5-8 seconds during block changes
+Fix window at 1.2, eye signal is pretty jumpy
+Grey line looks to be climbing slightly above baseline as well
+54% accuracy at block 30, experiment is currently 56 minutes long.  Still a really long time for only 30 blocks…. PSTH seems reasonable though
+40 blocks, completed</t>
+  </si>
+  <si>
+    <t>Rf mapper
+10 blocks, complete</t>
+  </si>
+  <si>
+    <t>Rf mapper
+11 blocks, complete</t>
+  </si>
+  <si>
+    <t>Generate parallel, SU vs hash
+Start: 12:31 pm
+Ch. 22 [0 -0.5] 3 1 CMAES
+Ch. 22 [0 -0.5] 3 2 CMAES
+He's not fixating well, but evolutions for both hash and SU are climbing!
+23 blocks have taken almost an hour and a half</t>
+  </si>
+  <si>
+    <t>5 blocks
+-8:2:8, 2 degrees
+complete</t>
+  </si>
+  <si>
+    <t>-1.5:0.5:1.5, 1 degree
+5 blocks
+Start: 12:32 pm
+complete</t>
+  </si>
+  <si>
+    <t>Start: 1:01 pm
+Ch. 2, two gorgeous SUs (1/5 and 1/5), one MU (3/5), parallel evolution from all three
+All three units are very visually responsive
+Ch. 2 [-0.5 -1] 3 1 CMAES
+Ch. 2 [-0.5 -1] 3 2 CMAES, very sparse, but definitely visually responsive
+Ch. 2 [-0.5 -1] 3 3 CMAES, likely contains another SU within the hash (based on waveform), but isn't distinct enough on the PCA to define
+Shape of SUb looks like it's less consistent… we may lose this unit
+SUb has returned!  Holding my breath, but it looks promising
+Lost ability to view eye position on screen, but ML is still receiving ISCAN and he's fixating well
+PSTH is bimodal!
+Lost SUb again.  Let's see if it comes back
+Nope, RIP Sub
+29 blocks, he won't work anymore, complete</t>
+  </si>
+  <si>
+    <t>Rf mapper
+-1.5:0.5:1.5, 1 degree
+Start: 12:38 pm
+5 blocks, complete</t>
+  </si>
+  <si>
+    <t>Rf mapper
+-8:2:8, 2 degrees
+Start: 12:44 pm
+5 blocks, complete</t>
+  </si>
+  <si>
+    <t>Ch. 25 parallel evolution, SU (1/5) vs hash (5/5)
+25 [0 -3] 3 1 CMAES
+25 [0 -3] 3 2 CMAES
+Start: 12:58 pm, visually responsive
+30 blocks, never climbed, complete
+Trying again at 4 degrees</t>
+  </si>
+  <si>
+    <t>Eye position STILL not showing up, but I'm tired of restarting it with no success, so it's just going to stay like this
+He's fixating really well and being a good boy
+Start: 1:57 pm
+Ch. 25 parallel evolution, SU (1/5) vs hash (5/5)
+25 [0 -2.5] 4 1 CMAES
+25 [0 -2.5] 4 2 CMAES
+Visually responsive
+Block 22, still not climbing
+31 blocks, didn't go anywhere, complete</t>
+  </si>
+  <si>
+    <t>Ch. 15 parallel evolution, SU (1/5) vs MU (3/5)
+15 [-1 -1] 3 1 CMAES
+15 [-1 -1] 3 2 CMAES
+Start: 3:00 pm, eye signal still not showing up on ML
+26 blocks, complete
+He worked for 3.5 hours today!!!  Three complete parallel evolutions!</t>
+  </si>
+  <si>
+    <t>RF mapper, -8:2:8, 2 degrees
+Start: 1:28 pm
+10 blocks, complete</t>
+  </si>
+  <si>
+    <t>RF mapper, -1.5:0.5:1.5, 1 degree
+Start: 1:45 pm
+10 blocks, complete</t>
+  </si>
+  <si>
+    <t>Start: 2:00 pm
+Ch. 21, SU (1/5) vs. hash (5/5)
+21 [0.5 0.5] 3 1 CMAES
+21 [0.5 0.5] 3 2 CMAES
+Visually responsive
+~35 blocks, never took off, complete</t>
+  </si>
+  <si>
+    <t>Start: 1:29 pm
+-1.5:0.5:1.5, 1 degree
+10 blocks, complete</t>
+  </si>
+  <si>
+    <t>Start: 1:37 pm
+-8:2:8, 2 degrees
+11 blocks, complete</t>
+  </si>
+  <si>
+    <t>Start: 2:05 pm
+Ch. 29, SU (1.5/5)  vs. hash (4/5)
+29 [-1.5 -1] 3 1 CMAES
+29 [-1.5 -1] 3 2 CMAES
+Visually responsive
+35 blocks, evolution never climbed, complete</t>
+  </si>
+  <si>
+    <t>Start: 2:48 pm
+Ch. 50, SU (1/5, sparse) vs hash (5/5)
+50 [0 -0.5] 3 1 CMAES
+50 [0 -0.5] 3 2 CMAES
+Visually responsive
+39 blocks, complete, actually climbed!</t>
+  </si>
+  <si>
+    <t>Start: 12:48 pm, RF mapper
+-8:2:8, 2 degrees
+10 blocks, complete</t>
+  </si>
+  <si>
+    <t>Start: 12:59 pm, RF mapper
+-1:0.5:1, 1 degree
+12 blocks, complete</t>
+  </si>
+  <si>
+    <t>SU vs. hash, start: 1:18 pm
+One SU (1/5), one hash (4/5)
+35 [0 0] 3 1 CMAES
+35 [0 0] 3 2 CMAES
+Very visually responsive, using gabors as reference, evolution beginning to climb for both SU and hash already
+Second SU popped up again in hash!  Not sure how stable it is
+Multiple random SUs keep popping in and out of existence.  This channel LOVES this evolution
+55 blocks, complete</t>
+  </si>
+  <si>
+    <t>SU vs. SU vs. hash, start: 2:36 pm
+Two SUs (1/5 and 1/5), one hash (4/5)
+35 [0 0] 3 1 CMAES
+35 [0 0] 3 2 CMAES
+35 [0 0] 3 3 CMAES
+All three units very visually responsive, same channel with new SU (seemed stable from last evolution) selected separately
+First SU went away completely… noticed at block 20
+30 blocks, complete</t>
+  </si>
+  <si>
+    <t>CMAES vs. GA, start: 3:34 pm, evolving from visually responsive MU/hash (3/5), SU (1/5) selected as unit b
+35 [0 0] 3 1 CMAES
+35 [0 0] 3 1 GA
+30 blocks, complete!</t>
+  </si>
+  <si>
+    <t>Start: 1:05 pm, RF mapper
+-1:0.5:1, 1 degree
+10 blocks, complete</t>
+  </si>
+  <si>
+    <t>Start: 1:09 pm, RF mapper
+-8:2:8, 2 degrees
+10 blocks, complete</t>
+  </si>
+  <si>
+    <t>Start: 1:24 pm, Ch. 24 SU (1/5) vs. hash (4/5)
+Strong visual response, but RF was pretty diffuse. Centered image at [-0.5 -0.5], 3 degrees
+24 [-0.5 -0.5] 3 1 CMAES
+24 [-0.5 -0.5] 3 2 CMAES
+Block 28, not climbing.  Will give it to 35, and then try again at four degrees
+Stopped at 35 blocks, never climbed, trying again at 4 degrees</t>
+  </si>
+  <si>
+    <t>Start: 2:04 pm
+24 [-0.5 -0.5] 4 1 CMAES
+24 [-0.5 -0.5] 4 2 CMAES
+Super phasic visual response
+Block 30, looks like it's increasing a little bit, but nothing drastic.  Not having great luck with IT evolutions lately
+SU is definitely evolving, hash looks like it's climbing a little too
+63 blocks, successful, complete</t>
+  </si>
+  <si>
+    <t>RF mapper, start: 1:51 pm
+-8:2:8, 2 degrees
+10 blocks, complete</t>
+  </si>
+  <si>
+    <t>RF mapper, start: 2:03 pm
+-1:0.5:1, 1 degree
+10 blocks, complete</t>
+  </si>
+  <si>
+    <t>CMAES vs. GA, start: 2:13 pm
+Ch. 25, one hash (5/5)
+25 [0 0] 3 1 CMAES
+25 [0 0] 3 1 GA
+Nice RF, but doesn't look super responsive.  Evolution not going anywhere at block 20
+30 blocks, never went anywhere, stopped, complete</t>
+  </si>
+  <si>
+    <t>CMAES vs. GA, start: 2:46 pm
+Ch. 12, one hash (4/5)
+12 [-1 -1] 3 1 CMAES
+12 [-1 -1] 3 1 GA
+Very nice PSTH!  Climbing pretty quickly
+CMA jumped at block 25-- clear winner over GA
+GA finally caught up at block 40
+Block 45, CMA jumped again
+65 blocks, complete</t>
+  </si>
+  <si>
+    <t>004 at 202 PM
+63 [ 0 , 0 ] 3 1 CMAES
+63 [ 0 , 0 ] 3 2 CMAES
+SU is pretty unresponsive…sparse
+There it goes
+finished at 241 PM
+Completed
+looks like it was overwritten</t>
+  </si>
+  <si>
+    <t>005 at 244 PM
+63 (0 0) 3 1 CMAES
+63 (0,0) 3 1 GA
+had to restart because of missing fix point
+completed</t>
+  </si>
+  <si>
+    <t>Start: 2:21 pm, Ch. 24 (three SU (A = 1/5 and very suppressed but nice RF, B = 1.5/5, C = 1.5/5, one hash = 5/5)
+Parallel evolution from all four units because idk why not?
+Strong visual response
+24 [-1 0] 3 1 CMAES
+24 [-1 0] 3 2 CMAES
+24 [-1 0] 3 3 CMAES
+24 [-1 0] 3 4 CMAES
+At block 25, at least two units are climbing
+45 blocks, complete</t>
+  </si>
+  <si>
+    <t>Start: 4:17 pm
+Selectivity, big set half
+Two blocks, stopped</t>
+  </si>
+  <si>
+    <t>Hp 1232
+001 rf mapping at 1244 PM
+big images (8-deg), -8:8:8
+SU in 01 not really responding that well
+completed</t>
+  </si>
+  <si>
+    <t>Again at -8:4:8
+completed</t>
+  </si>
+  <si>
+    <t>Again at -8:2:8
+looks like (-2,-1)
+completed</t>
+  </si>
+  <si>
+    <t>Generate_integrated
+at 105 PM
+1 (-2,-1) 3 1 CMAES
+1 (-2,-1) 3 2 CMAES
+SU is transient bure responsive so
+completed</t>
+  </si>
+  <si>
+    <t>205 PM
+generate integrated
+40 (0, 0) 3 1 CMAES
+40 (0,0) 3 2 CMAES
+completed</t>
+  </si>
+  <si>
+    <t>Finally, selectivity for channel 1 as above
+(-2,-1) 3 deg
+completed</t>
+  </si>
+  <si>
     <t>Alfa64chan-19112019-009</t>
   </si>
   <si>
@@ -1278,6 +1733,189 @@
     <t>Alfa64chan-20032020-008</t>
   </si>
   <si>
+    <t>Alfa64chan-22032020-001</t>
+  </si>
+  <si>
+    <t>Alfa64chan-22032020-002</t>
+  </si>
+  <si>
+    <t>Alfa64chan-22032020-003</t>
+  </si>
+  <si>
+    <t>Alfa64chan-22032020-004</t>
+  </si>
+  <si>
+    <t>Alfa64chan-22032020-005</t>
+  </si>
+  <si>
+    <t>Alfa64chan-22032020-006</t>
+  </si>
+  <si>
+    <t>Alfa64chan-22032020-007</t>
+  </si>
+  <si>
+    <t>Alfa64chan-22032020-008</t>
+  </si>
+  <si>
+    <t>Alfa64chan-04022020-002</t>
+  </si>
+  <si>
+    <t>Alfa64chan-04022020-003</t>
+  </si>
+  <si>
+    <t>Alfa64chan-05022020-005</t>
+  </si>
+  <si>
+    <t>Alfa64chan-05022020-007</t>
+  </si>
+  <si>
+    <t>Alfa64chan-10022020-004</t>
+  </si>
+  <si>
+    <t>Alfa64chan-11022020-003</t>
+  </si>
+  <si>
+    <t>Alfa64chan-13022020-001</t>
+  </si>
+  <si>
+    <t>Alfa64chan-13022020-002</t>
+  </si>
+  <si>
+    <t>Alfa64chan-13022020-003</t>
+  </si>
+  <si>
+    <t>Alfa64chan-17022020-001</t>
+  </si>
+  <si>
+    <t>Alfa64chan-17022020-002</t>
+  </si>
+  <si>
+    <t>Alfa64chan-17022020-005</t>
+  </si>
+  <si>
+    <t>Alfa64chan-18022020-001</t>
+  </si>
+  <si>
+    <t>Alfa64chan-18022020-002</t>
+  </si>
+  <si>
+    <t>Alfa64chan-18022020-003</t>
+  </si>
+  <si>
+    <t>Alfa64chan-19022020-001</t>
+  </si>
+  <si>
+    <t>Alfa64chan-19022020-002</t>
+  </si>
+  <si>
+    <t>Alfa64chan-19022020-005</t>
+  </si>
+  <si>
+    <t>Alfa64chan-20022020-001</t>
+  </si>
+  <si>
+    <t>Alfa64chan-20022020-002</t>
+  </si>
+  <si>
+    <t>Alfa64chan-20022020-003</t>
+  </si>
+  <si>
+    <t>Alfa64chan-20022020-006</t>
+  </si>
+  <si>
+    <t>Alfa64chan-20022020-008</t>
+  </si>
+  <si>
+    <t>Alfa64chan-21022020-001</t>
+  </si>
+  <si>
+    <t>Alfa64chan-21022020-002</t>
+  </si>
+  <si>
+    <t>Alfa64chan-21022020-003</t>
+  </si>
+  <si>
+    <t>Alfa64chan-24022020-001</t>
+  </si>
+  <si>
+    <t>Alfa64chan-24022020-002</t>
+  </si>
+  <si>
+    <t>Alfa64chan-24022020-005</t>
+  </si>
+  <si>
+    <t>Alfa64chan-24022020-006</t>
+  </si>
+  <si>
+    <t>Alfa64chan-25022020-001</t>
+  </si>
+  <si>
+    <t>Alfa64chan-25022020-002</t>
+  </si>
+  <si>
+    <t>Alfa64chan-25022020-004</t>
+  </si>
+  <si>
+    <t>Alfa64chan-25022020-005</t>
+  </si>
+  <si>
+    <t>Alfa64chan-25022020-006</t>
+  </si>
+  <si>
+    <t>Alfa64chan-26022020-001</t>
+  </si>
+  <si>
+    <t>Alfa64chan-26022020-002</t>
+  </si>
+  <si>
+    <t>Alfa64chan-26022020-003</t>
+  </si>
+  <si>
+    <t>Alfa64chan-26022020-004</t>
+  </si>
+  <si>
+    <t>Alfa64chan-28022020-001</t>
+  </si>
+  <si>
+    <t>Alfa64chan-28022020-002</t>
+  </si>
+  <si>
+    <t>Alfa64chan-28022020-003</t>
+  </si>
+  <si>
+    <t>Alfa64chan-28022020-004</t>
+  </si>
+  <si>
+    <t>Alfa64chan-02032020-005</t>
+  </si>
+  <si>
+    <t>Alfa64chan-02032020-006</t>
+  </si>
+  <si>
+    <t>Alfa64chan-09032020-004</t>
+  </si>
+  <si>
+    <t>Alfa64chan-09032020-006</t>
+  </si>
+  <si>
+    <t>Alfa64chan-12032020-001</t>
+  </si>
+  <si>
+    <t>Alfa64chan-12032020-002</t>
+  </si>
+  <si>
+    <t>Alfa64chan-12032020-003</t>
+  </si>
+  <si>
+    <t>Alfa64chan-12032020-004</t>
+  </si>
+  <si>
+    <t>Alfa64chan-12032020-005</t>
+  </si>
+  <si>
+    <t>Alfa64chan-12032020-006</t>
+  </si>
+  <si>
     <t>191119_Alfa_generate_parallel(3)</t>
   </si>
   <si>
@@ -1635,6 +2273,189 @@
     <t>200320_Alfa_generate_integrated(4)</t>
   </si>
   <si>
+    <t>200322_Alfa_rfMapper_basic</t>
+  </si>
+  <si>
+    <t>200322_Alfa_rfMapper_basic(1)</t>
+  </si>
+  <si>
+    <t>200322_Alfa_rfMapper_basic(2)</t>
+  </si>
+  <si>
+    <t>200322_Alfa_rfMapper_basic(3)</t>
+  </si>
+  <si>
+    <t>200322_Alfa_generate_integrated</t>
+  </si>
+  <si>
+    <t>200322_Alfa_generate_integrated(1)</t>
+  </si>
+  <si>
+    <t>200322_Alfa_generate_integrated(2)</t>
+  </si>
+  <si>
+    <t>200322_Alfa_generate_integrated(3)</t>
+  </si>
+  <si>
+    <t>200204_ALfa_generate_integrated</t>
+  </si>
+  <si>
+    <t>200204_ALfa_generate_integrated(1)</t>
+  </si>
+  <si>
+    <t>200205_ALfa_generate_integrated(2)</t>
+  </si>
+  <si>
+    <t>200205_ALfa_generate_integrated(4)</t>
+  </si>
+  <si>
+    <t>200210_Alfa_generate_integrated</t>
+  </si>
+  <si>
+    <t>200211_Alfa_generate_integrated</t>
+  </si>
+  <si>
+    <t>200213_Alfa_rfMapper_basic(1)</t>
+  </si>
+  <si>
+    <t>200213_Alfa_generate_integrated(1)</t>
+  </si>
+  <si>
+    <t>200213_Alfa_generate_integrated(2)</t>
+  </si>
+  <si>
+    <t>200217_Alfa_rfMapper_basic</t>
+  </si>
+  <si>
+    <t>200217_Alfa_rfMapper_basic(1)</t>
+  </si>
+  <si>
+    <t>200217_Alfa_generate_integrated(4)</t>
+  </si>
+  <si>
+    <t>200218_Alfa_rfMapper_basic</t>
+  </si>
+  <si>
+    <t>200218_Alfa_rfMapper_basic(1)</t>
+  </si>
+  <si>
+    <t>200218_Alfa_generate_integrated</t>
+  </si>
+  <si>
+    <t>200219_Alfa_rfMapper_basic</t>
+  </si>
+  <si>
+    <t>200219_Alfa_rfMapper_basic(1)</t>
+  </si>
+  <si>
+    <t>200219_Alfa_generate_integrated(2)</t>
+  </si>
+  <si>
+    <t>200220_Alfa_rfMapper_basic</t>
+  </si>
+  <si>
+    <t>200220_Alfa_rfMapper_basic(1)</t>
+  </si>
+  <si>
+    <t>200220_Alfa_generate_integrated</t>
+  </si>
+  <si>
+    <t>200220_Alfa_generate_integrated(3)</t>
+  </si>
+  <si>
+    <t>200220_Alfa_generate_integrated(5)</t>
+  </si>
+  <si>
+    <t>200221_Alfa_rfMapper_basic</t>
+  </si>
+  <si>
+    <t>200221_Alfa_rfMapper_basic(1)</t>
+  </si>
+  <si>
+    <t>200221_Alfa_generate_integrated</t>
+  </si>
+  <si>
+    <t>200224_Alfa_rfMapper_basic</t>
+  </si>
+  <si>
+    <t>200224_Alfa_rfMapper_basic(1)</t>
+  </si>
+  <si>
+    <t>200224_Alfa_generate_integrated(3)</t>
+  </si>
+  <si>
+    <t>200224_Alfa_generate_integrated(4)</t>
+  </si>
+  <si>
+    <t>200225_Alfa_rfMapper_basic</t>
+  </si>
+  <si>
+    <t>200225_Alfa_rfMapper_basic(1)</t>
+  </si>
+  <si>
+    <t>200225_Alfa_generate_integrated(2)</t>
+  </si>
+  <si>
+    <t>200225_Alfa_generate_integrated(3)</t>
+  </si>
+  <si>
+    <t>200225_Alfa_generate_integrated(4)</t>
+  </si>
+  <si>
+    <t>200226_Alfa_rfMapper_basic</t>
+  </si>
+  <si>
+    <t>200226_Alfa_rfMapper_basic(1)</t>
+  </si>
+  <si>
+    <t>200226_Alfa_generate_integrated</t>
+  </si>
+  <si>
+    <t>200226_Alfa_generate_integrated(1)</t>
+  </si>
+  <si>
+    <t>200228_Alfa_rfMapper_basic</t>
+  </si>
+  <si>
+    <t>200228_Alfa_rfMapper_basic(1)</t>
+  </si>
+  <si>
+    <t>200228_Alfa_generate_integrated</t>
+  </si>
+  <si>
+    <t>200228_Alfa_generate_integrated(1)</t>
+  </si>
+  <si>
+    <t>200302_Alfa_generate_integrated</t>
+  </si>
+  <si>
+    <t>200302_Alfa_generate_integrated(1)</t>
+  </si>
+  <si>
+    <t>200309_Alfa_generate_integrated</t>
+  </si>
+  <si>
+    <t>200309_Alfa_selectivity_basic</t>
+  </si>
+  <si>
+    <t>200312_Alfa_rfMapper_basic</t>
+  </si>
+  <si>
+    <t>200312_Alfa_rfMapper_basic(1)</t>
+  </si>
+  <si>
+    <t>200312_Alfa_rfMapper_basic(2)</t>
+  </si>
+  <si>
+    <t>200312_Alfa_generate_integrated</t>
+  </si>
+  <si>
+    <t>200312_Alfa_generate_integrated(1)</t>
+  </si>
+  <si>
+    <t>200312_Alfa_selectivity_basic</t>
+  </si>
+  <si>
     <t>N:\Stimuli\2019-06-Evolutions\alfa-191119a</t>
   </si>
   <si>
@@ -1948,13 +2769,118 @@
   </si>
   <si>
     <t>N:\Stimuli\2019-12-Evolutions\2020-03-20-Alfa-04\2020-03-20-14-45-33</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-03-22-Alfa-01\2020-03-22-12-53-11</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-03-22-Alfa-02\2020-03-22-13-10-28</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-03-22-Alfa-03\2020-03-22-13-45-02</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-03-22-Alfa-04\2020-03-22-14-07-49</t>
+  </si>
+  <si>
+    <t>Stimuli\2019-12-Evolutions\2020-02-04-Alfa-01\2020-02-04-13-38-53</t>
+  </si>
+  <si>
+    <t>Stimuli\2019-12-Evolutions\2020-02-04-Alfa-02\2020-02-04-14-03-42</t>
+  </si>
+  <si>
+    <t>Stimuli\2019-12-Evolutions\2020-02-05-Alfa-01\2020-02-05-12-18-42</t>
+  </si>
+  <si>
+    <t>Stimuli\2019-12-Evolutions\2020-02-05-Alfa-03\2020-02-05-13-18-55</t>
+  </si>
+  <si>
+    <t>Stimuli\2019-12-Evolutions\2020-02-10-Alfa-01\2020-02-10-16-42-15</t>
+  </si>
+  <si>
+    <t>Stimuli\2019-12-Evolutions\2020-02-11-Alfa-01\2020-02-11-10-30-50</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-06-RF-mapping\2020-02-13-Alfa</t>
+  </si>
+  <si>
+    <t>Stimuli\2019-12-Evolutions\2020-02-13-Alfa-01\2020-02-13-12-41-34</t>
+  </si>
+  <si>
+    <t>Stimuli\2019-12-Evolutions\2020-02-17-Alfa-01\2020-02-17-13-23-41</t>
+  </si>
+  <si>
+    <t>Stimuli\2019-12-Evolutions\2020-02-18-Alfa-01\2020-02-18-12-31-42</t>
+  </si>
+  <si>
+    <t>Stimuli\2019-12-Evolutions\2020-02-19-Alfa-01\2020-02-19-13-01-32</t>
+  </si>
+  <si>
+    <t>Stimuli\2019-12-Evolutions\2020-02-20-Alfa-01\2020-02-20-12-58-56</t>
+  </si>
+  <si>
+    <t>Stimuli\2019-12-Evolutions\2020-02-20-Alfa-02\2020-02-20-13-57-30</t>
+  </si>
+  <si>
+    <t>Stimuli\2019-12-Evolutions\2020-02-20-Alfa-03\2020-02-20-15-00-54</t>
+  </si>
+  <si>
+    <t>Stimuli\2019-12-Evolutions\2020-02-21-Alfa-01\2020-02-21-14-00-54</t>
+  </si>
+  <si>
+    <t>Stimuli\2019-12-Evolutions\2020-02-24-Alfa-01\2020-02-24-14-05-10</t>
+  </si>
+  <si>
+    <t>Stimuli\2019-12-Evolutions\2020-02-24-Alfa-02\2020-02-24-14-48-31</t>
+  </si>
+  <si>
+    <t>Stimuli\2019-12-Evolutions\2020-02-25-Alfa-01\2020-02-25-13-18-15</t>
+  </si>
+  <si>
+    <t>Stimuli\2019-12-Evolutions\2020-02-25-Alfa-02\2020-02-25-14-36-14</t>
+  </si>
+  <si>
+    <t>Stimuli\2019-12-Evolutions\2020-02-25-Alfa-03\2020-02-25-15-34-30</t>
+  </si>
+  <si>
+    <t>Stimuli\2019-12-Evolutions\2020-02-26-Alfa-01\2020-02-26-13-24-53</t>
+  </si>
+  <si>
+    <t>Stimuli\2019-12-Evolutions\2020-02-26-Alfa-02\2020-02-26-14-04-11</t>
+  </si>
+  <si>
+    <t>Stimuli\2019-12-Evolutions\2020-02-28-Alfa-01\2020-02-28-14-12-38</t>
+  </si>
+  <si>
+    <t>Stimuli\2019-12-Evolutions\2020-02-28-Alfa-02\2020-02-28-14-46-53</t>
+  </si>
+  <si>
+    <t>Stimuli\2019-12-Evolutions\2020-03-02-Alfa-01\2020-03-02-14-02-16</t>
+  </si>
+  <si>
+    <t>Stimuli\2019-12-Evolutions\2020-03-02-Alfa-02\2020-03-02-14-44-23</t>
+  </si>
+  <si>
+    <t>Stimuli\2019-12-Evolutions\2020-03-09-Alfa-01\2020-03-09-14-21-36</t>
+  </si>
+  <si>
+    <t>Stimuli\2019-Selectivity\alfa_chan_24_bigSetHalf</t>
+  </si>
+  <si>
+    <t>Stimuli\2019-12-Evolutions\2020-03-12-Alfa-01\2020-03-12-13-05-05</t>
+  </si>
+  <si>
+    <t>Stimuli\2019-12-Evolutions\2020-03-12-Alfa-02\2020-03-12-14-05-24</t>
+  </si>
+  <si>
+    <t>Stimuli\2019-Selectivity\alfa_chan_39_newSU</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2013,15 +2939,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2063,7 +2997,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2095,9 +3029,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2129,6 +3081,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2304,14 +3274,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H120"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H181"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="A129" sqref="A129:XFD181"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="70.85546875" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="41.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2337,7 +3314,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -2345,13 +3322,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>130</v>
+        <v>192</v>
       </c>
       <c r="E2" t="s">
-        <v>249</v>
+        <v>372</v>
       </c>
       <c r="F2">
         <v>29</v>
@@ -2360,10 +3337,10 @@
         <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -2371,13 +3348,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>131</v>
+        <v>193</v>
       </c>
       <c r="E3" t="s">
-        <v>250</v>
+        <v>373</v>
       </c>
       <c r="F3">
         <v>29</v>
@@ -2386,7 +3363,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -2394,13 +3371,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>132</v>
+        <v>194</v>
       </c>
       <c r="E4" t="s">
-        <v>251</v>
+        <v>374</v>
       </c>
       <c r="F4">
         <v>29</v>
@@ -2409,10 +3386,10 @@
         <v>4</v>
       </c>
       <c r="H4" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2420,13 +3397,13 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>133</v>
+        <v>195</v>
       </c>
       <c r="E5" t="s">
-        <v>252</v>
+        <v>375</v>
       </c>
       <c r="F5">
         <v>29</v>
@@ -2435,10 +3412,10 @@
         <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2446,22 +3423,22 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>134</v>
+        <v>196</v>
       </c>
       <c r="E6" t="s">
-        <v>253</v>
+        <v>376</v>
       </c>
       <c r="F6">
         <v>29</v>
       </c>
       <c r="H6" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2469,13 +3446,13 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>135</v>
+        <v>197</v>
       </c>
       <c r="E7" t="s">
-        <v>254</v>
+        <v>377</v>
       </c>
       <c r="F7">
         <v>29</v>
@@ -2484,10 +3461,10 @@
         <v>4</v>
       </c>
       <c r="H7" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -2495,13 +3472,13 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>136</v>
+        <v>198</v>
       </c>
       <c r="E8" t="s">
-        <v>255</v>
+        <v>378</v>
       </c>
       <c r="F8">
         <v>9</v>
@@ -2510,10 +3487,10 @@
         <v>3</v>
       </c>
       <c r="H8" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2521,13 +3498,13 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>137</v>
+        <v>199</v>
       </c>
       <c r="E9" t="s">
-        <v>256</v>
+        <v>379</v>
       </c>
       <c r="F9">
         <v>9</v>
@@ -2536,10 +3513,10 @@
         <v>3</v>
       </c>
       <c r="H9" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2547,13 +3524,13 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>138</v>
+        <v>200</v>
       </c>
       <c r="E10" t="s">
-        <v>257</v>
+        <v>380</v>
       </c>
       <c r="F10">
         <v>9</v>
@@ -2562,10 +3539,10 @@
         <v>3</v>
       </c>
       <c r="H10" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -2573,13 +3550,13 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>139</v>
+        <v>201</v>
       </c>
       <c r="E11" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
       <c r="F11">
         <v>32</v>
@@ -2588,10 +3565,10 @@
         <v>3</v>
       </c>
       <c r="H11" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -2599,13 +3576,13 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>140</v>
+        <v>202</v>
       </c>
       <c r="E12" t="s">
-        <v>259</v>
+        <v>382</v>
       </c>
       <c r="F12">
         <v>32</v>
@@ -2614,10 +3591,10 @@
         <v>3</v>
       </c>
       <c r="H12" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -2625,13 +3602,13 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>141</v>
+        <v>203</v>
       </c>
       <c r="E13" t="s">
-        <v>260</v>
+        <v>383</v>
       </c>
       <c r="F13">
         <v>32</v>
@@ -2640,21 +3617,21 @@
         <v>3</v>
       </c>
       <c r="H13" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>142</v>
+        <v>204</v>
       </c>
       <c r="E14" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -2662,13 +3639,13 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>143</v>
+        <v>205</v>
       </c>
       <c r="E15" t="s">
-        <v>262</v>
+        <v>385</v>
       </c>
       <c r="F15">
         <v>3</v>
@@ -2677,10 +3654,10 @@
         <v>3</v>
       </c>
       <c r="H15" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -2688,13 +3665,13 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>144</v>
+        <v>206</v>
       </c>
       <c r="E16" t="s">
-        <v>263</v>
+        <v>386</v>
       </c>
       <c r="F16">
         <v>3</v>
@@ -2703,10 +3680,10 @@
         <v>3</v>
       </c>
       <c r="H16" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -2714,13 +3691,13 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>145</v>
+        <v>207</v>
       </c>
       <c r="E17" t="s">
-        <v>264</v>
+        <v>387</v>
       </c>
       <c r="F17">
         <v>3</v>
@@ -2729,21 +3706,21 @@
         <v>3</v>
       </c>
       <c r="H17" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D18" t="s">
-        <v>146</v>
+        <v>208</v>
       </c>
       <c r="E18" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -2751,13 +3728,13 @@
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>147</v>
+        <v>209</v>
       </c>
       <c r="E19" t="s">
-        <v>266</v>
+        <v>389</v>
       </c>
       <c r="F19">
         <v>7</v>
@@ -2766,10 +3743,10 @@
         <v>3</v>
       </c>
       <c r="H19" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -2777,13 +3754,13 @@
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>148</v>
+        <v>210</v>
       </c>
       <c r="E20" t="s">
-        <v>267</v>
+        <v>390</v>
       </c>
       <c r="F20">
         <v>7</v>
@@ -2792,10 +3769,10 @@
         <v>3</v>
       </c>
       <c r="H20" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -2803,13 +3780,13 @@
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>149</v>
+        <v>211</v>
       </c>
       <c r="E21" t="s">
-        <v>268</v>
+        <v>391</v>
       </c>
       <c r="F21">
         <v>7</v>
@@ -2818,66 +3795,66 @@
         <v>3</v>
       </c>
       <c r="H21" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D22" t="s">
-        <v>150</v>
+        <v>212</v>
       </c>
       <c r="E22" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>151</v>
+        <v>213</v>
       </c>
       <c r="E23" t="s">
-        <v>270</v>
+        <v>393</v>
       </c>
       <c r="G23">
         <v>3</v>
       </c>
       <c r="H23" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D24" t="s">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="E24" t="s">
-        <v>271</v>
+        <v>394</v>
       </c>
       <c r="G24">
         <v>4</v>
       </c>
       <c r="H24" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D25" t="s">
-        <v>153</v>
+        <v>215</v>
       </c>
       <c r="E25" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -2885,13 +3862,13 @@
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D26" t="s">
-        <v>154</v>
+        <v>216</v>
       </c>
       <c r="E26" t="s">
-        <v>273</v>
+        <v>396</v>
       </c>
       <c r="F26">
         <v>51</v>
@@ -2900,10 +3877,10 @@
         <v>3</v>
       </c>
       <c r="H26" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -2911,13 +3888,13 @@
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D27" t="s">
-        <v>155</v>
+        <v>217</v>
       </c>
       <c r="E27" t="s">
-        <v>274</v>
+        <v>397</v>
       </c>
       <c r="F27">
         <v>51</v>
@@ -2926,10 +3903,10 @@
         <v>3</v>
       </c>
       <c r="H27" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -2937,13 +3914,13 @@
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D28" t="s">
-        <v>156</v>
+        <v>218</v>
       </c>
       <c r="E28" t="s">
-        <v>275</v>
+        <v>398</v>
       </c>
       <c r="F28">
         <v>51</v>
@@ -2952,21 +3929,21 @@
         <v>3</v>
       </c>
       <c r="H28" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D29" t="s">
-        <v>157</v>
+        <v>219</v>
       </c>
       <c r="E29" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -2974,13 +3951,13 @@
         <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D30" t="s">
-        <v>158</v>
+        <v>220</v>
       </c>
       <c r="E30" t="s">
-        <v>277</v>
+        <v>400</v>
       </c>
       <c r="F30">
         <v>7</v>
@@ -2989,10 +3966,10 @@
         <v>3</v>
       </c>
       <c r="H30" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -3000,13 +3977,13 @@
         <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D31" t="s">
-        <v>159</v>
+        <v>221</v>
       </c>
       <c r="E31" t="s">
-        <v>278</v>
+        <v>401</v>
       </c>
       <c r="F31">
         <v>7</v>
@@ -3015,10 +3992,10 @@
         <v>3</v>
       </c>
       <c r="H31" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -3026,13 +4003,13 @@
         <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D32" t="s">
-        <v>160</v>
+        <v>222</v>
       </c>
       <c r="E32" t="s">
-        <v>279</v>
+        <v>402</v>
       </c>
       <c r="F32">
         <v>7</v>
@@ -3041,21 +4018,21 @@
         <v>3</v>
       </c>
       <c r="H32" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D33" t="s">
-        <v>161</v>
+        <v>223</v>
       </c>
       <c r="E33" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -3063,13 +4040,13 @@
         <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D34" t="s">
-        <v>162</v>
+        <v>224</v>
       </c>
       <c r="E34" t="s">
-        <v>281</v>
+        <v>404</v>
       </c>
       <c r="F34">
         <v>7</v>
@@ -3078,10 +4055,10 @@
         <v>3</v>
       </c>
       <c r="H34" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -3089,13 +4066,13 @@
         <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D35" t="s">
-        <v>163</v>
+        <v>225</v>
       </c>
       <c r="E35" t="s">
-        <v>282</v>
+        <v>405</v>
       </c>
       <c r="F35">
         <v>7</v>
@@ -3104,10 +4081,10 @@
         <v>3</v>
       </c>
       <c r="H35" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -3115,13 +4092,13 @@
         <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D36" t="s">
-        <v>164</v>
+        <v>226</v>
       </c>
       <c r="E36" t="s">
-        <v>283</v>
+        <v>406</v>
       </c>
       <c r="F36">
         <v>7</v>
@@ -3130,10 +4107,10 @@
         <v>3</v>
       </c>
       <c r="H36" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -3141,13 +4118,13 @@
         <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D37" t="s">
-        <v>165</v>
+        <v>227</v>
       </c>
       <c r="E37" t="s">
-        <v>284</v>
+        <v>407</v>
       </c>
       <c r="F37">
         <v>36</v>
@@ -3156,10 +4133,10 @@
         <v>3</v>
       </c>
       <c r="H37" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -3167,13 +4144,13 @@
         <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D38" t="s">
-        <v>166</v>
+        <v>228</v>
       </c>
       <c r="E38" t="s">
-        <v>285</v>
+        <v>408</v>
       </c>
       <c r="F38">
         <v>36</v>
@@ -3182,10 +4159,10 @@
         <v>3</v>
       </c>
       <c r="H38" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -3193,13 +4170,13 @@
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D39" t="s">
-        <v>167</v>
+        <v>229</v>
       </c>
       <c r="E39" t="s">
-        <v>286</v>
+        <v>409</v>
       </c>
       <c r="F39">
         <v>35</v>
@@ -3208,10 +4185,10 @@
         <v>3</v>
       </c>
       <c r="H39" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -3219,13 +4196,13 @@
         <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D40" t="s">
-        <v>168</v>
+        <v>230</v>
       </c>
       <c r="E40" t="s">
-        <v>287</v>
+        <v>410</v>
       </c>
       <c r="F40">
         <v>35</v>
@@ -3234,10 +4211,10 @@
         <v>3</v>
       </c>
       <c r="H40" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -3245,13 +4222,13 @@
         <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D41" t="s">
-        <v>169</v>
+        <v>231</v>
       </c>
       <c r="E41" t="s">
-        <v>288</v>
+        <v>411</v>
       </c>
       <c r="F41">
         <v>35</v>
@@ -3260,10 +4237,10 @@
         <v>3</v>
       </c>
       <c r="H41" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -3271,13 +4248,13 @@
         <v>12</v>
       </c>
       <c r="C42" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D42" t="s">
-        <v>170</v>
+        <v>232</v>
       </c>
       <c r="E42" t="s">
-        <v>289</v>
+        <v>412</v>
       </c>
       <c r="F42">
         <v>61</v>
@@ -3286,10 +4263,10 @@
         <v>3</v>
       </c>
       <c r="H42" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>8</v>
       </c>
@@ -3297,13 +4274,13 @@
         <v>12</v>
       </c>
       <c r="C43" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D43" t="s">
-        <v>171</v>
+        <v>233</v>
       </c>
       <c r="E43" t="s">
-        <v>290</v>
+        <v>413</v>
       </c>
       <c r="F43">
         <v>61</v>
@@ -3312,10 +4289,10 @@
         <v>3</v>
       </c>
       <c r="H43" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -3323,13 +4300,13 @@
         <v>12</v>
       </c>
       <c r="C44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D44" t="s">
-        <v>172</v>
+        <v>234</v>
       </c>
       <c r="E44" t="s">
-        <v>291</v>
+        <v>414</v>
       </c>
       <c r="F44">
         <v>61</v>
@@ -3338,10 +4315,10 @@
         <v>3</v>
       </c>
       <c r="H44" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -3349,13 +4326,13 @@
         <v>13</v>
       </c>
       <c r="C45" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D45" t="s">
-        <v>173</v>
+        <v>235</v>
       </c>
       <c r="E45" t="s">
-        <v>292</v>
+        <v>415</v>
       </c>
       <c r="F45">
         <v>33</v>
@@ -3364,10 +4341,10 @@
         <v>3</v>
       </c>
       <c r="H45" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -3375,13 +4352,13 @@
         <v>13</v>
       </c>
       <c r="C46" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D46" t="s">
-        <v>174</v>
+        <v>236</v>
       </c>
       <c r="E46" t="s">
-        <v>293</v>
+        <v>416</v>
       </c>
       <c r="F46">
         <v>33</v>
@@ -3390,10 +4367,10 @@
         <v>3</v>
       </c>
       <c r="H46" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -3401,13 +4378,13 @@
         <v>13</v>
       </c>
       <c r="C47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D47" t="s">
-        <v>175</v>
+        <v>237</v>
       </c>
       <c r="E47" t="s">
-        <v>294</v>
+        <v>417</v>
       </c>
       <c r="F47">
         <v>33</v>
@@ -3416,10 +4393,10 @@
         <v>3</v>
       </c>
       <c r="H47" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -3427,13 +4404,13 @@
         <v>14</v>
       </c>
       <c r="C48" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D48" t="s">
-        <v>176</v>
+        <v>238</v>
       </c>
       <c r="E48" t="s">
-        <v>295</v>
+        <v>418</v>
       </c>
       <c r="F48">
         <v>43</v>
@@ -3442,10 +4419,10 @@
         <v>3</v>
       </c>
       <c r="H48" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -3453,13 +4430,13 @@
         <v>14</v>
       </c>
       <c r="C49" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D49" t="s">
-        <v>177</v>
+        <v>239</v>
       </c>
       <c r="E49" t="s">
-        <v>296</v>
+        <v>419</v>
       </c>
       <c r="F49">
         <v>43</v>
@@ -3468,10 +4445,10 @@
         <v>3</v>
       </c>
       <c r="H49" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>8</v>
       </c>
@@ -3479,13 +4456,13 @@
         <v>14</v>
       </c>
       <c r="C50" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D50" t="s">
-        <v>178</v>
+        <v>240</v>
       </c>
       <c r="E50" t="s">
-        <v>297</v>
+        <v>420</v>
       </c>
       <c r="F50">
         <v>43</v>
@@ -3494,10 +4471,10 @@
         <v>3</v>
       </c>
       <c r="H50" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>8</v>
       </c>
@@ -3505,13 +4482,13 @@
         <v>15</v>
       </c>
       <c r="C51" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D51" t="s">
-        <v>179</v>
+        <v>241</v>
       </c>
       <c r="E51" t="s">
-        <v>298</v>
+        <v>421</v>
       </c>
       <c r="F51">
         <v>59</v>
@@ -3520,10 +4497,10 @@
         <v>3</v>
       </c>
       <c r="H51" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -3531,13 +4508,13 @@
         <v>15</v>
       </c>
       <c r="C52" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D52" t="s">
-        <v>180</v>
+        <v>242</v>
       </c>
       <c r="E52" t="s">
-        <v>299</v>
+        <v>422</v>
       </c>
       <c r="F52">
         <v>59</v>
@@ -3546,10 +4523,10 @@
         <v>3</v>
       </c>
       <c r="H52" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>8</v>
       </c>
@@ -3557,13 +4534,13 @@
         <v>15</v>
       </c>
       <c r="C53" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D53" t="s">
-        <v>181</v>
+        <v>243</v>
       </c>
       <c r="E53" t="s">
-        <v>300</v>
+        <v>423</v>
       </c>
       <c r="F53">
         <v>59</v>
@@ -3572,10 +4549,10 @@
         <v>3</v>
       </c>
       <c r="H53" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -3583,13 +4560,13 @@
         <v>16</v>
       </c>
       <c r="C54" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D54" t="s">
-        <v>182</v>
+        <v>244</v>
       </c>
       <c r="E54" t="s">
-        <v>301</v>
+        <v>424</v>
       </c>
       <c r="F54">
         <v>20</v>
@@ -3598,10 +4575,10 @@
         <v>3</v>
       </c>
       <c r="H54" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -3609,13 +4586,13 @@
         <v>16</v>
       </c>
       <c r="C55" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D55" t="s">
-        <v>183</v>
+        <v>245</v>
       </c>
       <c r="E55" t="s">
-        <v>302</v>
+        <v>425</v>
       </c>
       <c r="F55">
         <v>20</v>
@@ -3624,10 +4601,10 @@
         <v>3</v>
       </c>
       <c r="H55" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>8</v>
       </c>
@@ -3635,13 +4612,13 @@
         <v>16</v>
       </c>
       <c r="C56" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D56" t="s">
-        <v>184</v>
+        <v>246</v>
       </c>
       <c r="E56" t="s">
-        <v>303</v>
+        <v>426</v>
       </c>
       <c r="F56">
         <v>20</v>
@@ -3650,10 +4627,10 @@
         <v>3</v>
       </c>
       <c r="H56" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>8</v>
       </c>
@@ -3661,13 +4638,13 @@
         <v>17</v>
       </c>
       <c r="C57" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D57" t="s">
-        <v>185</v>
+        <v>247</v>
       </c>
       <c r="E57" t="s">
-        <v>304</v>
+        <v>427</v>
       </c>
       <c r="F57">
         <v>49</v>
@@ -3676,10 +4653,10 @@
         <v>3</v>
       </c>
       <c r="H57" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -3687,13 +4664,13 @@
         <v>17</v>
       </c>
       <c r="C58" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D58" t="s">
-        <v>186</v>
+        <v>248</v>
       </c>
       <c r="E58" t="s">
-        <v>305</v>
+        <v>428</v>
       </c>
       <c r="F58">
         <v>49</v>
@@ -3702,10 +4679,10 @@
         <v>3</v>
       </c>
       <c r="H58" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>8</v>
       </c>
@@ -3713,13 +4690,13 @@
         <v>17</v>
       </c>
       <c r="C59" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D59" t="s">
-        <v>187</v>
+        <v>249</v>
       </c>
       <c r="E59" t="s">
-        <v>306</v>
+        <v>429</v>
       </c>
       <c r="F59">
         <v>49</v>
@@ -3728,10 +4705,10 @@
         <v>3</v>
       </c>
       <c r="H59" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>8</v>
       </c>
@@ -3739,13 +4716,13 @@
         <v>18</v>
       </c>
       <c r="C60" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D60" t="s">
-        <v>188</v>
+        <v>250</v>
       </c>
       <c r="E60" t="s">
-        <v>307</v>
+        <v>430</v>
       </c>
       <c r="F60">
         <v>19</v>
@@ -3754,10 +4731,10 @@
         <v>3</v>
       </c>
       <c r="H60" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>8</v>
       </c>
@@ -3765,13 +4742,13 @@
         <v>18</v>
       </c>
       <c r="C61" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D61" t="s">
-        <v>189</v>
+        <v>251</v>
       </c>
       <c r="E61" t="s">
-        <v>308</v>
+        <v>431</v>
       </c>
       <c r="F61">
         <v>19</v>
@@ -3780,10 +4757,10 @@
         <v>3</v>
       </c>
       <c r="H61" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>8</v>
       </c>
@@ -3791,13 +4768,13 @@
         <v>18</v>
       </c>
       <c r="C62" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D62" t="s">
-        <v>190</v>
+        <v>252</v>
       </c>
       <c r="E62" t="s">
-        <v>309</v>
+        <v>432</v>
       </c>
       <c r="F62">
         <v>19</v>
@@ -3806,10 +4783,10 @@
         <v>3</v>
       </c>
       <c r="H62" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>8</v>
       </c>
@@ -3817,13 +4794,13 @@
         <v>19</v>
       </c>
       <c r="C63" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D63" t="s">
-        <v>191</v>
+        <v>253</v>
       </c>
       <c r="E63" t="s">
-        <v>310</v>
+        <v>433</v>
       </c>
       <c r="F63">
         <v>12</v>
@@ -3832,10 +4809,10 @@
         <v>3</v>
       </c>
       <c r="H63" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>8</v>
       </c>
@@ -3843,13 +4820,13 @@
         <v>19</v>
       </c>
       <c r="C64" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D64" t="s">
-        <v>192</v>
+        <v>254</v>
       </c>
       <c r="E64" t="s">
-        <v>311</v>
+        <v>434</v>
       </c>
       <c r="F64">
         <v>12</v>
@@ -3858,10 +4835,10 @@
         <v>3</v>
       </c>
       <c r="H64" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>8</v>
       </c>
@@ -3869,13 +4846,13 @@
         <v>19</v>
       </c>
       <c r="C65" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D65" t="s">
-        <v>193</v>
+        <v>255</v>
       </c>
       <c r="E65" t="s">
-        <v>312</v>
+        <v>435</v>
       </c>
       <c r="F65">
         <v>12</v>
@@ -3884,10 +4861,10 @@
         <v>3</v>
       </c>
       <c r="H65" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>8</v>
       </c>
@@ -3895,13 +4872,13 @@
         <v>20</v>
       </c>
       <c r="C66" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D66" t="s">
-        <v>194</v>
+        <v>256</v>
       </c>
       <c r="E66" t="s">
-        <v>313</v>
+        <v>436</v>
       </c>
       <c r="F66">
         <v>41</v>
@@ -3910,10 +4887,10 @@
         <v>3</v>
       </c>
       <c r="H66" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>8</v>
       </c>
@@ -3921,13 +4898,13 @@
         <v>20</v>
       </c>
       <c r="C67" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D67" t="s">
-        <v>195</v>
+        <v>257</v>
       </c>
       <c r="E67" t="s">
-        <v>314</v>
+        <v>437</v>
       </c>
       <c r="F67">
         <v>41</v>
@@ -3936,10 +4913,10 @@
         <v>3</v>
       </c>
       <c r="H67" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>8</v>
       </c>
@@ -3947,13 +4924,13 @@
         <v>20</v>
       </c>
       <c r="C68" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D68" t="s">
-        <v>196</v>
+        <v>258</v>
       </c>
       <c r="E68" t="s">
-        <v>315</v>
+        <v>438</v>
       </c>
       <c r="F68">
         <v>41</v>
@@ -3962,10 +4939,10 @@
         <v>3</v>
       </c>
       <c r="H68" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>8</v>
       </c>
@@ -3973,13 +4950,13 @@
         <v>21</v>
       </c>
       <c r="C69" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D69" t="s">
-        <v>197</v>
+        <v>259</v>
       </c>
       <c r="E69" t="s">
-        <v>316</v>
+        <v>439</v>
       </c>
       <c r="F69">
         <v>63</v>
@@ -3988,10 +4965,10 @@
         <v>3</v>
       </c>
       <c r="H69" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>8</v>
       </c>
@@ -3999,13 +4976,13 @@
         <v>21</v>
       </c>
       <c r="C70" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D70" t="s">
-        <v>198</v>
+        <v>260</v>
       </c>
       <c r="E70" t="s">
-        <v>317</v>
+        <v>440</v>
       </c>
       <c r="F70">
         <v>63</v>
@@ -4014,10 +4991,10 @@
         <v>3</v>
       </c>
       <c r="H70" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>8</v>
       </c>
@@ -4025,13 +5002,13 @@
         <v>21</v>
       </c>
       <c r="C71" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D71" t="s">
-        <v>199</v>
+        <v>261</v>
       </c>
       <c r="E71" t="s">
-        <v>318</v>
+        <v>441</v>
       </c>
       <c r="F71">
         <v>63</v>
@@ -4040,10 +5017,10 @@
         <v>3</v>
       </c>
       <c r="H71" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>8</v>
       </c>
@@ -4051,13 +5028,13 @@
         <v>22</v>
       </c>
       <c r="C72" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D72" t="s">
-        <v>200</v>
+        <v>262</v>
       </c>
       <c r="E72" t="s">
-        <v>319</v>
+        <v>442</v>
       </c>
       <c r="F72">
         <v>38</v>
@@ -4066,10 +5043,10 @@
         <v>3</v>
       </c>
       <c r="H72" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>8</v>
       </c>
@@ -4077,13 +5054,13 @@
         <v>22</v>
       </c>
       <c r="C73" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D73" t="s">
-        <v>201</v>
+        <v>263</v>
       </c>
       <c r="E73" t="s">
-        <v>320</v>
+        <v>443</v>
       </c>
       <c r="F73">
         <v>38</v>
@@ -4092,10 +5069,10 @@
         <v>3</v>
       </c>
       <c r="H73" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>8</v>
       </c>
@@ -4103,13 +5080,13 @@
         <v>22</v>
       </c>
       <c r="C74" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D74" t="s">
-        <v>202</v>
+        <v>264</v>
       </c>
       <c r="E74" t="s">
-        <v>321</v>
+        <v>444</v>
       </c>
       <c r="F74">
         <v>38</v>
@@ -4118,10 +5095,10 @@
         <v>3</v>
       </c>
       <c r="H74" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>8</v>
       </c>
@@ -4129,13 +5106,13 @@
         <v>23</v>
       </c>
       <c r="C75" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D75" t="s">
-        <v>203</v>
+        <v>265</v>
       </c>
       <c r="E75" t="s">
-        <v>322</v>
+        <v>445</v>
       </c>
       <c r="F75">
         <v>39</v>
@@ -4144,10 +5121,10 @@
         <v>3</v>
       </c>
       <c r="H75" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>8</v>
       </c>
@@ -4155,13 +5132,13 @@
         <v>23</v>
       </c>
       <c r="C76" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D76" t="s">
-        <v>204</v>
+        <v>266</v>
       </c>
       <c r="E76" t="s">
-        <v>323</v>
+        <v>446</v>
       </c>
       <c r="F76">
         <v>39</v>
@@ -4170,10 +5147,10 @@
         <v>3</v>
       </c>
       <c r="H76" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>8</v>
       </c>
@@ -4181,13 +5158,13 @@
         <v>23</v>
       </c>
       <c r="C77" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D77" t="s">
-        <v>205</v>
+        <v>267</v>
       </c>
       <c r="E77" t="s">
-        <v>324</v>
+        <v>447</v>
       </c>
       <c r="F77">
         <v>39</v>
@@ -4196,10 +5173,10 @@
         <v>3</v>
       </c>
       <c r="H77" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>8</v>
       </c>
@@ -4207,13 +5184,13 @@
         <v>24</v>
       </c>
       <c r="C78" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D78" t="s">
-        <v>206</v>
+        <v>268</v>
       </c>
       <c r="E78" t="s">
-        <v>325</v>
+        <v>448</v>
       </c>
       <c r="F78">
         <v>44</v>
@@ -4222,10 +5199,10 @@
         <v>3</v>
       </c>
       <c r="H78" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>8</v>
       </c>
@@ -4233,13 +5210,13 @@
         <v>24</v>
       </c>
       <c r="C79" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D79" t="s">
-        <v>207</v>
+        <v>269</v>
       </c>
       <c r="E79" t="s">
-        <v>326</v>
+        <v>449</v>
       </c>
       <c r="F79">
         <v>44</v>
@@ -4248,10 +5225,10 @@
         <v>3</v>
       </c>
       <c r="H79" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>8</v>
       </c>
@@ -4259,13 +5236,13 @@
         <v>24</v>
       </c>
       <c r="C80" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D80" t="s">
-        <v>208</v>
+        <v>270</v>
       </c>
       <c r="E80" t="s">
-        <v>327</v>
+        <v>450</v>
       </c>
       <c r="F80">
         <v>44</v>
@@ -4274,44 +5251,44 @@
         <v>3</v>
       </c>
       <c r="H80" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D81" t="s">
-        <v>209</v>
+        <v>271</v>
       </c>
       <c r="E81" t="s">
-        <v>328</v>
+        <v>451</v>
       </c>
       <c r="H81" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D82" t="s">
-        <v>210</v>
+        <v>272</v>
       </c>
       <c r="E82" t="s">
-        <v>329</v>
+        <v>452</v>
       </c>
       <c r="H82" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>9</v>
       </c>
@@ -4319,13 +5296,13 @@
         <v>1</v>
       </c>
       <c r="C83" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D83" t="s">
-        <v>211</v>
+        <v>273</v>
       </c>
       <c r="E83" t="s">
-        <v>330</v>
+        <v>453</v>
       </c>
       <c r="F83">
         <v>13</v>
@@ -4334,10 +5311,10 @@
         <v>3</v>
       </c>
       <c r="H83" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>9</v>
       </c>
@@ -4345,13 +5322,13 @@
         <v>2</v>
       </c>
       <c r="C84" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D84" t="s">
-        <v>212</v>
+        <v>274</v>
       </c>
       <c r="E84" t="s">
-        <v>331</v>
+        <v>454</v>
       </c>
       <c r="F84">
         <v>28</v>
@@ -4360,10 +5337,10 @@
         <v>3</v>
       </c>
       <c r="H84" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>9</v>
       </c>
@@ -4371,13 +5348,13 @@
         <v>3</v>
       </c>
       <c r="C85" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D85" t="s">
-        <v>213</v>
+        <v>275</v>
       </c>
       <c r="E85" t="s">
-        <v>332</v>
+        <v>455</v>
       </c>
       <c r="F85">
         <v>20</v>
@@ -4386,10 +5363,10 @@
         <v>5</v>
       </c>
       <c r="H85" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>9</v>
       </c>
@@ -4397,13 +5374,13 @@
         <v>4</v>
       </c>
       <c r="C86" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D86" t="s">
-        <v>214</v>
+        <v>276</v>
       </c>
       <c r="E86" t="s">
-        <v>333</v>
+        <v>456</v>
       </c>
       <c r="F86">
         <v>48</v>
@@ -4412,44 +5389,44 @@
         <v>3</v>
       </c>
       <c r="H86" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D87" t="s">
-        <v>215</v>
+        <v>277</v>
       </c>
       <c r="E87" t="s">
-        <v>334</v>
+        <v>457</v>
       </c>
       <c r="H87" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D88" t="s">
-        <v>216</v>
+        <v>278</v>
       </c>
       <c r="E88" t="s">
-        <v>335</v>
+        <v>458</v>
       </c>
       <c r="H88" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>9</v>
       </c>
@@ -4457,13 +5434,13 @@
         <v>5</v>
       </c>
       <c r="C89" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D89" t="s">
-        <v>217</v>
+        <v>279</v>
       </c>
       <c r="E89" t="s">
-        <v>336</v>
+        <v>459</v>
       </c>
       <c r="F89">
         <v>12</v>
@@ -4472,10 +5449,10 @@
         <v>3</v>
       </c>
       <c r="H89" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>9</v>
       </c>
@@ -4483,13 +5460,13 @@
         <v>6</v>
       </c>
       <c r="C90" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D90" t="s">
-        <v>218</v>
+        <v>280</v>
       </c>
       <c r="E90" t="s">
-        <v>337</v>
+        <v>460</v>
       </c>
       <c r="F90">
         <v>12</v>
@@ -4498,10 +5475,10 @@
         <v>3</v>
       </c>
       <c r="H90" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>9</v>
       </c>
@@ -4509,13 +5486,13 @@
         <v>7</v>
       </c>
       <c r="C91" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D91" t="s">
-        <v>219</v>
+        <v>281</v>
       </c>
       <c r="E91" t="s">
-        <v>338</v>
+        <v>461</v>
       </c>
       <c r="F91">
         <v>12</v>
@@ -4524,10 +5501,10 @@
         <v>3</v>
       </c>
       <c r="H91" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>9</v>
       </c>
@@ -4535,13 +5512,13 @@
         <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D92" t="s">
-        <v>220</v>
+        <v>282</v>
       </c>
       <c r="E92" t="s">
-        <v>339</v>
+        <v>462</v>
       </c>
       <c r="F92">
         <v>12</v>
@@ -4550,10 +5527,10 @@
         <v>3</v>
       </c>
       <c r="H92" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>9</v>
       </c>
@@ -4561,13 +5538,13 @@
         <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D93" t="s">
-        <v>221</v>
+        <v>283</v>
       </c>
       <c r="E93" t="s">
-        <v>340</v>
+        <v>463</v>
       </c>
       <c r="F93">
         <v>64</v>
@@ -4576,10 +5553,10 @@
         <v>4</v>
       </c>
       <c r="H93" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>9</v>
       </c>
@@ -4587,13 +5564,13 @@
         <v>10</v>
       </c>
       <c r="C94" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D94" t="s">
-        <v>222</v>
+        <v>284</v>
       </c>
       <c r="E94" t="s">
-        <v>341</v>
+        <v>464</v>
       </c>
       <c r="F94">
         <v>64</v>
@@ -4602,44 +5579,44 @@
         <v>4</v>
       </c>
       <c r="H94" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D95" t="s">
-        <v>223</v>
+        <v>285</v>
       </c>
       <c r="E95" t="s">
-        <v>342</v>
+        <v>465</v>
       </c>
       <c r="H95" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D96" t="s">
-        <v>224</v>
+        <v>286</v>
       </c>
       <c r="E96" t="s">
-        <v>343</v>
+        <v>466</v>
       </c>
       <c r="H96" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>9</v>
       </c>
@@ -4647,13 +5624,13 @@
         <v>11</v>
       </c>
       <c r="C97" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D97" t="s">
-        <v>225</v>
+        <v>287</v>
       </c>
       <c r="E97" t="s">
-        <v>344</v>
+        <v>467</v>
       </c>
       <c r="F97">
         <v>31</v>
@@ -4662,10 +5639,10 @@
         <v>4</v>
       </c>
       <c r="H97" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>9</v>
       </c>
@@ -4673,13 +5650,13 @@
         <v>12</v>
       </c>
       <c r="C98" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D98" t="s">
-        <v>226</v>
+        <v>288</v>
       </c>
       <c r="E98" t="s">
-        <v>345</v>
+        <v>468</v>
       </c>
       <c r="F98">
         <v>21</v>
@@ -4688,10 +5665,10 @@
         <v>4</v>
       </c>
       <c r="H98" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>9</v>
       </c>
@@ -4699,13 +5676,13 @@
         <v>13</v>
       </c>
       <c r="C99" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D99" t="s">
-        <v>227</v>
+        <v>289</v>
       </c>
       <c r="E99" t="s">
-        <v>346</v>
+        <v>469</v>
       </c>
       <c r="F99">
         <v>21</v>
@@ -4714,10 +5691,10 @@
         <v>4</v>
       </c>
       <c r="H99" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>9</v>
       </c>
@@ -4725,13 +5702,13 @@
         <v>14</v>
       </c>
       <c r="C100" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D100" t="s">
-        <v>228</v>
+        <v>290</v>
       </c>
       <c r="E100" t="s">
-        <v>347</v>
+        <v>470</v>
       </c>
       <c r="F100">
         <v>21</v>
@@ -4740,10 +5717,10 @@
         <v>4</v>
       </c>
       <c r="H100" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>9</v>
       </c>
@@ -4751,13 +5728,13 @@
         <v>15</v>
       </c>
       <c r="C101" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D101" t="s">
-        <v>229</v>
+        <v>291</v>
       </c>
       <c r="E101" t="s">
-        <v>348</v>
+        <v>471</v>
       </c>
       <c r="F101">
         <v>21</v>
@@ -4766,44 +5743,44 @@
         <v>4</v>
       </c>
       <c r="H101" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>10</v>
       </c>
       <c r="C102" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D102" t="s">
-        <v>230</v>
+        <v>292</v>
       </c>
       <c r="E102" t="s">
-        <v>349</v>
+        <v>472</v>
       </c>
       <c r="H102" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>10</v>
       </c>
       <c r="C103" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D103" t="s">
-        <v>231</v>
+        <v>293</v>
       </c>
       <c r="E103" t="s">
-        <v>350</v>
+        <v>473</v>
       </c>
       <c r="H103" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>10</v>
       </c>
@@ -4811,13 +5788,13 @@
         <v>1</v>
       </c>
       <c r="C104" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D104" t="s">
-        <v>232</v>
+        <v>294</v>
       </c>
       <c r="E104" t="s">
-        <v>351</v>
+        <v>474</v>
       </c>
       <c r="F104">
         <v>30</v>
@@ -4826,10 +5803,10 @@
         <v>3</v>
       </c>
       <c r="H104" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>10</v>
       </c>
@@ -4837,13 +5814,13 @@
         <v>2</v>
       </c>
       <c r="C105" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D105" t="s">
-        <v>233</v>
+        <v>295</v>
       </c>
       <c r="E105" t="s">
-        <v>352</v>
+        <v>475</v>
       </c>
       <c r="F105">
         <v>30</v>
@@ -4852,10 +5829,10 @@
         <v>3</v>
       </c>
       <c r="H105" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>10</v>
       </c>
@@ -4863,13 +5840,13 @@
         <v>3</v>
       </c>
       <c r="C106" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D106" t="s">
-        <v>234</v>
+        <v>296</v>
       </c>
       <c r="E106" t="s">
-        <v>353</v>
+        <v>476</v>
       </c>
       <c r="F106">
         <v>58</v>
@@ -4878,10 +5855,10 @@
         <v>4</v>
       </c>
       <c r="H106" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>10</v>
       </c>
@@ -4889,13 +5866,13 @@
         <v>4</v>
       </c>
       <c r="C107" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D107" t="s">
-        <v>235</v>
+        <v>297</v>
       </c>
       <c r="E107" t="s">
-        <v>354</v>
+        <v>477</v>
       </c>
       <c r="F107">
         <v>58</v>
@@ -4904,10 +5881,10 @@
         <v>4</v>
       </c>
       <c r="H107" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>10</v>
       </c>
@@ -4915,13 +5892,13 @@
         <v>5</v>
       </c>
       <c r="C108" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D108" t="s">
-        <v>236</v>
+        <v>298</v>
       </c>
       <c r="E108" t="s">
-        <v>355</v>
+        <v>478</v>
       </c>
       <c r="F108">
         <v>34</v>
@@ -4930,211 +5907,1203 @@
         <v>3</v>
       </c>
       <c r="H108" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>10</v>
       </c>
       <c r="C109" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D109" t="s">
-        <v>237</v>
+        <v>299</v>
       </c>
       <c r="E109" t="s">
-        <v>356</v>
+        <v>479</v>
       </c>
       <c r="H109" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>10</v>
       </c>
       <c r="C110" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D110" t="s">
-        <v>238</v>
+        <v>300</v>
       </c>
       <c r="E110" t="s">
-        <v>357</v>
+        <v>480</v>
       </c>
       <c r="H110" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>10</v>
       </c>
+      <c r="B111">
+        <v>6</v>
+      </c>
       <c r="C111" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D111" t="s">
-        <v>239</v>
+        <v>301</v>
       </c>
       <c r="E111" t="s">
-        <v>358</v>
+        <v>481</v>
       </c>
       <c r="H111" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>10</v>
       </c>
+      <c r="B112">
+        <v>7</v>
+      </c>
       <c r="C112" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D112" t="s">
-        <v>240</v>
+        <v>302</v>
       </c>
       <c r="E112" t="s">
-        <v>359</v>
+        <v>482</v>
       </c>
       <c r="H112" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>10</v>
       </c>
+      <c r="B113">
+        <v>8</v>
+      </c>
       <c r="C113" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D113" t="s">
-        <v>241</v>
+        <v>303</v>
       </c>
       <c r="E113" t="s">
-        <v>360</v>
+        <v>483</v>
       </c>
       <c r="H113" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>10</v>
       </c>
       <c r="C114" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D114" t="s">
-        <v>242</v>
+        <v>304</v>
       </c>
       <c r="E114" t="s">
-        <v>361</v>
+        <v>484</v>
       </c>
       <c r="H114" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>10</v>
       </c>
       <c r="C115" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D115" t="s">
-        <v>243</v>
+        <v>305</v>
       </c>
       <c r="E115" t="s">
-        <v>362</v>
+        <v>485</v>
       </c>
       <c r="H115" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>10</v>
       </c>
       <c r="C116" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D116" t="s">
-        <v>244</v>
+        <v>306</v>
       </c>
       <c r="E116" t="s">
-        <v>363</v>
+        <v>486</v>
       </c>
       <c r="H116" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>10</v>
       </c>
+      <c r="B117">
+        <v>9</v>
+      </c>
       <c r="C117" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D117" t="s">
-        <v>245</v>
+        <v>307</v>
       </c>
       <c r="E117" t="s">
-        <v>364</v>
+        <v>487</v>
       </c>
       <c r="H117" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>10</v>
       </c>
+      <c r="B118">
+        <v>10</v>
+      </c>
       <c r="C118" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D118" t="s">
-        <v>246</v>
+        <v>308</v>
       </c>
       <c r="E118" t="s">
-        <v>365</v>
+        <v>488</v>
       </c>
       <c r="H118" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>10</v>
       </c>
+      <c r="B119">
+        <v>11</v>
+      </c>
       <c r="C119" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D119" t="s">
-        <v>247</v>
+        <v>309</v>
       </c>
       <c r="E119" t="s">
-        <v>366</v>
+        <v>489</v>
       </c>
       <c r="H119" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>10</v>
       </c>
+      <c r="B120">
+        <v>12</v>
+      </c>
       <c r="C120" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D120" t="s">
-        <v>248</v>
+        <v>310</v>
       </c>
       <c r="E120" t="s">
+        <v>490</v>
+      </c>
+      <c r="H120" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>10</v>
+      </c>
+      <c r="C121" t="s">
+        <v>131</v>
+      </c>
+      <c r="D121" t="s">
+        <v>311</v>
+      </c>
+      <c r="E121" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>10</v>
+      </c>
+      <c r="C122" t="s">
+        <v>132</v>
+      </c>
+      <c r="D122" t="s">
+        <v>312</v>
+      </c>
+      <c r="E122" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>10</v>
+      </c>
+      <c r="C123" t="s">
+        <v>133</v>
+      </c>
+      <c r="D123" t="s">
+        <v>313</v>
+      </c>
+      <c r="E123" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>10</v>
+      </c>
+      <c r="C124" t="s">
+        <v>134</v>
+      </c>
+      <c r="D124" t="s">
+        <v>314</v>
+      </c>
+      <c r="E124" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>10</v>
+      </c>
+      <c r="B125">
+        <v>13</v>
+      </c>
+      <c r="C125" t="s">
+        <v>135</v>
+      </c>
+      <c r="D125" t="s">
+        <v>315</v>
+      </c>
+      <c r="E125" t="s">
+        <v>495</v>
+      </c>
+      <c r="H125" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>10</v>
+      </c>
+      <c r="B126">
+        <v>14</v>
+      </c>
+      <c r="C126" t="s">
+        <v>136</v>
+      </c>
+      <c r="D126" t="s">
+        <v>316</v>
+      </c>
+      <c r="E126" t="s">
+        <v>496</v>
+      </c>
+      <c r="H126" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>10</v>
+      </c>
+      <c r="B127">
+        <v>15</v>
+      </c>
+      <c r="C127" t="s">
+        <v>137</v>
+      </c>
+      <c r="D127" t="s">
+        <v>317</v>
+      </c>
+      <c r="E127" t="s">
+        <v>497</v>
+      </c>
+      <c r="H127" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>10</v>
+      </c>
+      <c r="B128">
+        <v>16</v>
+      </c>
+      <c r="C128" t="s">
+        <v>138</v>
+      </c>
+      <c r="D128" t="s">
+        <v>318</v>
+      </c>
+      <c r="E128" t="s">
+        <v>498</v>
+      </c>
+      <c r="H128" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>11</v>
+      </c>
+      <c r="C129" t="s">
+        <v>139</v>
+      </c>
+      <c r="D129" t="s">
+        <v>319</v>
+      </c>
+      <c r="E129" t="s">
+        <v>499</v>
+      </c>
+      <c r="H129" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>11</v>
+      </c>
+      <c r="C130" t="s">
+        <v>140</v>
+      </c>
+      <c r="D130" t="s">
+        <v>320</v>
+      </c>
+      <c r="E130" t="s">
+        <v>500</v>
+      </c>
+      <c r="H130" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>11</v>
+      </c>
+      <c r="C131" t="s">
+        <v>141</v>
+      </c>
+      <c r="D131" t="s">
+        <v>321</v>
+      </c>
+      <c r="E131" t="s">
+        <v>501</v>
+      </c>
+      <c r="H131" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>11</v>
+      </c>
+      <c r="C132" t="s">
+        <v>142</v>
+      </c>
+      <c r="D132" t="s">
+        <v>322</v>
+      </c>
+      <c r="E132" t="s">
+        <v>502</v>
+      </c>
+      <c r="H132" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>11</v>
+      </c>
+      <c r="C133" t="s">
+        <v>143</v>
+      </c>
+      <c r="D133" t="s">
+        <v>323</v>
+      </c>
+      <c r="E133" t="s">
+        <v>503</v>
+      </c>
+      <c r="H133" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>11</v>
+      </c>
+      <c r="C134" t="s">
+        <v>144</v>
+      </c>
+      <c r="D134" t="s">
+        <v>324</v>
+      </c>
+      <c r="E134" t="s">
+        <v>504</v>
+      </c>
+      <c r="H134" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>11</v>
+      </c>
+      <c r="C135" t="s">
+        <v>145</v>
+      </c>
+      <c r="D135" t="s">
+        <v>325</v>
+      </c>
+      <c r="E135" t="s">
+        <v>505</v>
+      </c>
+      <c r="H135" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>11</v>
+      </c>
+      <c r="C136" t="s">
+        <v>146</v>
+      </c>
+      <c r="D136" t="s">
+        <v>326</v>
+      </c>
+      <c r="E136" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>11</v>
+      </c>
+      <c r="C137" t="s">
+        <v>147</v>
+      </c>
+      <c r="D137" t="s">
+        <v>327</v>
+      </c>
+      <c r="E137" t="s">
+        <v>507</v>
+      </c>
+      <c r="H137" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>11</v>
+      </c>
+      <c r="C138" t="s">
+        <v>148</v>
+      </c>
+      <c r="D138" t="s">
+        <v>328</v>
+      </c>
+      <c r="E138" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>11</v>
+      </c>
+      <c r="C139" t="s">
+        <v>149</v>
+      </c>
+      <c r="D139" t="s">
+        <v>329</v>
+      </c>
+      <c r="E139" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>11</v>
+      </c>
+      <c r="C140" t="s">
+        <v>150</v>
+      </c>
+      <c r="D140" t="s">
+        <v>330</v>
+      </c>
+      <c r="E140" t="s">
+        <v>510</v>
+      </c>
+      <c r="H140" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>11</v>
+      </c>
+      <c r="C141" t="s">
+        <v>151</v>
+      </c>
+      <c r="D141" t="s">
+        <v>331</v>
+      </c>
+      <c r="E141" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>11</v>
+      </c>
+      <c r="C142" t="s">
+        <v>152</v>
+      </c>
+      <c r="D142" t="s">
+        <v>332</v>
+      </c>
+      <c r="E142" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>11</v>
+      </c>
+      <c r="C143" t="s">
+        <v>153</v>
+      </c>
+      <c r="D143" t="s">
+        <v>333</v>
+      </c>
+      <c r="E143" t="s">
+        <v>513</v>
+      </c>
+      <c r="H143" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>11</v>
+      </c>
+      <c r="C144" t="s">
+        <v>154</v>
+      </c>
+      <c r="D144" t="s">
+        <v>334</v>
+      </c>
+      <c r="E144" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>11</v>
+      </c>
+      <c r="C145" t="s">
+        <v>155</v>
+      </c>
+      <c r="D145" t="s">
+        <v>335</v>
+      </c>
+      <c r="E145" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>11</v>
+      </c>
+      <c r="C146" t="s">
+        <v>156</v>
+      </c>
+      <c r="D146" t="s">
+        <v>336</v>
+      </c>
+      <c r="E146" t="s">
+        <v>516</v>
+      </c>
+      <c r="H146" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>11</v>
+      </c>
+      <c r="C147" t="s">
+        <v>157</v>
+      </c>
+      <c r="D147" t="s">
+        <v>337</v>
+      </c>
+      <c r="E147" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>11</v>
+      </c>
+      <c r="C148" t="s">
+        <v>158</v>
+      </c>
+      <c r="D148" t="s">
+        <v>338</v>
+      </c>
+      <c r="E148" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>11</v>
+      </c>
+      <c r="C149" t="s">
+        <v>159</v>
+      </c>
+      <c r="D149" t="s">
+        <v>339</v>
+      </c>
+      <c r="E149" t="s">
+        <v>519</v>
+      </c>
+      <c r="H149" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>11</v>
+      </c>
+      <c r="C150" t="s">
+        <v>160</v>
+      </c>
+      <c r="D150" t="s">
+        <v>340</v>
+      </c>
+      <c r="E150" t="s">
+        <v>520</v>
+      </c>
+      <c r="H150" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>11</v>
+      </c>
+      <c r="C151" t="s">
+        <v>161</v>
+      </c>
+      <c r="D151" t="s">
+        <v>341</v>
+      </c>
+      <c r="E151" t="s">
+        <v>521</v>
+      </c>
+      <c r="H151" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>11</v>
+      </c>
+      <c r="C152" t="s">
+        <v>162</v>
+      </c>
+      <c r="D152" t="s">
+        <v>342</v>
+      </c>
+      <c r="E152" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>11</v>
+      </c>
+      <c r="C153" t="s">
+        <v>163</v>
+      </c>
+      <c r="D153" t="s">
+        <v>343</v>
+      </c>
+      <c r="E153" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>11</v>
+      </c>
+      <c r="C154" t="s">
+        <v>164</v>
+      </c>
+      <c r="D154" t="s">
+        <v>344</v>
+      </c>
+      <c r="E154" t="s">
+        <v>524</v>
+      </c>
+      <c r="H154" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>11</v>
+      </c>
+      <c r="C155" t="s">
+        <v>165</v>
+      </c>
+      <c r="D155" t="s">
+        <v>345</v>
+      </c>
+      <c r="E155" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>11</v>
+      </c>
+      <c r="C156" t="s">
+        <v>166</v>
+      </c>
+      <c r="D156" t="s">
+        <v>346</v>
+      </c>
+      <c r="E156" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>11</v>
+      </c>
+      <c r="C157" t="s">
+        <v>167</v>
+      </c>
+      <c r="D157" t="s">
+        <v>347</v>
+      </c>
+      <c r="E157" t="s">
+        <v>527</v>
+      </c>
+      <c r="H157" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>11</v>
+      </c>
+      <c r="C158" t="s">
+        <v>168</v>
+      </c>
+      <c r="D158" t="s">
+        <v>348</v>
+      </c>
+      <c r="E158" t="s">
+        <v>528</v>
+      </c>
+      <c r="H158" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>11</v>
+      </c>
+      <c r="C159" t="s">
+        <v>169</v>
+      </c>
+      <c r="D159" t="s">
+        <v>349</v>
+      </c>
+      <c r="E159" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>11</v>
+      </c>
+      <c r="C160" t="s">
+        <v>170</v>
+      </c>
+      <c r="D160" t="s">
+        <v>350</v>
+      </c>
+      <c r="E160" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>11</v>
+      </c>
+      <c r="C161" t="s">
+        <v>171</v>
+      </c>
+      <c r="D161" t="s">
+        <v>351</v>
+      </c>
+      <c r="E161" t="s">
+        <v>531</v>
+      </c>
+      <c r="H161" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>11</v>
+      </c>
+      <c r="C162" t="s">
+        <v>172</v>
+      </c>
+      <c r="D162" t="s">
+        <v>352</v>
+      </c>
+      <c r="E162" t="s">
+        <v>532</v>
+      </c>
+      <c r="H162" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>11</v>
+      </c>
+      <c r="C163" t="s">
+        <v>173</v>
+      </c>
+      <c r="D163" t="s">
+        <v>353</v>
+      </c>
+      <c r="E163" t="s">
+        <v>533</v>
+      </c>
+      <c r="H163" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>11</v>
+      </c>
+      <c r="C164" t="s">
+        <v>174</v>
+      </c>
+      <c r="D164" t="s">
+        <v>354</v>
+      </c>
+      <c r="E164" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>11</v>
+      </c>
+      <c r="C165" t="s">
+        <v>175</v>
+      </c>
+      <c r="D165" t="s">
+        <v>355</v>
+      </c>
+      <c r="E165" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>11</v>
+      </c>
+      <c r="C166" t="s">
+        <v>176</v>
+      </c>
+      <c r="D166" t="s">
+        <v>356</v>
+      </c>
+      <c r="E166" t="s">
+        <v>536</v>
+      </c>
+      <c r="H166" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>11</v>
+      </c>
+      <c r="C167" t="s">
+        <v>177</v>
+      </c>
+      <c r="D167" t="s">
+        <v>357</v>
+      </c>
+      <c r="E167" t="s">
+        <v>537</v>
+      </c>
+      <c r="H167" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>11</v>
+      </c>
+      <c r="C168" t="s">
+        <v>178</v>
+      </c>
+      <c r="D168" t="s">
+        <v>358</v>
+      </c>
+      <c r="E168" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>11</v>
+      </c>
+      <c r="C169" t="s">
+        <v>179</v>
+      </c>
+      <c r="D169" t="s">
+        <v>359</v>
+      </c>
+      <c r="E169" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>11</v>
+      </c>
+      <c r="C170" t="s">
+        <v>180</v>
+      </c>
+      <c r="D170" t="s">
+        <v>360</v>
+      </c>
+      <c r="E170" t="s">
+        <v>540</v>
+      </c>
+      <c r="H170" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>11</v>
+      </c>
+      <c r="C171" t="s">
+        <v>181</v>
+      </c>
+      <c r="D171" t="s">
+        <v>361</v>
+      </c>
+      <c r="E171" t="s">
+        <v>541</v>
+      </c>
+      <c r="H171" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>11</v>
+      </c>
+      <c r="C172" t="s">
+        <v>182</v>
+      </c>
+      <c r="D172" t="s">
+        <v>362</v>
+      </c>
+      <c r="E172" t="s">
+        <v>542</v>
+      </c>
+      <c r="H172" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>11</v>
+      </c>
+      <c r="C173" t="s">
+        <v>183</v>
+      </c>
+      <c r="D173" t="s">
+        <v>363</v>
+      </c>
+      <c r="E173" t="s">
+        <v>543</v>
+      </c>
+      <c r="H173" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>11</v>
+      </c>
+      <c r="C174" t="s">
+        <v>184</v>
+      </c>
+      <c r="D174" t="s">
+        <v>364</v>
+      </c>
+      <c r="E174" t="s">
+        <v>544</v>
+      </c>
+      <c r="H174" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>11</v>
+      </c>
+      <c r="C175" t="s">
+        <v>185</v>
+      </c>
+      <c r="D175" t="s">
+        <v>365</v>
+      </c>
+      <c r="E175" t="s">
+        <v>545</v>
+      </c>
+      <c r="H175" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>11</v>
+      </c>
+      <c r="C176" t="s">
+        <v>186</v>
+      </c>
+      <c r="D176" t="s">
+        <v>366</v>
+      </c>
+      <c r="E176" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>11</v>
+      </c>
+      <c r="C177" t="s">
+        <v>187</v>
+      </c>
+      <c r="D177" t="s">
         <v>367</v>
       </c>
-      <c r="H120" t="s">
-        <v>472</v>
+      <c r="E177" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>11</v>
+      </c>
+      <c r="C178" t="s">
+        <v>188</v>
+      </c>
+      <c r="D178" t="s">
+        <v>368</v>
+      </c>
+      <c r="E178" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>11</v>
+      </c>
+      <c r="C179" t="s">
+        <v>189</v>
+      </c>
+      <c r="D179" t="s">
+        <v>369</v>
+      </c>
+      <c r="E179" t="s">
+        <v>549</v>
+      </c>
+      <c r="H179" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>11</v>
+      </c>
+      <c r="C180" t="s">
+        <v>190</v>
+      </c>
+      <c r="D180" t="s">
+        <v>370</v>
+      </c>
+      <c r="E180" t="s">
+        <v>550</v>
+      </c>
+      <c r="H180" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>11</v>
+      </c>
+      <c r="C181" t="s">
+        <v>191</v>
+      </c>
+      <c r="D181" t="s">
+        <v>371</v>
+      </c>
+      <c r="E181" t="s">
+        <v>551</v>
+      </c>
+      <c r="H181" t="s">
+        <v>691</v>
       </c>
     </row>
   </sheetData>

--- a/Exp_Record_Alfa.xlsx
+++ b/Exp_Record_Alfa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E75554D3-0D4E-4003-8337-C546FEF44303}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB044DD-6F65-4F87-8B2F-3F88F1F2837C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9765" yWindow="2790" windowWidth="15585" windowHeight="11145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="692">
   <si>
     <t>Exp_collection</t>
   </si>
@@ -1015,26 +1015,6 @@
 Completed</t>
   </si>
   <si>
-    <t xml:space="preserve">Ch. 7 [0 -2] 3 1 'CMAES'
-Ch. 7 [0 -2] 3 2 'CMAES'
-SU vs. hash
-Start: 4:42 pm
-Eye signal is really bad today.  Fix window at 1.2 and he's struggling.  28% accuracy at block 7
-Recalibrated eye signals, accuracy went up significantly
-Evolutions seem to be climbing at block 15
-50 blocks, complete </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SU v Hash ch. 63 [0, -2] SU 1/5 very visually responsive. Start at 10:30
-63 [0, -2] 3 1 
-63 [0, -2] 3 2
-I took out 200 mL water, so he started with 200, not 400. plan to add grape juice.
-Working great now, 75%.
-(Mary remember it's taking off and doing good)
-Crashed at block 13. 
-Feb. 13th Using the function same as beto rig! </t>
-  </si>
-  <si>
     <t>001RFMapping 
 starts 11:59 AM
 -8:2:8 2deg image.
@@ -2783,113 +2763,125 @@
     <t>N:\Stimuli\2019-12-Evolutions\2020-03-22-Alfa-04\2020-03-22-14-07-49</t>
   </si>
   <si>
-    <t>Stimuli\2019-12-Evolutions\2020-02-04-Alfa-01\2020-02-04-13-38-53</t>
-  </si>
-  <si>
-    <t>Stimuli\2019-12-Evolutions\2020-02-04-Alfa-02\2020-02-04-14-03-42</t>
-  </si>
-  <si>
-    <t>Stimuli\2019-12-Evolutions\2020-02-05-Alfa-01\2020-02-05-12-18-42</t>
-  </si>
-  <si>
-    <t>Stimuli\2019-12-Evolutions\2020-02-05-Alfa-03\2020-02-05-13-18-55</t>
-  </si>
-  <si>
-    <t>Stimuli\2019-12-Evolutions\2020-02-10-Alfa-01\2020-02-10-16-42-15</t>
-  </si>
-  <si>
-    <t>Stimuli\2019-12-Evolutions\2020-02-11-Alfa-01\2020-02-11-10-30-50</t>
-  </si>
-  <si>
     <t>N:\Stimuli\2019-06-RF-mapping\2020-02-13-Alfa</t>
   </si>
   <si>
-    <t>Stimuli\2019-12-Evolutions\2020-02-13-Alfa-01\2020-02-13-12-41-34</t>
-  </si>
-  <si>
-    <t>Stimuli\2019-12-Evolutions\2020-02-17-Alfa-01\2020-02-17-13-23-41</t>
-  </si>
-  <si>
-    <t>Stimuli\2019-12-Evolutions\2020-02-18-Alfa-01\2020-02-18-12-31-42</t>
-  </si>
-  <si>
-    <t>Stimuli\2019-12-Evolutions\2020-02-19-Alfa-01\2020-02-19-13-01-32</t>
-  </si>
-  <si>
-    <t>Stimuli\2019-12-Evolutions\2020-02-20-Alfa-01\2020-02-20-12-58-56</t>
-  </si>
-  <si>
-    <t>Stimuli\2019-12-Evolutions\2020-02-20-Alfa-02\2020-02-20-13-57-30</t>
-  </si>
-  <si>
-    <t>Stimuli\2019-12-Evolutions\2020-02-20-Alfa-03\2020-02-20-15-00-54</t>
-  </si>
-  <si>
-    <t>Stimuli\2019-12-Evolutions\2020-02-21-Alfa-01\2020-02-21-14-00-54</t>
-  </si>
-  <si>
-    <t>Stimuli\2019-12-Evolutions\2020-02-24-Alfa-01\2020-02-24-14-05-10</t>
-  </si>
-  <si>
-    <t>Stimuli\2019-12-Evolutions\2020-02-24-Alfa-02\2020-02-24-14-48-31</t>
-  </si>
-  <si>
-    <t>Stimuli\2019-12-Evolutions\2020-02-25-Alfa-01\2020-02-25-13-18-15</t>
-  </si>
-  <si>
-    <t>Stimuli\2019-12-Evolutions\2020-02-25-Alfa-02\2020-02-25-14-36-14</t>
-  </si>
-  <si>
-    <t>Stimuli\2019-12-Evolutions\2020-02-25-Alfa-03\2020-02-25-15-34-30</t>
-  </si>
-  <si>
-    <t>Stimuli\2019-12-Evolutions\2020-02-26-Alfa-01\2020-02-26-13-24-53</t>
-  </si>
-  <si>
-    <t>Stimuli\2019-12-Evolutions\2020-02-26-Alfa-02\2020-02-26-14-04-11</t>
-  </si>
-  <si>
-    <t>Stimuli\2019-12-Evolutions\2020-02-28-Alfa-01\2020-02-28-14-12-38</t>
-  </si>
-  <si>
-    <t>Stimuli\2019-12-Evolutions\2020-02-28-Alfa-02\2020-02-28-14-46-53</t>
-  </si>
-  <si>
-    <t>Stimuli\2019-12-Evolutions\2020-03-02-Alfa-01\2020-03-02-14-02-16</t>
-  </si>
-  <si>
-    <t>Stimuli\2019-12-Evolutions\2020-03-02-Alfa-02\2020-03-02-14-44-23</t>
-  </si>
-  <si>
-    <t>Stimuli\2019-12-Evolutions\2020-03-09-Alfa-01\2020-03-09-14-21-36</t>
-  </si>
-  <si>
     <t>Stimuli\2019-Selectivity\alfa_chan_24_bigSetHalf</t>
   </si>
   <si>
-    <t>Stimuli\2019-12-Evolutions\2020-03-12-Alfa-01\2020-03-12-13-05-05</t>
-  </si>
-  <si>
-    <t>Stimuli\2019-12-Evolutions\2020-03-12-Alfa-02\2020-03-12-14-05-24</t>
-  </si>
-  <si>
     <t>Stimuli\2019-Selectivity\alfa_chan_39_newSU</t>
+  </si>
+  <si>
+    <t>Ch. 7 [0 -2] 3 1 'CMAES'
+Ch. 7 [0 -2] 3 2 'CMAES'
+SU vs. hash
+Start: 4:42 pm
+Eye signal is really bad today.  Fix window at 1.2 and he's struggling.  28% accuracy at block 7
+Recalibrated eye signals, accuracy went up significantly
+Evolutions seem to be climbing at block 15
+50 blocks, complete</t>
+  </si>
+  <si>
+    <t>SU v Hash ch. 63 [0, -2] SU 1/5 very visually responsive. Start at 10:30
+63 [0, -2] 3 1 
+63 [0, -2] 3 2
+I took out 200 mL water, so he started with 200, not 400. plan to add grape juice.
+Working great now, 75%.
+(Mary remember it's taking off and doing good)
+Crashed at block 13. 
+Feb. 13th Using the function same as beto rig!</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-02-04-Alfa-01\2020-02-04-13-38-53</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-02-04-Alfa-02\2020-02-04-14-03-42</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-02-05-Alfa-01\2020-02-05-12-18-42</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-02-05-Alfa-03\2020-02-05-13-18-55</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-02-10-Alfa-01\2020-02-10-16-42-15</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-02-11-Alfa-01\2020-02-11-10-30-50</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-02-13-Alfa-01\2020-02-13-12-41-34</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-02-17-Alfa-01\2020-02-17-13-23-41</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-02-18-Alfa-01\2020-02-18-12-31-42</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-02-19-Alfa-01\2020-02-19-13-01-32</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-02-20-Alfa-01\2020-02-20-12-58-56</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-02-20-Alfa-02\2020-02-20-13-57-30</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-02-20-Alfa-03\2020-02-20-15-00-54</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-02-21-Alfa-01\2020-02-21-14-00-54</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-02-24-Alfa-01\2020-02-24-14-05-10</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-02-24-Alfa-02\2020-02-24-14-48-31</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-02-25-Alfa-01\2020-02-25-13-18-15</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-02-25-Alfa-02\2020-02-25-14-36-14</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-02-25-Alfa-03\2020-02-25-15-34-30</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-02-26-Alfa-01\2020-02-26-13-24-53</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-02-26-Alfa-02\2020-02-26-14-04-11</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-02-28-Alfa-01\2020-02-28-14-12-38</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-02-28-Alfa-02\2020-02-28-14-46-53</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-03-02-Alfa-01\2020-03-02-14-02-16</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-03-02-Alfa-02\2020-03-02-14-44-23</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-03-09-Alfa-01\2020-03-09-14-21-36</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-03-12-Alfa-01\2020-03-12-13-05-05</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-03-12-Alfa-02\2020-03-12-14-05-24</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -2914,18 +2906,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -2934,9 +2918,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3277,15 +3259,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="A129" sqref="A129:XFD181"/>
+    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="B134" sqref="B134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="70.85546875" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" customWidth="1"/>
-    <col min="5" max="5" width="41.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="4.85546875" customWidth="1"/>
+    <col min="3" max="3" width="139.28515625" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" customWidth="1"/>
+    <col min="8" max="8" width="71.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -3315,20 +3302,20 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
-        <v>192</v>
-      </c>
-      <c r="E2" t="s">
-        <v>372</v>
+      <c r="D2" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>370</v>
       </c>
       <c r="F2">
         <v>29</v>
@@ -3336,25 +3323,25 @@
       <c r="G2">
         <v>4</v>
       </c>
-      <c r="H2" t="s">
-        <v>552</v>
+      <c r="H2" s="1" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
-        <v>193</v>
-      </c>
-      <c r="E3" t="s">
-        <v>373</v>
+      <c r="D3" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>371</v>
       </c>
       <c r="F3">
         <v>29</v>
@@ -3364,20 +3351,20 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
-        <v>194</v>
-      </c>
-      <c r="E4" t="s">
-        <v>374</v>
+      <c r="D4" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>372</v>
       </c>
       <c r="F4">
         <v>29</v>
@@ -3385,25 +3372,25 @@
       <c r="G4">
         <v>4</v>
       </c>
-      <c r="H4" t="s">
-        <v>553</v>
+      <c r="H4" s="1" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
-        <v>195</v>
-      </c>
-      <c r="E5" t="s">
-        <v>375</v>
+      <c r="D5" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>373</v>
       </c>
       <c r="F5">
         <v>29</v>
@@ -3411,48 +3398,48 @@
       <c r="G5">
         <v>4</v>
       </c>
-      <c r="H5" t="s">
-        <v>554</v>
+      <c r="H5" s="1" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D6" t="s">
-        <v>196</v>
-      </c>
-      <c r="E6" t="s">
-        <v>376</v>
+      <c r="D6" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>374</v>
       </c>
       <c r="F6">
         <v>29</v>
       </c>
-      <c r="H6" t="s">
-        <v>555</v>
+      <c r="H6" s="1" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" t="s">
-        <v>197</v>
-      </c>
-      <c r="E7" t="s">
-        <v>377</v>
+      <c r="D7" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>375</v>
       </c>
       <c r="F7">
         <v>29</v>
@@ -3460,25 +3447,25 @@
       <c r="G7">
         <v>4</v>
       </c>
-      <c r="H7" t="s">
-        <v>556</v>
+      <c r="H7" s="1" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D8" t="s">
-        <v>198</v>
-      </c>
-      <c r="E8" t="s">
-        <v>378</v>
+      <c r="D8" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>376</v>
       </c>
       <c r="F8">
         <v>9</v>
@@ -3486,25 +3473,25 @@
       <c r="G8">
         <v>3</v>
       </c>
-      <c r="H8" t="s">
-        <v>557</v>
+      <c r="H8" s="1" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D9" t="s">
-        <v>199</v>
-      </c>
-      <c r="E9" t="s">
-        <v>379</v>
+      <c r="D9" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>377</v>
       </c>
       <c r="F9">
         <v>9</v>
@@ -3512,25 +3499,25 @@
       <c r="G9">
         <v>3</v>
       </c>
-      <c r="H9" t="s">
-        <v>558</v>
+      <c r="H9" s="1" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D10" t="s">
-        <v>200</v>
-      </c>
-      <c r="E10" t="s">
-        <v>380</v>
+      <c r="D10" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>378</v>
       </c>
       <c r="F10">
         <v>9</v>
@@ -3538,25 +3525,25 @@
       <c r="G10">
         <v>3</v>
       </c>
-      <c r="H10" t="s">
-        <v>559</v>
+      <c r="H10" s="1" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B11">
         <v>4</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D11" t="s">
-        <v>201</v>
-      </c>
-      <c r="E11" t="s">
-        <v>381</v>
+      <c r="D11" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>379</v>
       </c>
       <c r="F11">
         <v>32</v>
@@ -3564,25 +3551,25 @@
       <c r="G11">
         <v>3</v>
       </c>
-      <c r="H11" t="s">
-        <v>560</v>
+      <c r="H11" s="1" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B12">
         <v>4</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D12" t="s">
-        <v>202</v>
-      </c>
-      <c r="E12" t="s">
-        <v>382</v>
+      <c r="D12" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>380</v>
       </c>
       <c r="F12">
         <v>32</v>
@@ -3590,25 +3577,25 @@
       <c r="G12">
         <v>3</v>
       </c>
-      <c r="H12" t="s">
-        <v>561</v>
+      <c r="H12" s="1" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B13">
         <v>4</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D13" t="s">
-        <v>203</v>
-      </c>
-      <c r="E13" t="s">
-        <v>383</v>
+      <c r="D13" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>381</v>
       </c>
       <c r="F13">
         <v>32</v>
@@ -3616,36 +3603,36 @@
       <c r="G13">
         <v>3</v>
       </c>
-      <c r="H13" t="s">
-        <v>562</v>
+      <c r="H13" s="1" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D14" t="s">
-        <v>204</v>
-      </c>
-      <c r="E14" t="s">
-        <v>384</v>
+      <c r="D14" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B15">
         <v>5</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D15" t="s">
-        <v>205</v>
-      </c>
-      <c r="E15" t="s">
-        <v>385</v>
+      <c r="D15" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>383</v>
       </c>
       <c r="F15">
         <v>3</v>
@@ -3653,25 +3640,25 @@
       <c r="G15">
         <v>3</v>
       </c>
-      <c r="H15" t="s">
-        <v>563</v>
+      <c r="H15" s="1" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B16">
         <v>5</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D16" t="s">
-        <v>206</v>
-      </c>
-      <c r="E16" t="s">
-        <v>386</v>
+      <c r="D16" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>384</v>
       </c>
       <c r="F16">
         <v>3</v>
@@ -3679,25 +3666,25 @@
       <c r="G16">
         <v>3</v>
       </c>
-      <c r="H16" t="s">
-        <v>564</v>
+      <c r="H16" s="1" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B17">
         <v>5</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D17" t="s">
-        <v>207</v>
-      </c>
-      <c r="E17" t="s">
-        <v>387</v>
+      <c r="D17" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>385</v>
       </c>
       <c r="F17">
         <v>3</v>
@@ -3705,36 +3692,36 @@
       <c r="G17">
         <v>3</v>
       </c>
-      <c r="H17" t="s">
-        <v>565</v>
+      <c r="H17" s="1" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D18" t="s">
-        <v>208</v>
-      </c>
-      <c r="E18" t="s">
-        <v>388</v>
+      <c r="D18" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B19">
         <v>6</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D19" t="s">
-        <v>209</v>
-      </c>
-      <c r="E19" t="s">
-        <v>389</v>
+      <c r="D19" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>387</v>
       </c>
       <c r="F19">
         <v>7</v>
@@ -3742,25 +3729,25 @@
       <c r="G19">
         <v>3</v>
       </c>
-      <c r="H19" t="s">
-        <v>566</v>
+      <c r="H19" s="1" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B20">
         <v>6</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D20" t="s">
-        <v>210</v>
-      </c>
-      <c r="E20" t="s">
-        <v>390</v>
+      <c r="D20" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>388</v>
       </c>
       <c r="F20">
         <v>7</v>
@@ -3768,25 +3755,25 @@
       <c r="G20">
         <v>3</v>
       </c>
-      <c r="H20" t="s">
-        <v>567</v>
+      <c r="H20" s="1" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B21">
         <v>6</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D21" t="s">
-        <v>211</v>
-      </c>
-      <c r="E21" t="s">
-        <v>391</v>
+      <c r="D21" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>389</v>
       </c>
       <c r="F21">
         <v>7</v>
@@ -3794,81 +3781,81 @@
       <c r="G21">
         <v>3</v>
       </c>
-      <c r="H21" t="s">
-        <v>568</v>
+      <c r="H21" s="1" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
+      <c r="C22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E24" s="1" t="s">
         <v>392</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" t="s">
-        <v>213</v>
-      </c>
-      <c r="E23" t="s">
-        <v>393</v>
-      </c>
-      <c r="G23">
-        <v>3</v>
-      </c>
-      <c r="H23" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" t="s">
-        <v>214</v>
-      </c>
-      <c r="E24" t="s">
-        <v>394</v>
       </c>
       <c r="G24">
         <v>4</v>
       </c>
-      <c r="H24" t="s">
-        <v>570</v>
+      <c r="H24" s="1" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
+      <c r="C25" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D25" t="s">
-        <v>215</v>
-      </c>
-      <c r="E25" t="s">
-        <v>395</v>
+      <c r="D25" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B26">
         <v>7</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D26" t="s">
-        <v>216</v>
-      </c>
-      <c r="E26" t="s">
-        <v>396</v>
+      <c r="D26" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>394</v>
       </c>
       <c r="F26">
         <v>51</v>
@@ -3876,25 +3863,25 @@
       <c r="G26">
         <v>3</v>
       </c>
-      <c r="H26" t="s">
-        <v>571</v>
+      <c r="H26" s="1" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B27">
         <v>7</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D27" t="s">
-        <v>217</v>
-      </c>
-      <c r="E27" t="s">
-        <v>397</v>
+      <c r="D27" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>395</v>
       </c>
       <c r="F27">
         <v>51</v>
@@ -3902,25 +3889,25 @@
       <c r="G27">
         <v>3</v>
       </c>
-      <c r="H27" t="s">
-        <v>572</v>
+      <c r="H27" s="1" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B28">
         <v>7</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D28" t="s">
-        <v>218</v>
-      </c>
-      <c r="E28" t="s">
-        <v>398</v>
+      <c r="D28" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>396</v>
       </c>
       <c r="F28">
         <v>51</v>
@@ -3928,36 +3915,36 @@
       <c r="G28">
         <v>3</v>
       </c>
-      <c r="H28" t="s">
-        <v>573</v>
+      <c r="H28" s="1" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
+      <c r="C29" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D29" t="s">
-        <v>219</v>
-      </c>
-      <c r="E29" t="s">
-        <v>399</v>
+      <c r="D29" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B30">
         <v>8</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D30" t="s">
-        <v>220</v>
-      </c>
-      <c r="E30" t="s">
-        <v>400</v>
+      <c r="D30" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>398</v>
       </c>
       <c r="F30">
         <v>7</v>
@@ -3965,25 +3952,25 @@
       <c r="G30">
         <v>3</v>
       </c>
-      <c r="H30" t="s">
-        <v>574</v>
+      <c r="H30" s="1" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B31">
         <v>8</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D31" t="s">
-        <v>221</v>
-      </c>
-      <c r="E31" t="s">
-        <v>401</v>
+      <c r="D31" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>399</v>
       </c>
       <c r="F31">
         <v>7</v>
@@ -3991,25 +3978,25 @@
       <c r="G31">
         <v>3</v>
       </c>
-      <c r="H31" t="s">
-        <v>575</v>
+      <c r="H31" s="1" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B32">
         <v>8</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D32" t="s">
-        <v>222</v>
-      </c>
-      <c r="E32" t="s">
-        <v>402</v>
+      <c r="D32" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>400</v>
       </c>
       <c r="F32">
         <v>7</v>
@@ -4017,36 +4004,36 @@
       <c r="G32">
         <v>3</v>
       </c>
-      <c r="H32" t="s">
-        <v>576</v>
+      <c r="H32" s="1" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C33" t="s">
+      <c r="C33" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D33" t="s">
-        <v>223</v>
-      </c>
-      <c r="E33" t="s">
-        <v>403</v>
+      <c r="D33" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B34">
         <v>9</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D34" t="s">
-        <v>224</v>
-      </c>
-      <c r="E34" t="s">
-        <v>404</v>
+      <c r="D34" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>402</v>
       </c>
       <c r="F34">
         <v>7</v>
@@ -4054,25 +4041,25 @@
       <c r="G34">
         <v>3</v>
       </c>
-      <c r="H34" t="s">
-        <v>577</v>
+      <c r="H34" s="1" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B35">
         <v>9</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D35" t="s">
-        <v>225</v>
-      </c>
-      <c r="E35" t="s">
-        <v>405</v>
+      <c r="D35" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>403</v>
       </c>
       <c r="F35">
         <v>7</v>
@@ -4080,25 +4067,25 @@
       <c r="G35">
         <v>3</v>
       </c>
-      <c r="H35" t="s">
-        <v>578</v>
+      <c r="H35" s="1" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B36">
         <v>9</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D36" t="s">
-        <v>226</v>
-      </c>
-      <c r="E36" t="s">
-        <v>406</v>
+      <c r="D36" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>404</v>
       </c>
       <c r="F36">
         <v>7</v>
@@ -4106,25 +4093,25 @@
       <c r="G36">
         <v>3</v>
       </c>
-      <c r="H36" t="s">
-        <v>579</v>
+      <c r="H36" s="1" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B37">
         <v>10</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D37" t="s">
-        <v>227</v>
-      </c>
-      <c r="E37" t="s">
-        <v>407</v>
+      <c r="D37" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>405</v>
       </c>
       <c r="F37">
         <v>36</v>
@@ -4132,25 +4119,25 @@
       <c r="G37">
         <v>3</v>
       </c>
-      <c r="H37" t="s">
-        <v>580</v>
+      <c r="H37" s="1" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B38">
         <v>10</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D38" t="s">
-        <v>228</v>
-      </c>
-      <c r="E38" t="s">
-        <v>408</v>
+      <c r="D38" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>406</v>
       </c>
       <c r="F38">
         <v>36</v>
@@ -4158,25 +4145,25 @@
       <c r="G38">
         <v>3</v>
       </c>
-      <c r="H38" t="s">
-        <v>581</v>
+      <c r="H38" s="1" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B39">
         <v>11</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D39" t="s">
-        <v>229</v>
-      </c>
-      <c r="E39" t="s">
-        <v>409</v>
+      <c r="D39" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>407</v>
       </c>
       <c r="F39">
         <v>35</v>
@@ -4184,25 +4171,25 @@
       <c r="G39">
         <v>3</v>
       </c>
-      <c r="H39" t="s">
-        <v>582</v>
+      <c r="H39" s="1" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B40">
         <v>11</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D40" t="s">
-        <v>230</v>
-      </c>
-      <c r="E40" t="s">
-        <v>410</v>
+      <c r="D40" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>408</v>
       </c>
       <c r="F40">
         <v>35</v>
@@ -4210,25 +4197,25 @@
       <c r="G40">
         <v>3</v>
       </c>
-      <c r="H40" t="s">
-        <v>583</v>
+      <c r="H40" s="1" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B41">
         <v>11</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D41" t="s">
-        <v>231</v>
-      </c>
-      <c r="E41" t="s">
-        <v>411</v>
+      <c r="D41" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>409</v>
       </c>
       <c r="F41">
         <v>35</v>
@@ -4236,25 +4223,25 @@
       <c r="G41">
         <v>3</v>
       </c>
-      <c r="H41" t="s">
-        <v>584</v>
+      <c r="H41" s="1" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="A42" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B42">
         <v>12</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D42" t="s">
-        <v>232</v>
-      </c>
-      <c r="E42" t="s">
-        <v>412</v>
+      <c r="D42" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>410</v>
       </c>
       <c r="F42">
         <v>61</v>
@@ -4262,25 +4249,25 @@
       <c r="G42">
         <v>3</v>
       </c>
-      <c r="H42" t="s">
-        <v>585</v>
+      <c r="H42" s="1" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="A43" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B43">
         <v>12</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D43" t="s">
-        <v>233</v>
-      </c>
-      <c r="E43" t="s">
-        <v>413</v>
+      <c r="D43" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>411</v>
       </c>
       <c r="F43">
         <v>61</v>
@@ -4288,25 +4275,25 @@
       <c r="G43">
         <v>3</v>
       </c>
-      <c r="H43" t="s">
-        <v>586</v>
+      <c r="H43" s="1" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="A44" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B44">
         <v>12</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D44" t="s">
-        <v>234</v>
-      </c>
-      <c r="E44" t="s">
-        <v>414</v>
+      <c r="D44" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>412</v>
       </c>
       <c r="F44">
         <v>61</v>
@@ -4314,25 +4301,25 @@
       <c r="G44">
         <v>3</v>
       </c>
-      <c r="H44" t="s">
-        <v>587</v>
+      <c r="H44" s="1" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="A45" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B45">
         <v>13</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D45" t="s">
-        <v>235</v>
-      </c>
-      <c r="E45" t="s">
-        <v>415</v>
+      <c r="D45" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>413</v>
       </c>
       <c r="F45">
         <v>33</v>
@@ -4340,25 +4327,25 @@
       <c r="G45">
         <v>3</v>
       </c>
-      <c r="H45" t="s">
-        <v>588</v>
+      <c r="H45" s="1" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="A46" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B46">
         <v>13</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D46" t="s">
-        <v>236</v>
-      </c>
-      <c r="E46" t="s">
-        <v>416</v>
+      <c r="D46" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="F46">
         <v>33</v>
@@ -4366,25 +4353,25 @@
       <c r="G46">
         <v>3</v>
       </c>
-      <c r="H46" t="s">
-        <v>589</v>
+      <c r="H46" s="1" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="A47" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B47">
         <v>13</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D47" t="s">
-        <v>237</v>
-      </c>
-      <c r="E47" t="s">
-        <v>417</v>
+      <c r="D47" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>415</v>
       </c>
       <c r="F47">
         <v>33</v>
@@ -4392,25 +4379,25 @@
       <c r="G47">
         <v>3</v>
       </c>
-      <c r="H47" t="s">
-        <v>590</v>
+      <c r="H47" s="1" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="A48" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B48">
         <v>14</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D48" t="s">
-        <v>238</v>
-      </c>
-      <c r="E48" t="s">
-        <v>418</v>
+      <c r="D48" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>416</v>
       </c>
       <c r="F48">
         <v>43</v>
@@ -4418,25 +4405,25 @@
       <c r="G48">
         <v>3</v>
       </c>
-      <c r="H48" t="s">
-        <v>591</v>
+      <c r="H48" s="1" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="A49" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B49">
         <v>14</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D49" t="s">
-        <v>239</v>
-      </c>
-      <c r="E49" t="s">
-        <v>419</v>
+      <c r="D49" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>417</v>
       </c>
       <c r="F49">
         <v>43</v>
@@ -4444,25 +4431,25 @@
       <c r="G49">
         <v>3</v>
       </c>
-      <c r="H49" t="s">
-        <v>592</v>
+      <c r="H49" s="1" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="A50" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B50">
         <v>14</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D50" t="s">
-        <v>240</v>
-      </c>
-      <c r="E50" t="s">
-        <v>420</v>
+      <c r="D50" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>418</v>
       </c>
       <c r="F50">
         <v>43</v>
@@ -4470,25 +4457,25 @@
       <c r="G50">
         <v>3</v>
       </c>
-      <c r="H50" t="s">
-        <v>593</v>
+      <c r="H50" s="1" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B51">
         <v>15</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D51" t="s">
-        <v>241</v>
-      </c>
-      <c r="E51" t="s">
-        <v>421</v>
+      <c r="D51" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>419</v>
       </c>
       <c r="F51">
         <v>59</v>
@@ -4496,25 +4483,25 @@
       <c r="G51">
         <v>3</v>
       </c>
-      <c r="H51" t="s">
-        <v>594</v>
+      <c r="H51" s="1" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="A52" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B52">
         <v>15</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D52" t="s">
-        <v>242</v>
-      </c>
-      <c r="E52" t="s">
-        <v>422</v>
+      <c r="D52" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>420</v>
       </c>
       <c r="F52">
         <v>59</v>
@@ -4522,25 +4509,25 @@
       <c r="G52">
         <v>3</v>
       </c>
-      <c r="H52" t="s">
-        <v>595</v>
+      <c r="H52" s="1" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="A53" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B53">
         <v>15</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D53" t="s">
-        <v>243</v>
-      </c>
-      <c r="E53" t="s">
-        <v>423</v>
+      <c r="D53" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>421</v>
       </c>
       <c r="F53">
         <v>59</v>
@@ -4548,25 +4535,25 @@
       <c r="G53">
         <v>3</v>
       </c>
-      <c r="H53" t="s">
-        <v>596</v>
+      <c r="H53" s="1" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="A54" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B54">
         <v>16</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D54" t="s">
-        <v>244</v>
-      </c>
-      <c r="E54" t="s">
-        <v>424</v>
+      <c r="D54" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>422</v>
       </c>
       <c r="F54">
         <v>20</v>
@@ -4574,25 +4561,25 @@
       <c r="G54">
         <v>3</v>
       </c>
-      <c r="H54" t="s">
-        <v>597</v>
+      <c r="H54" s="1" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="A55" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B55">
         <v>16</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D55" t="s">
-        <v>245</v>
-      </c>
-      <c r="E55" t="s">
-        <v>425</v>
+      <c r="D55" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>423</v>
       </c>
       <c r="F55">
         <v>20</v>
@@ -4600,25 +4587,25 @@
       <c r="G55">
         <v>3</v>
       </c>
-      <c r="H55" t="s">
-        <v>598</v>
+      <c r="H55" s="1" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="A56" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B56">
         <v>16</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D56" t="s">
-        <v>246</v>
-      </c>
-      <c r="E56" t="s">
-        <v>426</v>
+      <c r="D56" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>424</v>
       </c>
       <c r="F56">
         <v>20</v>
@@ -4626,25 +4613,25 @@
       <c r="G56">
         <v>3</v>
       </c>
-      <c r="H56" t="s">
-        <v>599</v>
+      <c r="H56" s="1" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="A57" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B57">
         <v>17</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D57" t="s">
-        <v>247</v>
-      </c>
-      <c r="E57" t="s">
-        <v>427</v>
+      <c r="D57" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>425</v>
       </c>
       <c r="F57">
         <v>49</v>
@@ -4652,25 +4639,25 @@
       <c r="G57">
         <v>3</v>
       </c>
-      <c r="H57" t="s">
-        <v>600</v>
+      <c r="H57" s="1" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="A58" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B58">
         <v>17</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D58" t="s">
-        <v>248</v>
-      </c>
-      <c r="E58" t="s">
-        <v>428</v>
+      <c r="D58" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>426</v>
       </c>
       <c r="F58">
         <v>49</v>
@@ -4678,25 +4665,25 @@
       <c r="G58">
         <v>3</v>
       </c>
-      <c r="H58" t="s">
-        <v>601</v>
+      <c r="H58" s="1" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="A59" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B59">
         <v>17</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D59" t="s">
-        <v>249</v>
-      </c>
-      <c r="E59" t="s">
-        <v>429</v>
+      <c r="D59" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>427</v>
       </c>
       <c r="F59">
         <v>49</v>
@@ -4704,25 +4691,25 @@
       <c r="G59">
         <v>3</v>
       </c>
-      <c r="H59" t="s">
-        <v>602</v>
+      <c r="H59" s="1" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="A60" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B60">
         <v>18</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D60" t="s">
-        <v>250</v>
-      </c>
-      <c r="E60" t="s">
-        <v>430</v>
+      <c r="D60" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>428</v>
       </c>
       <c r="F60">
         <v>19</v>
@@ -4730,25 +4717,25 @@
       <c r="G60">
         <v>3</v>
       </c>
-      <c r="H60" t="s">
-        <v>603</v>
+      <c r="H60" s="1" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="A61" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B61">
         <v>18</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D61" t="s">
-        <v>251</v>
-      </c>
-      <c r="E61" t="s">
-        <v>431</v>
+      <c r="D61" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>429</v>
       </c>
       <c r="F61">
         <v>19</v>
@@ -4756,25 +4743,25 @@
       <c r="G61">
         <v>3</v>
       </c>
-      <c r="H61" t="s">
-        <v>604</v>
+      <c r="H61" s="1" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="A62" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B62">
         <v>18</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D62" t="s">
-        <v>252</v>
-      </c>
-      <c r="E62" t="s">
-        <v>432</v>
+      <c r="D62" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>430</v>
       </c>
       <c r="F62">
         <v>19</v>
@@ -4782,25 +4769,25 @@
       <c r="G62">
         <v>3</v>
       </c>
-      <c r="H62" t="s">
-        <v>605</v>
+      <c r="H62" s="1" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="A63" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B63">
         <v>19</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D63" t="s">
-        <v>253</v>
-      </c>
-      <c r="E63" t="s">
-        <v>433</v>
+      <c r="D63" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>431</v>
       </c>
       <c r="F63">
         <v>12</v>
@@ -4808,25 +4795,25 @@
       <c r="G63">
         <v>3</v>
       </c>
-      <c r="H63" t="s">
-        <v>606</v>
+      <c r="H63" s="1" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="A64" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B64">
         <v>19</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D64" t="s">
-        <v>254</v>
-      </c>
-      <c r="E64" t="s">
-        <v>434</v>
+      <c r="D64" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>432</v>
       </c>
       <c r="F64">
         <v>12</v>
@@ -4834,25 +4821,25 @@
       <c r="G64">
         <v>3</v>
       </c>
-      <c r="H64" t="s">
-        <v>607</v>
+      <c r="H64" s="1" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="A65" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B65">
         <v>19</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D65" t="s">
-        <v>255</v>
-      </c>
-      <c r="E65" t="s">
-        <v>435</v>
+      <c r="D65" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>433</v>
       </c>
       <c r="F65">
         <v>12</v>
@@ -4860,25 +4847,25 @@
       <c r="G65">
         <v>3</v>
       </c>
-      <c r="H65" t="s">
-        <v>608</v>
+      <c r="H65" s="1" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="A66" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B66">
         <v>20</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D66" t="s">
-        <v>256</v>
-      </c>
-      <c r="E66" t="s">
-        <v>436</v>
+      <c r="D66" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>434</v>
       </c>
       <c r="F66">
         <v>41</v>
@@ -4886,25 +4873,25 @@
       <c r="G66">
         <v>3</v>
       </c>
-      <c r="H66" t="s">
-        <v>609</v>
+      <c r="H66" s="1" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="A67" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B67">
         <v>20</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D67" t="s">
-        <v>257</v>
-      </c>
-      <c r="E67" t="s">
-        <v>437</v>
+      <c r="D67" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>435</v>
       </c>
       <c r="F67">
         <v>41</v>
@@ -4912,25 +4899,25 @@
       <c r="G67">
         <v>3</v>
       </c>
-      <c r="H67" t="s">
-        <v>610</v>
+      <c r="H67" s="1" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="A68" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B68">
         <v>20</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D68" t="s">
-        <v>258</v>
-      </c>
-      <c r="E68" t="s">
-        <v>438</v>
+      <c r="D68" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>436</v>
       </c>
       <c r="F68">
         <v>41</v>
@@ -4938,25 +4925,25 @@
       <c r="G68">
         <v>3</v>
       </c>
-      <c r="H68" t="s">
-        <v>611</v>
+      <c r="H68" s="1" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="A69" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B69">
         <v>21</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D69" t="s">
-        <v>259</v>
-      </c>
-      <c r="E69" t="s">
-        <v>439</v>
+      <c r="D69" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>437</v>
       </c>
       <c r="F69">
         <v>63</v>
@@ -4964,25 +4951,25 @@
       <c r="G69">
         <v>3</v>
       </c>
-      <c r="H69" t="s">
-        <v>612</v>
+      <c r="H69" s="1" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="A70" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B70">
         <v>21</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D70" t="s">
-        <v>260</v>
-      </c>
-      <c r="E70" t="s">
-        <v>440</v>
+      <c r="D70" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>438</v>
       </c>
       <c r="F70">
         <v>63</v>
@@ -4990,25 +4977,25 @@
       <c r="G70">
         <v>3</v>
       </c>
-      <c r="H70" t="s">
-        <v>613</v>
+      <c r="H70" s="1" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="A71" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B71">
         <v>21</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D71" t="s">
-        <v>261</v>
-      </c>
-      <c r="E71" t="s">
-        <v>441</v>
+      <c r="D71" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>439</v>
       </c>
       <c r="F71">
         <v>63</v>
@@ -5016,25 +5003,25 @@
       <c r="G71">
         <v>3</v>
       </c>
-      <c r="H71" t="s">
-        <v>614</v>
+      <c r="H71" s="1" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="A72" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B72">
         <v>22</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D72" t="s">
-        <v>262</v>
-      </c>
-      <c r="E72" t="s">
-        <v>442</v>
+      <c r="D72" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>440</v>
       </c>
       <c r="F72">
         <v>38</v>
@@ -5042,25 +5029,25 @@
       <c r="G72">
         <v>3</v>
       </c>
-      <c r="H72" t="s">
-        <v>615</v>
+      <c r="H72" s="1" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="A73" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B73">
         <v>22</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D73" t="s">
-        <v>263</v>
-      </c>
-      <c r="E73" t="s">
-        <v>443</v>
+      <c r="D73" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>441</v>
       </c>
       <c r="F73">
         <v>38</v>
@@ -5068,25 +5055,25 @@
       <c r="G73">
         <v>3</v>
       </c>
-      <c r="H73" t="s">
-        <v>616</v>
+      <c r="H73" s="1" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="A74" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B74">
         <v>22</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D74" t="s">
-        <v>264</v>
-      </c>
-      <c r="E74" t="s">
-        <v>444</v>
+      <c r="D74" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>442</v>
       </c>
       <c r="F74">
         <v>38</v>
@@ -5094,25 +5081,25 @@
       <c r="G74">
         <v>3</v>
       </c>
-      <c r="H74" t="s">
-        <v>617</v>
+      <c r="H74" s="1" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="A75" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B75">
         <v>23</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D75" t="s">
-        <v>265</v>
-      </c>
-      <c r="E75" t="s">
-        <v>445</v>
+      <c r="D75" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>443</v>
       </c>
       <c r="F75">
         <v>39</v>
@@ -5120,25 +5107,25 @@
       <c r="G75">
         <v>3</v>
       </c>
-      <c r="H75" t="s">
-        <v>618</v>
+      <c r="H75" s="1" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="A76" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B76">
         <v>23</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D76" t="s">
-        <v>266</v>
-      </c>
-      <c r="E76" t="s">
-        <v>446</v>
+      <c r="D76" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>444</v>
       </c>
       <c r="F76">
         <v>39</v>
@@ -5146,25 +5133,25 @@
       <c r="G76">
         <v>3</v>
       </c>
-      <c r="H76" t="s">
-        <v>619</v>
+      <c r="H76" s="1" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="A77" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B77">
         <v>23</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D77" t="s">
-        <v>267</v>
-      </c>
-      <c r="E77" t="s">
-        <v>447</v>
+      <c r="D77" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>445</v>
       </c>
       <c r="F77">
         <v>39</v>
@@ -5172,25 +5159,25 @@
       <c r="G77">
         <v>3</v>
       </c>
-      <c r="H77" t="s">
-        <v>620</v>
+      <c r="H77" s="1" t="s">
+        <v>618</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="A78" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B78">
         <v>24</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D78" t="s">
-        <v>268</v>
-      </c>
-      <c r="E78" t="s">
-        <v>448</v>
+      <c r="D78" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>446</v>
       </c>
       <c r="F78">
         <v>44</v>
@@ -5198,25 +5185,25 @@
       <c r="G78">
         <v>3</v>
       </c>
-      <c r="H78" t="s">
-        <v>621</v>
+      <c r="H78" s="1" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="A79" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B79">
         <v>24</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D79" t="s">
-        <v>269</v>
-      </c>
-      <c r="E79" t="s">
-        <v>449</v>
+      <c r="D79" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>447</v>
       </c>
       <c r="F79">
         <v>44</v>
@@ -5224,25 +5211,25 @@
       <c r="G79">
         <v>3</v>
       </c>
-      <c r="H79" t="s">
-        <v>622</v>
+      <c r="H79" s="1" t="s">
+        <v>620</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="A80" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B80">
         <v>24</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D80" t="s">
-        <v>270</v>
-      </c>
-      <c r="E80" t="s">
-        <v>450</v>
+      <c r="D80" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>448</v>
       </c>
       <c r="F80">
         <v>44</v>
@@ -5250,59 +5237,59 @@
       <c r="G80">
         <v>3</v>
       </c>
-      <c r="H80" t="s">
-        <v>623</v>
+      <c r="H80" s="1" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="A81" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D81" t="s">
-        <v>271</v>
-      </c>
-      <c r="E81" t="s">
-        <v>451</v>
-      </c>
-      <c r="H81" t="s">
-        <v>624</v>
+      <c r="D81" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="A82" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D82" t="s">
-        <v>272</v>
-      </c>
-      <c r="E82" t="s">
-        <v>452</v>
-      </c>
-      <c r="H82" t="s">
-        <v>624</v>
+      <c r="D82" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="A83" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B83">
         <v>1</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D83" t="s">
-        <v>273</v>
-      </c>
-      <c r="E83" t="s">
-        <v>453</v>
+      <c r="D83" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>451</v>
       </c>
       <c r="F83">
         <v>13</v>
@@ -5310,25 +5297,25 @@
       <c r="G83">
         <v>3</v>
       </c>
-      <c r="H83" t="s">
-        <v>625</v>
+      <c r="H83" s="1" t="s">
+        <v>623</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="A84" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B84">
         <v>2</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D84" t="s">
-        <v>274</v>
-      </c>
-      <c r="E84" t="s">
-        <v>454</v>
+      <c r="D84" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>452</v>
       </c>
       <c r="F84">
         <v>28</v>
@@ -5336,25 +5323,25 @@
       <c r="G84">
         <v>3</v>
       </c>
-      <c r="H84" t="s">
-        <v>626</v>
+      <c r="H84" s="1" t="s">
+        <v>624</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="A85" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B85">
         <v>3</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D85" t="s">
-        <v>275</v>
-      </c>
-      <c r="E85" t="s">
-        <v>455</v>
+      <c r="D85" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>453</v>
       </c>
       <c r="F85">
         <v>20</v>
@@ -5362,25 +5349,25 @@
       <c r="G85">
         <v>5</v>
       </c>
-      <c r="H85" t="s">
-        <v>627</v>
+      <c r="H85" s="1" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="A86" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B86">
         <v>4</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D86" t="s">
-        <v>276</v>
-      </c>
-      <c r="E86" t="s">
-        <v>456</v>
+      <c r="D86" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>454</v>
       </c>
       <c r="F86">
         <v>48</v>
@@ -5388,59 +5375,59 @@
       <c r="G86">
         <v>3</v>
       </c>
-      <c r="H86" t="s">
-        <v>628</v>
+      <c r="H86" s="1" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+      <c r="A87" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D87" t="s">
-        <v>277</v>
-      </c>
-      <c r="E87" t="s">
-        <v>457</v>
-      </c>
-      <c r="H87" t="s">
-        <v>629</v>
+      <c r="D87" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>627</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="A88" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D88" t="s">
-        <v>278</v>
-      </c>
-      <c r="E88" t="s">
-        <v>458</v>
-      </c>
-      <c r="H88" t="s">
-        <v>629</v>
+      <c r="D88" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>627</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="A89" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B89">
         <v>5</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D89" t="s">
-        <v>279</v>
-      </c>
-      <c r="E89" t="s">
-        <v>459</v>
+      <c r="D89" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>457</v>
       </c>
       <c r="F89">
         <v>12</v>
@@ -5448,25 +5435,25 @@
       <c r="G89">
         <v>3</v>
       </c>
-      <c r="H89" t="s">
-        <v>630</v>
+      <c r="H89" s="1" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="A90" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B90">
         <v>6</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D90" t="s">
-        <v>280</v>
-      </c>
-      <c r="E90" t="s">
-        <v>460</v>
+      <c r="D90" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>458</v>
       </c>
       <c r="F90">
         <v>12</v>
@@ -5474,25 +5461,25 @@
       <c r="G90">
         <v>3</v>
       </c>
-      <c r="H90" t="s">
-        <v>631</v>
+      <c r="H90" s="1" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="A91" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B91">
         <v>7</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D91" t="s">
-        <v>281</v>
-      </c>
-      <c r="E91" t="s">
-        <v>461</v>
+      <c r="D91" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>459</v>
       </c>
       <c r="F91">
         <v>12</v>
@@ -5500,25 +5487,25 @@
       <c r="G91">
         <v>3</v>
       </c>
-      <c r="H91" t="s">
-        <v>632</v>
+      <c r="H91" s="1" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="A92" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B92">
         <v>8</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D92" t="s">
-        <v>282</v>
-      </c>
-      <c r="E92" t="s">
-        <v>462</v>
+      <c r="D92" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>460</v>
       </c>
       <c r="F92">
         <v>12</v>
@@ -5526,25 +5513,25 @@
       <c r="G92">
         <v>3</v>
       </c>
-      <c r="H92" t="s">
-        <v>633</v>
+      <c r="H92" s="1" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="A93" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B93">
         <v>9</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D93" t="s">
-        <v>283</v>
-      </c>
-      <c r="E93" t="s">
-        <v>463</v>
+      <c r="D93" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>461</v>
       </c>
       <c r="F93">
         <v>64</v>
@@ -5552,25 +5539,25 @@
       <c r="G93">
         <v>4</v>
       </c>
-      <c r="H93" t="s">
-        <v>634</v>
+      <c r="H93" s="1" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="A94" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B94">
         <v>10</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D94" t="s">
-        <v>284</v>
-      </c>
-      <c r="E94" t="s">
-        <v>464</v>
+      <c r="D94" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>462</v>
       </c>
       <c r="F94">
         <v>64</v>
@@ -5578,59 +5565,59 @@
       <c r="G94">
         <v>4</v>
       </c>
-      <c r="H94" t="s">
-        <v>635</v>
+      <c r="H94" s="1" t="s">
+        <v>633</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="A95" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D95" t="s">
-        <v>285</v>
-      </c>
-      <c r="E95" t="s">
-        <v>465</v>
-      </c>
-      <c r="H95" t="s">
-        <v>636</v>
+      <c r="D95" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+      <c r="A96" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D96" t="s">
-        <v>286</v>
-      </c>
-      <c r="E96" t="s">
-        <v>466</v>
-      </c>
-      <c r="H96" t="s">
-        <v>636</v>
+      <c r="D96" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="A97" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B97">
         <v>11</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D97" t="s">
-        <v>287</v>
-      </c>
-      <c r="E97" t="s">
-        <v>467</v>
+      <c r="D97" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>465</v>
       </c>
       <c r="F97">
         <v>31</v>
@@ -5638,25 +5625,25 @@
       <c r="G97">
         <v>4</v>
       </c>
-      <c r="H97" t="s">
-        <v>637</v>
+      <c r="H97" s="1" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="A98" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B98">
         <v>12</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D98" t="s">
-        <v>288</v>
-      </c>
-      <c r="E98" t="s">
-        <v>468</v>
+      <c r="D98" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="F98">
         <v>21</v>
@@ -5664,25 +5651,25 @@
       <c r="G98">
         <v>4</v>
       </c>
-      <c r="H98" t="s">
-        <v>638</v>
+      <c r="H98" s="1" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="A99" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B99">
         <v>13</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D99" t="s">
-        <v>289</v>
-      </c>
-      <c r="E99" t="s">
-        <v>469</v>
+      <c r="D99" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>467</v>
       </c>
       <c r="F99">
         <v>21</v>
@@ -5690,25 +5677,25 @@
       <c r="G99">
         <v>4</v>
       </c>
-      <c r="H99" t="s">
-        <v>639</v>
+      <c r="H99" s="1" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+      <c r="A100" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B100">
         <v>14</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D100" t="s">
-        <v>290</v>
-      </c>
-      <c r="E100" t="s">
-        <v>470</v>
+      <c r="D100" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>468</v>
       </c>
       <c r="F100">
         <v>21</v>
@@ -5716,25 +5703,25 @@
       <c r="G100">
         <v>4</v>
       </c>
-      <c r="H100" t="s">
-        <v>640</v>
+      <c r="H100" s="1" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="A101" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B101">
         <v>15</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D101" t="s">
-        <v>291</v>
-      </c>
-      <c r="E101" t="s">
-        <v>471</v>
+      <c r="D101" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>469</v>
       </c>
       <c r="F101">
         <v>21</v>
@@ -5742,59 +5729,59 @@
       <c r="G101">
         <v>4</v>
       </c>
-      <c r="H101" t="s">
-        <v>641</v>
+      <c r="H101" s="1" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+      <c r="A102" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D102" t="s">
-        <v>292</v>
-      </c>
-      <c r="E102" t="s">
-        <v>472</v>
-      </c>
-      <c r="H102" t="s">
-        <v>642</v>
+      <c r="D102" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="A103" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D103" t="s">
-        <v>293</v>
-      </c>
-      <c r="E103" t="s">
-        <v>473</v>
-      </c>
-      <c r="H103" t="s">
-        <v>642</v>
+      <c r="D103" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+      <c r="A104" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B104">
         <v>1</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D104" t="s">
-        <v>294</v>
-      </c>
-      <c r="E104" t="s">
-        <v>474</v>
+      <c r="D104" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>472</v>
       </c>
       <c r="F104">
         <v>30</v>
@@ -5802,25 +5789,25 @@
       <c r="G104">
         <v>3</v>
       </c>
-      <c r="H104" t="s">
-        <v>643</v>
+      <c r="H104" s="1" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="A105" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B105">
         <v>2</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D105" t="s">
-        <v>295</v>
-      </c>
-      <c r="E105" t="s">
-        <v>475</v>
+      <c r="D105" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>473</v>
       </c>
       <c r="F105">
         <v>30</v>
@@ -5828,25 +5815,25 @@
       <c r="G105">
         <v>3</v>
       </c>
-      <c r="H105" t="s">
-        <v>644</v>
+      <c r="H105" s="1" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+      <c r="A106" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B106">
         <v>3</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D106" t="s">
-        <v>296</v>
-      </c>
-      <c r="E106" t="s">
-        <v>476</v>
+      <c r="D106" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>474</v>
       </c>
       <c r="F106">
         <v>58</v>
@@ -5854,25 +5841,25 @@
       <c r="G106">
         <v>4</v>
       </c>
-      <c r="H106" t="s">
-        <v>645</v>
+      <c r="H106" s="1" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+      <c r="A107" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B107">
         <v>4</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D107" t="s">
-        <v>297</v>
-      </c>
-      <c r="E107" t="s">
-        <v>477</v>
+      <c r="D107" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>475</v>
       </c>
       <c r="F107">
         <v>58</v>
@@ -5880,25 +5867,25 @@
       <c r="G107">
         <v>4</v>
       </c>
-      <c r="H107" t="s">
-        <v>646</v>
+      <c r="H107" s="1" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+      <c r="A108" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B108">
         <v>5</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D108" t="s">
-        <v>298</v>
-      </c>
-      <c r="E108" t="s">
-        <v>478</v>
+      <c r="D108" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>476</v>
       </c>
       <c r="F108">
         <v>34</v>
@@ -5906,1204 +5893,1279 @@
       <c r="G108">
         <v>3</v>
       </c>
-      <c r="H108" t="s">
-        <v>647</v>
+      <c r="H108" s="1" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+      <c r="A109" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D109" t="s">
-        <v>299</v>
-      </c>
-      <c r="E109" t="s">
-        <v>479</v>
-      </c>
-      <c r="H109" t="s">
-        <v>648</v>
+      <c r="D109" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+      <c r="A110" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D110" t="s">
-        <v>300</v>
-      </c>
-      <c r="E110" t="s">
-        <v>480</v>
-      </c>
-      <c r="H110" t="s">
-        <v>648</v>
+      <c r="D110" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+      <c r="A111" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B111">
         <v>6</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D111" t="s">
-        <v>301</v>
-      </c>
-      <c r="E111" t="s">
-        <v>481</v>
-      </c>
-      <c r="H111" t="s">
-        <v>649</v>
+      <c r="D111" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+      <c r="A112" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B112">
         <v>7</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D112" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B113">
+        <v>8</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D114" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="E112" t="s">
+      <c r="E114" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="H112" t="s">
+      <c r="H114" s="1" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B113">
-        <v>8</v>
-      </c>
-      <c r="C113" t="s">
-        <v>123</v>
-      </c>
-      <c r="D113" t="s">
+      <c r="C115" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D115" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="E113" t="s">
+      <c r="E115" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="H113" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+      <c r="H115" s="1" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C114" t="s">
-        <v>124</v>
-      </c>
-      <c r="D114" t="s">
+      <c r="C116" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D116" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="E114" t="s">
+      <c r="E116" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="H114" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>10</v>
-      </c>
-      <c r="C115" t="s">
-        <v>125</v>
-      </c>
-      <c r="D115" t="s">
-        <v>305</v>
-      </c>
-      <c r="E115" t="s">
-        <v>485</v>
-      </c>
-      <c r="H115" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>10</v>
-      </c>
-      <c r="C116" t="s">
-        <v>126</v>
-      </c>
-      <c r="D116" t="s">
-        <v>306</v>
-      </c>
-      <c r="E116" t="s">
-        <v>486</v>
-      </c>
-      <c r="H116" t="s">
-        <v>652</v>
+      <c r="H116" s="1" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+      <c r="A117" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B117">
         <v>9</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C117" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D117" t="s">
-        <v>307</v>
-      </c>
-      <c r="E117" t="s">
-        <v>487</v>
-      </c>
-      <c r="H117" t="s">
-        <v>653</v>
+      <c r="D117" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+      <c r="A118" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B118">
         <v>10</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C118" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D118" t="s">
-        <v>308</v>
-      </c>
-      <c r="E118" t="s">
-        <v>488</v>
-      </c>
-      <c r="H118" t="s">
-        <v>654</v>
+      <c r="D118" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+      <c r="A119" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B119">
         <v>11</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C119" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D119" t="s">
-        <v>309</v>
-      </c>
-      <c r="E119" t="s">
-        <v>489</v>
-      </c>
-      <c r="H119" t="s">
-        <v>655</v>
+      <c r="D119" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+      <c r="A120" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B120">
         <v>12</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C120" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D120" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D122" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="E120" t="s">
+      <c r="E122" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="H120" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C121" t="s">
-        <v>131</v>
-      </c>
-      <c r="D121" t="s">
+      <c r="C123" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D123" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="E121" t="s">
+      <c r="E123" s="1" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C122" t="s">
-        <v>132</v>
-      </c>
-      <c r="D122" t="s">
+      <c r="C124" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D124" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="E122" t="s">
+      <c r="E124" s="1" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>10</v>
-      </c>
-      <c r="C123" t="s">
-        <v>133</v>
-      </c>
-      <c r="D123" t="s">
-        <v>313</v>
-      </c>
-      <c r="E123" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>10</v>
-      </c>
-      <c r="C124" t="s">
-        <v>134</v>
-      </c>
-      <c r="D124" t="s">
-        <v>314</v>
-      </c>
-      <c r="E124" t="s">
-        <v>494</v>
-      </c>
-    </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+      <c r="A125" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B125">
         <v>13</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C125" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D125" t="s">
-        <v>315</v>
-      </c>
-      <c r="E125" t="s">
-        <v>495</v>
-      </c>
-      <c r="H125" t="s">
-        <v>657</v>
+      <c r="D125" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+      <c r="A126" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B126">
         <v>14</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C126" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D126" t="s">
-        <v>316</v>
-      </c>
-      <c r="E126" t="s">
-        <v>496</v>
-      </c>
-      <c r="H126" t="s">
-        <v>658</v>
+      <c r="D126" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>656</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+      <c r="A127" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B127">
         <v>15</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C127" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D127" t="s">
-        <v>317</v>
-      </c>
-      <c r="E127" t="s">
-        <v>497</v>
-      </c>
-      <c r="H127" t="s">
-        <v>659</v>
+      <c r="D127" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>657</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+      <c r="A128" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B128">
         <v>16</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C128" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D128" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B129">
+        <v>1</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B130">
+        <v>2</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D130" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="E128" t="s">
+      <c r="E130" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="H128" t="s">
+      <c r="H130" s="1" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B131">
+        <v>3</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B132">
+        <v>4</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B133">
+        <v>5</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C134" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C136" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B137">
+        <v>6</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B140">
+        <v>7</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B143">
+        <v>8</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B146">
+        <v>9</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B149">
+        <v>10</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B150">
+        <v>11</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="H150" s="1" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B151">
+        <v>12</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B154">
+        <v>13</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="H154" s="1" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B157">
+        <v>14</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="H157" s="1" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B158">
+        <v>15</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="H158" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B161">
+        <v>16</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="H161" s="1" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B162">
+        <v>17</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="H162" s="1" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B163">
+        <v>18</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="H163" s="1" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B166">
+        <v>19</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="H166" s="1" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B167">
+        <v>20</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="H167" s="1" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B170">
+        <v>21</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="H170" s="1" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B171">
+        <v>22</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="H171" s="1" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B172">
+        <v>23</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="H172" s="1" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B173">
+        <v>24</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="H173" s="1" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B174">
+        <v>25</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="H174" s="1" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="H175" s="1" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C129" t="s">
-        <v>139</v>
-      </c>
-      <c r="D129" t="s">
-        <v>319</v>
-      </c>
-      <c r="E129" t="s">
-        <v>499</v>
-      </c>
-      <c r="H129" t="s">
+      <c r="C176" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B179">
+        <v>26</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="H179" s="1" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B180">
+        <v>27</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="H180" s="1" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="H181" s="1" t="s">
         <v>661</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>11</v>
-      </c>
-      <c r="C130" t="s">
-        <v>140</v>
-      </c>
-      <c r="D130" t="s">
-        <v>320</v>
-      </c>
-      <c r="E130" t="s">
-        <v>500</v>
-      </c>
-      <c r="H130" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>11</v>
-      </c>
-      <c r="C131" t="s">
-        <v>141</v>
-      </c>
-      <c r="D131" t="s">
-        <v>321</v>
-      </c>
-      <c r="E131" t="s">
-        <v>501</v>
-      </c>
-      <c r="H131" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>11</v>
-      </c>
-      <c r="C132" t="s">
-        <v>142</v>
-      </c>
-      <c r="D132" t="s">
-        <v>322</v>
-      </c>
-      <c r="E132" t="s">
-        <v>502</v>
-      </c>
-      <c r="H132" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>11</v>
-      </c>
-      <c r="C133" t="s">
-        <v>143</v>
-      </c>
-      <c r="D133" t="s">
-        <v>323</v>
-      </c>
-      <c r="E133" t="s">
-        <v>503</v>
-      </c>
-      <c r="H133" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>11</v>
-      </c>
-      <c r="C134" t="s">
-        <v>144</v>
-      </c>
-      <c r="D134" t="s">
-        <v>324</v>
-      </c>
-      <c r="E134" t="s">
-        <v>504</v>
-      </c>
-      <c r="H134" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>11</v>
-      </c>
-      <c r="C135" t="s">
-        <v>145</v>
-      </c>
-      <c r="D135" t="s">
-        <v>325</v>
-      </c>
-      <c r="E135" t="s">
-        <v>505</v>
-      </c>
-      <c r="H135" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>11</v>
-      </c>
-      <c r="C136" t="s">
-        <v>146</v>
-      </c>
-      <c r="D136" t="s">
-        <v>326</v>
-      </c>
-      <c r="E136" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>11</v>
-      </c>
-      <c r="C137" t="s">
-        <v>147</v>
-      </c>
-      <c r="D137" t="s">
-        <v>327</v>
-      </c>
-      <c r="E137" t="s">
-        <v>507</v>
-      </c>
-      <c r="H137" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>11</v>
-      </c>
-      <c r="C138" t="s">
-        <v>148</v>
-      </c>
-      <c r="D138" t="s">
-        <v>328</v>
-      </c>
-      <c r="E138" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>11</v>
-      </c>
-      <c r="C139" t="s">
-        <v>149</v>
-      </c>
-      <c r="D139" t="s">
-        <v>329</v>
-      </c>
-      <c r="E139" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>11</v>
-      </c>
-      <c r="C140" t="s">
-        <v>150</v>
-      </c>
-      <c r="D140" t="s">
-        <v>330</v>
-      </c>
-      <c r="E140" t="s">
-        <v>510</v>
-      </c>
-      <c r="H140" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>11</v>
-      </c>
-      <c r="C141" t="s">
-        <v>151</v>
-      </c>
-      <c r="D141" t="s">
-        <v>331</v>
-      </c>
-      <c r="E141" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>11</v>
-      </c>
-      <c r="C142" t="s">
-        <v>152</v>
-      </c>
-      <c r="D142" t="s">
-        <v>332</v>
-      </c>
-      <c r="E142" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>11</v>
-      </c>
-      <c r="C143" t="s">
-        <v>153</v>
-      </c>
-      <c r="D143" t="s">
-        <v>333</v>
-      </c>
-      <c r="E143" t="s">
-        <v>513</v>
-      </c>
-      <c r="H143" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>11</v>
-      </c>
-      <c r="C144" t="s">
-        <v>154</v>
-      </c>
-      <c r="D144" t="s">
-        <v>334</v>
-      </c>
-      <c r="E144" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>11</v>
-      </c>
-      <c r="C145" t="s">
-        <v>155</v>
-      </c>
-      <c r="D145" t="s">
-        <v>335</v>
-      </c>
-      <c r="E145" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>11</v>
-      </c>
-      <c r="C146" t="s">
-        <v>156</v>
-      </c>
-      <c r="D146" t="s">
-        <v>336</v>
-      </c>
-      <c r="E146" t="s">
-        <v>516</v>
-      </c>
-      <c r="H146" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>11</v>
-      </c>
-      <c r="C147" t="s">
-        <v>157</v>
-      </c>
-      <c r="D147" t="s">
-        <v>337</v>
-      </c>
-      <c r="E147" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>11</v>
-      </c>
-      <c r="C148" t="s">
-        <v>158</v>
-      </c>
-      <c r="D148" t="s">
-        <v>338</v>
-      </c>
-      <c r="E148" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>11</v>
-      </c>
-      <c r="C149" t="s">
-        <v>159</v>
-      </c>
-      <c r="D149" t="s">
-        <v>339</v>
-      </c>
-      <c r="E149" t="s">
-        <v>519</v>
-      </c>
-      <c r="H149" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>11</v>
-      </c>
-      <c r="C150" t="s">
-        <v>160</v>
-      </c>
-      <c r="D150" t="s">
-        <v>340</v>
-      </c>
-      <c r="E150" t="s">
-        <v>520</v>
-      </c>
-      <c r="H150" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>11</v>
-      </c>
-      <c r="C151" t="s">
-        <v>161</v>
-      </c>
-      <c r="D151" t="s">
-        <v>341</v>
-      </c>
-      <c r="E151" t="s">
-        <v>521</v>
-      </c>
-      <c r="H151" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>11</v>
-      </c>
-      <c r="C152" t="s">
-        <v>162</v>
-      </c>
-      <c r="D152" t="s">
-        <v>342</v>
-      </c>
-      <c r="E152" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>11</v>
-      </c>
-      <c r="C153" t="s">
-        <v>163</v>
-      </c>
-      <c r="D153" t="s">
-        <v>343</v>
-      </c>
-      <c r="E153" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>11</v>
-      </c>
-      <c r="C154" t="s">
-        <v>164</v>
-      </c>
-      <c r="D154" t="s">
-        <v>344</v>
-      </c>
-      <c r="E154" t="s">
-        <v>524</v>
-      </c>
-      <c r="H154" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>11</v>
-      </c>
-      <c r="C155" t="s">
-        <v>165</v>
-      </c>
-      <c r="D155" t="s">
-        <v>345</v>
-      </c>
-      <c r="E155" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>11</v>
-      </c>
-      <c r="C156" t="s">
-        <v>166</v>
-      </c>
-      <c r="D156" t="s">
-        <v>346</v>
-      </c>
-      <c r="E156" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>11</v>
-      </c>
-      <c r="C157" t="s">
-        <v>167</v>
-      </c>
-      <c r="D157" t="s">
-        <v>347</v>
-      </c>
-      <c r="E157" t="s">
-        <v>527</v>
-      </c>
-      <c r="H157" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>11</v>
-      </c>
-      <c r="C158" t="s">
-        <v>168</v>
-      </c>
-      <c r="D158" t="s">
-        <v>348</v>
-      </c>
-      <c r="E158" t="s">
-        <v>528</v>
-      </c>
-      <c r="H158" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>11</v>
-      </c>
-      <c r="C159" t="s">
-        <v>169</v>
-      </c>
-      <c r="D159" t="s">
-        <v>349</v>
-      </c>
-      <c r="E159" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>11</v>
-      </c>
-      <c r="C160" t="s">
-        <v>170</v>
-      </c>
-      <c r="D160" t="s">
-        <v>350</v>
-      </c>
-      <c r="E160" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>11</v>
-      </c>
-      <c r="C161" t="s">
-        <v>171</v>
-      </c>
-      <c r="D161" t="s">
-        <v>351</v>
-      </c>
-      <c r="E161" t="s">
-        <v>531</v>
-      </c>
-      <c r="H161" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>11</v>
-      </c>
-      <c r="C162" t="s">
-        <v>172</v>
-      </c>
-      <c r="D162" t="s">
-        <v>352</v>
-      </c>
-      <c r="E162" t="s">
-        <v>532</v>
-      </c>
-      <c r="H162" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>11</v>
-      </c>
-      <c r="C163" t="s">
-        <v>173</v>
-      </c>
-      <c r="D163" t="s">
-        <v>353</v>
-      </c>
-      <c r="E163" t="s">
-        <v>533</v>
-      </c>
-      <c r="H163" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>11</v>
-      </c>
-      <c r="C164" t="s">
-        <v>174</v>
-      </c>
-      <c r="D164" t="s">
-        <v>354</v>
-      </c>
-      <c r="E164" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>11</v>
-      </c>
-      <c r="C165" t="s">
-        <v>175</v>
-      </c>
-      <c r="D165" t="s">
-        <v>355</v>
-      </c>
-      <c r="E165" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>11</v>
-      </c>
-      <c r="C166" t="s">
-        <v>176</v>
-      </c>
-      <c r="D166" t="s">
-        <v>356</v>
-      </c>
-      <c r="E166" t="s">
-        <v>536</v>
-      </c>
-      <c r="H166" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>11</v>
-      </c>
-      <c r="C167" t="s">
-        <v>177</v>
-      </c>
-      <c r="D167" t="s">
-        <v>357</v>
-      </c>
-      <c r="E167" t="s">
-        <v>537</v>
-      </c>
-      <c r="H167" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>11</v>
-      </c>
-      <c r="C168" t="s">
-        <v>178</v>
-      </c>
-      <c r="D168" t="s">
-        <v>358</v>
-      </c>
-      <c r="E168" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>11</v>
-      </c>
-      <c r="C169" t="s">
-        <v>179</v>
-      </c>
-      <c r="D169" t="s">
-        <v>359</v>
-      </c>
-      <c r="E169" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>11</v>
-      </c>
-      <c r="C170" t="s">
-        <v>180</v>
-      </c>
-      <c r="D170" t="s">
-        <v>360</v>
-      </c>
-      <c r="E170" t="s">
-        <v>540</v>
-      </c>
-      <c r="H170" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>11</v>
-      </c>
-      <c r="C171" t="s">
-        <v>181</v>
-      </c>
-      <c r="D171" t="s">
-        <v>361</v>
-      </c>
-      <c r="E171" t="s">
-        <v>541</v>
-      </c>
-      <c r="H171" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>11</v>
-      </c>
-      <c r="C172" t="s">
-        <v>182</v>
-      </c>
-      <c r="D172" t="s">
-        <v>362</v>
-      </c>
-      <c r="E172" t="s">
-        <v>542</v>
-      </c>
-      <c r="H172" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>11</v>
-      </c>
-      <c r="C173" t="s">
-        <v>183</v>
-      </c>
-      <c r="D173" t="s">
-        <v>363</v>
-      </c>
-      <c r="E173" t="s">
-        <v>543</v>
-      </c>
-      <c r="H173" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>11</v>
-      </c>
-      <c r="C174" t="s">
-        <v>184</v>
-      </c>
-      <c r="D174" t="s">
-        <v>364</v>
-      </c>
-      <c r="E174" t="s">
-        <v>544</v>
-      </c>
-      <c r="H174" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>11</v>
-      </c>
-      <c r="C175" t="s">
-        <v>185</v>
-      </c>
-      <c r="D175" t="s">
-        <v>365</v>
-      </c>
-      <c r="E175" t="s">
-        <v>545</v>
-      </c>
-      <c r="H175" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>11</v>
-      </c>
-      <c r="C176" t="s">
-        <v>186</v>
-      </c>
-      <c r="D176" t="s">
-        <v>366</v>
-      </c>
-      <c r="E176" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>11</v>
-      </c>
-      <c r="C177" t="s">
-        <v>187</v>
-      </c>
-      <c r="D177" t="s">
-        <v>367</v>
-      </c>
-      <c r="E177" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>11</v>
-      </c>
-      <c r="C178" t="s">
-        <v>188</v>
-      </c>
-      <c r="D178" t="s">
-        <v>368</v>
-      </c>
-      <c r="E178" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>11</v>
-      </c>
-      <c r="C179" t="s">
-        <v>189</v>
-      </c>
-      <c r="D179" t="s">
-        <v>369</v>
-      </c>
-      <c r="E179" t="s">
-        <v>549</v>
-      </c>
-      <c r="H179" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>11</v>
-      </c>
-      <c r="C180" t="s">
-        <v>190</v>
-      </c>
-      <c r="D180" t="s">
-        <v>370</v>
-      </c>
-      <c r="E180" t="s">
-        <v>550</v>
-      </c>
-      <c r="H180" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>11</v>
-      </c>
-      <c r="C181" t="s">
-        <v>191</v>
-      </c>
-      <c r="D181" t="s">
-        <v>371</v>
-      </c>
-      <c r="E181" t="s">
-        <v>551</v>
-      </c>
-      <c r="H181" t="s">
-        <v>691</v>
       </c>
     </row>
   </sheetData>

--- a/Exp_Record_Alfa.xlsx
+++ b/Exp_Record_Alfa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB044DD-6F65-4F87-8B2F-3F88F1F2837C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96416007-EA6C-48D3-ADAD-E962CB6DCD57}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9765" yWindow="2790" windowWidth="15585" windowHeight="11145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2598,9 +2598,6 @@
     <t>N:\Stimuli\2019-Manifold\alfa-191209a-selectivity</t>
   </si>
   <si>
-    <t>N:\Stimuli\2019-06-Evolutions\alfa-191210a\backup_12_10_2019_13_07_57</t>
-  </si>
-  <si>
     <t>N:\Stimuli\2019-06-RF-mapping\2019-12-10-Alfa-chan12_SU</t>
   </si>
   <si>
@@ -2874,6 +2871,9 @@
   </si>
   <si>
     <t>N:\Stimuli\2019-12-Evolutions\2020-03-12-Alfa-02\2020-03-12-14-05-24</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-06-Evolutions\alfa-191210a\full_evolution\backup_12_10_2019_13_07_57</t>
   </si>
 </sst>
 </file>
@@ -3259,8 +3259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="B134" sqref="B134"/>
+    <sheetView tabSelected="1" topLeftCell="D45" workbookViewId="0">
+      <selection activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4796,7 +4796,7 @@
         <v>3</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>604</v>
+        <v>691</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -4822,7 +4822,7 @@
         <v>3</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -4848,7 +4848,7 @@
         <v>3</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -4874,7 +4874,7 @@
         <v>3</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -4900,7 +4900,7 @@
         <v>3</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -4926,7 +4926,7 @@
         <v>3</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -4952,7 +4952,7 @@
         <v>3</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -4978,7 +4978,7 @@
         <v>3</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -5004,7 +5004,7 @@
         <v>3</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -5030,7 +5030,7 @@
         <v>3</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -5056,7 +5056,7 @@
         <v>3</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -5082,7 +5082,7 @@
         <v>3</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -5108,7 +5108,7 @@
         <v>3</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -5134,7 +5134,7 @@
         <v>3</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -5160,7 +5160,7 @@
         <v>3</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -5186,7 +5186,7 @@
         <v>3</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -5212,7 +5212,7 @@
         <v>3</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -5238,7 +5238,7 @@
         <v>3</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -5255,7 +5255,7 @@
         <v>449</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -5272,7 +5272,7 @@
         <v>450</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -5298,7 +5298,7 @@
         <v>3</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -5324,7 +5324,7 @@
         <v>3</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -5350,7 +5350,7 @@
         <v>5</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -5376,7 +5376,7 @@
         <v>3</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -5393,7 +5393,7 @@
         <v>455</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -5410,7 +5410,7 @@
         <v>456</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -5436,7 +5436,7 @@
         <v>3</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -5462,7 +5462,7 @@
         <v>3</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -5488,7 +5488,7 @@
         <v>3</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -5514,7 +5514,7 @@
         <v>3</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -5540,7 +5540,7 @@
         <v>4</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -5566,7 +5566,7 @@
         <v>4</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -5583,7 +5583,7 @@
         <v>463</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -5600,7 +5600,7 @@
         <v>464</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -5626,7 +5626,7 @@
         <v>4</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -5652,7 +5652,7 @@
         <v>4</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -5678,7 +5678,7 @@
         <v>4</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -5704,7 +5704,7 @@
         <v>4</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -5730,7 +5730,7 @@
         <v>4</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -5747,7 +5747,7 @@
         <v>470</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -5764,7 +5764,7 @@
         <v>471</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -5790,7 +5790,7 @@
         <v>3</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -5816,7 +5816,7 @@
         <v>3</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -5842,7 +5842,7 @@
         <v>4</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
@@ -5868,7 +5868,7 @@
         <v>4</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
@@ -5894,7 +5894,7 @@
         <v>3</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
@@ -5911,7 +5911,7 @@
         <v>477</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
@@ -5928,7 +5928,7 @@
         <v>478</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
@@ -5948,7 +5948,7 @@
         <v>479</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
@@ -5968,7 +5968,7 @@
         <v>480</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -5988,7 +5988,7 @@
         <v>481</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
@@ -6005,7 +6005,7 @@
         <v>482</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
@@ -6022,7 +6022,7 @@
         <v>483</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
@@ -6039,7 +6039,7 @@
         <v>484</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
@@ -6059,7 +6059,7 @@
         <v>485</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
@@ -6079,7 +6079,7 @@
         <v>486</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
@@ -6099,7 +6099,7 @@
         <v>487</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
@@ -6119,7 +6119,7 @@
         <v>488</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
@@ -6195,7 +6195,7 @@
         <v>493</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
@@ -6215,7 +6215,7 @@
         <v>494</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
@@ -6235,7 +6235,7 @@
         <v>495</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
@@ -6255,7 +6255,7 @@
         <v>496</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
@@ -6275,7 +6275,7 @@
         <v>497</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
@@ -6295,7 +6295,7 @@
         <v>498</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
@@ -6315,7 +6315,7 @@
         <v>499</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
@@ -6335,7 +6335,7 @@
         <v>500</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
@@ -6346,7 +6346,7 @@
         <v>5</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>321</v>
@@ -6355,12 +6355,12 @@
         <v>501</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C134" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>322</v>
@@ -6369,7 +6369,7 @@
         <v>502</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
@@ -6386,7 +6386,7 @@
         <v>503</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
@@ -6417,7 +6417,7 @@
         <v>505</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
@@ -6465,7 +6465,7 @@
         <v>508</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
@@ -6513,7 +6513,7 @@
         <v>511</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
@@ -6561,7 +6561,7 @@
         <v>514</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
@@ -6609,7 +6609,7 @@
         <v>517</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
@@ -6629,7 +6629,7 @@
         <v>518</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
@@ -6649,7 +6649,7 @@
         <v>519</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
@@ -6697,7 +6697,7 @@
         <v>522</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
@@ -6745,7 +6745,7 @@
         <v>525</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
@@ -6765,7 +6765,7 @@
         <v>526</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
@@ -6813,7 +6813,7 @@
         <v>529</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
@@ -6833,7 +6833,7 @@
         <v>530</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
@@ -6853,7 +6853,7 @@
         <v>531</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
@@ -6901,7 +6901,7 @@
         <v>534</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
@@ -6921,7 +6921,7 @@
         <v>535</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
@@ -6969,7 +6969,7 @@
         <v>538</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
@@ -6989,7 +6989,7 @@
         <v>539</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
@@ -7009,7 +7009,7 @@
         <v>540</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
@@ -7029,7 +7029,7 @@
         <v>541</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
@@ -7049,7 +7049,7 @@
         <v>542</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
@@ -7066,7 +7066,7 @@
         <v>543</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
@@ -7128,7 +7128,7 @@
         <v>547</v>
       </c>
       <c r="H179" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
@@ -7148,7 +7148,7 @@
         <v>548</v>
       </c>
       <c r="H180" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
@@ -7165,7 +7165,7 @@
         <v>549</v>
       </c>
       <c r="H181" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
   </sheetData>

--- a/Exp_Record_Alfa.xlsx
+++ b/Exp_Record_Alfa.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Monkey_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE20D9C-6733-4534-8BC0-3494FE9A530A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E955D33-7961-4FB6-8B33-3B7AE43F8C56}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3885" yWindow="2745" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="26295" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="792">
   <si>
     <t>Exp_collection</t>
   </si>
@@ -47,6 +47,15 @@
   </si>
   <si>
     <t>Manifold</t>
+  </si>
+  <si>
+    <t>Optim_tuning</t>
+  </si>
+  <si>
+    <t>ReducDimen_Evol</t>
+  </si>
+  <si>
+    <t>SUHash</t>
   </si>
   <si>
     <t>Ch 29. SU [-0.5 -1.7] 4 1.
@@ -58,26 +67,11 @@
 entered into Matlab</t>
   </si>
   <si>
-    <t>Alfa64chan-19112019-009</t>
-  </si>
-  <si>
-    <t>191119_Alfa_generate_parallel(3)</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-06-Evolutions\alfa-191119a</t>
-  </si>
-  <si>
     <t>Ch 29. Post evolution heat map.
 Start around 12:45
 [-0.5 -1.7] 4 1.  -2:1:2
 COMPLETED
 011 – error</t>
-  </si>
-  <si>
-    <t>Alfa64chan-19112019-010</t>
-  </si>
-  <si>
-    <t>191119_ALfa_rfMapper_basic(5)</t>
   </si>
   <si>
     <t>012 at 1252 PM
@@ -89,15 +83,6 @@
 completed`</t>
   </si>
   <si>
-    <t>Alfa64chan-19112019-012</t>
-  </si>
-  <si>
-    <t>191119_Alfa_selectivity_basic(1)</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-Manifold\alfa-191119a selectivity</t>
-  </si>
-  <si>
     <t>010 at 328 PM
 evolution
 29 (-0.5,0) 4 1, SU 1/5
@@ -106,40 +91,13 @@
 entered into Matlab</t>
   </si>
   <si>
-    <t>Alfa64chan-20112019-010</t>
-  </si>
-  <si>
-    <t>191120_Alfa_generate_parallel(3)</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-06-Evolutions\alfa-191120b\backup_11_20_2019_15_21_40</t>
-  </si>
-  <si>
     <t>RF mapping
 completed</t>
-  </si>
-  <si>
-    <t>Alfa64chan-20112019-011</t>
-  </si>
-  <si>
-    <t>191120_ALfa_rfMapper_basic(4)</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-06-RF-mapping\2019-11-20-Alfa-chan29_SU</t>
   </si>
   <si>
     <t>Redo!  Ch. 29 [-0.5 0] 4 1, one SU (1/5), one hash (5/5)
 Five blocks completed
 completed</t>
-  </si>
-  <si>
-    <t>Alfa64chan-20112019-013</t>
-  </si>
-  <si>
-    <t>191120_Alfa_selectivity_basic(1)</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-Manifold\alfa-191120a\backup_11_20_2019_15_21_40\PC_imgs</t>
   </si>
   <si>
     <t>Ch. 9 [-0.4 -0.9] 3 1, one SU (1/5), one hash (5/5)
@@ -154,40 +112,13 @@
 entered into Matlab</t>
   </si>
   <si>
-    <t>Alfa64chan-21112019-003</t>
-  </si>
-  <si>
-    <t>191121_Alfa_generate_parallel</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-06-Evolutions\alfa-191121a\backup_11_21_2019_13_41_31</t>
-  </si>
-  <si>
     <t>Ch. 9 [-0.4 -0.9] 3 1 –1.5:0.5:1.5, one SU (1/5), one hash (5/5)
 Start: 2:36 pm, 35 ms reward
 completed</t>
   </si>
   <si>
-    <t>Alfa64chan-21112019-004</t>
-  </si>
-  <si>
-    <t>191121_ALfa_rfMapper_basic(2)</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-06-RF-mapping\2019-11-21-Alfa-chan9_SU</t>
-  </si>
-  <si>
     <t>7 blocks
 completed</t>
-  </si>
-  <si>
-    <t>Alfa64chan-21112019-006</t>
-  </si>
-  <si>
-    <t>191121_Alfa_selectivity_basic</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-Manifold\alfa-191121a\backup_11_21_2019_13_41_31\PC_imgs</t>
   </si>
   <si>
     <t>Ch. 32  [0.6 -1.7] 3 1, one SU (2/5), one MU (4/5)
@@ -198,52 +129,19 @@
 entered into Matlab</t>
   </si>
   <si>
-    <t>Alfa64chan-21112019-008</t>
-  </si>
-  <si>
-    <t>191121_Alfa_generate_parallel(1)</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-06-Evolutions\alfa-191121b\backup_11_21_2019_15_23_15</t>
-  </si>
-  <si>
     <t>Ch. 32  [0.6 -1.7] 3 1 –1.5:0.5:1.5, one SU (2/5), one MU (4/5)
 Five blocks
 completed</t>
   </si>
   <si>
-    <t>Alfa64chan-21112019-009</t>
-  </si>
-  <si>
-    <t>191121_ALfa_rfMapper_basic(5)</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-06-RF-mapping\2019-11-21-Alfa-chan32_SU</t>
-  </si>
-  <si>
     <t>Ch. 32  [0.6 -1.7] 3 1, one SU (2/5), one MU (4/5)
 Replaced 75 cc of water with 100 of grape juice and 25 cc sugar syrup</t>
-  </si>
-  <si>
-    <t>Alfa64chan-21112019-010</t>
-  </si>
-  <si>
-    <t>191121_Alfa_selectivity_basic(1)</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-Manifold\alfa-191121b\backup_11_21_2019_15_23_15\PC_imgs</t>
   </si>
   <si>
     <t>Start: 1:35 pm, [0 0] 1 –4:1:4
 Ch. 3, two SU (1/5 and 1/5), one hash (4/5), mapping first SU
 Recalibrated eye signals due to poor fixation,
 RF = [-1 –0.4]</t>
-  </si>
-  <si>
-    <t>Alfa64chan-22112019-001</t>
-  </si>
-  <si>
-    <t>191122_ALfa_rfMapper_basic</t>
   </si>
   <si>
     <t>Ch. 3 [-1 –0.4] 3 1, two SU (1/5 and 1/5), one hash (4/5)
@@ -254,55 +152,22 @@
 entered into Matlab</t>
   </si>
   <si>
-    <t>Alfa64chan-22112019-002</t>
-  </si>
-  <si>
-    <t>191122_Alfa_generate_parallel</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-06-Evolutions\alfa-191122a\backup_11_22_2019_13_43_26</t>
-  </si>
-  <si>
     <t>Ch. 3 [-1 –0.4] 3 1 –1.5:0.5:1.5, two SU (1/5 and 1/5), one hash (4/5)
 Start: 2:10 pm, 50 ms reward
 5 blocks
 completed</t>
   </si>
   <si>
-    <t>Alfa64chan-22112019-003</t>
-  </si>
-  <si>
-    <t>191122_ALfa_rfMapper_basic(1)</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-06-RF-mapping\2019-11-22-Alfa-chan3_SU</t>
-  </si>
-  <si>
     <t>Ch. 3 [-1 –0.4] 3 1, two SU (1/5 and 1/5), one hash (4/5)
 Start: 2:16 pm, 50 ms reward
 5 blocks
 completed</t>
   </si>
   <si>
-    <t>Alfa64chan-22112019-004</t>
-  </si>
-  <si>
-    <t>191122_Alfa_selectivity_basic</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-Manifold\alfa-191122a\backup_11_22_2019_13_43_26\PC_imgs</t>
-  </si>
-  <si>
     <t>Start: 1:35 pm, [0 0] 1 –4:1:4
 Ch. 3, two SU (1/5 and 1/5), one hash (4/5), mapping second SU
 No RF, switching to Ch 7.
 RF = [-0.3 -2.1]</t>
-  </si>
-  <si>
-    <t>Alfa64chan-22112019-005</t>
-  </si>
-  <si>
-    <t>191122_ALfa_rfMapper_basic(2)</t>
   </si>
   <si>
     <t>Ch. 7 [-0.3 -2.1] 3 1, one hash (4/5)
@@ -313,28 +178,10 @@
 entered into Matlab</t>
   </si>
   <si>
-    <t>Alfa64chan-22112019-006</t>
-  </si>
-  <si>
-    <t>191122_Alfa_generate_parallel(1)</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-06-Evolutions\alfa-191122b\backup_11_22_2019_14_42_49</t>
-  </si>
-  <si>
     <t>Ch. 7 [-0.3 -2.1] 3 1 –1.5:0.5:1.5, one hash (4/5)
 Start: 3:23 pm, 125 ms reward
 4 blocks
 completed</t>
-  </si>
-  <si>
-    <t>Alfa64chan-22112019-007</t>
-  </si>
-  <si>
-    <t>191122_ALfa_rfMapper_basic(3)</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-06-RF-mapping\2019-11-22-Alfa-chan7</t>
   </si>
   <si>
     <t>Ch. 7 [-0.3 -2.1] 3 1, one hash (4/5)
@@ -344,24 +191,9 @@
 completed</t>
   </si>
   <si>
-    <t>Alfa64chan-22112019-008</t>
-  </si>
-  <si>
-    <t>191122_Alfa_selectivity_basic(1)</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-Manifold\alfa-191122b\backup_11_22_2019_14_42_49\PC_imgs</t>
-  </si>
-  <si>
     <t>1 degree, [0 0] -4:1:4
 Ch. 2, one hash (4/5), visually responsive
 RF = [-1.9 -2.7]</t>
-  </si>
-  <si>
-    <t>Alfa64chan-25112019-001</t>
-  </si>
-  <si>
-    <t>191125_ALfa_rfMapper_basic</t>
   </si>
   <si>
     <t>Ch. 2 [-1.9 -2.7] 3 1, one hash (4/5)
@@ -374,15 +206,6 @@
 entered into Matlab</t>
   </si>
   <si>
-    <t>Alfa64chan-25112019-002</t>
-  </si>
-  <si>
-    <t>191125_Alfa_generate_parallel</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-06-Evolutions\alfa-191125a\backup_11_25_2019_11_48_11</t>
-  </si>
-  <si>
     <t>Ch. 2 [-1.9 -2.7] 4 1, one hash (4/5)
 Visually responsive by ear and PSTH
 Start: 12:05 pm, 35 ms reward
@@ -391,24 +214,9 @@
 entered into Matlab</t>
   </si>
   <si>
-    <t>Alfa64chan-25112019-003</t>
-  </si>
-  <si>
-    <t>191125_Alfa_generate_parallel(1)</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-06-Evolutions\alfa-191125b\backup_11_25_2019_12_05_25</t>
-  </si>
-  <si>
     <t>1 degree, [0 0] -4:1:4
 Ch. 51, one hash (5/5), visually responsive
 RF = [-1.5 -1.9]</t>
-  </si>
-  <si>
-    <t>Alfa64chan-25112019-004</t>
-  </si>
-  <si>
-    <t>191125_ALfa_rfMapper_basic(1)</t>
   </si>
   <si>
     <t>Ch. 51 [-1.5 -1.9] 3 1, one hash (5/5)
@@ -420,27 +228,9 @@
 entered into Matlab</t>
   </si>
   <si>
-    <t>Alfa64chan-25112019-005</t>
-  </si>
-  <si>
-    <t>191125_Alfa_generate_parallel(2)</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-06-Evolutions\alfa-191125c\backup_11_25_2019_12_43_48</t>
-  </si>
-  <si>
     <t>Ch. 51 [-1.5 -1.9] 3 1 –1.5:0.5:1.5, one hash (5/5)
 9 blocks
 completed</t>
-  </si>
-  <si>
-    <t>Alfa64chan-25112019-006</t>
-  </si>
-  <si>
-    <t>191125_ALfa_rfMapper_basic(2)</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-06-RF-mapping\2019-11-25-Alfa-chan51</t>
   </si>
   <si>
     <t>Ch. 51 [-1.5 -1.9] 3 1, one hash (5/5)
@@ -451,25 +241,10 @@
 completed</t>
   </si>
   <si>
-    <t>Alfa64chan-25112019-007</t>
-  </si>
-  <si>
-    <t>191125_Alfa_selectivity_basic</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-Manifold\alfa-191125a\backup_11_25_2019_12_43_48\PC_imgs</t>
-  </si>
-  <si>
     <t>1 degree, [0 0] -4:1:4
 Ch. 7, two SUs (1.5/5 and 2/5), one hash (4/5)
 First SU, visually responsive
 RF = [0.2 -1]</t>
-  </si>
-  <si>
-    <t>Alfa64chan-26112019-001</t>
-  </si>
-  <si>
-    <t>191126_ALfa_rfMapper_basic</t>
   </si>
   <si>
     <t>Ch. 7 [0.2 -1] 3 1, two SUs (1.5/5 and 2/5), one hash (4/5)
@@ -482,54 +257,21 @@
 entered into Matlab</t>
   </si>
   <si>
-    <t>Alfa64chan-26112019-002</t>
-  </si>
-  <si>
-    <t>191126_Alfa_generate_parallel</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-06-Evolutions\alfa-191126a\backup_11_26_2019_12_25_34</t>
-  </si>
-  <si>
     <t>Ch. 7 [0.2 -1] 3 1 –1.5:0.5:1.5, two SUs (1.5/5 and 2/5), one hash (4/5)
 Start: 1:01 pm, 35 ms reward
 7 blocks
 completed</t>
   </si>
   <si>
-    <t>Alfa64chan-26112019-003</t>
-  </si>
-  <si>
-    <t>191126_ALfa_rfMapper_basic(1)</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-06-RF-mapping\2019-11-26-Alfa-chan7_SUa</t>
-  </si>
-  <si>
     <t>Ch. 7 [0.2 -1] 3 1, two SUs (1.5/5 and 2/5), one hash (4/5)
 Start: 1:09 pm, 35 ms reward
 completed</t>
-  </si>
-  <si>
-    <t>Alfa64chan-26112019-004</t>
-  </si>
-  <si>
-    <t>191126_Alfa_selectivity_basic</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-Manifold\alfa-191126a\backup_11_26_2019_12_25_34\PC_imgs</t>
   </si>
   <si>
     <t>1 degree, [0 0] -4:1:4
 Ch. 7, two SUs (1.5/5 and 2/5), one hash (4/5)
 Second SU, visually responsive
 RF = [0 –1.4]</t>
-  </si>
-  <si>
-    <t>Alfa64chan-26112019-005</t>
-  </si>
-  <si>
-    <t>191126_ALfa_rfMapper_basic(2)</t>
   </si>
   <si>
     <t>Ch. 7 [0.2 -1] 3 1, three SUs (1.5/5, 2/5, and 2.5/5), one hash (5/5)-- hash and third SU were parsed out, but are maybe more of a multiunit than a true SU + hash
@@ -542,15 +284,6 @@
 entered into Matlab</t>
   </si>
   <si>
-    <t>Alfa64chan-26112019-006</t>
-  </si>
-  <si>
-    <t>191126_Alfa_generate_parallel(1)</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-06-Evolutions\alfa-191126b\backup_11_26_2019_13_33_28</t>
-  </si>
-  <si>
     <t>Ch. 7 [0.2 -1] 3 1 –1.5:0.5:1.5, three SUs (1.5/5, 2/5, and 2.5/5), one hash (5/5)
 Second SU
 Start: 2:21 pm, 75 ms reward
@@ -558,29 +291,11 @@
 completed</t>
   </si>
   <si>
-    <t>Alfa64chan-26112019-007</t>
-  </si>
-  <si>
-    <t>191126_ALfa_rfMapper_basic(3)</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-06-RF-mapping\2019-11-26-Alfa-chan7_SUb</t>
-  </si>
-  <si>
     <t>Ch. 7 [0.2 -1] 3 1, three SUs (1.5/5, 2/5, and 2.5/5), one hash (5/5)
 Second SU
 Start: 2:28 pm, 75 ms reward
 5 blocks
 completed</t>
-  </si>
-  <si>
-    <t>Alfa64chan-26112019-008</t>
-  </si>
-  <si>
-    <t>191126_Alfa_selectivity_basic(1)</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-Manifold\alfa-191126b\backup_11_26_2019_13_33_28\PC_imgs</t>
   </si>
   <si>
     <t>Ch. 36 [-0.2 -0.5] 3 1, one SU (1/5, weird shape, not visually responsive), one huge multiunit (3/5, visually responsive)
@@ -591,26 +306,8 @@
 entered into Matlab</t>
   </si>
   <si>
-    <t>Alfa64chan-27112019-009</t>
-  </si>
-  <si>
-    <t>191127_Alfa_generate_parallel(3)</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-06-Evolutions\alfa-191127d\backup_11_27_2019_12_34_04</t>
-  </si>
-  <si>
     <t>Ch. 36 [-0.2 -0.5] 3 1, one SU (1/5, weird shape, not visually responsive), one huge multiunit (3/5, visually responsive)
 manifold</t>
-  </si>
-  <si>
-    <t>Alfa64chan-27112019-010</t>
-  </si>
-  <si>
-    <t>191127_Alfa_selectivity_basic(1)</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-Manifold\alfa-191127a\backup_11_27_2019_12_34_04\PC_imgs</t>
   </si>
   <si>
     <t>Ch. 35 [0 0] 3 1, one SU (1/5), one hash (4/5)
@@ -621,43 +318,16 @@
 entered into Matlab</t>
   </si>
   <si>
-    <t>Alfa64chan-02122019-003</t>
-  </si>
-  <si>
-    <t>191202_Alfa_generate_parallel</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-06-Evolutions\alfa-191202a\backup_12_02_2019_15_23_15</t>
-  </si>
-  <si>
     <t>Ch. 35 [0 0] 3 1 –1.5:0.5:1.5, one SU (1/5), one hash (4/5)
 Start: 4:02 pm
 Six blocks
 completed</t>
   </si>
   <si>
-    <t>Alfa64chan-02122019-004</t>
-  </si>
-  <si>
-    <t>191202_ALfa_rfMapper_basic(1)</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-06-RF-mapping\2019-12-02-Alfa-chan35_SU</t>
-  </si>
-  <si>
     <t>Ch. 35 [0 0] 3 1, one SU (1/5), one hash (4/5)
 Start: 4:11 pm, 75 ms reward
 Five blocks
 completed</t>
-  </si>
-  <si>
-    <t>Alfa64chan-02122019-005</t>
-  </si>
-  <si>
-    <t>191202_Alfa_selectivity_basic</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-Manifold\alfa-191202a\backup_12_02_2019_15_23_15\PC_imgs</t>
   </si>
   <si>
     <t>Ch. 61 [-0.2 -1.6] 3 1, one SU (1/5), one MU (3/5)
@@ -668,40 +338,13 @@
 entered into Matlab</t>
   </si>
   <si>
-    <t>Alfa64chan-02122019-008</t>
-  </si>
-  <si>
-    <t>191202_Alfa_generate_parallel(1)</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-06-Evolutions\alfa-191202b\backup_12_02_2019_16_55_27</t>
-  </si>
-  <si>
     <t>Ch. 61 [-0.2 -1.6] 3 1 –1.5:0.5:1.5, one SU (1/5), one MU (3/5)
 completed</t>
-  </si>
-  <si>
-    <t>Alfa64chan-02122019-009</t>
-  </si>
-  <si>
-    <t>191202_ALfa_rfMapper_basic(4)</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-06-RF-mapping\2019-12-02-Alfa-chan61_SU</t>
   </si>
   <si>
     <t>Ch. 61 [-0.2 -1.6] 3 1, one SU (1/5), one MU (3/5)
 Five blocks
 completed</t>
-  </si>
-  <si>
-    <t>Alfa64chan-02122019-010</t>
-  </si>
-  <si>
-    <t>191202_Alfa_selectivity_basic(1)</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-Manifold\alfa-191202b\backup_12_02_2019_16_55_27\PC_imgs</t>
   </si>
   <si>
     <t>Ch. 33 [0.4 -0.5] 3 1, one SU (2/5), one hash (4/5)
@@ -712,28 +355,10 @@
 entered into Matlab</t>
   </si>
   <si>
-    <t>Alfa64chan-04122019-003</t>
-  </si>
-  <si>
-    <t>191204_Alfa_generate_parallel</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-06-Evolutions\alfa-191204a\backup_12_04_2019_13_27_15</t>
-  </si>
-  <si>
     <t>Ch. 33 [0.4 -0.5] 3 1 –1.5:0.5:1.5, one SU (2/5), one hash (4/5)
 Start: 1:52 pm, 35 ms reward
 Five blocks
 completed</t>
-  </si>
-  <si>
-    <t>Alfa64chan-04122019-004</t>
-  </si>
-  <si>
-    <t>191204_ALfa_rfMapper_basic(2)</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-06-RF-mapping\2019-12-04-Alfa-chan33_SU</t>
   </si>
   <si>
     <t>Ch. 33 [0.4 -0.5] 3 1, one SU (2/5), one hash (4/5)
@@ -742,15 +367,6 @@
 Recalibrated eye signals at Trial 270 at 2:15 pm, due to eye signal drift
 Five blocks
 completed</t>
-  </si>
-  <si>
-    <t>Alfa64chan-04122019-005</t>
-  </si>
-  <si>
-    <t>191204_Alfa_selectivity_basic</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-Manifold\alfa-191204a\backup_12_04_2019_13_27_15\PC_imgs</t>
   </si>
   <si>
     <t>Ch. 43 [-0.3 -0.5] 3 1, one hash (5/5)
@@ -762,27 +378,9 @@
 entered into Matlab</t>
   </si>
   <si>
-    <t>Alfa64chan-04122019-008</t>
-  </si>
-  <si>
-    <t>191204_Alfa_generate_parallel(2)</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-06-Evolutions\alfa-191204b\backup_12_04_2019_14_52_44</t>
-  </si>
-  <si>
     <t>Ch. 43 [-0.3 -0.5] 3 1 –1.5:0.5:1.5, one hash (5/5)
 Five blocks
 completed</t>
-  </si>
-  <si>
-    <t>Alfa64chan-04122019-009</t>
-  </si>
-  <si>
-    <t>191204_ALfa_rfMapper_basic(4)</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-06-RF-mapping\2019-12-04-Alfa-chan43</t>
   </si>
   <si>
     <t>Ch. 43 [-0.3 -0.5] 3 1, one hash (5/5)
@@ -790,15 +388,6 @@
 Start: 3:29 pm, 100 ms reward
 Five blocks
 completed</t>
-  </si>
-  <si>
-    <t>Alfa64chan-04122019-010</t>
-  </si>
-  <si>
-    <t>191204_Alfa_selectivity_basic(1)</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-Manifold\alfa-191204b\backup_12_04_2019_14_52_44\PC_imgs</t>
   </si>
   <si>
     <t>Ch. 59 [-0.1 -2.6] 3 1, one SU (2/5), one MU (3/5)
@@ -809,42 +398,15 @@
 entered into Matlab</t>
   </si>
   <si>
-    <t>Alfa64chan-05122019-002</t>
-  </si>
-  <si>
-    <t>191205_Alfa_generate_parallel</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-06-Evolutions\alfa-191205a\backup_12_05_2019_12_03_21</t>
-  </si>
-  <si>
     <t>Ch. 59 [-0.1 -2.6] 3 1 –1.5:0.5:1.5, one SU (2/5), one MU (3/5)
 Five blocks
 completed</t>
-  </si>
-  <si>
-    <t>Alfa64chan-05122019-003</t>
-  </si>
-  <si>
-    <t>191205_ALfa_rfMapper_basic(1)</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-06-RF-mapping\2019-12-05-Alfa-chan59</t>
   </si>
   <si>
     <t>Ch. 59 [-0.1 -2.6] 3 1, one SU (2/5), one MU (3/5)
 Manifold
 Set reward at 50, he's had 100cc so far, working one hour
 completed</t>
-  </si>
-  <si>
-    <t>Alfa64chan-05122019-004</t>
-  </si>
-  <si>
-    <t>191205_Alfa_selectivity_basic</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-Manifold\alfa-191205a\backup_12_05_2019_12_03_21\PC_imgs</t>
   </si>
   <si>
     <t>Ch. 20 [0.6 -1.7] 3 1, one SU (1/5), one hash (5/5)
@@ -855,28 +417,10 @@
 entered into Matlab</t>
   </si>
   <si>
-    <t>Alfa64chan-06122019-002</t>
-  </si>
-  <si>
-    <t>191206_Alfa_generate_parallel</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-06-Evolutions\alfa-191206a\backup_12_06_2019_13_54_26</t>
-  </si>
-  <si>
     <t>Ch. 20 [0.6 -1.7] 3 1 –1.5:0.5:1.5, one SU (1/5), one hash (5/5)
 Start: 2:32 pm, 35 ms reward
 Six blocks
 completed</t>
-  </si>
-  <si>
-    <t>Alfa64chan-06122019-003</t>
-  </si>
-  <si>
-    <t>191206_ALfa_rfMapper_basic(1)</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-06-RF-mapping\2019-12-06-Alfa-chan20_SU</t>
   </si>
   <si>
     <t>Ch. 20 [0.6 -1.7] 3 1, one SU (1/5), one hash (5/5)
@@ -887,15 +431,6 @@
 completed</t>
   </si>
   <si>
-    <t>Alfa64chan-06122019-004</t>
-  </si>
-  <si>
-    <t>191206_Alfa_selectivity_basic</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-Manifold\alfa-191206a\backup_12_06_2019_13_54_26\PC_imgs</t>
-  </si>
-  <si>
     <t>Ch. 49 [-0.8 -2.5] 3 1, one SU (1/5), one hash (5/5)
 Visually responsive
 Start: 3:11 pm, 75 ms reward
@@ -904,28 +439,10 @@
 entered into Matlab</t>
   </si>
   <si>
-    <t>Alfa64chan-06122019-006</t>
-  </si>
-  <si>
-    <t>191206_Alfa_generate_parallel(1)</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-06-Evolutions\alfa-191206b\backup_12_06_2019_15_10_42</t>
-  </si>
-  <si>
     <t>Ch. 49 [-0.8 -2.5] 3 1 –1.5:0.5:1.5, one SU (1/5), one hash (5/5)
 Start: 3:45 pm, 100 ms reward
 Five blocks
 completed</t>
-  </si>
-  <si>
-    <t>Alfa64chan-06122019-007</t>
-  </si>
-  <si>
-    <t>191206_ALfa_rfMapper_basic(3)</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-06-RF-mapping\2019-12-06-Alfa-chan49_SU</t>
   </si>
   <si>
     <t>Ch. 49 [-0.8 -2.5] 3 1, one SU (1/5), one hash (5/5)
@@ -933,15 +450,6 @@
 Manifold
 5 blocks
 completed</t>
-  </si>
-  <si>
-    <t>Alfa64chan-06122019-008</t>
-  </si>
-  <si>
-    <t>191206_Alfa_selectivity_basic(1)</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-Manifold\alfa-191206b\backup_12_06_2019_15_10_42\PC_imgs</t>
   </si>
   <si>
     <t>Ch. 19 [-0.9 -2.8] 3 1, one SU (2/5), one MU (4/5)
@@ -952,43 +460,16 @@
 entered into Matlab</t>
   </si>
   <si>
-    <t>Alfa64chan-09122019-002</t>
-  </si>
-  <si>
-    <t>191209_Alfa_generate_parallel</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-06-Evolutions\alfa-191209a\backup_12_09_2019_13_26_55</t>
-  </si>
-  <si>
     <t>Ch. 19 [-0.9 -2.8] 3 1 –1.5:0.5:1.5, one SU (2/5), one MU (4/5)
 Start: 1:56 pm, 5 blocks
 Missing end trigger—ML didn't properly close before recording was stopped
 completed</t>
   </si>
   <si>
-    <t>Alfa64chan-09122019-003</t>
-  </si>
-  <si>
-    <t>191209_ALfa_rfMapper_basic(1)</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-06-RF-mapping\2019-12-09-Alfa-chan19_SU</t>
-  </si>
-  <si>
     <t>Ch. 19 [-0.9 -2.8] 3 1, one SU (2/5), one MU (4/5)
 Start: 2:04 pm, 50 ms reward
 Five blocks
 completed</t>
-  </si>
-  <si>
-    <t>Alfa64chan-09122019-004</t>
-  </si>
-  <si>
-    <t>191209_Alfa_selectivity_basic</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-Manifold\alfa-191209a-selectivity</t>
   </si>
   <si>
     <t>Ch. 12 [-0.6 -1] 3 1, one SU (2/5), one hash (5/5)
@@ -1000,43 +481,16 @@
 entered into Matlab</t>
   </si>
   <si>
-    <t>Alfa64chan-10122019-002</t>
-  </si>
-  <si>
-    <t>191210_Alfa_generate_parallel</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-06-Evolutions\alfa-191210a\full_evolution\backup_12_10_2019_13_07_57</t>
-  </si>
-  <si>
     <t>Ch. 12 [-0.6 -1] 3 1 –1.5:0.5:1.5, one SU (2/5), one hash (5/5)
 Start: 2:24 pm, 70 ms reward
 Five blocks
 completed</t>
   </si>
   <si>
-    <t>Alfa64chan-10122019-003</t>
-  </si>
-  <si>
-    <t>191210_ALfa_rfMapper_basic(1)</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-06-RF-mapping\2019-12-10-Alfa-chan12_SU</t>
-  </si>
-  <si>
     <t>Ch. 12 [-0.6 -1] 3 1, one SU (2/5), one hash (5/5)
 Start: 2:30 pm, 70 ms reward
 Five blocks
 completed</t>
-  </si>
-  <si>
-    <t>Alfa64chan-10122019-004</t>
-  </si>
-  <si>
-    <t>191210_Alfa_selectivity_basic</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-Manifold\alfa-191210a-selectivity</t>
   </si>
   <si>
     <t>Ch. 41 [0 –0.7] 3 1, one SU (1/5), one hash (4/5)
@@ -1047,42 +501,15 @@
 entered into Matlab</t>
   </si>
   <si>
-    <t>Alfa64chan-11122019-002</t>
-  </si>
-  <si>
-    <t>191211_Alfa_generate_parallel</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-06-Evolutions\alfa-191211a\backup_12_11_2019_13_05_38</t>
-  </si>
-  <si>
     <t>Ch. 41 [0 –0.7] 3 1 –1.5:0.5:1.5, one SU (1/5), one hash (4/5)
 Five blocks
 completed</t>
-  </si>
-  <si>
-    <t>Alfa64chan-11122019-003</t>
-  </si>
-  <si>
-    <t>191211_ALfa_rfMapper_basic(1)</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-06-RF-mapping\2019-12-11-Alfa-chan41_SU</t>
   </si>
   <si>
     <t>Ch. 41 [0 –0.7] 3 1, one SU (1/5), one hash (4/5)
 Start: 1:33 pm, 35 ms reward
 Five blocks
 completed</t>
-  </si>
-  <si>
-    <t>Alfa64chan-11122019-004</t>
-  </si>
-  <si>
-    <t>191211_Alfa_selectivity_basic</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-Manifold\alfa-191211a-selectivity</t>
   </si>
   <si>
     <t>Ch. 63 [-0.9 -1.9] 3 1, one SU (1/5), one hash (4/5)
@@ -1093,43 +520,16 @@
 entered into Matlab</t>
   </si>
   <si>
-    <t>Alfa64chan-12122019-002</t>
-  </si>
-  <si>
-    <t>191212_Alfa_generate_parallel</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-06-Evolutions\alfa-191212a\backup_12_12_2019_14_50_34</t>
-  </si>
-  <si>
     <t>Ch. 63 [-0.9 -1.9] 3 1 –1.5:0.5:1.5, one SU (1/5), one hash (4/5)
 Start: 3:15 pm, 35 ms reward
 5 blocks
 completed</t>
   </si>
   <si>
-    <t>Alfa64chan-12122019-003</t>
-  </si>
-  <si>
-    <t>191212_ALfa_rfMapper_basic(1)</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-06-RF-mapping\2019-12-12-Alfa-chan63_SU</t>
-  </si>
-  <si>
     <t>Ch. 63 [-0.9 -1.9] 3 1, one SU (1/5), one hash (4/5)
 Start: 3:20 pm, 35 ms reward
 5 blocks
 completed</t>
-  </si>
-  <si>
-    <t>Alfa64chan-12122019-004</t>
-  </si>
-  <si>
-    <t>191212_Alfa_selectivity_basic</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-Manifold\alfa-191212a-selectivity</t>
   </si>
   <si>
     <t>Ch. 38 [-0.2 -0.9] 3 1, one SU (1.5/5), one hash (5/5)
@@ -1140,43 +540,16 @@
 entered into Matlab</t>
   </si>
   <si>
-    <t>Alfa64chan-12122019-006</t>
-  </si>
-  <si>
-    <t>191212_Alfa_generate_parallel(1)</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-06-Evolutions\alfa-191212b\backup_12_12_2019_16_06_06</t>
-  </si>
-  <si>
     <t>Ch. 38 [-0.2 -0.9] 3 1 –1.5:0.5:1.5, one SU (1.5/5), one hash (5/5)
 Start: 4:38 pm, 75 ms reward
 Five blocks
 completed</t>
   </si>
   <si>
-    <t>Alfa64chan-12122019-007</t>
-  </si>
-  <si>
-    <t>191212_ALfa_rfMapper_basic(3)</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-06-RF-mapping\2019-12-12-Alfa-chan38_SU</t>
-  </si>
-  <si>
     <t>Ch. 38 [-0.2 -0.9] 3 1, one SU (1.5/5), one hash (5/5)
 Start: 4:45 pm, 75 ms reward
 5 blocks
 completed</t>
-  </si>
-  <si>
-    <t>Alfa64chan-12122019-008</t>
-  </si>
-  <si>
-    <t>191212_Alfa_selectivity_basic(1)</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-Manifold\alfa-191212b\backup_12_12_2019_16_06_06\PC_imgs</t>
   </si>
   <si>
     <t>Ch. 39 [0.2 -0.2] 3 1, one hash (4/5)
@@ -1188,43 +561,16 @@
 entered into Matlab</t>
   </si>
   <si>
-    <t>Alfa64chan-13122019-002</t>
-  </si>
-  <si>
-    <t>191213_Alfa_generate_parallel</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-06-Evolutions\alfa-191213a\backup_12_13_2019_13_10_41</t>
-  </si>
-  <si>
     <t>Ch. 39 [0.2 -0.2] 3 1 –1.5:0.5:1.5, one hash (4/5)
 Start: 1:31 pm, 35 ms reward
 Five blocks
 completed</t>
   </si>
   <si>
-    <t>Alfa64chan-13122019-003</t>
-  </si>
-  <si>
-    <t>191213_ALfa_rfMapper_basic(1)</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-06-RF-mapping\2019-12-13-Alfa-chan39</t>
-  </si>
-  <si>
     <t>Ch. 39 [0.2 -0.2] 3 1, one hash (4/5)
 Start: 1:37 pm, 50 ms reward
 Five blocks
 completed</t>
-  </si>
-  <si>
-    <t>Alfa64chan-13122019-004</t>
-  </si>
-  <si>
-    <t>191213_Alfa_selectivity_basic</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-Manifold\alfa-191213a\backup_12_13_2019_13_10_41\PC_imgs</t>
   </si>
   <si>
     <t>Ch. 44 [-0.3 -0.8] 3 1, one hash (4/5)
@@ -1235,61 +581,22 @@
 entered into Matlab</t>
   </si>
   <si>
-    <t>Alfa64chan-13122019-006</t>
-  </si>
-  <si>
-    <t>191213_Alfa_generate_parallel(1)</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-06-Evolutions\alfa-191213b\backup_12_13_2019_14_02_19</t>
-  </si>
-  <si>
     <t>Ch. 44 [-0.3 -0.8] 3 1 –1.5:0.5:1.5, one hash (4/5)
 Start: 2:35 pm, 100 ms reward
 Five blocks
 completed</t>
   </si>
   <si>
-    <t>Alfa64chan-13122019-007</t>
-  </si>
-  <si>
-    <t>191213_ALfa_rfMapper_basic(3)</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-06-RF-mapping\2019-12-13-Alfa-chan44</t>
-  </si>
-  <si>
     <t>Ch. 44 [-0.3 -0.8] 3 1, one hash (4/5)
 Start: 2:41 pm, 100 ms reward
 Five blocks
 completed</t>
   </si>
   <si>
-    <t>Alfa64chan-13122019-008</t>
-  </si>
-  <si>
-    <t>191213_Alfa_selectivity_basic(1)</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-Manifold\alfa-191213b\backup_12_13_2019_14_02_19\PC_imgs</t>
-  </si>
-  <si>
-    <t>Optim_tuning</t>
-  </si>
-  <si>
     <t>001 RF Mapping
 [0 0 ] 0.75 deg -1.5:1.5
 Ch 8 seems a good one
 4 mins 5 blocks</t>
-  </si>
-  <si>
-    <t>Alfa64chan-10032020-001</t>
-  </si>
-  <si>
-    <t>200310_Alfa_rfMapper_basic</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-06-RF-mapping\2020-03-10-Alfa</t>
   </si>
   <si>
     <t>002 RF Mapping
@@ -1297,12 +604,6 @@
 Bigger image rf mapping
 Center starts to appear
 8 mins 7 blocks</t>
-  </si>
-  <si>
-    <t>Alfa64chan-10032020-002</t>
-  </si>
-  <si>
-    <t>200310_Alfa_rfMapper_basic(1)</t>
   </si>
   <si>
     <t>003 Generate Integrated starts 13:50
@@ -1316,15 +617,6 @@
 Neither is successful.… cannot say anything</t>
   </si>
   <si>
-    <t>Alfa64chan-10032020-003</t>
-  </si>
-  <si>
-    <t>200310_Alfa_generate_integrated(1)</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-12-Evolutions\2020-03-10-Alfa-01\2020-03-10-13-50-57</t>
-  </si>
-  <si>
     <t>004 Generate Integrated Starts 14:12
 8 [-0 -0 ] 1 CMAES
 8 [-0 -0 ] 1 ZOHA_Sphere_lr
@@ -1335,15 +627,6 @@
 Terminate around 30, see if we can do better</t>
   </si>
   <si>
-    <t>Alfa64chan-10032020-004</t>
-  </si>
-  <si>
-    <t>200310_Alfa_generate_integrated(2)</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-12-Evolutions\2020-03-10-Alfa-02\2020-03-10-14-12-42</t>
-  </si>
-  <si>
     <t>005 Generate Integrated Starts 14:48
 20 [-0 -3.5 ] 1 CMAES
 20 [-0 -3.5 ] 1 ZOHA_Sphere_lr
@@ -1352,15 +635,6 @@
 Seems CMAES goes up around 15 gens, not significantly but good. ZOHA is always fluctuating.
 ZOHA beat by CMAES!
 40 mins</t>
-  </si>
-  <si>
-    <t>Alfa64chan-10032020-005</t>
-  </si>
-  <si>
-    <t>200310_Alfa_generate_integrated(3)</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-12-Evolutions\2020-03-10-Alfa-03\2020-03-10-14-46-14</t>
   </si>
   <si>
     <t>006 Generate Integrated starts 15:29
@@ -1375,36 +649,12 @@
 40 mins 16 blocks</t>
   </si>
   <si>
-    <t>Alfa64chan-10032020-006</t>
-  </si>
-  <si>
-    <t>200310_Alfa_generate_integrated(4)</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-12-Evolutions\2020-03-10-Alfa-04\2020-03-10-15-29-12</t>
-  </si>
-  <si>
     <t>001 Rf mapping start at 14:34
 -8:2:8 2deg</t>
   </si>
   <si>
-    <t>Alfa64chan-16032020-001</t>
-  </si>
-  <si>
-    <t>200316_Alfa_rfMapper_basic</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-06-RF-mapping\2020-03-16-Alfa</t>
-  </si>
-  <si>
     <t>003 RF mapping starts 14:45
 -1.5:0.75:1.5  0.75 deg</t>
-  </si>
-  <si>
-    <t>Alfa64chan-16032020-003</t>
-  </si>
-  <si>
-    <t>200316_Alfa_rfMapper_basic(2)</t>
   </si>
   <si>
     <t>004 Generate Integrated 14:54
@@ -1413,15 +663,6 @@
 30 gens
 Finish in 16 mins  plateau around 16 gens! Grows super fast!
 Very successful!</t>
-  </si>
-  <si>
-    <t>Alfa64chan-16032020-004</t>
-  </si>
-  <si>
-    <t>200316_Alfa_generate_integrated(1)</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-12-Evolutions\2020-03-16-Alfa-01\2020-03-16-14-54-33</t>
   </si>
   <si>
     <t>005 Generate integrated 15:14
@@ -1431,15 +672,6 @@
 Optimizer found gradient around 16-18 gens , grow featues to excite the plateau part of the image.
 Exploration get down to 32 deg at gen 24.
 Seems to surpass the performance of CMAES finally!</t>
-  </si>
-  <si>
-    <t>Alfa64chan-16032020-005</t>
-  </si>
-  <si>
-    <t>200316_Alfa_generate_integrated(2)</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-12-Evolutions\2020-03-16-Alfa-02\2020-03-16-15-14-25</t>
   </si>
   <si>
     <t>006 Generate integrated 15:40
@@ -1461,15 +693,6 @@
 This schedule seems not very helpful……. Try others</t>
   </si>
   <si>
-    <t>Alfa64chan-16032020-006</t>
-  </si>
-  <si>
-    <t>200316_Alfa_generate_integrated(3)</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-12-Evolutions\2020-03-16-Alfa-03\2020-03-16-15-40-58</t>
-  </si>
-  <si>
     <t>007 Generate Integrated 16:12
 12 [-0.5 -0.8] 1  3 deg   ZOHA_Sphere_lr_euclid
 Mu exponential decay from 40 deg to 10 deg in 100 generations, learning rate 1.5
@@ -1481,15 +704,6 @@
 Faster than the last one. But curiously, the result doesn't look as</t>
   </si>
   <si>
-    <t>Alfa64chan-16032020-007</t>
-  </si>
-  <si>
-    <t>200316_Alfa_generate_integrated(4)</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-12-Evolutions\2020-03-16-Alfa-04\2020-03-16-16-12-37</t>
-  </si>
-  <si>
     <t>008 Generate Integrated 16:45
 64 [0 -2.1] 1  4deg  ZOHA_Sphere_lr_euclid
 Same learning rate scheduling with last experiment,
@@ -1500,15 +714,6 @@
 But the learning rate schedule tuned for</t>
   </si>
   <si>
-    <t>Alfa64chan-16032020-008</t>
-  </si>
-  <si>
-    <t>200316_Alfa_generate_integrated(5)</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-12-Evolutions\2020-03-16-Alfa-05\2020-03-16-16-45-43</t>
-  </si>
-  <si>
     <t>009 Generate Integrated 17:03
 64 [0 -2.1]  1 4deg  ZOHA_Sphere_lr_euclid
 Mu exponential decay from 40 deg to 5 deg in 100 generations, learning rate 1.5
@@ -1517,15 +722,6 @@
 He is a very good boy today! Seems he can give me 20 gens for this</t>
   </si>
   <si>
-    <t>Alfa64chan-16032020-009</t>
-  </si>
-  <si>
-    <t>200316_Alfa_generate_integrated(6)</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-12-Evolutions\2020-03-16-Alfa-06\2020-03-16-17-03-32</t>
-  </si>
-  <si>
     <t>001 RF MAPPER start at 1:27
 2 degrees, looking at SU in ch. 3, very sparse…
 Doesn’t seen visually responsive, we will try bigger.
@@ -1534,24 +730,9 @@
 Completed</t>
   </si>
   <si>
-    <t>Alfa64chan-17032020-001</t>
-  </si>
-  <si>
-    <t>200317_Alfa_rfMapper_basic</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-06-RF-mapping\2020-03-17-Alfa</t>
-  </si>
-  <si>
     <t>002 Rf mapper start at 1:35. 0.75 degrees
 5 complete stop at 1:38 ish
 Completed</t>
-  </si>
-  <si>
-    <t>Alfa64chan-17032020-002</t>
-  </si>
-  <si>
-    <t>200317_Alfa_rfMapper_basic(1)</t>
   </si>
   <si>
     <t>003 Generate integrated start at 1:45
@@ -1562,30 +743,12 @@
 Completed</t>
   </si>
   <si>
-    <t>Alfa64chan-17032020-003</t>
-  </si>
-  <si>
-    <t>200317_Alfa_generate_integrated(2)</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-12-Evolutions\2020-03-17-Alfa-01\2020-03-17-13-45-34</t>
-  </si>
-  <si>
     <t>004 generate integrated start at 200
 Ch 21, whole ch, just hash seems responsive
 21 [0 -1.5] 4 1 'CMAES'
 Block 21, still looks to be climbing
 Stop at block 31, 2:18
 Completed</t>
-  </si>
-  <si>
-    <t>Alfa64chan-17032020-004</t>
-  </si>
-  <si>
-    <t>200317_Alfa_generate_integrated(3)</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-12-Evolutions\2020-03-17-Alfa-02\2020-03-17-14-00-43</t>
   </si>
   <si>
     <t>005 Start at 2:20
@@ -1598,15 +761,6 @@
 Completed</t>
   </si>
   <si>
-    <t>Alfa64chan-17032020-005</t>
-  </si>
-  <si>
-    <t>200317_Alfa_generate_integrated(4)</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-12-Evolutions\2020-03-17-Alfa-03\2020-03-17-14-20-53</t>
-  </si>
-  <si>
     <t>006 start 2:40
 Ch 21
 21 [0 -1.5] 4 1 'ZOHA_Sphere_euclid_lr'
@@ -1617,15 +771,6 @@
 Completed</t>
   </si>
   <si>
-    <t>Alfa64chan-17032020-006</t>
-  </si>
-  <si>
-    <t>200317_Alfa_generate_integrated(5)</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-12-Evolutions\2020-03-17-Alfa-04\2020-03-17-14-40-02</t>
-  </si>
-  <si>
     <t>007 start at 302
 Ch 21 [0 -1.5] 4 1 'ZOHA_Sphere_lr euclid_ReducDim'
 Exactly same setting with last one, just restricted to a 50D subspace!
@@ -1633,29 +778,8 @@
 Completed</t>
   </si>
   <si>
-    <t>Alfa64chan-17032020-007</t>
-  </si>
-  <si>
-    <t>200317_Alfa_generate_integrated(6)</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-12-Evolutions\2020-03-17-Alfa-05\2020-03-17-15-01-44</t>
-  </si>
-  <si>
-    <t>ReducDimen_Evol</t>
-  </si>
-  <si>
     <t>001 Rf mapper 8, [8 8] start at 1:06
 10 blocks complete, stop at 1:08</t>
-  </si>
-  <si>
-    <t>Alfa64chan-18032020-001</t>
-  </si>
-  <si>
-    <t>200318_Alfa_rfMapper_basic</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-06-RF-mapping\2020-03-18-Alfa</t>
   </si>
   <si>
     <t>002 Rf mapper
@@ -1665,40 +789,16 @@
 5 blocks comple, stop at 1:14</t>
   </si>
   <si>
-    <t>Alfa64chan-18032020-002</t>
-  </si>
-  <si>
-    <t>200318_Alfa_rfMapper_basic(1)</t>
-  </si>
-  <si>
     <t>003 Generate integrated ch 30, hash, start at 1:22
 30 [0, -1.5] 3 1 'ZOHA_Sphere_lr euclid'
 30 [0, -1.5]  3 1 'ZOHA_Sphere_lr euclid_ReducDim'
 25 blocks complete, stop at 145</t>
   </si>
   <si>
-    <t>Alfa64chan-18032020-003</t>
-  </si>
-  <si>
-    <t>200318_Alfa_generate_integrated</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-12-Evolutions\2020-03-18-Alfa-01\2020-03-18-13-22-32</t>
-  </si>
-  <si>
     <t>004 Same thing over again, start 1:46
 30 [0, -1.5] 3 1 'ZOHA_Sphere_lr euclid'
 30 [0, -1.5]  3 1 'ZOHA_Sphere_lr euclid_ReducDim'
 Stop after 27 blocks, 2:10</t>
-  </si>
-  <si>
-    <t>Alfa64chan-18032020-004</t>
-  </si>
-  <si>
-    <t>200318_Alfa_generate_integrated(1)</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-12-Evolutions\2020-03-18-Alfa-02\2020-03-18-13-46-41</t>
   </si>
   <si>
     <t>005 Generate integrated ch 58, whole hash
@@ -1710,15 +810,6 @@
 19 blocks complete stop at 232</t>
   </si>
   <si>
-    <t>Alfa64chan-18032020-005</t>
-  </si>
-  <si>
-    <t>200318_Alfa_generate_integrated(2)</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-12-Evolutions\2020-03-18-Alfa-03\2020-03-18-14-14-54</t>
-  </si>
-  <si>
     <t>006 generate integrated ch 58, SU
 58 [-0.7, -2] 4 1 'ZOHA_Sphere_lr euclid'
 58 [-0.7, -2]  4 1 'ZOHA_Sphere_lr euclid_ReducDim'
@@ -1727,15 +818,6 @@
 complete</t>
   </si>
   <si>
-    <t>Alfa64chan-18032020-006</t>
-  </si>
-  <si>
-    <t>200318_Alfa_generate_integrated(3)</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-12-Evolutions\2020-03-18-Alfa-04\2020-03-18-14-33-33</t>
-  </si>
-  <si>
     <t>007 generate integrated, ch 34 hash
 34 [0 0 ] 3 1 'ZOHA_Sphere_lr euclid'
 34  [0 0]  3 1 'ZOHA_Sphere_lr euclid_ReducDim'
@@ -1744,38 +826,14 @@
 8 blocks in 26 mins.</t>
   </si>
   <si>
-    <t>Alfa64chan-18032020-007</t>
-  </si>
-  <si>
-    <t>200318_Alfa_generate_integrated(4)</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-12-Evolutions\2020-03-18-Alfa-05\2020-03-18-15-06-03</t>
-  </si>
-  <si>
     <t>001 Rf mapper 2 degrees, 2 [-8 8]
 Start at 144. 5 blocks complete, stop at 149
 Completed</t>
   </si>
   <si>
-    <t>Alfa64chan-19032020-001</t>
-  </si>
-  <si>
-    <t>200319_Alfa_rfMapper_basic</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-06-RF-mapping\2020-03-19-Alfa</t>
-  </si>
-  <si>
     <t>002 Rf mapper, 1 degree [-2 2]
 Start at 1:50. 6 blocks complete stop at 152
 Completed</t>
-  </si>
-  <si>
-    <t>Alfa64chan-19032020-002</t>
-  </si>
-  <si>
-    <t>200319_Alfa_rfMapper_basic(1)</t>
   </si>
   <si>
     <t>003 generate integrated starts 13:59
@@ -1785,15 +843,6 @@
 Good gap
 46 mins
 Completed</t>
-  </si>
-  <si>
-    <t>Alfa64chan-19032020-003</t>
-  </si>
-  <si>
-    <t>200319_Alfa_generate_integrated</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-12-Evolutions\2020-03-19-Alfa-01\2020-03-19-13-59-39</t>
   </si>
   <si>
     <t>004 starts 14:50
@@ -1809,15 +858,6 @@
 Completed</t>
   </si>
   <si>
-    <t>Alfa64chan-19032020-004</t>
-  </si>
-  <si>
-    <t>200319_Alfa_generate_integrated(2)</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-12-Evolutions\2020-03-19-Alfa-02\2020-03-19-14-50-56</t>
-  </si>
-  <si>
     <t>46, SU, V1
 full vs reduced
 46 (0,0) 3 3 zoha full
@@ -1827,26 +867,8 @@
 Completed</t>
   </si>
   <si>
-    <t>Alfa64chan-19032020-005</t>
-  </si>
-  <si>
-    <t>200319_Alfa_generate_integrated(3)</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-12-Evolutions\2020-03-19-Alfa-03\2020-03-19-15-45-51</t>
-  </si>
-  <si>
     <t>001 RFMapping Starts 12:33
 -8:8:8</t>
-  </si>
-  <si>
-    <t>Alfa64chan-20032020-001</t>
-  </si>
-  <si>
-    <t>200320_Alfa_rfMapper_basic(1)</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-06-RF-mapping\2020-03-20-Alfa</t>
   </si>
   <si>
     <t>002 RFMapping starts 13:36
@@ -1854,21 +876,9 @@
 Chan 17 has very interesting</t>
   </si>
   <si>
-    <t>Alfa64chan-20032020-002</t>
-  </si>
-  <si>
-    <t>200320_Alfa_rfMapper_basic(2)</t>
-  </si>
-  <si>
     <t>003 RFMapping starts 12:44
 -4:1:4
 chan5 looks good!</t>
-  </si>
-  <si>
-    <t>Alfa64chan-20032020-003</t>
-  </si>
-  <si>
-    <t>200320_Alfa_rfMapper_basic(3)</t>
   </si>
   <si>
     <t>005 Generate Integrated starts 13:05
@@ -1886,30 +896,12 @@
 Completed</t>
   </si>
   <si>
-    <t>Alfa64chan-20032020-005</t>
-  </si>
-  <si>
-    <t>200320_Alfa_generate_integrated</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-12-Evolutions\2020-03-20-Alfa-01\2020-03-20-13-04-35</t>
-  </si>
-  <si>
     <t>006 starts 13:36
 19 [-1 -0.5] 4 1 ZOHA_Sphere_lr_Euclid
 19 [-1 -0.5] 4 1 ZOHA_Sphere_lr_Euclid_RD
 Noisy Hash unit
 38 blocks complete stop at 207
 Completed</t>
-  </si>
-  <si>
-    <t>Alfa64chan-20032020-006</t>
-  </si>
-  <si>
-    <t>200320_Alfa_generate_integrated(2)</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-12-Evolutions\2020-03-20-Alfa-02\2020-03-20-13-36-30</t>
   </si>
   <si>
     <t>007 generate integrated start at 14:10
@@ -1922,15 +914,6 @@
 Reach 30
 Or maybe the Optimizer recruit different unit result in the 2 different gradients?
 Completed</t>
-  </si>
-  <si>
-    <t>Alfa64chan-20032020-007</t>
-  </si>
-  <si>
-    <t>200320_Alfa_generate_integrated(3)</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-12-Evolutions\2020-03-20-Alfa-03\2020-03-20-14-10-25</t>
   </si>
   <si>
     <t>008  starts 14:45
@@ -1947,52 +930,19 @@
 Completed</t>
   </si>
   <si>
-    <t>Alfa64chan-20032020-008</t>
-  </si>
-  <si>
-    <t>200320_Alfa_generate_integrated(4)</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-12-Evolutions\2020-03-20-Alfa-04\2020-03-20-14-45-33</t>
-  </si>
-  <si>
     <t>Hp at 1210 PM
 001 at 1217 PM, rf mapping, -8:8:8, 8-deg
 chan 8 looks good SU wise, but RF kinda eh</t>
   </si>
   <si>
-    <t>Alfa64chan-22032020-001</t>
-  </si>
-  <si>
-    <t>200322_Alfa_rfMapper_basic</t>
-  </si>
-  <si>
     <t>002 at 1220, -8:4:8, 4-deg. RF maybe at -3,+5</t>
   </si>
   <si>
-    <t>Alfa64chan-22032020-002</t>
-  </si>
-  <si>
-    <t>200322_Alfa_rfMapper_basic(1)</t>
-  </si>
-  <si>
     <t>003 at 1224 -8:2:8, 2-deg.  RF not responding well. It probably wants something big. We'll check one last time to see if last experiment was a fluke</t>
-  </si>
-  <si>
-    <t>Alfa64chan-22032020-003</t>
-  </si>
-  <si>
-    <t>200322_Alfa_rfMapper_basic(2)</t>
   </si>
   <si>
     <t>004 at 1229, -8:4:8, 2-deg. -3.4,+5 again
 All completed</t>
-  </si>
-  <si>
-    <t>Alfa64chan-22032020-004</t>
-  </si>
-  <si>
-    <t>200322_Alfa_rfMapper_basic(3)</t>
   </si>
   <si>
     <t>005 at 1253 PM
@@ -2000,15 +950,6 @@
 8 (-1 -2) 4 2 CMAES (hash).
 finished at 20 blocks, let's try reduced dimensionality.
 Completed</t>
-  </si>
-  <si>
-    <t>Alfa64chan-22032020-005</t>
-  </si>
-  <si>
-    <t>200322_Alfa_generate_integrated</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-12-Evolutions\2020-03-22-Alfa-01\2020-03-22-12-53-11</t>
   </si>
   <si>
     <t>006 at 1:10 PM
@@ -2019,15 +960,6 @@
 Completed</t>
   </si>
   <si>
-    <t>Alfa64chan-22032020-006</t>
-  </si>
-  <si>
-    <t>200322_Alfa_generate_integrated(1)</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-12-Evolutions\2020-03-22-Alfa-02\2020-03-22-13-10-28</t>
-  </si>
-  <si>
     <t>007 at 145 PM
 37 (0 0) 3 1 ZOHA full
 37 (0,0) 3 1 ZOHA RED
@@ -2036,15 +968,6 @@
 Completed</t>
   </si>
   <si>
-    <t>Alfa64chan-22032020-007</t>
-  </si>
-  <si>
-    <t>200322_Alfa_generate_integrated(2)</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-12-Evolutions\2020-03-22-Alfa-03\2020-03-22-13-45-02</t>
-  </si>
-  <si>
     <t>008 maybe, 64 SU, -0.2,-0.7)
 64 (0 0) 3 1 ZOHA full
 64 (0,0) 3 1 ZOHA RED
@@ -2052,32 +975,11 @@
 Completed</t>
   </si>
   <si>
-    <t>Alfa64chan-22032020-008</t>
-  </si>
-  <si>
-    <t>200322_Alfa_generate_integrated(3)</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-12-Evolutions\2020-03-22-Alfa-04\2020-03-22-14-07-49</t>
-  </si>
-  <si>
-    <t>SUHash</t>
-  </si>
-  <si>
     <t>Start: 1:38 pm, generate_integrated, parallel evolution from SU and hash
 Ch. 20: two SU (a = 1/5, b = 2/5), one hash (4/5)
 Ch. 20 [1 -1] 3 1, SUa
 Ch. 20 [1 -1] 3 3, hash
 Matlab completely crashed at block 25….</t>
-  </si>
-  <si>
-    <t>Alfa64chan-04022020-002</t>
-  </si>
-  <si>
-    <t>200204_ALfa_generate_integrated</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-12-Evolutions\2020-02-04-Alfa-01\2020-02-04-13-38-53</t>
   </si>
   <si>
     <t>Start: 2:03 pm, restarted evolution
@@ -2086,15 +988,6 @@
 Ch. 20 [1 -1] 3 1, SUa
 Ch. 20 [1 -1] 3 3, hash
 Stopped at 38 blocks, not evolving and he's not fixating well</t>
-  </si>
-  <si>
-    <t>Alfa64chan-04022020-003</t>
-  </si>
-  <si>
-    <t>200204_ALfa_generate_integrated(1)</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-12-Evolutions\2020-02-04-Alfa-02\2020-02-04-14-03-42</t>
   </si>
   <si>
     <t>005 generate_integrated   SU vs Hash
@@ -2106,15 +999,6 @@
 It Crashed !! aAt around 12:44
 Thank god the data is saved. 27 generations
 Completed</t>
-  </si>
-  <si>
-    <t>Alfa64chan-05022020-005</t>
-  </si>
-  <si>
-    <t>200205_ALfa_generate_integrated(2)</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-12-Evolutions\2020-02-05-Alfa-01\2020-02-05-12-18-42</t>
   </si>
   <si>
     <t>007 generate_integrated  SU vs Hash
@@ -2131,15 +1015,6 @@
 Completed</t>
   </si>
   <si>
-    <t>Alfa64chan-05022020-007</t>
-  </si>
-  <si>
-    <t>200205_ALfa_generate_integrated(4)</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-12-Evolutions\2020-02-05-Alfa-03\2020-02-05-13-18-55</t>
-  </si>
-  <si>
     <t>Ch. 7 [0 -2] 3 1 'CMAES'
 Ch. 7 [0 -2] 3 2 'CMAES'
 SU vs. hash
@@ -2150,15 +1025,6 @@
 50 blocks, complete</t>
   </si>
   <si>
-    <t>Alfa64chan-10022020-004</t>
-  </si>
-  <si>
-    <t>200210_Alfa_generate_integrated</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-12-Evolutions\2020-02-10-Alfa-01\2020-02-10-16-42-15</t>
-  </si>
-  <si>
     <t>SU v Hash ch. 63 [0, -2] SU 1/5 very visually responsive. Start at 10:30
 63 [0, -2] 3 1 
 63 [0, -2] 3 2
@@ -2169,15 +1035,6 @@
 Feb. 13th Using the function same as beto rig!</t>
   </si>
   <si>
-    <t>Alfa64chan-11022020-003</t>
-  </si>
-  <si>
-    <t>200211_Alfa_generate_integrated</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-12-Evolutions\2020-02-11-Alfa-01\2020-02-11-10-30-50</t>
-  </si>
-  <si>
     <t>001RFMapping 
 starts 11:59 AM
 -8:2:8 2deg image.
@@ -2188,15 +1045,6 @@
 Complete</t>
   </si>
   <si>
-    <t>Alfa64chan-13022020-001</t>
-  </si>
-  <si>
-    <t>200213_Alfa_rfMapper_basic(1)</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-06-RF-mapping\2020-02-13-Alfa</t>
-  </si>
-  <si>
     <t>002 generate_integrated
 63 [0, -2] 3 1  CMAES
 63 [0, -2] 3 2  CMAES 
@@ -2205,12 +1053,6 @@
 The overall pace is slow….. Is that because I add too many flags to write info to disk?
 Cannot see the eye signal on the screen during experiment… Same problem, let's restart the experiment.
 aborted</t>
-  </si>
-  <si>
-    <t>Alfa64chan-13022020-002</t>
-  </si>
-  <si>
-    <t>200213_Alfa_generate_integrated(1)</t>
   </si>
   <si>
     <t>003 generate_integrated
@@ -2229,23 +1071,8 @@
 Updates the Plexon API to newer native version.</t>
   </si>
   <si>
-    <t>Alfa64chan-13022020-003</t>
-  </si>
-  <si>
-    <t>200213_Alfa_generate_integrated(2)</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-12-Evolutions\2020-02-13-Alfa-01\2020-02-13-12-41-34</t>
-  </si>
-  <si>
     <t>001 RFMapper   starts
 -1.5:0.5:1.5 mapping 1 deg</t>
-  </si>
-  <si>
-    <t>Alfa64chan-17022020-001</t>
-  </si>
-  <si>
-    <t>200217_Alfa_rfMapper_basic</t>
   </si>
   <si>
     <t>002 RFMapper starts 12:49
@@ -2253,12 +1080,6 @@
 (Monkey generally feels harder to fixate for larger peripheral objects)
 Seems after a while, monkey adapt and feel easier to fixate without saccade to the peripheral stimuli popping up.
 30 threshold changed a little</t>
-  </si>
-  <si>
-    <t>Alfa64chan-17022020-002</t>
-  </si>
-  <si>
-    <t>200217_Alfa_rfMapper_basic(1)</t>
   </si>
   <si>
     <t>005 generate_integrated
@@ -2269,33 +1090,12 @@
 40 blocks, completed</t>
   </si>
   <si>
-    <t>Alfa64chan-17022020-005</t>
-  </si>
-  <si>
-    <t>200217_Alfa_generate_integrated(4)</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-12-Evolutions\2020-02-17-Alfa-01\2020-02-17-13-23-41</t>
-  </si>
-  <si>
     <t>Rf mapper
 10 blocks, complete</t>
   </si>
   <si>
-    <t>Alfa64chan-18022020-001</t>
-  </si>
-  <si>
-    <t>200218_Alfa_rfMapper_basic</t>
-  </si>
-  <si>
     <t>Rf mapper
 11 blocks, complete</t>
-  </si>
-  <si>
-    <t>Alfa64chan-18022020-002</t>
-  </si>
-  <si>
-    <t>200218_Alfa_rfMapper_basic(1)</t>
   </si>
   <si>
     <t>Generate parallel, SU vs hash
@@ -2306,36 +1106,15 @@
 23 blocks have taken almost an hour and a half</t>
   </si>
   <si>
-    <t>Alfa64chan-18022020-003</t>
-  </si>
-  <si>
-    <t>200218_Alfa_generate_integrated</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-12-Evolutions\2020-02-18-Alfa-01\2020-02-18-12-31-42</t>
-  </si>
-  <si>
     <t>5 blocks
 -8:2:8, 2 degrees
 complete</t>
-  </si>
-  <si>
-    <t>Alfa64chan-19022020-001</t>
-  </si>
-  <si>
-    <t>200219_Alfa_rfMapper_basic</t>
   </si>
   <si>
     <t>-1.5:0.5:1.5, 1 degree
 5 blocks
 Start: 12:32 pm
 complete</t>
-  </si>
-  <si>
-    <t>Alfa64chan-19022020-002</t>
-  </si>
-  <si>
-    <t>200219_Alfa_rfMapper_basic(1)</t>
   </si>
   <si>
     <t>Start: 1:01 pm
@@ -2353,37 +1132,16 @@
 29 blocks, he won't work anymore, complete</t>
   </si>
   <si>
-    <t>Alfa64chan-19022020-005</t>
-  </si>
-  <si>
-    <t>200219_Alfa_generate_integrated(2)</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-12-Evolutions\2020-02-19-Alfa-01\2020-02-19-13-01-32</t>
-  </si>
-  <si>
     <t>Rf mapper
 -1.5:0.5:1.5, 1 degree
 Start: 12:38 pm
 5 blocks, complete</t>
   </si>
   <si>
-    <t>Alfa64chan-20022020-001</t>
-  </si>
-  <si>
-    <t>200220_Alfa_rfMapper_basic</t>
-  </si>
-  <si>
     <t>Rf mapper
 -8:2:8, 2 degrees
 Start: 12:44 pm
 5 blocks, complete</t>
-  </si>
-  <si>
-    <t>Alfa64chan-20022020-002</t>
-  </si>
-  <si>
-    <t>200220_Alfa_rfMapper_basic(1)</t>
   </si>
   <si>
     <t>Ch. 25 parallel evolution, SU (1/5) vs hash (5/5)
@@ -2392,15 +1150,6 @@
 Start: 12:58 pm, visually responsive
 30 blocks, never climbed, complete
 Trying again at 4 degrees</t>
-  </si>
-  <si>
-    <t>Alfa64chan-20022020-003</t>
-  </si>
-  <si>
-    <t>200220_Alfa_generate_integrated</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-12-Evolutions\2020-02-20-Alfa-01\2020-02-20-12-58-56</t>
   </si>
   <si>
     <t>Eye position STILL not showing up, but I'm tired of restarting it with no success, so it's just going to stay like this
@@ -2414,15 +1163,6 @@
 31 blocks, didn't go anywhere, complete</t>
   </si>
   <si>
-    <t>Alfa64chan-20022020-006</t>
-  </si>
-  <si>
-    <t>200220_Alfa_generate_integrated(3)</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-12-Evolutions\2020-02-20-Alfa-02\2020-02-20-13-57-30</t>
-  </si>
-  <si>
     <t>Ch. 15 parallel evolution, SU (1/5) vs MU (3/5)
 15 [-1 -1] 3 1 CMAES
 15 [-1 -1] 3 2 CMAES
@@ -2431,35 +1171,14 @@
 He worked for 3.5 hours today!!!  Three complete parallel evolutions!</t>
   </si>
   <si>
-    <t>Alfa64chan-20022020-008</t>
-  </si>
-  <si>
-    <t>200220_Alfa_generate_integrated(5)</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-12-Evolutions\2020-02-20-Alfa-03\2020-02-20-15-00-54</t>
-  </si>
-  <si>
     <t>RF mapper, -8:2:8, 2 degrees
 Start: 1:28 pm
 10 blocks, complete</t>
   </si>
   <si>
-    <t>Alfa64chan-21022020-001</t>
-  </si>
-  <si>
-    <t>200221_Alfa_rfMapper_basic</t>
-  </si>
-  <si>
     <t>RF mapper, -1.5:0.5:1.5, 1 degree
 Start: 1:45 pm
 10 blocks, complete</t>
-  </si>
-  <si>
-    <t>Alfa64chan-21022020-002</t>
-  </si>
-  <si>
-    <t>200221_Alfa_rfMapper_basic(1)</t>
   </si>
   <si>
     <t>Start: 2:00 pm
@@ -2470,35 +1189,14 @@
 ~35 blocks, never took off, complete</t>
   </si>
   <si>
-    <t>Alfa64chan-21022020-003</t>
-  </si>
-  <si>
-    <t>200221_Alfa_generate_integrated</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-12-Evolutions\2020-02-21-Alfa-01\2020-02-21-14-00-54</t>
-  </si>
-  <si>
     <t>Start: 1:29 pm
 -1.5:0.5:1.5, 1 degree
 10 blocks, complete</t>
   </si>
   <si>
-    <t>Alfa64chan-24022020-001</t>
-  </si>
-  <si>
-    <t>200224_Alfa_rfMapper_basic</t>
-  </si>
-  <si>
     <t>Start: 1:37 pm
 -8:2:8, 2 degrees
 11 blocks, complete</t>
-  </si>
-  <si>
-    <t>Alfa64chan-24022020-002</t>
-  </si>
-  <si>
-    <t>200224_Alfa_rfMapper_basic(1)</t>
   </si>
   <si>
     <t>Start: 2:05 pm
@@ -2509,15 +1207,6 @@
 35 blocks, evolution never climbed, complete</t>
   </si>
   <si>
-    <t>Alfa64chan-24022020-005</t>
-  </si>
-  <si>
-    <t>200224_Alfa_generate_integrated(3)</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-12-Evolutions\2020-02-24-Alfa-01\2020-02-24-14-05-10</t>
-  </si>
-  <si>
     <t>Start: 2:48 pm
 Ch. 50, SU (1/5, sparse) vs hash (5/5)
 50 [0 -0.5] 3 1 CMAES
@@ -2526,35 +1215,14 @@
 39 blocks, complete, actually climbed!</t>
   </si>
   <si>
-    <t>Alfa64chan-24022020-006</t>
-  </si>
-  <si>
-    <t>200224_Alfa_generate_integrated(4)</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-12-Evolutions\2020-02-24-Alfa-02\2020-02-24-14-48-31</t>
-  </si>
-  <si>
     <t>Start: 12:48 pm, RF mapper
 -8:2:8, 2 degrees
 10 blocks, complete</t>
   </si>
   <si>
-    <t>Alfa64chan-25022020-001</t>
-  </si>
-  <si>
-    <t>200225_Alfa_rfMapper_basic</t>
-  </si>
-  <si>
     <t>Start: 12:59 pm, RF mapper
 -1:0.5:1, 1 degree
 12 blocks, complete</t>
-  </si>
-  <si>
-    <t>Alfa64chan-25022020-002</t>
-  </si>
-  <si>
-    <t>200225_Alfa_rfMapper_basic(1)</t>
   </si>
   <si>
     <t>SU vs. hash, start: 1:18 pm
@@ -2567,15 +1235,6 @@
 55 blocks, complete</t>
   </si>
   <si>
-    <t>Alfa64chan-25022020-004</t>
-  </si>
-  <si>
-    <t>200225_Alfa_generate_integrated(2)</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-12-Evolutions\2020-02-25-Alfa-01\2020-02-25-13-18-15</t>
-  </si>
-  <si>
     <t>SU vs. SU vs. hash, start: 2:36 pm
 Two SUs (1/5 and 1/5), one hash (4/5)
 35 [0 0] 3 1 CMAES
@@ -2586,50 +1245,20 @@
 30 blocks, complete</t>
   </si>
   <si>
-    <t>Alfa64chan-25022020-005</t>
-  </si>
-  <si>
-    <t>200225_Alfa_generate_integrated(3)</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-12-Evolutions\2020-02-25-Alfa-02\2020-02-25-14-36-14</t>
-  </si>
-  <si>
     <t>CMAES vs. GA, start: 3:34 pm, evolving from visually responsive MU/hash (3/5), SU (1/5) selected as unit b
 35 [0 0] 3 1 CMAES
 35 [0 0] 3 1 GA
 30 blocks, complete!</t>
   </si>
   <si>
-    <t>Alfa64chan-25022020-006</t>
-  </si>
-  <si>
-    <t>200225_Alfa_generate_integrated(4)</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-12-Evolutions\2020-02-25-Alfa-03\2020-02-25-15-34-30</t>
-  </si>
-  <si>
     <t>Start: 1:05 pm, RF mapper
 -1:0.5:1, 1 degree
 10 blocks, complete</t>
   </si>
   <si>
-    <t>Alfa64chan-26022020-001</t>
-  </si>
-  <si>
-    <t>200226_Alfa_rfMapper_basic</t>
-  </si>
-  <si>
     <t>Start: 1:09 pm, RF mapper
 -8:2:8, 2 degrees
 10 blocks, complete</t>
-  </si>
-  <si>
-    <t>Alfa64chan-26022020-002</t>
-  </si>
-  <si>
-    <t>200226_Alfa_rfMapper_basic(1)</t>
   </si>
   <si>
     <t>Start: 1:24 pm, Ch. 24 SU (1/5) vs. hash (4/5)
@@ -2638,15 +1267,6 @@
 24 [-0.5 -0.5] 3 2 CMAES
 Block 28, not climbing.  Will give it to 35, and then try again at four degrees
 Stopped at 35 blocks, never climbed, trying again at 4 degrees</t>
-  </si>
-  <si>
-    <t>Alfa64chan-26022020-003</t>
-  </si>
-  <si>
-    <t>200226_Alfa_generate_integrated</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-12-Evolutions\2020-02-26-Alfa-01\2020-02-26-13-24-53</t>
   </si>
   <si>
     <t>Start: 2:04 pm
@@ -2658,35 +1278,14 @@
 63 blocks, successful, complete</t>
   </si>
   <si>
-    <t>Alfa64chan-26022020-004</t>
-  </si>
-  <si>
-    <t>200226_Alfa_generate_integrated(1)</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-12-Evolutions\2020-02-26-Alfa-02\2020-02-26-14-04-11</t>
-  </si>
-  <si>
     <t>RF mapper, start: 1:51 pm
 -8:2:8, 2 degrees
 10 blocks, complete</t>
   </si>
   <si>
-    <t>Alfa64chan-28022020-001</t>
-  </si>
-  <si>
-    <t>200228_Alfa_rfMapper_basic</t>
-  </si>
-  <si>
     <t>RF mapper, start: 2:03 pm
 -1:0.5:1, 1 degree
 10 blocks, complete</t>
-  </si>
-  <si>
-    <t>Alfa64chan-28022020-002</t>
-  </si>
-  <si>
-    <t>200228_Alfa_rfMapper_basic(1)</t>
   </si>
   <si>
     <t>CMAES vs. GA, start: 2:13 pm
@@ -2695,15 +1294,6 @@
 25 [0 0] 3 1 GA
 Nice RF, but doesn't look super responsive.  Evolution not going anywhere at block 20
 30 blocks, never went anywhere, stopped, complete</t>
-  </si>
-  <si>
-    <t>Alfa64chan-28022020-003</t>
-  </si>
-  <si>
-    <t>200228_Alfa_generate_integrated</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-12-Evolutions\2020-02-28-Alfa-01\2020-02-28-14-12-38</t>
   </si>
   <si>
     <t>CMAES vs. GA, start: 2:46 pm
@@ -2717,15 +1307,6 @@
 65 blocks, complete</t>
   </si>
   <si>
-    <t>Alfa64chan-28022020-004</t>
-  </si>
-  <si>
-    <t>200228_Alfa_generate_integrated(1)</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-12-Evolutions\2020-02-28-Alfa-02\2020-02-28-14-46-53</t>
-  </si>
-  <si>
     <t>004 at 202 PM
 63 [ 0 , 0 ] 3 1 CMAES
 63 [ 0 , 0 ] 3 2 CMAES
@@ -2736,29 +1317,11 @@
 looks like it was overwritten</t>
   </si>
   <si>
-    <t>Alfa64chan-02032020-005</t>
-  </si>
-  <si>
-    <t>200302_Alfa_generate_integrated</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-12-Evolutions\2020-03-02-Alfa-01\2020-03-02-14-02-16</t>
-  </si>
-  <si>
     <t>005 at 244 PM
 63 (0 0) 3 1 CMAES
 63 (0,0) 3 1 GA
 had to restart because of missing fix point
 completed</t>
-  </si>
-  <si>
-    <t>Alfa64chan-02032020-006</t>
-  </si>
-  <si>
-    <t>200302_Alfa_generate_integrated(1)</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-12-Evolutions\2020-03-02-Alfa-02\2020-03-02-14-44-23</t>
   </si>
   <si>
     <t>Start: 2:21 pm, Ch. 24 (three SU (A = 1/5 and very suppressed but nice RF, B = 1.5/5, C = 1.5/5, one hash = 5/5)
@@ -2772,27 +1335,9 @@
 45 blocks, complete</t>
   </si>
   <si>
-    <t>Alfa64chan-09032020-004</t>
-  </si>
-  <si>
-    <t>200309_Alfa_generate_integrated</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-12-Evolutions\2020-03-09-Alfa-01\2020-03-09-14-21-36</t>
-  </si>
-  <si>
     <t>Start: 4:17 pm
 Selectivity, big set half
 Two blocks, stopped</t>
-  </si>
-  <si>
-    <t>Alfa64chan-09032020-006</t>
-  </si>
-  <si>
-    <t>200309_Alfa_selectivity_basic</t>
-  </si>
-  <si>
-    <t>Stimuli\2019-Selectivity\alfa_chan_24_bigSetHalf</t>
   </si>
   <si>
     <t>Hp 1232
@@ -2802,31 +1347,13 @@
 completed</t>
   </si>
   <si>
-    <t>Alfa64chan-12032020-001</t>
-  </si>
-  <si>
-    <t>200312_Alfa_rfMapper_basic</t>
-  </si>
-  <si>
     <t>Again at -8:4:8
 completed</t>
-  </si>
-  <si>
-    <t>Alfa64chan-12032020-002</t>
-  </si>
-  <si>
-    <t>200312_Alfa_rfMapper_basic(1)</t>
   </si>
   <si>
     <t>Again at -8:2:8
 looks like (-2,-1)
 completed</t>
-  </si>
-  <si>
-    <t>Alfa64chan-12032020-003</t>
-  </si>
-  <si>
-    <t>200312_Alfa_rfMapper_basic(2)</t>
   </si>
   <si>
     <t>Generate_integrated
@@ -2837,15 +1364,6 @@
 completed</t>
   </si>
   <si>
-    <t>Alfa64chan-12032020-004</t>
-  </si>
-  <si>
-    <t>200312_Alfa_generate_integrated</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-12-Evolutions\2020-03-12-Alfa-01\2020-03-12-13-05-05</t>
-  </si>
-  <si>
     <t>205 PM
 generate integrated
 40 (0, 0) 3 1 CMAES
@@ -2853,49 +1371,19 @@
 completed</t>
   </si>
   <si>
-    <t>Alfa64chan-12032020-005</t>
-  </si>
-  <si>
-    <t>200312_Alfa_generate_integrated(1)</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-12-Evolutions\2020-03-12-Alfa-02\2020-03-12-14-05-24</t>
-  </si>
-  <si>
     <t>Finally, selectivity for channel 1 as above
 (-2,-1) 3 deg
 completed</t>
   </si>
   <si>
-    <t>Alfa64chan-12032020-006</t>
-  </si>
-  <si>
-    <t>200312_Alfa_selectivity_basic</t>
-  </si>
-  <si>
-    <t>Stimuli\2019-Selectivity\alfa_chan_39_newSU</t>
-  </si>
-  <si>
     <t>Headposted around 940
 Rf mapping start at 950, ran 5 blocks. 8 and 4. start at 45 ms
 completed</t>
   </si>
   <si>
-    <t>Alfa64chan-07042020-001</t>
-  </si>
-  <si>
-    <t>200407_Alfa_rfMapper_basic(1)</t>
-  </si>
-  <si>
     <t>Rf map again, start at 1002. looking at 4 and 46(0,0 or 0-5).
 5 blocks complete. Stop at 1008
 completed</t>
-  </si>
-  <si>
-    <t>Alfa64chan-07042020-002</t>
-  </si>
-  <si>
-    <t>200407_Alfa_rfMapper_basic(3)</t>
   </si>
   <si>
     <t>Generate integrated ch 4
@@ -2906,25 +1394,10 @@
 completed</t>
   </si>
   <si>
-    <t>Alfa64chan-07042020-004</t>
-  </si>
-  <si>
-    <t>200407_Alfa_generate_integrated(1)</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-Manifold\alfa-200407a\2020-04-07-10-16-19</t>
-  </si>
-  <si>
     <t>Selectivity ch 4 of evolved images start at 1039
 4 [0.5 -0.5] 4
 5 blocks complete stop at 1056
 completed</t>
-  </si>
-  <si>
-    <t>200407_Alfa_selectivity_basic</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-Manifold\alfa-200407a-selectivity</t>
   </si>
   <si>
     <t>Generate integrated 46. start at 1058
@@ -2932,15 +1405,6 @@
 Very high pitched crackle sounding SU, but visually responsive
 90 ms reward. Stop at 1117. 37 blocks complete
 completed</t>
-  </si>
-  <si>
-    <t>Alfa64chan-07042020-006</t>
-  </si>
-  <si>
-    <t>200407_Alfa_generate_integrated(2)</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-Manifold\alfa-200407b\2020-04-07-10-58-28</t>
   </si>
   <si>
     <t>Selectivity ch. 46 of evolved PCP images. start at 1123
@@ -2951,20 +1415,1885 @@
 completed</t>
   </si>
   <si>
+    <t>4920 hp 930 58 23 27
+Rf mapping start at 944, 2 degrees
+40 ms reward
+5 blocks complete, stop at 949
+complete</t>
+  </si>
+  <si>
+    <t>rf map at 4 degrees start at 950
+6 blocks complete stop at 953
+23
+27 00
+58 0 neg3
+complete
+generate ch 27
+27 (0,0) 3 1 cmaes
+Still not taking off at block 35...
+Stopped at 1013, 41 b complete</t>
+  </si>
+  <si>
+    <t>generate integrated 27. start at 1016
+27 (00) 6 1 cmaes
+Trying larger image since it didnt take off with 3 dgrees
+actually climbing a bit at block 11.
+Wahooooo, see how far it goes
+29 blocks complete at 1030</t>
+  </si>
+  <si>
+    <t>SELECTIVITY of ch 27 start at 1036
+27 (00) 6. 70 ms reward
+5 blocks complete at 1052</t>
+  </si>
+  <si>
+    <t>generate intrgrated 58 Start at 1055
+58 (0,-3) 2 1 cmaes
+100 ms reward
+Stop at 1108. 33 blocks done</t>
+  </si>
+  <si>
+    <t>selectivity 58 Start at 1112
+58 (0,-3) 2 1
+slowing down...
+Added 100ml juice
+5 blocks comllete at 1137</t>
+  </si>
+  <si>
+    <t>4/14/20 betadine. Hp at 950_x000B_Rf mapping start at 1008
+2 degrees, 35 ms reward
+5 blocks completed stop at 1013</t>
+  </si>
+  <si>
+    <t>Rf mapping start at 1014
+4 degrees
+5 blocks completed</t>
+  </si>
+  <si>
+    <t>Generate integrated start at 1025
+Ch 1, SU
+Ch. 1 [-4 -2] 5 1 CMAES
+Yay its climbing!
+Stopped at 32 blocks 1039</t>
+  </si>
+  <si>
+    <t>Selectivity start at 1043
+Ch. 1 [-4 -2] 5
+5 blocks complete stop at 1058</t>
+  </si>
+  <si>
+    <t>Generate integrated start at 1101
+Ch 53 SU
+Ch. 53 [-3.5 -1] 3 1 CMAES
+Block 28 finally climbing</t>
+  </si>
+  <si>
+    <t>Selectivity start at 1121
+Ch 53 [-3.5, -1] 3
+5 blocks complete at 1135</t>
+  </si>
+  <si>
+    <t>Generate integrated start at 1137
+Ch. 37 hash, very noisy and visually responsive
+Ch. 37 [0 0] 2 1 CMAES
+Climbing quick, still climbing at block 24
+30 blocks complete at 1151</t>
+  </si>
+  <si>
+    <t>Selectivity start at 1155
+Ch. 37 [0 0] 2
+Slowing down, well get through at least 4
+Added 100 ml of grape juice
+5 blocks complete at 1219</t>
+  </si>
+  <si>
+    <t>Rf mapper start at 922
+2 degrees
+4 blocks complete at 928
+Focus on: 8, (00) 3 degrees
+50, (0-3) 3 degrees
+complete</t>
+  </si>
+  <si>
+    <t>Rf mapper start at 929
+4 degrees
+5 blocks complete at  931
+complete</t>
+  </si>
+  <si>
+    <t>Generate integrated start at 937
+Ch 8 (0 0) 3 1 CMAES
+Ch. 8 SU. Interesting unit, very "poppy" climbing slowly at block 28
+Climbed slightly
+40 blocks completed, stopped at 952
+complete</t>
+  </si>
+  <si>
+    <t>Selectivity start at 956
+Ch. 8 (0 0) 3
+5 blocks complete at 1016
+complete</t>
+  </si>
+  <si>
+    <t>Generate integrated start at 1018
+Ch 50, SU, visually responsive
+Ch 50 (0 -3) 3 1 CMAES
+Climbing quickly at block 8
+25 blocks complete at 1031
+complete</t>
+  </si>
+  <si>
+    <t>Selectivity start at 1036, working fine now
+CH. 50 (0 -3) 3
+Replaced 200 ml of water for juice
+5 blocks complete at 1100
+complete</t>
+  </si>
+  <si>
+    <t>Generate integrated start at 1103
+Ch 55. hash, visually responsive
+Added another 200 ml of juice
+Not seeming to go anywhere and monkey is slowing down
+30 blocks, aborted at 1118
+complete</t>
+  </si>
+  <si>
+    <t>Alfa64chan-19112019-009</t>
+  </si>
+  <si>
+    <t>Alfa64chan-19112019-010</t>
+  </si>
+  <si>
+    <t>Alfa64chan-19112019-012</t>
+  </si>
+  <si>
+    <t>Alfa64chan-20112019-010</t>
+  </si>
+  <si>
+    <t>Alfa64chan-20112019-011</t>
+  </si>
+  <si>
+    <t>Alfa64chan-20112019-013</t>
+  </si>
+  <si>
+    <t>Alfa64chan-21112019-003</t>
+  </si>
+  <si>
+    <t>Alfa64chan-21112019-004</t>
+  </si>
+  <si>
+    <t>Alfa64chan-21112019-006</t>
+  </si>
+  <si>
+    <t>Alfa64chan-21112019-008</t>
+  </si>
+  <si>
+    <t>Alfa64chan-21112019-009</t>
+  </si>
+  <si>
+    <t>Alfa64chan-21112019-010</t>
+  </si>
+  <si>
+    <t>Alfa64chan-22112019-001</t>
+  </si>
+  <si>
+    <t>Alfa64chan-22112019-002</t>
+  </si>
+  <si>
+    <t>Alfa64chan-22112019-003</t>
+  </si>
+  <si>
+    <t>Alfa64chan-22112019-004</t>
+  </si>
+  <si>
+    <t>Alfa64chan-22112019-005</t>
+  </si>
+  <si>
+    <t>Alfa64chan-22112019-006</t>
+  </si>
+  <si>
+    <t>Alfa64chan-22112019-007</t>
+  </si>
+  <si>
+    <t>Alfa64chan-22112019-008</t>
+  </si>
+  <si>
+    <t>Alfa64chan-25112019-001</t>
+  </si>
+  <si>
+    <t>Alfa64chan-25112019-002</t>
+  </si>
+  <si>
+    <t>Alfa64chan-25112019-003</t>
+  </si>
+  <si>
+    <t>Alfa64chan-25112019-004</t>
+  </si>
+  <si>
+    <t>Alfa64chan-25112019-005</t>
+  </si>
+  <si>
+    <t>Alfa64chan-25112019-006</t>
+  </si>
+  <si>
+    <t>Alfa64chan-25112019-007</t>
+  </si>
+  <si>
+    <t>Alfa64chan-26112019-001</t>
+  </si>
+  <si>
+    <t>Alfa64chan-26112019-002</t>
+  </si>
+  <si>
+    <t>Alfa64chan-26112019-003</t>
+  </si>
+  <si>
+    <t>Alfa64chan-26112019-004</t>
+  </si>
+  <si>
+    <t>Alfa64chan-26112019-005</t>
+  </si>
+  <si>
+    <t>Alfa64chan-26112019-006</t>
+  </si>
+  <si>
+    <t>Alfa64chan-26112019-007</t>
+  </si>
+  <si>
+    <t>Alfa64chan-26112019-008</t>
+  </si>
+  <si>
+    <t>Alfa64chan-27112019-009</t>
+  </si>
+  <si>
+    <t>Alfa64chan-27112019-010</t>
+  </si>
+  <si>
+    <t>Alfa64chan-02122019-003</t>
+  </si>
+  <si>
+    <t>Alfa64chan-02122019-004</t>
+  </si>
+  <si>
+    <t>Alfa64chan-02122019-005</t>
+  </si>
+  <si>
+    <t>Alfa64chan-02122019-008</t>
+  </si>
+  <si>
+    <t>Alfa64chan-02122019-009</t>
+  </si>
+  <si>
+    <t>Alfa64chan-02122019-010</t>
+  </si>
+  <si>
+    <t>Alfa64chan-04122019-003</t>
+  </si>
+  <si>
+    <t>Alfa64chan-04122019-004</t>
+  </si>
+  <si>
+    <t>Alfa64chan-04122019-005</t>
+  </si>
+  <si>
+    <t>Alfa64chan-04122019-008</t>
+  </si>
+  <si>
+    <t>Alfa64chan-04122019-009</t>
+  </si>
+  <si>
+    <t>Alfa64chan-04122019-010</t>
+  </si>
+  <si>
+    <t>Alfa64chan-05122019-002</t>
+  </si>
+  <si>
+    <t>Alfa64chan-05122019-003</t>
+  </si>
+  <si>
+    <t>Alfa64chan-05122019-004</t>
+  </si>
+  <si>
+    <t>Alfa64chan-06122019-002</t>
+  </si>
+  <si>
+    <t>Alfa64chan-06122019-003</t>
+  </si>
+  <si>
+    <t>Alfa64chan-06122019-004</t>
+  </si>
+  <si>
+    <t>Alfa64chan-06122019-006</t>
+  </si>
+  <si>
+    <t>Alfa64chan-06122019-007</t>
+  </si>
+  <si>
+    <t>Alfa64chan-06122019-008</t>
+  </si>
+  <si>
+    <t>Alfa64chan-09122019-002</t>
+  </si>
+  <si>
+    <t>Alfa64chan-09122019-003</t>
+  </si>
+  <si>
+    <t>Alfa64chan-09122019-004</t>
+  </si>
+  <si>
+    <t>Alfa64chan-10122019-002</t>
+  </si>
+  <si>
+    <t>Alfa64chan-10122019-003</t>
+  </si>
+  <si>
+    <t>Alfa64chan-10122019-004</t>
+  </si>
+  <si>
+    <t>Alfa64chan-11122019-002</t>
+  </si>
+  <si>
+    <t>Alfa64chan-11122019-003</t>
+  </si>
+  <si>
+    <t>Alfa64chan-11122019-004</t>
+  </si>
+  <si>
+    <t>Alfa64chan-12122019-002</t>
+  </si>
+  <si>
+    <t>Alfa64chan-12122019-003</t>
+  </si>
+  <si>
+    <t>Alfa64chan-12122019-004</t>
+  </si>
+  <si>
+    <t>Alfa64chan-12122019-006</t>
+  </si>
+  <si>
+    <t>Alfa64chan-12122019-007</t>
+  </si>
+  <si>
+    <t>Alfa64chan-12122019-008</t>
+  </si>
+  <si>
+    <t>Alfa64chan-13122019-002</t>
+  </si>
+  <si>
+    <t>Alfa64chan-13122019-003</t>
+  </si>
+  <si>
+    <t>Alfa64chan-13122019-004</t>
+  </si>
+  <si>
+    <t>Alfa64chan-13122019-006</t>
+  </si>
+  <si>
+    <t>Alfa64chan-13122019-007</t>
+  </si>
+  <si>
+    <t>Alfa64chan-13122019-008</t>
+  </si>
+  <si>
+    <t>Alfa64chan-10032020-001</t>
+  </si>
+  <si>
+    <t>Alfa64chan-10032020-002</t>
+  </si>
+  <si>
+    <t>Alfa64chan-10032020-003</t>
+  </si>
+  <si>
+    <t>Alfa64chan-10032020-004</t>
+  </si>
+  <si>
+    <t>Alfa64chan-10032020-005</t>
+  </si>
+  <si>
+    <t>Alfa64chan-10032020-006</t>
+  </si>
+  <si>
+    <t>Alfa64chan-16032020-001</t>
+  </si>
+  <si>
+    <t>Alfa64chan-16032020-003</t>
+  </si>
+  <si>
+    <t>Alfa64chan-16032020-004</t>
+  </si>
+  <si>
+    <t>Alfa64chan-16032020-005</t>
+  </si>
+  <si>
+    <t>Alfa64chan-16032020-006</t>
+  </si>
+  <si>
+    <t>Alfa64chan-16032020-007</t>
+  </si>
+  <si>
+    <t>Alfa64chan-16032020-008</t>
+  </si>
+  <si>
+    <t>Alfa64chan-16032020-009</t>
+  </si>
+  <si>
+    <t>Alfa64chan-17032020-001</t>
+  </si>
+  <si>
+    <t>Alfa64chan-17032020-002</t>
+  </si>
+  <si>
+    <t>Alfa64chan-17032020-003</t>
+  </si>
+  <si>
+    <t>Alfa64chan-17032020-004</t>
+  </si>
+  <si>
+    <t>Alfa64chan-17032020-005</t>
+  </si>
+  <si>
+    <t>Alfa64chan-17032020-006</t>
+  </si>
+  <si>
+    <t>Alfa64chan-17032020-007</t>
+  </si>
+  <si>
+    <t>Alfa64chan-18032020-001</t>
+  </si>
+  <si>
+    <t>Alfa64chan-18032020-002</t>
+  </si>
+  <si>
+    <t>Alfa64chan-18032020-003</t>
+  </si>
+  <si>
+    <t>Alfa64chan-18032020-004</t>
+  </si>
+  <si>
+    <t>Alfa64chan-18032020-005</t>
+  </si>
+  <si>
+    <t>Alfa64chan-18032020-006</t>
+  </si>
+  <si>
+    <t>Alfa64chan-18032020-007</t>
+  </si>
+  <si>
+    <t>Alfa64chan-19032020-001</t>
+  </si>
+  <si>
+    <t>Alfa64chan-19032020-002</t>
+  </si>
+  <si>
+    <t>Alfa64chan-19032020-003</t>
+  </si>
+  <si>
+    <t>Alfa64chan-19032020-004</t>
+  </si>
+  <si>
+    <t>Alfa64chan-19032020-005</t>
+  </si>
+  <si>
+    <t>Alfa64chan-20032020-001</t>
+  </si>
+  <si>
+    <t>Alfa64chan-20032020-002</t>
+  </si>
+  <si>
+    <t>Alfa64chan-20032020-003</t>
+  </si>
+  <si>
+    <t>Alfa64chan-20032020-005</t>
+  </si>
+  <si>
+    <t>Alfa64chan-20032020-006</t>
+  </si>
+  <si>
+    <t>Alfa64chan-20032020-007</t>
+  </si>
+  <si>
+    <t>Alfa64chan-20032020-008</t>
+  </si>
+  <si>
+    <t>Alfa64chan-22032020-001</t>
+  </si>
+  <si>
+    <t>Alfa64chan-22032020-002</t>
+  </si>
+  <si>
+    <t>Alfa64chan-22032020-003</t>
+  </si>
+  <si>
+    <t>Alfa64chan-22032020-004</t>
+  </si>
+  <si>
+    <t>Alfa64chan-22032020-005</t>
+  </si>
+  <si>
+    <t>Alfa64chan-22032020-006</t>
+  </si>
+  <si>
+    <t>Alfa64chan-22032020-007</t>
+  </si>
+  <si>
+    <t>Alfa64chan-22032020-008</t>
+  </si>
+  <si>
+    <t>Alfa64chan-04022020-002</t>
+  </si>
+  <si>
+    <t>Alfa64chan-04022020-003</t>
+  </si>
+  <si>
+    <t>Alfa64chan-05022020-005</t>
+  </si>
+  <si>
+    <t>Alfa64chan-05022020-007</t>
+  </si>
+  <si>
+    <t>Alfa64chan-10022020-004</t>
+  </si>
+  <si>
+    <t>Alfa64chan-11022020-003</t>
+  </si>
+  <si>
+    <t>Alfa64chan-13022020-001</t>
+  </si>
+  <si>
+    <t>Alfa64chan-13022020-002</t>
+  </si>
+  <si>
+    <t>Alfa64chan-13022020-003</t>
+  </si>
+  <si>
+    <t>Alfa64chan-17022020-001</t>
+  </si>
+  <si>
+    <t>Alfa64chan-17022020-002</t>
+  </si>
+  <si>
+    <t>Alfa64chan-17022020-005</t>
+  </si>
+  <si>
+    <t>Alfa64chan-18022020-001</t>
+  </si>
+  <si>
+    <t>Alfa64chan-18022020-002</t>
+  </si>
+  <si>
+    <t>Alfa64chan-18022020-003</t>
+  </si>
+  <si>
+    <t>Alfa64chan-19022020-001</t>
+  </si>
+  <si>
+    <t>Alfa64chan-19022020-002</t>
+  </si>
+  <si>
+    <t>Alfa64chan-19022020-005</t>
+  </si>
+  <si>
+    <t>Alfa64chan-20022020-001</t>
+  </si>
+  <si>
+    <t>Alfa64chan-20022020-002</t>
+  </si>
+  <si>
+    <t>Alfa64chan-20022020-003</t>
+  </si>
+  <si>
+    <t>Alfa64chan-20022020-006</t>
+  </si>
+  <si>
+    <t>Alfa64chan-20022020-008</t>
+  </si>
+  <si>
+    <t>Alfa64chan-21022020-001</t>
+  </si>
+  <si>
+    <t>Alfa64chan-21022020-002</t>
+  </si>
+  <si>
+    <t>Alfa64chan-21022020-003</t>
+  </si>
+  <si>
+    <t>Alfa64chan-24022020-001</t>
+  </si>
+  <si>
+    <t>Alfa64chan-24022020-002</t>
+  </si>
+  <si>
+    <t>Alfa64chan-24022020-005</t>
+  </si>
+  <si>
+    <t>Alfa64chan-24022020-006</t>
+  </si>
+  <si>
+    <t>Alfa64chan-25022020-001</t>
+  </si>
+  <si>
+    <t>Alfa64chan-25022020-002</t>
+  </si>
+  <si>
+    <t>Alfa64chan-25022020-004</t>
+  </si>
+  <si>
+    <t>Alfa64chan-25022020-005</t>
+  </si>
+  <si>
+    <t>Alfa64chan-25022020-006</t>
+  </si>
+  <si>
+    <t>Alfa64chan-26022020-001</t>
+  </si>
+  <si>
+    <t>Alfa64chan-26022020-002</t>
+  </si>
+  <si>
+    <t>Alfa64chan-26022020-003</t>
+  </si>
+  <si>
+    <t>Alfa64chan-26022020-004</t>
+  </si>
+  <si>
+    <t>Alfa64chan-28022020-001</t>
+  </si>
+  <si>
+    <t>Alfa64chan-28022020-002</t>
+  </si>
+  <si>
+    <t>Alfa64chan-28022020-003</t>
+  </si>
+  <si>
+    <t>Alfa64chan-28022020-004</t>
+  </si>
+  <si>
+    <t>Alfa64chan-02032020-005</t>
+  </si>
+  <si>
+    <t>Alfa64chan-02032020-006</t>
+  </si>
+  <si>
+    <t>Alfa64chan-09032020-004</t>
+  </si>
+  <si>
+    <t>Alfa64chan-09032020-006</t>
+  </si>
+  <si>
+    <t>Alfa64chan-12032020-001</t>
+  </si>
+  <si>
+    <t>Alfa64chan-12032020-002</t>
+  </si>
+  <si>
+    <t>Alfa64chan-12032020-003</t>
+  </si>
+  <si>
+    <t>Alfa64chan-12032020-004</t>
+  </si>
+  <si>
+    <t>Alfa64chan-12032020-005</t>
+  </si>
+  <si>
+    <t>Alfa64chan-12032020-006</t>
+  </si>
+  <si>
+    <t>Alfa64chan-07042020-001</t>
+  </si>
+  <si>
+    <t>Alfa64chan-07042020-002</t>
+  </si>
+  <si>
+    <t>Alfa64chan-07042020-004</t>
+  </si>
+  <si>
+    <t>Alfa64chan-07042020-006</t>
+  </si>
+  <si>
     <t>Alfa64chan-07042020-007</t>
   </si>
   <si>
+    <t>Alfa64chan-09042020-001</t>
+  </si>
+  <si>
+    <t>Alfa64chan-09042020-002</t>
+  </si>
+  <si>
+    <t>Alfa64chan-09042020-004</t>
+  </si>
+  <si>
+    <t>Alfa64chan-09042020-005</t>
+  </si>
+  <si>
+    <t>Alfa64chan-09042020-006</t>
+  </si>
+  <si>
+    <t>Alfa64chan-09042020-007</t>
+  </si>
+  <si>
+    <t>Alfa64chan-14042020-001</t>
+  </si>
+  <si>
+    <t>Alfa64chan-14042020-002</t>
+  </si>
+  <si>
+    <t>Alfa64chan-14042020-003</t>
+  </si>
+  <si>
+    <t>Alfa64chan-14042020-004</t>
+  </si>
+  <si>
+    <t>Alfa64chan-14042020-005</t>
+  </si>
+  <si>
+    <t>Alfa64chan-14042020-006</t>
+  </si>
+  <si>
+    <t>Alfa64chan-14042020-007</t>
+  </si>
+  <si>
+    <t>Alfa64chan-14042020-008</t>
+  </si>
+  <si>
+    <t>Alfa64chan-16042020-001</t>
+  </si>
+  <si>
+    <t>Alfa64chan-16042020-002</t>
+  </si>
+  <si>
+    <t>Alfa64chan-16042020-003</t>
+  </si>
+  <si>
+    <t>Alfa64chan-16042020-004</t>
+  </si>
+  <si>
+    <t>Alfa64chan-16042020-008</t>
+  </si>
+  <si>
+    <t>Alfa64chan-16042020-009</t>
+  </si>
+  <si>
+    <t>191119_Alfa_generate_parallel(3)</t>
+  </si>
+  <si>
+    <t>191119_ALfa_rfMapper_basic(5)</t>
+  </si>
+  <si>
+    <t>191119_Alfa_selectivity_basic(1)</t>
+  </si>
+  <si>
+    <t>191120_Alfa_generate_parallel(3)</t>
+  </si>
+  <si>
+    <t>191120_ALfa_rfMapper_basic(4)</t>
+  </si>
+  <si>
+    <t>191120_Alfa_selectivity_basic(1)</t>
+  </si>
+  <si>
+    <t>191121_Alfa_generate_parallel</t>
+  </si>
+  <si>
+    <t>191121_ALfa_rfMapper_basic(2)</t>
+  </si>
+  <si>
+    <t>191121_Alfa_selectivity_basic</t>
+  </si>
+  <si>
+    <t>191121_Alfa_generate_parallel(1)</t>
+  </si>
+  <si>
+    <t>191121_ALfa_rfMapper_basic(5)</t>
+  </si>
+  <si>
+    <t>191121_Alfa_selectivity_basic(1)</t>
+  </si>
+  <si>
+    <t>191122_ALfa_rfMapper_basic</t>
+  </si>
+  <si>
+    <t>191122_Alfa_generate_parallel</t>
+  </si>
+  <si>
+    <t>191122_ALfa_rfMapper_basic(1)</t>
+  </si>
+  <si>
+    <t>191122_Alfa_selectivity_basic</t>
+  </si>
+  <si>
+    <t>191122_ALfa_rfMapper_basic(2)</t>
+  </si>
+  <si>
+    <t>191122_Alfa_generate_parallel(1)</t>
+  </si>
+  <si>
+    <t>191122_ALfa_rfMapper_basic(3)</t>
+  </si>
+  <si>
+    <t>191122_Alfa_selectivity_basic(1)</t>
+  </si>
+  <si>
+    <t>191125_ALfa_rfMapper_basic</t>
+  </si>
+  <si>
+    <t>191125_Alfa_generate_parallel</t>
+  </si>
+  <si>
+    <t>191125_Alfa_generate_parallel(1)</t>
+  </si>
+  <si>
+    <t>191125_ALfa_rfMapper_basic(1)</t>
+  </si>
+  <si>
+    <t>191125_Alfa_generate_parallel(2)</t>
+  </si>
+  <si>
+    <t>191125_ALfa_rfMapper_basic(2)</t>
+  </si>
+  <si>
+    <t>191125_Alfa_selectivity_basic</t>
+  </si>
+  <si>
+    <t>191126_ALfa_rfMapper_basic</t>
+  </si>
+  <si>
+    <t>191126_Alfa_generate_parallel</t>
+  </si>
+  <si>
+    <t>191126_ALfa_rfMapper_basic(1)</t>
+  </si>
+  <si>
+    <t>191126_Alfa_selectivity_basic</t>
+  </si>
+  <si>
+    <t>191126_ALfa_rfMapper_basic(2)</t>
+  </si>
+  <si>
+    <t>191126_Alfa_generate_parallel(1)</t>
+  </si>
+  <si>
+    <t>191126_ALfa_rfMapper_basic(3)</t>
+  </si>
+  <si>
+    <t>191126_Alfa_selectivity_basic(1)</t>
+  </si>
+  <si>
+    <t>191127_Alfa_generate_parallel(3)</t>
+  </si>
+  <si>
+    <t>191127_Alfa_selectivity_basic(1)</t>
+  </si>
+  <si>
+    <t>191202_Alfa_generate_parallel</t>
+  </si>
+  <si>
+    <t>191202_ALfa_rfMapper_basic(1)</t>
+  </si>
+  <si>
+    <t>191202_Alfa_selectivity_basic</t>
+  </si>
+  <si>
+    <t>191202_Alfa_generate_parallel(1)</t>
+  </si>
+  <si>
+    <t>191202_ALfa_rfMapper_basic(4)</t>
+  </si>
+  <si>
+    <t>191202_Alfa_selectivity_basic(1)</t>
+  </si>
+  <si>
+    <t>191204_Alfa_generate_parallel</t>
+  </si>
+  <si>
+    <t>191204_ALfa_rfMapper_basic(2)</t>
+  </si>
+  <si>
+    <t>191204_Alfa_selectivity_basic</t>
+  </si>
+  <si>
+    <t>191204_Alfa_generate_parallel(2)</t>
+  </si>
+  <si>
+    <t>191204_ALfa_rfMapper_basic(4)</t>
+  </si>
+  <si>
+    <t>191204_Alfa_selectivity_basic(1)</t>
+  </si>
+  <si>
+    <t>191205_Alfa_generate_parallel</t>
+  </si>
+  <si>
+    <t>191205_ALfa_rfMapper_basic(1)</t>
+  </si>
+  <si>
+    <t>191205_Alfa_selectivity_basic</t>
+  </si>
+  <si>
+    <t>191206_Alfa_generate_parallel</t>
+  </si>
+  <si>
+    <t>191206_ALfa_rfMapper_basic(1)</t>
+  </si>
+  <si>
+    <t>191206_Alfa_selectivity_basic</t>
+  </si>
+  <si>
+    <t>191206_Alfa_generate_parallel(1)</t>
+  </si>
+  <si>
+    <t>191206_ALfa_rfMapper_basic(3)</t>
+  </si>
+  <si>
+    <t>191206_Alfa_selectivity_basic(1)</t>
+  </si>
+  <si>
+    <t>191209_Alfa_generate_parallel</t>
+  </si>
+  <si>
+    <t>191209_ALfa_rfMapper_basic(1)</t>
+  </si>
+  <si>
+    <t>191209_Alfa_selectivity_basic</t>
+  </si>
+  <si>
+    <t>191210_Alfa_generate_parallel</t>
+  </si>
+  <si>
+    <t>191210_ALfa_rfMapper_basic(1)</t>
+  </si>
+  <si>
+    <t>191210_Alfa_selectivity_basic</t>
+  </si>
+  <si>
+    <t>191211_Alfa_generate_parallel</t>
+  </si>
+  <si>
+    <t>191211_ALfa_rfMapper_basic(1)</t>
+  </si>
+  <si>
+    <t>191211_Alfa_selectivity_basic</t>
+  </si>
+  <si>
+    <t>191212_Alfa_generate_parallel</t>
+  </si>
+  <si>
+    <t>191212_ALfa_rfMapper_basic(1)</t>
+  </si>
+  <si>
+    <t>191212_Alfa_selectivity_basic</t>
+  </si>
+  <si>
+    <t>191212_Alfa_generate_parallel(1)</t>
+  </si>
+  <si>
+    <t>191212_ALfa_rfMapper_basic(3)</t>
+  </si>
+  <si>
+    <t>191212_Alfa_selectivity_basic(1)</t>
+  </si>
+  <si>
+    <t>191213_Alfa_generate_parallel</t>
+  </si>
+  <si>
+    <t>191213_ALfa_rfMapper_basic(1)</t>
+  </si>
+  <si>
+    <t>191213_Alfa_selectivity_basic</t>
+  </si>
+  <si>
+    <t>191213_Alfa_generate_parallel(1)</t>
+  </si>
+  <si>
+    <t>191213_ALfa_rfMapper_basic(3)</t>
+  </si>
+  <si>
+    <t>191213_Alfa_selectivity_basic(1)</t>
+  </si>
+  <si>
+    <t>200310_Alfa_rfMapper_basic</t>
+  </si>
+  <si>
+    <t>200310_Alfa_rfMapper_basic(1)</t>
+  </si>
+  <si>
+    <t>200310_Alfa_generate_integrated(1)</t>
+  </si>
+  <si>
+    <t>200310_Alfa_generate_integrated(2)</t>
+  </si>
+  <si>
+    <t>200310_Alfa_generate_integrated(3)</t>
+  </si>
+  <si>
+    <t>200310_Alfa_generate_integrated(4)</t>
+  </si>
+  <si>
+    <t>200316_Alfa_rfMapper_basic</t>
+  </si>
+  <si>
+    <t>200316_Alfa_rfMapper_basic(2)</t>
+  </si>
+  <si>
+    <t>200316_Alfa_generate_integrated(1)</t>
+  </si>
+  <si>
+    <t>200316_Alfa_generate_integrated(2)</t>
+  </si>
+  <si>
+    <t>200316_Alfa_generate_integrated(3)</t>
+  </si>
+  <si>
+    <t>200316_Alfa_generate_integrated(4)</t>
+  </si>
+  <si>
+    <t>200316_Alfa_generate_integrated(5)</t>
+  </si>
+  <si>
+    <t>200316_Alfa_generate_integrated(6)</t>
+  </si>
+  <si>
+    <t>200317_Alfa_rfMapper_basic</t>
+  </si>
+  <si>
+    <t>200317_Alfa_rfMapper_basic(1)</t>
+  </si>
+  <si>
+    <t>200317_Alfa_generate_integrated(2)</t>
+  </si>
+  <si>
+    <t>200317_Alfa_generate_integrated(3)</t>
+  </si>
+  <si>
+    <t>200317_Alfa_generate_integrated(4)</t>
+  </si>
+  <si>
+    <t>200317_Alfa_generate_integrated(5)</t>
+  </si>
+  <si>
+    <t>200317_Alfa_generate_integrated(6)</t>
+  </si>
+  <si>
+    <t>200318_Alfa_rfMapper_basic</t>
+  </si>
+  <si>
+    <t>200318_Alfa_rfMapper_basic(1)</t>
+  </si>
+  <si>
+    <t>200318_Alfa_generate_integrated</t>
+  </si>
+  <si>
+    <t>200318_Alfa_generate_integrated(1)</t>
+  </si>
+  <si>
+    <t>200318_Alfa_generate_integrated(2)</t>
+  </si>
+  <si>
+    <t>200318_Alfa_generate_integrated(3)</t>
+  </si>
+  <si>
+    <t>200318_Alfa_generate_integrated(4)</t>
+  </si>
+  <si>
+    <t>200319_Alfa_rfMapper_basic</t>
+  </si>
+  <si>
+    <t>200319_Alfa_rfMapper_basic(1)</t>
+  </si>
+  <si>
+    <t>200319_Alfa_generate_integrated</t>
+  </si>
+  <si>
+    <t>200319_Alfa_generate_integrated(2)</t>
+  </si>
+  <si>
+    <t>200319_Alfa_generate_integrated(3)</t>
+  </si>
+  <si>
+    <t>200320_Alfa_rfMapper_basic(1)</t>
+  </si>
+  <si>
+    <t>200320_Alfa_rfMapper_basic(2)</t>
+  </si>
+  <si>
+    <t>200320_Alfa_rfMapper_basic(3)</t>
+  </si>
+  <si>
+    <t>200320_Alfa_generate_integrated</t>
+  </si>
+  <si>
+    <t>200320_Alfa_generate_integrated(2)</t>
+  </si>
+  <si>
+    <t>200320_Alfa_generate_integrated(3)</t>
+  </si>
+  <si>
+    <t>200320_Alfa_generate_integrated(4)</t>
+  </si>
+  <si>
+    <t>200322_Alfa_rfMapper_basic</t>
+  </si>
+  <si>
+    <t>200322_Alfa_rfMapper_basic(1)</t>
+  </si>
+  <si>
+    <t>200322_Alfa_rfMapper_basic(2)</t>
+  </si>
+  <si>
+    <t>200322_Alfa_rfMapper_basic(3)</t>
+  </si>
+  <si>
+    <t>200322_Alfa_generate_integrated</t>
+  </si>
+  <si>
+    <t>200322_Alfa_generate_integrated(1)</t>
+  </si>
+  <si>
+    <t>200322_Alfa_generate_integrated(2)</t>
+  </si>
+  <si>
+    <t>200322_Alfa_generate_integrated(3)</t>
+  </si>
+  <si>
+    <t>200204_ALfa_generate_integrated</t>
+  </si>
+  <si>
+    <t>200204_ALfa_generate_integrated(1)</t>
+  </si>
+  <si>
+    <t>200205_ALfa_generate_integrated(2)</t>
+  </si>
+  <si>
+    <t>200205_ALfa_generate_integrated(4)</t>
+  </si>
+  <si>
+    <t>200210_Alfa_generate_integrated</t>
+  </si>
+  <si>
+    <t>200211_Alfa_generate_integrated</t>
+  </si>
+  <si>
+    <t>200213_Alfa_rfMapper_basic(1)</t>
+  </si>
+  <si>
+    <t>200213_Alfa_generate_integrated(1)</t>
+  </si>
+  <si>
+    <t>200213_Alfa_generate_integrated(2)</t>
+  </si>
+  <si>
+    <t>200217_Alfa_rfMapper_basic</t>
+  </si>
+  <si>
+    <t>200217_Alfa_rfMapper_basic(1)</t>
+  </si>
+  <si>
+    <t>200217_Alfa_generate_integrated(4)</t>
+  </si>
+  <si>
+    <t>200218_Alfa_rfMapper_basic</t>
+  </si>
+  <si>
+    <t>200218_Alfa_rfMapper_basic(1)</t>
+  </si>
+  <si>
+    <t>200218_Alfa_generate_integrated</t>
+  </si>
+  <si>
+    <t>200219_Alfa_rfMapper_basic</t>
+  </si>
+  <si>
+    <t>200219_Alfa_rfMapper_basic(1)</t>
+  </si>
+  <si>
+    <t>200219_Alfa_generate_integrated(2)</t>
+  </si>
+  <si>
+    <t>200220_Alfa_rfMapper_basic</t>
+  </si>
+  <si>
+    <t>200220_Alfa_rfMapper_basic(1)</t>
+  </si>
+  <si>
+    <t>200220_Alfa_generate_integrated</t>
+  </si>
+  <si>
+    <t>200220_Alfa_generate_integrated(3)</t>
+  </si>
+  <si>
+    <t>200220_Alfa_generate_integrated(5)</t>
+  </si>
+  <si>
+    <t>200221_Alfa_rfMapper_basic</t>
+  </si>
+  <si>
+    <t>200221_Alfa_rfMapper_basic(1)</t>
+  </si>
+  <si>
+    <t>200221_Alfa_generate_integrated</t>
+  </si>
+  <si>
+    <t>200224_Alfa_rfMapper_basic</t>
+  </si>
+  <si>
+    <t>200224_Alfa_rfMapper_basic(1)</t>
+  </si>
+  <si>
+    <t>200224_Alfa_generate_integrated(3)</t>
+  </si>
+  <si>
+    <t>200224_Alfa_generate_integrated(4)</t>
+  </si>
+  <si>
+    <t>200225_Alfa_rfMapper_basic</t>
+  </si>
+  <si>
+    <t>200225_Alfa_rfMapper_basic(1)</t>
+  </si>
+  <si>
+    <t>200225_Alfa_generate_integrated(2)</t>
+  </si>
+  <si>
+    <t>200225_Alfa_generate_integrated(3)</t>
+  </si>
+  <si>
+    <t>200225_Alfa_generate_integrated(4)</t>
+  </si>
+  <si>
+    <t>200226_Alfa_rfMapper_basic</t>
+  </si>
+  <si>
+    <t>200226_Alfa_rfMapper_basic(1)</t>
+  </si>
+  <si>
+    <t>200226_Alfa_generate_integrated</t>
+  </si>
+  <si>
+    <t>200226_Alfa_generate_integrated(1)</t>
+  </si>
+  <si>
+    <t>200228_Alfa_rfMapper_basic</t>
+  </si>
+  <si>
+    <t>200228_Alfa_rfMapper_basic(1)</t>
+  </si>
+  <si>
+    <t>200228_Alfa_generate_integrated</t>
+  </si>
+  <si>
+    <t>200228_Alfa_generate_integrated(1)</t>
+  </si>
+  <si>
+    <t>200302_Alfa_generate_integrated</t>
+  </si>
+  <si>
+    <t>200302_Alfa_generate_integrated(1)</t>
+  </si>
+  <si>
+    <t>200309_Alfa_generate_integrated</t>
+  </si>
+  <si>
+    <t>200309_Alfa_selectivity_basic</t>
+  </si>
+  <si>
+    <t>200312_Alfa_rfMapper_basic</t>
+  </si>
+  <si>
+    <t>200312_Alfa_rfMapper_basic(1)</t>
+  </si>
+  <si>
+    <t>200312_Alfa_rfMapper_basic(2)</t>
+  </si>
+  <si>
+    <t>200312_Alfa_generate_integrated</t>
+  </si>
+  <si>
+    <t>200312_Alfa_generate_integrated(1)</t>
+  </si>
+  <si>
+    <t>200312_Alfa_selectivity_basic</t>
+  </si>
+  <si>
+    <t>200407_Alfa_rfMapper_basic(1)</t>
+  </si>
+  <si>
+    <t>200407_Alfa_rfMapper_basic(3)</t>
+  </si>
+  <si>
+    <t>200407_Alfa_generate_integrated(1)</t>
+  </si>
+  <si>
+    <t>200407_Alfa_selectivity_basic</t>
+  </si>
+  <si>
+    <t>200407_Alfa_generate_integrated(2)</t>
+  </si>
+  <si>
     <t>200407_Alfa_selectivity_basic(1)</t>
   </si>
   <si>
+    <t>200409_Alfa_rfMapper_basic</t>
+  </si>
+  <si>
+    <t>200409_Alfa_rfMapper_basic(1)</t>
+  </si>
+  <si>
+    <t>200409_Alfa_generate_integrated(3)</t>
+  </si>
+  <si>
+    <t>200409_Alfa_selectivity_basic</t>
+  </si>
+  <si>
+    <t>200409_Alfa_generate_integrated(4)</t>
+  </si>
+  <si>
+    <t>200409_Alfa_selectivity_basic(1))</t>
+  </si>
+  <si>
+    <t>200414_Alfa_rfMapper_basic</t>
+  </si>
+  <si>
+    <t>200414_Alfa_rfMapper_basic(1)</t>
+  </si>
+  <si>
+    <t>200414_Alfa_generate_integrated(1)</t>
+  </si>
+  <si>
+    <t>200414_Alfa_selectivity_basic</t>
+  </si>
+  <si>
+    <t>200414_Alfa_generate_integrated(2)</t>
+  </si>
+  <si>
+    <t>200414_Alfa_selectivity_basic(1)</t>
+  </si>
+  <si>
+    <t>200414_Alfa_generate_integrated(3)</t>
+  </si>
+  <si>
+    <t>200414_Alfa_selectivity_basic(2)</t>
+  </si>
+  <si>
+    <t>200416_Alfa_rfMapper_basic</t>
+  </si>
+  <si>
+    <t>200416_Alfa_generate_integrated(1)</t>
+  </si>
+  <si>
+    <t>200416_Alfa_selectivity_basic</t>
+  </si>
+  <si>
+    <t>200416_Alfa_generate_integrated(2)</t>
+  </si>
+  <si>
+    <t>200416_Alfa_selectivity_basic(2)</t>
+  </si>
+  <si>
+    <t>200416_Alfa_generate_integrated(3)</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-06-Evolutions\alfa-191119a</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-Manifold\alfa-191119a selectivity</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-06-Evolutions\alfa-191120b\backup_11_20_2019_15_21_40</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-06-RF-mapping\2019-11-20-Alfa-chan29_SU</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-Manifold\alfa-191120a\backup_11_20_2019_15_21_40\PC_imgs</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-06-Evolutions\alfa-191121a\backup_11_21_2019_13_41_31</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-06-RF-mapping\2019-11-21-Alfa-chan9_SU</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-Manifold\alfa-191121a\backup_11_21_2019_13_41_31\PC_imgs</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-06-Evolutions\alfa-191121b\backup_11_21_2019_15_23_15</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-06-RF-mapping\2019-11-21-Alfa-chan32_SU</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-Manifold\alfa-191121b\backup_11_21_2019_15_23_15\PC_imgs</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-06-Evolutions\alfa-191122a\backup_11_22_2019_13_43_26</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-06-RF-mapping\2019-11-22-Alfa-chan3_SU</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-Manifold\alfa-191122a\backup_11_22_2019_13_43_26\PC_imgs</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-06-Evolutions\alfa-191122b\backup_11_22_2019_14_42_49</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-06-RF-mapping\2019-11-22-Alfa-chan7</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-Manifold\alfa-191122b\backup_11_22_2019_14_42_49\PC_imgs</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-06-Evolutions\alfa-191125a\backup_11_25_2019_11_48_11</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-06-Evolutions\alfa-191125b\backup_11_25_2019_12_05_25</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-06-Evolutions\alfa-191125c\backup_11_25_2019_12_43_48</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-06-RF-mapping\2019-11-25-Alfa-chan51</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-Manifold\alfa-191125a\backup_11_25_2019_12_43_48\PC_imgs</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-06-Evolutions\alfa-191126a\backup_11_26_2019_12_25_34</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-06-RF-mapping\2019-11-26-Alfa-chan7_SUa</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-Manifold\alfa-191126a\backup_11_26_2019_12_25_34\PC_imgs</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-06-Evolutions\alfa-191126b\backup_11_26_2019_13_33_28</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-06-RF-mapping\2019-11-26-Alfa-chan7_SUb</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-Manifold\alfa-191126b\backup_11_26_2019_13_33_28\PC_imgs</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-06-Evolutions\alfa-191127d\backup_11_27_2019_12_34_04</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-Manifold\alfa-191127a\backup_11_27_2019_12_34_04\PC_imgs</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-06-Evolutions\alfa-191202a\backup_12_02_2019_15_23_15</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-06-RF-mapping\2019-12-02-Alfa-chan35_SU</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-Manifold\alfa-191202a\backup_12_02_2019_15_23_15\PC_imgs</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-06-Evolutions\alfa-191202b\backup_12_02_2019_16_55_27</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-06-RF-mapping\2019-12-02-Alfa-chan61_SU</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-Manifold\alfa-191202b\backup_12_02_2019_16_55_27\PC_imgs</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-06-Evolutions\alfa-191204a\backup_12_04_2019_13_27_15</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-06-RF-mapping\2019-12-04-Alfa-chan33_SU</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-Manifold\alfa-191204a\backup_12_04_2019_13_27_15\PC_imgs</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-06-Evolutions\alfa-191204b\backup_12_04_2019_14_52_44</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-06-RF-mapping\2019-12-04-Alfa-chan43</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-Manifold\alfa-191204b\backup_12_04_2019_14_52_44\PC_imgs</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-06-Evolutions\alfa-191205a\backup_12_05_2019_12_03_21</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-06-RF-mapping\2019-12-05-Alfa-chan59</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-Manifold\alfa-191205a\backup_12_05_2019_12_03_21\PC_imgs</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-06-Evolutions\alfa-191206a\backup_12_06_2019_13_54_26</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-06-RF-mapping\2019-12-06-Alfa-chan20_SU</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-Manifold\alfa-191206a\backup_12_06_2019_13_54_26\PC_imgs</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-06-Evolutions\alfa-191206b\backup_12_06_2019_15_10_42</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-06-RF-mapping\2019-12-06-Alfa-chan49_SU</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-Manifold\alfa-191206b\backup_12_06_2019_15_10_42\PC_imgs</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-06-Evolutions\alfa-191209a\backup_12_09_2019_13_26_55</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-06-RF-mapping\2019-12-09-Alfa-chan19_SU</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-Manifold\alfa-191209a-selectivity</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-06-Evolutions\alfa-191210a\full_evolution\backup_12_10_2019_13_07_57</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-06-RF-mapping\2019-12-10-Alfa-chan12_SU</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-Manifold\alfa-191210a-selectivity</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-06-Evolutions\alfa-191211a\backup_12_11_2019_13_05_38</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-06-RF-mapping\2019-12-11-Alfa-chan41_SU</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-Manifold\alfa-191211a-selectivity</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-06-Evolutions\alfa-191212a\backup_12_12_2019_14_50_34</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-06-RF-mapping\2019-12-12-Alfa-chan63_SU</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-Manifold\alfa-191212a-selectivity</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-06-Evolutions\alfa-191212b\backup_12_12_2019_16_06_06</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-06-RF-mapping\2019-12-12-Alfa-chan38_SU</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-Manifold\alfa-191212b\backup_12_12_2019_16_06_06\PC_imgs</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-06-Evolutions\alfa-191213a\backup_12_13_2019_13_10_41</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-06-RF-mapping\2019-12-13-Alfa-chan39</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-Manifold\alfa-191213a\backup_12_13_2019_13_10_41\PC_imgs</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-06-Evolutions\alfa-191213b\backup_12_13_2019_14_02_19</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-06-RF-mapping\2019-12-13-Alfa-chan44</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-Manifold\alfa-191213b\backup_12_13_2019_14_02_19\PC_imgs</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-06-RF-mapping\2020-03-10-Alfa</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-03-10-Alfa-01\2020-03-10-13-50-57</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-03-10-Alfa-02\2020-03-10-14-12-42</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-03-10-Alfa-03\2020-03-10-14-46-14</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-03-10-Alfa-04\2020-03-10-15-29-12</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-06-RF-mapping\2020-03-16-Alfa</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-03-16-Alfa-01\2020-03-16-14-54-33</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-03-16-Alfa-02\2020-03-16-15-14-25</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-03-16-Alfa-03\2020-03-16-15-40-58</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-03-16-Alfa-04\2020-03-16-16-12-37</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-03-16-Alfa-05\2020-03-16-16-45-43</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-03-16-Alfa-06\2020-03-16-17-03-32</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-06-RF-mapping\2020-03-17-Alfa</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-03-17-Alfa-01\2020-03-17-13-45-34</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-03-17-Alfa-02\2020-03-17-14-00-43</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-03-17-Alfa-03\2020-03-17-14-20-53</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-03-17-Alfa-04\2020-03-17-14-40-02</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-03-17-Alfa-05\2020-03-17-15-01-44</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-06-RF-mapping\2020-03-18-Alfa</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-03-18-Alfa-01\2020-03-18-13-22-32</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-03-18-Alfa-02\2020-03-18-13-46-41</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-03-18-Alfa-03\2020-03-18-14-14-54</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-03-18-Alfa-04\2020-03-18-14-33-33</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-03-18-Alfa-05\2020-03-18-15-06-03</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-06-RF-mapping\2020-03-19-Alfa</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-03-19-Alfa-01\2020-03-19-13-59-39</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-03-19-Alfa-02\2020-03-19-14-50-56</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-03-19-Alfa-03\2020-03-19-15-45-51</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-06-RF-mapping\2020-03-20-Alfa</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-03-20-Alfa-01\2020-03-20-13-04-35</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-03-20-Alfa-02\2020-03-20-13-36-30</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-03-20-Alfa-03\2020-03-20-14-10-25</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-03-20-Alfa-04\2020-03-20-14-45-33</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-03-22-Alfa-01\2020-03-22-12-53-11</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-03-22-Alfa-02\2020-03-22-13-10-28</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-03-22-Alfa-03\2020-03-22-13-45-02</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-03-22-Alfa-04\2020-03-22-14-07-49</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-02-04-Alfa-01\2020-02-04-13-38-53</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-02-04-Alfa-02\2020-02-04-14-03-42</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-02-05-Alfa-01\2020-02-05-12-18-42</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-02-05-Alfa-03\2020-02-05-13-18-55</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-02-10-Alfa-01\2020-02-10-16-42-15</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-02-11-Alfa-01\2020-02-11-10-30-50</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-06-RF-mapping\2020-02-13-Alfa</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-02-13-Alfa-01\2020-02-13-12-41-34</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-02-17-Alfa-01\2020-02-17-13-23-41</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-02-18-Alfa-01\2020-02-18-12-31-42</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-02-19-Alfa-01\2020-02-19-13-01-32</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-02-20-Alfa-01\2020-02-20-12-58-56</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-02-20-Alfa-02\2020-02-20-13-57-30</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-02-20-Alfa-03\2020-02-20-15-00-54</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-02-21-Alfa-01\2020-02-21-14-00-54</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-02-24-Alfa-01\2020-02-24-14-05-10</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-02-24-Alfa-02\2020-02-24-14-48-31</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-02-25-Alfa-01\2020-02-25-13-18-15</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-02-25-Alfa-02\2020-02-25-14-36-14</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-02-25-Alfa-03\2020-02-25-15-34-30</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-02-26-Alfa-01\2020-02-26-13-24-53</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-02-26-Alfa-02\2020-02-26-14-04-11</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-02-28-Alfa-01\2020-02-28-14-12-38</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-02-28-Alfa-02\2020-02-28-14-46-53</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-03-02-Alfa-01\2020-03-02-14-02-16</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-03-02-Alfa-02\2020-03-02-14-44-23</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-03-09-Alfa-01\2020-03-09-14-21-36</t>
+  </si>
+  <si>
+    <t>Stimuli\2019-Selectivity\alfa_chan_24_bigSetHalf</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-03-12-Alfa-01\2020-03-12-13-05-05</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-03-12-Alfa-02\2020-03-12-14-05-24</t>
+  </si>
+  <si>
+    <t>Stimuli\2019-Selectivity\alfa_chan_39_newSU</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-Manifold\alfa-200407a\2020-04-07-10-16-19</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-Manifold\alfa-200407a-selectivity</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-Manifold\alfa-200407b\2020-04-07-10-58-28</t>
+  </si>
+  <si>
     <t>N:\Stimuli\2019-Manifold\alfa-200407b-selectivity</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-Manifold\alfa-200409a</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-Manifold\alfa-200409a-selectivity</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-Manifold\alfa-200409b</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-Manifold\alfa-200409b-selectivity</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-Manifold\alfa-200414a\2020-04-14-10-24-35</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-Manifold\alfa-200414a-selectivity</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-Manifold\alfa-200414b\2020-04-14-11-01-01</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-Manifold\alfa-200414b-selectivity</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-Manifold\alfa-200414c\2020-04-14-11-37-28</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-Manifold\alfa-200414c-selectivity</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-Manifold\alfa-200416a\2020-04-16-09-37-27</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-Manifold\alfa-200416a-selectivity</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-Manifold\alfa-200416b\2020-04-16-10-18-56</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-Manifold\alfa-200416b-selectivity</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-04-16-Alfa-01\2020-04-16-11-03-23</t>
+  </si>
+  <si>
+    <t>Alfa64chan-16042020-006</t>
+  </si>
+  <si>
+    <t>200416_Alfa_rfMapper_basic(2)</t>
+  </si>
+  <si>
+    <r>
+      <t>Alfa64chan-07042020-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>005</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2975,7 +3304,17 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3036,7 +3375,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3078,7 +3417,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3110,9 +3449,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3144,6 +3501,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3320,16 +3695,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H187"/>
+  <dimension ref="A1:H208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="B188" sqref="B188"/>
+    <sheetView tabSelected="1" topLeftCell="B181" workbookViewId="0">
+      <selection activeCell="D185" sqref="D185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="5.5703125" customWidth="1"/>
-    <col min="3" max="3" width="33.85546875" customWidth="1"/>
+    <col min="3" max="3" width="98" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" customWidth="1"/>
+    <col min="5" max="5" width="34" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -3366,13 +3742,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>219</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>424</v>
       </c>
       <c r="F2">
         <v>29</v>
@@ -3381,7 +3757,7 @@
         <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>630</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -3395,10 +3771,10 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>220</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>425</v>
       </c>
       <c r="F3">
         <v>29</v>
@@ -3415,13 +3791,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>221</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>426</v>
       </c>
       <c r="F4">
         <v>29</v>
@@ -3430,7 +3806,7 @@
         <v>4</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>631</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -3441,13 +3817,13 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>222</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>427</v>
       </c>
       <c r="F5">
         <v>29</v>
@@ -3456,7 +3832,7 @@
         <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>632</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -3467,19 +3843,19 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>223</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>428</v>
       </c>
       <c r="F6">
         <v>29</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
+        <v>633</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -3490,13 +3866,13 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>224</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>429</v>
       </c>
       <c r="F7">
         <v>29</v>
@@ -3505,7 +3881,7 @@
         <v>4</v>
       </c>
       <c r="H7" t="s">
-        <v>31</v>
+        <v>634</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -3516,13 +3892,13 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>225</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>430</v>
       </c>
       <c r="F8">
         <v>9</v>
@@ -3531,7 +3907,7 @@
         <v>3</v>
       </c>
       <c r="H8" t="s">
-        <v>35</v>
+        <v>635</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -3542,13 +3918,13 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>226</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>431</v>
       </c>
       <c r="F9">
         <v>9</v>
@@ -3557,7 +3933,7 @@
         <v>3</v>
       </c>
       <c r="H9" t="s">
-        <v>39</v>
+        <v>636</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -3568,13 +3944,13 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>227</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>432</v>
       </c>
       <c r="F10">
         <v>9</v>
@@ -3583,7 +3959,7 @@
         <v>3</v>
       </c>
       <c r="H10" t="s">
-        <v>43</v>
+        <v>637</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -3594,13 +3970,13 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>228</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>433</v>
       </c>
       <c r="F11">
         <v>32</v>
@@ -3609,7 +3985,7 @@
         <v>3</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>638</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -3620,13 +3996,13 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>229</v>
       </c>
       <c r="E12" t="s">
-        <v>50</v>
+        <v>434</v>
       </c>
       <c r="F12">
         <v>32</v>
@@ -3635,7 +4011,7 @@
         <v>3</v>
       </c>
       <c r="H12" t="s">
-        <v>51</v>
+        <v>639</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -3646,13 +4022,13 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>230</v>
       </c>
       <c r="E13" t="s">
-        <v>54</v>
+        <v>435</v>
       </c>
       <c r="F13">
         <v>32</v>
@@ -3661,18 +4037,18 @@
         <v>3</v>
       </c>
       <c r="H13" t="s">
-        <v>55</v>
+        <v>640</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>231</v>
       </c>
       <c r="E14" t="s">
-        <v>58</v>
+        <v>436</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -3683,13 +4059,13 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>60</v>
+        <v>232</v>
       </c>
       <c r="E15" t="s">
-        <v>61</v>
+        <v>437</v>
       </c>
       <c r="F15">
         <v>3</v>
@@ -3698,7 +4074,7 @@
         <v>3</v>
       </c>
       <c r="H15" t="s">
-        <v>62</v>
+        <v>641</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -3709,13 +4085,13 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>64</v>
+        <v>233</v>
       </c>
       <c r="E16" t="s">
-        <v>65</v>
+        <v>438</v>
       </c>
       <c r="F16">
         <v>3</v>
@@ -3724,7 +4100,7 @@
         <v>3</v>
       </c>
       <c r="H16" t="s">
-        <v>66</v>
+        <v>642</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -3735,13 +4111,13 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>68</v>
+        <v>234</v>
       </c>
       <c r="E17" t="s">
-        <v>69</v>
+        <v>439</v>
       </c>
       <c r="F17">
         <v>3</v>
@@ -3750,18 +4126,18 @@
         <v>3</v>
       </c>
       <c r="H17" t="s">
-        <v>70</v>
+        <v>643</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="D18" t="s">
-        <v>72</v>
+        <v>235</v>
       </c>
       <c r="E18" t="s">
-        <v>73</v>
+        <v>440</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -3772,13 +4148,13 @@
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>75</v>
+        <v>236</v>
       </c>
       <c r="E19" t="s">
-        <v>76</v>
+        <v>441</v>
       </c>
       <c r="F19">
         <v>7</v>
@@ -3787,7 +4163,7 @@
         <v>3</v>
       </c>
       <c r="H19" t="s">
-        <v>77</v>
+        <v>644</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -3798,13 +4174,13 @@
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>79</v>
+        <v>237</v>
       </c>
       <c r="E20" t="s">
-        <v>80</v>
+        <v>442</v>
       </c>
       <c r="F20">
         <v>7</v>
@@ -3813,7 +4189,7 @@
         <v>3</v>
       </c>
       <c r="H20" t="s">
-        <v>81</v>
+        <v>645</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -3824,13 +4200,13 @@
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>83</v>
+        <v>238</v>
       </c>
       <c r="E21" t="s">
-        <v>84</v>
+        <v>443</v>
       </c>
       <c r="F21">
         <v>7</v>
@@ -3839,63 +4215,63 @@
         <v>3</v>
       </c>
       <c r="H21" t="s">
-        <v>85</v>
+        <v>646</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="D22" t="s">
-        <v>87</v>
+        <v>239</v>
       </c>
       <c r="E22" t="s">
-        <v>88</v>
+        <v>444</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>90</v>
+        <v>240</v>
       </c>
       <c r="E23" t="s">
-        <v>91</v>
+        <v>445</v>
       </c>
       <c r="G23">
         <v>3</v>
       </c>
       <c r="H23" t="s">
-        <v>92</v>
+        <v>647</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="D24" t="s">
-        <v>94</v>
+        <v>241</v>
       </c>
       <c r="E24" t="s">
-        <v>95</v>
+        <v>446</v>
       </c>
       <c r="G24">
         <v>4</v>
       </c>
       <c r="H24" t="s">
-        <v>96</v>
+        <v>648</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="D25" t="s">
-        <v>98</v>
+        <v>242</v>
       </c>
       <c r="E25" t="s">
-        <v>99</v>
+        <v>447</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -3906,13 +4282,13 @@
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="D26" t="s">
-        <v>101</v>
+        <v>243</v>
       </c>
       <c r="E26" t="s">
-        <v>102</v>
+        <v>448</v>
       </c>
       <c r="F26">
         <v>51</v>
@@ -3921,7 +4297,7 @@
         <v>3</v>
       </c>
       <c r="H26" t="s">
-        <v>103</v>
+        <v>649</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -3932,13 +4308,13 @@
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>104</v>
+        <v>37</v>
       </c>
       <c r="D27" t="s">
-        <v>105</v>
+        <v>244</v>
       </c>
       <c r="E27" t="s">
-        <v>106</v>
+        <v>449</v>
       </c>
       <c r="F27">
         <v>51</v>
@@ -3947,7 +4323,7 @@
         <v>3</v>
       </c>
       <c r="H27" t="s">
-        <v>107</v>
+        <v>650</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -3958,13 +4334,13 @@
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="D28" t="s">
-        <v>109</v>
+        <v>245</v>
       </c>
       <c r="E28" t="s">
-        <v>110</v>
+        <v>450</v>
       </c>
       <c r="F28">
         <v>51</v>
@@ -3973,18 +4349,18 @@
         <v>3</v>
       </c>
       <c r="H28" t="s">
-        <v>111</v>
+        <v>651</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>112</v>
+        <v>39</v>
       </c>
       <c r="D29" t="s">
-        <v>113</v>
+        <v>246</v>
       </c>
       <c r="E29" t="s">
-        <v>114</v>
+        <v>451</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -3995,13 +4371,13 @@
         <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="D30" t="s">
-        <v>116</v>
+        <v>247</v>
       </c>
       <c r="E30" t="s">
-        <v>117</v>
+        <v>452</v>
       </c>
       <c r="F30">
         <v>7</v>
@@ -4010,7 +4386,7 @@
         <v>3</v>
       </c>
       <c r="H30" t="s">
-        <v>118</v>
+        <v>652</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -4021,13 +4397,13 @@
         <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>119</v>
+        <v>41</v>
       </c>
       <c r="D31" t="s">
-        <v>120</v>
+        <v>248</v>
       </c>
       <c r="E31" t="s">
-        <v>121</v>
+        <v>453</v>
       </c>
       <c r="F31">
         <v>7</v>
@@ -4036,7 +4412,7 @@
         <v>3</v>
       </c>
       <c r="H31" t="s">
-        <v>122</v>
+        <v>653</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -4047,13 +4423,13 @@
         <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>123</v>
+        <v>42</v>
       </c>
       <c r="D32" t="s">
-        <v>124</v>
+        <v>249</v>
       </c>
       <c r="E32" t="s">
-        <v>125</v>
+        <v>454</v>
       </c>
       <c r="F32">
         <v>7</v>
@@ -4062,18 +4438,18 @@
         <v>3</v>
       </c>
       <c r="H32" t="s">
-        <v>126</v>
+        <v>654</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>127</v>
+        <v>43</v>
       </c>
       <c r="D33" t="s">
-        <v>128</v>
+        <v>250</v>
       </c>
       <c r="E33" t="s">
-        <v>129</v>
+        <v>455</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -4084,13 +4460,13 @@
         <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="D34" t="s">
-        <v>131</v>
+        <v>251</v>
       </c>
       <c r="E34" t="s">
-        <v>132</v>
+        <v>456</v>
       </c>
       <c r="F34">
         <v>7</v>
@@ -4099,7 +4475,7 @@
         <v>3</v>
       </c>
       <c r="H34" t="s">
-        <v>133</v>
+        <v>655</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -4110,13 +4486,13 @@
         <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>134</v>
+        <v>45</v>
       </c>
       <c r="D35" t="s">
-        <v>135</v>
+        <v>252</v>
       </c>
       <c r="E35" t="s">
-        <v>136</v>
+        <v>457</v>
       </c>
       <c r="F35">
         <v>7</v>
@@ -4125,7 +4501,7 @@
         <v>3</v>
       </c>
       <c r="H35" t="s">
-        <v>137</v>
+        <v>656</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -4136,13 +4512,13 @@
         <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>138</v>
+        <v>46</v>
       </c>
       <c r="D36" t="s">
-        <v>139</v>
+        <v>253</v>
       </c>
       <c r="E36" t="s">
-        <v>140</v>
+        <v>458</v>
       </c>
       <c r="F36">
         <v>7</v>
@@ -4151,7 +4527,7 @@
         <v>3</v>
       </c>
       <c r="H36" t="s">
-        <v>141</v>
+        <v>657</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -4162,13 +4538,13 @@
         <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>142</v>
+        <v>47</v>
       </c>
       <c r="D37" t="s">
-        <v>143</v>
+        <v>254</v>
       </c>
       <c r="E37" t="s">
-        <v>144</v>
+        <v>459</v>
       </c>
       <c r="F37">
         <v>36</v>
@@ -4177,7 +4553,7 @@
         <v>3</v>
       </c>
       <c r="H37" t="s">
-        <v>145</v>
+        <v>658</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -4188,13 +4564,13 @@
         <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>146</v>
+        <v>48</v>
       </c>
       <c r="D38" t="s">
-        <v>147</v>
+        <v>255</v>
       </c>
       <c r="E38" t="s">
-        <v>148</v>
+        <v>460</v>
       </c>
       <c r="F38">
         <v>36</v>
@@ -4203,7 +4579,7 @@
         <v>3</v>
       </c>
       <c r="H38" t="s">
-        <v>149</v>
+        <v>659</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -4214,13 +4590,13 @@
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>150</v>
+        <v>49</v>
       </c>
       <c r="D39" t="s">
-        <v>151</v>
+        <v>256</v>
       </c>
       <c r="E39" t="s">
-        <v>152</v>
+        <v>461</v>
       </c>
       <c r="F39">
         <v>35</v>
@@ -4229,7 +4605,7 @@
         <v>3</v>
       </c>
       <c r="H39" t="s">
-        <v>153</v>
+        <v>660</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -4240,13 +4616,13 @@
         <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>154</v>
+        <v>50</v>
       </c>
       <c r="D40" t="s">
-        <v>155</v>
+        <v>257</v>
       </c>
       <c r="E40" t="s">
-        <v>156</v>
+        <v>462</v>
       </c>
       <c r="F40">
         <v>35</v>
@@ -4255,7 +4631,7 @@
         <v>3</v>
       </c>
       <c r="H40" t="s">
-        <v>157</v>
+        <v>661</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -4266,13 +4642,13 @@
         <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>158</v>
+        <v>51</v>
       </c>
       <c r="D41" t="s">
-        <v>159</v>
+        <v>258</v>
       </c>
       <c r="E41" t="s">
-        <v>160</v>
+        <v>463</v>
       </c>
       <c r="F41">
         <v>35</v>
@@ -4281,7 +4657,7 @@
         <v>3</v>
       </c>
       <c r="H41" t="s">
-        <v>161</v>
+        <v>662</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -4292,13 +4668,13 @@
         <v>12</v>
       </c>
       <c r="C42" t="s">
-        <v>162</v>
+        <v>52</v>
       </c>
       <c r="D42" t="s">
-        <v>163</v>
+        <v>259</v>
       </c>
       <c r="E42" t="s">
-        <v>164</v>
+        <v>464</v>
       </c>
       <c r="F42">
         <v>61</v>
@@ -4307,7 +4683,7 @@
         <v>3</v>
       </c>
       <c r="H42" t="s">
-        <v>165</v>
+        <v>663</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -4318,13 +4694,13 @@
         <v>12</v>
       </c>
       <c r="C43" t="s">
-        <v>166</v>
+        <v>53</v>
       </c>
       <c r="D43" t="s">
-        <v>167</v>
+        <v>260</v>
       </c>
       <c r="E43" t="s">
-        <v>168</v>
+        <v>465</v>
       </c>
       <c r="F43">
         <v>61</v>
@@ -4333,7 +4709,7 @@
         <v>3</v>
       </c>
       <c r="H43" t="s">
-        <v>169</v>
+        <v>664</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -4344,13 +4720,13 @@
         <v>12</v>
       </c>
       <c r="C44" t="s">
-        <v>170</v>
+        <v>54</v>
       </c>
       <c r="D44" t="s">
-        <v>171</v>
+        <v>261</v>
       </c>
       <c r="E44" t="s">
-        <v>172</v>
+        <v>466</v>
       </c>
       <c r="F44">
         <v>61</v>
@@ -4359,7 +4735,7 @@
         <v>3</v>
       </c>
       <c r="H44" t="s">
-        <v>173</v>
+        <v>665</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -4370,13 +4746,13 @@
         <v>13</v>
       </c>
       <c r="C45" t="s">
-        <v>174</v>
+        <v>55</v>
       </c>
       <c r="D45" t="s">
-        <v>175</v>
+        <v>262</v>
       </c>
       <c r="E45" t="s">
-        <v>176</v>
+        <v>467</v>
       </c>
       <c r="F45">
         <v>33</v>
@@ -4385,7 +4761,7 @@
         <v>3</v>
       </c>
       <c r="H45" t="s">
-        <v>177</v>
+        <v>666</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -4396,13 +4772,13 @@
         <v>13</v>
       </c>
       <c r="C46" t="s">
-        <v>178</v>
+        <v>56</v>
       </c>
       <c r="D46" t="s">
-        <v>179</v>
+        <v>263</v>
       </c>
       <c r="E46" t="s">
-        <v>180</v>
+        <v>468</v>
       </c>
       <c r="F46">
         <v>33</v>
@@ -4411,7 +4787,7 @@
         <v>3</v>
       </c>
       <c r="H46" t="s">
-        <v>181</v>
+        <v>667</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -4422,13 +4798,13 @@
         <v>13</v>
       </c>
       <c r="C47" t="s">
-        <v>182</v>
+        <v>57</v>
       </c>
       <c r="D47" t="s">
-        <v>183</v>
+        <v>264</v>
       </c>
       <c r="E47" t="s">
-        <v>184</v>
+        <v>469</v>
       </c>
       <c r="F47">
         <v>33</v>
@@ -4437,7 +4813,7 @@
         <v>3</v>
       </c>
       <c r="H47" t="s">
-        <v>185</v>
+        <v>668</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -4448,13 +4824,13 @@
         <v>14</v>
       </c>
       <c r="C48" t="s">
-        <v>186</v>
+        <v>58</v>
       </c>
       <c r="D48" t="s">
-        <v>187</v>
+        <v>265</v>
       </c>
       <c r="E48" t="s">
-        <v>188</v>
+        <v>470</v>
       </c>
       <c r="F48">
         <v>43</v>
@@ -4463,7 +4839,7 @@
         <v>3</v>
       </c>
       <c r="H48" t="s">
-        <v>189</v>
+        <v>669</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -4474,13 +4850,13 @@
         <v>14</v>
       </c>
       <c r="C49" t="s">
-        <v>190</v>
+        <v>59</v>
       </c>
       <c r="D49" t="s">
-        <v>191</v>
+        <v>266</v>
       </c>
       <c r="E49" t="s">
-        <v>192</v>
+        <v>471</v>
       </c>
       <c r="F49">
         <v>43</v>
@@ -4489,7 +4865,7 @@
         <v>3</v>
       </c>
       <c r="H49" t="s">
-        <v>193</v>
+        <v>670</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -4500,13 +4876,13 @@
         <v>14</v>
       </c>
       <c r="C50" t="s">
-        <v>194</v>
+        <v>60</v>
       </c>
       <c r="D50" t="s">
-        <v>195</v>
+        <v>267</v>
       </c>
       <c r="E50" t="s">
-        <v>196</v>
+        <v>472</v>
       </c>
       <c r="F50">
         <v>43</v>
@@ -4515,7 +4891,7 @@
         <v>3</v>
       </c>
       <c r="H50" t="s">
-        <v>197</v>
+        <v>671</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -4526,13 +4902,13 @@
         <v>15</v>
       </c>
       <c r="C51" t="s">
-        <v>198</v>
+        <v>61</v>
       </c>
       <c r="D51" t="s">
-        <v>199</v>
+        <v>268</v>
       </c>
       <c r="E51" t="s">
-        <v>200</v>
+        <v>473</v>
       </c>
       <c r="F51">
         <v>59</v>
@@ -4541,7 +4917,7 @@
         <v>3</v>
       </c>
       <c r="H51" t="s">
-        <v>201</v>
+        <v>672</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -4552,13 +4928,13 @@
         <v>15</v>
       </c>
       <c r="C52" t="s">
-        <v>202</v>
+        <v>62</v>
       </c>
       <c r="D52" t="s">
-        <v>203</v>
+        <v>269</v>
       </c>
       <c r="E52" t="s">
-        <v>204</v>
+        <v>474</v>
       </c>
       <c r="F52">
         <v>59</v>
@@ -4567,7 +4943,7 @@
         <v>3</v>
       </c>
       <c r="H52" t="s">
-        <v>205</v>
+        <v>673</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -4578,13 +4954,13 @@
         <v>15</v>
       </c>
       <c r="C53" t="s">
-        <v>206</v>
+        <v>63</v>
       </c>
       <c r="D53" t="s">
-        <v>207</v>
+        <v>270</v>
       </c>
       <c r="E53" t="s">
-        <v>208</v>
+        <v>475</v>
       </c>
       <c r="F53">
         <v>59</v>
@@ -4593,7 +4969,7 @@
         <v>3</v>
       </c>
       <c r="H53" t="s">
-        <v>209</v>
+        <v>674</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -4604,13 +4980,13 @@
         <v>16</v>
       </c>
       <c r="C54" t="s">
-        <v>210</v>
+        <v>64</v>
       </c>
       <c r="D54" t="s">
-        <v>211</v>
+        <v>271</v>
       </c>
       <c r="E54" t="s">
-        <v>212</v>
+        <v>476</v>
       </c>
       <c r="F54">
         <v>20</v>
@@ -4619,7 +4995,7 @@
         <v>3</v>
       </c>
       <c r="H54" t="s">
-        <v>213</v>
+        <v>675</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -4630,13 +5006,13 @@
         <v>16</v>
       </c>
       <c r="C55" t="s">
-        <v>214</v>
+        <v>65</v>
       </c>
       <c r="D55" t="s">
-        <v>215</v>
+        <v>272</v>
       </c>
       <c r="E55" t="s">
-        <v>216</v>
+        <v>477</v>
       </c>
       <c r="F55">
         <v>20</v>
@@ -4645,7 +5021,7 @@
         <v>3</v>
       </c>
       <c r="H55" t="s">
-        <v>217</v>
+        <v>676</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -4656,13 +5032,13 @@
         <v>16</v>
       </c>
       <c r="C56" t="s">
-        <v>218</v>
+        <v>66</v>
       </c>
       <c r="D56" t="s">
-        <v>219</v>
+        <v>273</v>
       </c>
       <c r="E56" t="s">
-        <v>220</v>
+        <v>478</v>
       </c>
       <c r="F56">
         <v>20</v>
@@ -4671,7 +5047,7 @@
         <v>3</v>
       </c>
       <c r="H56" t="s">
-        <v>221</v>
+        <v>677</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -4682,13 +5058,13 @@
         <v>17</v>
       </c>
       <c r="C57" t="s">
-        <v>222</v>
+        <v>67</v>
       </c>
       <c r="D57" t="s">
-        <v>223</v>
+        <v>274</v>
       </c>
       <c r="E57" t="s">
-        <v>224</v>
+        <v>479</v>
       </c>
       <c r="F57">
         <v>49</v>
@@ -4697,7 +5073,7 @@
         <v>3</v>
       </c>
       <c r="H57" t="s">
-        <v>225</v>
+        <v>678</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -4708,13 +5084,13 @@
         <v>17</v>
       </c>
       <c r="C58" t="s">
-        <v>226</v>
+        <v>68</v>
       </c>
       <c r="D58" t="s">
-        <v>227</v>
+        <v>275</v>
       </c>
       <c r="E58" t="s">
-        <v>228</v>
+        <v>480</v>
       </c>
       <c r="F58">
         <v>49</v>
@@ -4723,7 +5099,7 @@
         <v>3</v>
       </c>
       <c r="H58" t="s">
-        <v>229</v>
+        <v>679</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -4734,13 +5110,13 @@
         <v>17</v>
       </c>
       <c r="C59" t="s">
-        <v>230</v>
+        <v>69</v>
       </c>
       <c r="D59" t="s">
-        <v>231</v>
+        <v>276</v>
       </c>
       <c r="E59" t="s">
-        <v>232</v>
+        <v>481</v>
       </c>
       <c r="F59">
         <v>49</v>
@@ -4749,7 +5125,7 @@
         <v>3</v>
       </c>
       <c r="H59" t="s">
-        <v>233</v>
+        <v>680</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -4760,13 +5136,13 @@
         <v>18</v>
       </c>
       <c r="C60" t="s">
-        <v>234</v>
+        <v>70</v>
       </c>
       <c r="D60" t="s">
-        <v>235</v>
+        <v>277</v>
       </c>
       <c r="E60" t="s">
-        <v>236</v>
+        <v>482</v>
       </c>
       <c r="F60">
         <v>19</v>
@@ -4775,7 +5151,7 @@
         <v>3</v>
       </c>
       <c r="H60" t="s">
-        <v>237</v>
+        <v>681</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -4786,13 +5162,13 @@
         <v>18</v>
       </c>
       <c r="C61" t="s">
-        <v>238</v>
+        <v>71</v>
       </c>
       <c r="D61" t="s">
-        <v>239</v>
+        <v>278</v>
       </c>
       <c r="E61" t="s">
-        <v>240</v>
+        <v>483</v>
       </c>
       <c r="F61">
         <v>19</v>
@@ -4801,7 +5177,7 @@
         <v>3</v>
       </c>
       <c r="H61" t="s">
-        <v>241</v>
+        <v>682</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -4812,13 +5188,13 @@
         <v>18</v>
       </c>
       <c r="C62" t="s">
-        <v>242</v>
+        <v>72</v>
       </c>
       <c r="D62" t="s">
-        <v>243</v>
+        <v>279</v>
       </c>
       <c r="E62" t="s">
-        <v>244</v>
+        <v>484</v>
       </c>
       <c r="F62">
         <v>19</v>
@@ -4827,7 +5203,7 @@
         <v>3</v>
       </c>
       <c r="H62" t="s">
-        <v>245</v>
+        <v>683</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -4838,13 +5214,13 @@
         <v>19</v>
       </c>
       <c r="C63" t="s">
-        <v>246</v>
+        <v>73</v>
       </c>
       <c r="D63" t="s">
-        <v>247</v>
+        <v>280</v>
       </c>
       <c r="E63" t="s">
-        <v>248</v>
+        <v>485</v>
       </c>
       <c r="F63">
         <v>12</v>
@@ -4853,7 +5229,7 @@
         <v>3</v>
       </c>
       <c r="H63" t="s">
-        <v>249</v>
+        <v>684</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -4864,13 +5240,13 @@
         <v>19</v>
       </c>
       <c r="C64" t="s">
-        <v>250</v>
+        <v>74</v>
       </c>
       <c r="D64" t="s">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="E64" t="s">
-        <v>252</v>
+        <v>486</v>
       </c>
       <c r="F64">
         <v>12</v>
@@ -4879,7 +5255,7 @@
         <v>3</v>
       </c>
       <c r="H64" t="s">
-        <v>253</v>
+        <v>685</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -4890,13 +5266,13 @@
         <v>19</v>
       </c>
       <c r="C65" t="s">
-        <v>254</v>
+        <v>75</v>
       </c>
       <c r="D65" t="s">
-        <v>255</v>
+        <v>282</v>
       </c>
       <c r="E65" t="s">
-        <v>256</v>
+        <v>487</v>
       </c>
       <c r="F65">
         <v>12</v>
@@ -4905,7 +5281,7 @@
         <v>3</v>
       </c>
       <c r="H65" t="s">
-        <v>257</v>
+        <v>686</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -4916,13 +5292,13 @@
         <v>20</v>
       </c>
       <c r="C66" t="s">
-        <v>258</v>
+        <v>76</v>
       </c>
       <c r="D66" t="s">
-        <v>259</v>
+        <v>283</v>
       </c>
       <c r="E66" t="s">
-        <v>260</v>
+        <v>488</v>
       </c>
       <c r="F66">
         <v>41</v>
@@ -4931,7 +5307,7 @@
         <v>3</v>
       </c>
       <c r="H66" t="s">
-        <v>261</v>
+        <v>687</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -4942,13 +5318,13 @@
         <v>20</v>
       </c>
       <c r="C67" t="s">
-        <v>262</v>
+        <v>77</v>
       </c>
       <c r="D67" t="s">
-        <v>263</v>
+        <v>284</v>
       </c>
       <c r="E67" t="s">
-        <v>264</v>
+        <v>489</v>
       </c>
       <c r="F67">
         <v>41</v>
@@ -4957,7 +5333,7 @@
         <v>3</v>
       </c>
       <c r="H67" t="s">
-        <v>265</v>
+        <v>688</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -4968,13 +5344,13 @@
         <v>20</v>
       </c>
       <c r="C68" t="s">
-        <v>266</v>
+        <v>78</v>
       </c>
       <c r="D68" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="E68" t="s">
-        <v>268</v>
+        <v>490</v>
       </c>
       <c r="F68">
         <v>41</v>
@@ -4983,7 +5359,7 @@
         <v>3</v>
       </c>
       <c r="H68" t="s">
-        <v>269</v>
+        <v>689</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -4994,13 +5370,13 @@
         <v>21</v>
       </c>
       <c r="C69" t="s">
-        <v>270</v>
+        <v>79</v>
       </c>
       <c r="D69" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="E69" t="s">
-        <v>272</v>
+        <v>491</v>
       </c>
       <c r="F69">
         <v>63</v>
@@ -5009,7 +5385,7 @@
         <v>3</v>
       </c>
       <c r="H69" t="s">
-        <v>273</v>
+        <v>690</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -5020,13 +5396,13 @@
         <v>21</v>
       </c>
       <c r="C70" t="s">
-        <v>274</v>
+        <v>80</v>
       </c>
       <c r="D70" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="E70" t="s">
-        <v>276</v>
+        <v>492</v>
       </c>
       <c r="F70">
         <v>63</v>
@@ -5035,7 +5411,7 @@
         <v>3</v>
       </c>
       <c r="H70" t="s">
-        <v>277</v>
+        <v>691</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -5046,13 +5422,13 @@
         <v>21</v>
       </c>
       <c r="C71" t="s">
-        <v>278</v>
+        <v>81</v>
       </c>
       <c r="D71" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="E71" t="s">
-        <v>280</v>
+        <v>493</v>
       </c>
       <c r="F71">
         <v>63</v>
@@ -5061,7 +5437,7 @@
         <v>3</v>
       </c>
       <c r="H71" t="s">
-        <v>281</v>
+        <v>692</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -5072,13 +5448,13 @@
         <v>22</v>
       </c>
       <c r="C72" t="s">
-        <v>282</v>
+        <v>82</v>
       </c>
       <c r="D72" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="E72" t="s">
-        <v>284</v>
+        <v>494</v>
       </c>
       <c r="F72">
         <v>38</v>
@@ -5087,7 +5463,7 @@
         <v>3</v>
       </c>
       <c r="H72" t="s">
-        <v>285</v>
+        <v>693</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -5098,13 +5474,13 @@
         <v>22</v>
       </c>
       <c r="C73" t="s">
-        <v>286</v>
+        <v>83</v>
       </c>
       <c r="D73" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="E73" t="s">
-        <v>288</v>
+        <v>495</v>
       </c>
       <c r="F73">
         <v>38</v>
@@ -5113,7 +5489,7 @@
         <v>3</v>
       </c>
       <c r="H73" t="s">
-        <v>289</v>
+        <v>694</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -5124,13 +5500,13 @@
         <v>22</v>
       </c>
       <c r="C74" t="s">
-        <v>290</v>
+        <v>84</v>
       </c>
       <c r="D74" t="s">
         <v>291</v>
       </c>
       <c r="E74" t="s">
-        <v>292</v>
+        <v>496</v>
       </c>
       <c r="F74">
         <v>38</v>
@@ -5139,7 +5515,7 @@
         <v>3</v>
       </c>
       <c r="H74" t="s">
-        <v>293</v>
+        <v>695</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -5150,13 +5526,13 @@
         <v>23</v>
       </c>
       <c r="C75" t="s">
-        <v>294</v>
+        <v>85</v>
       </c>
       <c r="D75" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E75" t="s">
-        <v>296</v>
+        <v>497</v>
       </c>
       <c r="F75">
         <v>39</v>
@@ -5165,7 +5541,7 @@
         <v>3</v>
       </c>
       <c r="H75" t="s">
-        <v>297</v>
+        <v>696</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -5176,13 +5552,13 @@
         <v>23</v>
       </c>
       <c r="C76" t="s">
-        <v>298</v>
+        <v>86</v>
       </c>
       <c r="D76" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="E76" t="s">
-        <v>300</v>
+        <v>498</v>
       </c>
       <c r="F76">
         <v>39</v>
@@ -5191,7 +5567,7 @@
         <v>3</v>
       </c>
       <c r="H76" t="s">
-        <v>301</v>
+        <v>697</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -5202,13 +5578,13 @@
         <v>23</v>
       </c>
       <c r="C77" t="s">
-        <v>302</v>
+        <v>87</v>
       </c>
       <c r="D77" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="E77" t="s">
-        <v>304</v>
+        <v>499</v>
       </c>
       <c r="F77">
         <v>39</v>
@@ -5217,7 +5593,7 @@
         <v>3</v>
       </c>
       <c r="H77" t="s">
-        <v>305</v>
+        <v>698</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -5228,13 +5604,13 @@
         <v>24</v>
       </c>
       <c r="C78" t="s">
-        <v>306</v>
+        <v>88</v>
       </c>
       <c r="D78" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="E78" t="s">
-        <v>308</v>
+        <v>500</v>
       </c>
       <c r="F78">
         <v>44</v>
@@ -5243,7 +5619,7 @@
         <v>3</v>
       </c>
       <c r="H78" t="s">
-        <v>309</v>
+        <v>699</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -5254,13 +5630,13 @@
         <v>24</v>
       </c>
       <c r="C79" t="s">
-        <v>310</v>
+        <v>89</v>
       </c>
       <c r="D79" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="E79" t="s">
-        <v>312</v>
+        <v>501</v>
       </c>
       <c r="F79">
         <v>44</v>
@@ -5269,7 +5645,7 @@
         <v>3</v>
       </c>
       <c r="H79" t="s">
-        <v>313</v>
+        <v>700</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -5280,13 +5656,13 @@
         <v>24</v>
       </c>
       <c r="C80" t="s">
-        <v>314</v>
+        <v>90</v>
       </c>
       <c r="D80" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="E80" t="s">
-        <v>316</v>
+        <v>502</v>
       </c>
       <c r="F80">
         <v>44</v>
@@ -5295,58 +5671,58 @@
         <v>3</v>
       </c>
       <c r="H80" t="s">
-        <v>317</v>
+        <v>701</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>318</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>319</v>
+        <v>91</v>
       </c>
       <c r="D81" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
       <c r="E81" t="s">
-        <v>321</v>
+        <v>503</v>
       </c>
       <c r="H81" t="s">
-        <v>322</v>
+        <v>702</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>318</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>323</v>
+        <v>92</v>
       </c>
       <c r="D82" t="s">
-        <v>324</v>
+        <v>299</v>
       </c>
       <c r="E82" t="s">
-        <v>325</v>
+        <v>504</v>
       </c>
       <c r="H82" t="s">
-        <v>322</v>
+        <v>702</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>318</v>
+        <v>9</v>
       </c>
       <c r="B83">
         <v>1</v>
       </c>
       <c r="C83" t="s">
-        <v>326</v>
+        <v>93</v>
       </c>
       <c r="D83" t="s">
-        <v>327</v>
+        <v>300</v>
       </c>
       <c r="E83" t="s">
-        <v>328</v>
+        <v>505</v>
       </c>
       <c r="F83">
         <v>13</v>
@@ -5355,24 +5731,24 @@
         <v>3</v>
       </c>
       <c r="H83" t="s">
-        <v>329</v>
+        <v>703</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>318</v>
+        <v>9</v>
       </c>
       <c r="B84">
         <v>2</v>
       </c>
       <c r="C84" t="s">
-        <v>330</v>
+        <v>94</v>
       </c>
       <c r="D84" t="s">
-        <v>331</v>
+        <v>301</v>
       </c>
       <c r="E84" t="s">
-        <v>332</v>
+        <v>506</v>
       </c>
       <c r="F84">
         <v>28</v>
@@ -5381,24 +5757,24 @@
         <v>3</v>
       </c>
       <c r="H84" t="s">
-        <v>333</v>
+        <v>704</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>318</v>
+        <v>9</v>
       </c>
       <c r="B85">
         <v>3</v>
       </c>
       <c r="C85" t="s">
-        <v>334</v>
+        <v>95</v>
       </c>
       <c r="D85" t="s">
-        <v>335</v>
+        <v>302</v>
       </c>
       <c r="E85" t="s">
-        <v>336</v>
+        <v>507</v>
       </c>
       <c r="F85">
         <v>20</v>
@@ -5407,24 +5783,24 @@
         <v>5</v>
       </c>
       <c r="H85" t="s">
-        <v>337</v>
+        <v>705</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>318</v>
+        <v>9</v>
       </c>
       <c r="B86">
         <v>4</v>
       </c>
       <c r="C86" t="s">
-        <v>338</v>
+        <v>96</v>
       </c>
       <c r="D86" t="s">
-        <v>339</v>
+        <v>303</v>
       </c>
       <c r="E86" t="s">
-        <v>340</v>
+        <v>508</v>
       </c>
       <c r="F86">
         <v>48</v>
@@ -5433,58 +5809,58 @@
         <v>3</v>
       </c>
       <c r="H86" t="s">
-        <v>341</v>
+        <v>706</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>318</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>342</v>
+        <v>97</v>
       </c>
       <c r="D87" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="E87" t="s">
-        <v>344</v>
+        <v>509</v>
       </c>
       <c r="H87" t="s">
-        <v>345</v>
+        <v>707</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>318</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>346</v>
+        <v>98</v>
       </c>
       <c r="D88" t="s">
-        <v>347</v>
+        <v>305</v>
       </c>
       <c r="E88" t="s">
-        <v>348</v>
+        <v>510</v>
       </c>
       <c r="H88" t="s">
-        <v>345</v>
+        <v>707</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>318</v>
+        <v>9</v>
       </c>
       <c r="B89">
         <v>5</v>
       </c>
       <c r="C89" t="s">
-        <v>349</v>
+        <v>99</v>
       </c>
       <c r="D89" t="s">
-        <v>350</v>
+        <v>306</v>
       </c>
       <c r="E89" t="s">
-        <v>351</v>
+        <v>511</v>
       </c>
       <c r="F89">
         <v>12</v>
@@ -5493,24 +5869,24 @@
         <v>3</v>
       </c>
       <c r="H89" t="s">
-        <v>352</v>
+        <v>708</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>318</v>
+        <v>9</v>
       </c>
       <c r="B90">
         <v>6</v>
       </c>
       <c r="C90" t="s">
-        <v>353</v>
+        <v>100</v>
       </c>
       <c r="D90" t="s">
-        <v>354</v>
+        <v>307</v>
       </c>
       <c r="E90" t="s">
-        <v>355</v>
+        <v>512</v>
       </c>
       <c r="F90">
         <v>12</v>
@@ -5519,24 +5895,24 @@
         <v>3</v>
       </c>
       <c r="H90" t="s">
-        <v>356</v>
+        <v>709</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>318</v>
+        <v>9</v>
       </c>
       <c r="B91">
         <v>7</v>
       </c>
       <c r="C91" t="s">
-        <v>357</v>
+        <v>101</v>
       </c>
       <c r="D91" t="s">
-        <v>358</v>
+        <v>308</v>
       </c>
       <c r="E91" t="s">
-        <v>359</v>
+        <v>513</v>
       </c>
       <c r="F91">
         <v>12</v>
@@ -5545,24 +5921,24 @@
         <v>3</v>
       </c>
       <c r="H91" t="s">
-        <v>360</v>
+        <v>710</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>318</v>
+        <v>9</v>
       </c>
       <c r="B92">
         <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>361</v>
+        <v>102</v>
       </c>
       <c r="D92" t="s">
-        <v>362</v>
+        <v>309</v>
       </c>
       <c r="E92" t="s">
-        <v>363</v>
+        <v>514</v>
       </c>
       <c r="F92">
         <v>12</v>
@@ -5571,24 +5947,24 @@
         <v>3</v>
       </c>
       <c r="H92" t="s">
-        <v>364</v>
+        <v>711</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>318</v>
+        <v>9</v>
       </c>
       <c r="B93">
         <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>365</v>
+        <v>103</v>
       </c>
       <c r="D93" t="s">
-        <v>366</v>
+        <v>310</v>
       </c>
       <c r="E93" t="s">
-        <v>367</v>
+        <v>515</v>
       </c>
       <c r="F93">
         <v>64</v>
@@ -5597,24 +5973,24 @@
         <v>4</v>
       </c>
       <c r="H93" t="s">
-        <v>368</v>
+        <v>712</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>318</v>
+        <v>9</v>
       </c>
       <c r="B94">
         <v>10</v>
       </c>
       <c r="C94" t="s">
-        <v>369</v>
+        <v>104</v>
       </c>
       <c r="D94" t="s">
-        <v>370</v>
+        <v>311</v>
       </c>
       <c r="E94" t="s">
-        <v>371</v>
+        <v>516</v>
       </c>
       <c r="F94">
         <v>64</v>
@@ -5623,58 +5999,58 @@
         <v>4</v>
       </c>
       <c r="H94" t="s">
-        <v>372</v>
+        <v>713</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>318</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>373</v>
+        <v>105</v>
       </c>
       <c r="D95" t="s">
-        <v>374</v>
+        <v>312</v>
       </c>
       <c r="E95" t="s">
-        <v>375</v>
+        <v>517</v>
       </c>
       <c r="H95" t="s">
-        <v>376</v>
+        <v>714</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>318</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>377</v>
+        <v>106</v>
       </c>
       <c r="D96" t="s">
-        <v>378</v>
+        <v>313</v>
       </c>
       <c r="E96" t="s">
-        <v>379</v>
+        <v>518</v>
       </c>
       <c r="H96" t="s">
-        <v>376</v>
+        <v>714</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>318</v>
+        <v>9</v>
       </c>
       <c r="B97">
         <v>11</v>
       </c>
       <c r="C97" t="s">
-        <v>380</v>
+        <v>107</v>
       </c>
       <c r="D97" t="s">
-        <v>381</v>
+        <v>314</v>
       </c>
       <c r="E97" t="s">
-        <v>382</v>
+        <v>519</v>
       </c>
       <c r="F97">
         <v>31</v>
@@ -5683,24 +6059,24 @@
         <v>4</v>
       </c>
       <c r="H97" t="s">
-        <v>383</v>
+        <v>715</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>318</v>
+        <v>9</v>
       </c>
       <c r="B98">
         <v>12</v>
       </c>
       <c r="C98" t="s">
-        <v>384</v>
+        <v>108</v>
       </c>
       <c r="D98" t="s">
-        <v>385</v>
+        <v>315</v>
       </c>
       <c r="E98" t="s">
-        <v>386</v>
+        <v>520</v>
       </c>
       <c r="F98">
         <v>21</v>
@@ -5709,24 +6085,24 @@
         <v>4</v>
       </c>
       <c r="H98" t="s">
-        <v>387</v>
+        <v>716</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>318</v>
+        <v>9</v>
       </c>
       <c r="B99">
         <v>13</v>
       </c>
       <c r="C99" t="s">
-        <v>388</v>
+        <v>109</v>
       </c>
       <c r="D99" t="s">
-        <v>389</v>
+        <v>316</v>
       </c>
       <c r="E99" t="s">
-        <v>390</v>
+        <v>521</v>
       </c>
       <c r="F99">
         <v>21</v>
@@ -5735,24 +6111,24 @@
         <v>4</v>
       </c>
       <c r="H99" t="s">
-        <v>391</v>
+        <v>717</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>318</v>
+        <v>9</v>
       </c>
       <c r="B100">
         <v>14</v>
       </c>
       <c r="C100" t="s">
-        <v>392</v>
+        <v>110</v>
       </c>
       <c r="D100" t="s">
-        <v>393</v>
+        <v>317</v>
       </c>
       <c r="E100" t="s">
-        <v>394</v>
+        <v>522</v>
       </c>
       <c r="F100">
         <v>21</v>
@@ -5761,24 +6137,24 @@
         <v>4</v>
       </c>
       <c r="H100" t="s">
-        <v>395</v>
+        <v>718</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>318</v>
+        <v>9</v>
       </c>
       <c r="B101">
         <v>15</v>
       </c>
       <c r="C101" t="s">
-        <v>396</v>
+        <v>111</v>
       </c>
       <c r="D101" t="s">
-        <v>397</v>
+        <v>318</v>
       </c>
       <c r="E101" t="s">
-        <v>398</v>
+        <v>523</v>
       </c>
       <c r="F101">
         <v>21</v>
@@ -5787,58 +6163,58 @@
         <v>4</v>
       </c>
       <c r="H101" t="s">
-        <v>399</v>
+        <v>719</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>400</v>
+        <v>10</v>
       </c>
       <c r="C102" t="s">
-        <v>401</v>
+        <v>112</v>
       </c>
       <c r="D102" t="s">
-        <v>402</v>
+        <v>319</v>
       </c>
       <c r="E102" t="s">
-        <v>403</v>
+        <v>524</v>
       </c>
       <c r="H102" t="s">
-        <v>404</v>
+        <v>720</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>400</v>
+        <v>10</v>
       </c>
       <c r="C103" t="s">
-        <v>405</v>
+        <v>113</v>
       </c>
       <c r="D103" t="s">
-        <v>406</v>
+        <v>320</v>
       </c>
       <c r="E103" t="s">
-        <v>407</v>
+        <v>525</v>
       </c>
       <c r="H103" t="s">
-        <v>404</v>
+        <v>720</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>400</v>
+        <v>10</v>
       </c>
       <c r="B104">
         <v>1</v>
       </c>
       <c r="C104" t="s">
-        <v>408</v>
+        <v>114</v>
       </c>
       <c r="D104" t="s">
-        <v>409</v>
+        <v>321</v>
       </c>
       <c r="E104" t="s">
-        <v>410</v>
+        <v>526</v>
       </c>
       <c r="F104">
         <v>30</v>
@@ -5847,24 +6223,24 @@
         <v>3</v>
       </c>
       <c r="H104" t="s">
-        <v>411</v>
+        <v>721</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>400</v>
+        <v>10</v>
       </c>
       <c r="B105">
         <v>2</v>
       </c>
       <c r="C105" t="s">
-        <v>412</v>
+        <v>115</v>
       </c>
       <c r="D105" t="s">
-        <v>413</v>
+        <v>322</v>
       </c>
       <c r="E105" t="s">
-        <v>414</v>
+        <v>527</v>
       </c>
       <c r="F105">
         <v>30</v>
@@ -5873,24 +6249,24 @@
         <v>3</v>
       </c>
       <c r="H105" t="s">
-        <v>415</v>
+        <v>722</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>400</v>
+        <v>10</v>
       </c>
       <c r="B106">
         <v>3</v>
       </c>
       <c r="C106" t="s">
-        <v>416</v>
+        <v>116</v>
       </c>
       <c r="D106" t="s">
-        <v>417</v>
+        <v>323</v>
       </c>
       <c r="E106" t="s">
-        <v>418</v>
+        <v>528</v>
       </c>
       <c r="F106">
         <v>58</v>
@@ -5899,24 +6275,24 @@
         <v>4</v>
       </c>
       <c r="H106" t="s">
-        <v>419</v>
+        <v>723</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>400</v>
+        <v>10</v>
       </c>
       <c r="B107">
         <v>4</v>
       </c>
       <c r="C107" t="s">
-        <v>420</v>
+        <v>117</v>
       </c>
       <c r="D107" t="s">
-        <v>421</v>
+        <v>324</v>
       </c>
       <c r="E107" t="s">
-        <v>422</v>
+        <v>529</v>
       </c>
       <c r="F107">
         <v>58</v>
@@ -5925,24 +6301,24 @@
         <v>4</v>
       </c>
       <c r="H107" t="s">
-        <v>423</v>
+        <v>724</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>400</v>
+        <v>10</v>
       </c>
       <c r="B108">
         <v>5</v>
       </c>
       <c r="C108" t="s">
-        <v>424</v>
+        <v>118</v>
       </c>
       <c r="D108" t="s">
-        <v>425</v>
+        <v>325</v>
       </c>
       <c r="E108" t="s">
-        <v>426</v>
+        <v>530</v>
       </c>
       <c r="F108">
         <v>34</v>
@@ -5951,685 +6327,685 @@
         <v>3</v>
       </c>
       <c r="H108" t="s">
-        <v>427</v>
+        <v>725</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>400</v>
+        <v>10</v>
       </c>
       <c r="C109" t="s">
-        <v>428</v>
+        <v>119</v>
       </c>
       <c r="D109" t="s">
-        <v>429</v>
+        <v>326</v>
       </c>
       <c r="E109" t="s">
-        <v>430</v>
+        <v>531</v>
       </c>
       <c r="H109" t="s">
-        <v>431</v>
+        <v>726</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>400</v>
+        <v>10</v>
       </c>
       <c r="C110" t="s">
-        <v>432</v>
+        <v>120</v>
       </c>
       <c r="D110" t="s">
-        <v>433</v>
+        <v>327</v>
       </c>
       <c r="E110" t="s">
-        <v>434</v>
+        <v>532</v>
       </c>
       <c r="H110" t="s">
-        <v>431</v>
+        <v>726</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>400</v>
+        <v>10</v>
       </c>
       <c r="B111">
         <v>6</v>
       </c>
       <c r="C111" t="s">
-        <v>435</v>
+        <v>121</v>
       </c>
       <c r="D111" t="s">
-        <v>436</v>
+        <v>328</v>
       </c>
       <c r="E111" t="s">
-        <v>437</v>
+        <v>533</v>
       </c>
       <c r="H111" t="s">
-        <v>438</v>
+        <v>727</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>400</v>
+        <v>10</v>
       </c>
       <c r="B112">
         <v>7</v>
       </c>
       <c r="C112" t="s">
-        <v>439</v>
+        <v>122</v>
       </c>
       <c r="D112" t="s">
-        <v>440</v>
+        <v>329</v>
       </c>
       <c r="E112" t="s">
-        <v>441</v>
+        <v>534</v>
       </c>
       <c r="H112" t="s">
-        <v>442</v>
+        <v>728</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>400</v>
+        <v>10</v>
       </c>
       <c r="B113">
         <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>443</v>
+        <v>123</v>
       </c>
       <c r="D113" t="s">
-        <v>444</v>
+        <v>330</v>
       </c>
       <c r="E113" t="s">
-        <v>445</v>
+        <v>535</v>
       </c>
       <c r="H113" t="s">
-        <v>446</v>
+        <v>729</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>400</v>
+        <v>10</v>
       </c>
       <c r="C114" t="s">
-        <v>447</v>
+        <v>124</v>
       </c>
       <c r="D114" t="s">
-        <v>448</v>
+        <v>331</v>
       </c>
       <c r="E114" t="s">
-        <v>449</v>
+        <v>536</v>
       </c>
       <c r="H114" t="s">
-        <v>450</v>
+        <v>730</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>400</v>
+        <v>10</v>
       </c>
       <c r="C115" t="s">
-        <v>451</v>
+        <v>125</v>
       </c>
       <c r="D115" t="s">
-        <v>452</v>
+        <v>332</v>
       </c>
       <c r="E115" t="s">
-        <v>453</v>
+        <v>537</v>
       </c>
       <c r="H115" t="s">
-        <v>450</v>
+        <v>730</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>400</v>
+        <v>10</v>
       </c>
       <c r="C116" t="s">
-        <v>454</v>
+        <v>126</v>
       </c>
       <c r="D116" t="s">
-        <v>455</v>
+        <v>333</v>
       </c>
       <c r="E116" t="s">
-        <v>456</v>
+        <v>538</v>
       </c>
       <c r="H116" t="s">
-        <v>450</v>
+        <v>730</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>400</v>
+        <v>10</v>
       </c>
       <c r="B117">
         <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>457</v>
+        <v>127</v>
       </c>
       <c r="D117" t="s">
-        <v>458</v>
+        <v>334</v>
       </c>
       <c r="E117" t="s">
-        <v>459</v>
+        <v>539</v>
       </c>
       <c r="H117" t="s">
-        <v>460</v>
+        <v>731</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>400</v>
+        <v>10</v>
       </c>
       <c r="B118">
         <v>10</v>
       </c>
       <c r="C118" t="s">
-        <v>461</v>
+        <v>128</v>
       </c>
       <c r="D118" t="s">
-        <v>462</v>
+        <v>335</v>
       </c>
       <c r="E118" t="s">
-        <v>463</v>
+        <v>540</v>
       </c>
       <c r="H118" t="s">
-        <v>464</v>
+        <v>732</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>400</v>
+        <v>10</v>
       </c>
       <c r="B119">
         <v>11</v>
       </c>
       <c r="C119" t="s">
-        <v>465</v>
+        <v>129</v>
       </c>
       <c r="D119" t="s">
-        <v>466</v>
+        <v>336</v>
       </c>
       <c r="E119" t="s">
-        <v>467</v>
+        <v>541</v>
       </c>
       <c r="H119" t="s">
-        <v>468</v>
+        <v>733</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>400</v>
+        <v>10</v>
       </c>
       <c r="B120">
         <v>12</v>
       </c>
       <c r="C120" t="s">
-        <v>469</v>
+        <v>130</v>
       </c>
       <c r="D120" t="s">
-        <v>470</v>
+        <v>337</v>
       </c>
       <c r="E120" t="s">
-        <v>471</v>
+        <v>542</v>
       </c>
       <c r="H120" t="s">
-        <v>472</v>
+        <v>734</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>400</v>
+        <v>10</v>
       </c>
       <c r="C121" t="s">
-        <v>473</v>
+        <v>131</v>
       </c>
       <c r="D121" t="s">
-        <v>474</v>
+        <v>338</v>
       </c>
       <c r="E121" t="s">
-        <v>475</v>
+        <v>543</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>400</v>
+        <v>10</v>
       </c>
       <c r="C122" t="s">
-        <v>476</v>
+        <v>132</v>
       </c>
       <c r="D122" t="s">
-        <v>477</v>
+        <v>339</v>
       </c>
       <c r="E122" t="s">
-        <v>478</v>
+        <v>544</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>400</v>
+        <v>10</v>
       </c>
       <c r="C123" t="s">
-        <v>479</v>
+        <v>133</v>
       </c>
       <c r="D123" t="s">
-        <v>480</v>
+        <v>340</v>
       </c>
       <c r="E123" t="s">
-        <v>481</v>
+        <v>545</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>400</v>
+        <v>10</v>
       </c>
       <c r="C124" t="s">
-        <v>482</v>
+        <v>134</v>
       </c>
       <c r="D124" t="s">
-        <v>483</v>
+        <v>341</v>
       </c>
       <c r="E124" t="s">
-        <v>484</v>
+        <v>546</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>400</v>
+        <v>10</v>
       </c>
       <c r="B125">
         <v>13</v>
       </c>
       <c r="C125" t="s">
-        <v>485</v>
+        <v>135</v>
       </c>
       <c r="D125" t="s">
-        <v>486</v>
+        <v>342</v>
       </c>
       <c r="E125" t="s">
-        <v>487</v>
+        <v>547</v>
       </c>
       <c r="H125" t="s">
-        <v>488</v>
+        <v>735</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>400</v>
+        <v>10</v>
       </c>
       <c r="B126">
         <v>14</v>
       </c>
       <c r="C126" t="s">
-        <v>489</v>
+        <v>136</v>
       </c>
       <c r="D126" t="s">
-        <v>490</v>
+        <v>343</v>
       </c>
       <c r="E126" t="s">
-        <v>491</v>
+        <v>548</v>
       </c>
       <c r="H126" t="s">
-        <v>492</v>
+        <v>736</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>400</v>
+        <v>10</v>
       </c>
       <c r="B127">
         <v>15</v>
       </c>
       <c r="C127" t="s">
-        <v>493</v>
+        <v>137</v>
       </c>
       <c r="D127" t="s">
-        <v>494</v>
+        <v>344</v>
       </c>
       <c r="E127" t="s">
-        <v>495</v>
+        <v>549</v>
       </c>
       <c r="H127" t="s">
-        <v>496</v>
+        <v>737</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>400</v>
+        <v>10</v>
       </c>
       <c r="B128">
         <v>16</v>
       </c>
       <c r="C128" t="s">
-        <v>497</v>
+        <v>138</v>
       </c>
       <c r="D128" t="s">
-        <v>498</v>
+        <v>345</v>
       </c>
       <c r="E128" t="s">
-        <v>499</v>
+        <v>550</v>
       </c>
       <c r="H128" t="s">
-        <v>500</v>
+        <v>738</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>501</v>
+        <v>11</v>
       </c>
       <c r="B129">
         <v>1</v>
       </c>
       <c r="C129" t="s">
-        <v>502</v>
+        <v>139</v>
       </c>
       <c r="D129" t="s">
-        <v>503</v>
+        <v>346</v>
       </c>
       <c r="E129" t="s">
-        <v>504</v>
+        <v>551</v>
       </c>
       <c r="H129" t="s">
-        <v>505</v>
+        <v>739</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>501</v>
+        <v>11</v>
       </c>
       <c r="B130">
         <v>2</v>
       </c>
       <c r="C130" t="s">
-        <v>506</v>
+        <v>140</v>
       </c>
       <c r="D130" t="s">
-        <v>507</v>
+        <v>347</v>
       </c>
       <c r="E130" t="s">
-        <v>508</v>
+        <v>552</v>
       </c>
       <c r="H130" t="s">
-        <v>509</v>
+        <v>740</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>501</v>
+        <v>11</v>
       </c>
       <c r="B131">
         <v>3</v>
       </c>
       <c r="C131" t="s">
-        <v>510</v>
+        <v>141</v>
       </c>
       <c r="D131" t="s">
-        <v>511</v>
+        <v>348</v>
       </c>
       <c r="E131" t="s">
-        <v>512</v>
+        <v>553</v>
       </c>
       <c r="H131" t="s">
-        <v>513</v>
+        <v>741</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>501</v>
+        <v>11</v>
       </c>
       <c r="B132">
         <v>4</v>
       </c>
       <c r="C132" t="s">
-        <v>514</v>
+        <v>142</v>
       </c>
       <c r="D132" t="s">
-        <v>515</v>
+        <v>349</v>
       </c>
       <c r="E132" t="s">
-        <v>516</v>
+        <v>554</v>
       </c>
       <c r="H132" t="s">
-        <v>517</v>
+        <v>742</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>501</v>
+        <v>11</v>
       </c>
       <c r="B133">
         <v>5</v>
       </c>
       <c r="C133" t="s">
-        <v>518</v>
+        <v>143</v>
       </c>
       <c r="D133" t="s">
-        <v>519</v>
+        <v>350</v>
       </c>
       <c r="E133" t="s">
-        <v>520</v>
+        <v>555</v>
       </c>
       <c r="H133" t="s">
-        <v>521</v>
+        <v>743</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C134" t="s">
-        <v>522</v>
+        <v>144</v>
       </c>
       <c r="D134" t="s">
-        <v>523</v>
+        <v>351</v>
       </c>
       <c r="E134" t="s">
-        <v>524</v>
+        <v>556</v>
       </c>
       <c r="H134" t="s">
-        <v>525</v>
+        <v>744</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>501</v>
+        <v>11</v>
       </c>
       <c r="C135" t="s">
-        <v>526</v>
+        <v>145</v>
       </c>
       <c r="D135" t="s">
-        <v>527</v>
+        <v>352</v>
       </c>
       <c r="E135" t="s">
-        <v>528</v>
+        <v>557</v>
       </c>
       <c r="H135" t="s">
-        <v>529</v>
+        <v>745</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C136" t="s">
-        <v>530</v>
+        <v>146</v>
       </c>
       <c r="D136" t="s">
-        <v>531</v>
+        <v>353</v>
       </c>
       <c r="E136" t="s">
-        <v>532</v>
+        <v>558</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>501</v>
+        <v>11</v>
       </c>
       <c r="B137">
         <v>6</v>
       </c>
       <c r="C137" t="s">
-        <v>533</v>
+        <v>147</v>
       </c>
       <c r="D137" t="s">
-        <v>534</v>
+        <v>354</v>
       </c>
       <c r="E137" t="s">
-        <v>535</v>
+        <v>559</v>
       </c>
       <c r="H137" t="s">
-        <v>536</v>
+        <v>746</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>501</v>
+        <v>11</v>
       </c>
       <c r="C138" t="s">
-        <v>537</v>
+        <v>148</v>
       </c>
       <c r="D138" t="s">
-        <v>538</v>
+        <v>355</v>
       </c>
       <c r="E138" t="s">
-        <v>539</v>
+        <v>560</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>501</v>
+        <v>11</v>
       </c>
       <c r="C139" t="s">
-        <v>540</v>
+        <v>149</v>
       </c>
       <c r="D139" t="s">
-        <v>541</v>
+        <v>356</v>
       </c>
       <c r="E139" t="s">
-        <v>542</v>
+        <v>561</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>501</v>
+        <v>11</v>
       </c>
       <c r="B140">
         <v>7</v>
       </c>
       <c r="C140" t="s">
-        <v>543</v>
+        <v>150</v>
       </c>
       <c r="D140" t="s">
-        <v>544</v>
+        <v>357</v>
       </c>
       <c r="E140" t="s">
-        <v>545</v>
+        <v>562</v>
       </c>
       <c r="H140" t="s">
-        <v>546</v>
+        <v>747</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>501</v>
+        <v>11</v>
       </c>
       <c r="C141" t="s">
-        <v>547</v>
+        <v>151</v>
       </c>
       <c r="D141" t="s">
-        <v>548</v>
+        <v>358</v>
       </c>
       <c r="E141" t="s">
-        <v>549</v>
+        <v>563</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>501</v>
+        <v>11</v>
       </c>
       <c r="C142" t="s">
-        <v>550</v>
+        <v>152</v>
       </c>
       <c r="D142" t="s">
-        <v>551</v>
+        <v>359</v>
       </c>
       <c r="E142" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>501</v>
+        <v>11</v>
       </c>
       <c r="B143">
         <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>553</v>
+        <v>153</v>
       </c>
       <c r="D143" t="s">
-        <v>554</v>
+        <v>360</v>
       </c>
       <c r="E143" t="s">
-        <v>555</v>
+        <v>565</v>
       </c>
       <c r="H143" t="s">
-        <v>556</v>
+        <v>748</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>501</v>
+        <v>11</v>
       </c>
       <c r="C144" t="s">
-        <v>557</v>
+        <v>154</v>
       </c>
       <c r="D144" t="s">
-        <v>558</v>
+        <v>361</v>
       </c>
       <c r="E144" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>501</v>
+        <v>11</v>
       </c>
       <c r="C145" t="s">
-        <v>560</v>
+        <v>155</v>
       </c>
       <c r="D145" t="s">
-        <v>561</v>
+        <v>362</v>
       </c>
       <c r="E145" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>501</v>
+        <v>11</v>
       </c>
       <c r="B146">
         <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>563</v>
+        <v>156</v>
       </c>
       <c r="D146" t="s">
-        <v>564</v>
+        <v>363</v>
       </c>
       <c r="E146" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="H146" t="s">
-        <v>566</v>
+        <v>749</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>501</v>
+        <v>11</v>
       </c>
       <c r="C147" t="s">
-        <v>567</v>
+        <v>157</v>
       </c>
       <c r="D147" t="s">
-        <v>568</v>
+        <v>364</v>
       </c>
       <c r="E147" t="s">
         <v>569</v>
@@ -6637,592 +7013,592 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>501</v>
+        <v>11</v>
       </c>
       <c r="C148" t="s">
+        <v>158</v>
+      </c>
+      <c r="D148" t="s">
+        <v>365</v>
+      </c>
+      <c r="E148" t="s">
         <v>570</v>
-      </c>
-      <c r="D148" t="s">
-        <v>571</v>
-      </c>
-      <c r="E148" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>501</v>
+        <v>11</v>
       </c>
       <c r="B149">
         <v>10</v>
       </c>
       <c r="C149" t="s">
-        <v>573</v>
+        <v>159</v>
       </c>
       <c r="D149" t="s">
-        <v>574</v>
+        <v>366</v>
       </c>
       <c r="E149" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="H149" t="s">
-        <v>576</v>
+        <v>750</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>501</v>
+        <v>11</v>
       </c>
       <c r="B150">
         <v>11</v>
       </c>
       <c r="C150" t="s">
-        <v>577</v>
+        <v>160</v>
       </c>
       <c r="D150" t="s">
-        <v>578</v>
+        <v>367</v>
       </c>
       <c r="E150" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="H150" t="s">
-        <v>580</v>
+        <v>751</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>501</v>
+        <v>11</v>
       </c>
       <c r="B151">
         <v>12</v>
       </c>
       <c r="C151" t="s">
-        <v>581</v>
+        <v>161</v>
       </c>
       <c r="D151" t="s">
-        <v>582</v>
+        <v>368</v>
       </c>
       <c r="E151" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="H151" t="s">
-        <v>584</v>
+        <v>752</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>501</v>
+        <v>11</v>
       </c>
       <c r="C152" t="s">
-        <v>585</v>
+        <v>162</v>
       </c>
       <c r="D152" t="s">
-        <v>586</v>
+        <v>369</v>
       </c>
       <c r="E152" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>501</v>
+        <v>11</v>
       </c>
       <c r="C153" t="s">
-        <v>588</v>
+        <v>163</v>
       </c>
       <c r="D153" t="s">
-        <v>589</v>
+        <v>370</v>
       </c>
       <c r="E153" t="s">
-        <v>590</v>
+        <v>575</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>501</v>
+        <v>11</v>
       </c>
       <c r="B154">
         <v>13</v>
       </c>
       <c r="C154" t="s">
-        <v>591</v>
+        <v>164</v>
       </c>
       <c r="D154" t="s">
-        <v>592</v>
+        <v>371</v>
       </c>
       <c r="E154" t="s">
-        <v>593</v>
+        <v>576</v>
       </c>
       <c r="H154" t="s">
-        <v>594</v>
+        <v>753</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>501</v>
+        <v>11</v>
       </c>
       <c r="C155" t="s">
-        <v>595</v>
+        <v>165</v>
       </c>
       <c r="D155" t="s">
-        <v>596</v>
+        <v>372</v>
       </c>
       <c r="E155" t="s">
-        <v>597</v>
+        <v>577</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>501</v>
+        <v>11</v>
       </c>
       <c r="C156" t="s">
-        <v>598</v>
+        <v>166</v>
       </c>
       <c r="D156" t="s">
-        <v>599</v>
+        <v>373</v>
       </c>
       <c r="E156" t="s">
-        <v>600</v>
+        <v>578</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>501</v>
+        <v>11</v>
       </c>
       <c r="B157">
         <v>14</v>
       </c>
       <c r="C157" t="s">
-        <v>601</v>
+        <v>167</v>
       </c>
       <c r="D157" t="s">
-        <v>602</v>
+        <v>374</v>
       </c>
       <c r="E157" t="s">
-        <v>603</v>
+        <v>579</v>
       </c>
       <c r="H157" t="s">
-        <v>604</v>
+        <v>754</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>501</v>
+        <v>11</v>
       </c>
       <c r="B158">
         <v>15</v>
       </c>
       <c r="C158" t="s">
-        <v>605</v>
+        <v>168</v>
       </c>
       <c r="D158" t="s">
-        <v>606</v>
+        <v>375</v>
       </c>
       <c r="E158" t="s">
-        <v>607</v>
+        <v>580</v>
       </c>
       <c r="H158" t="s">
-        <v>608</v>
+        <v>755</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>501</v>
+        <v>11</v>
       </c>
       <c r="C159" t="s">
-        <v>609</v>
+        <v>169</v>
       </c>
       <c r="D159" t="s">
-        <v>610</v>
+        <v>376</v>
       </c>
       <c r="E159" t="s">
-        <v>611</v>
+        <v>581</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>501</v>
+        <v>11</v>
       </c>
       <c r="C160" t="s">
-        <v>612</v>
+        <v>170</v>
       </c>
       <c r="D160" t="s">
-        <v>613</v>
+        <v>377</v>
       </c>
       <c r="E160" t="s">
-        <v>614</v>
+        <v>582</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>501</v>
+        <v>11</v>
       </c>
       <c r="B161">
         <v>16</v>
       </c>
       <c r="C161" t="s">
-        <v>615</v>
+        <v>171</v>
       </c>
       <c r="D161" t="s">
-        <v>616</v>
+        <v>378</v>
       </c>
       <c r="E161" t="s">
-        <v>617</v>
+        <v>583</v>
       </c>
       <c r="H161" t="s">
-        <v>618</v>
+        <v>756</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>501</v>
+        <v>11</v>
       </c>
       <c r="B162">
         <v>17</v>
       </c>
       <c r="C162" t="s">
-        <v>619</v>
+        <v>172</v>
       </c>
       <c r="D162" t="s">
-        <v>620</v>
+        <v>379</v>
       </c>
       <c r="E162" t="s">
-        <v>621</v>
+        <v>584</v>
       </c>
       <c r="H162" t="s">
-        <v>622</v>
+        <v>757</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>501</v>
+        <v>11</v>
       </c>
       <c r="B163">
         <v>18</v>
       </c>
       <c r="C163" t="s">
-        <v>623</v>
+        <v>173</v>
       </c>
       <c r="D163" t="s">
-        <v>624</v>
+        <v>380</v>
       </c>
       <c r="E163" t="s">
-        <v>625</v>
+        <v>585</v>
       </c>
       <c r="H163" t="s">
-        <v>626</v>
+        <v>758</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>501</v>
+        <v>11</v>
       </c>
       <c r="C164" t="s">
-        <v>627</v>
+        <v>174</v>
       </c>
       <c r="D164" t="s">
-        <v>628</v>
+        <v>381</v>
       </c>
       <c r="E164" t="s">
-        <v>629</v>
+        <v>586</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>501</v>
+        <v>11</v>
       </c>
       <c r="C165" t="s">
-        <v>630</v>
+        <v>175</v>
       </c>
       <c r="D165" t="s">
-        <v>631</v>
+        <v>382</v>
       </c>
       <c r="E165" t="s">
-        <v>632</v>
+        <v>587</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>501</v>
+        <v>11</v>
       </c>
       <c r="B166">
         <v>19</v>
       </c>
       <c r="C166" t="s">
-        <v>633</v>
+        <v>176</v>
       </c>
       <c r="D166" t="s">
-        <v>634</v>
+        <v>383</v>
       </c>
       <c r="E166" t="s">
-        <v>635</v>
+        <v>588</v>
       </c>
       <c r="H166" t="s">
-        <v>636</v>
+        <v>759</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>501</v>
+        <v>11</v>
       </c>
       <c r="B167">
         <v>20</v>
       </c>
       <c r="C167" t="s">
-        <v>637</v>
+        <v>177</v>
       </c>
       <c r="D167" t="s">
-        <v>638</v>
+        <v>384</v>
       </c>
       <c r="E167" t="s">
-        <v>639</v>
+        <v>589</v>
       </c>
       <c r="H167" t="s">
-        <v>640</v>
+        <v>760</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>501</v>
+        <v>11</v>
       </c>
       <c r="C168" t="s">
-        <v>641</v>
+        <v>178</v>
       </c>
       <c r="D168" t="s">
-        <v>642</v>
+        <v>385</v>
       </c>
       <c r="E168" t="s">
-        <v>643</v>
+        <v>590</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>501</v>
+        <v>11</v>
       </c>
       <c r="C169" t="s">
-        <v>644</v>
+        <v>179</v>
       </c>
       <c r="D169" t="s">
-        <v>645</v>
+        <v>386</v>
       </c>
       <c r="E169" t="s">
-        <v>646</v>
+        <v>591</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>501</v>
+        <v>11</v>
       </c>
       <c r="B170">
         <v>21</v>
       </c>
       <c r="C170" t="s">
-        <v>647</v>
+        <v>180</v>
       </c>
       <c r="D170" t="s">
-        <v>648</v>
+        <v>387</v>
       </c>
       <c r="E170" t="s">
-        <v>649</v>
+        <v>592</v>
       </c>
       <c r="H170" t="s">
-        <v>650</v>
+        <v>761</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>501</v>
+        <v>11</v>
       </c>
       <c r="B171">
         <v>22</v>
       </c>
       <c r="C171" t="s">
-        <v>651</v>
+        <v>181</v>
       </c>
       <c r="D171" t="s">
-        <v>652</v>
+        <v>388</v>
       </c>
       <c r="E171" t="s">
-        <v>653</v>
+        <v>593</v>
       </c>
       <c r="H171" t="s">
-        <v>654</v>
+        <v>762</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>501</v>
+        <v>11</v>
       </c>
       <c r="B172">
         <v>23</v>
       </c>
       <c r="C172" t="s">
-        <v>655</v>
+        <v>182</v>
       </c>
       <c r="D172" t="s">
-        <v>656</v>
+        <v>389</v>
       </c>
       <c r="E172" t="s">
-        <v>657</v>
+        <v>594</v>
       </c>
       <c r="H172" t="s">
-        <v>658</v>
+        <v>763</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>501</v>
+        <v>11</v>
       </c>
       <c r="B173">
         <v>24</v>
       </c>
       <c r="C173" t="s">
-        <v>659</v>
+        <v>183</v>
       </c>
       <c r="D173" t="s">
-        <v>660</v>
+        <v>390</v>
       </c>
       <c r="E173" t="s">
-        <v>661</v>
+        <v>595</v>
       </c>
       <c r="H173" t="s">
-        <v>662</v>
+        <v>764</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>501</v>
+        <v>11</v>
       </c>
       <c r="B174">
         <v>25</v>
       </c>
       <c r="C174" t="s">
-        <v>663</v>
+        <v>184</v>
       </c>
       <c r="D174" t="s">
-        <v>664</v>
+        <v>391</v>
       </c>
       <c r="E174" t="s">
-        <v>665</v>
+        <v>596</v>
       </c>
       <c r="H174" t="s">
-        <v>666</v>
+        <v>765</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>501</v>
+        <v>11</v>
       </c>
       <c r="C175" t="s">
-        <v>667</v>
+        <v>185</v>
       </c>
       <c r="D175" t="s">
-        <v>668</v>
+        <v>392</v>
       </c>
       <c r="E175" t="s">
-        <v>669</v>
+        <v>597</v>
       </c>
       <c r="H175" t="s">
-        <v>670</v>
+        <v>766</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>501</v>
+        <v>11</v>
       </c>
       <c r="C176" t="s">
-        <v>671</v>
+        <v>186</v>
       </c>
       <c r="D176" t="s">
-        <v>672</v>
+        <v>393</v>
       </c>
       <c r="E176" t="s">
-        <v>673</v>
+        <v>598</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>501</v>
+        <v>11</v>
       </c>
       <c r="C177" t="s">
-        <v>674</v>
+        <v>187</v>
       </c>
       <c r="D177" t="s">
-        <v>675</v>
+        <v>394</v>
       </c>
       <c r="E177" t="s">
-        <v>676</v>
+        <v>599</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>501</v>
+        <v>11</v>
       </c>
       <c r="C178" t="s">
-        <v>677</v>
+        <v>188</v>
       </c>
       <c r="D178" t="s">
-        <v>678</v>
+        <v>395</v>
       </c>
       <c r="E178" t="s">
-        <v>679</v>
+        <v>600</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>501</v>
+        <v>11</v>
       </c>
       <c r="B179">
         <v>26</v>
       </c>
       <c r="C179" t="s">
-        <v>680</v>
+        <v>189</v>
       </c>
       <c r="D179" t="s">
-        <v>681</v>
+        <v>396</v>
       </c>
       <c r="E179" t="s">
-        <v>682</v>
+        <v>601</v>
       </c>
       <c r="H179" t="s">
-        <v>683</v>
+        <v>767</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>501</v>
+        <v>11</v>
       </c>
       <c r="B180">
         <v>27</v>
       </c>
       <c r="C180" t="s">
-        <v>684</v>
+        <v>190</v>
       </c>
       <c r="D180" t="s">
-        <v>685</v>
+        <v>397</v>
       </c>
       <c r="E180" t="s">
-        <v>686</v>
+        <v>602</v>
       </c>
       <c r="H180" t="s">
-        <v>687</v>
+        <v>768</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>501</v>
+        <v>11</v>
       </c>
       <c r="C181" t="s">
-        <v>688</v>
+        <v>191</v>
       </c>
       <c r="D181" t="s">
-        <v>689</v>
+        <v>398</v>
       </c>
       <c r="E181" t="s">
-        <v>690</v>
+        <v>603</v>
       </c>
       <c r="H181" t="s">
-        <v>691</v>
+        <v>769</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
@@ -7230,13 +7606,13 @@
         <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>692</v>
+        <v>192</v>
       </c>
       <c r="D182" t="s">
-        <v>693</v>
+        <v>399</v>
       </c>
       <c r="E182" t="s">
-        <v>694</v>
+        <v>604</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
@@ -7244,13 +7620,13 @@
         <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>695</v>
+        <v>193</v>
       </c>
       <c r="D183" t="s">
-        <v>696</v>
+        <v>400</v>
       </c>
       <c r="E183" t="s">
-        <v>697</v>
+        <v>605</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
@@ -7261,13 +7637,13 @@
         <v>25</v>
       </c>
       <c r="C184" t="s">
-        <v>698</v>
+        <v>194</v>
       </c>
       <c r="D184" t="s">
-        <v>699</v>
+        <v>401</v>
       </c>
       <c r="E184" t="s">
-        <v>700</v>
+        <v>606</v>
       </c>
       <c r="F184">
         <v>4</v>
@@ -7276,7 +7652,7 @@
         <v>4</v>
       </c>
       <c r="H184" t="s">
-        <v>701</v>
+        <v>770</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
@@ -7287,13 +7663,13 @@
         <v>25</v>
       </c>
       <c r="C185" t="s">
-        <v>702</v>
+        <v>195</v>
       </c>
       <c r="D185" t="s">
-        <v>699</v>
+        <v>791</v>
       </c>
       <c r="E185" t="s">
-        <v>703</v>
+        <v>607</v>
       </c>
       <c r="F185">
         <v>4</v>
@@ -7302,7 +7678,7 @@
         <v>4</v>
       </c>
       <c r="H185" t="s">
-        <v>704</v>
+        <v>771</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
@@ -7313,13 +7689,13 @@
         <v>26</v>
       </c>
       <c r="C186" t="s">
-        <v>705</v>
+        <v>196</v>
       </c>
       <c r="D186" t="s">
-        <v>706</v>
+        <v>402</v>
       </c>
       <c r="E186" t="s">
-        <v>707</v>
+        <v>608</v>
       </c>
       <c r="F186">
         <v>46</v>
@@ -7328,7 +7704,7 @@
         <v>2</v>
       </c>
       <c r="H186" t="s">
-        <v>708</v>
+        <v>772</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
@@ -7339,13 +7715,13 @@
         <v>26</v>
       </c>
       <c r="C187" t="s">
-        <v>709</v>
+        <v>197</v>
       </c>
       <c r="D187" t="s">
-        <v>710</v>
+        <v>403</v>
       </c>
       <c r="E187" t="s">
-        <v>711</v>
+        <v>609</v>
       </c>
       <c r="F187">
         <v>46</v>
@@ -7354,10 +7730,475 @@
         <v>2</v>
       </c>
       <c r="H187" t="s">
-        <v>712</v>
+        <v>773</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>8</v>
+      </c>
+      <c r="C188" t="s">
+        <v>198</v>
+      </c>
+      <c r="D188" t="s">
+        <v>404</v>
+      </c>
+      <c r="E188" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>8</v>
+      </c>
+      <c r="C189" t="s">
+        <v>199</v>
+      </c>
+      <c r="D189" t="s">
+        <v>405</v>
+      </c>
+      <c r="E189" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>8</v>
+      </c>
+      <c r="B190">
+        <v>27</v>
+      </c>
+      <c r="C190" t="s">
+        <v>200</v>
+      </c>
+      <c r="D190" t="s">
+        <v>406</v>
+      </c>
+      <c r="E190" t="s">
+        <v>612</v>
+      </c>
+      <c r="F190">
+        <v>27</v>
+      </c>
+      <c r="G190">
+        <v>6</v>
+      </c>
+      <c r="H190" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>8</v>
+      </c>
+      <c r="B191">
+        <v>27</v>
+      </c>
+      <c r="C191" t="s">
+        <v>201</v>
+      </c>
+      <c r="D191" t="s">
+        <v>407</v>
+      </c>
+      <c r="E191" t="s">
+        <v>613</v>
+      </c>
+      <c r="F191">
+        <v>27</v>
+      </c>
+      <c r="G191">
+        <v>6</v>
+      </c>
+      <c r="H191" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>8</v>
+      </c>
+      <c r="B192">
+        <v>28</v>
+      </c>
+      <c r="C192" t="s">
+        <v>202</v>
+      </c>
+      <c r="D192" t="s">
+        <v>408</v>
+      </c>
+      <c r="E192" t="s">
+        <v>614</v>
+      </c>
+      <c r="F192">
+        <v>58</v>
+      </c>
+      <c r="G192">
+        <v>2</v>
+      </c>
+      <c r="H192" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>8</v>
+      </c>
+      <c r="B193">
+        <v>28</v>
+      </c>
+      <c r="C193" t="s">
+        <v>203</v>
+      </c>
+      <c r="D193" t="s">
+        <v>409</v>
+      </c>
+      <c r="E193" t="s">
+        <v>615</v>
+      </c>
+      <c r="F193">
+        <v>58</v>
+      </c>
+      <c r="G193">
+        <v>2</v>
+      </c>
+      <c r="H193" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>8</v>
+      </c>
+      <c r="C194" t="s">
+        <v>204</v>
+      </c>
+      <c r="D194" t="s">
+        <v>410</v>
+      </c>
+      <c r="E194" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>8</v>
+      </c>
+      <c r="C195" t="s">
+        <v>205</v>
+      </c>
+      <c r="D195" t="s">
+        <v>411</v>
+      </c>
+      <c r="E195" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>8</v>
+      </c>
+      <c r="B196">
+        <v>29</v>
+      </c>
+      <c r="C196" t="s">
+        <v>206</v>
+      </c>
+      <c r="D196" t="s">
+        <v>412</v>
+      </c>
+      <c r="E196" t="s">
+        <v>618</v>
+      </c>
+      <c r="F196">
+        <v>1</v>
+      </c>
+      <c r="G196">
+        <v>5</v>
+      </c>
+      <c r="H196" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>8</v>
+      </c>
+      <c r="B197">
+        <v>29</v>
+      </c>
+      <c r="C197" t="s">
+        <v>207</v>
+      </c>
+      <c r="D197" t="s">
+        <v>413</v>
+      </c>
+      <c r="E197" t="s">
+        <v>619</v>
+      </c>
+      <c r="F197">
+        <v>1</v>
+      </c>
+      <c r="G197">
+        <v>5</v>
+      </c>
+      <c r="H197" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>8</v>
+      </c>
+      <c r="B198">
+        <v>30</v>
+      </c>
+      <c r="C198" t="s">
+        <v>208</v>
+      </c>
+      <c r="D198" t="s">
+        <v>414</v>
+      </c>
+      <c r="E198" t="s">
+        <v>620</v>
+      </c>
+      <c r="F198">
+        <v>53</v>
+      </c>
+      <c r="G198">
+        <v>3</v>
+      </c>
+      <c r="H198" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>8</v>
+      </c>
+      <c r="B199">
+        <v>30</v>
+      </c>
+      <c r="C199" t="s">
+        <v>209</v>
+      </c>
+      <c r="D199" t="s">
+        <v>415</v>
+      </c>
+      <c r="E199" t="s">
+        <v>621</v>
+      </c>
+      <c r="F199">
+        <v>53</v>
+      </c>
+      <c r="G199">
+        <v>3</v>
+      </c>
+      <c r="H199" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>8</v>
+      </c>
+      <c r="B200">
+        <v>31</v>
+      </c>
+      <c r="C200" t="s">
+        <v>210</v>
+      </c>
+      <c r="D200" t="s">
+        <v>416</v>
+      </c>
+      <c r="E200" t="s">
+        <v>622</v>
+      </c>
+      <c r="F200">
+        <v>37</v>
+      </c>
+      <c r="G200">
+        <v>2</v>
+      </c>
+      <c r="H200" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>8</v>
+      </c>
+      <c r="B201">
+        <v>31</v>
+      </c>
+      <c r="C201" t="s">
+        <v>211</v>
+      </c>
+      <c r="D201" t="s">
+        <v>417</v>
+      </c>
+      <c r="E201" t="s">
+        <v>623</v>
+      </c>
+      <c r="F201">
+        <v>37</v>
+      </c>
+      <c r="G201">
+        <v>2</v>
+      </c>
+      <c r="H201" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>8</v>
+      </c>
+      <c r="C202" t="s">
+        <v>212</v>
+      </c>
+      <c r="D202" t="s">
+        <v>418</v>
+      </c>
+      <c r="E202" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>8</v>
+      </c>
+      <c r="C203" t="s">
+        <v>213</v>
+      </c>
+      <c r="D203" t="s">
+        <v>419</v>
+      </c>
+      <c r="E203" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>8</v>
+      </c>
+      <c r="B204">
+        <v>32</v>
+      </c>
+      <c r="C204" t="s">
+        <v>214</v>
+      </c>
+      <c r="D204" t="s">
+        <v>420</v>
+      </c>
+      <c r="E204" t="s">
+        <v>625</v>
+      </c>
+      <c r="F204">
+        <v>8</v>
+      </c>
+      <c r="G204">
+        <v>3</v>
+      </c>
+      <c r="H204" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>8</v>
+      </c>
+      <c r="B205">
+        <v>32</v>
+      </c>
+      <c r="C205" t="s">
+        <v>215</v>
+      </c>
+      <c r="D205" t="s">
+        <v>421</v>
+      </c>
+      <c r="E205" t="s">
+        <v>626</v>
+      </c>
+      <c r="F205">
+        <v>8</v>
+      </c>
+      <c r="G205">
+        <v>3</v>
+      </c>
+      <c r="H205" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>8</v>
+      </c>
+      <c r="B206">
+        <v>33</v>
+      </c>
+      <c r="C206" t="s">
+        <v>216</v>
+      </c>
+      <c r="D206" t="s">
+        <v>789</v>
+      </c>
+      <c r="E206" t="s">
+        <v>627</v>
+      </c>
+      <c r="F206">
+        <v>50</v>
+      </c>
+      <c r="G206">
+        <v>3</v>
+      </c>
+      <c r="H206" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>8</v>
+      </c>
+      <c r="B207">
+        <v>33</v>
+      </c>
+      <c r="C207" t="s">
+        <v>217</v>
+      </c>
+      <c r="D207" t="s">
+        <v>422</v>
+      </c>
+      <c r="E207" t="s">
+        <v>628</v>
+      </c>
+      <c r="F207">
+        <v>50</v>
+      </c>
+      <c r="G207">
+        <v>3</v>
+      </c>
+      <c r="H207" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>8</v>
+      </c>
+      <c r="C208" t="s">
+        <v>218</v>
+      </c>
+      <c r="D208" t="s">
+        <v>423</v>
+      </c>
+      <c r="E208" t="s">
+        <v>629</v>
+      </c>
+      <c r="H208" t="s">
+        <v>788</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Exp_Record_Alfa.xlsx
+++ b/Exp_Record_Alfa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E955D33-7961-4FB6-8B33-3B7AE43F8C56}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34897AF3-5FDE-41C5-95DC-D0C1E3AB4594}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="26295" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1530" yWindow="3390" windowWidth="26295" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="792">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="860">
   <si>
     <t>Exp_collection</t>
   </si>
@@ -1558,6 +1558,132 @@
 complete</t>
   </si>
   <si>
+    <t>Rf mapper 2.0 started at 1041
+1, 3, 8 degrees all in one. Hes a little thrown off by differing sizes
+5 blocks complete at 1047. only took 6 min!
+Focus on 8- crazy
+ 62(0, 0) 3 1
+ 48 (0 0) 2 1
+ 45 (0 0) 2 1</t>
+  </si>
+  <si>
+    <t>Generate integrated Ch 62, SU. start at 11:00
+Ch 62 (0 0) 3 1 CMAES
+Climbing almost immediately 25 blocks complete at 1109</t>
+  </si>
+  <si>
+    <t>Selectivity Ch 62. start at 1115
+Ch 62 (0 0) 3
+These images have added gobors and pasupath
+5 blocks complete at 1136</t>
+  </si>
+  <si>
+    <t>Generate integrated start at 1141. Ch 48 SU
+Ch. 48 (0 0) 2 1 CMAES.
+Already climbing at block 6. very visually responsive
+Plateaued, 26 blocks complete at 1150
+Evolution very cool. Blue and pink, kinda looks like grape and lab gloved hand:</t>
+  </si>
+  <si>
+    <t>Selectivity start at 1154 for Ch 48, PCP images
+48 (0 0) 2
+Working great today, had 125 ml in the past 1.5 hrs
+5 blocks complete at 1216</t>
+  </si>
+  <si>
+    <t>Generate integrated start at 1219. Ch 45 SU(3 units total to better separate hash from SU)
+Ch 45 (0 0) 2 1 CMAES
+Reached its peak.
+27 blocks complete at 1229</t>
+  </si>
+  <si>
+    <t>Selectivity of CH 45 PCP images start at 1232
+Ch 45 (0 0) 2.
+Added 75 ml fruit medley juice.
+Blasting him.
+5 blocks complete at 1:00</t>
+  </si>
+  <si>
+    <t>Hp around 10:12
+sorted for a while
+001 at 1021 AM, rf mapping, 1, 3 and 8 deg
+ch 2 hasn't been done. -0.2,-0.2 at 8-deg, -2.7,-3.7 at 3-deg,
+complete</t>
+  </si>
+  <si>
+    <t>Ch 2 -1.4,-3.2
+002 at 10:44 AM
+LOTS OF ERRORS USING NON-BMP ref PICS. Gotta debug.
+generate integrated, 2 (-1.4,-3.2) 3 1 CMAES
+complete</t>
+  </si>
+  <si>
+    <t>003 at 1108 AM
+selectivity manifold, with some pasupathy refs
+2 (-1.4, -3.2) 3-deg
+will do 5 blocks
+complete</t>
+  </si>
+  <si>
+    <t>Next, 19 (0,-2.9) at 5-6 degrees looks doable
+004 at 1135 AM
+Generate integrated
+19 (0,-2.9) 6 CMAES
+complete</t>
+  </si>
+  <si>
+    <t>005 at 1156 AM
+manifold, selectivity
+19 (0,-2.9) 6
+Stopped!
+blocks weren't changing! Still at 1 completed block by 149…did not seem right.
+stopped and restarted after confirming number of images.
+120  + 66 + gabors ~ 191 images at, 4-5 images per trial, should be about 42 correct trials per block, right?
+nope, was 87. Wat?
+stopped</t>
+  </si>
+  <si>
+    <t>005 at 1156 AM
+manifold, selectivity
+19 (0,-2.9) 6
+completed</t>
+  </si>
+  <si>
+    <t>Hp at 950
+001 at 1001 AM
+rf mapping at 1, 3 and 8 degrees, center (0,0)
+rf 5 (-2.2,-1.3) 3 deg
+completed</t>
+  </si>
+  <si>
+    <t>002 at 1015 AM
+generate integrated
+5 (-2.2, 1.3) 3 1, CMAES, MU 3/5,
+completed</t>
+  </si>
+  <si>
+    <t>003 at 1045 AM
+selectivity manifold
+5 (-2.2, -1.3) 3 1
+abbreviated pasupathy images included
+performance is 79% overall, 66% block 4. Slowing down, he is.
+completed</t>
+  </si>
+  <si>
+    <t>004 at 1115 AM
+15 (0,0) 3 1 CMAES, 5/5 hash
+climbing, mostly recruiting a new single unit.
+looks like it likes convex surfaces, as in bowls.
+completed</t>
+  </si>
+  <si>
+    <t>005 at 1152 AM
+15 (0,) 3 1, selectivity manifold
+with pasupathy refs, brief
+oof, slowing down so much. 52% performance, down from 67%, and only one 1 block completed
+completed</t>
+  </si>
+  <si>
     <t>Alfa64chan-19112019-009</t>
   </si>
   <si>
@@ -2107,6 +2233,9 @@
     <t>Alfa64chan-07042020-004</t>
   </si>
   <si>
+    <t>Alfa64chan-07042020-005</t>
+  </si>
+  <si>
     <t>Alfa64chan-07042020-006</t>
   </si>
   <si>
@@ -2167,12 +2296,69 @@
     <t>Alfa64chan-16042020-004</t>
   </si>
   <si>
+    <t>Alfa64chan-16042020-006</t>
+  </si>
+  <si>
     <t>Alfa64chan-16042020-008</t>
   </si>
   <si>
     <t>Alfa64chan-16042020-009</t>
   </si>
   <si>
+    <t>Alfa64chan-21042020-001</t>
+  </si>
+  <si>
+    <t>Alfa64chan-21042020-002</t>
+  </si>
+  <si>
+    <t>Alfa64chan-21042020-003</t>
+  </si>
+  <si>
+    <t>Alfa64chan-21042020-004</t>
+  </si>
+  <si>
+    <t>Alfa64chan-21042020-005</t>
+  </si>
+  <si>
+    <t>Alfa64chan-21042020-006</t>
+  </si>
+  <si>
+    <t>Alfa64chan-21042020-007</t>
+  </si>
+  <si>
+    <t>Alfa64chan-22042020-001</t>
+  </si>
+  <si>
+    <t>Alfa64chan-22042020-002</t>
+  </si>
+  <si>
+    <t>Alfa64chan-22042020-003</t>
+  </si>
+  <si>
+    <t>Alfa64chan-22042020-004</t>
+  </si>
+  <si>
+    <t>Alfa64chan-22042020-005</t>
+  </si>
+  <si>
+    <t>Alfa64chan-22042020-006</t>
+  </si>
+  <si>
+    <t>Alfa64chan-24042020-001</t>
+  </si>
+  <si>
+    <t>Alfa64chan-24042020-002</t>
+  </si>
+  <si>
+    <t>Alfa64chan-24042020-003</t>
+  </si>
+  <si>
+    <t>Alfa64chan-24042020-004</t>
+  </si>
+  <si>
+    <t>Alfa64chan-24042020-005</t>
+  </si>
+  <si>
     <t>191119_Alfa_generate_parallel(3)</t>
   </si>
   <si>
@@ -2776,6 +2962,9 @@
     <t>200416_Alfa_rfMapper_basic</t>
   </si>
   <si>
+    <t>200416_Alfa_rfMapper_basic(2)</t>
+  </si>
+  <si>
     <t>200416_Alfa_generate_integrated(1)</t>
   </si>
   <si>
@@ -2791,6 +2980,60 @@
     <t>200416_Alfa_generate_integrated(3)</t>
   </si>
   <si>
+    <t>200421_Alfa_rfMapper_basic(1)</t>
+  </si>
+  <si>
+    <t>200421_Alfa_generate_integrated(1)</t>
+  </si>
+  <si>
+    <t>200421_Alfa_selectivity_basic</t>
+  </si>
+  <si>
+    <t>200421_Alfa_generate_integrated(2)</t>
+  </si>
+  <si>
+    <t>200421_Alfa_selectivity_basic(1)</t>
+  </si>
+  <si>
+    <t>200421_Alfa_generate_integrated(3)</t>
+  </si>
+  <si>
+    <t>200421_Alfa_selectivity_basic(2)</t>
+  </si>
+  <si>
+    <t>200422_Alfa_rfMapper_basic</t>
+  </si>
+  <si>
+    <t>200422_Alfa_generate_integrated</t>
+  </si>
+  <si>
+    <t>200422_Alfa_selectivity_basic_first</t>
+  </si>
+  <si>
+    <t>200422_Alfa_generate_integrated(1)</t>
+  </si>
+  <si>
+    <t>200422_Alfa_selectivity_basic(1)</t>
+  </si>
+  <si>
+    <t>200422_Alfa_selectivity_basic_last</t>
+  </si>
+  <si>
+    <t>200424_Alfa_rfMapper_basic</t>
+  </si>
+  <si>
+    <t>200424_Alfa_generate_integrated</t>
+  </si>
+  <si>
+    <t>200424_Alfa_selectivity_basic</t>
+  </si>
+  <si>
+    <t>200424_Alfa_generate_integrated(1)</t>
+  </si>
+  <si>
+    <t>200424_Alfa_selectivity_basic(1)</t>
+  </si>
+  <si>
     <t>N:\Stimuli\2019-06-Evolutions\alfa-191119a</t>
   </si>
   <si>
@@ -3268,32 +3511,53 @@
     <t>N:\Stimuli\2019-12-Evolutions\2020-04-16-Alfa-01\2020-04-16-11-03-23</t>
   </si>
   <si>
-    <t>Alfa64chan-16042020-006</t>
-  </si>
-  <si>
-    <t>200416_Alfa_rfMapper_basic(2)</t>
-  </si>
-  <si>
-    <r>
-      <t>Alfa64chan-07042020-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>005</t>
-    </r>
+    <t>N:\Stimuli\2019-Manifold\alfa-200421a\2020-04-21-11-00-50</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-Manifold\alfa-200421a-selectivity</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-Manifold\alfa-200421b\2020-04-21-11-41-12</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-Manifold\alfa-200421b-selectivity</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-Manifold\alfa-200421c\2020-04-21-12-19-13</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-Manifold\alfa-200421c-selectivity</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-Manifold\alfa-200422a\2020-04-22-10-44-17</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-Manifold\alfa-200422a-selectivity</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-Manifold\alfa-200422b\2020-04-22-11-35-05</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-Manifold\alfa-200422b-selectivity</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-Manifold\alfa-200424a\2020-04-24-10-15-32</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-Manifold\alfa-200424a-selectivity</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-Manifold\alfa-200424b\2020-04-24-11-15-19</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-Manifold\alfa-200424b-selectivity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3305,13 +3569,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3695,17 +3952,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H208"/>
+  <dimension ref="A1:H226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B181" workbookViewId="0">
-      <selection activeCell="D185" sqref="D185"/>
+    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
+      <selection activeCell="C208" sqref="C208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="98" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" customWidth="1"/>
-    <col min="5" max="5" width="34" customWidth="1"/>
+    <col min="3" max="3" width="79" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" customWidth="1"/>
+    <col min="5" max="5" width="37.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -3745,10 +4002,10 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="E2" t="s">
-        <v>424</v>
+        <v>462</v>
       </c>
       <c r="F2">
         <v>29</v>
@@ -3757,7 +4014,7 @@
         <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>630</v>
+        <v>687</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -3771,10 +4028,10 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="E3" t="s">
-        <v>425</v>
+        <v>463</v>
       </c>
       <c r="F3">
         <v>29</v>
@@ -3794,10 +4051,10 @@
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="E4" t="s">
-        <v>426</v>
+        <v>464</v>
       </c>
       <c r="F4">
         <v>29</v>
@@ -3806,7 +4063,7 @@
         <v>4</v>
       </c>
       <c r="H4" t="s">
-        <v>631</v>
+        <v>688</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -3820,10 +4077,10 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="E5" t="s">
-        <v>427</v>
+        <v>465</v>
       </c>
       <c r="F5">
         <v>29</v>
@@ -3832,7 +4089,7 @@
         <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>632</v>
+        <v>689</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -3846,16 +4103,16 @@
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="E6" t="s">
-        <v>428</v>
+        <v>466</v>
       </c>
       <c r="F6">
         <v>29</v>
       </c>
       <c r="H6" t="s">
-        <v>633</v>
+        <v>690</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -3869,10 +4126,10 @@
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="E7" t="s">
-        <v>429</v>
+        <v>467</v>
       </c>
       <c r="F7">
         <v>29</v>
@@ -3881,7 +4138,7 @@
         <v>4</v>
       </c>
       <c r="H7" t="s">
-        <v>634</v>
+        <v>691</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -3895,10 +4152,10 @@
         <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="E8" t="s">
-        <v>430</v>
+        <v>468</v>
       </c>
       <c r="F8">
         <v>9</v>
@@ -3907,7 +4164,7 @@
         <v>3</v>
       </c>
       <c r="H8" t="s">
-        <v>635</v>
+        <v>692</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -3921,10 +4178,10 @@
         <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="E9" t="s">
-        <v>431</v>
+        <v>469</v>
       </c>
       <c r="F9">
         <v>9</v>
@@ -3933,7 +4190,7 @@
         <v>3</v>
       </c>
       <c r="H9" t="s">
-        <v>636</v>
+        <v>693</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -3947,10 +4204,10 @@
         <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="E10" t="s">
-        <v>432</v>
+        <v>470</v>
       </c>
       <c r="F10">
         <v>9</v>
@@ -3959,7 +4216,7 @@
         <v>3</v>
       </c>
       <c r="H10" t="s">
-        <v>637</v>
+        <v>694</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -3973,10 +4230,10 @@
         <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="E11" t="s">
-        <v>433</v>
+        <v>471</v>
       </c>
       <c r="F11">
         <v>32</v>
@@ -3985,7 +4242,7 @@
         <v>3</v>
       </c>
       <c r="H11" t="s">
-        <v>638</v>
+        <v>695</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -3999,10 +4256,10 @@
         <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="E12" t="s">
-        <v>434</v>
+        <v>472</v>
       </c>
       <c r="F12">
         <v>32</v>
@@ -4011,7 +4268,7 @@
         <v>3</v>
       </c>
       <c r="H12" t="s">
-        <v>639</v>
+        <v>696</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -4025,10 +4282,10 @@
         <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="E13" t="s">
-        <v>435</v>
+        <v>473</v>
       </c>
       <c r="F13">
         <v>32</v>
@@ -4037,7 +4294,7 @@
         <v>3</v>
       </c>
       <c r="H13" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -4045,10 +4302,10 @@
         <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>231</v>
+        <v>249</v>
       </c>
       <c r="E14" t="s">
-        <v>436</v>
+        <v>474</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -4062,10 +4319,10 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="E15" t="s">
-        <v>437</v>
+        <v>475</v>
       </c>
       <c r="F15">
         <v>3</v>
@@ -4074,7 +4331,7 @@
         <v>3</v>
       </c>
       <c r="H15" t="s">
-        <v>641</v>
+        <v>698</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -4088,10 +4345,10 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="E16" t="s">
-        <v>438</v>
+        <v>476</v>
       </c>
       <c r="F16">
         <v>3</v>
@@ -4100,7 +4357,7 @@
         <v>3</v>
       </c>
       <c r="H16" t="s">
-        <v>642</v>
+        <v>699</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -4114,10 +4371,10 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="E17" t="s">
-        <v>439</v>
+        <v>477</v>
       </c>
       <c r="F17">
         <v>3</v>
@@ -4126,7 +4383,7 @@
         <v>3</v>
       </c>
       <c r="H17" t="s">
-        <v>643</v>
+        <v>700</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -4134,10 +4391,10 @@
         <v>28</v>
       </c>
       <c r="D18" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="E18" t="s">
-        <v>440</v>
+        <v>478</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -4151,10 +4408,10 @@
         <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="E19" t="s">
-        <v>441</v>
+        <v>479</v>
       </c>
       <c r="F19">
         <v>7</v>
@@ -4163,7 +4420,7 @@
         <v>3</v>
       </c>
       <c r="H19" t="s">
-        <v>644</v>
+        <v>701</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -4177,10 +4434,10 @@
         <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="E20" t="s">
-        <v>442</v>
+        <v>480</v>
       </c>
       <c r="F20">
         <v>7</v>
@@ -4189,7 +4446,7 @@
         <v>3</v>
       </c>
       <c r="H20" t="s">
-        <v>645</v>
+        <v>702</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -4203,10 +4460,10 @@
         <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="E21" t="s">
-        <v>443</v>
+        <v>481</v>
       </c>
       <c r="F21">
         <v>7</v>
@@ -4215,7 +4472,7 @@
         <v>3</v>
       </c>
       <c r="H21" t="s">
-        <v>646</v>
+        <v>703</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -4223,10 +4480,10 @@
         <v>32</v>
       </c>
       <c r="D22" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="E22" t="s">
-        <v>444</v>
+        <v>482</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -4234,16 +4491,16 @@
         <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="E23" t="s">
-        <v>445</v>
+        <v>483</v>
       </c>
       <c r="G23">
         <v>3</v>
       </c>
       <c r="H23" t="s">
-        <v>647</v>
+        <v>704</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -4251,16 +4508,16 @@
         <v>34</v>
       </c>
       <c r="D24" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="E24" t="s">
-        <v>446</v>
+        <v>484</v>
       </c>
       <c r="G24">
         <v>4</v>
       </c>
       <c r="H24" t="s">
-        <v>648</v>
+        <v>705</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -4268,10 +4525,10 @@
         <v>35</v>
       </c>
       <c r="D25" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="E25" t="s">
-        <v>447</v>
+        <v>485</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -4285,10 +4542,10 @@
         <v>36</v>
       </c>
       <c r="D26" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="E26" t="s">
-        <v>448</v>
+        <v>486</v>
       </c>
       <c r="F26">
         <v>51</v>
@@ -4297,7 +4554,7 @@
         <v>3</v>
       </c>
       <c r="H26" t="s">
-        <v>649</v>
+        <v>706</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -4311,10 +4568,10 @@
         <v>37</v>
       </c>
       <c r="D27" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="E27" t="s">
-        <v>449</v>
+        <v>487</v>
       </c>
       <c r="F27">
         <v>51</v>
@@ -4323,7 +4580,7 @@
         <v>3</v>
       </c>
       <c r="H27" t="s">
-        <v>650</v>
+        <v>707</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -4337,10 +4594,10 @@
         <v>38</v>
       </c>
       <c r="D28" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="E28" t="s">
-        <v>450</v>
+        <v>488</v>
       </c>
       <c r="F28">
         <v>51</v>
@@ -4349,7 +4606,7 @@
         <v>3</v>
       </c>
       <c r="H28" t="s">
-        <v>651</v>
+        <v>708</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -4357,10 +4614,10 @@
         <v>39</v>
       </c>
       <c r="D29" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="E29" t="s">
-        <v>451</v>
+        <v>489</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -4374,10 +4631,10 @@
         <v>40</v>
       </c>
       <c r="D30" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="E30" t="s">
-        <v>452</v>
+        <v>490</v>
       </c>
       <c r="F30">
         <v>7</v>
@@ -4386,7 +4643,7 @@
         <v>3</v>
       </c>
       <c r="H30" t="s">
-        <v>652</v>
+        <v>709</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -4400,10 +4657,10 @@
         <v>41</v>
       </c>
       <c r="D31" t="s">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="E31" t="s">
-        <v>453</v>
+        <v>491</v>
       </c>
       <c r="F31">
         <v>7</v>
@@ -4412,7 +4669,7 @@
         <v>3</v>
       </c>
       <c r="H31" t="s">
-        <v>653</v>
+        <v>710</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -4426,10 +4683,10 @@
         <v>42</v>
       </c>
       <c r="D32" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="E32" t="s">
-        <v>454</v>
+        <v>492</v>
       </c>
       <c r="F32">
         <v>7</v>
@@ -4438,7 +4695,7 @@
         <v>3</v>
       </c>
       <c r="H32" t="s">
-        <v>654</v>
+        <v>711</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -4446,10 +4703,10 @@
         <v>43</v>
       </c>
       <c r="D33" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="E33" t="s">
-        <v>455</v>
+        <v>493</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -4463,10 +4720,10 @@
         <v>44</v>
       </c>
       <c r="D34" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="E34" t="s">
-        <v>456</v>
+        <v>494</v>
       </c>
       <c r="F34">
         <v>7</v>
@@ -4475,7 +4732,7 @@
         <v>3</v>
       </c>
       <c r="H34" t="s">
-        <v>655</v>
+        <v>712</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -4489,10 +4746,10 @@
         <v>45</v>
       </c>
       <c r="D35" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="E35" t="s">
-        <v>457</v>
+        <v>495</v>
       </c>
       <c r="F35">
         <v>7</v>
@@ -4501,7 +4758,7 @@
         <v>3</v>
       </c>
       <c r="H35" t="s">
-        <v>656</v>
+        <v>713</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -4515,10 +4772,10 @@
         <v>46</v>
       </c>
       <c r="D36" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="E36" t="s">
-        <v>458</v>
+        <v>496</v>
       </c>
       <c r="F36">
         <v>7</v>
@@ -4527,7 +4784,7 @@
         <v>3</v>
       </c>
       <c r="H36" t="s">
-        <v>657</v>
+        <v>714</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -4541,10 +4798,10 @@
         <v>47</v>
       </c>
       <c r="D37" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="E37" t="s">
-        <v>459</v>
+        <v>497</v>
       </c>
       <c r="F37">
         <v>36</v>
@@ -4553,7 +4810,7 @@
         <v>3</v>
       </c>
       <c r="H37" t="s">
-        <v>658</v>
+        <v>715</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -4567,10 +4824,10 @@
         <v>48</v>
       </c>
       <c r="D38" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="E38" t="s">
-        <v>460</v>
+        <v>498</v>
       </c>
       <c r="F38">
         <v>36</v>
@@ -4579,7 +4836,7 @@
         <v>3</v>
       </c>
       <c r="H38" t="s">
-        <v>659</v>
+        <v>716</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -4593,10 +4850,10 @@
         <v>49</v>
       </c>
       <c r="D39" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="E39" t="s">
-        <v>461</v>
+        <v>499</v>
       </c>
       <c r="F39">
         <v>35</v>
@@ -4605,7 +4862,7 @@
         <v>3</v>
       </c>
       <c r="H39" t="s">
-        <v>660</v>
+        <v>717</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -4619,10 +4876,10 @@
         <v>50</v>
       </c>
       <c r="D40" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="E40" t="s">
-        <v>462</v>
+        <v>500</v>
       </c>
       <c r="F40">
         <v>35</v>
@@ -4631,7 +4888,7 @@
         <v>3</v>
       </c>
       <c r="H40" t="s">
-        <v>661</v>
+        <v>718</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -4645,10 +4902,10 @@
         <v>51</v>
       </c>
       <c r="D41" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="E41" t="s">
-        <v>463</v>
+        <v>501</v>
       </c>
       <c r="F41">
         <v>35</v>
@@ -4657,7 +4914,7 @@
         <v>3</v>
       </c>
       <c r="H41" t="s">
-        <v>662</v>
+        <v>719</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -4671,10 +4928,10 @@
         <v>52</v>
       </c>
       <c r="D42" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="E42" t="s">
-        <v>464</v>
+        <v>502</v>
       </c>
       <c r="F42">
         <v>61</v>
@@ -4683,7 +4940,7 @@
         <v>3</v>
       </c>
       <c r="H42" t="s">
-        <v>663</v>
+        <v>720</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -4697,10 +4954,10 @@
         <v>53</v>
       </c>
       <c r="D43" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="E43" t="s">
-        <v>465</v>
+        <v>503</v>
       </c>
       <c r="F43">
         <v>61</v>
@@ -4709,7 +4966,7 @@
         <v>3</v>
       </c>
       <c r="H43" t="s">
-        <v>664</v>
+        <v>721</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -4723,10 +4980,10 @@
         <v>54</v>
       </c>
       <c r="D44" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="E44" t="s">
-        <v>466</v>
+        <v>504</v>
       </c>
       <c r="F44">
         <v>61</v>
@@ -4735,7 +4992,7 @@
         <v>3</v>
       </c>
       <c r="H44" t="s">
-        <v>665</v>
+        <v>722</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -4749,10 +5006,10 @@
         <v>55</v>
       </c>
       <c r="D45" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="E45" t="s">
-        <v>467</v>
+        <v>505</v>
       </c>
       <c r="F45">
         <v>33</v>
@@ -4761,7 +5018,7 @@
         <v>3</v>
       </c>
       <c r="H45" t="s">
-        <v>666</v>
+        <v>723</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -4775,10 +5032,10 @@
         <v>56</v>
       </c>
       <c r="D46" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="E46" t="s">
-        <v>468</v>
+        <v>506</v>
       </c>
       <c r="F46">
         <v>33</v>
@@ -4787,7 +5044,7 @@
         <v>3</v>
       </c>
       <c r="H46" t="s">
-        <v>667</v>
+        <v>724</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -4801,10 +5058,10 @@
         <v>57</v>
       </c>
       <c r="D47" t="s">
-        <v>264</v>
+        <v>282</v>
       </c>
       <c r="E47" t="s">
-        <v>469</v>
+        <v>507</v>
       </c>
       <c r="F47">
         <v>33</v>
@@ -4813,7 +5070,7 @@
         <v>3</v>
       </c>
       <c r="H47" t="s">
-        <v>668</v>
+        <v>725</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -4827,10 +5084,10 @@
         <v>58</v>
       </c>
       <c r="D48" t="s">
-        <v>265</v>
+        <v>283</v>
       </c>
       <c r="E48" t="s">
-        <v>470</v>
+        <v>508</v>
       </c>
       <c r="F48">
         <v>43</v>
@@ -4839,7 +5096,7 @@
         <v>3</v>
       </c>
       <c r="H48" t="s">
-        <v>669</v>
+        <v>726</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -4853,10 +5110,10 @@
         <v>59</v>
       </c>
       <c r="D49" t="s">
-        <v>266</v>
+        <v>284</v>
       </c>
       <c r="E49" t="s">
-        <v>471</v>
+        <v>509</v>
       </c>
       <c r="F49">
         <v>43</v>
@@ -4865,7 +5122,7 @@
         <v>3</v>
       </c>
       <c r="H49" t="s">
-        <v>670</v>
+        <v>727</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -4879,10 +5136,10 @@
         <v>60</v>
       </c>
       <c r="D50" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="E50" t="s">
-        <v>472</v>
+        <v>510</v>
       </c>
       <c r="F50">
         <v>43</v>
@@ -4891,7 +5148,7 @@
         <v>3</v>
       </c>
       <c r="H50" t="s">
-        <v>671</v>
+        <v>728</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -4905,10 +5162,10 @@
         <v>61</v>
       </c>
       <c r="D51" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="E51" t="s">
-        <v>473</v>
+        <v>511</v>
       </c>
       <c r="F51">
         <v>59</v>
@@ -4917,7 +5174,7 @@
         <v>3</v>
       </c>
       <c r="H51" t="s">
-        <v>672</v>
+        <v>729</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -4931,10 +5188,10 @@
         <v>62</v>
       </c>
       <c r="D52" t="s">
-        <v>269</v>
+        <v>287</v>
       </c>
       <c r="E52" t="s">
-        <v>474</v>
+        <v>512</v>
       </c>
       <c r="F52">
         <v>59</v>
@@ -4943,7 +5200,7 @@
         <v>3</v>
       </c>
       <c r="H52" t="s">
-        <v>673</v>
+        <v>730</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -4957,10 +5214,10 @@
         <v>63</v>
       </c>
       <c r="D53" t="s">
-        <v>270</v>
+        <v>288</v>
       </c>
       <c r="E53" t="s">
-        <v>475</v>
+        <v>513</v>
       </c>
       <c r="F53">
         <v>59</v>
@@ -4969,7 +5226,7 @@
         <v>3</v>
       </c>
       <c r="H53" t="s">
-        <v>674</v>
+        <v>731</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -4983,10 +5240,10 @@
         <v>64</v>
       </c>
       <c r="D54" t="s">
-        <v>271</v>
+        <v>289</v>
       </c>
       <c r="E54" t="s">
-        <v>476</v>
+        <v>514</v>
       </c>
       <c r="F54">
         <v>20</v>
@@ -4995,7 +5252,7 @@
         <v>3</v>
       </c>
       <c r="H54" t="s">
-        <v>675</v>
+        <v>732</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -5009,10 +5266,10 @@
         <v>65</v>
       </c>
       <c r="D55" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="E55" t="s">
-        <v>477</v>
+        <v>515</v>
       </c>
       <c r="F55">
         <v>20</v>
@@ -5021,7 +5278,7 @@
         <v>3</v>
       </c>
       <c r="H55" t="s">
-        <v>676</v>
+        <v>733</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -5035,10 +5292,10 @@
         <v>66</v>
       </c>
       <c r="D56" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="E56" t="s">
-        <v>478</v>
+        <v>516</v>
       </c>
       <c r="F56">
         <v>20</v>
@@ -5047,7 +5304,7 @@
         <v>3</v>
       </c>
       <c r="H56" t="s">
-        <v>677</v>
+        <v>734</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -5061,10 +5318,10 @@
         <v>67</v>
       </c>
       <c r="D57" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="E57" t="s">
-        <v>479</v>
+        <v>517</v>
       </c>
       <c r="F57">
         <v>49</v>
@@ -5073,7 +5330,7 @@
         <v>3</v>
       </c>
       <c r="H57" t="s">
-        <v>678</v>
+        <v>735</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -5087,10 +5344,10 @@
         <v>68</v>
       </c>
       <c r="D58" t="s">
-        <v>275</v>
+        <v>293</v>
       </c>
       <c r="E58" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="F58">
         <v>49</v>
@@ -5099,7 +5356,7 @@
         <v>3</v>
       </c>
       <c r="H58" t="s">
-        <v>679</v>
+        <v>736</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -5113,10 +5370,10 @@
         <v>69</v>
       </c>
       <c r="D59" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
       <c r="E59" t="s">
-        <v>481</v>
+        <v>519</v>
       </c>
       <c r="F59">
         <v>49</v>
@@ -5125,7 +5382,7 @@
         <v>3</v>
       </c>
       <c r="H59" t="s">
-        <v>680</v>
+        <v>737</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -5139,10 +5396,10 @@
         <v>70</v>
       </c>
       <c r="D60" t="s">
-        <v>277</v>
+        <v>295</v>
       </c>
       <c r="E60" t="s">
-        <v>482</v>
+        <v>520</v>
       </c>
       <c r="F60">
         <v>19</v>
@@ -5151,7 +5408,7 @@
         <v>3</v>
       </c>
       <c r="H60" t="s">
-        <v>681</v>
+        <v>738</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -5165,10 +5422,10 @@
         <v>71</v>
       </c>
       <c r="D61" t="s">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="E61" t="s">
-        <v>483</v>
+        <v>521</v>
       </c>
       <c r="F61">
         <v>19</v>
@@ -5177,7 +5434,7 @@
         <v>3</v>
       </c>
       <c r="H61" t="s">
-        <v>682</v>
+        <v>739</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -5191,10 +5448,10 @@
         <v>72</v>
       </c>
       <c r="D62" t="s">
-        <v>279</v>
+        <v>297</v>
       </c>
       <c r="E62" t="s">
-        <v>484</v>
+        <v>522</v>
       </c>
       <c r="F62">
         <v>19</v>
@@ -5203,7 +5460,7 @@
         <v>3</v>
       </c>
       <c r="H62" t="s">
-        <v>683</v>
+        <v>740</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -5217,10 +5474,10 @@
         <v>73</v>
       </c>
       <c r="D63" t="s">
-        <v>280</v>
+        <v>298</v>
       </c>
       <c r="E63" t="s">
-        <v>485</v>
+        <v>523</v>
       </c>
       <c r="F63">
         <v>12</v>
@@ -5229,7 +5486,7 @@
         <v>3</v>
       </c>
       <c r="H63" t="s">
-        <v>684</v>
+        <v>741</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -5243,10 +5500,10 @@
         <v>74</v>
       </c>
       <c r="D64" t="s">
-        <v>281</v>
+        <v>299</v>
       </c>
       <c r="E64" t="s">
-        <v>486</v>
+        <v>524</v>
       </c>
       <c r="F64">
         <v>12</v>
@@ -5255,7 +5512,7 @@
         <v>3</v>
       </c>
       <c r="H64" t="s">
-        <v>685</v>
+        <v>742</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -5269,10 +5526,10 @@
         <v>75</v>
       </c>
       <c r="D65" t="s">
-        <v>282</v>
+        <v>300</v>
       </c>
       <c r="E65" t="s">
-        <v>487</v>
+        <v>525</v>
       </c>
       <c r="F65">
         <v>12</v>
@@ -5281,7 +5538,7 @@
         <v>3</v>
       </c>
       <c r="H65" t="s">
-        <v>686</v>
+        <v>743</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -5295,10 +5552,10 @@
         <v>76</v>
       </c>
       <c r="D66" t="s">
-        <v>283</v>
+        <v>301</v>
       </c>
       <c r="E66" t="s">
-        <v>488</v>
+        <v>526</v>
       </c>
       <c r="F66">
         <v>41</v>
@@ -5307,7 +5564,7 @@
         <v>3</v>
       </c>
       <c r="H66" t="s">
-        <v>687</v>
+        <v>744</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -5321,10 +5578,10 @@
         <v>77</v>
       </c>
       <c r="D67" t="s">
-        <v>284</v>
+        <v>302</v>
       </c>
       <c r="E67" t="s">
-        <v>489</v>
+        <v>527</v>
       </c>
       <c r="F67">
         <v>41</v>
@@ -5333,7 +5590,7 @@
         <v>3</v>
       </c>
       <c r="H67" t="s">
-        <v>688</v>
+        <v>745</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -5347,10 +5604,10 @@
         <v>78</v>
       </c>
       <c r="D68" t="s">
-        <v>285</v>
+        <v>303</v>
       </c>
       <c r="E68" t="s">
-        <v>490</v>
+        <v>528</v>
       </c>
       <c r="F68">
         <v>41</v>
@@ -5359,7 +5616,7 @@
         <v>3</v>
       </c>
       <c r="H68" t="s">
-        <v>689</v>
+        <v>746</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -5373,10 +5630,10 @@
         <v>79</v>
       </c>
       <c r="D69" t="s">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="E69" t="s">
-        <v>491</v>
+        <v>529</v>
       </c>
       <c r="F69">
         <v>63</v>
@@ -5385,7 +5642,7 @@
         <v>3</v>
       </c>
       <c r="H69" t="s">
-        <v>690</v>
+        <v>747</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -5399,10 +5656,10 @@
         <v>80</v>
       </c>
       <c r="D70" t="s">
-        <v>287</v>
+        <v>305</v>
       </c>
       <c r="E70" t="s">
-        <v>492</v>
+        <v>530</v>
       </c>
       <c r="F70">
         <v>63</v>
@@ -5411,7 +5668,7 @@
         <v>3</v>
       </c>
       <c r="H70" t="s">
-        <v>691</v>
+        <v>748</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -5425,10 +5682,10 @@
         <v>81</v>
       </c>
       <c r="D71" t="s">
-        <v>288</v>
+        <v>306</v>
       </c>
       <c r="E71" t="s">
-        <v>493</v>
+        <v>531</v>
       </c>
       <c r="F71">
         <v>63</v>
@@ -5437,7 +5694,7 @@
         <v>3</v>
       </c>
       <c r="H71" t="s">
-        <v>692</v>
+        <v>749</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -5451,10 +5708,10 @@
         <v>82</v>
       </c>
       <c r="D72" t="s">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="E72" t="s">
-        <v>494</v>
+        <v>532</v>
       </c>
       <c r="F72">
         <v>38</v>
@@ -5463,7 +5720,7 @@
         <v>3</v>
       </c>
       <c r="H72" t="s">
-        <v>693</v>
+        <v>750</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -5477,10 +5734,10 @@
         <v>83</v>
       </c>
       <c r="D73" t="s">
-        <v>290</v>
+        <v>308</v>
       </c>
       <c r="E73" t="s">
-        <v>495</v>
+        <v>533</v>
       </c>
       <c r="F73">
         <v>38</v>
@@ -5489,7 +5746,7 @@
         <v>3</v>
       </c>
       <c r="H73" t="s">
-        <v>694</v>
+        <v>751</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -5503,10 +5760,10 @@
         <v>84</v>
       </c>
       <c r="D74" t="s">
-        <v>291</v>
+        <v>309</v>
       </c>
       <c r="E74" t="s">
-        <v>496</v>
+        <v>534</v>
       </c>
       <c r="F74">
         <v>38</v>
@@ -5515,7 +5772,7 @@
         <v>3</v>
       </c>
       <c r="H74" t="s">
-        <v>695</v>
+        <v>752</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -5529,10 +5786,10 @@
         <v>85</v>
       </c>
       <c r="D75" t="s">
-        <v>292</v>
+        <v>310</v>
       </c>
       <c r="E75" t="s">
-        <v>497</v>
+        <v>535</v>
       </c>
       <c r="F75">
         <v>39</v>
@@ -5541,7 +5798,7 @@
         <v>3</v>
       </c>
       <c r="H75" t="s">
-        <v>696</v>
+        <v>753</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -5555,10 +5812,10 @@
         <v>86</v>
       </c>
       <c r="D76" t="s">
-        <v>293</v>
+        <v>311</v>
       </c>
       <c r="E76" t="s">
-        <v>498</v>
+        <v>536</v>
       </c>
       <c r="F76">
         <v>39</v>
@@ -5567,7 +5824,7 @@
         <v>3</v>
       </c>
       <c r="H76" t="s">
-        <v>697</v>
+        <v>754</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -5581,10 +5838,10 @@
         <v>87</v>
       </c>
       <c r="D77" t="s">
-        <v>294</v>
+        <v>312</v>
       </c>
       <c r="E77" t="s">
-        <v>499</v>
+        <v>537</v>
       </c>
       <c r="F77">
         <v>39</v>
@@ -5593,7 +5850,7 @@
         <v>3</v>
       </c>
       <c r="H77" t="s">
-        <v>698</v>
+        <v>755</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -5607,10 +5864,10 @@
         <v>88</v>
       </c>
       <c r="D78" t="s">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="E78" t="s">
-        <v>500</v>
+        <v>538</v>
       </c>
       <c r="F78">
         <v>44</v>
@@ -5619,7 +5876,7 @@
         <v>3</v>
       </c>
       <c r="H78" t="s">
-        <v>699</v>
+        <v>756</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -5633,10 +5890,10 @@
         <v>89</v>
       </c>
       <c r="D79" t="s">
-        <v>296</v>
+        <v>314</v>
       </c>
       <c r="E79" t="s">
-        <v>501</v>
+        <v>539</v>
       </c>
       <c r="F79">
         <v>44</v>
@@ -5645,7 +5902,7 @@
         <v>3</v>
       </c>
       <c r="H79" t="s">
-        <v>700</v>
+        <v>757</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -5659,10 +5916,10 @@
         <v>90</v>
       </c>
       <c r="D80" t="s">
-        <v>297</v>
+        <v>315</v>
       </c>
       <c r="E80" t="s">
-        <v>502</v>
+        <v>540</v>
       </c>
       <c r="F80">
         <v>44</v>
@@ -5671,7 +5928,7 @@
         <v>3</v>
       </c>
       <c r="H80" t="s">
-        <v>701</v>
+        <v>758</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -5682,13 +5939,13 @@
         <v>91</v>
       </c>
       <c r="D81" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="E81" t="s">
-        <v>503</v>
+        <v>541</v>
       </c>
       <c r="H81" t="s">
-        <v>702</v>
+        <v>759</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -5699,13 +5956,13 @@
         <v>92</v>
       </c>
       <c r="D82" t="s">
-        <v>299</v>
+        <v>317</v>
       </c>
       <c r="E82" t="s">
-        <v>504</v>
+        <v>542</v>
       </c>
       <c r="H82" t="s">
-        <v>702</v>
+        <v>759</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -5719,10 +5976,10 @@
         <v>93</v>
       </c>
       <c r="D83" t="s">
-        <v>300</v>
+        <v>318</v>
       </c>
       <c r="E83" t="s">
-        <v>505</v>
+        <v>543</v>
       </c>
       <c r="F83">
         <v>13</v>
@@ -5731,7 +5988,7 @@
         <v>3</v>
       </c>
       <c r="H83" t="s">
-        <v>703</v>
+        <v>760</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -5745,10 +6002,10 @@
         <v>94</v>
       </c>
       <c r="D84" t="s">
-        <v>301</v>
+        <v>319</v>
       </c>
       <c r="E84" t="s">
-        <v>506</v>
+        <v>544</v>
       </c>
       <c r="F84">
         <v>28</v>
@@ -5757,7 +6014,7 @@
         <v>3</v>
       </c>
       <c r="H84" t="s">
-        <v>704</v>
+        <v>761</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -5771,10 +6028,10 @@
         <v>95</v>
       </c>
       <c r="D85" t="s">
-        <v>302</v>
+        <v>320</v>
       </c>
       <c r="E85" t="s">
-        <v>507</v>
+        <v>545</v>
       </c>
       <c r="F85">
         <v>20</v>
@@ -5783,7 +6040,7 @@
         <v>5</v>
       </c>
       <c r="H85" t="s">
-        <v>705</v>
+        <v>762</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -5797,10 +6054,10 @@
         <v>96</v>
       </c>
       <c r="D86" t="s">
-        <v>303</v>
+        <v>321</v>
       </c>
       <c r="E86" t="s">
-        <v>508</v>
+        <v>546</v>
       </c>
       <c r="F86">
         <v>48</v>
@@ -5809,7 +6066,7 @@
         <v>3</v>
       </c>
       <c r="H86" t="s">
-        <v>706</v>
+        <v>763</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -5820,13 +6077,13 @@
         <v>97</v>
       </c>
       <c r="D87" t="s">
-        <v>304</v>
+        <v>322</v>
       </c>
       <c r="E87" t="s">
-        <v>509</v>
+        <v>547</v>
       </c>
       <c r="H87" t="s">
-        <v>707</v>
+        <v>764</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -5837,13 +6094,13 @@
         <v>98</v>
       </c>
       <c r="D88" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="E88" t="s">
-        <v>510</v>
+        <v>548</v>
       </c>
       <c r="H88" t="s">
-        <v>707</v>
+        <v>764</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -5857,10 +6114,10 @@
         <v>99</v>
       </c>
       <c r="D89" t="s">
-        <v>306</v>
+        <v>324</v>
       </c>
       <c r="E89" t="s">
-        <v>511</v>
+        <v>549</v>
       </c>
       <c r="F89">
         <v>12</v>
@@ -5869,7 +6126,7 @@
         <v>3</v>
       </c>
       <c r="H89" t="s">
-        <v>708</v>
+        <v>765</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -5883,10 +6140,10 @@
         <v>100</v>
       </c>
       <c r="D90" t="s">
-        <v>307</v>
+        <v>325</v>
       </c>
       <c r="E90" t="s">
-        <v>512</v>
+        <v>550</v>
       </c>
       <c r="F90">
         <v>12</v>
@@ -5895,7 +6152,7 @@
         <v>3</v>
       </c>
       <c r="H90" t="s">
-        <v>709</v>
+        <v>766</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -5909,10 +6166,10 @@
         <v>101</v>
       </c>
       <c r="D91" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="E91" t="s">
-        <v>513</v>
+        <v>551</v>
       </c>
       <c r="F91">
         <v>12</v>
@@ -5921,7 +6178,7 @@
         <v>3</v>
       </c>
       <c r="H91" t="s">
-        <v>710</v>
+        <v>767</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -5935,10 +6192,10 @@
         <v>102</v>
       </c>
       <c r="D92" t="s">
-        <v>309</v>
+        <v>327</v>
       </c>
       <c r="E92" t="s">
-        <v>514</v>
+        <v>552</v>
       </c>
       <c r="F92">
         <v>12</v>
@@ -5947,7 +6204,7 @@
         <v>3</v>
       </c>
       <c r="H92" t="s">
-        <v>711</v>
+        <v>768</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -5961,10 +6218,10 @@
         <v>103</v>
       </c>
       <c r="D93" t="s">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="E93" t="s">
-        <v>515</v>
+        <v>553</v>
       </c>
       <c r="F93">
         <v>64</v>
@@ -5973,7 +6230,7 @@
         <v>4</v>
       </c>
       <c r="H93" t="s">
-        <v>712</v>
+        <v>769</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -5987,10 +6244,10 @@
         <v>104</v>
       </c>
       <c r="D94" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="E94" t="s">
-        <v>516</v>
+        <v>554</v>
       </c>
       <c r="F94">
         <v>64</v>
@@ -5999,7 +6256,7 @@
         <v>4</v>
       </c>
       <c r="H94" t="s">
-        <v>713</v>
+        <v>770</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -6010,13 +6267,13 @@
         <v>105</v>
       </c>
       <c r="D95" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="E95" t="s">
-        <v>517</v>
+        <v>555</v>
       </c>
       <c r="H95" t="s">
-        <v>714</v>
+        <v>771</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -6027,13 +6284,13 @@
         <v>106</v>
       </c>
       <c r="D96" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="E96" t="s">
-        <v>518</v>
+        <v>556</v>
       </c>
       <c r="H96" t="s">
-        <v>714</v>
+        <v>771</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -6047,10 +6304,10 @@
         <v>107</v>
       </c>
       <c r="D97" t="s">
-        <v>314</v>
+        <v>332</v>
       </c>
       <c r="E97" t="s">
-        <v>519</v>
+        <v>557</v>
       </c>
       <c r="F97">
         <v>31</v>
@@ -6059,7 +6316,7 @@
         <v>4</v>
       </c>
       <c r="H97" t="s">
-        <v>715</v>
+        <v>772</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -6073,10 +6330,10 @@
         <v>108</v>
       </c>
       <c r="D98" t="s">
-        <v>315</v>
+        <v>333</v>
       </c>
       <c r="E98" t="s">
-        <v>520</v>
+        <v>558</v>
       </c>
       <c r="F98">
         <v>21</v>
@@ -6085,7 +6342,7 @@
         <v>4</v>
       </c>
       <c r="H98" t="s">
-        <v>716</v>
+        <v>773</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -6099,10 +6356,10 @@
         <v>109</v>
       </c>
       <c r="D99" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="E99" t="s">
-        <v>521</v>
+        <v>559</v>
       </c>
       <c r="F99">
         <v>21</v>
@@ -6111,7 +6368,7 @@
         <v>4</v>
       </c>
       <c r="H99" t="s">
-        <v>717</v>
+        <v>774</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -6125,10 +6382,10 @@
         <v>110</v>
       </c>
       <c r="D100" t="s">
-        <v>317</v>
+        <v>335</v>
       </c>
       <c r="E100" t="s">
-        <v>522</v>
+        <v>560</v>
       </c>
       <c r="F100">
         <v>21</v>
@@ -6137,7 +6394,7 @@
         <v>4</v>
       </c>
       <c r="H100" t="s">
-        <v>718</v>
+        <v>775</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -6151,10 +6408,10 @@
         <v>111</v>
       </c>
       <c r="D101" t="s">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="E101" t="s">
-        <v>523</v>
+        <v>561</v>
       </c>
       <c r="F101">
         <v>21</v>
@@ -6163,7 +6420,7 @@
         <v>4</v>
       </c>
       <c r="H101" t="s">
-        <v>719</v>
+        <v>776</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -6174,13 +6431,13 @@
         <v>112</v>
       </c>
       <c r="D102" t="s">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="E102" t="s">
-        <v>524</v>
+        <v>562</v>
       </c>
       <c r="H102" t="s">
-        <v>720</v>
+        <v>777</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -6191,13 +6448,13 @@
         <v>113</v>
       </c>
       <c r="D103" t="s">
-        <v>320</v>
+        <v>338</v>
       </c>
       <c r="E103" t="s">
-        <v>525</v>
+        <v>563</v>
       </c>
       <c r="H103" t="s">
-        <v>720</v>
+        <v>777</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -6211,10 +6468,10 @@
         <v>114</v>
       </c>
       <c r="D104" t="s">
-        <v>321</v>
+        <v>339</v>
       </c>
       <c r="E104" t="s">
-        <v>526</v>
+        <v>564</v>
       </c>
       <c r="F104">
         <v>30</v>
@@ -6223,7 +6480,7 @@
         <v>3</v>
       </c>
       <c r="H104" t="s">
-        <v>721</v>
+        <v>778</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -6237,10 +6494,10 @@
         <v>115</v>
       </c>
       <c r="D105" t="s">
-        <v>322</v>
+        <v>340</v>
       </c>
       <c r="E105" t="s">
-        <v>527</v>
+        <v>565</v>
       </c>
       <c r="F105">
         <v>30</v>
@@ -6249,7 +6506,7 @@
         <v>3</v>
       </c>
       <c r="H105" t="s">
-        <v>722</v>
+        <v>779</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -6263,10 +6520,10 @@
         <v>116</v>
       </c>
       <c r="D106" t="s">
-        <v>323</v>
+        <v>341</v>
       </c>
       <c r="E106" t="s">
-        <v>528</v>
+        <v>566</v>
       </c>
       <c r="F106">
         <v>58</v>
@@ -6275,7 +6532,7 @@
         <v>4</v>
       </c>
       <c r="H106" t="s">
-        <v>723</v>
+        <v>780</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
@@ -6289,10 +6546,10 @@
         <v>117</v>
       </c>
       <c r="D107" t="s">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="E107" t="s">
-        <v>529</v>
+        <v>567</v>
       </c>
       <c r="F107">
         <v>58</v>
@@ -6301,7 +6558,7 @@
         <v>4</v>
       </c>
       <c r="H107" t="s">
-        <v>724</v>
+        <v>781</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
@@ -6315,10 +6572,10 @@
         <v>118</v>
       </c>
       <c r="D108" t="s">
-        <v>325</v>
+        <v>343</v>
       </c>
       <c r="E108" t="s">
-        <v>530</v>
+        <v>568</v>
       </c>
       <c r="F108">
         <v>34</v>
@@ -6327,7 +6584,7 @@
         <v>3</v>
       </c>
       <c r="H108" t="s">
-        <v>725</v>
+        <v>782</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
@@ -6338,13 +6595,13 @@
         <v>119</v>
       </c>
       <c r="D109" t="s">
-        <v>326</v>
+        <v>344</v>
       </c>
       <c r="E109" t="s">
-        <v>531</v>
+        <v>569</v>
       </c>
       <c r="H109" t="s">
-        <v>726</v>
+        <v>783</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
@@ -6355,13 +6612,13 @@
         <v>120</v>
       </c>
       <c r="D110" t="s">
-        <v>327</v>
+        <v>345</v>
       </c>
       <c r="E110" t="s">
-        <v>532</v>
+        <v>570</v>
       </c>
       <c r="H110" t="s">
-        <v>726</v>
+        <v>783</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
@@ -6375,13 +6632,13 @@
         <v>121</v>
       </c>
       <c r="D111" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
       <c r="E111" t="s">
-        <v>533</v>
+        <v>571</v>
       </c>
       <c r="H111" t="s">
-        <v>727</v>
+        <v>784</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
@@ -6395,13 +6652,13 @@
         <v>122</v>
       </c>
       <c r="D112" t="s">
-        <v>329</v>
+        <v>347</v>
       </c>
       <c r="E112" t="s">
-        <v>534</v>
+        <v>572</v>
       </c>
       <c r="H112" t="s">
-        <v>728</v>
+        <v>785</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -6415,13 +6672,13 @@
         <v>123</v>
       </c>
       <c r="D113" t="s">
-        <v>330</v>
+        <v>348</v>
       </c>
       <c r="E113" t="s">
-        <v>535</v>
+        <v>573</v>
       </c>
       <c r="H113" t="s">
-        <v>729</v>
+        <v>786</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
@@ -6432,13 +6689,13 @@
         <v>124</v>
       </c>
       <c r="D114" t="s">
-        <v>331</v>
+        <v>349</v>
       </c>
       <c r="E114" t="s">
-        <v>536</v>
+        <v>574</v>
       </c>
       <c r="H114" t="s">
-        <v>730</v>
+        <v>787</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
@@ -6449,13 +6706,13 @@
         <v>125</v>
       </c>
       <c r="D115" t="s">
-        <v>332</v>
+        <v>350</v>
       </c>
       <c r="E115" t="s">
-        <v>537</v>
+        <v>575</v>
       </c>
       <c r="H115" t="s">
-        <v>730</v>
+        <v>787</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
@@ -6466,13 +6723,13 @@
         <v>126</v>
       </c>
       <c r="D116" t="s">
-        <v>333</v>
+        <v>351</v>
       </c>
       <c r="E116" t="s">
-        <v>538</v>
+        <v>576</v>
       </c>
       <c r="H116" t="s">
-        <v>730</v>
+        <v>787</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
@@ -6486,13 +6743,13 @@
         <v>127</v>
       </c>
       <c r="D117" t="s">
-        <v>334</v>
+        <v>352</v>
       </c>
       <c r="E117" t="s">
-        <v>539</v>
+        <v>577</v>
       </c>
       <c r="H117" t="s">
-        <v>731</v>
+        <v>788</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
@@ -6506,13 +6763,13 @@
         <v>128</v>
       </c>
       <c r="D118" t="s">
-        <v>335</v>
+        <v>353</v>
       </c>
       <c r="E118" t="s">
-        <v>540</v>
+        <v>578</v>
       </c>
       <c r="H118" t="s">
-        <v>732</v>
+        <v>789</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
@@ -6526,13 +6783,13 @@
         <v>129</v>
       </c>
       <c r="D119" t="s">
-        <v>336</v>
+        <v>354</v>
       </c>
       <c r="E119" t="s">
-        <v>541</v>
+        <v>579</v>
       </c>
       <c r="H119" t="s">
-        <v>733</v>
+        <v>790</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
@@ -6546,13 +6803,13 @@
         <v>130</v>
       </c>
       <c r="D120" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="E120" t="s">
-        <v>542</v>
+        <v>580</v>
       </c>
       <c r="H120" t="s">
-        <v>734</v>
+        <v>791</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
@@ -6563,10 +6820,10 @@
         <v>131</v>
       </c>
       <c r="D121" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="E121" t="s">
-        <v>543</v>
+        <v>581</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -6577,10 +6834,10 @@
         <v>132</v>
       </c>
       <c r="D122" t="s">
-        <v>339</v>
+        <v>357</v>
       </c>
       <c r="E122" t="s">
-        <v>544</v>
+        <v>582</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
@@ -6591,10 +6848,10 @@
         <v>133</v>
       </c>
       <c r="D123" t="s">
-        <v>340</v>
+        <v>358</v>
       </c>
       <c r="E123" t="s">
-        <v>545</v>
+        <v>583</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
@@ -6605,10 +6862,10 @@
         <v>134</v>
       </c>
       <c r="D124" t="s">
-        <v>341</v>
+        <v>359</v>
       </c>
       <c r="E124" t="s">
-        <v>546</v>
+        <v>584</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
@@ -6622,13 +6879,13 @@
         <v>135</v>
       </c>
       <c r="D125" t="s">
-        <v>342</v>
+        <v>360</v>
       </c>
       <c r="E125" t="s">
-        <v>547</v>
+        <v>585</v>
       </c>
       <c r="H125" t="s">
-        <v>735</v>
+        <v>792</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
@@ -6642,13 +6899,13 @@
         <v>136</v>
       </c>
       <c r="D126" t="s">
-        <v>343</v>
+        <v>361</v>
       </c>
       <c r="E126" t="s">
-        <v>548</v>
+        <v>586</v>
       </c>
       <c r="H126" t="s">
-        <v>736</v>
+        <v>793</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
@@ -6662,13 +6919,13 @@
         <v>137</v>
       </c>
       <c r="D127" t="s">
-        <v>344</v>
+        <v>362</v>
       </c>
       <c r="E127" t="s">
-        <v>549</v>
+        <v>587</v>
       </c>
       <c r="H127" t="s">
-        <v>737</v>
+        <v>794</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
@@ -6682,13 +6939,13 @@
         <v>138</v>
       </c>
       <c r="D128" t="s">
-        <v>345</v>
+        <v>363</v>
       </c>
       <c r="E128" t="s">
-        <v>550</v>
+        <v>588</v>
       </c>
       <c r="H128" t="s">
-        <v>738</v>
+        <v>795</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
@@ -6702,13 +6959,13 @@
         <v>139</v>
       </c>
       <c r="D129" t="s">
-        <v>346</v>
+        <v>364</v>
       </c>
       <c r="E129" t="s">
-        <v>551</v>
+        <v>589</v>
       </c>
       <c r="H129" t="s">
-        <v>739</v>
+        <v>796</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
@@ -6722,13 +6979,13 @@
         <v>140</v>
       </c>
       <c r="D130" t="s">
-        <v>347</v>
+        <v>365</v>
       </c>
       <c r="E130" t="s">
-        <v>552</v>
+        <v>590</v>
       </c>
       <c r="H130" t="s">
-        <v>740</v>
+        <v>797</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
@@ -6742,13 +6999,13 @@
         <v>141</v>
       </c>
       <c r="D131" t="s">
-        <v>348</v>
+        <v>366</v>
       </c>
       <c r="E131" t="s">
-        <v>553</v>
+        <v>591</v>
       </c>
       <c r="H131" t="s">
-        <v>741</v>
+        <v>798</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
@@ -6762,13 +7019,13 @@
         <v>142</v>
       </c>
       <c r="D132" t="s">
-        <v>349</v>
+        <v>367</v>
       </c>
       <c r="E132" t="s">
-        <v>554</v>
+        <v>592</v>
       </c>
       <c r="H132" t="s">
-        <v>742</v>
+        <v>799</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
@@ -6782,13 +7039,13 @@
         <v>143</v>
       </c>
       <c r="D133" t="s">
-        <v>350</v>
+        <v>368</v>
       </c>
       <c r="E133" t="s">
-        <v>555</v>
+        <v>593</v>
       </c>
       <c r="H133" t="s">
-        <v>743</v>
+        <v>800</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
@@ -6796,13 +7053,13 @@
         <v>144</v>
       </c>
       <c r="D134" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="E134" t="s">
-        <v>556</v>
+        <v>594</v>
       </c>
       <c r="H134" t="s">
-        <v>744</v>
+        <v>801</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
@@ -6813,13 +7070,13 @@
         <v>145</v>
       </c>
       <c r="D135" t="s">
-        <v>352</v>
+        <v>370</v>
       </c>
       <c r="E135" t="s">
-        <v>557</v>
+        <v>595</v>
       </c>
       <c r="H135" t="s">
-        <v>745</v>
+        <v>802</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
@@ -6827,10 +7084,10 @@
         <v>146</v>
       </c>
       <c r="D136" t="s">
-        <v>353</v>
+        <v>371</v>
       </c>
       <c r="E136" t="s">
-        <v>558</v>
+        <v>596</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
@@ -6844,13 +7101,13 @@
         <v>147</v>
       </c>
       <c r="D137" t="s">
-        <v>354</v>
+        <v>372</v>
       </c>
       <c r="E137" t="s">
-        <v>559</v>
+        <v>597</v>
       </c>
       <c r="H137" t="s">
-        <v>746</v>
+        <v>803</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
@@ -6861,10 +7118,10 @@
         <v>148</v>
       </c>
       <c r="D138" t="s">
-        <v>355</v>
+        <v>373</v>
       </c>
       <c r="E138" t="s">
-        <v>560</v>
+        <v>598</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
@@ -6875,10 +7132,10 @@
         <v>149</v>
       </c>
       <c r="D139" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="E139" t="s">
-        <v>561</v>
+        <v>599</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
@@ -6892,13 +7149,13 @@
         <v>150</v>
       </c>
       <c r="D140" t="s">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="E140" t="s">
-        <v>562</v>
+        <v>600</v>
       </c>
       <c r="H140" t="s">
-        <v>747</v>
+        <v>804</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
@@ -6909,10 +7166,10 @@
         <v>151</v>
       </c>
       <c r="D141" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="E141" t="s">
-        <v>563</v>
+        <v>601</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
@@ -6923,10 +7180,10 @@
         <v>152</v>
       </c>
       <c r="D142" t="s">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="E142" t="s">
-        <v>564</v>
+        <v>602</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
@@ -6940,13 +7197,13 @@
         <v>153</v>
       </c>
       <c r="D143" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="E143" t="s">
-        <v>565</v>
+        <v>603</v>
       </c>
       <c r="H143" t="s">
-        <v>748</v>
+        <v>805</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
@@ -6957,10 +7214,10 @@
         <v>154</v>
       </c>
       <c r="D144" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="E144" t="s">
-        <v>566</v>
+        <v>604</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
@@ -6971,10 +7228,10 @@
         <v>155</v>
       </c>
       <c r="D145" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="E145" t="s">
-        <v>567</v>
+        <v>605</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
@@ -6988,13 +7245,13 @@
         <v>156</v>
       </c>
       <c r="D146" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="E146" t="s">
-        <v>568</v>
+        <v>606</v>
       </c>
       <c r="H146" t="s">
-        <v>749</v>
+        <v>806</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
@@ -7005,10 +7262,10 @@
         <v>157</v>
       </c>
       <c r="D147" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="E147" t="s">
-        <v>569</v>
+        <v>607</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
@@ -7019,10 +7276,10 @@
         <v>158</v>
       </c>
       <c r="D148" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="E148" t="s">
-        <v>570</v>
+        <v>608</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
@@ -7036,13 +7293,13 @@
         <v>159</v>
       </c>
       <c r="D149" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="E149" t="s">
-        <v>571</v>
+        <v>609</v>
       </c>
       <c r="H149" t="s">
-        <v>750</v>
+        <v>807</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
@@ -7056,13 +7313,13 @@
         <v>160</v>
       </c>
       <c r="D150" t="s">
-        <v>367</v>
+        <v>385</v>
       </c>
       <c r="E150" t="s">
-        <v>572</v>
+        <v>610</v>
       </c>
       <c r="H150" t="s">
-        <v>751</v>
+        <v>808</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
@@ -7076,13 +7333,13 @@
         <v>161</v>
       </c>
       <c r="D151" t="s">
-        <v>368</v>
+        <v>386</v>
       </c>
       <c r="E151" t="s">
-        <v>573</v>
+        <v>611</v>
       </c>
       <c r="H151" t="s">
-        <v>752</v>
+        <v>809</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
@@ -7093,10 +7350,10 @@
         <v>162</v>
       </c>
       <c r="D152" t="s">
-        <v>369</v>
+        <v>387</v>
       </c>
       <c r="E152" t="s">
-        <v>574</v>
+        <v>612</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
@@ -7107,10 +7364,10 @@
         <v>163</v>
       </c>
       <c r="D153" t="s">
-        <v>370</v>
+        <v>388</v>
       </c>
       <c r="E153" t="s">
-        <v>575</v>
+        <v>613</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
@@ -7124,13 +7381,13 @@
         <v>164</v>
       </c>
       <c r="D154" t="s">
-        <v>371</v>
+        <v>389</v>
       </c>
       <c r="E154" t="s">
-        <v>576</v>
+        <v>614</v>
       </c>
       <c r="H154" t="s">
-        <v>753</v>
+        <v>810</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
@@ -7141,10 +7398,10 @@
         <v>165</v>
       </c>
       <c r="D155" t="s">
-        <v>372</v>
+        <v>390</v>
       </c>
       <c r="E155" t="s">
-        <v>577</v>
+        <v>615</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
@@ -7155,10 +7412,10 @@
         <v>166</v>
       </c>
       <c r="D156" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="E156" t="s">
-        <v>578</v>
+        <v>616</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
@@ -7172,13 +7429,13 @@
         <v>167</v>
       </c>
       <c r="D157" t="s">
-        <v>374</v>
+        <v>392</v>
       </c>
       <c r="E157" t="s">
-        <v>579</v>
+        <v>617</v>
       </c>
       <c r="H157" t="s">
-        <v>754</v>
+        <v>811</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
@@ -7192,13 +7449,13 @@
         <v>168</v>
       </c>
       <c r="D158" t="s">
-        <v>375</v>
+        <v>393</v>
       </c>
       <c r="E158" t="s">
-        <v>580</v>
+        <v>618</v>
       </c>
       <c r="H158" t="s">
-        <v>755</v>
+        <v>812</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
@@ -7209,10 +7466,10 @@
         <v>169</v>
       </c>
       <c r="D159" t="s">
-        <v>376</v>
+        <v>394</v>
       </c>
       <c r="E159" t="s">
-        <v>581</v>
+        <v>619</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
@@ -7223,10 +7480,10 @@
         <v>170</v>
       </c>
       <c r="D160" t="s">
-        <v>377</v>
+        <v>395</v>
       </c>
       <c r="E160" t="s">
-        <v>582</v>
+        <v>620</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
@@ -7240,13 +7497,13 @@
         <v>171</v>
       </c>
       <c r="D161" t="s">
-        <v>378</v>
+        <v>396</v>
       </c>
       <c r="E161" t="s">
-        <v>583</v>
+        <v>621</v>
       </c>
       <c r="H161" t="s">
-        <v>756</v>
+        <v>813</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
@@ -7260,13 +7517,13 @@
         <v>172</v>
       </c>
       <c r="D162" t="s">
-        <v>379</v>
+        <v>397</v>
       </c>
       <c r="E162" t="s">
-        <v>584</v>
+        <v>622</v>
       </c>
       <c r="H162" t="s">
-        <v>757</v>
+        <v>814</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
@@ -7280,13 +7537,13 @@
         <v>173</v>
       </c>
       <c r="D163" t="s">
-        <v>380</v>
+        <v>398</v>
       </c>
       <c r="E163" t="s">
-        <v>585</v>
+        <v>623</v>
       </c>
       <c r="H163" t="s">
-        <v>758</v>
+        <v>815</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
@@ -7297,10 +7554,10 @@
         <v>174</v>
       </c>
       <c r="D164" t="s">
-        <v>381</v>
+        <v>399</v>
       </c>
       <c r="E164" t="s">
-        <v>586</v>
+        <v>624</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
@@ -7311,10 +7568,10 @@
         <v>175</v>
       </c>
       <c r="D165" t="s">
-        <v>382</v>
+        <v>400</v>
       </c>
       <c r="E165" t="s">
-        <v>587</v>
+        <v>625</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
@@ -7328,13 +7585,13 @@
         <v>176</v>
       </c>
       <c r="D166" t="s">
-        <v>383</v>
+        <v>401</v>
       </c>
       <c r="E166" t="s">
-        <v>588</v>
+        <v>626</v>
       </c>
       <c r="H166" t="s">
-        <v>759</v>
+        <v>816</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
@@ -7348,13 +7605,13 @@
         <v>177</v>
       </c>
       <c r="D167" t="s">
-        <v>384</v>
+        <v>402</v>
       </c>
       <c r="E167" t="s">
-        <v>589</v>
+        <v>627</v>
       </c>
       <c r="H167" t="s">
-        <v>760</v>
+        <v>817</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
@@ -7365,10 +7622,10 @@
         <v>178</v>
       </c>
       <c r="D168" t="s">
-        <v>385</v>
+        <v>403</v>
       </c>
       <c r="E168" t="s">
-        <v>590</v>
+        <v>628</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
@@ -7379,10 +7636,10 @@
         <v>179</v>
       </c>
       <c r="D169" t="s">
-        <v>386</v>
+        <v>404</v>
       </c>
       <c r="E169" t="s">
-        <v>591</v>
+        <v>629</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
@@ -7396,13 +7653,13 @@
         <v>180</v>
       </c>
       <c r="D170" t="s">
-        <v>387</v>
+        <v>405</v>
       </c>
       <c r="E170" t="s">
-        <v>592</v>
+        <v>630</v>
       </c>
       <c r="H170" t="s">
-        <v>761</v>
+        <v>818</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
@@ -7416,13 +7673,13 @@
         <v>181</v>
       </c>
       <c r="D171" t="s">
-        <v>388</v>
+        <v>406</v>
       </c>
       <c r="E171" t="s">
-        <v>593</v>
+        <v>631</v>
       </c>
       <c r="H171" t="s">
-        <v>762</v>
+        <v>819</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
@@ -7436,13 +7693,13 @@
         <v>182</v>
       </c>
       <c r="D172" t="s">
-        <v>389</v>
+        <v>407</v>
       </c>
       <c r="E172" t="s">
-        <v>594</v>
+        <v>632</v>
       </c>
       <c r="H172" t="s">
-        <v>763</v>
+        <v>820</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
@@ -7456,13 +7713,13 @@
         <v>183</v>
       </c>
       <c r="D173" t="s">
-        <v>390</v>
+        <v>408</v>
       </c>
       <c r="E173" t="s">
-        <v>595</v>
+        <v>633</v>
       </c>
       <c r="H173" t="s">
-        <v>764</v>
+        <v>821</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
@@ -7476,13 +7733,13 @@
         <v>184</v>
       </c>
       <c r="D174" t="s">
-        <v>391</v>
+        <v>409</v>
       </c>
       <c r="E174" t="s">
-        <v>596</v>
+        <v>634</v>
       </c>
       <c r="H174" t="s">
-        <v>765</v>
+        <v>822</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
@@ -7493,13 +7750,13 @@
         <v>185</v>
       </c>
       <c r="D175" t="s">
-        <v>392</v>
+        <v>410</v>
       </c>
       <c r="E175" t="s">
-        <v>597</v>
+        <v>635</v>
       </c>
       <c r="H175" t="s">
-        <v>766</v>
+        <v>823</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
@@ -7510,10 +7767,10 @@
         <v>186</v>
       </c>
       <c r="D176" t="s">
-        <v>393</v>
+        <v>411</v>
       </c>
       <c r="E176" t="s">
-        <v>598</v>
+        <v>636</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
@@ -7524,10 +7781,10 @@
         <v>187</v>
       </c>
       <c r="D177" t="s">
-        <v>394</v>
+        <v>412</v>
       </c>
       <c r="E177" t="s">
-        <v>599</v>
+        <v>637</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
@@ -7538,10 +7795,10 @@
         <v>188</v>
       </c>
       <c r="D178" t="s">
-        <v>395</v>
+        <v>413</v>
       </c>
       <c r="E178" t="s">
-        <v>600</v>
+        <v>638</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
@@ -7555,13 +7812,13 @@
         <v>189</v>
       </c>
       <c r="D179" t="s">
-        <v>396</v>
+        <v>414</v>
       </c>
       <c r="E179" t="s">
-        <v>601</v>
+        <v>639</v>
       </c>
       <c r="H179" t="s">
-        <v>767</v>
+        <v>824</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
@@ -7575,13 +7832,13 @@
         <v>190</v>
       </c>
       <c r="D180" t="s">
-        <v>397</v>
+        <v>415</v>
       </c>
       <c r="E180" t="s">
-        <v>602</v>
+        <v>640</v>
       </c>
       <c r="H180" t="s">
-        <v>768</v>
+        <v>825</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
@@ -7592,13 +7849,13 @@
         <v>191</v>
       </c>
       <c r="D181" t="s">
-        <v>398</v>
+        <v>416</v>
       </c>
       <c r="E181" t="s">
-        <v>603</v>
+        <v>641</v>
       </c>
       <c r="H181" t="s">
-        <v>769</v>
+        <v>826</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
@@ -7609,10 +7866,10 @@
         <v>192</v>
       </c>
       <c r="D182" t="s">
-        <v>399</v>
+        <v>417</v>
       </c>
       <c r="E182" t="s">
-        <v>604</v>
+        <v>642</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
@@ -7623,10 +7880,10 @@
         <v>193</v>
       </c>
       <c r="D183" t="s">
-        <v>400</v>
+        <v>418</v>
       </c>
       <c r="E183" t="s">
-        <v>605</v>
+        <v>643</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
@@ -7640,10 +7897,10 @@
         <v>194</v>
       </c>
       <c r="D184" t="s">
-        <v>401</v>
+        <v>419</v>
       </c>
       <c r="E184" t="s">
-        <v>606</v>
+        <v>644</v>
       </c>
       <c r="F184">
         <v>4</v>
@@ -7652,7 +7909,7 @@
         <v>4</v>
       </c>
       <c r="H184" t="s">
-        <v>770</v>
+        <v>827</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
@@ -7666,10 +7923,10 @@
         <v>195</v>
       </c>
       <c r="D185" t="s">
-        <v>791</v>
+        <v>420</v>
       </c>
       <c r="E185" t="s">
-        <v>607</v>
+        <v>645</v>
       </c>
       <c r="F185">
         <v>4</v>
@@ -7678,7 +7935,7 @@
         <v>4</v>
       </c>
       <c r="H185" t="s">
-        <v>771</v>
+        <v>828</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
@@ -7692,10 +7949,10 @@
         <v>196</v>
       </c>
       <c r="D186" t="s">
-        <v>402</v>
+        <v>421</v>
       </c>
       <c r="E186" t="s">
-        <v>608</v>
+        <v>646</v>
       </c>
       <c r="F186">
         <v>46</v>
@@ -7704,7 +7961,7 @@
         <v>2</v>
       </c>
       <c r="H186" t="s">
-        <v>772</v>
+        <v>829</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
@@ -7718,10 +7975,10 @@
         <v>197</v>
       </c>
       <c r="D187" t="s">
-        <v>403</v>
+        <v>422</v>
       </c>
       <c r="E187" t="s">
-        <v>609</v>
+        <v>647</v>
       </c>
       <c r="F187">
         <v>46</v>
@@ -7730,7 +7987,7 @@
         <v>2</v>
       </c>
       <c r="H187" t="s">
-        <v>773</v>
+        <v>830</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
@@ -7741,10 +7998,10 @@
         <v>198</v>
       </c>
       <c r="D188" t="s">
-        <v>404</v>
+        <v>423</v>
       </c>
       <c r="E188" t="s">
-        <v>610</v>
+        <v>648</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
@@ -7755,10 +8012,10 @@
         <v>199</v>
       </c>
       <c r="D189" t="s">
-        <v>405</v>
+        <v>424</v>
       </c>
       <c r="E189" t="s">
-        <v>611</v>
+        <v>649</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
@@ -7772,10 +8029,10 @@
         <v>200</v>
       </c>
       <c r="D190" t="s">
-        <v>406</v>
+        <v>425</v>
       </c>
       <c r="E190" t="s">
-        <v>612</v>
+        <v>650</v>
       </c>
       <c r="F190">
         <v>27</v>
@@ -7784,7 +8041,7 @@
         <v>6</v>
       </c>
       <c r="H190" t="s">
-        <v>774</v>
+        <v>831</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
@@ -7798,10 +8055,10 @@
         <v>201</v>
       </c>
       <c r="D191" t="s">
-        <v>407</v>
+        <v>426</v>
       </c>
       <c r="E191" t="s">
-        <v>613</v>
+        <v>651</v>
       </c>
       <c r="F191">
         <v>27</v>
@@ -7810,7 +8067,7 @@
         <v>6</v>
       </c>
       <c r="H191" t="s">
-        <v>775</v>
+        <v>832</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
@@ -7824,10 +8081,10 @@
         <v>202</v>
       </c>
       <c r="D192" t="s">
-        <v>408</v>
+        <v>427</v>
       </c>
       <c r="E192" t="s">
-        <v>614</v>
+        <v>652</v>
       </c>
       <c r="F192">
         <v>58</v>
@@ -7836,7 +8093,7 @@
         <v>2</v>
       </c>
       <c r="H192" t="s">
-        <v>776</v>
+        <v>833</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
@@ -7850,10 +8107,10 @@
         <v>203</v>
       </c>
       <c r="D193" t="s">
-        <v>409</v>
+        <v>428</v>
       </c>
       <c r="E193" t="s">
-        <v>615</v>
+        <v>653</v>
       </c>
       <c r="F193">
         <v>58</v>
@@ -7862,7 +8119,7 @@
         <v>2</v>
       </c>
       <c r="H193" t="s">
-        <v>777</v>
+        <v>834</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
@@ -7873,10 +8130,10 @@
         <v>204</v>
       </c>
       <c r="D194" t="s">
-        <v>410</v>
+        <v>429</v>
       </c>
       <c r="E194" t="s">
-        <v>616</v>
+        <v>654</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
@@ -7887,10 +8144,10 @@
         <v>205</v>
       </c>
       <c r="D195" t="s">
-        <v>411</v>
+        <v>430</v>
       </c>
       <c r="E195" t="s">
-        <v>617</v>
+        <v>655</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
@@ -7904,10 +8161,10 @@
         <v>206</v>
       </c>
       <c r="D196" t="s">
-        <v>412</v>
+        <v>431</v>
       </c>
       <c r="E196" t="s">
-        <v>618</v>
+        <v>656</v>
       </c>
       <c r="F196">
         <v>1</v>
@@ -7916,7 +8173,7 @@
         <v>5</v>
       </c>
       <c r="H196" t="s">
-        <v>778</v>
+        <v>835</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
@@ -7930,10 +8187,10 @@
         <v>207</v>
       </c>
       <c r="D197" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="E197" t="s">
-        <v>619</v>
+        <v>657</v>
       </c>
       <c r="F197">
         <v>1</v>
@@ -7942,7 +8199,7 @@
         <v>5</v>
       </c>
       <c r="H197" t="s">
-        <v>779</v>
+        <v>836</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
@@ -7956,10 +8213,10 @@
         <v>208</v>
       </c>
       <c r="D198" t="s">
-        <v>414</v>
+        <v>433</v>
       </c>
       <c r="E198" t="s">
-        <v>620</v>
+        <v>658</v>
       </c>
       <c r="F198">
         <v>53</v>
@@ -7968,7 +8225,7 @@
         <v>3</v>
       </c>
       <c r="H198" t="s">
-        <v>780</v>
+        <v>837</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
@@ -7982,10 +8239,10 @@
         <v>209</v>
       </c>
       <c r="D199" t="s">
-        <v>415</v>
+        <v>434</v>
       </c>
       <c r="E199" t="s">
-        <v>621</v>
+        <v>659</v>
       </c>
       <c r="F199">
         <v>53</v>
@@ -7994,7 +8251,7 @@
         <v>3</v>
       </c>
       <c r="H199" t="s">
-        <v>781</v>
+        <v>838</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
@@ -8008,10 +8265,10 @@
         <v>210</v>
       </c>
       <c r="D200" t="s">
-        <v>416</v>
+        <v>435</v>
       </c>
       <c r="E200" t="s">
-        <v>622</v>
+        <v>660</v>
       </c>
       <c r="F200">
         <v>37</v>
@@ -8020,7 +8277,7 @@
         <v>2</v>
       </c>
       <c r="H200" t="s">
-        <v>782</v>
+        <v>839</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
@@ -8034,10 +8291,10 @@
         <v>211</v>
       </c>
       <c r="D201" t="s">
-        <v>417</v>
+        <v>436</v>
       </c>
       <c r="E201" t="s">
-        <v>623</v>
+        <v>661</v>
       </c>
       <c r="F201">
         <v>37</v>
@@ -8046,7 +8303,7 @@
         <v>2</v>
       </c>
       <c r="H201" t="s">
-        <v>783</v>
+        <v>840</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
@@ -8057,10 +8314,10 @@
         <v>212</v>
       </c>
       <c r="D202" t="s">
-        <v>418</v>
+        <v>437</v>
       </c>
       <c r="E202" t="s">
-        <v>624</v>
+        <v>662</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
@@ -8071,10 +8328,10 @@
         <v>213</v>
       </c>
       <c r="D203" t="s">
-        <v>419</v>
+        <v>438</v>
       </c>
       <c r="E203" t="s">
-        <v>790</v>
+        <v>663</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
@@ -8088,10 +8345,10 @@
         <v>214</v>
       </c>
       <c r="D204" t="s">
-        <v>420</v>
+        <v>439</v>
       </c>
       <c r="E204" t="s">
-        <v>625</v>
+        <v>664</v>
       </c>
       <c r="F204">
         <v>8</v>
@@ -8100,7 +8357,7 @@
         <v>3</v>
       </c>
       <c r="H204" t="s">
-        <v>784</v>
+        <v>841</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
@@ -8114,10 +8371,10 @@
         <v>215</v>
       </c>
       <c r="D205" t="s">
-        <v>421</v>
+        <v>440</v>
       </c>
       <c r="E205" t="s">
-        <v>626</v>
+        <v>665</v>
       </c>
       <c r="F205">
         <v>8</v>
@@ -8126,7 +8383,7 @@
         <v>3</v>
       </c>
       <c r="H205" t="s">
-        <v>785</v>
+        <v>842</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
@@ -8140,10 +8397,10 @@
         <v>216</v>
       </c>
       <c r="D206" t="s">
-        <v>789</v>
+        <v>441</v>
       </c>
       <c r="E206" t="s">
-        <v>627</v>
+        <v>666</v>
       </c>
       <c r="F206">
         <v>50</v>
@@ -8152,7 +8409,7 @@
         <v>3</v>
       </c>
       <c r="H206" t="s">
-        <v>786</v>
+        <v>843</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
@@ -8166,10 +8423,10 @@
         <v>217</v>
       </c>
       <c r="D207" t="s">
-        <v>422</v>
+        <v>442</v>
       </c>
       <c r="E207" t="s">
-        <v>628</v>
+        <v>667</v>
       </c>
       <c r="F207">
         <v>50</v>
@@ -8178,7 +8435,7 @@
         <v>3</v>
       </c>
       <c r="H207" t="s">
-        <v>787</v>
+        <v>844</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
@@ -8189,13 +8446,436 @@
         <v>218</v>
       </c>
       <c r="D208" t="s">
-        <v>423</v>
+        <v>443</v>
       </c>
       <c r="E208" t="s">
-        <v>629</v>
+        <v>668</v>
       </c>
       <c r="H208" t="s">
-        <v>788</v>
+        <v>845</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>8</v>
+      </c>
+      <c r="C209" t="s">
+        <v>219</v>
+      </c>
+      <c r="D209" t="s">
+        <v>444</v>
+      </c>
+      <c r="E209" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>8</v>
+      </c>
+      <c r="B210">
+        <v>34</v>
+      </c>
+      <c r="C210" t="s">
+        <v>220</v>
+      </c>
+      <c r="D210" t="s">
+        <v>445</v>
+      </c>
+      <c r="E210" t="s">
+        <v>670</v>
+      </c>
+      <c r="F210">
+        <v>62</v>
+      </c>
+      <c r="G210">
+        <v>3</v>
+      </c>
+      <c r="H210" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>8</v>
+      </c>
+      <c r="B211">
+        <v>34</v>
+      </c>
+      <c r="C211" t="s">
+        <v>221</v>
+      </c>
+      <c r="D211" t="s">
+        <v>446</v>
+      </c>
+      <c r="E211" t="s">
+        <v>671</v>
+      </c>
+      <c r="F211">
+        <v>62</v>
+      </c>
+      <c r="G211">
+        <v>3</v>
+      </c>
+      <c r="H211" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>8</v>
+      </c>
+      <c r="B212">
+        <v>35</v>
+      </c>
+      <c r="C212" t="s">
+        <v>222</v>
+      </c>
+      <c r="D212" t="s">
+        <v>447</v>
+      </c>
+      <c r="E212" t="s">
+        <v>672</v>
+      </c>
+      <c r="F212">
+        <v>48</v>
+      </c>
+      <c r="G212">
+        <v>2</v>
+      </c>
+      <c r="H212" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>8</v>
+      </c>
+      <c r="B213">
+        <v>35</v>
+      </c>
+      <c r="C213" t="s">
+        <v>223</v>
+      </c>
+      <c r="D213" t="s">
+        <v>448</v>
+      </c>
+      <c r="E213" t="s">
+        <v>673</v>
+      </c>
+      <c r="F213">
+        <v>48</v>
+      </c>
+      <c r="G213">
+        <v>2</v>
+      </c>
+      <c r="H213" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>8</v>
+      </c>
+      <c r="B214">
+        <v>36</v>
+      </c>
+      <c r="C214" t="s">
+        <v>224</v>
+      </c>
+      <c r="D214" t="s">
+        <v>449</v>
+      </c>
+      <c r="E214" t="s">
+        <v>674</v>
+      </c>
+      <c r="F214">
+        <v>45</v>
+      </c>
+      <c r="G214">
+        <v>2</v>
+      </c>
+      <c r="H214" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>8</v>
+      </c>
+      <c r="B215">
+        <v>36</v>
+      </c>
+      <c r="C215" t="s">
+        <v>225</v>
+      </c>
+      <c r="D215" t="s">
+        <v>450</v>
+      </c>
+      <c r="E215" t="s">
+        <v>675</v>
+      </c>
+      <c r="F215">
+        <v>45</v>
+      </c>
+      <c r="G215">
+        <v>2</v>
+      </c>
+      <c r="H215" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>8</v>
+      </c>
+      <c r="C216" t="s">
+        <v>226</v>
+      </c>
+      <c r="D216" t="s">
+        <v>451</v>
+      </c>
+      <c r="E216" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>8</v>
+      </c>
+      <c r="B217">
+        <v>37</v>
+      </c>
+      <c r="C217" t="s">
+        <v>227</v>
+      </c>
+      <c r="D217" t="s">
+        <v>452</v>
+      </c>
+      <c r="E217" t="s">
+        <v>677</v>
+      </c>
+      <c r="F217">
+        <v>2</v>
+      </c>
+      <c r="G217">
+        <v>3</v>
+      </c>
+      <c r="H217" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>8</v>
+      </c>
+      <c r="B218">
+        <v>37</v>
+      </c>
+      <c r="C218" t="s">
+        <v>228</v>
+      </c>
+      <c r="D218" t="s">
+        <v>453</v>
+      </c>
+      <c r="E218" t="s">
+        <v>678</v>
+      </c>
+      <c r="F218">
+        <v>2</v>
+      </c>
+      <c r="G218">
+        <v>3</v>
+      </c>
+      <c r="H218" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>8</v>
+      </c>
+      <c r="B219">
+        <v>38</v>
+      </c>
+      <c r="C219" t="s">
+        <v>229</v>
+      </c>
+      <c r="D219" t="s">
+        <v>454</v>
+      </c>
+      <c r="E219" t="s">
+        <v>679</v>
+      </c>
+      <c r="F219">
+        <v>19</v>
+      </c>
+      <c r="G219">
+        <v>6</v>
+      </c>
+      <c r="H219" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C220" t="s">
+        <v>230</v>
+      </c>
+      <c r="D220" t="s">
+        <v>455</v>
+      </c>
+      <c r="E220" t="s">
+        <v>680</v>
+      </c>
+      <c r="F220">
+        <v>19</v>
+      </c>
+      <c r="G220">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>8</v>
+      </c>
+      <c r="B221">
+        <v>38</v>
+      </c>
+      <c r="C221" t="s">
+        <v>231</v>
+      </c>
+      <c r="D221" t="s">
+        <v>456</v>
+      </c>
+      <c r="E221" t="s">
+        <v>681</v>
+      </c>
+      <c r="F221">
+        <v>19</v>
+      </c>
+      <c r="G221">
+        <v>6</v>
+      </c>
+      <c r="H221" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>8</v>
+      </c>
+      <c r="C222" t="s">
+        <v>232</v>
+      </c>
+      <c r="D222" t="s">
+        <v>457</v>
+      </c>
+      <c r="E222" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>8</v>
+      </c>
+      <c r="B223">
+        <v>39</v>
+      </c>
+      <c r="C223" t="s">
+        <v>233</v>
+      </c>
+      <c r="D223" t="s">
+        <v>458</v>
+      </c>
+      <c r="E223" t="s">
+        <v>683</v>
+      </c>
+      <c r="F223">
+        <v>5</v>
+      </c>
+      <c r="G223">
+        <v>3</v>
+      </c>
+      <c r="H223" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>8</v>
+      </c>
+      <c r="B224">
+        <v>39</v>
+      </c>
+      <c r="C224" t="s">
+        <v>234</v>
+      </c>
+      <c r="D224" t="s">
+        <v>459</v>
+      </c>
+      <c r="E224" t="s">
+        <v>684</v>
+      </c>
+      <c r="F224">
+        <v>5</v>
+      </c>
+      <c r="G224">
+        <v>3</v>
+      </c>
+      <c r="H224" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>8</v>
+      </c>
+      <c r="B225">
+        <v>40</v>
+      </c>
+      <c r="C225" t="s">
+        <v>235</v>
+      </c>
+      <c r="D225" t="s">
+        <v>460</v>
+      </c>
+      <c r="E225" t="s">
+        <v>685</v>
+      </c>
+      <c r="F225">
+        <v>15</v>
+      </c>
+      <c r="G225">
+        <v>3</v>
+      </c>
+      <c r="H225" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>8</v>
+      </c>
+      <c r="B226">
+        <v>40</v>
+      </c>
+      <c r="C226" t="s">
+        <v>236</v>
+      </c>
+      <c r="D226" t="s">
+        <v>461</v>
+      </c>
+      <c r="E226" t="s">
+        <v>686</v>
+      </c>
+      <c r="F226">
+        <v>15</v>
+      </c>
+      <c r="G226">
+        <v>3</v>
+      </c>
+      <c r="H226" t="s">
+        <v>859</v>
       </c>
     </row>
   </sheetData>

--- a/Exp_Record_Alfa.xlsx
+++ b/Exp_Record_Alfa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34897AF3-5FDE-41C5-95DC-D0C1E3AB4594}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18BB745-5BC8-4E78-A25B-7AA2FB94DBE9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1530" yWindow="3390" windowWidth="26295" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1995" yWindow="1905" windowWidth="26295" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="860">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="887">
   <si>
     <t>Exp_collection</t>
   </si>
@@ -1684,6 +1684,50 @@
 completed</t>
   </si>
   <si>
+    <t>Rf mapper start at 9:44
+[1, 3, 8]
+Focus on 6, 16( 0 0), 23, 30 (0 0), 52, 55
+5 blocks complete at 949</t>
+  </si>
+  <si>
+    <t>Generate integrated start at 1002
+Ch 30 [0, -0.5] 4 1 CMAES. SU
+Yay, looks to be climbing already at block 9, not much but something
+31 blocks complete at 1013</t>
+  </si>
+  <si>
+    <t>Selectivity start at 1017
+Ch 30 [0, -0.5] 4 degrees. With PCP images
+complete</t>
+  </si>
+  <si>
+    <t>Generate integrated start at 1041
+Ch 16 [0, 0] 3 1 . SU
+PSTH matches from rf mapping, nothing crazy
+You can hear it popping, not climbing yet.
+Climbing at block 20.
+32 blocks complete, stop at 1053</t>
+  </si>
+  <si>
+    <t>Slectivity for ch 16, start at 1056
+Ch 16 [0, 0] 3 degrees
+4 blocks complete stop at</t>
+  </si>
+  <si>
+    <t>Generate integrated start at 1116
+52 [-2 -2] 4 1 CMAES. SU
+Its visually responsive but not climbing yet, can try center if this doesn’t work
+Block 22, going up!
+Didn’t take off but climbed a bit, stopped at 1133
+37 blocks complete</t>
+  </si>
+  <si>
+    <t>Selectivity start at 1137
+Ch 52 [-2,-2] 4 degrees.
+Added 50 mL juice
+4 blocks completed at 1158</t>
+  </si>
+  <si>
     <t>Alfa64chan-19112019-009</t>
   </si>
   <si>
@@ -2359,6 +2403,27 @@
     <t>Alfa64chan-24042020-005</t>
   </si>
   <si>
+    <t>Alfa64chan-28042020-001</t>
+  </si>
+  <si>
+    <t>Alfa64chan-28042020-002</t>
+  </si>
+  <si>
+    <t>Alfa64chan-28042020-003</t>
+  </si>
+  <si>
+    <t>Alfa64chan-28042020-004</t>
+  </si>
+  <si>
+    <t>Alfa64chan-28042020-005</t>
+  </si>
+  <si>
+    <t>Alfa64chan-28042020-006</t>
+  </si>
+  <si>
+    <t>Alfa64chan-28042020-007</t>
+  </si>
+  <si>
     <t>191119_Alfa_generate_parallel(3)</t>
   </si>
   <si>
@@ -3034,6 +3099,27 @@
     <t>200424_Alfa_selectivity_basic(1)</t>
   </si>
   <si>
+    <t>200428_Alfa_rfMapper_basic</t>
+  </si>
+  <si>
+    <t>200428_Alfa_generate_integrated</t>
+  </si>
+  <si>
+    <t>200428_Alfa_selectivity_basic</t>
+  </si>
+  <si>
+    <t>200428_Alfa_generate_integrated(1)</t>
+  </si>
+  <si>
+    <t>200428_Alfa_selectivity_basic(1)</t>
+  </si>
+  <si>
+    <t>200428_Alfa_generate_integrated(2)</t>
+  </si>
+  <si>
+    <t>200428_Alfa_selectivity_basic(2)</t>
+  </si>
+  <si>
     <t>N:\Stimuli\2019-06-Evolutions\alfa-191119a</t>
   </si>
   <si>
@@ -3551,6 +3637,24 @@
   </si>
   <si>
     <t>N:\Stimuli\2019-Manifold\alfa-200424b-selectivity</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-Manifold\alfa-200428a\2020-04-28-10-02-01</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-Manifold\alfa-200428a-selectivity</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-Manifold\alfa-200428b\2020-04-28-10-41-07</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-Manifold\alfa-200428b-selectivity</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-Manifold\alfa-200428c\2020-04-28-11-16-15</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-Manifold\alfa-200428c-selectivity</t>
   </si>
 </sst>
 </file>
@@ -3952,17 +4056,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H226"/>
+  <dimension ref="A1:H233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
-      <selection activeCell="C208" sqref="C208"/>
+    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
+      <selection activeCell="G234" sqref="G234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="79" customWidth="1"/>
-    <col min="4" max="4" width="27.140625" customWidth="1"/>
-    <col min="5" max="5" width="37.42578125" customWidth="1"/>
+    <col min="3" max="3" width="64.85546875" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="45.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -4002,10 +4106,10 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="E2" t="s">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="F2">
         <v>29</v>
@@ -4014,7 +4118,7 @@
         <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>687</v>
+        <v>708</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -4028,10 +4132,10 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="E3" t="s">
-        <v>463</v>
+        <v>477</v>
       </c>
       <c r="F3">
         <v>29</v>
@@ -4051,10 +4155,10 @@
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="E4" t="s">
-        <v>464</v>
+        <v>478</v>
       </c>
       <c r="F4">
         <v>29</v>
@@ -4063,7 +4167,7 @@
         <v>4</v>
       </c>
       <c r="H4" t="s">
-        <v>688</v>
+        <v>709</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -4077,10 +4181,10 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="E5" t="s">
-        <v>465</v>
+        <v>479</v>
       </c>
       <c r="F5">
         <v>29</v>
@@ -4089,7 +4193,7 @@
         <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>689</v>
+        <v>710</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -4103,16 +4207,16 @@
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="E6" t="s">
-        <v>466</v>
+        <v>480</v>
       </c>
       <c r="F6">
         <v>29</v>
       </c>
       <c r="H6" t="s">
-        <v>690</v>
+        <v>711</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -4126,10 +4230,10 @@
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="E7" t="s">
-        <v>467</v>
+        <v>481</v>
       </c>
       <c r="F7">
         <v>29</v>
@@ -4138,7 +4242,7 @@
         <v>4</v>
       </c>
       <c r="H7" t="s">
-        <v>691</v>
+        <v>712</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -4152,10 +4256,10 @@
         <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="E8" t="s">
-        <v>468</v>
+        <v>482</v>
       </c>
       <c r="F8">
         <v>9</v>
@@ -4164,7 +4268,7 @@
         <v>3</v>
       </c>
       <c r="H8" t="s">
-        <v>692</v>
+        <v>713</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -4178,10 +4282,10 @@
         <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="E9" t="s">
-        <v>469</v>
+        <v>483</v>
       </c>
       <c r="F9">
         <v>9</v>
@@ -4190,7 +4294,7 @@
         <v>3</v>
       </c>
       <c r="H9" t="s">
-        <v>693</v>
+        <v>714</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -4204,10 +4308,10 @@
         <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="E10" t="s">
-        <v>470</v>
+        <v>484</v>
       </c>
       <c r="F10">
         <v>9</v>
@@ -4216,7 +4320,7 @@
         <v>3</v>
       </c>
       <c r="H10" t="s">
-        <v>694</v>
+        <v>715</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -4230,10 +4334,10 @@
         <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="E11" t="s">
-        <v>471</v>
+        <v>485</v>
       </c>
       <c r="F11">
         <v>32</v>
@@ -4242,7 +4346,7 @@
         <v>3</v>
       </c>
       <c r="H11" t="s">
-        <v>695</v>
+        <v>716</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -4256,10 +4360,10 @@
         <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="E12" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="F12">
         <v>32</v>
@@ -4268,7 +4372,7 @@
         <v>3</v>
       </c>
       <c r="H12" t="s">
-        <v>696</v>
+        <v>717</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -4282,10 +4386,10 @@
         <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="E13" t="s">
-        <v>473</v>
+        <v>487</v>
       </c>
       <c r="F13">
         <v>32</v>
@@ -4294,7 +4398,7 @@
         <v>3</v>
       </c>
       <c r="H13" t="s">
-        <v>697</v>
+        <v>718</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -4302,10 +4406,10 @@
         <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="E14" t="s">
-        <v>474</v>
+        <v>488</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -4319,10 +4423,10 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E15" t="s">
-        <v>475</v>
+        <v>489</v>
       </c>
       <c r="F15">
         <v>3</v>
@@ -4331,7 +4435,7 @@
         <v>3</v>
       </c>
       <c r="H15" t="s">
-        <v>698</v>
+        <v>719</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -4345,10 +4449,10 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="E16" t="s">
-        <v>476</v>
+        <v>490</v>
       </c>
       <c r="F16">
         <v>3</v>
@@ -4357,7 +4461,7 @@
         <v>3</v>
       </c>
       <c r="H16" t="s">
-        <v>699</v>
+        <v>720</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -4371,10 +4475,10 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="E17" t="s">
-        <v>477</v>
+        <v>491</v>
       </c>
       <c r="F17">
         <v>3</v>
@@ -4383,7 +4487,7 @@
         <v>3</v>
       </c>
       <c r="H17" t="s">
-        <v>700</v>
+        <v>721</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -4391,10 +4495,10 @@
         <v>28</v>
       </c>
       <c r="D18" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="E18" t="s">
-        <v>478</v>
+        <v>492</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -4408,10 +4512,10 @@
         <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="E19" t="s">
-        <v>479</v>
+        <v>493</v>
       </c>
       <c r="F19">
         <v>7</v>
@@ -4420,7 +4524,7 @@
         <v>3</v>
       </c>
       <c r="H19" t="s">
-        <v>701</v>
+        <v>722</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -4434,10 +4538,10 @@
         <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="E20" t="s">
-        <v>480</v>
+        <v>494</v>
       </c>
       <c r="F20">
         <v>7</v>
@@ -4446,7 +4550,7 @@
         <v>3</v>
       </c>
       <c r="H20" t="s">
-        <v>702</v>
+        <v>723</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -4460,10 +4564,10 @@
         <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="E21" t="s">
-        <v>481</v>
+        <v>495</v>
       </c>
       <c r="F21">
         <v>7</v>
@@ -4472,7 +4576,7 @@
         <v>3</v>
       </c>
       <c r="H21" t="s">
-        <v>703</v>
+        <v>724</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -4480,10 +4584,10 @@
         <v>32</v>
       </c>
       <c r="D22" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="E22" t="s">
-        <v>482</v>
+        <v>496</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -4491,16 +4595,16 @@
         <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="E23" t="s">
-        <v>483</v>
+        <v>497</v>
       </c>
       <c r="G23">
         <v>3</v>
       </c>
       <c r="H23" t="s">
-        <v>704</v>
+        <v>725</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -4508,16 +4612,16 @@
         <v>34</v>
       </c>
       <c r="D24" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="E24" t="s">
-        <v>484</v>
+        <v>498</v>
       </c>
       <c r="G24">
         <v>4</v>
       </c>
       <c r="H24" t="s">
-        <v>705</v>
+        <v>726</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -4525,10 +4629,10 @@
         <v>35</v>
       </c>
       <c r="D25" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="E25" t="s">
-        <v>485</v>
+        <v>499</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -4542,10 +4646,10 @@
         <v>36</v>
       </c>
       <c r="D26" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="E26" t="s">
-        <v>486</v>
+        <v>500</v>
       </c>
       <c r="F26">
         <v>51</v>
@@ -4554,7 +4658,7 @@
         <v>3</v>
       </c>
       <c r="H26" t="s">
-        <v>706</v>
+        <v>727</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -4568,10 +4672,10 @@
         <v>37</v>
       </c>
       <c r="D27" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="E27" t="s">
-        <v>487</v>
+        <v>501</v>
       </c>
       <c r="F27">
         <v>51</v>
@@ -4580,7 +4684,7 @@
         <v>3</v>
       </c>
       <c r="H27" t="s">
-        <v>707</v>
+        <v>728</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -4594,10 +4698,10 @@
         <v>38</v>
       </c>
       <c r="D28" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="E28" t="s">
-        <v>488</v>
+        <v>502</v>
       </c>
       <c r="F28">
         <v>51</v>
@@ -4606,7 +4710,7 @@
         <v>3</v>
       </c>
       <c r="H28" t="s">
-        <v>708</v>
+        <v>729</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -4614,10 +4718,10 @@
         <v>39</v>
       </c>
       <c r="D29" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="E29" t="s">
-        <v>489</v>
+        <v>503</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -4631,10 +4735,10 @@
         <v>40</v>
       </c>
       <c r="D30" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="E30" t="s">
-        <v>490</v>
+        <v>504</v>
       </c>
       <c r="F30">
         <v>7</v>
@@ -4643,7 +4747,7 @@
         <v>3</v>
       </c>
       <c r="H30" t="s">
-        <v>709</v>
+        <v>730</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -4657,10 +4761,10 @@
         <v>41</v>
       </c>
       <c r="D31" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="E31" t="s">
-        <v>491</v>
+        <v>505</v>
       </c>
       <c r="F31">
         <v>7</v>
@@ -4669,7 +4773,7 @@
         <v>3</v>
       </c>
       <c r="H31" t="s">
-        <v>710</v>
+        <v>731</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -4683,10 +4787,10 @@
         <v>42</v>
       </c>
       <c r="D32" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="E32" t="s">
-        <v>492</v>
+        <v>506</v>
       </c>
       <c r="F32">
         <v>7</v>
@@ -4695,7 +4799,7 @@
         <v>3</v>
       </c>
       <c r="H32" t="s">
-        <v>711</v>
+        <v>732</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -4703,10 +4807,10 @@
         <v>43</v>
       </c>
       <c r="D33" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="E33" t="s">
-        <v>493</v>
+        <v>507</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -4720,10 +4824,10 @@
         <v>44</v>
       </c>
       <c r="D34" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="E34" t="s">
-        <v>494</v>
+        <v>508</v>
       </c>
       <c r="F34">
         <v>7</v>
@@ -4732,7 +4836,7 @@
         <v>3</v>
       </c>
       <c r="H34" t="s">
-        <v>712</v>
+        <v>733</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -4746,10 +4850,10 @@
         <v>45</v>
       </c>
       <c r="D35" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="E35" t="s">
-        <v>495</v>
+        <v>509</v>
       </c>
       <c r="F35">
         <v>7</v>
@@ -4758,7 +4862,7 @@
         <v>3</v>
       </c>
       <c r="H35" t="s">
-        <v>713</v>
+        <v>734</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -4772,10 +4876,10 @@
         <v>46</v>
       </c>
       <c r="D36" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="E36" t="s">
-        <v>496</v>
+        <v>510</v>
       </c>
       <c r="F36">
         <v>7</v>
@@ -4784,7 +4888,7 @@
         <v>3</v>
       </c>
       <c r="H36" t="s">
-        <v>714</v>
+        <v>735</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -4798,10 +4902,10 @@
         <v>47</v>
       </c>
       <c r="D37" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="E37" t="s">
-        <v>497</v>
+        <v>511</v>
       </c>
       <c r="F37">
         <v>36</v>
@@ -4810,7 +4914,7 @@
         <v>3</v>
       </c>
       <c r="H37" t="s">
-        <v>715</v>
+        <v>736</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -4824,10 +4928,10 @@
         <v>48</v>
       </c>
       <c r="D38" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="E38" t="s">
-        <v>498</v>
+        <v>512</v>
       </c>
       <c r="F38">
         <v>36</v>
@@ -4836,7 +4940,7 @@
         <v>3</v>
       </c>
       <c r="H38" t="s">
-        <v>716</v>
+        <v>737</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -4850,10 +4954,10 @@
         <v>49</v>
       </c>
       <c r="D39" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="E39" t="s">
-        <v>499</v>
+        <v>513</v>
       </c>
       <c r="F39">
         <v>35</v>
@@ -4862,7 +4966,7 @@
         <v>3</v>
       </c>
       <c r="H39" t="s">
-        <v>717</v>
+        <v>738</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -4876,10 +4980,10 @@
         <v>50</v>
       </c>
       <c r="D40" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="E40" t="s">
-        <v>500</v>
+        <v>514</v>
       </c>
       <c r="F40">
         <v>35</v>
@@ -4888,7 +4992,7 @@
         <v>3</v>
       </c>
       <c r="H40" t="s">
-        <v>718</v>
+        <v>739</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -4902,10 +5006,10 @@
         <v>51</v>
       </c>
       <c r="D41" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="E41" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F41">
         <v>35</v>
@@ -4914,7 +5018,7 @@
         <v>3</v>
       </c>
       <c r="H41" t="s">
-        <v>719</v>
+        <v>740</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -4928,10 +5032,10 @@
         <v>52</v>
       </c>
       <c r="D42" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="E42" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
       <c r="F42">
         <v>61</v>
@@ -4940,7 +5044,7 @@
         <v>3</v>
       </c>
       <c r="H42" t="s">
-        <v>720</v>
+        <v>741</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -4954,10 +5058,10 @@
         <v>53</v>
       </c>
       <c r="D43" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="E43" t="s">
-        <v>503</v>
+        <v>517</v>
       </c>
       <c r="F43">
         <v>61</v>
@@ -4966,7 +5070,7 @@
         <v>3</v>
       </c>
       <c r="H43" t="s">
-        <v>721</v>
+        <v>742</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -4980,10 +5084,10 @@
         <v>54</v>
       </c>
       <c r="D44" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="E44" t="s">
-        <v>504</v>
+        <v>518</v>
       </c>
       <c r="F44">
         <v>61</v>
@@ -4992,7 +5096,7 @@
         <v>3</v>
       </c>
       <c r="H44" t="s">
-        <v>722</v>
+        <v>743</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -5006,10 +5110,10 @@
         <v>55</v>
       </c>
       <c r="D45" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="E45" t="s">
-        <v>505</v>
+        <v>519</v>
       </c>
       <c r="F45">
         <v>33</v>
@@ -5018,7 +5122,7 @@
         <v>3</v>
       </c>
       <c r="H45" t="s">
-        <v>723</v>
+        <v>744</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -5032,10 +5136,10 @@
         <v>56</v>
       </c>
       <c r="D46" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="E46" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F46">
         <v>33</v>
@@ -5044,7 +5148,7 @@
         <v>3</v>
       </c>
       <c r="H46" t="s">
-        <v>724</v>
+        <v>745</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -5058,10 +5162,10 @@
         <v>57</v>
       </c>
       <c r="D47" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="E47" t="s">
-        <v>507</v>
+        <v>521</v>
       </c>
       <c r="F47">
         <v>33</v>
@@ -5070,7 +5174,7 @@
         <v>3</v>
       </c>
       <c r="H47" t="s">
-        <v>725</v>
+        <v>746</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -5084,10 +5188,10 @@
         <v>58</v>
       </c>
       <c r="D48" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="E48" t="s">
-        <v>508</v>
+        <v>522</v>
       </c>
       <c r="F48">
         <v>43</v>
@@ -5096,7 +5200,7 @@
         <v>3</v>
       </c>
       <c r="H48" t="s">
-        <v>726</v>
+        <v>747</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -5110,10 +5214,10 @@
         <v>59</v>
       </c>
       <c r="D49" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="E49" t="s">
-        <v>509</v>
+        <v>523</v>
       </c>
       <c r="F49">
         <v>43</v>
@@ -5122,7 +5226,7 @@
         <v>3</v>
       </c>
       <c r="H49" t="s">
-        <v>727</v>
+        <v>748</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -5136,10 +5240,10 @@
         <v>60</v>
       </c>
       <c r="D50" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="E50" t="s">
-        <v>510</v>
+        <v>524</v>
       </c>
       <c r="F50">
         <v>43</v>
@@ -5148,7 +5252,7 @@
         <v>3</v>
       </c>
       <c r="H50" t="s">
-        <v>728</v>
+        <v>749</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -5162,10 +5266,10 @@
         <v>61</v>
       </c>
       <c r="D51" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="E51" t="s">
-        <v>511</v>
+        <v>525</v>
       </c>
       <c r="F51">
         <v>59</v>
@@ -5174,7 +5278,7 @@
         <v>3</v>
       </c>
       <c r="H51" t="s">
-        <v>729</v>
+        <v>750</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -5188,10 +5292,10 @@
         <v>62</v>
       </c>
       <c r="D52" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="E52" t="s">
-        <v>512</v>
+        <v>526</v>
       </c>
       <c r="F52">
         <v>59</v>
@@ -5200,7 +5304,7 @@
         <v>3</v>
       </c>
       <c r="H52" t="s">
-        <v>730</v>
+        <v>751</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -5214,10 +5318,10 @@
         <v>63</v>
       </c>
       <c r="D53" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="E53" t="s">
-        <v>513</v>
+        <v>527</v>
       </c>
       <c r="F53">
         <v>59</v>
@@ -5226,7 +5330,7 @@
         <v>3</v>
       </c>
       <c r="H53" t="s">
-        <v>731</v>
+        <v>752</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -5240,10 +5344,10 @@
         <v>64</v>
       </c>
       <c r="D54" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="E54" t="s">
-        <v>514</v>
+        <v>528</v>
       </c>
       <c r="F54">
         <v>20</v>
@@ -5252,7 +5356,7 @@
         <v>3</v>
       </c>
       <c r="H54" t="s">
-        <v>732</v>
+        <v>753</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -5266,10 +5370,10 @@
         <v>65</v>
       </c>
       <c r="D55" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="E55" t="s">
-        <v>515</v>
+        <v>529</v>
       </c>
       <c r="F55">
         <v>20</v>
@@ -5278,7 +5382,7 @@
         <v>3</v>
       </c>
       <c r="H55" t="s">
-        <v>733</v>
+        <v>754</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -5292,10 +5396,10 @@
         <v>66</v>
       </c>
       <c r="D56" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E56" t="s">
-        <v>516</v>
+        <v>530</v>
       </c>
       <c r="F56">
         <v>20</v>
@@ -5304,7 +5408,7 @@
         <v>3</v>
       </c>
       <c r="H56" t="s">
-        <v>734</v>
+        <v>755</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -5318,10 +5422,10 @@
         <v>67</v>
       </c>
       <c r="D57" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="E57" t="s">
-        <v>517</v>
+        <v>531</v>
       </c>
       <c r="F57">
         <v>49</v>
@@ -5330,7 +5434,7 @@
         <v>3</v>
       </c>
       <c r="H57" t="s">
-        <v>735</v>
+        <v>756</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -5344,10 +5448,10 @@
         <v>68</v>
       </c>
       <c r="D58" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="E58" t="s">
-        <v>518</v>
+        <v>532</v>
       </c>
       <c r="F58">
         <v>49</v>
@@ -5356,7 +5460,7 @@
         <v>3</v>
       </c>
       <c r="H58" t="s">
-        <v>736</v>
+        <v>757</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -5370,10 +5474,10 @@
         <v>69</v>
       </c>
       <c r="D59" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="E59" t="s">
-        <v>519</v>
+        <v>533</v>
       </c>
       <c r="F59">
         <v>49</v>
@@ -5382,7 +5486,7 @@
         <v>3</v>
       </c>
       <c r="H59" t="s">
-        <v>737</v>
+        <v>758</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -5396,10 +5500,10 @@
         <v>70</v>
       </c>
       <c r="D60" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="E60" t="s">
-        <v>520</v>
+        <v>534</v>
       </c>
       <c r="F60">
         <v>19</v>
@@ -5408,7 +5512,7 @@
         <v>3</v>
       </c>
       <c r="H60" t="s">
-        <v>738</v>
+        <v>759</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -5422,10 +5526,10 @@
         <v>71</v>
       </c>
       <c r="D61" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="E61" t="s">
-        <v>521</v>
+        <v>535</v>
       </c>
       <c r="F61">
         <v>19</v>
@@ -5434,7 +5538,7 @@
         <v>3</v>
       </c>
       <c r="H61" t="s">
-        <v>739</v>
+        <v>760</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -5448,10 +5552,10 @@
         <v>72</v>
       </c>
       <c r="D62" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="E62" t="s">
-        <v>522</v>
+        <v>536</v>
       </c>
       <c r="F62">
         <v>19</v>
@@ -5460,7 +5564,7 @@
         <v>3</v>
       </c>
       <c r="H62" t="s">
-        <v>740</v>
+        <v>761</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -5474,10 +5578,10 @@
         <v>73</v>
       </c>
       <c r="D63" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="E63" t="s">
-        <v>523</v>
+        <v>537</v>
       </c>
       <c r="F63">
         <v>12</v>
@@ -5486,7 +5590,7 @@
         <v>3</v>
       </c>
       <c r="H63" t="s">
-        <v>741</v>
+        <v>762</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -5500,10 +5604,10 @@
         <v>74</v>
       </c>
       <c r="D64" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="E64" t="s">
-        <v>524</v>
+        <v>538</v>
       </c>
       <c r="F64">
         <v>12</v>
@@ -5512,7 +5616,7 @@
         <v>3</v>
       </c>
       <c r="H64" t="s">
-        <v>742</v>
+        <v>763</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -5526,10 +5630,10 @@
         <v>75</v>
       </c>
       <c r="D65" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="E65" t="s">
-        <v>525</v>
+        <v>539</v>
       </c>
       <c r="F65">
         <v>12</v>
@@ -5538,7 +5642,7 @@
         <v>3</v>
       </c>
       <c r="H65" t="s">
-        <v>743</v>
+        <v>764</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -5552,10 +5656,10 @@
         <v>76</v>
       </c>
       <c r="D66" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="E66" t="s">
-        <v>526</v>
+        <v>540</v>
       </c>
       <c r="F66">
         <v>41</v>
@@ -5564,7 +5668,7 @@
         <v>3</v>
       </c>
       <c r="H66" t="s">
-        <v>744</v>
+        <v>765</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -5578,10 +5682,10 @@
         <v>77</v>
       </c>
       <c r="D67" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="E67" t="s">
-        <v>527</v>
+        <v>541</v>
       </c>
       <c r="F67">
         <v>41</v>
@@ -5590,7 +5694,7 @@
         <v>3</v>
       </c>
       <c r="H67" t="s">
-        <v>745</v>
+        <v>766</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -5604,10 +5708,10 @@
         <v>78</v>
       </c>
       <c r="D68" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="E68" t="s">
-        <v>528</v>
+        <v>542</v>
       </c>
       <c r="F68">
         <v>41</v>
@@ -5616,7 +5720,7 @@
         <v>3</v>
       </c>
       <c r="H68" t="s">
-        <v>746</v>
+        <v>767</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -5630,10 +5734,10 @@
         <v>79</v>
       </c>
       <c r="D69" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="E69" t="s">
-        <v>529</v>
+        <v>543</v>
       </c>
       <c r="F69">
         <v>63</v>
@@ -5642,7 +5746,7 @@
         <v>3</v>
       </c>
       <c r="H69" t="s">
-        <v>747</v>
+        <v>768</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -5656,10 +5760,10 @@
         <v>80</v>
       </c>
       <c r="D70" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="E70" t="s">
-        <v>530</v>
+        <v>544</v>
       </c>
       <c r="F70">
         <v>63</v>
@@ -5668,7 +5772,7 @@
         <v>3</v>
       </c>
       <c r="H70" t="s">
-        <v>748</v>
+        <v>769</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -5682,10 +5786,10 @@
         <v>81</v>
       </c>
       <c r="D71" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="E71" t="s">
-        <v>531</v>
+        <v>545</v>
       </c>
       <c r="F71">
         <v>63</v>
@@ -5694,7 +5798,7 @@
         <v>3</v>
       </c>
       <c r="H71" t="s">
-        <v>749</v>
+        <v>770</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -5708,10 +5812,10 @@
         <v>82</v>
       </c>
       <c r="D72" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="E72" t="s">
-        <v>532</v>
+        <v>546</v>
       </c>
       <c r="F72">
         <v>38</v>
@@ -5720,7 +5824,7 @@
         <v>3</v>
       </c>
       <c r="H72" t="s">
-        <v>750</v>
+        <v>771</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -5734,10 +5838,10 @@
         <v>83</v>
       </c>
       <c r="D73" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="E73" t="s">
-        <v>533</v>
+        <v>547</v>
       </c>
       <c r="F73">
         <v>38</v>
@@ -5746,7 +5850,7 @@
         <v>3</v>
       </c>
       <c r="H73" t="s">
-        <v>751</v>
+        <v>772</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -5760,10 +5864,10 @@
         <v>84</v>
       </c>
       <c r="D74" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="E74" t="s">
-        <v>534</v>
+        <v>548</v>
       </c>
       <c r="F74">
         <v>38</v>
@@ -5772,7 +5876,7 @@
         <v>3</v>
       </c>
       <c r="H74" t="s">
-        <v>752</v>
+        <v>773</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -5786,10 +5890,10 @@
         <v>85</v>
       </c>
       <c r="D75" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="E75" t="s">
-        <v>535</v>
+        <v>549</v>
       </c>
       <c r="F75">
         <v>39</v>
@@ -5798,7 +5902,7 @@
         <v>3</v>
       </c>
       <c r="H75" t="s">
-        <v>753</v>
+        <v>774</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -5812,10 +5916,10 @@
         <v>86</v>
       </c>
       <c r="D76" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="E76" t="s">
-        <v>536</v>
+        <v>550</v>
       </c>
       <c r="F76">
         <v>39</v>
@@ -5824,7 +5928,7 @@
         <v>3</v>
       </c>
       <c r="H76" t="s">
-        <v>754</v>
+        <v>775</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -5838,10 +5942,10 @@
         <v>87</v>
       </c>
       <c r="D77" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="E77" t="s">
-        <v>537</v>
+        <v>551</v>
       </c>
       <c r="F77">
         <v>39</v>
@@ -5850,7 +5954,7 @@
         <v>3</v>
       </c>
       <c r="H77" t="s">
-        <v>755</v>
+        <v>776</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -5864,10 +5968,10 @@
         <v>88</v>
       </c>
       <c r="D78" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="E78" t="s">
-        <v>538</v>
+        <v>552</v>
       </c>
       <c r="F78">
         <v>44</v>
@@ -5876,7 +5980,7 @@
         <v>3</v>
       </c>
       <c r="H78" t="s">
-        <v>756</v>
+        <v>777</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -5890,10 +5994,10 @@
         <v>89</v>
       </c>
       <c r="D79" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="E79" t="s">
-        <v>539</v>
+        <v>553</v>
       </c>
       <c r="F79">
         <v>44</v>
@@ -5902,7 +6006,7 @@
         <v>3</v>
       </c>
       <c r="H79" t="s">
-        <v>757</v>
+        <v>778</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -5916,10 +6020,10 @@
         <v>90</v>
       </c>
       <c r="D80" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="E80" t="s">
-        <v>540</v>
+        <v>554</v>
       </c>
       <c r="F80">
         <v>44</v>
@@ -5928,7 +6032,7 @@
         <v>3</v>
       </c>
       <c r="H80" t="s">
-        <v>758</v>
+        <v>779</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -5939,13 +6043,13 @@
         <v>91</v>
       </c>
       <c r="D81" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="E81" t="s">
-        <v>541</v>
+        <v>555</v>
       </c>
       <c r="H81" t="s">
-        <v>759</v>
+        <v>780</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -5956,13 +6060,13 @@
         <v>92</v>
       </c>
       <c r="D82" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="E82" t="s">
-        <v>542</v>
+        <v>556</v>
       </c>
       <c r="H82" t="s">
-        <v>759</v>
+        <v>780</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -5976,10 +6080,10 @@
         <v>93</v>
       </c>
       <c r="D83" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="E83" t="s">
-        <v>543</v>
+        <v>557</v>
       </c>
       <c r="F83">
         <v>13</v>
@@ -5988,7 +6092,7 @@
         <v>3</v>
       </c>
       <c r="H83" t="s">
-        <v>760</v>
+        <v>781</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -6002,10 +6106,10 @@
         <v>94</v>
       </c>
       <c r="D84" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="E84" t="s">
-        <v>544</v>
+        <v>558</v>
       </c>
       <c r="F84">
         <v>28</v>
@@ -6014,7 +6118,7 @@
         <v>3</v>
       </c>
       <c r="H84" t="s">
-        <v>761</v>
+        <v>782</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -6028,10 +6132,10 @@
         <v>95</v>
       </c>
       <c r="D85" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="E85" t="s">
-        <v>545</v>
+        <v>559</v>
       </c>
       <c r="F85">
         <v>20</v>
@@ -6040,7 +6144,7 @@
         <v>5</v>
       </c>
       <c r="H85" t="s">
-        <v>762</v>
+        <v>783</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -6054,10 +6158,10 @@
         <v>96</v>
       </c>
       <c r="D86" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="E86" t="s">
-        <v>546</v>
+        <v>560</v>
       </c>
       <c r="F86">
         <v>48</v>
@@ -6066,7 +6170,7 @@
         <v>3</v>
       </c>
       <c r="H86" t="s">
-        <v>763</v>
+        <v>784</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -6077,13 +6181,13 @@
         <v>97</v>
       </c>
       <c r="D87" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="E87" t="s">
-        <v>547</v>
+        <v>561</v>
       </c>
       <c r="H87" t="s">
-        <v>764</v>
+        <v>785</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -6094,13 +6198,13 @@
         <v>98</v>
       </c>
       <c r="D88" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="E88" t="s">
-        <v>548</v>
+        <v>562</v>
       </c>
       <c r="H88" t="s">
-        <v>764</v>
+        <v>785</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -6114,10 +6218,10 @@
         <v>99</v>
       </c>
       <c r="D89" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="E89" t="s">
-        <v>549</v>
+        <v>563</v>
       </c>
       <c r="F89">
         <v>12</v>
@@ -6126,7 +6230,7 @@
         <v>3</v>
       </c>
       <c r="H89" t="s">
-        <v>765</v>
+        <v>786</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -6140,10 +6244,10 @@
         <v>100</v>
       </c>
       <c r="D90" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="E90" t="s">
-        <v>550</v>
+        <v>564</v>
       </c>
       <c r="F90">
         <v>12</v>
@@ -6152,7 +6256,7 @@
         <v>3</v>
       </c>
       <c r="H90" t="s">
-        <v>766</v>
+        <v>787</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -6166,10 +6270,10 @@
         <v>101</v>
       </c>
       <c r="D91" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="E91" t="s">
-        <v>551</v>
+        <v>565</v>
       </c>
       <c r="F91">
         <v>12</v>
@@ -6178,7 +6282,7 @@
         <v>3</v>
       </c>
       <c r="H91" t="s">
-        <v>767</v>
+        <v>788</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -6192,10 +6296,10 @@
         <v>102</v>
       </c>
       <c r="D92" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="E92" t="s">
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F92">
         <v>12</v>
@@ -6204,7 +6308,7 @@
         <v>3</v>
       </c>
       <c r="H92" t="s">
-        <v>768</v>
+        <v>789</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -6218,10 +6322,10 @@
         <v>103</v>
       </c>
       <c r="D93" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="E93" t="s">
-        <v>553</v>
+        <v>567</v>
       </c>
       <c r="F93">
         <v>64</v>
@@ -6230,7 +6334,7 @@
         <v>4</v>
       </c>
       <c r="H93" t="s">
-        <v>769</v>
+        <v>790</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -6244,10 +6348,10 @@
         <v>104</v>
       </c>
       <c r="D94" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="E94" t="s">
-        <v>554</v>
+        <v>568</v>
       </c>
       <c r="F94">
         <v>64</v>
@@ -6256,7 +6360,7 @@
         <v>4</v>
       </c>
       <c r="H94" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -6267,13 +6371,13 @@
         <v>105</v>
       </c>
       <c r="D95" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="E95" t="s">
-        <v>555</v>
+        <v>569</v>
       </c>
       <c r="H95" t="s">
-        <v>771</v>
+        <v>792</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -6284,13 +6388,13 @@
         <v>106</v>
       </c>
       <c r="D96" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="E96" t="s">
-        <v>556</v>
+        <v>570</v>
       </c>
       <c r="H96" t="s">
-        <v>771</v>
+        <v>792</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -6304,10 +6408,10 @@
         <v>107</v>
       </c>
       <c r="D97" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="E97" t="s">
-        <v>557</v>
+        <v>571</v>
       </c>
       <c r="F97">
         <v>31</v>
@@ -6316,7 +6420,7 @@
         <v>4</v>
       </c>
       <c r="H97" t="s">
-        <v>772</v>
+        <v>793</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -6330,10 +6434,10 @@
         <v>108</v>
       </c>
       <c r="D98" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="E98" t="s">
-        <v>558</v>
+        <v>572</v>
       </c>
       <c r="F98">
         <v>21</v>
@@ -6342,7 +6446,7 @@
         <v>4</v>
       </c>
       <c r="H98" t="s">
-        <v>773</v>
+        <v>794</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -6356,10 +6460,10 @@
         <v>109</v>
       </c>
       <c r="D99" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="E99" t="s">
-        <v>559</v>
+        <v>573</v>
       </c>
       <c r="F99">
         <v>21</v>
@@ -6368,7 +6472,7 @@
         <v>4</v>
       </c>
       <c r="H99" t="s">
-        <v>774</v>
+        <v>795</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -6382,10 +6486,10 @@
         <v>110</v>
       </c>
       <c r="D100" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="E100" t="s">
-        <v>560</v>
+        <v>574</v>
       </c>
       <c r="F100">
         <v>21</v>
@@ -6394,7 +6498,7 @@
         <v>4</v>
       </c>
       <c r="H100" t="s">
-        <v>775</v>
+        <v>796</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -6408,10 +6512,10 @@
         <v>111</v>
       </c>
       <c r="D101" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="E101" t="s">
-        <v>561</v>
+        <v>575</v>
       </c>
       <c r="F101">
         <v>21</v>
@@ -6420,7 +6524,7 @@
         <v>4</v>
       </c>
       <c r="H101" t="s">
-        <v>776</v>
+        <v>797</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -6431,13 +6535,13 @@
         <v>112</v>
       </c>
       <c r="D102" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="E102" t="s">
-        <v>562</v>
+        <v>576</v>
       </c>
       <c r="H102" t="s">
-        <v>777</v>
+        <v>798</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -6448,13 +6552,13 @@
         <v>113</v>
       </c>
       <c r="D103" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="E103" t="s">
-        <v>563</v>
+        <v>577</v>
       </c>
       <c r="H103" t="s">
-        <v>777</v>
+        <v>798</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -6468,10 +6572,10 @@
         <v>114</v>
       </c>
       <c r="D104" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="E104" t="s">
-        <v>564</v>
+        <v>578</v>
       </c>
       <c r="F104">
         <v>30</v>
@@ -6480,7 +6584,7 @@
         <v>3</v>
       </c>
       <c r="H104" t="s">
-        <v>778</v>
+        <v>799</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -6494,10 +6598,10 @@
         <v>115</v>
       </c>
       <c r="D105" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="E105" t="s">
-        <v>565</v>
+        <v>579</v>
       </c>
       <c r="F105">
         <v>30</v>
@@ -6506,7 +6610,7 @@
         <v>3</v>
       </c>
       <c r="H105" t="s">
-        <v>779</v>
+        <v>800</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -6520,10 +6624,10 @@
         <v>116</v>
       </c>
       <c r="D106" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="E106" t="s">
-        <v>566</v>
+        <v>580</v>
       </c>
       <c r="F106">
         <v>58</v>
@@ -6532,7 +6636,7 @@
         <v>4</v>
       </c>
       <c r="H106" t="s">
-        <v>780</v>
+        <v>801</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
@@ -6546,10 +6650,10 @@
         <v>117</v>
       </c>
       <c r="D107" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="E107" t="s">
-        <v>567</v>
+        <v>581</v>
       </c>
       <c r="F107">
         <v>58</v>
@@ -6558,7 +6662,7 @@
         <v>4</v>
       </c>
       <c r="H107" t="s">
-        <v>781</v>
+        <v>802</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
@@ -6572,10 +6676,10 @@
         <v>118</v>
       </c>
       <c r="D108" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="E108" t="s">
-        <v>568</v>
+        <v>582</v>
       </c>
       <c r="F108">
         <v>34</v>
@@ -6584,7 +6688,7 @@
         <v>3</v>
       </c>
       <c r="H108" t="s">
-        <v>782</v>
+        <v>803</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
@@ -6595,13 +6699,13 @@
         <v>119</v>
       </c>
       <c r="D109" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="E109" t="s">
-        <v>569</v>
+        <v>583</v>
       </c>
       <c r="H109" t="s">
-        <v>783</v>
+        <v>804</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
@@ -6612,13 +6716,13 @@
         <v>120</v>
       </c>
       <c r="D110" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="E110" t="s">
-        <v>570</v>
+        <v>584</v>
       </c>
       <c r="H110" t="s">
-        <v>783</v>
+        <v>804</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
@@ -6632,13 +6736,13 @@
         <v>121</v>
       </c>
       <c r="D111" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="E111" t="s">
-        <v>571</v>
+        <v>585</v>
       </c>
       <c r="H111" t="s">
-        <v>784</v>
+        <v>805</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
@@ -6652,13 +6756,13 @@
         <v>122</v>
       </c>
       <c r="D112" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="E112" t="s">
-        <v>572</v>
+        <v>586</v>
       </c>
       <c r="H112" t="s">
-        <v>785</v>
+        <v>806</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -6672,13 +6776,13 @@
         <v>123</v>
       </c>
       <c r="D113" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="E113" t="s">
-        <v>573</v>
+        <v>587</v>
       </c>
       <c r="H113" t="s">
-        <v>786</v>
+        <v>807</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
@@ -6689,13 +6793,13 @@
         <v>124</v>
       </c>
       <c r="D114" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="E114" t="s">
-        <v>574</v>
+        <v>588</v>
       </c>
       <c r="H114" t="s">
-        <v>787</v>
+        <v>808</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
@@ -6706,13 +6810,13 @@
         <v>125</v>
       </c>
       <c r="D115" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="E115" t="s">
-        <v>575</v>
+        <v>589</v>
       </c>
       <c r="H115" t="s">
-        <v>787</v>
+        <v>808</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
@@ -6723,13 +6827,13 @@
         <v>126</v>
       </c>
       <c r="D116" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="E116" t="s">
-        <v>576</v>
+        <v>590</v>
       </c>
       <c r="H116" t="s">
-        <v>787</v>
+        <v>808</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
@@ -6743,13 +6847,13 @@
         <v>127</v>
       </c>
       <c r="D117" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="E117" t="s">
-        <v>577</v>
+        <v>591</v>
       </c>
       <c r="H117" t="s">
-        <v>788</v>
+        <v>809</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
@@ -6763,13 +6867,13 @@
         <v>128</v>
       </c>
       <c r="D118" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="E118" t="s">
-        <v>578</v>
+        <v>592</v>
       </c>
       <c r="H118" t="s">
-        <v>789</v>
+        <v>810</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
@@ -6783,13 +6887,13 @@
         <v>129</v>
       </c>
       <c r="D119" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="E119" t="s">
-        <v>579</v>
+        <v>593</v>
       </c>
       <c r="H119" t="s">
-        <v>790</v>
+        <v>811</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
@@ -6803,13 +6907,13 @@
         <v>130</v>
       </c>
       <c r="D120" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="E120" t="s">
-        <v>580</v>
+        <v>594</v>
       </c>
       <c r="H120" t="s">
-        <v>791</v>
+        <v>812</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
@@ -6820,10 +6924,10 @@
         <v>131</v>
       </c>
       <c r="D121" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="E121" t="s">
-        <v>581</v>
+        <v>595</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -6834,10 +6938,10 @@
         <v>132</v>
       </c>
       <c r="D122" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="E122" t="s">
-        <v>582</v>
+        <v>596</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
@@ -6848,10 +6952,10 @@
         <v>133</v>
       </c>
       <c r="D123" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="E123" t="s">
-        <v>583</v>
+        <v>597</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
@@ -6862,10 +6966,10 @@
         <v>134</v>
       </c>
       <c r="D124" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="E124" t="s">
-        <v>584</v>
+        <v>598</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
@@ -6879,13 +6983,13 @@
         <v>135</v>
       </c>
       <c r="D125" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="E125" t="s">
-        <v>585</v>
+        <v>599</v>
       </c>
       <c r="H125" t="s">
-        <v>792</v>
+        <v>813</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
@@ -6899,13 +7003,13 @@
         <v>136</v>
       </c>
       <c r="D126" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="E126" t="s">
-        <v>586</v>
+        <v>600</v>
       </c>
       <c r="H126" t="s">
-        <v>793</v>
+        <v>814</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
@@ -6919,13 +7023,13 @@
         <v>137</v>
       </c>
       <c r="D127" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="E127" t="s">
-        <v>587</v>
+        <v>601</v>
       </c>
       <c r="H127" t="s">
-        <v>794</v>
+        <v>815</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
@@ -6939,13 +7043,13 @@
         <v>138</v>
       </c>
       <c r="D128" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="E128" t="s">
-        <v>588</v>
+        <v>602</v>
       </c>
       <c r="H128" t="s">
-        <v>795</v>
+        <v>816</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
@@ -6959,13 +7063,13 @@
         <v>139</v>
       </c>
       <c r="D129" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="E129" t="s">
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="H129" t="s">
-        <v>796</v>
+        <v>817</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
@@ -6979,13 +7083,13 @@
         <v>140</v>
       </c>
       <c r="D130" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="E130" t="s">
-        <v>590</v>
+        <v>604</v>
       </c>
       <c r="H130" t="s">
-        <v>797</v>
+        <v>818</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
@@ -6999,13 +7103,13 @@
         <v>141</v>
       </c>
       <c r="D131" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="E131" t="s">
-        <v>591</v>
+        <v>605</v>
       </c>
       <c r="H131" t="s">
-        <v>798</v>
+        <v>819</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
@@ -7019,13 +7123,13 @@
         <v>142</v>
       </c>
       <c r="D132" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="E132" t="s">
-        <v>592</v>
+        <v>606</v>
       </c>
       <c r="H132" t="s">
-        <v>799</v>
+        <v>820</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
@@ -7039,13 +7143,13 @@
         <v>143</v>
       </c>
       <c r="D133" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="E133" t="s">
-        <v>593</v>
+        <v>607</v>
       </c>
       <c r="H133" t="s">
-        <v>800</v>
+        <v>821</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
@@ -7053,13 +7157,13 @@
         <v>144</v>
       </c>
       <c r="D134" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="E134" t="s">
-        <v>594</v>
+        <v>608</v>
       </c>
       <c r="H134" t="s">
-        <v>801</v>
+        <v>822</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
@@ -7070,13 +7174,13 @@
         <v>145</v>
       </c>
       <c r="D135" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="E135" t="s">
-        <v>595</v>
+        <v>609</v>
       </c>
       <c r="H135" t="s">
-        <v>802</v>
+        <v>823</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
@@ -7084,10 +7188,10 @@
         <v>146</v>
       </c>
       <c r="D136" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="E136" t="s">
-        <v>596</v>
+        <v>610</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
@@ -7101,13 +7205,13 @@
         <v>147</v>
       </c>
       <c r="D137" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="E137" t="s">
-        <v>597</v>
+        <v>611</v>
       </c>
       <c r="H137" t="s">
-        <v>803</v>
+        <v>824</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
@@ -7118,10 +7222,10 @@
         <v>148</v>
       </c>
       <c r="D138" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="E138" t="s">
-        <v>598</v>
+        <v>612</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
@@ -7132,10 +7236,10 @@
         <v>149</v>
       </c>
       <c r="D139" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="E139" t="s">
-        <v>599</v>
+        <v>613</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
@@ -7149,13 +7253,13 @@
         <v>150</v>
       </c>
       <c r="D140" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="E140" t="s">
-        <v>600</v>
+        <v>614</v>
       </c>
       <c r="H140" t="s">
-        <v>804</v>
+        <v>825</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
@@ -7166,10 +7270,10 @@
         <v>151</v>
       </c>
       <c r="D141" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="E141" t="s">
-        <v>601</v>
+        <v>615</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
@@ -7180,10 +7284,10 @@
         <v>152</v>
       </c>
       <c r="D142" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="E142" t="s">
-        <v>602</v>
+        <v>616</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
@@ -7197,13 +7301,13 @@
         <v>153</v>
       </c>
       <c r="D143" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="E143" t="s">
-        <v>603</v>
+        <v>617</v>
       </c>
       <c r="H143" t="s">
-        <v>805</v>
+        <v>826</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
@@ -7214,10 +7318,10 @@
         <v>154</v>
       </c>
       <c r="D144" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="E144" t="s">
-        <v>604</v>
+        <v>618</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
@@ -7228,10 +7332,10 @@
         <v>155</v>
       </c>
       <c r="D145" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="E145" t="s">
-        <v>605</v>
+        <v>619</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
@@ -7245,13 +7349,13 @@
         <v>156</v>
       </c>
       <c r="D146" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="E146" t="s">
-        <v>606</v>
+        <v>620</v>
       </c>
       <c r="H146" t="s">
-        <v>806</v>
+        <v>827</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
@@ -7262,10 +7366,10 @@
         <v>157</v>
       </c>
       <c r="D147" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="E147" t="s">
-        <v>607</v>
+        <v>621</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
@@ -7276,10 +7380,10 @@
         <v>158</v>
       </c>
       <c r="D148" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="E148" t="s">
-        <v>608</v>
+        <v>622</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
@@ -7293,13 +7397,13 @@
         <v>159</v>
       </c>
       <c r="D149" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="E149" t="s">
-        <v>609</v>
+        <v>623</v>
       </c>
       <c r="H149" t="s">
-        <v>807</v>
+        <v>828</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
@@ -7313,13 +7417,13 @@
         <v>160</v>
       </c>
       <c r="D150" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="E150" t="s">
-        <v>610</v>
+        <v>624</v>
       </c>
       <c r="H150" t="s">
-        <v>808</v>
+        <v>829</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
@@ -7333,13 +7437,13 @@
         <v>161</v>
       </c>
       <c r="D151" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="E151" t="s">
-        <v>611</v>
+        <v>625</v>
       </c>
       <c r="H151" t="s">
-        <v>809</v>
+        <v>830</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
@@ -7350,10 +7454,10 @@
         <v>162</v>
       </c>
       <c r="D152" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="E152" t="s">
-        <v>612</v>
+        <v>626</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
@@ -7364,10 +7468,10 @@
         <v>163</v>
       </c>
       <c r="D153" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="E153" t="s">
-        <v>613</v>
+        <v>627</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
@@ -7381,13 +7485,13 @@
         <v>164</v>
       </c>
       <c r="D154" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="E154" t="s">
-        <v>614</v>
+        <v>628</v>
       </c>
       <c r="H154" t="s">
-        <v>810</v>
+        <v>831</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
@@ -7398,10 +7502,10 @@
         <v>165</v>
       </c>
       <c r="D155" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="E155" t="s">
-        <v>615</v>
+        <v>629</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
@@ -7412,10 +7516,10 @@
         <v>166</v>
       </c>
       <c r="D156" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="E156" t="s">
-        <v>616</v>
+        <v>630</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
@@ -7429,13 +7533,13 @@
         <v>167</v>
       </c>
       <c r="D157" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="E157" t="s">
-        <v>617</v>
+        <v>631</v>
       </c>
       <c r="H157" t="s">
-        <v>811</v>
+        <v>832</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
@@ -7449,13 +7553,13 @@
         <v>168</v>
       </c>
       <c r="D158" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="E158" t="s">
-        <v>618</v>
+        <v>632</v>
       </c>
       <c r="H158" t="s">
-        <v>812</v>
+        <v>833</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
@@ -7466,10 +7570,10 @@
         <v>169</v>
       </c>
       <c r="D159" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="E159" t="s">
-        <v>619</v>
+        <v>633</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
@@ -7480,10 +7584,10 @@
         <v>170</v>
       </c>
       <c r="D160" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="E160" t="s">
-        <v>620</v>
+        <v>634</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
@@ -7497,13 +7601,13 @@
         <v>171</v>
       </c>
       <c r="D161" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="E161" t="s">
-        <v>621</v>
+        <v>635</v>
       </c>
       <c r="H161" t="s">
-        <v>813</v>
+        <v>834</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
@@ -7517,13 +7621,13 @@
         <v>172</v>
       </c>
       <c r="D162" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="E162" t="s">
-        <v>622</v>
+        <v>636</v>
       </c>
       <c r="H162" t="s">
-        <v>814</v>
+        <v>835</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
@@ -7537,13 +7641,13 @@
         <v>173</v>
       </c>
       <c r="D163" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="E163" t="s">
-        <v>623</v>
+        <v>637</v>
       </c>
       <c r="H163" t="s">
-        <v>815</v>
+        <v>836</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
@@ -7554,10 +7658,10 @@
         <v>174</v>
       </c>
       <c r="D164" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="E164" t="s">
-        <v>624</v>
+        <v>638</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
@@ -7568,10 +7672,10 @@
         <v>175</v>
       </c>
       <c r="D165" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="E165" t="s">
-        <v>625</v>
+        <v>639</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
@@ -7585,13 +7689,13 @@
         <v>176</v>
       </c>
       <c r="D166" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="E166" t="s">
-        <v>626</v>
+        <v>640</v>
       </c>
       <c r="H166" t="s">
-        <v>816</v>
+        <v>837</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
@@ -7605,13 +7709,13 @@
         <v>177</v>
       </c>
       <c r="D167" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="E167" t="s">
-        <v>627</v>
+        <v>641</v>
       </c>
       <c r="H167" t="s">
-        <v>817</v>
+        <v>838</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
@@ -7622,10 +7726,10 @@
         <v>178</v>
       </c>
       <c r="D168" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="E168" t="s">
-        <v>628</v>
+        <v>642</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
@@ -7636,10 +7740,10 @@
         <v>179</v>
       </c>
       <c r="D169" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="E169" t="s">
-        <v>629</v>
+        <v>643</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
@@ -7653,13 +7757,13 @@
         <v>180</v>
       </c>
       <c r="D170" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="E170" t="s">
-        <v>630</v>
+        <v>644</v>
       </c>
       <c r="H170" t="s">
-        <v>818</v>
+        <v>839</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
@@ -7673,13 +7777,13 @@
         <v>181</v>
       </c>
       <c r="D171" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="E171" t="s">
-        <v>631</v>
+        <v>645</v>
       </c>
       <c r="H171" t="s">
-        <v>819</v>
+        <v>840</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
@@ -7693,13 +7797,13 @@
         <v>182</v>
       </c>
       <c r="D172" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="E172" t="s">
-        <v>632</v>
+        <v>646</v>
       </c>
       <c r="H172" t="s">
-        <v>820</v>
+        <v>841</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
@@ -7713,13 +7817,13 @@
         <v>183</v>
       </c>
       <c r="D173" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="E173" t="s">
-        <v>633</v>
+        <v>647</v>
       </c>
       <c r="H173" t="s">
-        <v>821</v>
+        <v>842</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
@@ -7733,13 +7837,13 @@
         <v>184</v>
       </c>
       <c r="D174" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="E174" t="s">
-        <v>634</v>
+        <v>648</v>
       </c>
       <c r="H174" t="s">
-        <v>822</v>
+        <v>843</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
@@ -7750,13 +7854,13 @@
         <v>185</v>
       </c>
       <c r="D175" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="E175" t="s">
-        <v>635</v>
+        <v>649</v>
       </c>
       <c r="H175" t="s">
-        <v>823</v>
+        <v>844</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
@@ -7767,10 +7871,10 @@
         <v>186</v>
       </c>
       <c r="D176" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="E176" t="s">
-        <v>636</v>
+        <v>650</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
@@ -7781,10 +7885,10 @@
         <v>187</v>
       </c>
       <c r="D177" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="E177" t="s">
-        <v>637</v>
+        <v>651</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
@@ -7795,10 +7899,10 @@
         <v>188</v>
       </c>
       <c r="D178" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="E178" t="s">
-        <v>638</v>
+        <v>652</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
@@ -7812,13 +7916,13 @@
         <v>189</v>
       </c>
       <c r="D179" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="E179" t="s">
-        <v>639</v>
+        <v>653</v>
       </c>
       <c r="H179" t="s">
-        <v>824</v>
+        <v>845</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
@@ -7832,13 +7936,13 @@
         <v>190</v>
       </c>
       <c r="D180" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="E180" t="s">
-        <v>640</v>
+        <v>654</v>
       </c>
       <c r="H180" t="s">
-        <v>825</v>
+        <v>846</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
@@ -7849,13 +7953,13 @@
         <v>191</v>
       </c>
       <c r="D181" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="E181" t="s">
-        <v>641</v>
+        <v>655</v>
       </c>
       <c r="H181" t="s">
-        <v>826</v>
+        <v>847</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
@@ -7866,10 +7970,10 @@
         <v>192</v>
       </c>
       <c r="D182" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="E182" t="s">
-        <v>642</v>
+        <v>656</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
@@ -7880,10 +7984,10 @@
         <v>193</v>
       </c>
       <c r="D183" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="E183" t="s">
-        <v>643</v>
+        <v>657</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
@@ -7897,10 +8001,10 @@
         <v>194</v>
       </c>
       <c r="D184" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="E184" t="s">
-        <v>644</v>
+        <v>658</v>
       </c>
       <c r="F184">
         <v>4</v>
@@ -7909,7 +8013,7 @@
         <v>4</v>
       </c>
       <c r="H184" t="s">
-        <v>827</v>
+        <v>848</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
@@ -7923,10 +8027,10 @@
         <v>195</v>
       </c>
       <c r="D185" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="E185" t="s">
-        <v>645</v>
+        <v>659</v>
       </c>
       <c r="F185">
         <v>4</v>
@@ -7935,7 +8039,7 @@
         <v>4</v>
       </c>
       <c r="H185" t="s">
-        <v>828</v>
+        <v>849</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
@@ -7949,10 +8053,10 @@
         <v>196</v>
       </c>
       <c r="D186" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="E186" t="s">
-        <v>646</v>
+        <v>660</v>
       </c>
       <c r="F186">
         <v>46</v>
@@ -7961,7 +8065,7 @@
         <v>2</v>
       </c>
       <c r="H186" t="s">
-        <v>829</v>
+        <v>850</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
@@ -7975,10 +8079,10 @@
         <v>197</v>
       </c>
       <c r="D187" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="E187" t="s">
-        <v>647</v>
+        <v>661</v>
       </c>
       <c r="F187">
         <v>46</v>
@@ -7987,7 +8091,7 @@
         <v>2</v>
       </c>
       <c r="H187" t="s">
-        <v>830</v>
+        <v>851</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
@@ -7998,10 +8102,10 @@
         <v>198</v>
       </c>
       <c r="D188" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="E188" t="s">
-        <v>648</v>
+        <v>662</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
@@ -8012,10 +8116,10 @@
         <v>199</v>
       </c>
       <c r="D189" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E189" t="s">
-        <v>649</v>
+        <v>663</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
@@ -8029,10 +8133,10 @@
         <v>200</v>
       </c>
       <c r="D190" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="E190" t="s">
-        <v>650</v>
+        <v>664</v>
       </c>
       <c r="F190">
         <v>27</v>
@@ -8041,7 +8145,7 @@
         <v>6</v>
       </c>
       <c r="H190" t="s">
-        <v>831</v>
+        <v>852</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
@@ -8055,10 +8159,10 @@
         <v>201</v>
       </c>
       <c r="D191" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="E191" t="s">
-        <v>651</v>
+        <v>665</v>
       </c>
       <c r="F191">
         <v>27</v>
@@ -8067,7 +8171,7 @@
         <v>6</v>
       </c>
       <c r="H191" t="s">
-        <v>832</v>
+        <v>853</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
@@ -8081,10 +8185,10 @@
         <v>202</v>
       </c>
       <c r="D192" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="E192" t="s">
-        <v>652</v>
+        <v>666</v>
       </c>
       <c r="F192">
         <v>58</v>
@@ -8093,7 +8197,7 @@
         <v>2</v>
       </c>
       <c r="H192" t="s">
-        <v>833</v>
+        <v>854</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
@@ -8107,10 +8211,10 @@
         <v>203</v>
       </c>
       <c r="D193" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="E193" t="s">
-        <v>653</v>
+        <v>667</v>
       </c>
       <c r="F193">
         <v>58</v>
@@ -8119,7 +8223,7 @@
         <v>2</v>
       </c>
       <c r="H193" t="s">
-        <v>834</v>
+        <v>855</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
@@ -8130,10 +8234,10 @@
         <v>204</v>
       </c>
       <c r="D194" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="E194" t="s">
-        <v>654</v>
+        <v>668</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
@@ -8144,10 +8248,10 @@
         <v>205</v>
       </c>
       <c r="D195" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="E195" t="s">
-        <v>655</v>
+        <v>669</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
@@ -8161,10 +8265,10 @@
         <v>206</v>
       </c>
       <c r="D196" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="E196" t="s">
-        <v>656</v>
+        <v>670</v>
       </c>
       <c r="F196">
         <v>1</v>
@@ -8173,7 +8277,7 @@
         <v>5</v>
       </c>
       <c r="H196" t="s">
-        <v>835</v>
+        <v>856</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
@@ -8187,10 +8291,10 @@
         <v>207</v>
       </c>
       <c r="D197" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="E197" t="s">
-        <v>657</v>
+        <v>671</v>
       </c>
       <c r="F197">
         <v>1</v>
@@ -8199,7 +8303,7 @@
         <v>5</v>
       </c>
       <c r="H197" t="s">
-        <v>836</v>
+        <v>857</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
@@ -8213,10 +8317,10 @@
         <v>208</v>
       </c>
       <c r="D198" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="E198" t="s">
-        <v>658</v>
+        <v>672</v>
       </c>
       <c r="F198">
         <v>53</v>
@@ -8225,7 +8329,7 @@
         <v>3</v>
       </c>
       <c r="H198" t="s">
-        <v>837</v>
+        <v>858</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
@@ -8239,10 +8343,10 @@
         <v>209</v>
       </c>
       <c r="D199" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="E199" t="s">
-        <v>659</v>
+        <v>673</v>
       </c>
       <c r="F199">
         <v>53</v>
@@ -8251,7 +8355,7 @@
         <v>3</v>
       </c>
       <c r="H199" t="s">
-        <v>838</v>
+        <v>859</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
@@ -8265,10 +8369,10 @@
         <v>210</v>
       </c>
       <c r="D200" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="E200" t="s">
-        <v>660</v>
+        <v>674</v>
       </c>
       <c r="F200">
         <v>37</v>
@@ -8277,7 +8381,7 @@
         <v>2</v>
       </c>
       <c r="H200" t="s">
-        <v>839</v>
+        <v>860</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
@@ -8291,10 +8395,10 @@
         <v>211</v>
       </c>
       <c r="D201" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E201" t="s">
-        <v>661</v>
+        <v>675</v>
       </c>
       <c r="F201">
         <v>37</v>
@@ -8303,7 +8407,7 @@
         <v>2</v>
       </c>
       <c r="H201" t="s">
-        <v>840</v>
+        <v>861</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
@@ -8314,10 +8418,10 @@
         <v>212</v>
       </c>
       <c r="D202" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="E202" t="s">
-        <v>662</v>
+        <v>676</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
@@ -8328,10 +8432,10 @@
         <v>213</v>
       </c>
       <c r="D203" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="E203" t="s">
-        <v>663</v>
+        <v>677</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
@@ -8345,10 +8449,10 @@
         <v>214</v>
       </c>
       <c r="D204" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="E204" t="s">
-        <v>664</v>
+        <v>678</v>
       </c>
       <c r="F204">
         <v>8</v>
@@ -8357,7 +8461,7 @@
         <v>3</v>
       </c>
       <c r="H204" t="s">
-        <v>841</v>
+        <v>862</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
@@ -8371,10 +8475,10 @@
         <v>215</v>
       </c>
       <c r="D205" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="E205" t="s">
-        <v>665</v>
+        <v>679</v>
       </c>
       <c r="F205">
         <v>8</v>
@@ -8383,7 +8487,7 @@
         <v>3</v>
       </c>
       <c r="H205" t="s">
-        <v>842</v>
+        <v>863</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
@@ -8397,10 +8501,10 @@
         <v>216</v>
       </c>
       <c r="D206" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="E206" t="s">
-        <v>666</v>
+        <v>680</v>
       </c>
       <c r="F206">
         <v>50</v>
@@ -8409,7 +8513,7 @@
         <v>3</v>
       </c>
       <c r="H206" t="s">
-        <v>843</v>
+        <v>864</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
@@ -8423,10 +8527,10 @@
         <v>217</v>
       </c>
       <c r="D207" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="E207" t="s">
-        <v>667</v>
+        <v>681</v>
       </c>
       <c r="F207">
         <v>50</v>
@@ -8435,7 +8539,7 @@
         <v>3</v>
       </c>
       <c r="H207" t="s">
-        <v>844</v>
+        <v>865</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
@@ -8446,13 +8550,13 @@
         <v>218</v>
       </c>
       <c r="D208" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="E208" t="s">
-        <v>668</v>
+        <v>682</v>
       </c>
       <c r="H208" t="s">
-        <v>845</v>
+        <v>866</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
@@ -8463,10 +8567,10 @@
         <v>219</v>
       </c>
       <c r="D209" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="E209" t="s">
-        <v>669</v>
+        <v>683</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
@@ -8480,10 +8584,10 @@
         <v>220</v>
       </c>
       <c r="D210" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="E210" t="s">
-        <v>670</v>
+        <v>684</v>
       </c>
       <c r="F210">
         <v>62</v>
@@ -8492,7 +8596,7 @@
         <v>3</v>
       </c>
       <c r="H210" t="s">
-        <v>846</v>
+        <v>867</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
@@ -8506,10 +8610,10 @@
         <v>221</v>
       </c>
       <c r="D211" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="E211" t="s">
-        <v>671</v>
+        <v>685</v>
       </c>
       <c r="F211">
         <v>62</v>
@@ -8518,7 +8622,7 @@
         <v>3</v>
       </c>
       <c r="H211" t="s">
-        <v>847</v>
+        <v>868</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
@@ -8532,10 +8636,10 @@
         <v>222</v>
       </c>
       <c r="D212" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="E212" t="s">
-        <v>672</v>
+        <v>686</v>
       </c>
       <c r="F212">
         <v>48</v>
@@ -8544,7 +8648,7 @@
         <v>2</v>
       </c>
       <c r="H212" t="s">
-        <v>848</v>
+        <v>869</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
@@ -8558,10 +8662,10 @@
         <v>223</v>
       </c>
       <c r="D213" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="E213" t="s">
-        <v>673</v>
+        <v>687</v>
       </c>
       <c r="F213">
         <v>48</v>
@@ -8570,7 +8674,7 @@
         <v>2</v>
       </c>
       <c r="H213" t="s">
-        <v>849</v>
+        <v>870</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
@@ -8584,10 +8688,10 @@
         <v>224</v>
       </c>
       <c r="D214" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="E214" t="s">
-        <v>674</v>
+        <v>688</v>
       </c>
       <c r="F214">
         <v>45</v>
@@ -8596,7 +8700,7 @@
         <v>2</v>
       </c>
       <c r="H214" t="s">
-        <v>850</v>
+        <v>871</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
@@ -8610,10 +8714,10 @@
         <v>225</v>
       </c>
       <c r="D215" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E215" t="s">
-        <v>675</v>
+        <v>689</v>
       </c>
       <c r="F215">
         <v>45</v>
@@ -8622,7 +8726,7 @@
         <v>2</v>
       </c>
       <c r="H215" t="s">
-        <v>851</v>
+        <v>872</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
@@ -8633,10 +8737,10 @@
         <v>226</v>
       </c>
       <c r="D216" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="E216" t="s">
-        <v>676</v>
+        <v>690</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
@@ -8650,10 +8754,10 @@
         <v>227</v>
       </c>
       <c r="D217" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="E217" t="s">
-        <v>677</v>
+        <v>691</v>
       </c>
       <c r="F217">
         <v>2</v>
@@ -8662,7 +8766,7 @@
         <v>3</v>
       </c>
       <c r="H217" t="s">
-        <v>852</v>
+        <v>873</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
@@ -8676,10 +8780,10 @@
         <v>228</v>
       </c>
       <c r="D218" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="E218" t="s">
-        <v>678</v>
+        <v>692</v>
       </c>
       <c r="F218">
         <v>2</v>
@@ -8688,7 +8792,7 @@
         <v>3</v>
       </c>
       <c r="H218" t="s">
-        <v>853</v>
+        <v>874</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
@@ -8702,10 +8806,10 @@
         <v>229</v>
       </c>
       <c r="D219" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="E219" t="s">
-        <v>679</v>
+        <v>693</v>
       </c>
       <c r="F219">
         <v>19</v>
@@ -8714,7 +8818,7 @@
         <v>6</v>
       </c>
       <c r="H219" t="s">
-        <v>854</v>
+        <v>875</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
@@ -8722,10 +8826,10 @@
         <v>230</v>
       </c>
       <c r="D220" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="E220" t="s">
-        <v>680</v>
+        <v>694</v>
       </c>
       <c r="F220">
         <v>19</v>
@@ -8745,10 +8849,10 @@
         <v>231</v>
       </c>
       <c r="D221" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="E221" t="s">
-        <v>681</v>
+        <v>695</v>
       </c>
       <c r="F221">
         <v>19</v>
@@ -8757,7 +8861,7 @@
         <v>6</v>
       </c>
       <c r="H221" t="s">
-        <v>855</v>
+        <v>876</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
@@ -8768,10 +8872,10 @@
         <v>232</v>
       </c>
       <c r="D222" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="E222" t="s">
-        <v>682</v>
+        <v>696</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
@@ -8785,10 +8889,10 @@
         <v>233</v>
       </c>
       <c r="D223" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="E223" t="s">
-        <v>683</v>
+        <v>697</v>
       </c>
       <c r="F223">
         <v>5</v>
@@ -8797,7 +8901,7 @@
         <v>3</v>
       </c>
       <c r="H223" t="s">
-        <v>856</v>
+        <v>877</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
@@ -8811,10 +8915,10 @@
         <v>234</v>
       </c>
       <c r="D224" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="E224" t="s">
-        <v>684</v>
+        <v>698</v>
       </c>
       <c r="F224">
         <v>5</v>
@@ -8823,7 +8927,7 @@
         <v>3</v>
       </c>
       <c r="H224" t="s">
-        <v>857</v>
+        <v>878</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
@@ -8837,10 +8941,10 @@
         <v>235</v>
       </c>
       <c r="D225" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="E225" t="s">
-        <v>685</v>
+        <v>699</v>
       </c>
       <c r="F225">
         <v>15</v>
@@ -8849,7 +8953,7 @@
         <v>3</v>
       </c>
       <c r="H225" t="s">
-        <v>858</v>
+        <v>879</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
@@ -8863,10 +8967,10 @@
         <v>236</v>
       </c>
       <c r="D226" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="E226" t="s">
-        <v>686</v>
+        <v>700</v>
       </c>
       <c r="F226">
         <v>15</v>
@@ -8875,7 +8979,177 @@
         <v>3</v>
       </c>
       <c r="H226" t="s">
-        <v>859</v>
+        <v>880</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>8</v>
+      </c>
+      <c r="C227" t="s">
+        <v>237</v>
+      </c>
+      <c r="D227" t="s">
+        <v>469</v>
+      </c>
+      <c r="E227" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>8</v>
+      </c>
+      <c r="B228">
+        <v>41</v>
+      </c>
+      <c r="C228" t="s">
+        <v>238</v>
+      </c>
+      <c r="D228" t="s">
+        <v>470</v>
+      </c>
+      <c r="E228" t="s">
+        <v>702</v>
+      </c>
+      <c r="F228">
+        <v>30</v>
+      </c>
+      <c r="G228">
+        <v>4</v>
+      </c>
+      <c r="H228" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>8</v>
+      </c>
+      <c r="B229">
+        <v>41</v>
+      </c>
+      <c r="C229" t="s">
+        <v>239</v>
+      </c>
+      <c r="D229" t="s">
+        <v>471</v>
+      </c>
+      <c r="E229" t="s">
+        <v>703</v>
+      </c>
+      <c r="F229">
+        <v>30</v>
+      </c>
+      <c r="G229">
+        <v>4</v>
+      </c>
+      <c r="H229" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>8</v>
+      </c>
+      <c r="B230">
+        <v>42</v>
+      </c>
+      <c r="C230" t="s">
+        <v>240</v>
+      </c>
+      <c r="D230" t="s">
+        <v>472</v>
+      </c>
+      <c r="E230" t="s">
+        <v>704</v>
+      </c>
+      <c r="F230">
+        <v>16</v>
+      </c>
+      <c r="G230">
+        <v>3</v>
+      </c>
+      <c r="H230" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>8</v>
+      </c>
+      <c r="B231">
+        <v>42</v>
+      </c>
+      <c r="C231" t="s">
+        <v>241</v>
+      </c>
+      <c r="D231" t="s">
+        <v>473</v>
+      </c>
+      <c r="E231" t="s">
+        <v>705</v>
+      </c>
+      <c r="F231">
+        <v>16</v>
+      </c>
+      <c r="G231">
+        <v>3</v>
+      </c>
+      <c r="H231" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>8</v>
+      </c>
+      <c r="B232">
+        <v>43</v>
+      </c>
+      <c r="C232" t="s">
+        <v>242</v>
+      </c>
+      <c r="D232" t="s">
+        <v>474</v>
+      </c>
+      <c r="E232" t="s">
+        <v>706</v>
+      </c>
+      <c r="F232">
+        <v>52</v>
+      </c>
+      <c r="G232">
+        <v>4</v>
+      </c>
+      <c r="H232" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>8</v>
+      </c>
+      <c r="B233">
+        <v>43</v>
+      </c>
+      <c r="C233" t="s">
+        <v>243</v>
+      </c>
+      <c r="D233" t="s">
+        <v>475</v>
+      </c>
+      <c r="E233" t="s">
+        <v>707</v>
+      </c>
+      <c r="F233">
+        <v>52</v>
+      </c>
+      <c r="G233">
+        <v>4</v>
+      </c>
+      <c r="H233" t="s">
+        <v>886</v>
       </c>
     </row>
   </sheetData>

--- a/Exp_Record_Alfa.xlsx
+++ b/Exp_Record_Alfa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18BB745-5BC8-4E78-A25B-7AA2FB94DBE9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E55E34E-3142-4C52-91EF-8C5C62F28BBA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1995" yWindow="1905" windowWidth="26295" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1650" yWindow="1560" windowWidth="26295" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="887">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="914">
   <si>
     <t>Exp_collection</t>
   </si>
@@ -1728,6 +1728,58 @@
 4 blocks completed at 1158</t>
   </si>
   <si>
+    <t>Hp at around 1010
+001 at 1020 AM, rf mapping, 1, 3, 8 deg
+completed</t>
+  </si>
+  <si>
+    <t>Going for 54
+generate_integrated
+002 at 1032 AM
+54 (0,-0.5) 3 1 CMAES
+lasted around 16 minutes
+completed</t>
+  </si>
+  <si>
+    <t>003 at 1049 AM
+selectivity/manifold
+54 (0,-0.5) 3
+pasupathy refs
+86% performance at 1104, 3 blocks completed so far
+4 blocks as of 1108, 20 minutes…
+finished at 1112 AM, 5 reps
+completed</t>
+  </si>
+  <si>
+    <t>004 at 1113 AM
+57 (0,-0.5) 2 1 CMAES
+finished at 27 blocks
+completed</t>
+  </si>
+  <si>
+    <t>005 at 1126 AM
+57 ( 0 , -0.5) 2 selectivity/manifold
+4 reps at 1148 am
+completed
+completed</t>
+  </si>
+  <si>
+    <t>Last try, another evolution with IT. May or may not pan out.
+006 at 1149 AM
+generate integrated
+22 (-0.7,-2) 3 CMAES, 5/5 hash. Moderately good PSTH
+climbed to ~180 y gen 24, then jumped to 200 by gen 26.
+completed</t>
+  </si>
+  <si>
+    <t>007 at 1208 PM
+selectivity - manifold
+22 (-0.7,-2) 3, including pasupathy refs
+starting to blast at 130 ms; has had ~220 so far
+finishing at 4 reps at
+completed</t>
+  </si>
+  <si>
     <t>Alfa64chan-19112019-009</t>
   </si>
   <si>
@@ -2424,6 +2476,27 @@
     <t>Alfa64chan-28042020-007</t>
   </si>
   <si>
+    <t>Alfa64chan-29042020-001</t>
+  </si>
+  <si>
+    <t>Alfa64chan-29042020-002</t>
+  </si>
+  <si>
+    <t>Alfa64chan-29042020-003</t>
+  </si>
+  <si>
+    <t>Alfa64chan-29042020-004</t>
+  </si>
+  <si>
+    <t>Alfa64chan-29042020-005</t>
+  </si>
+  <si>
+    <t>Alfa64chan-29042020-006</t>
+  </si>
+  <si>
+    <t>Alfa64chan-29042020-007</t>
+  </si>
+  <si>
     <t>191119_Alfa_generate_parallel(3)</t>
   </si>
   <si>
@@ -3120,6 +3193,27 @@
     <t>200428_Alfa_selectivity_basic(2)</t>
   </si>
   <si>
+    <t>200429_Alfa_rfMapper_basic</t>
+  </si>
+  <si>
+    <t>200429_Alfa_generate_integrated</t>
+  </si>
+  <si>
+    <t>200429_Alfa_selectivity_basic</t>
+  </si>
+  <si>
+    <t>200429_Alfa_generate_integrated(1)</t>
+  </si>
+  <si>
+    <t>200429_Alfa_selectivity_basic(1)</t>
+  </si>
+  <si>
+    <t>200429_Alfa_generate_integrated(2)</t>
+  </si>
+  <si>
+    <t>200429_Alfa_selectivity_basic(2)</t>
+  </si>
+  <si>
     <t>N:\Stimuli\2019-06-Evolutions\alfa-191119a</t>
   </si>
   <si>
@@ -3655,6 +3749,24 @@
   </si>
   <si>
     <t>N:\Stimuli\2019-Manifold\alfa-200428c-selectivity</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-Manifold\alfa-200429a\2020-04-29-10-32-14</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-Manifold\alfa-200429a-selectivity</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-Manifold\alfa-200429b\2020-04-29-11-12-43</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-Manifold\alfa-200429b-selectivity</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-Manifold\alfa-200429c\2020-04-29-11-49-38</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-Manifold\alfa-200429c-selectivity</t>
   </si>
 </sst>
 </file>
@@ -4056,17 +4168,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H233"/>
+  <dimension ref="A1:H240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
-      <selection activeCell="G234" sqref="G234"/>
+    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
+      <selection activeCell="G241" sqref="G241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="64.85546875" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" customWidth="1"/>
-    <col min="5" max="5" width="45.42578125" customWidth="1"/>
+    <col min="3" max="3" width="68.85546875" customWidth="1"/>
+    <col min="4" max="4" width="28.42578125" customWidth="1"/>
+    <col min="5" max="5" width="54.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -4106,10 +4218,10 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="E2" t="s">
-        <v>476</v>
+        <v>490</v>
       </c>
       <c r="F2">
         <v>29</v>
@@ -4118,7 +4230,7 @@
         <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>708</v>
+        <v>729</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -4132,10 +4244,10 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="E3" t="s">
-        <v>477</v>
+        <v>491</v>
       </c>
       <c r="F3">
         <v>29</v>
@@ -4155,10 +4267,10 @@
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="E4" t="s">
-        <v>478</v>
+        <v>492</v>
       </c>
       <c r="F4">
         <v>29</v>
@@ -4167,7 +4279,7 @@
         <v>4</v>
       </c>
       <c r="H4" t="s">
-        <v>709</v>
+        <v>730</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -4181,10 +4293,10 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="E5" t="s">
-        <v>479</v>
+        <v>493</v>
       </c>
       <c r="F5">
         <v>29</v>
@@ -4193,7 +4305,7 @@
         <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>710</v>
+        <v>731</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -4207,16 +4319,16 @@
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="E6" t="s">
-        <v>480</v>
+        <v>494</v>
       </c>
       <c r="F6">
         <v>29</v>
       </c>
       <c r="H6" t="s">
-        <v>711</v>
+        <v>732</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -4230,10 +4342,10 @@
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="E7" t="s">
-        <v>481</v>
+        <v>495</v>
       </c>
       <c r="F7">
         <v>29</v>
@@ -4242,7 +4354,7 @@
         <v>4</v>
       </c>
       <c r="H7" t="s">
-        <v>712</v>
+        <v>733</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -4256,10 +4368,10 @@
         <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E8" t="s">
-        <v>482</v>
+        <v>496</v>
       </c>
       <c r="F8">
         <v>9</v>
@@ -4268,7 +4380,7 @@
         <v>3</v>
       </c>
       <c r="H8" t="s">
-        <v>713</v>
+        <v>734</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -4282,10 +4394,10 @@
         <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="E9" t="s">
-        <v>483</v>
+        <v>497</v>
       </c>
       <c r="F9">
         <v>9</v>
@@ -4294,7 +4406,7 @@
         <v>3</v>
       </c>
       <c r="H9" t="s">
-        <v>714</v>
+        <v>735</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -4308,10 +4420,10 @@
         <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="E10" t="s">
-        <v>484</v>
+        <v>498</v>
       </c>
       <c r="F10">
         <v>9</v>
@@ -4320,7 +4432,7 @@
         <v>3</v>
       </c>
       <c r="H10" t="s">
-        <v>715</v>
+        <v>736</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -4334,10 +4446,10 @@
         <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="E11" t="s">
-        <v>485</v>
+        <v>499</v>
       </c>
       <c r="F11">
         <v>32</v>
@@ -4346,7 +4458,7 @@
         <v>3</v>
       </c>
       <c r="H11" t="s">
-        <v>716</v>
+        <v>737</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -4360,10 +4472,10 @@
         <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="E12" t="s">
-        <v>486</v>
+        <v>500</v>
       </c>
       <c r="F12">
         <v>32</v>
@@ -4372,7 +4484,7 @@
         <v>3</v>
       </c>
       <c r="H12" t="s">
-        <v>717</v>
+        <v>738</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -4386,10 +4498,10 @@
         <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="E13" t="s">
-        <v>487</v>
+        <v>501</v>
       </c>
       <c r="F13">
         <v>32</v>
@@ -4398,7 +4510,7 @@
         <v>3</v>
       </c>
       <c r="H13" t="s">
-        <v>718</v>
+        <v>739</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -4406,10 +4518,10 @@
         <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="E14" t="s">
-        <v>488</v>
+        <v>502</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -4423,10 +4535,10 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="E15" t="s">
-        <v>489</v>
+        <v>503</v>
       </c>
       <c r="F15">
         <v>3</v>
@@ -4435,7 +4547,7 @@
         <v>3</v>
       </c>
       <c r="H15" t="s">
-        <v>719</v>
+        <v>740</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -4449,10 +4561,10 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="E16" t="s">
-        <v>490</v>
+        <v>504</v>
       </c>
       <c r="F16">
         <v>3</v>
@@ -4461,7 +4573,7 @@
         <v>3</v>
       </c>
       <c r="H16" t="s">
-        <v>720</v>
+        <v>741</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -4475,10 +4587,10 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="E17" t="s">
-        <v>491</v>
+        <v>505</v>
       </c>
       <c r="F17">
         <v>3</v>
@@ -4487,7 +4599,7 @@
         <v>3</v>
       </c>
       <c r="H17" t="s">
-        <v>721</v>
+        <v>742</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -4495,10 +4607,10 @@
         <v>28</v>
       </c>
       <c r="D18" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="E18" t="s">
-        <v>492</v>
+        <v>506</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -4512,10 +4624,10 @@
         <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="E19" t="s">
-        <v>493</v>
+        <v>507</v>
       </c>
       <c r="F19">
         <v>7</v>
@@ -4524,7 +4636,7 @@
         <v>3</v>
       </c>
       <c r="H19" t="s">
-        <v>722</v>
+        <v>743</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -4538,10 +4650,10 @@
         <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="E20" t="s">
-        <v>494</v>
+        <v>508</v>
       </c>
       <c r="F20">
         <v>7</v>
@@ -4550,7 +4662,7 @@
         <v>3</v>
       </c>
       <c r="H20" t="s">
-        <v>723</v>
+        <v>744</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -4564,10 +4676,10 @@
         <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="E21" t="s">
-        <v>495</v>
+        <v>509</v>
       </c>
       <c r="F21">
         <v>7</v>
@@ -4576,7 +4688,7 @@
         <v>3</v>
       </c>
       <c r="H21" t="s">
-        <v>724</v>
+        <v>745</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -4584,10 +4696,10 @@
         <v>32</v>
       </c>
       <c r="D22" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="E22" t="s">
-        <v>496</v>
+        <v>510</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -4595,16 +4707,16 @@
         <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="E23" t="s">
-        <v>497</v>
+        <v>511</v>
       </c>
       <c r="G23">
         <v>3</v>
       </c>
       <c r="H23" t="s">
-        <v>725</v>
+        <v>746</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -4612,16 +4724,16 @@
         <v>34</v>
       </c>
       <c r="D24" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="E24" t="s">
-        <v>498</v>
+        <v>512</v>
       </c>
       <c r="G24">
         <v>4</v>
       </c>
       <c r="H24" t="s">
-        <v>726</v>
+        <v>747</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -4629,10 +4741,10 @@
         <v>35</v>
       </c>
       <c r="D25" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="E25" t="s">
-        <v>499</v>
+        <v>513</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -4646,10 +4758,10 @@
         <v>36</v>
       </c>
       <c r="D26" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="E26" t="s">
-        <v>500</v>
+        <v>514</v>
       </c>
       <c r="F26">
         <v>51</v>
@@ -4658,7 +4770,7 @@
         <v>3</v>
       </c>
       <c r="H26" t="s">
-        <v>727</v>
+        <v>748</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -4672,10 +4784,10 @@
         <v>37</v>
       </c>
       <c r="D27" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="E27" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F27">
         <v>51</v>
@@ -4684,7 +4796,7 @@
         <v>3</v>
       </c>
       <c r="H27" t="s">
-        <v>728</v>
+        <v>749</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -4698,10 +4810,10 @@
         <v>38</v>
       </c>
       <c r="D28" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="E28" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
       <c r="F28">
         <v>51</v>
@@ -4710,7 +4822,7 @@
         <v>3</v>
       </c>
       <c r="H28" t="s">
-        <v>729</v>
+        <v>750</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -4718,10 +4830,10 @@
         <v>39</v>
       </c>
       <c r="D29" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="E29" t="s">
-        <v>503</v>
+        <v>517</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -4735,10 +4847,10 @@
         <v>40</v>
       </c>
       <c r="D30" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="E30" t="s">
-        <v>504</v>
+        <v>518</v>
       </c>
       <c r="F30">
         <v>7</v>
@@ -4747,7 +4859,7 @@
         <v>3</v>
       </c>
       <c r="H30" t="s">
-        <v>730</v>
+        <v>751</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -4761,10 +4873,10 @@
         <v>41</v>
       </c>
       <c r="D31" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="E31" t="s">
-        <v>505</v>
+        <v>519</v>
       </c>
       <c r="F31">
         <v>7</v>
@@ -4773,7 +4885,7 @@
         <v>3</v>
       </c>
       <c r="H31" t="s">
-        <v>731</v>
+        <v>752</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -4787,10 +4899,10 @@
         <v>42</v>
       </c>
       <c r="D32" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="E32" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F32">
         <v>7</v>
@@ -4799,7 +4911,7 @@
         <v>3</v>
       </c>
       <c r="H32" t="s">
-        <v>732</v>
+        <v>753</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -4807,10 +4919,10 @@
         <v>43</v>
       </c>
       <c r="D33" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="E33" t="s">
-        <v>507</v>
+        <v>521</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -4824,10 +4936,10 @@
         <v>44</v>
       </c>
       <c r="D34" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="E34" t="s">
-        <v>508</v>
+        <v>522</v>
       </c>
       <c r="F34">
         <v>7</v>
@@ -4836,7 +4948,7 @@
         <v>3</v>
       </c>
       <c r="H34" t="s">
-        <v>733</v>
+        <v>754</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -4850,10 +4962,10 @@
         <v>45</v>
       </c>
       <c r="D35" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="E35" t="s">
-        <v>509</v>
+        <v>523</v>
       </c>
       <c r="F35">
         <v>7</v>
@@ -4862,7 +4974,7 @@
         <v>3</v>
       </c>
       <c r="H35" t="s">
-        <v>734</v>
+        <v>755</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -4876,10 +4988,10 @@
         <v>46</v>
       </c>
       <c r="D36" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="E36" t="s">
-        <v>510</v>
+        <v>524</v>
       </c>
       <c r="F36">
         <v>7</v>
@@ -4888,7 +5000,7 @@
         <v>3</v>
       </c>
       <c r="H36" t="s">
-        <v>735</v>
+        <v>756</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -4902,10 +5014,10 @@
         <v>47</v>
       </c>
       <c r="D37" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="E37" t="s">
-        <v>511</v>
+        <v>525</v>
       </c>
       <c r="F37">
         <v>36</v>
@@ -4914,7 +5026,7 @@
         <v>3</v>
       </c>
       <c r="H37" t="s">
-        <v>736</v>
+        <v>757</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -4928,10 +5040,10 @@
         <v>48</v>
       </c>
       <c r="D38" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="E38" t="s">
-        <v>512</v>
+        <v>526</v>
       </c>
       <c r="F38">
         <v>36</v>
@@ -4940,7 +5052,7 @@
         <v>3</v>
       </c>
       <c r="H38" t="s">
-        <v>737</v>
+        <v>758</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -4954,10 +5066,10 @@
         <v>49</v>
       </c>
       <c r="D39" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="E39" t="s">
-        <v>513</v>
+        <v>527</v>
       </c>
       <c r="F39">
         <v>35</v>
@@ -4966,7 +5078,7 @@
         <v>3</v>
       </c>
       <c r="H39" t="s">
-        <v>738</v>
+        <v>759</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -4980,10 +5092,10 @@
         <v>50</v>
       </c>
       <c r="D40" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="E40" t="s">
-        <v>514</v>
+        <v>528</v>
       </c>
       <c r="F40">
         <v>35</v>
@@ -4992,7 +5104,7 @@
         <v>3</v>
       </c>
       <c r="H40" t="s">
-        <v>739</v>
+        <v>760</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -5006,10 +5118,10 @@
         <v>51</v>
       </c>
       <c r="D41" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="E41" t="s">
-        <v>515</v>
+        <v>529</v>
       </c>
       <c r="F41">
         <v>35</v>
@@ -5018,7 +5130,7 @@
         <v>3</v>
       </c>
       <c r="H41" t="s">
-        <v>740</v>
+        <v>761</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -5032,10 +5144,10 @@
         <v>52</v>
       </c>
       <c r="D42" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="E42" t="s">
-        <v>516</v>
+        <v>530</v>
       </c>
       <c r="F42">
         <v>61</v>
@@ -5044,7 +5156,7 @@
         <v>3</v>
       </c>
       <c r="H42" t="s">
-        <v>741</v>
+        <v>762</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -5058,10 +5170,10 @@
         <v>53</v>
       </c>
       <c r="D43" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="E43" t="s">
-        <v>517</v>
+        <v>531</v>
       </c>
       <c r="F43">
         <v>61</v>
@@ -5070,7 +5182,7 @@
         <v>3</v>
       </c>
       <c r="H43" t="s">
-        <v>742</v>
+        <v>763</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -5084,10 +5196,10 @@
         <v>54</v>
       </c>
       <c r="D44" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="E44" t="s">
-        <v>518</v>
+        <v>532</v>
       </c>
       <c r="F44">
         <v>61</v>
@@ -5096,7 +5208,7 @@
         <v>3</v>
       </c>
       <c r="H44" t="s">
-        <v>743</v>
+        <v>764</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -5110,10 +5222,10 @@
         <v>55</v>
       </c>
       <c r="D45" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="E45" t="s">
-        <v>519</v>
+        <v>533</v>
       </c>
       <c r="F45">
         <v>33</v>
@@ -5122,7 +5234,7 @@
         <v>3</v>
       </c>
       <c r="H45" t="s">
-        <v>744</v>
+        <v>765</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -5136,10 +5248,10 @@
         <v>56</v>
       </c>
       <c r="D46" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="E46" t="s">
-        <v>520</v>
+        <v>534</v>
       </c>
       <c r="F46">
         <v>33</v>
@@ -5148,7 +5260,7 @@
         <v>3</v>
       </c>
       <c r="H46" t="s">
-        <v>745</v>
+        <v>766</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -5162,10 +5274,10 @@
         <v>57</v>
       </c>
       <c r="D47" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="E47" t="s">
-        <v>521</v>
+        <v>535</v>
       </c>
       <c r="F47">
         <v>33</v>
@@ -5174,7 +5286,7 @@
         <v>3</v>
       </c>
       <c r="H47" t="s">
-        <v>746</v>
+        <v>767</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -5188,10 +5300,10 @@
         <v>58</v>
       </c>
       <c r="D48" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="E48" t="s">
-        <v>522</v>
+        <v>536</v>
       </c>
       <c r="F48">
         <v>43</v>
@@ -5200,7 +5312,7 @@
         <v>3</v>
       </c>
       <c r="H48" t="s">
-        <v>747</v>
+        <v>768</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -5214,10 +5326,10 @@
         <v>59</v>
       </c>
       <c r="D49" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E49" t="s">
-        <v>523</v>
+        <v>537</v>
       </c>
       <c r="F49">
         <v>43</v>
@@ -5226,7 +5338,7 @@
         <v>3</v>
       </c>
       <c r="H49" t="s">
-        <v>748</v>
+        <v>769</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -5240,10 +5352,10 @@
         <v>60</v>
       </c>
       <c r="D50" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="E50" t="s">
-        <v>524</v>
+        <v>538</v>
       </c>
       <c r="F50">
         <v>43</v>
@@ -5252,7 +5364,7 @@
         <v>3</v>
       </c>
       <c r="H50" t="s">
-        <v>749</v>
+        <v>770</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -5266,10 +5378,10 @@
         <v>61</v>
       </c>
       <c r="D51" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="E51" t="s">
-        <v>525</v>
+        <v>539</v>
       </c>
       <c r="F51">
         <v>59</v>
@@ -5278,7 +5390,7 @@
         <v>3</v>
       </c>
       <c r="H51" t="s">
-        <v>750</v>
+        <v>771</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -5292,10 +5404,10 @@
         <v>62</v>
       </c>
       <c r="D52" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="E52" t="s">
-        <v>526</v>
+        <v>540</v>
       </c>
       <c r="F52">
         <v>59</v>
@@ -5304,7 +5416,7 @@
         <v>3</v>
       </c>
       <c r="H52" t="s">
-        <v>751</v>
+        <v>772</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -5318,10 +5430,10 @@
         <v>63</v>
       </c>
       <c r="D53" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="E53" t="s">
-        <v>527</v>
+        <v>541</v>
       </c>
       <c r="F53">
         <v>59</v>
@@ -5330,7 +5442,7 @@
         <v>3</v>
       </c>
       <c r="H53" t="s">
-        <v>752</v>
+        <v>773</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -5344,10 +5456,10 @@
         <v>64</v>
       </c>
       <c r="D54" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="E54" t="s">
-        <v>528</v>
+        <v>542</v>
       </c>
       <c r="F54">
         <v>20</v>
@@ -5356,7 +5468,7 @@
         <v>3</v>
       </c>
       <c r="H54" t="s">
-        <v>753</v>
+        <v>774</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -5370,10 +5482,10 @@
         <v>65</v>
       </c>
       <c r="D55" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="E55" t="s">
-        <v>529</v>
+        <v>543</v>
       </c>
       <c r="F55">
         <v>20</v>
@@ -5382,7 +5494,7 @@
         <v>3</v>
       </c>
       <c r="H55" t="s">
-        <v>754</v>
+        <v>775</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -5396,10 +5508,10 @@
         <v>66</v>
       </c>
       <c r="D56" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="E56" t="s">
-        <v>530</v>
+        <v>544</v>
       </c>
       <c r="F56">
         <v>20</v>
@@ -5408,7 +5520,7 @@
         <v>3</v>
       </c>
       <c r="H56" t="s">
-        <v>755</v>
+        <v>776</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -5422,10 +5534,10 @@
         <v>67</v>
       </c>
       <c r="D57" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="E57" t="s">
-        <v>531</v>
+        <v>545</v>
       </c>
       <c r="F57">
         <v>49</v>
@@ -5434,7 +5546,7 @@
         <v>3</v>
       </c>
       <c r="H57" t="s">
-        <v>756</v>
+        <v>777</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -5448,10 +5560,10 @@
         <v>68</v>
       </c>
       <c r="D58" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="E58" t="s">
-        <v>532</v>
+        <v>546</v>
       </c>
       <c r="F58">
         <v>49</v>
@@ -5460,7 +5572,7 @@
         <v>3</v>
       </c>
       <c r="H58" t="s">
-        <v>757</v>
+        <v>778</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -5474,10 +5586,10 @@
         <v>69</v>
       </c>
       <c r="D59" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="E59" t="s">
-        <v>533</v>
+        <v>547</v>
       </c>
       <c r="F59">
         <v>49</v>
@@ -5486,7 +5598,7 @@
         <v>3</v>
       </c>
       <c r="H59" t="s">
-        <v>758</v>
+        <v>779</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -5500,10 +5612,10 @@
         <v>70</v>
       </c>
       <c r="D60" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="E60" t="s">
-        <v>534</v>
+        <v>548</v>
       </c>
       <c r="F60">
         <v>19</v>
@@ -5512,7 +5624,7 @@
         <v>3</v>
       </c>
       <c r="H60" t="s">
-        <v>759</v>
+        <v>780</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -5526,10 +5638,10 @@
         <v>71</v>
       </c>
       <c r="D61" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="E61" t="s">
-        <v>535</v>
+        <v>549</v>
       </c>
       <c r="F61">
         <v>19</v>
@@ -5538,7 +5650,7 @@
         <v>3</v>
       </c>
       <c r="H61" t="s">
-        <v>760</v>
+        <v>781</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -5552,10 +5664,10 @@
         <v>72</v>
       </c>
       <c r="D62" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="E62" t="s">
-        <v>536</v>
+        <v>550</v>
       </c>
       <c r="F62">
         <v>19</v>
@@ -5564,7 +5676,7 @@
         <v>3</v>
       </c>
       <c r="H62" t="s">
-        <v>761</v>
+        <v>782</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -5578,10 +5690,10 @@
         <v>73</v>
       </c>
       <c r="D63" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="E63" t="s">
-        <v>537</v>
+        <v>551</v>
       </c>
       <c r="F63">
         <v>12</v>
@@ -5590,7 +5702,7 @@
         <v>3</v>
       </c>
       <c r="H63" t="s">
-        <v>762</v>
+        <v>783</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -5604,10 +5716,10 @@
         <v>74</v>
       </c>
       <c r="D64" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="E64" t="s">
-        <v>538</v>
+        <v>552</v>
       </c>
       <c r="F64">
         <v>12</v>
@@ -5616,7 +5728,7 @@
         <v>3</v>
       </c>
       <c r="H64" t="s">
-        <v>763</v>
+        <v>784</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -5630,10 +5742,10 @@
         <v>75</v>
       </c>
       <c r="D65" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="E65" t="s">
-        <v>539</v>
+        <v>553</v>
       </c>
       <c r="F65">
         <v>12</v>
@@ -5642,7 +5754,7 @@
         <v>3</v>
       </c>
       <c r="H65" t="s">
-        <v>764</v>
+        <v>785</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -5656,10 +5768,10 @@
         <v>76</v>
       </c>
       <c r="D66" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="E66" t="s">
-        <v>540</v>
+        <v>554</v>
       </c>
       <c r="F66">
         <v>41</v>
@@ -5668,7 +5780,7 @@
         <v>3</v>
       </c>
       <c r="H66" t="s">
-        <v>765</v>
+        <v>786</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -5682,10 +5794,10 @@
         <v>77</v>
       </c>
       <c r="D67" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="E67" t="s">
-        <v>541</v>
+        <v>555</v>
       </c>
       <c r="F67">
         <v>41</v>
@@ -5694,7 +5806,7 @@
         <v>3</v>
       </c>
       <c r="H67" t="s">
-        <v>766</v>
+        <v>787</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -5708,10 +5820,10 @@
         <v>78</v>
       </c>
       <c r="D68" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="E68" t="s">
-        <v>542</v>
+        <v>556</v>
       </c>
       <c r="F68">
         <v>41</v>
@@ -5720,7 +5832,7 @@
         <v>3</v>
       </c>
       <c r="H68" t="s">
-        <v>767</v>
+        <v>788</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -5734,10 +5846,10 @@
         <v>79</v>
       </c>
       <c r="D69" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="E69" t="s">
-        <v>543</v>
+        <v>557</v>
       </c>
       <c r="F69">
         <v>63</v>
@@ -5746,7 +5858,7 @@
         <v>3</v>
       </c>
       <c r="H69" t="s">
-        <v>768</v>
+        <v>789</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -5760,10 +5872,10 @@
         <v>80</v>
       </c>
       <c r="D70" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="E70" t="s">
-        <v>544</v>
+        <v>558</v>
       </c>
       <c r="F70">
         <v>63</v>
@@ -5772,7 +5884,7 @@
         <v>3</v>
       </c>
       <c r="H70" t="s">
-        <v>769</v>
+        <v>790</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -5786,10 +5898,10 @@
         <v>81</v>
       </c>
       <c r="D71" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="E71" t="s">
-        <v>545</v>
+        <v>559</v>
       </c>
       <c r="F71">
         <v>63</v>
@@ -5798,7 +5910,7 @@
         <v>3</v>
       </c>
       <c r="H71" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -5812,10 +5924,10 @@
         <v>82</v>
       </c>
       <c r="D72" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="E72" t="s">
-        <v>546</v>
+        <v>560</v>
       </c>
       <c r="F72">
         <v>38</v>
@@ -5824,7 +5936,7 @@
         <v>3</v>
       </c>
       <c r="H72" t="s">
-        <v>771</v>
+        <v>792</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -5838,10 +5950,10 @@
         <v>83</v>
       </c>
       <c r="D73" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="E73" t="s">
-        <v>547</v>
+        <v>561</v>
       </c>
       <c r="F73">
         <v>38</v>
@@ -5850,7 +5962,7 @@
         <v>3</v>
       </c>
       <c r="H73" t="s">
-        <v>772</v>
+        <v>793</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -5864,10 +5976,10 @@
         <v>84</v>
       </c>
       <c r="D74" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="E74" t="s">
-        <v>548</v>
+        <v>562</v>
       </c>
       <c r="F74">
         <v>38</v>
@@ -5876,7 +5988,7 @@
         <v>3</v>
       </c>
       <c r="H74" t="s">
-        <v>773</v>
+        <v>794</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -5890,10 +6002,10 @@
         <v>85</v>
       </c>
       <c r="D75" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="E75" t="s">
-        <v>549</v>
+        <v>563</v>
       </c>
       <c r="F75">
         <v>39</v>
@@ -5902,7 +6014,7 @@
         <v>3</v>
       </c>
       <c r="H75" t="s">
-        <v>774</v>
+        <v>795</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -5916,10 +6028,10 @@
         <v>86</v>
       </c>
       <c r="D76" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="E76" t="s">
-        <v>550</v>
+        <v>564</v>
       </c>
       <c r="F76">
         <v>39</v>
@@ -5928,7 +6040,7 @@
         <v>3</v>
       </c>
       <c r="H76" t="s">
-        <v>775</v>
+        <v>796</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -5942,10 +6054,10 @@
         <v>87</v>
       </c>
       <c r="D77" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="E77" t="s">
-        <v>551</v>
+        <v>565</v>
       </c>
       <c r="F77">
         <v>39</v>
@@ -5954,7 +6066,7 @@
         <v>3</v>
       </c>
       <c r="H77" t="s">
-        <v>776</v>
+        <v>797</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -5968,10 +6080,10 @@
         <v>88</v>
       </c>
       <c r="D78" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="E78" t="s">
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F78">
         <v>44</v>
@@ -5980,7 +6092,7 @@
         <v>3</v>
       </c>
       <c r="H78" t="s">
-        <v>777</v>
+        <v>798</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -5994,10 +6106,10 @@
         <v>89</v>
       </c>
       <c r="D79" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="E79" t="s">
-        <v>553</v>
+        <v>567</v>
       </c>
       <c r="F79">
         <v>44</v>
@@ -6006,7 +6118,7 @@
         <v>3</v>
       </c>
       <c r="H79" t="s">
-        <v>778</v>
+        <v>799</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -6020,10 +6132,10 @@
         <v>90</v>
       </c>
       <c r="D80" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="E80" t="s">
-        <v>554</v>
+        <v>568</v>
       </c>
       <c r="F80">
         <v>44</v>
@@ -6032,7 +6144,7 @@
         <v>3</v>
       </c>
       <c r="H80" t="s">
-        <v>779</v>
+        <v>800</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -6043,13 +6155,13 @@
         <v>91</v>
       </c>
       <c r="D81" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="E81" t="s">
-        <v>555</v>
+        <v>569</v>
       </c>
       <c r="H81" t="s">
-        <v>780</v>
+        <v>801</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -6060,13 +6172,13 @@
         <v>92</v>
       </c>
       <c r="D82" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="E82" t="s">
-        <v>556</v>
+        <v>570</v>
       </c>
       <c r="H82" t="s">
-        <v>780</v>
+        <v>801</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -6080,10 +6192,10 @@
         <v>93</v>
       </c>
       <c r="D83" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="E83" t="s">
-        <v>557</v>
+        <v>571</v>
       </c>
       <c r="F83">
         <v>13</v>
@@ -6092,7 +6204,7 @@
         <v>3</v>
       </c>
       <c r="H83" t="s">
-        <v>781</v>
+        <v>802</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -6106,10 +6218,10 @@
         <v>94</v>
       </c>
       <c r="D84" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="E84" t="s">
-        <v>558</v>
+        <v>572</v>
       </c>
       <c r="F84">
         <v>28</v>
@@ -6118,7 +6230,7 @@
         <v>3</v>
       </c>
       <c r="H84" t="s">
-        <v>782</v>
+        <v>803</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -6132,10 +6244,10 @@
         <v>95</v>
       </c>
       <c r="D85" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="E85" t="s">
-        <v>559</v>
+        <v>573</v>
       </c>
       <c r="F85">
         <v>20</v>
@@ -6144,7 +6256,7 @@
         <v>5</v>
       </c>
       <c r="H85" t="s">
-        <v>783</v>
+        <v>804</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -6158,10 +6270,10 @@
         <v>96</v>
       </c>
       <c r="D86" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="E86" t="s">
-        <v>560</v>
+        <v>574</v>
       </c>
       <c r="F86">
         <v>48</v>
@@ -6170,7 +6282,7 @@
         <v>3</v>
       </c>
       <c r="H86" t="s">
-        <v>784</v>
+        <v>805</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -6181,13 +6293,13 @@
         <v>97</v>
       </c>
       <c r="D87" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="E87" t="s">
-        <v>561</v>
+        <v>575</v>
       </c>
       <c r="H87" t="s">
-        <v>785</v>
+        <v>806</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -6198,13 +6310,13 @@
         <v>98</v>
       </c>
       <c r="D88" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="E88" t="s">
-        <v>562</v>
+        <v>576</v>
       </c>
       <c r="H88" t="s">
-        <v>785</v>
+        <v>806</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -6218,10 +6330,10 @@
         <v>99</v>
       </c>
       <c r="D89" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="E89" t="s">
-        <v>563</v>
+        <v>577</v>
       </c>
       <c r="F89">
         <v>12</v>
@@ -6230,7 +6342,7 @@
         <v>3</v>
       </c>
       <c r="H89" t="s">
-        <v>786</v>
+        <v>807</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -6244,10 +6356,10 @@
         <v>100</v>
       </c>
       <c r="D90" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="E90" t="s">
-        <v>564</v>
+        <v>578</v>
       </c>
       <c r="F90">
         <v>12</v>
@@ -6256,7 +6368,7 @@
         <v>3</v>
       </c>
       <c r="H90" t="s">
-        <v>787</v>
+        <v>808</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -6270,10 +6382,10 @@
         <v>101</v>
       </c>
       <c r="D91" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="E91" t="s">
-        <v>565</v>
+        <v>579</v>
       </c>
       <c r="F91">
         <v>12</v>
@@ -6282,7 +6394,7 @@
         <v>3</v>
       </c>
       <c r="H91" t="s">
-        <v>788</v>
+        <v>809</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -6296,10 +6408,10 @@
         <v>102</v>
       </c>
       <c r="D92" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="E92" t="s">
-        <v>566</v>
+        <v>580</v>
       </c>
       <c r="F92">
         <v>12</v>
@@ -6308,7 +6420,7 @@
         <v>3</v>
       </c>
       <c r="H92" t="s">
-        <v>789</v>
+        <v>810</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -6322,10 +6434,10 @@
         <v>103</v>
       </c>
       <c r="D93" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="E93" t="s">
-        <v>567</v>
+        <v>581</v>
       </c>
       <c r="F93">
         <v>64</v>
@@ -6334,7 +6446,7 @@
         <v>4</v>
       </c>
       <c r="H93" t="s">
-        <v>790</v>
+        <v>811</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -6348,10 +6460,10 @@
         <v>104</v>
       </c>
       <c r="D94" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="E94" t="s">
-        <v>568</v>
+        <v>582</v>
       </c>
       <c r="F94">
         <v>64</v>
@@ -6360,7 +6472,7 @@
         <v>4</v>
       </c>
       <c r="H94" t="s">
-        <v>791</v>
+        <v>812</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -6371,13 +6483,13 @@
         <v>105</v>
       </c>
       <c r="D95" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="E95" t="s">
-        <v>569</v>
+        <v>583</v>
       </c>
       <c r="H95" t="s">
-        <v>792</v>
+        <v>813</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -6388,13 +6500,13 @@
         <v>106</v>
       </c>
       <c r="D96" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="E96" t="s">
-        <v>570</v>
+        <v>584</v>
       </c>
       <c r="H96" t="s">
-        <v>792</v>
+        <v>813</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -6408,10 +6520,10 @@
         <v>107</v>
       </c>
       <c r="D97" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="E97" t="s">
-        <v>571</v>
+        <v>585</v>
       </c>
       <c r="F97">
         <v>31</v>
@@ -6420,7 +6532,7 @@
         <v>4</v>
       </c>
       <c r="H97" t="s">
-        <v>793</v>
+        <v>814</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -6434,10 +6546,10 @@
         <v>108</v>
       </c>
       <c r="D98" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="E98" t="s">
-        <v>572</v>
+        <v>586</v>
       </c>
       <c r="F98">
         <v>21</v>
@@ -6446,7 +6558,7 @@
         <v>4</v>
       </c>
       <c r="H98" t="s">
-        <v>794</v>
+        <v>815</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -6460,10 +6572,10 @@
         <v>109</v>
       </c>
       <c r="D99" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="E99" t="s">
-        <v>573</v>
+        <v>587</v>
       </c>
       <c r="F99">
         <v>21</v>
@@ -6472,7 +6584,7 @@
         <v>4</v>
       </c>
       <c r="H99" t="s">
-        <v>795</v>
+        <v>816</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -6486,10 +6598,10 @@
         <v>110</v>
       </c>
       <c r="D100" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="E100" t="s">
-        <v>574</v>
+        <v>588</v>
       </c>
       <c r="F100">
         <v>21</v>
@@ -6498,7 +6610,7 @@
         <v>4</v>
       </c>
       <c r="H100" t="s">
-        <v>796</v>
+        <v>817</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -6512,10 +6624,10 @@
         <v>111</v>
       </c>
       <c r="D101" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="E101" t="s">
-        <v>575</v>
+        <v>589</v>
       </c>
       <c r="F101">
         <v>21</v>
@@ -6524,7 +6636,7 @@
         <v>4</v>
       </c>
       <c r="H101" t="s">
-        <v>797</v>
+        <v>818</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -6535,13 +6647,13 @@
         <v>112</v>
       </c>
       <c r="D102" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="E102" t="s">
-        <v>576</v>
+        <v>590</v>
       </c>
       <c r="H102" t="s">
-        <v>798</v>
+        <v>819</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -6552,13 +6664,13 @@
         <v>113</v>
       </c>
       <c r="D103" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="E103" t="s">
-        <v>577</v>
+        <v>591</v>
       </c>
       <c r="H103" t="s">
-        <v>798</v>
+        <v>819</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -6572,10 +6684,10 @@
         <v>114</v>
       </c>
       <c r="D104" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="E104" t="s">
-        <v>578</v>
+        <v>592</v>
       </c>
       <c r="F104">
         <v>30</v>
@@ -6584,7 +6696,7 @@
         <v>3</v>
       </c>
       <c r="H104" t="s">
-        <v>799</v>
+        <v>820</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -6598,10 +6710,10 @@
         <v>115</v>
       </c>
       <c r="D105" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="E105" t="s">
-        <v>579</v>
+        <v>593</v>
       </c>
       <c r="F105">
         <v>30</v>
@@ -6610,7 +6722,7 @@
         <v>3</v>
       </c>
       <c r="H105" t="s">
-        <v>800</v>
+        <v>821</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -6624,10 +6736,10 @@
         <v>116</v>
       </c>
       <c r="D106" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="E106" t="s">
-        <v>580</v>
+        <v>594</v>
       </c>
       <c r="F106">
         <v>58</v>
@@ -6636,7 +6748,7 @@
         <v>4</v>
       </c>
       <c r="H106" t="s">
-        <v>801</v>
+        <v>822</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
@@ -6650,10 +6762,10 @@
         <v>117</v>
       </c>
       <c r="D107" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="E107" t="s">
-        <v>581</v>
+        <v>595</v>
       </c>
       <c r="F107">
         <v>58</v>
@@ -6662,7 +6774,7 @@
         <v>4</v>
       </c>
       <c r="H107" t="s">
-        <v>802</v>
+        <v>823</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
@@ -6676,10 +6788,10 @@
         <v>118</v>
       </c>
       <c r="D108" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="E108" t="s">
-        <v>582</v>
+        <v>596</v>
       </c>
       <c r="F108">
         <v>34</v>
@@ -6688,7 +6800,7 @@
         <v>3</v>
       </c>
       <c r="H108" t="s">
-        <v>803</v>
+        <v>824</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
@@ -6699,13 +6811,13 @@
         <v>119</v>
       </c>
       <c r="D109" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="E109" t="s">
-        <v>583</v>
+        <v>597</v>
       </c>
       <c r="H109" t="s">
-        <v>804</v>
+        <v>825</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
@@ -6716,13 +6828,13 @@
         <v>120</v>
       </c>
       <c r="D110" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="E110" t="s">
-        <v>584</v>
+        <v>598</v>
       </c>
       <c r="H110" t="s">
-        <v>804</v>
+        <v>825</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
@@ -6736,13 +6848,13 @@
         <v>121</v>
       </c>
       <c r="D111" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="E111" t="s">
-        <v>585</v>
+        <v>599</v>
       </c>
       <c r="H111" t="s">
-        <v>805</v>
+        <v>826</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
@@ -6756,13 +6868,13 @@
         <v>122</v>
       </c>
       <c r="D112" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="E112" t="s">
-        <v>586</v>
+        <v>600</v>
       </c>
       <c r="H112" t="s">
-        <v>806</v>
+        <v>827</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -6776,13 +6888,13 @@
         <v>123</v>
       </c>
       <c r="D113" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="E113" t="s">
-        <v>587</v>
+        <v>601</v>
       </c>
       <c r="H113" t="s">
-        <v>807</v>
+        <v>828</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
@@ -6793,13 +6905,13 @@
         <v>124</v>
       </c>
       <c r="D114" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="E114" t="s">
-        <v>588</v>
+        <v>602</v>
       </c>
       <c r="H114" t="s">
-        <v>808</v>
+        <v>829</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
@@ -6810,13 +6922,13 @@
         <v>125</v>
       </c>
       <c r="D115" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="E115" t="s">
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="H115" t="s">
-        <v>808</v>
+        <v>829</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
@@ -6827,13 +6939,13 @@
         <v>126</v>
       </c>
       <c r="D116" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="E116" t="s">
-        <v>590</v>
+        <v>604</v>
       </c>
       <c r="H116" t="s">
-        <v>808</v>
+        <v>829</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
@@ -6847,13 +6959,13 @@
         <v>127</v>
       </c>
       <c r="D117" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="E117" t="s">
-        <v>591</v>
+        <v>605</v>
       </c>
       <c r="H117" t="s">
-        <v>809</v>
+        <v>830</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
@@ -6867,13 +6979,13 @@
         <v>128</v>
       </c>
       <c r="D118" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="E118" t="s">
-        <v>592</v>
+        <v>606</v>
       </c>
       <c r="H118" t="s">
-        <v>810</v>
+        <v>831</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
@@ -6887,13 +6999,13 @@
         <v>129</v>
       </c>
       <c r="D119" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="E119" t="s">
-        <v>593</v>
+        <v>607</v>
       </c>
       <c r="H119" t="s">
-        <v>811</v>
+        <v>832</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
@@ -6907,13 +7019,13 @@
         <v>130</v>
       </c>
       <c r="D120" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="E120" t="s">
-        <v>594</v>
+        <v>608</v>
       </c>
       <c r="H120" t="s">
-        <v>812</v>
+        <v>833</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
@@ -6924,10 +7036,10 @@
         <v>131</v>
       </c>
       <c r="D121" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="E121" t="s">
-        <v>595</v>
+        <v>609</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -6938,10 +7050,10 @@
         <v>132</v>
       </c>
       <c r="D122" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="E122" t="s">
-        <v>596</v>
+        <v>610</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
@@ -6952,10 +7064,10 @@
         <v>133</v>
       </c>
       <c r="D123" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="E123" t="s">
-        <v>597</v>
+        <v>611</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
@@ -6966,10 +7078,10 @@
         <v>134</v>
       </c>
       <c r="D124" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="E124" t="s">
-        <v>598</v>
+        <v>612</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
@@ -6983,13 +7095,13 @@
         <v>135</v>
       </c>
       <c r="D125" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="E125" t="s">
-        <v>599</v>
+        <v>613</v>
       </c>
       <c r="H125" t="s">
-        <v>813</v>
+        <v>834</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
@@ -7003,13 +7115,13 @@
         <v>136</v>
       </c>
       <c r="D126" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="E126" t="s">
-        <v>600</v>
+        <v>614</v>
       </c>
       <c r="H126" t="s">
-        <v>814</v>
+        <v>835</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
@@ -7023,13 +7135,13 @@
         <v>137</v>
       </c>
       <c r="D127" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="E127" t="s">
-        <v>601</v>
+        <v>615</v>
       </c>
       <c r="H127" t="s">
-        <v>815</v>
+        <v>836</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
@@ -7043,13 +7155,13 @@
         <v>138</v>
       </c>
       <c r="D128" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="E128" t="s">
-        <v>602</v>
+        <v>616</v>
       </c>
       <c r="H128" t="s">
-        <v>816</v>
+        <v>837</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
@@ -7063,13 +7175,13 @@
         <v>139</v>
       </c>
       <c r="D129" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="E129" t="s">
-        <v>603</v>
+        <v>617</v>
       </c>
       <c r="H129" t="s">
-        <v>817</v>
+        <v>838</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
@@ -7083,13 +7195,13 @@
         <v>140</v>
       </c>
       <c r="D130" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="E130" t="s">
-        <v>604</v>
+        <v>618</v>
       </c>
       <c r="H130" t="s">
-        <v>818</v>
+        <v>839</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
@@ -7103,13 +7215,13 @@
         <v>141</v>
       </c>
       <c r="D131" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="E131" t="s">
-        <v>605</v>
+        <v>619</v>
       </c>
       <c r="H131" t="s">
-        <v>819</v>
+        <v>840</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
@@ -7123,13 +7235,13 @@
         <v>142</v>
       </c>
       <c r="D132" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="E132" t="s">
-        <v>606</v>
+        <v>620</v>
       </c>
       <c r="H132" t="s">
-        <v>820</v>
+        <v>841</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
@@ -7143,13 +7255,13 @@
         <v>143</v>
       </c>
       <c r="D133" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="E133" t="s">
-        <v>607</v>
+        <v>621</v>
       </c>
       <c r="H133" t="s">
-        <v>821</v>
+        <v>842</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
@@ -7157,13 +7269,13 @@
         <v>144</v>
       </c>
       <c r="D134" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="E134" t="s">
-        <v>608</v>
+        <v>622</v>
       </c>
       <c r="H134" t="s">
-        <v>822</v>
+        <v>843</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
@@ -7174,13 +7286,13 @@
         <v>145</v>
       </c>
       <c r="D135" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="E135" t="s">
-        <v>609</v>
+        <v>623</v>
       </c>
       <c r="H135" t="s">
-        <v>823</v>
+        <v>844</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
@@ -7188,10 +7300,10 @@
         <v>146</v>
       </c>
       <c r="D136" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="E136" t="s">
-        <v>610</v>
+        <v>624</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
@@ -7205,13 +7317,13 @@
         <v>147</v>
       </c>
       <c r="D137" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="E137" t="s">
-        <v>611</v>
+        <v>625</v>
       </c>
       <c r="H137" t="s">
-        <v>824</v>
+        <v>845</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
@@ -7222,10 +7334,10 @@
         <v>148</v>
       </c>
       <c r="D138" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="E138" t="s">
-        <v>612</v>
+        <v>626</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
@@ -7236,10 +7348,10 @@
         <v>149</v>
       </c>
       <c r="D139" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="E139" t="s">
-        <v>613</v>
+        <v>627</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
@@ -7253,13 +7365,13 @@
         <v>150</v>
       </c>
       <c r="D140" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="E140" t="s">
-        <v>614</v>
+        <v>628</v>
       </c>
       <c r="H140" t="s">
-        <v>825</v>
+        <v>846</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
@@ -7270,10 +7382,10 @@
         <v>151</v>
       </c>
       <c r="D141" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="E141" t="s">
-        <v>615</v>
+        <v>629</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
@@ -7284,10 +7396,10 @@
         <v>152</v>
       </c>
       <c r="D142" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="E142" t="s">
-        <v>616</v>
+        <v>630</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
@@ -7301,13 +7413,13 @@
         <v>153</v>
       </c>
       <c r="D143" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="E143" t="s">
-        <v>617</v>
+        <v>631</v>
       </c>
       <c r="H143" t="s">
-        <v>826</v>
+        <v>847</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
@@ -7318,10 +7430,10 @@
         <v>154</v>
       </c>
       <c r="D144" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="E144" t="s">
-        <v>618</v>
+        <v>632</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
@@ -7332,10 +7444,10 @@
         <v>155</v>
       </c>
       <c r="D145" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="E145" t="s">
-        <v>619</v>
+        <v>633</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
@@ -7349,13 +7461,13 @@
         <v>156</v>
       </c>
       <c r="D146" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="E146" t="s">
-        <v>620</v>
+        <v>634</v>
       </c>
       <c r="H146" t="s">
-        <v>827</v>
+        <v>848</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
@@ -7366,10 +7478,10 @@
         <v>157</v>
       </c>
       <c r="D147" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="E147" t="s">
-        <v>621</v>
+        <v>635</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
@@ -7380,10 +7492,10 @@
         <v>158</v>
       </c>
       <c r="D148" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="E148" t="s">
-        <v>622</v>
+        <v>636</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
@@ -7397,13 +7509,13 @@
         <v>159</v>
       </c>
       <c r="D149" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="E149" t="s">
-        <v>623</v>
+        <v>637</v>
       </c>
       <c r="H149" t="s">
-        <v>828</v>
+        <v>849</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
@@ -7417,13 +7529,13 @@
         <v>160</v>
       </c>
       <c r="D150" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="E150" t="s">
-        <v>624</v>
+        <v>638</v>
       </c>
       <c r="H150" t="s">
-        <v>829</v>
+        <v>850</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
@@ -7437,13 +7549,13 @@
         <v>161</v>
       </c>
       <c r="D151" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="E151" t="s">
-        <v>625</v>
+        <v>639</v>
       </c>
       <c r="H151" t="s">
-        <v>830</v>
+        <v>851</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
@@ -7454,10 +7566,10 @@
         <v>162</v>
       </c>
       <c r="D152" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="E152" t="s">
-        <v>626</v>
+        <v>640</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
@@ -7468,10 +7580,10 @@
         <v>163</v>
       </c>
       <c r="D153" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="E153" t="s">
-        <v>627</v>
+        <v>641</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
@@ -7485,13 +7597,13 @@
         <v>164</v>
       </c>
       <c r="D154" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="E154" t="s">
-        <v>628</v>
+        <v>642</v>
       </c>
       <c r="H154" t="s">
-        <v>831</v>
+        <v>852</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
@@ -7502,10 +7614,10 @@
         <v>165</v>
       </c>
       <c r="D155" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="E155" t="s">
-        <v>629</v>
+        <v>643</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
@@ -7516,10 +7628,10 @@
         <v>166</v>
       </c>
       <c r="D156" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="E156" t="s">
-        <v>630</v>
+        <v>644</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
@@ -7533,13 +7645,13 @@
         <v>167</v>
       </c>
       <c r="D157" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="E157" t="s">
-        <v>631</v>
+        <v>645</v>
       </c>
       <c r="H157" t="s">
-        <v>832</v>
+        <v>853</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
@@ -7553,13 +7665,13 @@
         <v>168</v>
       </c>
       <c r="D158" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="E158" t="s">
-        <v>632</v>
+        <v>646</v>
       </c>
       <c r="H158" t="s">
-        <v>833</v>
+        <v>854</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
@@ -7570,10 +7682,10 @@
         <v>169</v>
       </c>
       <c r="D159" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="E159" t="s">
-        <v>633</v>
+        <v>647</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
@@ -7584,10 +7696,10 @@
         <v>170</v>
       </c>
       <c r="D160" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="E160" t="s">
-        <v>634</v>
+        <v>648</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
@@ -7601,13 +7713,13 @@
         <v>171</v>
       </c>
       <c r="D161" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="E161" t="s">
-        <v>635</v>
+        <v>649</v>
       </c>
       <c r="H161" t="s">
-        <v>834</v>
+        <v>855</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
@@ -7621,13 +7733,13 @@
         <v>172</v>
       </c>
       <c r="D162" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="E162" t="s">
-        <v>636</v>
+        <v>650</v>
       </c>
       <c r="H162" t="s">
-        <v>835</v>
+        <v>856</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
@@ -7641,13 +7753,13 @@
         <v>173</v>
       </c>
       <c r="D163" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="E163" t="s">
-        <v>637</v>
+        <v>651</v>
       </c>
       <c r="H163" t="s">
-        <v>836</v>
+        <v>857</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
@@ -7658,10 +7770,10 @@
         <v>174</v>
       </c>
       <c r="D164" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="E164" t="s">
-        <v>638</v>
+        <v>652</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
@@ -7672,10 +7784,10 @@
         <v>175</v>
       </c>
       <c r="D165" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="E165" t="s">
-        <v>639</v>
+        <v>653</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
@@ -7689,13 +7801,13 @@
         <v>176</v>
       </c>
       <c r="D166" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="E166" t="s">
-        <v>640</v>
+        <v>654</v>
       </c>
       <c r="H166" t="s">
-        <v>837</v>
+        <v>858</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
@@ -7709,13 +7821,13 @@
         <v>177</v>
       </c>
       <c r="D167" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="E167" t="s">
-        <v>641</v>
+        <v>655</v>
       </c>
       <c r="H167" t="s">
-        <v>838</v>
+        <v>859</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
@@ -7726,10 +7838,10 @@
         <v>178</v>
       </c>
       <c r="D168" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="E168" t="s">
-        <v>642</v>
+        <v>656</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
@@ -7740,10 +7852,10 @@
         <v>179</v>
       </c>
       <c r="D169" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="E169" t="s">
-        <v>643</v>
+        <v>657</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
@@ -7757,13 +7869,13 @@
         <v>180</v>
       </c>
       <c r="D170" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="E170" t="s">
-        <v>644</v>
+        <v>658</v>
       </c>
       <c r="H170" t="s">
-        <v>839</v>
+        <v>860</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
@@ -7777,13 +7889,13 @@
         <v>181</v>
       </c>
       <c r="D171" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="E171" t="s">
-        <v>645</v>
+        <v>659</v>
       </c>
       <c r="H171" t="s">
-        <v>840</v>
+        <v>861</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
@@ -7797,13 +7909,13 @@
         <v>182</v>
       </c>
       <c r="D172" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="E172" t="s">
-        <v>646</v>
+        <v>660</v>
       </c>
       <c r="H172" t="s">
-        <v>841</v>
+        <v>862</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
@@ -7817,13 +7929,13 @@
         <v>183</v>
       </c>
       <c r="D173" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="E173" t="s">
-        <v>647</v>
+        <v>661</v>
       </c>
       <c r="H173" t="s">
-        <v>842</v>
+        <v>863</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
@@ -7837,13 +7949,13 @@
         <v>184</v>
       </c>
       <c r="D174" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="E174" t="s">
-        <v>648</v>
+        <v>662</v>
       </c>
       <c r="H174" t="s">
-        <v>843</v>
+        <v>864</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
@@ -7854,13 +7966,13 @@
         <v>185</v>
       </c>
       <c r="D175" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="E175" t="s">
-        <v>649</v>
+        <v>663</v>
       </c>
       <c r="H175" t="s">
-        <v>844</v>
+        <v>865</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
@@ -7871,10 +7983,10 @@
         <v>186</v>
       </c>
       <c r="D176" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="E176" t="s">
-        <v>650</v>
+        <v>664</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
@@ -7885,10 +7997,10 @@
         <v>187</v>
       </c>
       <c r="D177" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="E177" t="s">
-        <v>651</v>
+        <v>665</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
@@ -7899,10 +8011,10 @@
         <v>188</v>
       </c>
       <c r="D178" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="E178" t="s">
-        <v>652</v>
+        <v>666</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
@@ -7916,13 +8028,13 @@
         <v>189</v>
       </c>
       <c r="D179" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="E179" t="s">
-        <v>653</v>
+        <v>667</v>
       </c>
       <c r="H179" t="s">
-        <v>845</v>
+        <v>866</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
@@ -7936,13 +8048,13 @@
         <v>190</v>
       </c>
       <c r="D180" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="E180" t="s">
-        <v>654</v>
+        <v>668</v>
       </c>
       <c r="H180" t="s">
-        <v>846</v>
+        <v>867</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
@@ -7953,13 +8065,13 @@
         <v>191</v>
       </c>
       <c r="D181" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="E181" t="s">
-        <v>655</v>
+        <v>669</v>
       </c>
       <c r="H181" t="s">
-        <v>847</v>
+        <v>868</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
@@ -7970,10 +8082,10 @@
         <v>192</v>
       </c>
       <c r="D182" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E182" t="s">
-        <v>656</v>
+        <v>670</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
@@ -7984,10 +8096,10 @@
         <v>193</v>
       </c>
       <c r="D183" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="E183" t="s">
-        <v>657</v>
+        <v>671</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
@@ -8001,10 +8113,10 @@
         <v>194</v>
       </c>
       <c r="D184" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="E184" t="s">
-        <v>658</v>
+        <v>672</v>
       </c>
       <c r="F184">
         <v>4</v>
@@ -8013,7 +8125,7 @@
         <v>4</v>
       </c>
       <c r="H184" t="s">
-        <v>848</v>
+        <v>869</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
@@ -8027,10 +8139,10 @@
         <v>195</v>
       </c>
       <c r="D185" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="E185" t="s">
-        <v>659</v>
+        <v>673</v>
       </c>
       <c r="F185">
         <v>4</v>
@@ -8039,7 +8151,7 @@
         <v>4</v>
       </c>
       <c r="H185" t="s">
-        <v>849</v>
+        <v>870</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
@@ -8053,10 +8165,10 @@
         <v>196</v>
       </c>
       <c r="D186" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="E186" t="s">
-        <v>660</v>
+        <v>674</v>
       </c>
       <c r="F186">
         <v>46</v>
@@ -8065,7 +8177,7 @@
         <v>2</v>
       </c>
       <c r="H186" t="s">
-        <v>850</v>
+        <v>871</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
@@ -8079,10 +8191,10 @@
         <v>197</v>
       </c>
       <c r="D187" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="E187" t="s">
-        <v>661</v>
+        <v>675</v>
       </c>
       <c r="F187">
         <v>46</v>
@@ -8091,7 +8203,7 @@
         <v>2</v>
       </c>
       <c r="H187" t="s">
-        <v>851</v>
+        <v>872</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
@@ -8102,10 +8214,10 @@
         <v>198</v>
       </c>
       <c r="D188" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="E188" t="s">
-        <v>662</v>
+        <v>676</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
@@ -8116,10 +8228,10 @@
         <v>199</v>
       </c>
       <c r="D189" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="E189" t="s">
-        <v>663</v>
+        <v>677</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
@@ -8133,10 +8245,10 @@
         <v>200</v>
       </c>
       <c r="D190" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="E190" t="s">
-        <v>664</v>
+        <v>678</v>
       </c>
       <c r="F190">
         <v>27</v>
@@ -8145,7 +8257,7 @@
         <v>6</v>
       </c>
       <c r="H190" t="s">
-        <v>852</v>
+        <v>873</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
@@ -8159,10 +8271,10 @@
         <v>201</v>
       </c>
       <c r="D191" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="E191" t="s">
-        <v>665</v>
+        <v>679</v>
       </c>
       <c r="F191">
         <v>27</v>
@@ -8171,7 +8283,7 @@
         <v>6</v>
       </c>
       <c r="H191" t="s">
-        <v>853</v>
+        <v>874</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
@@ -8185,10 +8297,10 @@
         <v>202</v>
       </c>
       <c r="D192" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="E192" t="s">
-        <v>666</v>
+        <v>680</v>
       </c>
       <c r="F192">
         <v>58</v>
@@ -8197,7 +8309,7 @@
         <v>2</v>
       </c>
       <c r="H192" t="s">
-        <v>854</v>
+        <v>875</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
@@ -8211,10 +8323,10 @@
         <v>203</v>
       </c>
       <c r="D193" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="E193" t="s">
-        <v>667</v>
+        <v>681</v>
       </c>
       <c r="F193">
         <v>58</v>
@@ -8223,7 +8335,7 @@
         <v>2</v>
       </c>
       <c r="H193" t="s">
-        <v>855</v>
+        <v>876</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
@@ -8234,10 +8346,10 @@
         <v>204</v>
       </c>
       <c r="D194" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E194" t="s">
-        <v>668</v>
+        <v>682</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
@@ -8248,10 +8360,10 @@
         <v>205</v>
       </c>
       <c r="D195" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="E195" t="s">
-        <v>669</v>
+        <v>683</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
@@ -8265,10 +8377,10 @@
         <v>206</v>
       </c>
       <c r="D196" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="E196" t="s">
-        <v>670</v>
+        <v>684</v>
       </c>
       <c r="F196">
         <v>1</v>
@@ -8277,7 +8389,7 @@
         <v>5</v>
       </c>
       <c r="H196" t="s">
-        <v>856</v>
+        <v>877</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
@@ -8291,10 +8403,10 @@
         <v>207</v>
       </c>
       <c r="D197" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="E197" t="s">
-        <v>671</v>
+        <v>685</v>
       </c>
       <c r="F197">
         <v>1</v>
@@ -8303,7 +8415,7 @@
         <v>5</v>
       </c>
       <c r="H197" t="s">
-        <v>857</v>
+        <v>878</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
@@ -8317,10 +8429,10 @@
         <v>208</v>
       </c>
       <c r="D198" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="E198" t="s">
-        <v>672</v>
+        <v>686</v>
       </c>
       <c r="F198">
         <v>53</v>
@@ -8329,7 +8441,7 @@
         <v>3</v>
       </c>
       <c r="H198" t="s">
-        <v>858</v>
+        <v>879</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
@@ -8343,10 +8455,10 @@
         <v>209</v>
       </c>
       <c r="D199" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="E199" t="s">
-        <v>673</v>
+        <v>687</v>
       </c>
       <c r="F199">
         <v>53</v>
@@ -8355,7 +8467,7 @@
         <v>3</v>
       </c>
       <c r="H199" t="s">
-        <v>859</v>
+        <v>880</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
@@ -8369,10 +8481,10 @@
         <v>210</v>
       </c>
       <c r="D200" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="E200" t="s">
-        <v>674</v>
+        <v>688</v>
       </c>
       <c r="F200">
         <v>37</v>
@@ -8381,7 +8493,7 @@
         <v>2</v>
       </c>
       <c r="H200" t="s">
-        <v>860</v>
+        <v>881</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
@@ -8395,10 +8507,10 @@
         <v>211</v>
       </c>
       <c r="D201" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="E201" t="s">
-        <v>675</v>
+        <v>689</v>
       </c>
       <c r="F201">
         <v>37</v>
@@ -8407,7 +8519,7 @@
         <v>2</v>
       </c>
       <c r="H201" t="s">
-        <v>861</v>
+        <v>882</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
@@ -8418,10 +8530,10 @@
         <v>212</v>
       </c>
       <c r="D202" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="E202" t="s">
-        <v>676</v>
+        <v>690</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
@@ -8432,10 +8544,10 @@
         <v>213</v>
       </c>
       <c r="D203" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="E203" t="s">
-        <v>677</v>
+        <v>691</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
@@ -8449,10 +8561,10 @@
         <v>214</v>
       </c>
       <c r="D204" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="E204" t="s">
-        <v>678</v>
+        <v>692</v>
       </c>
       <c r="F204">
         <v>8</v>
@@ -8461,7 +8573,7 @@
         <v>3</v>
       </c>
       <c r="H204" t="s">
-        <v>862</v>
+        <v>883</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
@@ -8475,10 +8587,10 @@
         <v>215</v>
       </c>
       <c r="D205" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="E205" t="s">
-        <v>679</v>
+        <v>693</v>
       </c>
       <c r="F205">
         <v>8</v>
@@ -8487,7 +8599,7 @@
         <v>3</v>
       </c>
       <c r="H205" t="s">
-        <v>863</v>
+        <v>884</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
@@ -8501,10 +8613,10 @@
         <v>216</v>
       </c>
       <c r="D206" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="E206" t="s">
-        <v>680</v>
+        <v>694</v>
       </c>
       <c r="F206">
         <v>50</v>
@@ -8513,7 +8625,7 @@
         <v>3</v>
       </c>
       <c r="H206" t="s">
-        <v>864</v>
+        <v>885</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
@@ -8527,10 +8639,10 @@
         <v>217</v>
       </c>
       <c r="D207" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="E207" t="s">
-        <v>681</v>
+        <v>695</v>
       </c>
       <c r="F207">
         <v>50</v>
@@ -8539,7 +8651,7 @@
         <v>3</v>
       </c>
       <c r="H207" t="s">
-        <v>865</v>
+        <v>886</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
@@ -8550,13 +8662,13 @@
         <v>218</v>
       </c>
       <c r="D208" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E208" t="s">
-        <v>682</v>
+        <v>696</v>
       </c>
       <c r="H208" t="s">
-        <v>866</v>
+        <v>887</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
@@ -8567,10 +8679,10 @@
         <v>219</v>
       </c>
       <c r="D209" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="E209" t="s">
-        <v>683</v>
+        <v>697</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
@@ -8584,10 +8696,10 @@
         <v>220</v>
       </c>
       <c r="D210" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="E210" t="s">
-        <v>684</v>
+        <v>698</v>
       </c>
       <c r="F210">
         <v>62</v>
@@ -8596,7 +8708,7 @@
         <v>3</v>
       </c>
       <c r="H210" t="s">
-        <v>867</v>
+        <v>888</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
@@ -8610,10 +8722,10 @@
         <v>221</v>
       </c>
       <c r="D211" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="E211" t="s">
-        <v>685</v>
+        <v>699</v>
       </c>
       <c r="F211">
         <v>62</v>
@@ -8622,7 +8734,7 @@
         <v>3</v>
       </c>
       <c r="H211" t="s">
-        <v>868</v>
+        <v>889</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
@@ -8636,10 +8748,10 @@
         <v>222</v>
       </c>
       <c r="D212" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="E212" t="s">
-        <v>686</v>
+        <v>700</v>
       </c>
       <c r="F212">
         <v>48</v>
@@ -8648,7 +8760,7 @@
         <v>2</v>
       </c>
       <c r="H212" t="s">
-        <v>869</v>
+        <v>890</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
@@ -8662,10 +8774,10 @@
         <v>223</v>
       </c>
       <c r="D213" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="E213" t="s">
-        <v>687</v>
+        <v>701</v>
       </c>
       <c r="F213">
         <v>48</v>
@@ -8674,7 +8786,7 @@
         <v>2</v>
       </c>
       <c r="H213" t="s">
-        <v>870</v>
+        <v>891</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
@@ -8688,10 +8800,10 @@
         <v>224</v>
       </c>
       <c r="D214" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="E214" t="s">
-        <v>688</v>
+        <v>702</v>
       </c>
       <c r="F214">
         <v>45</v>
@@ -8700,7 +8812,7 @@
         <v>2</v>
       </c>
       <c r="H214" t="s">
-        <v>871</v>
+        <v>892</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
@@ -8714,10 +8826,10 @@
         <v>225</v>
       </c>
       <c r="D215" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="E215" t="s">
-        <v>689</v>
+        <v>703</v>
       </c>
       <c r="F215">
         <v>45</v>
@@ -8726,7 +8838,7 @@
         <v>2</v>
       </c>
       <c r="H215" t="s">
-        <v>872</v>
+        <v>893</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
@@ -8737,10 +8849,10 @@
         <v>226</v>
       </c>
       <c r="D216" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="E216" t="s">
-        <v>690</v>
+        <v>704</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
@@ -8754,10 +8866,10 @@
         <v>227</v>
       </c>
       <c r="D217" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="E217" t="s">
-        <v>691</v>
+        <v>705</v>
       </c>
       <c r="F217">
         <v>2</v>
@@ -8766,7 +8878,7 @@
         <v>3</v>
       </c>
       <c r="H217" t="s">
-        <v>873</v>
+        <v>894</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
@@ -8780,10 +8892,10 @@
         <v>228</v>
       </c>
       <c r="D218" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="E218" t="s">
-        <v>692</v>
+        <v>706</v>
       </c>
       <c r="F218">
         <v>2</v>
@@ -8792,7 +8904,7 @@
         <v>3</v>
       </c>
       <c r="H218" t="s">
-        <v>874</v>
+        <v>895</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
@@ -8806,10 +8918,10 @@
         <v>229</v>
       </c>
       <c r="D219" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="E219" t="s">
-        <v>693</v>
+        <v>707</v>
       </c>
       <c r="F219">
         <v>19</v>
@@ -8818,7 +8930,7 @@
         <v>6</v>
       </c>
       <c r="H219" t="s">
-        <v>875</v>
+        <v>896</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
@@ -8826,10 +8938,10 @@
         <v>230</v>
       </c>
       <c r="D220" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="E220" t="s">
-        <v>694</v>
+        <v>708</v>
       </c>
       <c r="F220">
         <v>19</v>
@@ -8849,10 +8961,10 @@
         <v>231</v>
       </c>
       <c r="D221" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="E221" t="s">
-        <v>695</v>
+        <v>709</v>
       </c>
       <c r="F221">
         <v>19</v>
@@ -8861,7 +8973,7 @@
         <v>6</v>
       </c>
       <c r="H221" t="s">
-        <v>876</v>
+        <v>897</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
@@ -8872,10 +8984,10 @@
         <v>232</v>
       </c>
       <c r="D222" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="E222" t="s">
-        <v>696</v>
+        <v>710</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
@@ -8889,10 +9001,10 @@
         <v>233</v>
       </c>
       <c r="D223" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="E223" t="s">
-        <v>697</v>
+        <v>711</v>
       </c>
       <c r="F223">
         <v>5</v>
@@ -8901,7 +9013,7 @@
         <v>3</v>
       </c>
       <c r="H223" t="s">
-        <v>877</v>
+        <v>898</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
@@ -8915,10 +9027,10 @@
         <v>234</v>
       </c>
       <c r="D224" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="E224" t="s">
-        <v>698</v>
+        <v>712</v>
       </c>
       <c r="F224">
         <v>5</v>
@@ -8927,7 +9039,7 @@
         <v>3</v>
       </c>
       <c r="H224" t="s">
-        <v>878</v>
+        <v>899</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
@@ -8941,10 +9053,10 @@
         <v>235</v>
       </c>
       <c r="D225" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="E225" t="s">
-        <v>699</v>
+        <v>713</v>
       </c>
       <c r="F225">
         <v>15</v>
@@ -8953,7 +9065,7 @@
         <v>3</v>
       </c>
       <c r="H225" t="s">
-        <v>879</v>
+        <v>900</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
@@ -8967,10 +9079,10 @@
         <v>236</v>
       </c>
       <c r="D226" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="E226" t="s">
-        <v>700</v>
+        <v>714</v>
       </c>
       <c r="F226">
         <v>15</v>
@@ -8979,7 +9091,7 @@
         <v>3</v>
       </c>
       <c r="H226" t="s">
-        <v>880</v>
+        <v>901</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
@@ -8990,10 +9102,10 @@
         <v>237</v>
       </c>
       <c r="D227" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="E227" t="s">
-        <v>701</v>
+        <v>715</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
@@ -9007,10 +9119,10 @@
         <v>238</v>
       </c>
       <c r="D228" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="E228" t="s">
-        <v>702</v>
+        <v>716</v>
       </c>
       <c r="F228">
         <v>30</v>
@@ -9019,7 +9131,7 @@
         <v>4</v>
       </c>
       <c r="H228" t="s">
-        <v>881</v>
+        <v>902</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
@@ -9033,10 +9145,10 @@
         <v>239</v>
       </c>
       <c r="D229" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="E229" t="s">
-        <v>703</v>
+        <v>717</v>
       </c>
       <c r="F229">
         <v>30</v>
@@ -9045,7 +9157,7 @@
         <v>4</v>
       </c>
       <c r="H229" t="s">
-        <v>882</v>
+        <v>903</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
@@ -9059,10 +9171,10 @@
         <v>240</v>
       </c>
       <c r="D230" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="E230" t="s">
-        <v>704</v>
+        <v>718</v>
       </c>
       <c r="F230">
         <v>16</v>
@@ -9071,7 +9183,7 @@
         <v>3</v>
       </c>
       <c r="H230" t="s">
-        <v>883</v>
+        <v>904</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
@@ -9085,10 +9197,10 @@
         <v>241</v>
       </c>
       <c r="D231" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="E231" t="s">
-        <v>705</v>
+        <v>719</v>
       </c>
       <c r="F231">
         <v>16</v>
@@ -9097,7 +9209,7 @@
         <v>3</v>
       </c>
       <c r="H231" t="s">
-        <v>884</v>
+        <v>905</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
@@ -9111,10 +9223,10 @@
         <v>242</v>
       </c>
       <c r="D232" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="E232" t="s">
-        <v>706</v>
+        <v>720</v>
       </c>
       <c r="F232">
         <v>52</v>
@@ -9123,7 +9235,7 @@
         <v>4</v>
       </c>
       <c r="H232" t="s">
-        <v>885</v>
+        <v>906</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
@@ -9137,10 +9249,10 @@
         <v>243</v>
       </c>
       <c r="D233" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="E233" t="s">
-        <v>707</v>
+        <v>721</v>
       </c>
       <c r="F233">
         <v>52</v>
@@ -9149,7 +9261,177 @@
         <v>4</v>
       </c>
       <c r="H233" t="s">
-        <v>886</v>
+        <v>907</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>8</v>
+      </c>
+      <c r="C234" t="s">
+        <v>244</v>
+      </c>
+      <c r="D234" t="s">
+        <v>483</v>
+      </c>
+      <c r="E234" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>8</v>
+      </c>
+      <c r="B235">
+        <v>44</v>
+      </c>
+      <c r="C235" t="s">
+        <v>245</v>
+      </c>
+      <c r="D235" t="s">
+        <v>484</v>
+      </c>
+      <c r="E235" t="s">
+        <v>723</v>
+      </c>
+      <c r="F235">
+        <v>54</v>
+      </c>
+      <c r="G235">
+        <v>3</v>
+      </c>
+      <c r="H235" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>8</v>
+      </c>
+      <c r="B236">
+        <v>44</v>
+      </c>
+      <c r="C236" t="s">
+        <v>246</v>
+      </c>
+      <c r="D236" t="s">
+        <v>485</v>
+      </c>
+      <c r="E236" t="s">
+        <v>724</v>
+      </c>
+      <c r="F236">
+        <v>54</v>
+      </c>
+      <c r="G236">
+        <v>3</v>
+      </c>
+      <c r="H236" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>8</v>
+      </c>
+      <c r="B237">
+        <v>45</v>
+      </c>
+      <c r="C237" t="s">
+        <v>247</v>
+      </c>
+      <c r="D237" t="s">
+        <v>486</v>
+      </c>
+      <c r="E237" t="s">
+        <v>725</v>
+      </c>
+      <c r="F237">
+        <v>57</v>
+      </c>
+      <c r="G237">
+        <v>2</v>
+      </c>
+      <c r="H237" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>8</v>
+      </c>
+      <c r="B238">
+        <v>45</v>
+      </c>
+      <c r="C238" t="s">
+        <v>248</v>
+      </c>
+      <c r="D238" t="s">
+        <v>487</v>
+      </c>
+      <c r="E238" t="s">
+        <v>726</v>
+      </c>
+      <c r="F238">
+        <v>57</v>
+      </c>
+      <c r="G238">
+        <v>2</v>
+      </c>
+      <c r="H238" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>8</v>
+      </c>
+      <c r="B239">
+        <v>46</v>
+      </c>
+      <c r="C239" t="s">
+        <v>249</v>
+      </c>
+      <c r="D239" t="s">
+        <v>488</v>
+      </c>
+      <c r="E239" t="s">
+        <v>727</v>
+      </c>
+      <c r="F239">
+        <v>22</v>
+      </c>
+      <c r="G239">
+        <v>3</v>
+      </c>
+      <c r="H239" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>8</v>
+      </c>
+      <c r="B240">
+        <v>46</v>
+      </c>
+      <c r="C240" t="s">
+        <v>250</v>
+      </c>
+      <c r="D240" t="s">
+        <v>489</v>
+      </c>
+      <c r="E240" t="s">
+        <v>728</v>
+      </c>
+      <c r="F240">
+        <v>22</v>
+      </c>
+      <c r="G240">
+        <v>3</v>
+      </c>
+      <c r="H240" t="s">
+        <v>913</v>
       </c>
     </row>
   </sheetData>

--- a/Exp_Record_Alfa.xlsx
+++ b/Exp_Record_Alfa.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E55E34E-3142-4C52-91EF-8C5C62F28BBA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1650" yWindow="1560" windowWidth="26295" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="914">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="926">
   <si>
     <t>Exp_collection</t>
   </si>
@@ -56,6 +50,9 @@
   </si>
   <si>
     <t>SUHash</t>
+  </si>
+  <si>
+    <t>Style</t>
   </si>
   <si>
     <t>Ch 29. SU [-0.5 -1.7] 4 1.
@@ -1780,6 +1777,24 @@
 completed</t>
   </si>
   <si>
+    <t>Hp at 1035 AM
+sorting took too long - 10:50 AM right now. Gotta review the automated way
+001 rf mapping at 1051 AM
+completed</t>
+  </si>
+  <si>
+    <t>002 error
+003 1103 start
+selectivity experiment with style images
+completed at 6 reps
+004 aborted</t>
+  </si>
+  <si>
+    <t>005 SU in 1
+generate integrated (1 (-2,-2) 3 1)
+not completed. Monkey not cooperating.</t>
+  </si>
+  <si>
     <t>Alfa64chan-19112019-009</t>
   </si>
   <si>
@@ -2497,6 +2512,15 @@
     <t>Alfa64chan-29042020-007</t>
   </si>
   <si>
+    <t>Alfa-21052020-001</t>
+  </si>
+  <si>
+    <t>Alfa-21052020-003</t>
+  </si>
+  <si>
+    <t>Alfa-21052020-005</t>
+  </si>
+  <si>
     <t>191119_Alfa_generate_parallel(3)</t>
   </si>
   <si>
@@ -3214,6 +3238,15 @@
     <t>200429_Alfa_selectivity_basic(2)</t>
   </si>
   <si>
+    <t>200521_Alfa_rfMapper_basic</t>
+  </si>
+  <si>
+    <t>200521_Alfa_selectivity_basic</t>
+  </si>
+  <si>
+    <t>200521_Alfa_generate_integrated(1)</t>
+  </si>
+  <si>
     <t>N:\Stimuli\2019-06-Evolutions\alfa-191119a</t>
   </si>
   <si>
@@ -3767,13 +3800,19 @@
   </si>
   <si>
     <t>N:\Stimuli\2019-Manifold\alfa-200429c-selectivity</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2020-Style-Transfer-Stimuli\2020-05-21a Alfa</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-05-20-Alfa-01\2020-05-21-12-06-40</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3832,23 +3871,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3890,7 +3921,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3922,27 +3953,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3974,24 +3987,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4167,21 +4162,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H240"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
-      <selection activeCell="G241" sqref="G241"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="68.85546875" customWidth="1"/>
-    <col min="4" max="4" width="28.42578125" customWidth="1"/>
-    <col min="5" max="5" width="54.7109375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4207,7 +4195,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -4215,13 +4203,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="E2" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="F2">
         <v>29</v>
@@ -4230,10 +4218,10 @@
         <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -4241,13 +4229,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="E3" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="F3">
         <v>29</v>
@@ -4256,7 +4244,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -4264,13 +4252,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E4" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="F4">
         <v>29</v>
@@ -4279,10 +4267,10 @@
         <v>4</v>
       </c>
       <c r="H4" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -4290,13 +4278,13 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="E5" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="F5">
         <v>29</v>
@@ -4305,10 +4293,10 @@
         <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -4316,22 +4304,22 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="E6" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="F6">
         <v>29</v>
       </c>
       <c r="H6" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -4339,13 +4327,13 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E7" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="F7">
         <v>29</v>
@@ -4354,10 +4342,10 @@
         <v>4</v>
       </c>
       <c r="H7" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -4365,13 +4353,13 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E8" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="F8">
         <v>9</v>
@@ -4380,10 +4368,10 @@
         <v>3</v>
       </c>
       <c r="H8" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -4391,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="E9" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="F9">
         <v>9</v>
@@ -4406,10 +4394,10 @@
         <v>3</v>
       </c>
       <c r="H9" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -4417,13 +4405,13 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="E10" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="F10">
         <v>9</v>
@@ -4432,10 +4420,10 @@
         <v>3</v>
       </c>
       <c r="H10" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -4443,13 +4431,13 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="E11" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="F11">
         <v>32</v>
@@ -4458,10 +4446,10 @@
         <v>3</v>
       </c>
       <c r="H11" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -4469,13 +4457,13 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="E12" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="F12">
         <v>32</v>
@@ -4484,10 +4472,10 @@
         <v>3</v>
       </c>
       <c r="H12" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -4495,13 +4483,13 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="E13" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="F13">
         <v>32</v>
@@ -4510,21 +4498,21 @@
         <v>3</v>
       </c>
       <c r="H13" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="E14" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -4532,13 +4520,13 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="E15" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="F15">
         <v>3</v>
@@ -4547,10 +4535,10 @@
         <v>3</v>
       </c>
       <c r="H15" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -4558,13 +4546,13 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="E16" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="F16">
         <v>3</v>
@@ -4573,10 +4561,10 @@
         <v>3</v>
       </c>
       <c r="H16" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -4584,13 +4572,13 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="E17" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="F17">
         <v>3</v>
@@ -4599,21 +4587,21 @@
         <v>3</v>
       </c>
       <c r="H17" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="C18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="E18" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -4621,13 +4609,13 @@
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D19" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="E19" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="F19">
         <v>7</v>
@@ -4636,10 +4624,10 @@
         <v>3</v>
       </c>
       <c r="H19" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -4647,13 +4635,13 @@
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D20" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="E20" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="F20">
         <v>7</v>
@@ -4662,10 +4650,10 @@
         <v>3</v>
       </c>
       <c r="H20" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -4673,13 +4661,13 @@
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D21" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="E21" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="F21">
         <v>7</v>
@@ -4688,66 +4676,66 @@
         <v>3</v>
       </c>
       <c r="H21" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="C22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="E22" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="C23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D23" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="E23" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="G23">
         <v>3</v>
       </c>
       <c r="H23" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="C24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D24" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E24" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="G24">
         <v>4</v>
       </c>
       <c r="H24" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="C25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D25" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="E25" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -4755,13 +4743,13 @@
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D26" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="E26" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="F26">
         <v>51</v>
@@ -4770,10 +4758,10 @@
         <v>3</v>
       </c>
       <c r="H26" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -4781,13 +4769,13 @@
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D27" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E27" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="F27">
         <v>51</v>
@@ -4796,10 +4784,10 @@
         <v>3</v>
       </c>
       <c r="H27" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -4807,13 +4795,13 @@
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D28" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="E28" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="F28">
         <v>51</v>
@@ -4822,21 +4810,21 @@
         <v>3</v>
       </c>
       <c r="H28" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="C29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D29" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="E29" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -4844,13 +4832,13 @@
         <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D30" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="E30" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="F30">
         <v>7</v>
@@ -4859,10 +4847,10 @@
         <v>3</v>
       </c>
       <c r="H30" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -4870,13 +4858,13 @@
         <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D31" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="E31" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="F31">
         <v>7</v>
@@ -4885,10 +4873,10 @@
         <v>3</v>
       </c>
       <c r="H31" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -4896,13 +4884,13 @@
         <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D32" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="E32" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="F32">
         <v>7</v>
@@ -4911,21 +4899,21 @@
         <v>3</v>
       </c>
       <c r="H32" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="C33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D33" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="E33" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -4933,13 +4921,13 @@
         <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D34" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="E34" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="F34">
         <v>7</v>
@@ -4948,10 +4936,10 @@
         <v>3</v>
       </c>
       <c r="H34" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -4959,13 +4947,13 @@
         <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D35" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="E35" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="F35">
         <v>7</v>
@@ -4974,10 +4962,10 @@
         <v>3</v>
       </c>
       <c r="H35" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -4985,13 +4973,13 @@
         <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D36" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="E36" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="F36">
         <v>7</v>
@@ -5000,10 +4988,10 @@
         <v>3</v>
       </c>
       <c r="H36" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -5011,13 +4999,13 @@
         <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D37" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="E37" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="F37">
         <v>36</v>
@@ -5026,10 +5014,10 @@
         <v>3</v>
       </c>
       <c r="H37" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -5037,13 +5025,13 @@
         <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D38" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="E38" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="F38">
         <v>36</v>
@@ -5052,10 +5040,10 @@
         <v>3</v>
       </c>
       <c r="H38" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -5063,13 +5051,13 @@
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D39" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="E39" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="F39">
         <v>35</v>
@@ -5078,10 +5066,10 @@
         <v>3</v>
       </c>
       <c r="H39" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -5089,13 +5077,13 @@
         <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D40" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="E40" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="F40">
         <v>35</v>
@@ -5104,10 +5092,10 @@
         <v>3</v>
       </c>
       <c r="H40" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -5115,13 +5103,13 @@
         <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D41" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="E41" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="F41">
         <v>35</v>
@@ -5130,10 +5118,10 @@
         <v>3</v>
       </c>
       <c r="H41" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -5141,13 +5129,13 @@
         <v>12</v>
       </c>
       <c r="C42" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D42" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="E42" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="F42">
         <v>61</v>
@@ -5156,10 +5144,10 @@
         <v>3</v>
       </c>
       <c r="H42" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
         <v>8</v>
       </c>
@@ -5167,13 +5155,13 @@
         <v>12</v>
       </c>
       <c r="C43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D43" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="E43" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="F43">
         <v>61</v>
@@ -5182,10 +5170,10 @@
         <v>3</v>
       </c>
       <c r="H43" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -5193,13 +5181,13 @@
         <v>12</v>
       </c>
       <c r="C44" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D44" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="E44" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="F44">
         <v>61</v>
@@ -5208,10 +5196,10 @@
         <v>3</v>
       </c>
       <c r="H44" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -5219,13 +5207,13 @@
         <v>13</v>
       </c>
       <c r="C45" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D45" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="E45" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="F45">
         <v>33</v>
@@ -5234,10 +5222,10 @@
         <v>3</v>
       </c>
       <c r="H45" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -5245,13 +5233,13 @@
         <v>13</v>
       </c>
       <c r="C46" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D46" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="E46" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="F46">
         <v>33</v>
@@ -5260,10 +5248,10 @@
         <v>3</v>
       </c>
       <c r="H46" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -5271,13 +5259,13 @@
         <v>13</v>
       </c>
       <c r="C47" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D47" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="E47" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="F47">
         <v>33</v>
@@ -5286,10 +5274,10 @@
         <v>3</v>
       </c>
       <c r="H47" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -5297,13 +5285,13 @@
         <v>14</v>
       </c>
       <c r="C48" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D48" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="E48" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="F48">
         <v>43</v>
@@ -5312,10 +5300,10 @@
         <v>3</v>
       </c>
       <c r="H48" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -5323,13 +5311,13 @@
         <v>14</v>
       </c>
       <c r="C49" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D49" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="E49" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="F49">
         <v>43</v>
@@ -5338,10 +5326,10 @@
         <v>3</v>
       </c>
       <c r="H49" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
         <v>8</v>
       </c>
@@ -5349,13 +5337,13 @@
         <v>14</v>
       </c>
       <c r="C50" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D50" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="E50" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="F50">
         <v>43</v>
@@ -5364,10 +5352,10 @@
         <v>3</v>
       </c>
       <c r="H50" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
         <v>8</v>
       </c>
@@ -5375,13 +5363,13 @@
         <v>15</v>
       </c>
       <c r="C51" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D51" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="E51" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="F51">
         <v>59</v>
@@ -5390,10 +5378,10 @@
         <v>3</v>
       </c>
       <c r="H51" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -5401,13 +5389,13 @@
         <v>15</v>
       </c>
       <c r="C52" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D52" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="E52" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="F52">
         <v>59</v>
@@ -5416,10 +5404,10 @@
         <v>3</v>
       </c>
       <c r="H52" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
         <v>8</v>
       </c>
@@ -5427,13 +5415,13 @@
         <v>15</v>
       </c>
       <c r="C53" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D53" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="E53" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="F53">
         <v>59</v>
@@ -5442,10 +5430,10 @@
         <v>3</v>
       </c>
       <c r="H53" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -5453,13 +5441,13 @@
         <v>16</v>
       </c>
       <c r="C54" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D54" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="E54" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="F54">
         <v>20</v>
@@ -5468,10 +5456,10 @@
         <v>3</v>
       </c>
       <c r="H54" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -5479,13 +5467,13 @@
         <v>16</v>
       </c>
       <c r="C55" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D55" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="E55" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="F55">
         <v>20</v>
@@ -5494,10 +5482,10 @@
         <v>3</v>
       </c>
       <c r="H55" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
         <v>8</v>
       </c>
@@ -5505,13 +5493,13 @@
         <v>16</v>
       </c>
       <c r="C56" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D56" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="E56" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="F56">
         <v>20</v>
@@ -5520,10 +5508,10 @@
         <v>3</v>
       </c>
       <c r="H56" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
         <v>8</v>
       </c>
@@ -5531,13 +5519,13 @@
         <v>17</v>
       </c>
       <c r="C57" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D57" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="E57" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="F57">
         <v>49</v>
@@ -5546,10 +5534,10 @@
         <v>3</v>
       </c>
       <c r="H57" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -5557,13 +5545,13 @@
         <v>17</v>
       </c>
       <c r="C58" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D58" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="E58" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="F58">
         <v>49</v>
@@ -5572,10 +5560,10 @@
         <v>3</v>
       </c>
       <c r="H58" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" t="s">
         <v>8</v>
       </c>
@@ -5583,13 +5571,13 @@
         <v>17</v>
       </c>
       <c r="C59" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D59" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="E59" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="F59">
         <v>49</v>
@@ -5598,10 +5586,10 @@
         <v>3</v>
       </c>
       <c r="H59" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" t="s">
         <v>8</v>
       </c>
@@ -5609,13 +5597,13 @@
         <v>18</v>
       </c>
       <c r="C60" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D60" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="E60" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F60">
         <v>19</v>
@@ -5624,10 +5612,10 @@
         <v>3</v>
       </c>
       <c r="H60" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" t="s">
         <v>8</v>
       </c>
@@ -5635,13 +5623,13 @@
         <v>18</v>
       </c>
       <c r="C61" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D61" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="E61" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="F61">
         <v>19</v>
@@ -5650,10 +5638,10 @@
         <v>3</v>
       </c>
       <c r="H61" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" t="s">
         <v>8</v>
       </c>
@@ -5661,13 +5649,13 @@
         <v>18</v>
       </c>
       <c r="C62" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D62" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="E62" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="F62">
         <v>19</v>
@@ -5676,10 +5664,10 @@
         <v>3</v>
       </c>
       <c r="H62" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" t="s">
         <v>8</v>
       </c>
@@ -5687,13 +5675,13 @@
         <v>19</v>
       </c>
       <c r="C63" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D63" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="E63" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="F63">
         <v>12</v>
@@ -5702,10 +5690,10 @@
         <v>3</v>
       </c>
       <c r="H63" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" t="s">
         <v>8</v>
       </c>
@@ -5713,13 +5701,13 @@
         <v>19</v>
       </c>
       <c r="C64" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D64" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="E64" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="F64">
         <v>12</v>
@@ -5728,10 +5716,10 @@
         <v>3</v>
       </c>
       <c r="H64" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" t="s">
         <v>8</v>
       </c>
@@ -5739,13 +5727,13 @@
         <v>19</v>
       </c>
       <c r="C65" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D65" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="E65" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="F65">
         <v>12</v>
@@ -5754,10 +5742,10 @@
         <v>3</v>
       </c>
       <c r="H65" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" t="s">
         <v>8</v>
       </c>
@@ -5765,13 +5753,13 @@
         <v>20</v>
       </c>
       <c r="C66" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D66" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="E66" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="F66">
         <v>41</v>
@@ -5780,10 +5768,10 @@
         <v>3</v>
       </c>
       <c r="H66" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" t="s">
         <v>8</v>
       </c>
@@ -5791,13 +5779,13 @@
         <v>20</v>
       </c>
       <c r="C67" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D67" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="E67" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="F67">
         <v>41</v>
@@ -5806,10 +5794,10 @@
         <v>3</v>
       </c>
       <c r="H67" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" t="s">
         <v>8</v>
       </c>
@@ -5817,13 +5805,13 @@
         <v>20</v>
       </c>
       <c r="C68" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D68" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="E68" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="F68">
         <v>41</v>
@@ -5832,10 +5820,10 @@
         <v>3</v>
       </c>
       <c r="H68" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" t="s">
         <v>8</v>
       </c>
@@ -5843,13 +5831,13 @@
         <v>21</v>
       </c>
       <c r="C69" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D69" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="E69" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="F69">
         <v>63</v>
@@ -5858,10 +5846,10 @@
         <v>3</v>
       </c>
       <c r="H69" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" t="s">
         <v>8</v>
       </c>
@@ -5869,13 +5857,13 @@
         <v>21</v>
       </c>
       <c r="C70" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D70" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="E70" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="F70">
         <v>63</v>
@@ -5884,10 +5872,10 @@
         <v>3</v>
       </c>
       <c r="H70" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" t="s">
         <v>8</v>
       </c>
@@ -5895,13 +5883,13 @@
         <v>21</v>
       </c>
       <c r="C71" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D71" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="E71" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="F71">
         <v>63</v>
@@ -5910,10 +5898,10 @@
         <v>3</v>
       </c>
       <c r="H71" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" t="s">
         <v>8</v>
       </c>
@@ -5921,13 +5909,13 @@
         <v>22</v>
       </c>
       <c r="C72" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D72" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="E72" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="F72">
         <v>38</v>
@@ -5936,10 +5924,10 @@
         <v>3</v>
       </c>
       <c r="H72" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" t="s">
         <v>8</v>
       </c>
@@ -5947,13 +5935,13 @@
         <v>22</v>
       </c>
       <c r="C73" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D73" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="E73" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="F73">
         <v>38</v>
@@ -5962,10 +5950,10 @@
         <v>3</v>
       </c>
       <c r="H73" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" t="s">
         <v>8</v>
       </c>
@@ -5973,13 +5961,13 @@
         <v>22</v>
       </c>
       <c r="C74" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D74" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="E74" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="F74">
         <v>38</v>
@@ -5988,10 +5976,10 @@
         <v>3</v>
       </c>
       <c r="H74" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" t="s">
         <v>8</v>
       </c>
@@ -5999,13 +5987,13 @@
         <v>23</v>
       </c>
       <c r="C75" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D75" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="E75" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="F75">
         <v>39</v>
@@ -6014,10 +6002,10 @@
         <v>3</v>
       </c>
       <c r="H75" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" t="s">
         <v>8</v>
       </c>
@@ -6025,13 +6013,13 @@
         <v>23</v>
       </c>
       <c r="C76" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D76" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="E76" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="F76">
         <v>39</v>
@@ -6040,10 +6028,10 @@
         <v>3</v>
       </c>
       <c r="H76" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" t="s">
         <v>8</v>
       </c>
@@ -6051,13 +6039,13 @@
         <v>23</v>
       </c>
       <c r="C77" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D77" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="E77" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="F77">
         <v>39</v>
@@ -6066,10 +6054,10 @@
         <v>3</v>
       </c>
       <c r="H77" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" t="s">
         <v>8</v>
       </c>
@@ -6077,13 +6065,13 @@
         <v>24</v>
       </c>
       <c r="C78" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D78" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="E78" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="F78">
         <v>44</v>
@@ -6092,10 +6080,10 @@
         <v>3</v>
       </c>
       <c r="H78" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" t="s">
         <v>8</v>
       </c>
@@ -6103,13 +6091,13 @@
         <v>24</v>
       </c>
       <c r="C79" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D79" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E79" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="F79">
         <v>44</v>
@@ -6118,10 +6106,10 @@
         <v>3</v>
       </c>
       <c r="H79" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" t="s">
         <v>8</v>
       </c>
@@ -6129,13 +6117,13 @@
         <v>24</v>
       </c>
       <c r="C80" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D80" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="E80" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="F80">
         <v>44</v>
@@ -6144,44 +6132,44 @@
         <v>3</v>
       </c>
       <c r="H80" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" t="s">
         <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D81" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="E81" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="H81" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" t="s">
         <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D82" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="E82" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="H82" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" t="s">
         <v>9</v>
       </c>
@@ -6189,13 +6177,13 @@
         <v>1</v>
       </c>
       <c r="C83" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D83" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E83" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="F83">
         <v>13</v>
@@ -6204,10 +6192,10 @@
         <v>3</v>
       </c>
       <c r="H83" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" t="s">
         <v>9</v>
       </c>
@@ -6215,13 +6203,13 @@
         <v>2</v>
       </c>
       <c r="C84" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D84" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="E84" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="F84">
         <v>28</v>
@@ -6230,10 +6218,10 @@
         <v>3</v>
       </c>
       <c r="H84" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" t="s">
         <v>9</v>
       </c>
@@ -6241,13 +6229,13 @@
         <v>3</v>
       </c>
       <c r="C85" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D85" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="E85" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="F85">
         <v>20</v>
@@ -6256,10 +6244,10 @@
         <v>5</v>
       </c>
       <c r="H85" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" t="s">
         <v>9</v>
       </c>
@@ -6267,13 +6255,13 @@
         <v>4</v>
       </c>
       <c r="C86" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D86" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="E86" t="s">
-        <v>574</v>
+        <v>581</v>
       </c>
       <c r="F86">
         <v>48</v>
@@ -6282,44 +6270,44 @@
         <v>3</v>
       </c>
       <c r="H86" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" t="s">
         <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D87" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="E87" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="H87" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" t="s">
         <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D88" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="E88" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="H88" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" t="s">
         <v>9</v>
       </c>
@@ -6327,13 +6315,13 @@
         <v>5</v>
       </c>
       <c r="C89" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D89" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="E89" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="F89">
         <v>12</v>
@@ -6342,10 +6330,10 @@
         <v>3</v>
       </c>
       <c r="H89" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" t="s">
         <v>9</v>
       </c>
@@ -6353,13 +6341,13 @@
         <v>6</v>
       </c>
       <c r="C90" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D90" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="E90" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="F90">
         <v>12</v>
@@ -6368,10 +6356,10 @@
         <v>3</v>
       </c>
       <c r="H90" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" t="s">
         <v>9</v>
       </c>
@@ -6379,13 +6367,13 @@
         <v>7</v>
       </c>
       <c r="C91" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D91" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="E91" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="F91">
         <v>12</v>
@@ -6394,10 +6382,10 @@
         <v>3</v>
       </c>
       <c r="H91" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" t="s">
         <v>9</v>
       </c>
@@ -6405,13 +6393,13 @@
         <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D92" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="E92" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="F92">
         <v>12</v>
@@ -6420,10 +6408,10 @@
         <v>3</v>
       </c>
       <c r="H92" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" t="s">
         <v>9</v>
       </c>
@@ -6431,13 +6419,13 @@
         <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D93" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="E93" t="s">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="F93">
         <v>64</v>
@@ -6446,10 +6434,10 @@
         <v>4</v>
       </c>
       <c r="H93" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" t="s">
         <v>9</v>
       </c>
@@ -6457,13 +6445,13 @@
         <v>10</v>
       </c>
       <c r="C94" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D94" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="E94" t="s">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="F94">
         <v>64</v>
@@ -6472,44 +6460,44 @@
         <v>4</v>
       </c>
       <c r="H94" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" t="s">
         <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D95" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="E95" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="H95" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" t="s">
         <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D96" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="E96" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="H96" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" t="s">
         <v>9</v>
       </c>
@@ -6517,13 +6505,13 @@
         <v>11</v>
       </c>
       <c r="C97" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D97" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="E97" t="s">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="F97">
         <v>31</v>
@@ -6532,10 +6520,10 @@
         <v>4</v>
       </c>
       <c r="H97" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" t="s">
         <v>9</v>
       </c>
@@ -6543,13 +6531,13 @@
         <v>12</v>
       </c>
       <c r="C98" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D98" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="E98" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="F98">
         <v>21</v>
@@ -6558,10 +6546,10 @@
         <v>4</v>
       </c>
       <c r="H98" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" t="s">
         <v>9</v>
       </c>
@@ -6569,13 +6557,13 @@
         <v>13</v>
       </c>
       <c r="C99" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D99" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="E99" t="s">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="F99">
         <v>21</v>
@@ -6584,10 +6572,10 @@
         <v>4</v>
       </c>
       <c r="H99" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" t="s">
         <v>9</v>
       </c>
@@ -6595,13 +6583,13 @@
         <v>14</v>
       </c>
       <c r="C100" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D100" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="E100" t="s">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="F100">
         <v>21</v>
@@ -6610,10 +6598,10 @@
         <v>4</v>
       </c>
       <c r="H100" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" t="s">
         <v>9</v>
       </c>
@@ -6621,13 +6609,13 @@
         <v>15</v>
       </c>
       <c r="C101" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D101" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="E101" t="s">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="F101">
         <v>21</v>
@@ -6636,44 +6624,44 @@
         <v>4</v>
       </c>
       <c r="H101" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" t="s">
         <v>10</v>
       </c>
       <c r="C102" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D102" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="E102" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="H102" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" t="s">
         <v>10</v>
       </c>
       <c r="C103" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D103" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="E103" t="s">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="H103" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" t="s">
         <v>10</v>
       </c>
@@ -6681,13 +6669,13 @@
         <v>1</v>
       </c>
       <c r="C104" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D104" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="E104" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="F104">
         <v>30</v>
@@ -6696,10 +6684,10 @@
         <v>3</v>
       </c>
       <c r="H104" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105" t="s">
         <v>10</v>
       </c>
@@ -6707,13 +6695,13 @@
         <v>2</v>
       </c>
       <c r="C105" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D105" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="E105" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="F105">
         <v>30</v>
@@ -6722,10 +6710,10 @@
         <v>3</v>
       </c>
       <c r="H105" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106" t="s">
         <v>10</v>
       </c>
@@ -6733,13 +6721,13 @@
         <v>3</v>
       </c>
       <c r="C106" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D106" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="E106" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="F106">
         <v>58</v>
@@ -6748,10 +6736,10 @@
         <v>4</v>
       </c>
       <c r="H106" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107" t="s">
         <v>10</v>
       </c>
@@ -6759,13 +6747,13 @@
         <v>4</v>
       </c>
       <c r="C107" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D107" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="E107" t="s">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="F107">
         <v>58</v>
@@ -6774,10 +6762,10 @@
         <v>4</v>
       </c>
       <c r="H107" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108" t="s">
         <v>10</v>
       </c>
@@ -6785,13 +6773,13 @@
         <v>5</v>
       </c>
       <c r="C108" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D108" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="E108" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="F108">
         <v>34</v>
@@ -6800,44 +6788,44 @@
         <v>3</v>
       </c>
       <c r="H108" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109" t="s">
         <v>10</v>
       </c>
       <c r="C109" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D109" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="E109" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
       <c r="H109" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110" t="s">
         <v>10</v>
       </c>
       <c r="C110" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D110" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="E110" t="s">
-        <v>598</v>
+        <v>605</v>
       </c>
       <c r="H110" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111" t="s">
         <v>10</v>
       </c>
@@ -6845,19 +6833,19 @@
         <v>6</v>
       </c>
       <c r="C111" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D111" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="E111" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
       <c r="H111" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112" t="s">
         <v>10</v>
       </c>
@@ -6865,19 +6853,19 @@
         <v>7</v>
       </c>
       <c r="C112" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D112" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="E112" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
       <c r="H112" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113" t="s">
         <v>10</v>
       </c>
@@ -6885,70 +6873,70 @@
         <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D113" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="E113" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="H113" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114" t="s">
         <v>10</v>
       </c>
       <c r="C114" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D114" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="E114" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
       <c r="H114" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115" t="s">
         <v>10</v>
       </c>
       <c r="C115" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D115" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="E115" t="s">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="H115" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116" t="s">
         <v>10</v>
       </c>
       <c r="C116" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D116" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="E116" t="s">
-        <v>604</v>
+        <v>611</v>
       </c>
       <c r="H116" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117" t="s">
         <v>10</v>
       </c>
@@ -6956,19 +6944,19 @@
         <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D117" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="E117" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="H117" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118" t="s">
         <v>10</v>
       </c>
@@ -6976,19 +6964,19 @@
         <v>10</v>
       </c>
       <c r="C118" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D118" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="E118" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
       <c r="H118" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119" t="s">
         <v>10</v>
       </c>
@@ -6996,19 +6984,19 @@
         <v>11</v>
       </c>
       <c r="C119" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D119" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="E119" t="s">
-        <v>607</v>
+        <v>614</v>
       </c>
       <c r="H119" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120" t="s">
         <v>10</v>
       </c>
@@ -7016,75 +7004,75 @@
         <v>12</v>
       </c>
       <c r="C120" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D120" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="E120" t="s">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="H120" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121" t="s">
         <v>10</v>
       </c>
       <c r="C121" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D121" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="E121" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122" t="s">
         <v>10</v>
       </c>
       <c r="C122" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D122" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="E122" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123" t="s">
         <v>10</v>
       </c>
       <c r="C123" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D123" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="E123" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124" t="s">
         <v>10</v>
       </c>
       <c r="C124" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D124" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="E124" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
       <c r="A125" t="s">
         <v>10</v>
       </c>
@@ -7092,19 +7080,19 @@
         <v>13</v>
       </c>
       <c r="C125" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D125" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="E125" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="H125" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
       <c r="A126" t="s">
         <v>10</v>
       </c>
@@ -7112,19 +7100,19 @@
         <v>14</v>
       </c>
       <c r="C126" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D126" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="E126" t="s">
-        <v>614</v>
+        <v>621</v>
       </c>
       <c r="H126" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127" t="s">
         <v>10</v>
       </c>
@@ -7132,19 +7120,19 @@
         <v>15</v>
       </c>
       <c r="C127" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D127" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="E127" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="H127" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
       <c r="A128" t="s">
         <v>10</v>
       </c>
@@ -7152,19 +7140,19 @@
         <v>16</v>
       </c>
       <c r="C128" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D128" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="E128" t="s">
-        <v>616</v>
+        <v>623</v>
       </c>
       <c r="H128" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
       <c r="A129" t="s">
         <v>11</v>
       </c>
@@ -7172,19 +7160,19 @@
         <v>1</v>
       </c>
       <c r="C129" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D129" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="E129" t="s">
-        <v>617</v>
+        <v>624</v>
       </c>
       <c r="H129" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
       <c r="A130" t="s">
         <v>11</v>
       </c>
@@ -7192,19 +7180,19 @@
         <v>2</v>
       </c>
       <c r="C130" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D130" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="E130" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="H130" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
       <c r="A131" t="s">
         <v>11</v>
       </c>
@@ -7212,19 +7200,19 @@
         <v>3</v>
       </c>
       <c r="C131" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D131" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="E131" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="H131" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
       <c r="A132" t="s">
         <v>11</v>
       </c>
@@ -7232,19 +7220,19 @@
         <v>4</v>
       </c>
       <c r="C132" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D132" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="E132" t="s">
-        <v>620</v>
+        <v>627</v>
       </c>
       <c r="H132" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
       <c r="A133" t="s">
         <v>11</v>
       </c>
@@ -7252,61 +7240,61 @@
         <v>5</v>
       </c>
       <c r="C133" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D133" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="E133" t="s">
-        <v>621</v>
+        <v>628</v>
       </c>
       <c r="H133" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
       <c r="C134" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D134" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="E134" t="s">
-        <v>622</v>
+        <v>629</v>
       </c>
       <c r="H134" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
       <c r="A135" t="s">
         <v>11</v>
       </c>
       <c r="C135" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D135" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="E135" t="s">
-        <v>623</v>
+        <v>630</v>
       </c>
       <c r="H135" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
       <c r="C136" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D136" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="E136" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
       <c r="A137" t="s">
         <v>11</v>
       </c>
@@ -7314,47 +7302,47 @@
         <v>6</v>
       </c>
       <c r="C137" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D137" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="E137" t="s">
-        <v>625</v>
+        <v>632</v>
       </c>
       <c r="H137" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
       <c r="A138" t="s">
         <v>11</v>
       </c>
       <c r="C138" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D138" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="E138" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
       <c r="A139" t="s">
         <v>11</v>
       </c>
       <c r="C139" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D139" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="E139" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
       <c r="A140" t="s">
         <v>11</v>
       </c>
@@ -7362,47 +7350,47 @@
         <v>7</v>
       </c>
       <c r="C140" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D140" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E140" t="s">
-        <v>628</v>
+        <v>635</v>
       </c>
       <c r="H140" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
       <c r="A141" t="s">
         <v>11</v>
       </c>
       <c r="C141" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D141" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="E141" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
       <c r="A142" t="s">
         <v>11</v>
       </c>
       <c r="C142" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D142" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="E142" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
       <c r="A143" t="s">
         <v>11</v>
       </c>
@@ -7410,47 +7398,47 @@
         <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D143" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="E143" t="s">
-        <v>631</v>
+        <v>638</v>
       </c>
       <c r="H143" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
       <c r="A144" t="s">
         <v>11</v>
       </c>
       <c r="C144" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D144" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="E144" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
       <c r="A145" t="s">
         <v>11</v>
       </c>
       <c r="C145" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D145" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="E145" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
       <c r="A146" t="s">
         <v>11</v>
       </c>
@@ -7458,47 +7446,47 @@
         <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D146" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="E146" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="H146" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
       <c r="A147" t="s">
         <v>11</v>
       </c>
       <c r="C147" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D147" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="E147" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
       <c r="A148" t="s">
         <v>11</v>
       </c>
       <c r="C148" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D148" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="E148" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
       <c r="A149" t="s">
         <v>11</v>
       </c>
@@ -7506,19 +7494,19 @@
         <v>10</v>
       </c>
       <c r="C149" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D149" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="E149" t="s">
-        <v>637</v>
+        <v>644</v>
       </c>
       <c r="H149" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
       <c r="A150" t="s">
         <v>11</v>
       </c>
@@ -7526,19 +7514,19 @@
         <v>11</v>
       </c>
       <c r="C150" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D150" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="E150" t="s">
-        <v>638</v>
+        <v>645</v>
       </c>
       <c r="H150" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
       <c r="A151" t="s">
         <v>11</v>
       </c>
@@ -7546,47 +7534,47 @@
         <v>12</v>
       </c>
       <c r="C151" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D151" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="E151" t="s">
-        <v>639</v>
+        <v>646</v>
       </c>
       <c r="H151" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
       <c r="A152" t="s">
         <v>11</v>
       </c>
       <c r="C152" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D152" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="E152" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
       <c r="A153" t="s">
         <v>11</v>
       </c>
       <c r="C153" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D153" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="E153" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
       <c r="A154" t="s">
         <v>11</v>
       </c>
@@ -7594,47 +7582,47 @@
         <v>13</v>
       </c>
       <c r="C154" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D154" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="E154" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="H154" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
       <c r="A155" t="s">
         <v>11</v>
       </c>
       <c r="C155" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D155" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="E155" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
       <c r="A156" t="s">
         <v>11</v>
       </c>
       <c r="C156" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D156" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="E156" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
       <c r="A157" t="s">
         <v>11</v>
       </c>
@@ -7642,19 +7630,19 @@
         <v>14</v>
       </c>
       <c r="C157" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D157" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="E157" t="s">
-        <v>645</v>
+        <v>652</v>
       </c>
       <c r="H157" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
       <c r="A158" t="s">
         <v>11</v>
       </c>
@@ -7662,47 +7650,47 @@
         <v>15</v>
       </c>
       <c r="C158" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D158" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="E158" t="s">
-        <v>646</v>
+        <v>653</v>
       </c>
       <c r="H158" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
       <c r="A159" t="s">
         <v>11</v>
       </c>
       <c r="C159" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D159" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="E159" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
       <c r="A160" t="s">
         <v>11</v>
       </c>
       <c r="C160" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D160" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="E160" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
       <c r="A161" t="s">
         <v>11</v>
       </c>
@@ -7710,19 +7698,19 @@
         <v>16</v>
       </c>
       <c r="C161" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D161" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="E161" t="s">
-        <v>649</v>
+        <v>656</v>
       </c>
       <c r="H161" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
       <c r="A162" t="s">
         <v>11</v>
       </c>
@@ -7730,19 +7718,19 @@
         <v>17</v>
       </c>
       <c r="C162" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D162" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="E162" t="s">
-        <v>650</v>
+        <v>657</v>
       </c>
       <c r="H162" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
       <c r="A163" t="s">
         <v>11</v>
       </c>
@@ -7750,47 +7738,47 @@
         <v>18</v>
       </c>
       <c r="C163" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D163" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="E163" t="s">
-        <v>651</v>
+        <v>658</v>
       </c>
       <c r="H163" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
       <c r="A164" t="s">
         <v>11</v>
       </c>
       <c r="C164" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D164" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="E164" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
       <c r="A165" t="s">
         <v>11</v>
       </c>
       <c r="C165" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D165" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="E165" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
       <c r="A166" t="s">
         <v>11</v>
       </c>
@@ -7798,19 +7786,19 @@
         <v>19</v>
       </c>
       <c r="C166" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D166" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="E166" t="s">
-        <v>654</v>
+        <v>661</v>
       </c>
       <c r="H166" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
       <c r="A167" t="s">
         <v>11</v>
       </c>
@@ -7818,47 +7806,47 @@
         <v>20</v>
       </c>
       <c r="C167" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D167" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="E167" t="s">
-        <v>655</v>
+        <v>662</v>
       </c>
       <c r="H167" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
       <c r="A168" t="s">
         <v>11</v>
       </c>
       <c r="C168" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D168" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="E168" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
       <c r="A169" t="s">
         <v>11</v>
       </c>
       <c r="C169" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D169" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="E169" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
       <c r="A170" t="s">
         <v>11</v>
       </c>
@@ -7866,19 +7854,19 @@
         <v>21</v>
       </c>
       <c r="C170" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D170" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="E170" t="s">
-        <v>658</v>
+        <v>665</v>
       </c>
       <c r="H170" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
       <c r="A171" t="s">
         <v>11</v>
       </c>
@@ -7886,19 +7874,19 @@
         <v>22</v>
       </c>
       <c r="C171" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D171" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="E171" t="s">
-        <v>659</v>
+        <v>666</v>
       </c>
       <c r="H171" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
       <c r="A172" t="s">
         <v>11</v>
       </c>
@@ -7906,19 +7894,19 @@
         <v>23</v>
       </c>
       <c r="C172" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D172" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="E172" t="s">
-        <v>660</v>
+        <v>667</v>
       </c>
       <c r="H172" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
       <c r="A173" t="s">
         <v>11</v>
       </c>
@@ -7926,19 +7914,19 @@
         <v>24</v>
       </c>
       <c r="C173" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D173" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="E173" t="s">
-        <v>661</v>
+        <v>668</v>
       </c>
       <c r="H173" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
       <c r="A174" t="s">
         <v>11</v>
       </c>
@@ -7946,78 +7934,78 @@
         <v>25</v>
       </c>
       <c r="C174" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D174" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="E174" t="s">
-        <v>662</v>
+        <v>669</v>
       </c>
       <c r="H174" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
       <c r="A175" t="s">
         <v>11</v>
       </c>
       <c r="C175" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D175" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="E175" t="s">
-        <v>663</v>
+        <v>670</v>
       </c>
       <c r="H175" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
       <c r="A176" t="s">
         <v>11</v>
       </c>
       <c r="C176" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D176" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="E176" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
       <c r="A177" t="s">
         <v>11</v>
       </c>
       <c r="C177" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D177" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="E177" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
       <c r="A178" t="s">
         <v>11</v>
       </c>
       <c r="C178" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D178" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="E178" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
       <c r="A179" t="s">
         <v>11</v>
       </c>
@@ -8025,19 +8013,19 @@
         <v>26</v>
       </c>
       <c r="C179" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D179" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="E179" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
       <c r="H179" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
       <c r="A180" t="s">
         <v>11</v>
       </c>
@@ -8045,64 +8033,64 @@
         <v>27</v>
       </c>
       <c r="C180" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D180" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="E180" t="s">
-        <v>668</v>
+        <v>675</v>
       </c>
       <c r="H180" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
       <c r="A181" t="s">
         <v>11</v>
       </c>
       <c r="C181" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D181" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="E181" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="H181" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
       <c r="A182" t="s">
         <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D182" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="E182" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
       <c r="A183" t="s">
         <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D183" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="E183" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
       <c r="A184" t="s">
         <v>8</v>
       </c>
@@ -8110,13 +8098,13 @@
         <v>25</v>
       </c>
       <c r="C184" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D184" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="E184" t="s">
-        <v>672</v>
+        <v>679</v>
       </c>
       <c r="F184">
         <v>4</v>
@@ -8125,10 +8113,10 @@
         <v>4</v>
       </c>
       <c r="H184" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
       <c r="A185" t="s">
         <v>8</v>
       </c>
@@ -8136,13 +8124,13 @@
         <v>25</v>
       </c>
       <c r="C185" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D185" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="E185" t="s">
-        <v>673</v>
+        <v>680</v>
       </c>
       <c r="F185">
         <v>4</v>
@@ -8151,10 +8139,10 @@
         <v>4</v>
       </c>
       <c r="H185" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
       <c r="A186" t="s">
         <v>8</v>
       </c>
@@ -8162,13 +8150,13 @@
         <v>26</v>
       </c>
       <c r="C186" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D186" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="E186" t="s">
-        <v>674</v>
+        <v>681</v>
       </c>
       <c r="F186">
         <v>46</v>
@@ -8177,10 +8165,10 @@
         <v>2</v>
       </c>
       <c r="H186" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
       <c r="A187" t="s">
         <v>8</v>
       </c>
@@ -8188,13 +8176,13 @@
         <v>26</v>
       </c>
       <c r="C187" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D187" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="E187" t="s">
-        <v>675</v>
+        <v>682</v>
       </c>
       <c r="F187">
         <v>46</v>
@@ -8203,38 +8191,38 @@
         <v>2</v>
       </c>
       <c r="H187" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
       <c r="A188" t="s">
         <v>8</v>
       </c>
       <c r="C188" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D188" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="E188" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
       <c r="A189" t="s">
         <v>8</v>
       </c>
       <c r="C189" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D189" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="E189" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
       <c r="A190" t="s">
         <v>8</v>
       </c>
@@ -8242,13 +8230,13 @@
         <v>27</v>
       </c>
       <c r="C190" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D190" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="E190" t="s">
-        <v>678</v>
+        <v>685</v>
       </c>
       <c r="F190">
         <v>27</v>
@@ -8257,10 +8245,10 @@
         <v>6</v>
       </c>
       <c r="H190" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
       <c r="A191" t="s">
         <v>8</v>
       </c>
@@ -8268,13 +8256,13 @@
         <v>27</v>
       </c>
       <c r="C191" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D191" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="E191" t="s">
-        <v>679</v>
+        <v>686</v>
       </c>
       <c r="F191">
         <v>27</v>
@@ -8283,10 +8271,10 @@
         <v>6</v>
       </c>
       <c r="H191" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
       <c r="A192" t="s">
         <v>8</v>
       </c>
@@ -8294,13 +8282,13 @@
         <v>28</v>
       </c>
       <c r="C192" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D192" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="E192" t="s">
-        <v>680</v>
+        <v>687</v>
       </c>
       <c r="F192">
         <v>58</v>
@@ -8309,10 +8297,10 @@
         <v>2</v>
       </c>
       <c r="H192" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
       <c r="A193" t="s">
         <v>8</v>
       </c>
@@ -8320,13 +8308,13 @@
         <v>28</v>
       </c>
       <c r="C193" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D193" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E193" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="F193">
         <v>58</v>
@@ -8335,38 +8323,38 @@
         <v>2</v>
       </c>
       <c r="H193" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
       <c r="A194" t="s">
         <v>8</v>
       </c>
       <c r="C194" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D194" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="E194" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
       <c r="A195" t="s">
         <v>8</v>
       </c>
       <c r="C195" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D195" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="E195" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
       <c r="A196" t="s">
         <v>8</v>
       </c>
@@ -8374,13 +8362,13 @@
         <v>29</v>
       </c>
       <c r="C196" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D196" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="E196" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="F196">
         <v>1</v>
@@ -8389,10 +8377,10 @@
         <v>5</v>
       </c>
       <c r="H196" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
       <c r="A197" t="s">
         <v>8</v>
       </c>
@@ -8400,13 +8388,13 @@
         <v>29</v>
       </c>
       <c r="C197" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D197" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="E197" t="s">
-        <v>685</v>
+        <v>692</v>
       </c>
       <c r="F197">
         <v>1</v>
@@ -8415,10 +8403,10 @@
         <v>5</v>
       </c>
       <c r="H197" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
       <c r="A198" t="s">
         <v>8</v>
       </c>
@@ -8426,13 +8414,13 @@
         <v>30</v>
       </c>
       <c r="C198" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D198" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="E198" t="s">
-        <v>686</v>
+        <v>693</v>
       </c>
       <c r="F198">
         <v>53</v>
@@ -8441,10 +8429,10 @@
         <v>3</v>
       </c>
       <c r="H198" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
       <c r="A199" t="s">
         <v>8</v>
       </c>
@@ -8452,13 +8440,13 @@
         <v>30</v>
       </c>
       <c r="C199" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D199" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="E199" t="s">
-        <v>687</v>
+        <v>694</v>
       </c>
       <c r="F199">
         <v>53</v>
@@ -8467,10 +8455,10 @@
         <v>3</v>
       </c>
       <c r="H199" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
       <c r="A200" t="s">
         <v>8</v>
       </c>
@@ -8478,13 +8466,13 @@
         <v>31</v>
       </c>
       <c r="C200" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D200" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="E200" t="s">
-        <v>688</v>
+        <v>695</v>
       </c>
       <c r="F200">
         <v>37</v>
@@ -8493,10 +8481,10 @@
         <v>2</v>
       </c>
       <c r="H200" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8">
       <c r="A201" t="s">
         <v>8</v>
       </c>
@@ -8504,13 +8492,13 @@
         <v>31</v>
       </c>
       <c r="C201" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D201" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="E201" t="s">
-        <v>689</v>
+        <v>696</v>
       </c>
       <c r="F201">
         <v>37</v>
@@ -8519,38 +8507,38 @@
         <v>2</v>
       </c>
       <c r="H201" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
       <c r="A202" t="s">
         <v>8</v>
       </c>
       <c r="C202" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D202" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="E202" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
       <c r="A203" t="s">
         <v>8</v>
       </c>
       <c r="C203" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D203" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="E203" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8">
       <c r="A204" t="s">
         <v>8</v>
       </c>
@@ -8558,13 +8546,13 @@
         <v>32</v>
       </c>
       <c r="C204" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D204" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="E204" t="s">
-        <v>692</v>
+        <v>699</v>
       </c>
       <c r="F204">
         <v>8</v>
@@ -8573,10 +8561,10 @@
         <v>3</v>
       </c>
       <c r="H204" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8">
       <c r="A205" t="s">
         <v>8</v>
       </c>
@@ -8584,13 +8572,13 @@
         <v>32</v>
       </c>
       <c r="C205" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D205" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="E205" t="s">
-        <v>693</v>
+        <v>700</v>
       </c>
       <c r="F205">
         <v>8</v>
@@ -8599,10 +8587,10 @@
         <v>3</v>
       </c>
       <c r="H205" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8">
       <c r="A206" t="s">
         <v>8</v>
       </c>
@@ -8610,13 +8598,13 @@
         <v>33</v>
       </c>
       <c r="C206" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D206" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="E206" t="s">
-        <v>694</v>
+        <v>701</v>
       </c>
       <c r="F206">
         <v>50</v>
@@ -8625,10 +8613,10 @@
         <v>3</v>
       </c>
       <c r="H206" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
       <c r="A207" t="s">
         <v>8</v>
       </c>
@@ -8636,13 +8624,13 @@
         <v>33</v>
       </c>
       <c r="C207" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D207" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="E207" t="s">
-        <v>695</v>
+        <v>702</v>
       </c>
       <c r="F207">
         <v>50</v>
@@ -8651,41 +8639,41 @@
         <v>3</v>
       </c>
       <c r="H207" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
       <c r="A208" t="s">
         <v>8</v>
       </c>
       <c r="C208" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D208" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="E208" t="s">
-        <v>696</v>
+        <v>703</v>
       </c>
       <c r="H208" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8">
       <c r="A209" t="s">
         <v>8</v>
       </c>
       <c r="C209" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D209" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="E209" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8">
       <c r="A210" t="s">
         <v>8</v>
       </c>
@@ -8693,13 +8681,13 @@
         <v>34</v>
       </c>
       <c r="C210" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D210" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="E210" t="s">
-        <v>698</v>
+        <v>705</v>
       </c>
       <c r="F210">
         <v>62</v>
@@ -8708,10 +8696,10 @@
         <v>3</v>
       </c>
       <c r="H210" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
       <c r="A211" t="s">
         <v>8</v>
       </c>
@@ -8719,13 +8707,13 @@
         <v>34</v>
       </c>
       <c r="C211" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D211" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="E211" t="s">
-        <v>699</v>
+        <v>706</v>
       </c>
       <c r="F211">
         <v>62</v>
@@ -8734,10 +8722,10 @@
         <v>3</v>
       </c>
       <c r="H211" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8">
       <c r="A212" t="s">
         <v>8</v>
       </c>
@@ -8745,13 +8733,13 @@
         <v>35</v>
       </c>
       <c r="C212" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D212" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="E212" t="s">
-        <v>700</v>
+        <v>707</v>
       </c>
       <c r="F212">
         <v>48</v>
@@ -8760,10 +8748,10 @@
         <v>2</v>
       </c>
       <c r="H212" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8">
       <c r="A213" t="s">
         <v>8</v>
       </c>
@@ -8771,13 +8759,13 @@
         <v>35</v>
       </c>
       <c r="C213" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D213" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="E213" t="s">
-        <v>701</v>
+        <v>708</v>
       </c>
       <c r="F213">
         <v>48</v>
@@ -8786,10 +8774,10 @@
         <v>2</v>
       </c>
       <c r="H213" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
       <c r="A214" t="s">
         <v>8</v>
       </c>
@@ -8797,13 +8785,13 @@
         <v>36</v>
       </c>
       <c r="C214" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D214" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="E214" t="s">
-        <v>702</v>
+        <v>709</v>
       </c>
       <c r="F214">
         <v>45</v>
@@ -8812,10 +8800,10 @@
         <v>2</v>
       </c>
       <c r="H214" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8">
       <c r="A215" t="s">
         <v>8</v>
       </c>
@@ -8823,13 +8811,13 @@
         <v>36</v>
       </c>
       <c r="C215" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D215" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="E215" t="s">
-        <v>703</v>
+        <v>710</v>
       </c>
       <c r="F215">
         <v>45</v>
@@ -8838,24 +8826,24 @@
         <v>2</v>
       </c>
       <c r="H215" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8">
       <c r="A216" t="s">
         <v>8</v>
       </c>
       <c r="C216" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D216" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="E216" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8">
       <c r="A217" t="s">
         <v>8</v>
       </c>
@@ -8863,13 +8851,13 @@
         <v>37</v>
       </c>
       <c r="C217" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D217" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="E217" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
       <c r="F217">
         <v>2</v>
@@ -8878,10 +8866,10 @@
         <v>3</v>
       </c>
       <c r="H217" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8">
       <c r="A218" t="s">
         <v>8</v>
       </c>
@@ -8889,13 +8877,13 @@
         <v>37</v>
       </c>
       <c r="C218" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D218" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="E218" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="F218">
         <v>2</v>
@@ -8904,10 +8892,10 @@
         <v>3</v>
       </c>
       <c r="H218" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8">
       <c r="A219" t="s">
         <v>8</v>
       </c>
@@ -8915,13 +8903,13 @@
         <v>38</v>
       </c>
       <c r="C219" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D219" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="E219" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
       <c r="F219">
         <v>19</v>
@@ -8930,18 +8918,18 @@
         <v>6</v>
       </c>
       <c r="H219" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8">
       <c r="C220" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D220" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="E220" t="s">
-        <v>708</v>
+        <v>715</v>
       </c>
       <c r="F220">
         <v>19</v>
@@ -8950,7 +8938,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8">
       <c r="A221" t="s">
         <v>8</v>
       </c>
@@ -8958,13 +8946,13 @@
         <v>38</v>
       </c>
       <c r="C221" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D221" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="E221" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
       <c r="F221">
         <v>19</v>
@@ -8973,24 +8961,24 @@
         <v>6</v>
       </c>
       <c r="H221" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8">
       <c r="A222" t="s">
         <v>8</v>
       </c>
       <c r="C222" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D222" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="E222" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8">
       <c r="A223" t="s">
         <v>8</v>
       </c>
@@ -8998,13 +8986,13 @@
         <v>39</v>
       </c>
       <c r="C223" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D223" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="E223" t="s">
-        <v>711</v>
+        <v>718</v>
       </c>
       <c r="F223">
         <v>5</v>
@@ -9013,10 +9001,10 @@
         <v>3</v>
       </c>
       <c r="H223" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8">
       <c r="A224" t="s">
         <v>8</v>
       </c>
@@ -9024,13 +9012,13 @@
         <v>39</v>
       </c>
       <c r="C224" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D224" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="E224" t="s">
-        <v>712</v>
+        <v>719</v>
       </c>
       <c r="F224">
         <v>5</v>
@@ -9039,10 +9027,10 @@
         <v>3</v>
       </c>
       <c r="H224" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8">
       <c r="A225" t="s">
         <v>8</v>
       </c>
@@ -9050,13 +9038,13 @@
         <v>40</v>
       </c>
       <c r="C225" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D225" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="E225" t="s">
-        <v>713</v>
+        <v>720</v>
       </c>
       <c r="F225">
         <v>15</v>
@@ -9065,10 +9053,10 @@
         <v>3</v>
       </c>
       <c r="H225" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8">
       <c r="A226" t="s">
         <v>8</v>
       </c>
@@ -9076,13 +9064,13 @@
         <v>40</v>
       </c>
       <c r="C226" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D226" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="E226" t="s">
-        <v>714</v>
+        <v>721</v>
       </c>
       <c r="F226">
         <v>15</v>
@@ -9091,24 +9079,24 @@
         <v>3</v>
       </c>
       <c r="H226" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8">
       <c r="A227" t="s">
         <v>8</v>
       </c>
       <c r="C227" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D227" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="E227" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8">
       <c r="A228" t="s">
         <v>8</v>
       </c>
@@ -9116,13 +9104,13 @@
         <v>41</v>
       </c>
       <c r="C228" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D228" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="E228" t="s">
-        <v>716</v>
+        <v>723</v>
       </c>
       <c r="F228">
         <v>30</v>
@@ -9131,10 +9119,10 @@
         <v>4</v>
       </c>
       <c r="H228" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8">
       <c r="A229" t="s">
         <v>8</v>
       </c>
@@ -9142,13 +9130,13 @@
         <v>41</v>
       </c>
       <c r="C229" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D229" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="E229" t="s">
-        <v>717</v>
+        <v>724</v>
       </c>
       <c r="F229">
         <v>30</v>
@@ -9157,10 +9145,10 @@
         <v>4</v>
       </c>
       <c r="H229" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8">
       <c r="A230" t="s">
         <v>8</v>
       </c>
@@ -9168,13 +9156,13 @@
         <v>42</v>
       </c>
       <c r="C230" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D230" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="E230" t="s">
-        <v>718</v>
+        <v>725</v>
       </c>
       <c r="F230">
         <v>16</v>
@@ -9183,10 +9171,10 @@
         <v>3</v>
       </c>
       <c r="H230" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8">
       <c r="A231" t="s">
         <v>8</v>
       </c>
@@ -9194,13 +9182,13 @@
         <v>42</v>
       </c>
       <c r="C231" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D231" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="E231" t="s">
-        <v>719</v>
+        <v>726</v>
       </c>
       <c r="F231">
         <v>16</v>
@@ -9209,10 +9197,10 @@
         <v>3</v>
       </c>
       <c r="H231" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8">
       <c r="A232" t="s">
         <v>8</v>
       </c>
@@ -9220,13 +9208,13 @@
         <v>43</v>
       </c>
       <c r="C232" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D232" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="E232" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="F232">
         <v>52</v>
@@ -9235,10 +9223,10 @@
         <v>4</v>
       </c>
       <c r="H232" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8">
       <c r="A233" t="s">
         <v>8</v>
       </c>
@@ -9246,13 +9234,13 @@
         <v>43</v>
       </c>
       <c r="C233" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D233" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="E233" t="s">
-        <v>721</v>
+        <v>728</v>
       </c>
       <c r="F233">
         <v>52</v>
@@ -9261,24 +9249,24 @@
         <v>4</v>
       </c>
       <c r="H233" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8">
       <c r="A234" t="s">
         <v>8</v>
       </c>
       <c r="C234" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D234" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="E234" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8">
       <c r="A235" t="s">
         <v>8</v>
       </c>
@@ -9286,13 +9274,13 @@
         <v>44</v>
       </c>
       <c r="C235" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D235" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="E235" t="s">
-        <v>723</v>
+        <v>730</v>
       </c>
       <c r="F235">
         <v>54</v>
@@ -9301,10 +9289,10 @@
         <v>3</v>
       </c>
       <c r="H235" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8">
       <c r="A236" t="s">
         <v>8</v>
       </c>
@@ -9312,13 +9300,13 @@
         <v>44</v>
       </c>
       <c r="C236" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D236" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="E236" t="s">
-        <v>724</v>
+        <v>731</v>
       </c>
       <c r="F236">
         <v>54</v>
@@ -9327,10 +9315,10 @@
         <v>3</v>
       </c>
       <c r="H236" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8">
       <c r="A237" t="s">
         <v>8</v>
       </c>
@@ -9338,13 +9326,13 @@
         <v>45</v>
       </c>
       <c r="C237" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D237" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="E237" t="s">
-        <v>725</v>
+        <v>732</v>
       </c>
       <c r="F237">
         <v>57</v>
@@ -9353,10 +9341,10 @@
         <v>2</v>
       </c>
       <c r="H237" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8">
       <c r="A238" t="s">
         <v>8</v>
       </c>
@@ -9364,13 +9352,13 @@
         <v>45</v>
       </c>
       <c r="C238" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D238" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="E238" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
       <c r="F238">
         <v>57</v>
@@ -9379,10 +9367,10 @@
         <v>2</v>
       </c>
       <c r="H238" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8">
       <c r="A239" t="s">
         <v>8</v>
       </c>
@@ -9390,13 +9378,13 @@
         <v>46</v>
       </c>
       <c r="C239" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D239" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="E239" t="s">
-        <v>727</v>
+        <v>734</v>
       </c>
       <c r="F239">
         <v>22</v>
@@ -9405,10 +9393,10 @@
         <v>3</v>
       </c>
       <c r="H239" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8">
       <c r="A240" t="s">
         <v>8</v>
       </c>
@@ -9416,13 +9404,13 @@
         <v>46</v>
       </c>
       <c r="C240" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D240" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="E240" t="s">
-        <v>728</v>
+        <v>735</v>
       </c>
       <c r="F240">
         <v>22</v>
@@ -9431,7 +9419,55 @@
         <v>3</v>
       </c>
       <c r="H240" t="s">
-        <v>913</v>
+        <v>923</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8">
+      <c r="A241" t="s">
+        <v>12</v>
+      </c>
+      <c r="C241" t="s">
+        <v>252</v>
+      </c>
+      <c r="D241" t="s">
+        <v>494</v>
+      </c>
+      <c r="E241" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8">
+      <c r="A242" t="s">
+        <v>12</v>
+      </c>
+      <c r="C242" t="s">
+        <v>253</v>
+      </c>
+      <c r="D242" t="s">
+        <v>495</v>
+      </c>
+      <c r="E242" t="s">
+        <v>737</v>
+      </c>
+      <c r="H242" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8">
+      <c r="A243" t="s">
+        <v>12</v>
+      </c>
+      <c r="C243" t="s">
+        <v>254</v>
+      </c>
+      <c r="D243" t="s">
+        <v>496</v>
+      </c>
+      <c r="E243" t="s">
+        <v>738</v>
+      </c>
+      <c r="H243" t="s">
+        <v>925</v>
       </c>
     </row>
   </sheetData>

--- a/Exp_Record_Alfa.xlsx
+++ b/Exp_Record_Alfa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7372B69B-EB5E-40AD-B254-684F3C920766}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516F3EF7-50E1-4F16-B072-C793A85CBADE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5640" yWindow="360" windowWidth="27540" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="957">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="968">
   <si>
     <t>Exp_collection</t>
   </si>
@@ -1863,6 +1863,25 @@
 complete</t>
   </si>
   <si>
+    <t>6/25 chorhexidine. VERY difficult coming out, not wanting to be hooked in rig at 920.
+Rf mapper start at 9:31. 4 blocks complete stop at 937
+complete</t>
+  </si>
+  <si>
+    <t>Generate integrated start at 944
+Ch 32 -(3.5, 0) 3 2. SU 1/5. zoha sphere lr eu
+Ch 32 -(3.5, 0) 3 2. SU 1/5. zoha sphere lr eu reducDim
+18 blocks in, #1 evolution is taking off, 2 is more slowly climbing.
+They are moving together, but 1 above 2,
+31 blocks complet stop at 1011. complete</t>
+  </si>
+  <si>
+    <t>Generate integrated start at 1017.
+Ch 27 (-3.5, 1.5) 3 1 SU 1/5. zoha sphere lr eu
+Ch 27 (-3.5, 1.5) 3 1 SU 1/5. zoha sphere lr eu reducDim
+Not going anywhere at block 11 :(. Its visually responsive? Possibly starting to climb at block 19. Added 100 ml of juice. So sad, it sounds good but wont take off. Climbed ever so slightly, 28 blocks complete atop at 1045. complete</t>
+  </si>
+  <si>
     <t>Alfa64chan-19112019-009</t>
   </si>
   <si>
@@ -2613,6 +2632,15 @@
     <t>Alfa-25062020-004</t>
   </si>
   <si>
+    <t>Alfa-26062020-001</t>
+  </si>
+  <si>
+    <t>Alfa-26062020-002</t>
+  </si>
+  <si>
+    <t>Alfa-26062020-003</t>
+  </si>
+  <si>
     <t>191119_Alfa_generate_parallel(3)</t>
   </si>
   <si>
@@ -3363,6 +3391,15 @@
     <t>200625_Alfa_generate_integrated(1)</t>
   </si>
   <si>
+    <t>200626_Alfa_rfMapper_basic</t>
+  </si>
+  <si>
+    <t>200626_Alfa_generate_integrated</t>
+  </si>
+  <si>
+    <t>200626_Alfa_generate_integrated(1)</t>
+  </si>
+  <si>
     <t>N:\Stimuli\2019-06-Evolutions\alfa-191119a</t>
   </si>
   <si>
@@ -3933,13 +3970,19 @@
     <t>N:\Stimuli\2020-Evolutions\2020-06-23-Alfa-03\2020-06-23-10-49-24</t>
   </si>
   <si>
-    <t>N:\Stimuli\2020-Evolutions\2020-06-25-Alfa-01\2020-06-25-15-02-05</t>
-  </si>
-  <si>
     <t>N:\Stimuli\2020-Hessian\alfa-200625-selectivity</t>
   </si>
   <si>
-    <t>N:\Stimuli\2020-Evolutions\2020-06-25-Alfa-02\2020-06-25-13-43-14</t>
+    <t>N:\Stimuli\2020-Evolutions\2020-06-26-Alfa-01\2020-06-26-09-44-11</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2020-Evolutions\2020-06-26-Alfa-02\2020-06-26-10-16-33</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2020-Evolutions\2020-06-25-Alfa-02\2020-06-25-15-02-05</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2020-Evolutions\2020-06-25-Alfa-01\2020-06-25-13-43-14</t>
   </si>
 </sst>
 </file>
@@ -4341,18 +4384,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H251"/>
+  <dimension ref="A1:H254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
-      <selection activeCell="H239" sqref="H239"/>
+    <sheetView tabSelected="1" topLeftCell="A237" workbookViewId="0">
+      <selection activeCell="H250" sqref="H250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="25.42578125" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" customWidth="1"/>
-    <col min="5" max="5" width="33.85546875" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -4391,10 +4429,10 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="E2" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="F2">
         <v>29</v>
@@ -4403,7 +4441,7 @@
         <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>764</v>
+        <v>773</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -4417,10 +4455,10 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E3" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="F3">
         <v>29</v>
@@ -4440,10 +4478,10 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E4" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="F4">
         <v>29</v>
@@ -4452,7 +4490,7 @@
         <v>4</v>
       </c>
       <c r="H4" t="s">
-        <v>765</v>
+        <v>774</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -4466,10 +4504,10 @@
         <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="E5" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="F5">
         <v>29</v>
@@ -4478,7 +4516,7 @@
         <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>766</v>
+        <v>775</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -4492,16 +4530,16 @@
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="E6" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="F6">
         <v>29</v>
       </c>
       <c r="H6" t="s">
-        <v>767</v>
+        <v>776</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -4515,10 +4553,10 @@
         <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="E7" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="F7">
         <v>29</v>
@@ -4527,7 +4565,7 @@
         <v>4</v>
       </c>
       <c r="H7" t="s">
-        <v>768</v>
+        <v>777</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -4541,10 +4579,10 @@
         <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E8" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="F8">
         <v>9</v>
@@ -4553,7 +4591,7 @@
         <v>3</v>
       </c>
       <c r="H8" t="s">
-        <v>769</v>
+        <v>778</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -4567,10 +4605,10 @@
         <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="E9" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="F9">
         <v>9</v>
@@ -4579,7 +4617,7 @@
         <v>3</v>
       </c>
       <c r="H9" t="s">
-        <v>770</v>
+        <v>779</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -4593,10 +4631,10 @@
         <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="E10" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="F10">
         <v>9</v>
@@ -4605,7 +4643,7 @@
         <v>3</v>
       </c>
       <c r="H10" t="s">
-        <v>771</v>
+        <v>780</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -4619,10 +4657,10 @@
         <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="E11" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="F11">
         <v>32</v>
@@ -4631,7 +4669,7 @@
         <v>3</v>
       </c>
       <c r="H11" t="s">
-        <v>772</v>
+        <v>781</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -4645,10 +4683,10 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E12" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="F12">
         <v>32</v>
@@ -4657,7 +4695,7 @@
         <v>3</v>
       </c>
       <c r="H12" t="s">
-        <v>773</v>
+        <v>782</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -4671,10 +4709,10 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E13" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="F13">
         <v>32</v>
@@ -4683,7 +4721,7 @@
         <v>3</v>
       </c>
       <c r="H13" t="s">
-        <v>774</v>
+        <v>783</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -4691,10 +4729,10 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="E14" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -4708,10 +4746,10 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E15" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="F15">
         <v>3</v>
@@ -4720,7 +4758,7 @@
         <v>3</v>
       </c>
       <c r="H15" t="s">
-        <v>775</v>
+        <v>784</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -4734,10 +4772,10 @@
         <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="E16" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="F16">
         <v>3</v>
@@ -4746,7 +4784,7 @@
         <v>3</v>
       </c>
       <c r="H16" t="s">
-        <v>776</v>
+        <v>785</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -4760,10 +4798,10 @@
         <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="E17" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="F17">
         <v>3</v>
@@ -4772,7 +4810,7 @@
         <v>3</v>
       </c>
       <c r="H17" t="s">
-        <v>777</v>
+        <v>786</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -4780,10 +4818,10 @@
         <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="E18" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -4797,10 +4835,10 @@
         <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E19" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="F19">
         <v>7</v>
@@ -4809,7 +4847,7 @@
         <v>3</v>
       </c>
       <c r="H19" t="s">
-        <v>778</v>
+        <v>787</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -4823,10 +4861,10 @@
         <v>32</v>
       </c>
       <c r="D20" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="E20" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="F20">
         <v>7</v>
@@ -4835,7 +4873,7 @@
         <v>3</v>
       </c>
       <c r="H20" t="s">
-        <v>779</v>
+        <v>788</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -4849,10 +4887,10 @@
         <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="E21" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="F21">
         <v>7</v>
@@ -4861,7 +4899,7 @@
         <v>3</v>
       </c>
       <c r="H21" t="s">
-        <v>780</v>
+        <v>789</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -4869,10 +4907,10 @@
         <v>34</v>
       </c>
       <c r="D22" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="E22" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -4880,16 +4918,16 @@
         <v>35</v>
       </c>
       <c r="D23" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="E23" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="G23">
         <v>3</v>
       </c>
       <c r="H23" t="s">
-        <v>781</v>
+        <v>790</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -4897,16 +4935,16 @@
         <v>36</v>
       </c>
       <c r="D24" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="E24" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="G24">
         <v>4</v>
       </c>
       <c r="H24" t="s">
-        <v>782</v>
+        <v>791</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -4914,10 +4952,10 @@
         <v>37</v>
       </c>
       <c r="D25" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="E25" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -4931,10 +4969,10 @@
         <v>38</v>
       </c>
       <c r="D26" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E26" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="F26">
         <v>51</v>
@@ -4943,7 +4981,7 @@
         <v>3</v>
       </c>
       <c r="H26" t="s">
-        <v>783</v>
+        <v>792</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -4957,10 +4995,10 @@
         <v>39</v>
       </c>
       <c r="D27" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="E27" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="F27">
         <v>51</v>
@@ -4969,7 +5007,7 @@
         <v>3</v>
       </c>
       <c r="H27" t="s">
-        <v>784</v>
+        <v>793</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -4983,10 +5021,10 @@
         <v>40</v>
       </c>
       <c r="D28" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="E28" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="F28">
         <v>51</v>
@@ -4995,7 +5033,7 @@
         <v>3</v>
       </c>
       <c r="H28" t="s">
-        <v>785</v>
+        <v>794</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -5003,10 +5041,10 @@
         <v>41</v>
       </c>
       <c r="D29" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="E29" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -5020,10 +5058,10 @@
         <v>42</v>
       </c>
       <c r="D30" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="E30" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="F30">
         <v>7</v>
@@ -5032,7 +5070,7 @@
         <v>3</v>
       </c>
       <c r="H30" t="s">
-        <v>786</v>
+        <v>795</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -5046,10 +5084,10 @@
         <v>43</v>
       </c>
       <c r="D31" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="E31" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="F31">
         <v>7</v>
@@ -5058,7 +5096,7 @@
         <v>3</v>
       </c>
       <c r="H31" t="s">
-        <v>787</v>
+        <v>796</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -5072,10 +5110,10 @@
         <v>44</v>
       </c>
       <c r="D32" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="E32" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="F32">
         <v>7</v>
@@ -5084,7 +5122,7 @@
         <v>3</v>
       </c>
       <c r="H32" t="s">
-        <v>788</v>
+        <v>797</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -5092,10 +5130,10 @@
         <v>45</v>
       </c>
       <c r="D33" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="E33" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -5109,10 +5147,10 @@
         <v>46</v>
       </c>
       <c r="D34" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="E34" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="F34">
         <v>7</v>
@@ -5121,7 +5159,7 @@
         <v>3</v>
       </c>
       <c r="H34" t="s">
-        <v>789</v>
+        <v>798</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -5135,10 +5173,10 @@
         <v>47</v>
       </c>
       <c r="D35" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E35" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="F35">
         <v>7</v>
@@ -5147,7 +5185,7 @@
         <v>3</v>
       </c>
       <c r="H35" t="s">
-        <v>790</v>
+        <v>799</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -5161,10 +5199,10 @@
         <v>48</v>
       </c>
       <c r="D36" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="E36" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="F36">
         <v>7</v>
@@ -5173,7 +5211,7 @@
         <v>3</v>
       </c>
       <c r="H36" t="s">
-        <v>791</v>
+        <v>800</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -5187,10 +5225,10 @@
         <v>49</v>
       </c>
       <c r="D37" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="E37" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="F37">
         <v>36</v>
@@ -5199,7 +5237,7 @@
         <v>3</v>
       </c>
       <c r="H37" t="s">
-        <v>792</v>
+        <v>801</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -5213,10 +5251,10 @@
         <v>50</v>
       </c>
       <c r="D38" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="E38" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="F38">
         <v>36</v>
@@ -5225,7 +5263,7 @@
         <v>3</v>
       </c>
       <c r="H38" t="s">
-        <v>793</v>
+        <v>802</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -5239,10 +5277,10 @@
         <v>51</v>
       </c>
       <c r="D39" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="E39" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="F39">
         <v>35</v>
@@ -5251,7 +5289,7 @@
         <v>3</v>
       </c>
       <c r="H39" t="s">
-        <v>794</v>
+        <v>803</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -5265,10 +5303,10 @@
         <v>52</v>
       </c>
       <c r="D40" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E40" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="F40">
         <v>35</v>
@@ -5277,7 +5315,7 @@
         <v>3</v>
       </c>
       <c r="H40" t="s">
-        <v>795</v>
+        <v>804</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -5291,10 +5329,10 @@
         <v>53</v>
       </c>
       <c r="D41" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="E41" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="F41">
         <v>35</v>
@@ -5303,7 +5341,7 @@
         <v>3</v>
       </c>
       <c r="H41" t="s">
-        <v>796</v>
+        <v>805</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -5317,10 +5355,10 @@
         <v>54</v>
       </c>
       <c r="D42" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="E42" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="F42">
         <v>61</v>
@@ -5329,7 +5367,7 @@
         <v>3</v>
       </c>
       <c r="H42" t="s">
-        <v>797</v>
+        <v>806</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -5343,10 +5381,10 @@
         <v>55</v>
       </c>
       <c r="D43" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="E43" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="F43">
         <v>61</v>
@@ -5355,7 +5393,7 @@
         <v>3</v>
       </c>
       <c r="H43" t="s">
-        <v>798</v>
+        <v>807</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -5369,10 +5407,10 @@
         <v>56</v>
       </c>
       <c r="D44" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E44" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="F44">
         <v>61</v>
@@ -5381,7 +5419,7 @@
         <v>3</v>
       </c>
       <c r="H44" t="s">
-        <v>799</v>
+        <v>808</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -5395,10 +5433,10 @@
         <v>57</v>
       </c>
       <c r="D45" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="E45" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="F45">
         <v>33</v>
@@ -5407,7 +5445,7 @@
         <v>3</v>
       </c>
       <c r="H45" t="s">
-        <v>800</v>
+        <v>809</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -5421,10 +5459,10 @@
         <v>58</v>
       </c>
       <c r="D46" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="E46" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="F46">
         <v>33</v>
@@ -5433,7 +5471,7 @@
         <v>3</v>
       </c>
       <c r="H46" t="s">
-        <v>801</v>
+        <v>810</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -5447,10 +5485,10 @@
         <v>59</v>
       </c>
       <c r="D47" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="E47" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="F47">
         <v>33</v>
@@ -5459,7 +5497,7 @@
         <v>3</v>
       </c>
       <c r="H47" t="s">
-        <v>802</v>
+        <v>811</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -5473,10 +5511,10 @@
         <v>60</v>
       </c>
       <c r="D48" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="E48" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="F48">
         <v>43</v>
@@ -5485,7 +5523,7 @@
         <v>3</v>
       </c>
       <c r="H48" t="s">
-        <v>803</v>
+        <v>812</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -5499,10 +5537,10 @@
         <v>61</v>
       </c>
       <c r="D49" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="E49" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="F49">
         <v>43</v>
@@ -5511,7 +5549,7 @@
         <v>3</v>
       </c>
       <c r="H49" t="s">
-        <v>804</v>
+        <v>813</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -5525,10 +5563,10 @@
         <v>62</v>
       </c>
       <c r="D50" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="E50" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="F50">
         <v>43</v>
@@ -5537,7 +5575,7 @@
         <v>3</v>
       </c>
       <c r="H50" t="s">
-        <v>805</v>
+        <v>814</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -5551,10 +5589,10 @@
         <v>63</v>
       </c>
       <c r="D51" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="E51" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="F51">
         <v>59</v>
@@ -5563,7 +5601,7 @@
         <v>3</v>
       </c>
       <c r="H51" t="s">
-        <v>806</v>
+        <v>815</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -5577,10 +5615,10 @@
         <v>64</v>
       </c>
       <c r="D52" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="E52" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="F52">
         <v>59</v>
@@ -5589,7 +5627,7 @@
         <v>3</v>
       </c>
       <c r="H52" t="s">
-        <v>807</v>
+        <v>816</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -5603,10 +5641,10 @@
         <v>65</v>
       </c>
       <c r="D53" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="E53" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="F53">
         <v>59</v>
@@ -5615,7 +5653,7 @@
         <v>3</v>
       </c>
       <c r="H53" t="s">
-        <v>808</v>
+        <v>817</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -5629,10 +5667,10 @@
         <v>66</v>
       </c>
       <c r="D54" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="E54" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="F54">
         <v>20</v>
@@ -5641,7 +5679,7 @@
         <v>3</v>
       </c>
       <c r="H54" t="s">
-        <v>809</v>
+        <v>818</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -5655,10 +5693,10 @@
         <v>67</v>
       </c>
       <c r="D55" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="E55" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="F55">
         <v>20</v>
@@ -5667,7 +5705,7 @@
         <v>3</v>
       </c>
       <c r="H55" t="s">
-        <v>810</v>
+        <v>819</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -5681,10 +5719,10 @@
         <v>68</v>
       </c>
       <c r="D56" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="E56" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="F56">
         <v>20</v>
@@ -5693,7 +5731,7 @@
         <v>3</v>
       </c>
       <c r="H56" t="s">
-        <v>811</v>
+        <v>820</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -5707,10 +5745,10 @@
         <v>69</v>
       </c>
       <c r="D57" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="E57" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="F57">
         <v>49</v>
@@ -5719,7 +5757,7 @@
         <v>3</v>
       </c>
       <c r="H57" t="s">
-        <v>812</v>
+        <v>821</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -5733,10 +5771,10 @@
         <v>70</v>
       </c>
       <c r="D58" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="E58" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="F58">
         <v>49</v>
@@ -5745,7 +5783,7 @@
         <v>3</v>
       </c>
       <c r="H58" t="s">
-        <v>813</v>
+        <v>822</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -5759,10 +5797,10 @@
         <v>71</v>
       </c>
       <c r="D59" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="E59" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="F59">
         <v>49</v>
@@ -5771,7 +5809,7 @@
         <v>3</v>
       </c>
       <c r="H59" t="s">
-        <v>814</v>
+        <v>823</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -5785,10 +5823,10 @@
         <v>72</v>
       </c>
       <c r="D60" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="E60" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="F60">
         <v>19</v>
@@ -5797,7 +5835,7 @@
         <v>3</v>
       </c>
       <c r="H60" t="s">
-        <v>815</v>
+        <v>824</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -5811,10 +5849,10 @@
         <v>73</v>
       </c>
       <c r="D61" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="E61" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="F61">
         <v>19</v>
@@ -5823,7 +5861,7 @@
         <v>3</v>
       </c>
       <c r="H61" t="s">
-        <v>816</v>
+        <v>825</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -5837,10 +5875,10 @@
         <v>74</v>
       </c>
       <c r="D62" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="E62" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="F62">
         <v>19</v>
@@ -5849,7 +5887,7 @@
         <v>3</v>
       </c>
       <c r="H62" t="s">
-        <v>817</v>
+        <v>826</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -5863,10 +5901,10 @@
         <v>75</v>
       </c>
       <c r="D63" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="E63" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="F63">
         <v>12</v>
@@ -5875,7 +5913,7 @@
         <v>3</v>
       </c>
       <c r="H63" t="s">
-        <v>818</v>
+        <v>827</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -5889,10 +5927,10 @@
         <v>76</v>
       </c>
       <c r="D64" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E64" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="F64">
         <v>12</v>
@@ -5901,7 +5939,7 @@
         <v>3</v>
       </c>
       <c r="H64" t="s">
-        <v>819</v>
+        <v>828</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -5915,10 +5953,10 @@
         <v>77</v>
       </c>
       <c r="D65" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="E65" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="F65">
         <v>12</v>
@@ -5927,7 +5965,7 @@
         <v>3</v>
       </c>
       <c r="H65" t="s">
-        <v>820</v>
+        <v>829</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -5941,10 +5979,10 @@
         <v>78</v>
       </c>
       <c r="D66" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="E66" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="F66">
         <v>41</v>
@@ -5953,7 +5991,7 @@
         <v>3</v>
       </c>
       <c r="H66" t="s">
-        <v>821</v>
+        <v>830</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -5967,10 +6005,10 @@
         <v>79</v>
       </c>
       <c r="D67" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="E67" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="F67">
         <v>41</v>
@@ -5979,7 +6017,7 @@
         <v>3</v>
       </c>
       <c r="H67" t="s">
-        <v>822</v>
+        <v>831</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -5993,10 +6031,10 @@
         <v>80</v>
       </c>
       <c r="D68" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="E68" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="F68">
         <v>41</v>
@@ -6005,7 +6043,7 @@
         <v>3</v>
       </c>
       <c r="H68" t="s">
-        <v>823</v>
+        <v>832</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -6019,10 +6057,10 @@
         <v>81</v>
       </c>
       <c r="D69" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="E69" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="F69">
         <v>63</v>
@@ -6031,7 +6069,7 @@
         <v>3</v>
       </c>
       <c r="H69" t="s">
-        <v>824</v>
+        <v>833</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -6045,10 +6083,10 @@
         <v>82</v>
       </c>
       <c r="D70" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="E70" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="F70">
         <v>63</v>
@@ -6057,7 +6095,7 @@
         <v>3</v>
       </c>
       <c r="H70" t="s">
-        <v>825</v>
+        <v>834</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -6071,10 +6109,10 @@
         <v>83</v>
       </c>
       <c r="D71" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="E71" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="F71">
         <v>63</v>
@@ -6083,7 +6121,7 @@
         <v>3</v>
       </c>
       <c r="H71" t="s">
-        <v>826</v>
+        <v>835</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -6097,10 +6135,10 @@
         <v>84</v>
       </c>
       <c r="D72" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="E72" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="F72">
         <v>38</v>
@@ -6109,7 +6147,7 @@
         <v>3</v>
       </c>
       <c r="H72" t="s">
-        <v>827</v>
+        <v>836</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -6123,10 +6161,10 @@
         <v>85</v>
       </c>
       <c r="D73" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="E73" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="F73">
         <v>38</v>
@@ -6135,7 +6173,7 @@
         <v>3</v>
       </c>
       <c r="H73" t="s">
-        <v>828</v>
+        <v>837</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -6149,10 +6187,10 @@
         <v>86</v>
       </c>
       <c r="D74" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="E74" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="F74">
         <v>38</v>
@@ -6161,7 +6199,7 @@
         <v>3</v>
       </c>
       <c r="H74" t="s">
-        <v>829</v>
+        <v>838</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -6175,10 +6213,10 @@
         <v>87</v>
       </c>
       <c r="D75" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="E75" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="F75">
         <v>39</v>
@@ -6187,7 +6225,7 @@
         <v>3</v>
       </c>
       <c r="H75" t="s">
-        <v>830</v>
+        <v>839</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -6201,10 +6239,10 @@
         <v>88</v>
       </c>
       <c r="D76" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="E76" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="F76">
         <v>39</v>
@@ -6213,7 +6251,7 @@
         <v>3</v>
       </c>
       <c r="H76" t="s">
-        <v>831</v>
+        <v>840</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -6227,10 +6265,10 @@
         <v>89</v>
       </c>
       <c r="D77" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="E77" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="F77">
         <v>39</v>
@@ -6239,7 +6277,7 @@
         <v>3</v>
       </c>
       <c r="H77" t="s">
-        <v>832</v>
+        <v>841</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -6253,10 +6291,10 @@
         <v>90</v>
       </c>
       <c r="D78" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="E78" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="F78">
         <v>44</v>
@@ -6265,7 +6303,7 @@
         <v>3</v>
       </c>
       <c r="H78" t="s">
-        <v>833</v>
+        <v>842</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -6279,10 +6317,10 @@
         <v>91</v>
       </c>
       <c r="D79" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="E79" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="F79">
         <v>44</v>
@@ -6291,7 +6329,7 @@
         <v>3</v>
       </c>
       <c r="H79" t="s">
-        <v>834</v>
+        <v>843</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -6305,10 +6343,10 @@
         <v>92</v>
       </c>
       <c r="D80" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="E80" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="F80">
         <v>44</v>
@@ -6317,7 +6355,7 @@
         <v>3</v>
       </c>
       <c r="H80" t="s">
-        <v>835</v>
+        <v>844</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -6328,13 +6366,13 @@
         <v>93</v>
       </c>
       <c r="D81" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="E81" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="H81" t="s">
-        <v>836</v>
+        <v>845</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -6345,13 +6383,13 @@
         <v>94</v>
       </c>
       <c r="D82" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="E82" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="H82" t="s">
-        <v>836</v>
+        <v>845</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -6365,10 +6403,10 @@
         <v>95</v>
       </c>
       <c r="D83" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="E83" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="F83">
         <v>13</v>
@@ -6377,7 +6415,7 @@
         <v>3</v>
       </c>
       <c r="H83" t="s">
-        <v>837</v>
+        <v>846</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -6391,10 +6429,10 @@
         <v>96</v>
       </c>
       <c r="D84" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="E84" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="F84">
         <v>28</v>
@@ -6403,7 +6441,7 @@
         <v>3</v>
       </c>
       <c r="H84" t="s">
-        <v>838</v>
+        <v>847</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -6417,10 +6455,10 @@
         <v>97</v>
       </c>
       <c r="D85" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="E85" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="F85">
         <v>20</v>
@@ -6429,7 +6467,7 @@
         <v>5</v>
       </c>
       <c r="H85" t="s">
-        <v>839</v>
+        <v>848</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -6443,10 +6481,10 @@
         <v>98</v>
       </c>
       <c r="D86" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="E86" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="F86">
         <v>48</v>
@@ -6455,7 +6493,7 @@
         <v>3</v>
       </c>
       <c r="H86" t="s">
-        <v>840</v>
+        <v>849</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -6466,13 +6504,13 @@
         <v>99</v>
       </c>
       <c r="D87" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="E87" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="H87" t="s">
-        <v>841</v>
+        <v>850</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -6483,13 +6521,13 @@
         <v>100</v>
       </c>
       <c r="D88" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="E88" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="H88" t="s">
-        <v>841</v>
+        <v>850</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -6503,10 +6541,10 @@
         <v>101</v>
       </c>
       <c r="D89" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="E89" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="F89">
         <v>12</v>
@@ -6515,7 +6553,7 @@
         <v>3</v>
       </c>
       <c r="H89" t="s">
-        <v>842</v>
+        <v>851</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -6529,10 +6567,10 @@
         <v>102</v>
       </c>
       <c r="D90" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="E90" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="F90">
         <v>12</v>
@@ -6541,7 +6579,7 @@
         <v>3</v>
       </c>
       <c r="H90" t="s">
-        <v>843</v>
+        <v>852</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -6555,10 +6593,10 @@
         <v>103</v>
       </c>
       <c r="D91" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="E91" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="F91">
         <v>12</v>
@@ -6567,7 +6605,7 @@
         <v>3</v>
       </c>
       <c r="H91" t="s">
-        <v>844</v>
+        <v>853</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -6581,10 +6619,10 @@
         <v>104</v>
       </c>
       <c r="D92" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="E92" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="F92">
         <v>12</v>
@@ -6593,7 +6631,7 @@
         <v>3</v>
       </c>
       <c r="H92" t="s">
-        <v>845</v>
+        <v>854</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -6607,10 +6645,10 @@
         <v>105</v>
       </c>
       <c r="D93" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="E93" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="F93">
         <v>64</v>
@@ -6619,7 +6657,7 @@
         <v>4</v>
       </c>
       <c r="H93" t="s">
-        <v>846</v>
+        <v>855</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -6633,10 +6671,10 @@
         <v>106</v>
       </c>
       <c r="D94" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="E94" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="F94">
         <v>64</v>
@@ -6645,7 +6683,7 @@
         <v>4</v>
       </c>
       <c r="H94" t="s">
-        <v>847</v>
+        <v>856</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -6656,13 +6694,13 @@
         <v>107</v>
       </c>
       <c r="D95" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="E95" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="H95" t="s">
-        <v>848</v>
+        <v>857</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -6673,13 +6711,13 @@
         <v>108</v>
       </c>
       <c r="D96" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="E96" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="H96" t="s">
-        <v>848</v>
+        <v>857</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -6693,10 +6731,10 @@
         <v>109</v>
       </c>
       <c r="D97" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="E97" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="F97">
         <v>31</v>
@@ -6705,7 +6743,7 @@
         <v>4</v>
       </c>
       <c r="H97" t="s">
-        <v>849</v>
+        <v>858</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -6719,10 +6757,10 @@
         <v>110</v>
       </c>
       <c r="D98" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="E98" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="F98">
         <v>21</v>
@@ -6731,7 +6769,7 @@
         <v>4</v>
       </c>
       <c r="H98" t="s">
-        <v>850</v>
+        <v>859</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -6745,10 +6783,10 @@
         <v>111</v>
       </c>
       <c r="D99" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="E99" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="F99">
         <v>21</v>
@@ -6757,7 +6795,7 @@
         <v>4</v>
       </c>
       <c r="H99" t="s">
-        <v>851</v>
+        <v>860</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -6771,10 +6809,10 @@
         <v>112</v>
       </c>
       <c r="D100" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="E100" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="F100">
         <v>21</v>
@@ -6783,7 +6821,7 @@
         <v>4</v>
       </c>
       <c r="H100" t="s">
-        <v>852</v>
+        <v>861</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -6797,10 +6835,10 @@
         <v>113</v>
       </c>
       <c r="D101" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="E101" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="F101">
         <v>21</v>
@@ -6809,7 +6847,7 @@
         <v>4</v>
       </c>
       <c r="H101" t="s">
-        <v>853</v>
+        <v>862</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -6823,13 +6861,13 @@
         <v>114</v>
       </c>
       <c r="D102" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="E102" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="H102" t="s">
-        <v>854</v>
+        <v>863</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -6843,13 +6881,13 @@
         <v>115</v>
       </c>
       <c r="D103" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="E103" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="H103" t="s">
-        <v>855</v>
+        <v>864</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -6863,13 +6901,13 @@
         <v>116</v>
       </c>
       <c r="D104" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="E104" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="H104" t="s">
-        <v>856</v>
+        <v>865</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -6883,13 +6921,13 @@
         <v>117</v>
       </c>
       <c r="D105" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="E105" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="H105" t="s">
-        <v>857</v>
+        <v>866</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -6903,13 +6941,13 @@
         <v>118</v>
       </c>
       <c r="D106" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E106" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="H106" t="s">
-        <v>858</v>
+        <v>867</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
@@ -6917,13 +6955,13 @@
         <v>119</v>
       </c>
       <c r="D107" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="E107" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="H107" t="s">
-        <v>859</v>
+        <v>868</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
@@ -6934,13 +6972,13 @@
         <v>120</v>
       </c>
       <c r="D108" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="E108" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="H108" t="s">
-        <v>860</v>
+        <v>869</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
@@ -6948,10 +6986,10 @@
         <v>121</v>
       </c>
       <c r="D109" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="E109" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
@@ -6965,13 +7003,13 @@
         <v>122</v>
       </c>
       <c r="D110" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="E110" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="H110" t="s">
-        <v>861</v>
+        <v>870</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
@@ -6982,10 +7020,10 @@
         <v>123</v>
       </c>
       <c r="D111" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="E111" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
@@ -6996,10 +7034,10 @@
         <v>124</v>
       </c>
       <c r="D112" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="E112" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -7013,13 +7051,13 @@
         <v>125</v>
       </c>
       <c r="D113" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="E113" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="H113" t="s">
-        <v>862</v>
+        <v>871</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
@@ -7030,10 +7068,10 @@
         <v>126</v>
       </c>
       <c r="D114" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="E114" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
@@ -7044,10 +7082,10 @@
         <v>127</v>
       </c>
       <c r="D115" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="E115" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
@@ -7061,13 +7099,13 @@
         <v>128</v>
       </c>
       <c r="D116" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="E116" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="H116" t="s">
-        <v>863</v>
+        <v>872</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
@@ -7078,10 +7116,10 @@
         <v>129</v>
       </c>
       <c r="D117" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="E117" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
@@ -7092,10 +7130,10 @@
         <v>130</v>
       </c>
       <c r="D118" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="E118" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
@@ -7109,13 +7147,13 @@
         <v>131</v>
       </c>
       <c r="D119" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="E119" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="H119" t="s">
-        <v>864</v>
+        <v>873</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
@@ -7126,10 +7164,10 @@
         <v>132</v>
       </c>
       <c r="D120" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="E120" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
@@ -7140,10 +7178,10 @@
         <v>133</v>
       </c>
       <c r="D121" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="E121" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -7157,13 +7195,13 @@
         <v>134</v>
       </c>
       <c r="D122" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="E122" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="H122" t="s">
-        <v>865</v>
+        <v>874</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
@@ -7177,13 +7215,13 @@
         <v>135</v>
       </c>
       <c r="D123" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="E123" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="H123" t="s">
-        <v>866</v>
+        <v>875</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
@@ -7197,13 +7235,13 @@
         <v>136</v>
       </c>
       <c r="D124" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="E124" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="H124" t="s">
-        <v>867</v>
+        <v>876</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
@@ -7214,10 +7252,10 @@
         <v>137</v>
       </c>
       <c r="D125" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="E125" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
@@ -7228,10 +7266,10 @@
         <v>138</v>
       </c>
       <c r="D126" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="E126" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
@@ -7245,13 +7283,13 @@
         <v>139</v>
       </c>
       <c r="D127" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="E127" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="H127" t="s">
-        <v>868</v>
+        <v>877</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
@@ -7262,10 +7300,10 @@
         <v>140</v>
       </c>
       <c r="D128" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="E128" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
@@ -7276,10 +7314,10 @@
         <v>141</v>
       </c>
       <c r="D129" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="E129" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
@@ -7293,13 +7331,13 @@
         <v>142</v>
       </c>
       <c r="D130" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="E130" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="H130" t="s">
-        <v>869</v>
+        <v>878</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
@@ -7313,13 +7351,13 @@
         <v>143</v>
       </c>
       <c r="D131" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="E131" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="H131" t="s">
-        <v>870</v>
+        <v>879</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
@@ -7330,10 +7368,10 @@
         <v>144</v>
       </c>
       <c r="D132" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="E132" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
@@ -7344,10 +7382,10 @@
         <v>145</v>
       </c>
       <c r="D133" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="E133" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
@@ -7361,13 +7399,13 @@
         <v>146</v>
       </c>
       <c r="D134" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="E134" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="H134" t="s">
-        <v>871</v>
+        <v>880</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
@@ -7381,13 +7419,13 @@
         <v>147</v>
       </c>
       <c r="D135" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="E135" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="H135" t="s">
-        <v>872</v>
+        <v>881</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
@@ -7401,13 +7439,13 @@
         <v>148</v>
       </c>
       <c r="D136" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="E136" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="H136" t="s">
-        <v>873</v>
+        <v>882</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
@@ -7418,10 +7456,10 @@
         <v>149</v>
       </c>
       <c r="D137" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="E137" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
@@ -7432,10 +7470,10 @@
         <v>150</v>
       </c>
       <c r="D138" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="E138" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
@@ -7449,13 +7487,13 @@
         <v>151</v>
       </c>
       <c r="D139" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="E139" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="H139" t="s">
-        <v>874</v>
+        <v>883</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
@@ -7469,13 +7507,13 @@
         <v>152</v>
       </c>
       <c r="D140" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="E140" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="H140" t="s">
-        <v>875</v>
+        <v>884</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
@@ -7486,10 +7524,10 @@
         <v>153</v>
       </c>
       <c r="D141" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E141" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
@@ -7500,10 +7538,10 @@
         <v>154</v>
       </c>
       <c r="D142" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="E142" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
@@ -7517,13 +7555,13 @@
         <v>155</v>
       </c>
       <c r="D143" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="E143" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="H143" t="s">
-        <v>876</v>
+        <v>885</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
@@ -7537,13 +7575,13 @@
         <v>156</v>
       </c>
       <c r="D144" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="E144" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="H144" t="s">
-        <v>877</v>
+        <v>886</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
@@ -7557,13 +7595,13 @@
         <v>157</v>
       </c>
       <c r="D145" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="E145" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="H145" t="s">
-        <v>878</v>
+        <v>887</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
@@ -7577,13 +7615,13 @@
         <v>158</v>
       </c>
       <c r="D146" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="E146" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
       <c r="H146" t="s">
-        <v>879</v>
+        <v>888</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
@@ -7597,13 +7635,13 @@
         <v>159</v>
       </c>
       <c r="D147" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="E147" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
       <c r="H147" t="s">
-        <v>880</v>
+        <v>889</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
@@ -7614,13 +7652,13 @@
         <v>160</v>
       </c>
       <c r="D148" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="E148" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="H148" t="s">
-        <v>881</v>
+        <v>890</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
@@ -7631,10 +7669,10 @@
         <v>161</v>
       </c>
       <c r="D149" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="E149" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
@@ -7645,10 +7683,10 @@
         <v>162</v>
       </c>
       <c r="D150" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="E150" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
@@ -7659,10 +7697,10 @@
         <v>163</v>
       </c>
       <c r="D151" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="E151" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
@@ -7676,13 +7714,13 @@
         <v>164</v>
       </c>
       <c r="D152" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="E152" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="H152" t="s">
-        <v>882</v>
+        <v>891</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
@@ -7696,13 +7734,13 @@
         <v>165</v>
       </c>
       <c r="D153" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="E153" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="H153" t="s">
-        <v>883</v>
+        <v>892</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
@@ -7713,13 +7751,13 @@
         <v>166</v>
       </c>
       <c r="D154" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="E154" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
       <c r="H154" t="s">
-        <v>884</v>
+        <v>893</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
@@ -7730,10 +7768,10 @@
         <v>167</v>
       </c>
       <c r="D155" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="E155" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
@@ -7744,10 +7782,10 @@
         <v>168</v>
       </c>
       <c r="D156" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="E156" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
@@ -7761,10 +7799,10 @@
         <v>169</v>
       </c>
       <c r="D157" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="E157" t="s">
-        <v>669</v>
+        <v>675</v>
       </c>
       <c r="F157">
         <v>4</v>
@@ -7773,7 +7811,7 @@
         <v>4</v>
       </c>
       <c r="H157" t="s">
-        <v>885</v>
+        <v>894</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
@@ -7787,10 +7825,10 @@
         <v>170</v>
       </c>
       <c r="D158" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="E158" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
       <c r="F158">
         <v>4</v>
@@ -7799,7 +7837,7 @@
         <v>4</v>
       </c>
       <c r="H158" t="s">
-        <v>886</v>
+        <v>895</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
@@ -7813,10 +7851,10 @@
         <v>171</v>
       </c>
       <c r="D159" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="E159" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
       <c r="F159">
         <v>46</v>
@@ -7825,7 +7863,7 @@
         <v>2</v>
       </c>
       <c r="H159" t="s">
-        <v>887</v>
+        <v>896</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
@@ -7839,10 +7877,10 @@
         <v>172</v>
       </c>
       <c r="D160" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="E160" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
       <c r="F160">
         <v>46</v>
@@ -7851,7 +7889,7 @@
         <v>2</v>
       </c>
       <c r="H160" t="s">
-        <v>888</v>
+        <v>897</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
@@ -7862,10 +7900,10 @@
         <v>173</v>
       </c>
       <c r="D161" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="E161" t="s">
-        <v>673</v>
+        <v>679</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
@@ -7876,10 +7914,10 @@
         <v>174</v>
       </c>
       <c r="D162" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="E162" t="s">
-        <v>674</v>
+        <v>680</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
@@ -7893,10 +7931,10 @@
         <v>175</v>
       </c>
       <c r="D163" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="E163" t="s">
-        <v>675</v>
+        <v>681</v>
       </c>
       <c r="F163">
         <v>27</v>
@@ -7905,7 +7943,7 @@
         <v>6</v>
       </c>
       <c r="H163" t="s">
-        <v>889</v>
+        <v>898</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
@@ -7919,10 +7957,10 @@
         <v>176</v>
       </c>
       <c r="D164" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="E164" t="s">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="F164">
         <v>27</v>
@@ -7931,7 +7969,7 @@
         <v>6</v>
       </c>
       <c r="H164" t="s">
-        <v>890</v>
+        <v>899</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
@@ -7945,10 +7983,10 @@
         <v>177</v>
       </c>
       <c r="D165" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="E165" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
       <c r="F165">
         <v>58</v>
@@ -7957,7 +7995,7 @@
         <v>2</v>
       </c>
       <c r="H165" t="s">
-        <v>891</v>
+        <v>900</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
@@ -7971,10 +8009,10 @@
         <v>178</v>
       </c>
       <c r="D166" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="E166" t="s">
-        <v>678</v>
+        <v>684</v>
       </c>
       <c r="F166">
         <v>58</v>
@@ -7983,7 +8021,7 @@
         <v>2</v>
       </c>
       <c r="H166" t="s">
-        <v>892</v>
+        <v>901</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
@@ -7994,10 +8032,10 @@
         <v>179</v>
       </c>
       <c r="D167" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="E167" t="s">
-        <v>679</v>
+        <v>685</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
@@ -8008,10 +8046,10 @@
         <v>180</v>
       </c>
       <c r="D168" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="E168" t="s">
-        <v>680</v>
+        <v>686</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
@@ -8025,10 +8063,10 @@
         <v>181</v>
       </c>
       <c r="D169" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="E169" t="s">
-        <v>681</v>
+        <v>687</v>
       </c>
       <c r="F169">
         <v>1</v>
@@ -8037,7 +8075,7 @@
         <v>5</v>
       </c>
       <c r="H169" t="s">
-        <v>893</v>
+        <v>902</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
@@ -8051,10 +8089,10 @@
         <v>182</v>
       </c>
       <c r="D170" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="E170" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="F170">
         <v>1</v>
@@ -8063,7 +8101,7 @@
         <v>5</v>
       </c>
       <c r="H170" t="s">
-        <v>894</v>
+        <v>903</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
@@ -8077,10 +8115,10 @@
         <v>183</v>
       </c>
       <c r="D171" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="E171" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
       <c r="F171">
         <v>53</v>
@@ -8089,7 +8127,7 @@
         <v>3</v>
       </c>
       <c r="H171" t="s">
-        <v>895</v>
+        <v>904</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
@@ -8103,10 +8141,10 @@
         <v>184</v>
       </c>
       <c r="D172" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="E172" t="s">
-        <v>684</v>
+        <v>690</v>
       </c>
       <c r="F172">
         <v>53</v>
@@ -8115,7 +8153,7 @@
         <v>3</v>
       </c>
       <c r="H172" t="s">
-        <v>896</v>
+        <v>905</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
@@ -8129,10 +8167,10 @@
         <v>185</v>
       </c>
       <c r="D173" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="E173" t="s">
-        <v>685</v>
+        <v>691</v>
       </c>
       <c r="F173">
         <v>37</v>
@@ -8141,7 +8179,7 @@
         <v>2</v>
       </c>
       <c r="H173" t="s">
-        <v>897</v>
+        <v>906</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
@@ -8155,10 +8193,10 @@
         <v>186</v>
       </c>
       <c r="D174" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="E174" t="s">
-        <v>686</v>
+        <v>692</v>
       </c>
       <c r="F174">
         <v>37</v>
@@ -8167,7 +8205,7 @@
         <v>2</v>
       </c>
       <c r="H174" t="s">
-        <v>898</v>
+        <v>907</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
@@ -8178,10 +8216,10 @@
         <v>187</v>
       </c>
       <c r="D175" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="E175" t="s">
-        <v>687</v>
+        <v>693</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
@@ -8192,10 +8230,10 @@
         <v>188</v>
       </c>
       <c r="D176" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="E176" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
@@ -8209,10 +8247,10 @@
         <v>189</v>
       </c>
       <c r="D177" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="E177" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
       <c r="F177">
         <v>8</v>
@@ -8221,7 +8259,7 @@
         <v>3</v>
       </c>
       <c r="H177" t="s">
-        <v>899</v>
+        <v>908</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
@@ -8235,10 +8273,10 @@
         <v>190</v>
       </c>
       <c r="D178" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="E178" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="F178">
         <v>8</v>
@@ -8247,7 +8285,7 @@
         <v>3</v>
       </c>
       <c r="H178" t="s">
-        <v>900</v>
+        <v>909</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
@@ -8261,10 +8299,10 @@
         <v>191</v>
       </c>
       <c r="D179" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="E179" t="s">
-        <v>691</v>
+        <v>697</v>
       </c>
       <c r="F179">
         <v>50</v>
@@ -8273,7 +8311,7 @@
         <v>3</v>
       </c>
       <c r="H179" t="s">
-        <v>901</v>
+        <v>910</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
@@ -8287,10 +8325,10 @@
         <v>192</v>
       </c>
       <c r="D180" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="E180" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
       <c r="F180">
         <v>50</v>
@@ -8299,7 +8337,7 @@
         <v>3</v>
       </c>
       <c r="H180" t="s">
-        <v>902</v>
+        <v>911</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
@@ -8310,13 +8348,13 @@
         <v>193</v>
       </c>
       <c r="D181" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="E181" t="s">
-        <v>693</v>
+        <v>699</v>
       </c>
       <c r="H181" t="s">
-        <v>903</v>
+        <v>912</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
@@ -8327,10 +8365,10 @@
         <v>194</v>
       </c>
       <c r="D182" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="E182" t="s">
-        <v>694</v>
+        <v>700</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
@@ -8344,10 +8382,10 @@
         <v>195</v>
       </c>
       <c r="D183" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="E183" t="s">
-        <v>695</v>
+        <v>701</v>
       </c>
       <c r="F183">
         <v>62</v>
@@ -8356,7 +8394,7 @@
         <v>3</v>
       </c>
       <c r="H183" t="s">
-        <v>904</v>
+        <v>913</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
@@ -8370,10 +8408,10 @@
         <v>196</v>
       </c>
       <c r="D184" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="E184" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="F184">
         <v>62</v>
@@ -8382,7 +8420,7 @@
         <v>3</v>
       </c>
       <c r="H184" t="s">
-        <v>905</v>
+        <v>914</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
@@ -8396,10 +8434,10 @@
         <v>197</v>
       </c>
       <c r="D185" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="E185" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="F185">
         <v>48</v>
@@ -8408,7 +8446,7 @@
         <v>2</v>
       </c>
       <c r="H185" t="s">
-        <v>906</v>
+        <v>915</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
@@ -8422,10 +8460,10 @@
         <v>198</v>
       </c>
       <c r="D186" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="E186" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
       <c r="F186">
         <v>48</v>
@@ -8434,7 +8472,7 @@
         <v>2</v>
       </c>
       <c r="H186" t="s">
-        <v>907</v>
+        <v>916</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
@@ -8448,10 +8486,10 @@
         <v>199</v>
       </c>
       <c r="D187" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="E187" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="F187">
         <v>45</v>
@@ -8460,7 +8498,7 @@
         <v>2</v>
       </c>
       <c r="H187" t="s">
-        <v>908</v>
+        <v>917</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
@@ -8474,10 +8512,10 @@
         <v>200</v>
       </c>
       <c r="D188" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="E188" t="s">
-        <v>700</v>
+        <v>706</v>
       </c>
       <c r="F188">
         <v>45</v>
@@ -8486,7 +8524,7 @@
         <v>2</v>
       </c>
       <c r="H188" t="s">
-        <v>909</v>
+        <v>918</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
@@ -8497,10 +8535,10 @@
         <v>201</v>
       </c>
       <c r="D189" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="E189" t="s">
-        <v>701</v>
+        <v>707</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
@@ -8514,10 +8552,10 @@
         <v>202</v>
       </c>
       <c r="D190" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="E190" t="s">
-        <v>702</v>
+        <v>708</v>
       </c>
       <c r="F190">
         <v>2</v>
@@ -8526,7 +8564,7 @@
         <v>3</v>
       </c>
       <c r="H190" t="s">
-        <v>910</v>
+        <v>919</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
@@ -8540,10 +8578,10 @@
         <v>203</v>
       </c>
       <c r="D191" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="E191" t="s">
-        <v>703</v>
+        <v>709</v>
       </c>
       <c r="F191">
         <v>2</v>
@@ -8552,7 +8590,7 @@
         <v>3</v>
       </c>
       <c r="H191" t="s">
-        <v>911</v>
+        <v>920</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
@@ -8566,10 +8604,10 @@
         <v>204</v>
       </c>
       <c r="D192" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="E192" t="s">
-        <v>704</v>
+        <v>710</v>
       </c>
       <c r="F192">
         <v>19</v>
@@ -8578,7 +8616,7 @@
         <v>6</v>
       </c>
       <c r="H192" t="s">
-        <v>912</v>
+        <v>921</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
@@ -8586,10 +8624,10 @@
         <v>205</v>
       </c>
       <c r="D193" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="E193" t="s">
-        <v>705</v>
+        <v>711</v>
       </c>
       <c r="F193">
         <v>19</v>
@@ -8609,10 +8647,10 @@
         <v>206</v>
       </c>
       <c r="D194" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="E194" t="s">
-        <v>706</v>
+        <v>712</v>
       </c>
       <c r="F194">
         <v>19</v>
@@ -8621,7 +8659,7 @@
         <v>6</v>
       </c>
       <c r="H194" t="s">
-        <v>913</v>
+        <v>922</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
@@ -8632,10 +8670,10 @@
         <v>207</v>
       </c>
       <c r="D195" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="E195" t="s">
-        <v>707</v>
+        <v>713</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
@@ -8649,10 +8687,10 @@
         <v>208</v>
       </c>
       <c r="D196" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="E196" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
       <c r="F196">
         <v>5</v>
@@ -8661,7 +8699,7 @@
         <v>3</v>
       </c>
       <c r="H196" t="s">
-        <v>914</v>
+        <v>923</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
@@ -8675,10 +8713,10 @@
         <v>209</v>
       </c>
       <c r="D197" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="E197" t="s">
-        <v>709</v>
+        <v>715</v>
       </c>
       <c r="F197">
         <v>5</v>
@@ -8687,7 +8725,7 @@
         <v>3</v>
       </c>
       <c r="H197" t="s">
-        <v>915</v>
+        <v>924</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
@@ -8701,10 +8739,10 @@
         <v>210</v>
       </c>
       <c r="D198" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="E198" t="s">
-        <v>710</v>
+        <v>716</v>
       </c>
       <c r="F198">
         <v>15</v>
@@ -8713,7 +8751,7 @@
         <v>3</v>
       </c>
       <c r="H198" t="s">
-        <v>916</v>
+        <v>925</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
@@ -8727,10 +8765,10 @@
         <v>211</v>
       </c>
       <c r="D199" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="E199" t="s">
-        <v>711</v>
+        <v>717</v>
       </c>
       <c r="F199">
         <v>15</v>
@@ -8739,7 +8777,7 @@
         <v>3</v>
       </c>
       <c r="H199" t="s">
-        <v>917</v>
+        <v>926</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
@@ -8750,10 +8788,10 @@
         <v>212</v>
       </c>
       <c r="D200" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="E200" t="s">
-        <v>712</v>
+        <v>718</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
@@ -8767,10 +8805,10 @@
         <v>213</v>
       </c>
       <c r="D201" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="E201" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="F201">
         <v>30</v>
@@ -8779,7 +8817,7 @@
         <v>4</v>
       </c>
       <c r="H201" t="s">
-        <v>918</v>
+        <v>927</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
@@ -8793,10 +8831,10 @@
         <v>214</v>
       </c>
       <c r="D202" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="E202" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
       <c r="F202">
         <v>30</v>
@@ -8805,7 +8843,7 @@
         <v>4</v>
       </c>
       <c r="H202" t="s">
-        <v>919</v>
+        <v>928</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
@@ -8819,10 +8857,10 @@
         <v>215</v>
       </c>
       <c r="D203" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="E203" t="s">
-        <v>715</v>
+        <v>721</v>
       </c>
       <c r="F203">
         <v>16</v>
@@ -8831,7 +8869,7 @@
         <v>3</v>
       </c>
       <c r="H203" t="s">
-        <v>920</v>
+        <v>929</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
@@ -8845,10 +8883,10 @@
         <v>216</v>
       </c>
       <c r="D204" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="E204" t="s">
-        <v>716</v>
+        <v>722</v>
       </c>
       <c r="F204">
         <v>16</v>
@@ -8857,7 +8895,7 @@
         <v>3</v>
       </c>
       <c r="H204" t="s">
-        <v>921</v>
+        <v>930</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
@@ -8871,10 +8909,10 @@
         <v>217</v>
       </c>
       <c r="D205" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="E205" t="s">
-        <v>717</v>
+        <v>723</v>
       </c>
       <c r="F205">
         <v>52</v>
@@ -8883,7 +8921,7 @@
         <v>4</v>
       </c>
       <c r="H205" t="s">
-        <v>922</v>
+        <v>931</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
@@ -8897,10 +8935,10 @@
         <v>218</v>
       </c>
       <c r="D206" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="E206" t="s">
-        <v>718</v>
+        <v>724</v>
       </c>
       <c r="F206">
         <v>52</v>
@@ -8909,7 +8947,7 @@
         <v>4</v>
       </c>
       <c r="H206" t="s">
-        <v>923</v>
+        <v>932</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
@@ -8920,10 +8958,10 @@
         <v>219</v>
       </c>
       <c r="D207" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="E207" t="s">
-        <v>719</v>
+        <v>725</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
@@ -8937,10 +8975,10 @@
         <v>220</v>
       </c>
       <c r="D208" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="E208" t="s">
-        <v>720</v>
+        <v>726</v>
       </c>
       <c r="F208">
         <v>54</v>
@@ -8949,7 +8987,7 @@
         <v>3</v>
       </c>
       <c r="H208" t="s">
-        <v>924</v>
+        <v>933</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
@@ -8963,10 +9001,10 @@
         <v>221</v>
       </c>
       <c r="D209" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="E209" t="s">
-        <v>721</v>
+        <v>727</v>
       </c>
       <c r="F209">
         <v>54</v>
@@ -8975,7 +9013,7 @@
         <v>3</v>
       </c>
       <c r="H209" t="s">
-        <v>925</v>
+        <v>934</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
@@ -8989,10 +9027,10 @@
         <v>222</v>
       </c>
       <c r="D210" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E210" t="s">
-        <v>722</v>
+        <v>728</v>
       </c>
       <c r="F210">
         <v>57</v>
@@ -9001,7 +9039,7 @@
         <v>2</v>
       </c>
       <c r="H210" t="s">
-        <v>926</v>
+        <v>935</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
@@ -9015,10 +9053,10 @@
         <v>223</v>
       </c>
       <c r="D211" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="E211" t="s">
-        <v>723</v>
+        <v>729</v>
       </c>
       <c r="F211">
         <v>57</v>
@@ -9027,7 +9065,7 @@
         <v>2</v>
       </c>
       <c r="H211" t="s">
-        <v>927</v>
+        <v>936</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
@@ -9041,10 +9079,10 @@
         <v>224</v>
       </c>
       <c r="D212" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="E212" t="s">
-        <v>724</v>
+        <v>730</v>
       </c>
       <c r="F212">
         <v>22</v>
@@ -9053,7 +9091,7 @@
         <v>3</v>
       </c>
       <c r="H212" t="s">
-        <v>928</v>
+        <v>937</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
@@ -9067,10 +9105,10 @@
         <v>225</v>
       </c>
       <c r="D213" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="E213" t="s">
-        <v>725</v>
+        <v>731</v>
       </c>
       <c r="F213">
         <v>22</v>
@@ -9079,7 +9117,7 @@
         <v>3</v>
       </c>
       <c r="H213" t="s">
-        <v>929</v>
+        <v>938</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
@@ -9090,10 +9128,10 @@
         <v>226</v>
       </c>
       <c r="D214" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="E214" t="s">
-        <v>726</v>
+        <v>732</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
@@ -9104,13 +9142,13 @@
         <v>227</v>
       </c>
       <c r="D215" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="E215" t="s">
-        <v>727</v>
+        <v>733</v>
       </c>
       <c r="H215" t="s">
-        <v>930</v>
+        <v>939</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
@@ -9121,13 +9159,13 @@
         <v>228</v>
       </c>
       <c r="D216" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="E216" t="s">
-        <v>728</v>
+        <v>734</v>
       </c>
       <c r="H216" t="s">
-        <v>931</v>
+        <v>940</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
@@ -9138,13 +9176,13 @@
         <v>229</v>
       </c>
       <c r="D217" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="E217" t="s">
-        <v>729</v>
+        <v>735</v>
       </c>
       <c r="H217" t="s">
-        <v>932</v>
+        <v>941</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
@@ -9155,13 +9193,13 @@
         <v>230</v>
       </c>
       <c r="D218" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="E218" t="s">
-        <v>730</v>
+        <v>736</v>
       </c>
       <c r="H218" t="s">
-        <v>932</v>
+        <v>941</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
@@ -9175,10 +9213,10 @@
         <v>231</v>
       </c>
       <c r="D219" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="E219" t="s">
-        <v>731</v>
+        <v>737</v>
       </c>
       <c r="F219">
         <v>30</v>
@@ -9187,7 +9225,7 @@
         <v>3</v>
       </c>
       <c r="H219" t="s">
-        <v>933</v>
+        <v>942</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
@@ -9201,10 +9239,10 @@
         <v>232</v>
       </c>
       <c r="D220" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="E220" t="s">
-        <v>732</v>
+        <v>738</v>
       </c>
       <c r="F220">
         <v>30</v>
@@ -9213,7 +9251,7 @@
         <v>3</v>
       </c>
       <c r="H220" t="s">
-        <v>934</v>
+        <v>943</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
@@ -9227,10 +9265,10 @@
         <v>233</v>
       </c>
       <c r="D221" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="E221" t="s">
-        <v>733</v>
+        <v>739</v>
       </c>
       <c r="F221">
         <v>58</v>
@@ -9239,7 +9277,7 @@
         <v>4</v>
       </c>
       <c r="H221" t="s">
-        <v>935</v>
+        <v>944</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
@@ -9253,10 +9291,10 @@
         <v>234</v>
       </c>
       <c r="D222" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="E222" t="s">
-        <v>734</v>
+        <v>740</v>
       </c>
       <c r="F222">
         <v>58</v>
@@ -9265,7 +9303,7 @@
         <v>4</v>
       </c>
       <c r="H222" t="s">
-        <v>936</v>
+        <v>945</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
@@ -9279,10 +9317,10 @@
         <v>235</v>
       </c>
       <c r="D223" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="E223" t="s">
-        <v>735</v>
+        <v>741</v>
       </c>
       <c r="F223">
         <v>34</v>
@@ -9291,7 +9329,7 @@
         <v>3</v>
       </c>
       <c r="H223" t="s">
-        <v>937</v>
+        <v>946</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
@@ -9302,13 +9340,13 @@
         <v>236</v>
       </c>
       <c r="D224" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="E224" t="s">
-        <v>736</v>
+        <v>742</v>
       </c>
       <c r="H224" t="s">
-        <v>938</v>
+        <v>947</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
@@ -9319,13 +9357,13 @@
         <v>237</v>
       </c>
       <c r="D225" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="E225" t="s">
-        <v>737</v>
+        <v>743</v>
       </c>
       <c r="H225" t="s">
-        <v>938</v>
+        <v>947</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
@@ -9339,13 +9377,13 @@
         <v>238</v>
       </c>
       <c r="D226" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="E226" t="s">
-        <v>738</v>
+        <v>744</v>
       </c>
       <c r="H226" t="s">
-        <v>939</v>
+        <v>948</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
@@ -9359,13 +9397,13 @@
         <v>239</v>
       </c>
       <c r="D227" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="E227" t="s">
-        <v>739</v>
+        <v>745</v>
       </c>
       <c r="H227" t="s">
-        <v>940</v>
+        <v>949</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
@@ -9379,13 +9417,13 @@
         <v>240</v>
       </c>
       <c r="D228" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="E228" t="s">
-        <v>740</v>
+        <v>746</v>
       </c>
       <c r="H228" t="s">
-        <v>941</v>
+        <v>950</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
@@ -9396,13 +9434,13 @@
         <v>241</v>
       </c>
       <c r="D229" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="E229" t="s">
-        <v>741</v>
+        <v>747</v>
       </c>
       <c r="H229" t="s">
-        <v>942</v>
+        <v>951</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
@@ -9413,13 +9451,13 @@
         <v>242</v>
       </c>
       <c r="D230" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="E230" t="s">
-        <v>742</v>
+        <v>748</v>
       </c>
       <c r="H230" t="s">
-        <v>942</v>
+        <v>951</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
@@ -9430,13 +9468,13 @@
         <v>243</v>
       </c>
       <c r="D231" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="E231" t="s">
-        <v>743</v>
+        <v>749</v>
       </c>
       <c r="H231" t="s">
-        <v>942</v>
+        <v>951</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
@@ -9450,13 +9488,13 @@
         <v>244</v>
       </c>
       <c r="D232" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="E232" t="s">
-        <v>744</v>
+        <v>750</v>
       </c>
       <c r="H232" t="s">
-        <v>943</v>
+        <v>952</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
@@ -9470,13 +9508,13 @@
         <v>245</v>
       </c>
       <c r="D233" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="E233" t="s">
-        <v>745</v>
+        <v>751</v>
       </c>
       <c r="H233" t="s">
-        <v>944</v>
+        <v>953</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
@@ -9490,13 +9528,13 @@
         <v>246</v>
       </c>
       <c r="D234" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="E234" t="s">
-        <v>746</v>
+        <v>752</v>
       </c>
       <c r="H234" t="s">
-        <v>945</v>
+        <v>954</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
@@ -9510,13 +9548,13 @@
         <v>247</v>
       </c>
       <c r="D235" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="E235" t="s">
-        <v>747</v>
+        <v>753</v>
       </c>
       <c r="H235" t="s">
-        <v>946</v>
+        <v>955</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
@@ -9527,10 +9565,10 @@
         <v>248</v>
       </c>
       <c r="D236" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="E236" t="s">
-        <v>748</v>
+        <v>754</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
@@ -9541,10 +9579,10 @@
         <v>249</v>
       </c>
       <c r="D237" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="E237" t="s">
-        <v>749</v>
+        <v>755</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
@@ -9555,10 +9593,10 @@
         <v>250</v>
       </c>
       <c r="D238" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="E238" t="s">
-        <v>750</v>
+        <v>756</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
@@ -9569,10 +9607,10 @@
         <v>251</v>
       </c>
       <c r="D239" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="E239" t="s">
-        <v>751</v>
+        <v>757</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
@@ -9583,13 +9621,13 @@
         <v>252</v>
       </c>
       <c r="D240" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="E240" t="s">
-        <v>752</v>
+        <v>758</v>
       </c>
       <c r="H240" t="s">
-        <v>947</v>
+        <v>956</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
@@ -9603,10 +9641,10 @@
         <v>253</v>
       </c>
       <c r="D241" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="E241" t="s">
-        <v>753</v>
+        <v>759</v>
       </c>
       <c r="F241">
         <v>8</v>
@@ -9615,7 +9653,7 @@
         <v>4</v>
       </c>
       <c r="H241" t="s">
-        <v>948</v>
+        <v>957</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
@@ -9629,10 +9667,10 @@
         <v>254</v>
       </c>
       <c r="D242" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="E242" t="s">
-        <v>754</v>
+        <v>760</v>
       </c>
       <c r="F242">
         <v>37</v>
@@ -9641,7 +9679,7 @@
         <v>3</v>
       </c>
       <c r="H242" t="s">
-        <v>949</v>
+        <v>958</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
@@ -9655,10 +9693,10 @@
         <v>255</v>
       </c>
       <c r="D243" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="E243" t="s">
-        <v>755</v>
+        <v>761</v>
       </c>
       <c r="F243">
         <v>64</v>
@@ -9667,7 +9705,7 @@
         <v>3</v>
       </c>
       <c r="H243" t="s">
-        <v>950</v>
+        <v>959</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
@@ -9678,10 +9716,10 @@
         <v>256</v>
       </c>
       <c r="D244" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="E244" t="s">
-        <v>756</v>
+        <v>762</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
@@ -9695,10 +9733,10 @@
         <v>257</v>
       </c>
       <c r="D245" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="E245" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
       <c r="F245">
         <v>44</v>
@@ -9707,7 +9745,7 @@
         <v>3</v>
       </c>
       <c r="H245" t="s">
-        <v>951</v>
+        <v>960</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
@@ -9721,10 +9759,10 @@
         <v>258</v>
       </c>
       <c r="D246" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="E246" t="s">
-        <v>758</v>
+        <v>764</v>
       </c>
       <c r="F246">
         <v>45</v>
@@ -9733,7 +9771,7 @@
         <v>3</v>
       </c>
       <c r="H246" t="s">
-        <v>952</v>
+        <v>961</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
@@ -9747,10 +9785,10 @@
         <v>259</v>
       </c>
       <c r="D247" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="E247" t="s">
-        <v>759</v>
+        <v>765</v>
       </c>
       <c r="F247">
         <v>59</v>
@@ -9759,7 +9797,7 @@
         <v>3</v>
       </c>
       <c r="H247" t="s">
-        <v>953</v>
+        <v>962</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
@@ -9770,10 +9808,10 @@
         <v>260</v>
       </c>
       <c r="D248" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="E248" t="s">
-        <v>760</v>
+        <v>766</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
@@ -9784,10 +9822,10 @@
         <v>261</v>
       </c>
       <c r="D249" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="E249" t="s">
-        <v>761</v>
+        <v>767</v>
       </c>
       <c r="F249">
         <v>3</v>
@@ -9796,7 +9834,7 @@
         <v>4</v>
       </c>
       <c r="H249" t="s">
-        <v>954</v>
+        <v>967</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
@@ -9807,10 +9845,10 @@
         <v>262</v>
       </c>
       <c r="D250" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="E250" t="s">
-        <v>762</v>
+        <v>768</v>
       </c>
       <c r="F250">
         <v>3</v>
@@ -9819,7 +9857,7 @@
         <v>4</v>
       </c>
       <c r="H250" t="s">
-        <v>955</v>
+        <v>963</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
@@ -9833,10 +9871,10 @@
         <v>263</v>
       </c>
       <c r="D251" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="E251" t="s">
-        <v>763</v>
+        <v>769</v>
       </c>
       <c r="F251">
         <v>3</v>
@@ -9845,7 +9883,73 @@
         <v>4</v>
       </c>
       <c r="H251" t="s">
-        <v>956</v>
+        <v>966</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>12</v>
+      </c>
+      <c r="C252" t="s">
+        <v>264</v>
+      </c>
+      <c r="D252" t="s">
+        <v>517</v>
+      </c>
+      <c r="E252" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>12</v>
+      </c>
+      <c r="B253">
+        <v>20</v>
+      </c>
+      <c r="C253" t="s">
+        <v>265</v>
+      </c>
+      <c r="D253" t="s">
+        <v>518</v>
+      </c>
+      <c r="E253" t="s">
+        <v>771</v>
+      </c>
+      <c r="F253">
+        <v>32</v>
+      </c>
+      <c r="G253">
+        <v>3</v>
+      </c>
+      <c r="H253" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>12</v>
+      </c>
+      <c r="B254">
+        <v>21</v>
+      </c>
+      <c r="C254" t="s">
+        <v>266</v>
+      </c>
+      <c r="D254" t="s">
+        <v>519</v>
+      </c>
+      <c r="E254" t="s">
+        <v>772</v>
+      </c>
+      <c r="F254">
+        <v>27</v>
+      </c>
+      <c r="G254">
+        <v>3</v>
+      </c>
+      <c r="H254" t="s">
+        <v>965</v>
       </c>
     </row>
   </sheetData>

--- a/Exp_Record_Alfa.xlsx
+++ b/Exp_Record_Alfa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516F3EF7-50E1-4F16-B072-C793A85CBADE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA5B54E-5C77-4C51-9F57-C77EAE6FF5AD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5640" yWindow="360" windowWidth="27540" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8640" yWindow="3840" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="968">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="1057">
   <si>
     <t>Exp_collection</t>
   </si>
@@ -1882,6 +1882,197 @@
 Not going anywhere at block 11 :(. Its visually responsive? Possibly starting to climb at block 19. Added 100 ml of juice. So sad, it sounds good but wont take off. Climbed ever so slightly, 28 blocks complete atop at 1045. complete</t>
   </si>
   <si>
+    <t>6/29/20 betadine today. In rig at 940. Still a brat coming out, we'll work on.
+Rf mapping start at 9:58. 53, 55, 61. 4 blocks complete at 1003. complete</t>
+  </si>
+  <si>
+    <t>Ch 61 (0, 0) 3 1 SU 1/5. zoha sphere lr eu
+Ch 61 (0, 0) 3 1 SU 1/5. zoha sphere lr eu reducDim
+Generate integrated start at 10:10. Sounds visually responsive. Block 18 and neither taking off 🙁
+Stop at 1025, 20 blocks complete, didn’t take off but #2 did climb a tiny bit. complete</t>
+  </si>
+  <si>
+    <t>Ch 53 (-3, -1) 4 1 SU 1/5. zoha sphere lr eu
+Ch 53 (-3, -1) 4 1 SU 1/5. zoha sphere lr eu reducDim
+Start at 10:34. Generate integrated.
+Block 27, they both seemed to have peaked around block 15-20. But this is such a voliate evolution, so up and down. We are letting it go to see what it does. One of the evolutions is almost totally white, so weird. Nope. Stop recording at 1100. 32 blocks complete. it was done complete</t>
+  </si>
+  <si>
+    <t>Ch 43 (0 0) 3 1 hash 1/5. zoha sphere lr eu
+Ch 43 (0 0) 3 1 hash 1/5. zoha sphere lr eu reducDim
+Generate integrated start at 1105. Yay taking off already at block 4. still climbing at block 16. 23 blocks complete stop at 1125. complete</t>
+  </si>
+  <si>
+    <t>Last one. Quick before lab mtg. Network not working?!? Just use same ref images as before.
+Ch 41 (0 0) 3 1 hash 1/5. zoha sphere lr eu
+Ch 41 (0 0) 3 1 hash 1/5. zoha sphere lr eu reducDim
+Generate integrated start at 1129. Need to stop soon. 17 blocks com stop at 1147
+complete</t>
+  </si>
+  <si>
+    <t>Start: 2:32 pm
+Having a very hard time fixating today
+Added acq reward, started working
+7 blocks, completed
+entered into ProjectPredict</t>
+  </si>
+  <si>
+    <t>Start: 2:51 pm
+Ch. 5 [-2.8 -1.6] 3 1, one SU (1/5), one hash (5/5)
+SU very suppressed during stimuli, RF wasn't too convincing, but giving it a shot anyway
+Very slow evolution, but definitely successful.  Evolving a black square around the center of the evolution that looks like a picture frame
+105 blocks, complete, ORB is a tad crazy
+completed
+entered into ProjectPredict</t>
+  </si>
+  <si>
+    <t>Start: 3:44 pm
+Ch. 5 [-2.8 -1.6] 3 1, one SU (1/5), one hash (5/5)
+7 blocks, complete 
+completed
+entered into ProjectPredict</t>
+  </si>
+  <si>
+    <t>Starts: 4:03 PM
+Ch. 5 [-2.8 -1.6] 3 1, one SU (1/5),
+ZOHA full
+ZOHA reduced
+Really sparse signal. Not sure if it contains visual signal.
+THe SU fires a lot at the end of the trial.....???
+Is there 2 SU actually? With different Waveforms?
+Starts to take off at gen 6 ….Nope
+There is more noise when Alfa is looking around....
+34 mins completed
+31 gens generally good performance but the evolution is not good...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Starts: 4:42 PM
+Ch 60 [0 0 ] 3 1 one Hash (5/5)
+ZOHA full
+ZOHA reduced
+Works pretty much like expected.
+Reduced evolves faster than full and both converge to a similar score.
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Starts 14:21
+RFMapping 1, 3, 8 deg
+Takes 15 mins doing it.
+ </t>
+  </si>
+  <si>
+    <t>Evolution starts 2:49
+ 6 [0 -2] 3 1 CMAES (SU 1/5)
+Monkey works super well! Though evolution has not been super fast
+Reference has been quite effective.
+If it fails then probably be the case that high level object notion is harder to evolve?
+OK as carlos said it has not been successful....
+Stop at~ 30 gens</t>
+  </si>
+  <si>
+    <t>Choose the correct reference
+starts 3:11 11mins
+24  [-2.5  -2.5]  4  1 CMAES  (MU 5/5)
+Seems not successful as well ~ 30 gens stopped.
+Stopped 29 gens</t>
+  </si>
+  <si>
+    <t>Evolution starts  3:29
+7  [-1.5  -1.7]  4 1  CMAES  (MU 5/5)
+Starts to grow 16 gens.
+Starts to create cloth like texture.
+CMAES overshoot and fall off the cliff.....
+But OK lets accept that the thing is</t>
+  </si>
+  <si>
+    <t>Prediction  3:49 11mins
+Gets quite a few fish
+7 mins</t>
+  </si>
+  <si>
+    <t>Evolution starts 16:05
+12 [0 0 ] 3 1  ZOHA full
+12 [0 0 ]  3  1  ZOHA reduced (MU 3.5/5)
+Great, ZOHA full climbs in a sec! But ZOHA reduced didn't
+Super successful exp. (actually it grows a little bit too fast that I doubt the features will be simple. )
+Ah the Reduced Dimen Evolution starts to catch up around gen 11.
+Finds some new gradient at gen 14.
+Wow the Reduced Dimen Finally Catch up with the Full one.
+23 blocks 30mins</t>
+  </si>
+  <si>
+    <t>Starts 15:33
+12 mins not super efficient.</t>
+  </si>
+  <si>
+    <t>Evolution
+Ch 1  [-4  -3]  6  1 ZOHA full  (SU 2.5)
+Ch 1  [-4  -3]  6  1 ZOHA reduce (SU 2.5)
+I feel the cell is a little bit surround suppressed. From the PSTH the 8deg response is smaller than 5 deg 3 deg and 1 deg.
+Yeah the evolution is definitely happening in the full space. Not in the reduced space.
+OK it's not happening....
+OK this is not happening.....I need another unit
+Completed but not effective.</t>
+  </si>
+  <si>
+    <t>Evolution  Starts 16:26,  
+Ch 17 [-1.5 -3 ]  4 1  ZOHA full (MU 5/5)
+Ch 17 [-1.5 -3 ]  4 1  ZOHA reduced
+Another surround suppressed cell?
+OK maybe I made a wrong choice again...
+Not sure if it will evolve. Evolved very slightly ~ gen 20
+Completed but not effective I think.....</t>
+  </si>
+  <si>
+    <t>Evolution
+Ch 55  [-2  -2]  4  1  ZOHA full (SU 1.5 /5)
+Ch 55  [-2  -2]  4  1  ZOHA red
+Good Signal Good PSTH good RF.
+Evolvable?
+Is it Optimizer's bad??
+Starts to grow at gen 9?
+The last gen is definitely better than the first gen. But not better than control
+Also full space is better than reduced space evol.
+At about 41 deg it peaks up a lot of gradient!
+529 Not motivated – this block, 8%, from 45% overall!
+Just stopped working.  Oh my. Drove up reward to 300, but nah...
+Gave 100 ms for acquisition reward, and got a few more trials to break into generation 18...
+8 correct trials per minute. Yeah, he's done...
+complete</t>
+  </si>
+  <si>
+    <t>Rf map start at 951. Super unmotivated at first. Maybe from beto being in lab?
+4 blocks stop at 10:00. 28, 31, 6 (0, -3.2). 3 or 4. 36  or 48 (0,0) 3 hash
+complete</t>
+  </si>
+  <si>
+    <t>Generate integrated start at 10:08
+Ch 6 SU 2/5
+Ch 6  [0  -3.2]  4  1  ZOHA full
+Ch 6  [0  -3.2]  4  1  ZOHA red.
+Sounds visually responsive.
+#1 is climbing at block 16. Block 20, 1 still going, 2 is not.
+Yay #1 is shooting up at 21. Now #2 might be going up.
+30 blocks complete stop at 1031. complete</t>
+  </si>
+  <si>
+    <t>Generate integrated start at 1035
+Ch 36 hash
+Ch 36  [0  0]  3  1  ZOHA full
+Ch 36  [0  0]  3 1  ZOHA red.
+Pretty quiet chan. But you can hear it responding to images.
+Both jumped up at block 12.
+Stopped at 1050. 20 blocks complete, both done climbing. complete</t>
+  </si>
+  <si>
+    <t>Generate integrated start at 1054
+Ch 48 hash
+Ch 48 [0  0]  3  1  ZOHA full
+Ch 48  [0  0]  3 1  ZOHA red.
+Already both climbing at block 4, still going up at 12.
+Still goin up at 19. 28 blocks complete at 1118 . complete</t>
+  </si>
+  <si>
     <t>Alfa64chan-19112019-009</t>
   </si>
   <si>
@@ -2641,6 +2832,75 @@
     <t>Alfa-26062020-003</t>
   </si>
   <si>
+    <t>Alfa-29062020-001</t>
+  </si>
+  <si>
+    <t>Alfa-29062020-002</t>
+  </si>
+  <si>
+    <t>Alfa-29062020-003</t>
+  </si>
+  <si>
+    <t>Alfa-29062020-004</t>
+  </si>
+  <si>
+    <t>Alfa-29062020-005</t>
+  </si>
+  <si>
+    <t>Alfa-01072020-001</t>
+  </si>
+  <si>
+    <t>Alfa-01072020-002</t>
+  </si>
+  <si>
+    <t>Alfa-01072020-003</t>
+  </si>
+  <si>
+    <t>Alfa-01072020-004</t>
+  </si>
+  <si>
+    <t>Alfa-01072020-005</t>
+  </si>
+  <si>
+    <t>Alfa-02072020-001</t>
+  </si>
+  <si>
+    <t>Alfa-02072020-002</t>
+  </si>
+  <si>
+    <t>Alfa-02072020-004</t>
+  </si>
+  <si>
+    <t>Alfa-02072020-005</t>
+  </si>
+  <si>
+    <t>Alfa-02072020-006</t>
+  </si>
+  <si>
+    <t>Alfa-03072020-001</t>
+  </si>
+  <si>
+    <t>Alfa-03072020-002</t>
+  </si>
+  <si>
+    <t>Alfa-03072020-003</t>
+  </si>
+  <si>
+    <t>Alfa-03072020-004</t>
+  </si>
+  <si>
+    <t>Alfa-06072020-001</t>
+  </si>
+  <si>
+    <t>Alfa-06072020-002</t>
+  </si>
+  <si>
+    <t>Alfa-06072020-003</t>
+  </si>
+  <si>
+    <t>Alfa-06072020-004</t>
+  </si>
+  <si>
     <t>191119_Alfa_generate_parallel(3)</t>
   </si>
   <si>
@@ -3400,6 +3660,78 @@
     <t>200626_Alfa_generate_integrated(1)</t>
   </si>
   <si>
+    <t>200629_Alfa_rfMapper_basic</t>
+  </si>
+  <si>
+    <t>200629_Alfa_generate_integrated</t>
+  </si>
+  <si>
+    <t>200629_Alfa_generate_integrated(1)</t>
+  </si>
+  <si>
+    <t>200629_Alfa_generate_integrated(2)</t>
+  </si>
+  <si>
+    <t>200629_Alfa_generate_integrated(3)</t>
+  </si>
+  <si>
+    <t>200701_Alfa_rfMapper_basic</t>
+  </si>
+  <si>
+    <t>200701_Alfa_generate_integrated</t>
+  </si>
+  <si>
+    <t>200701_Alfa_selectivity_basic</t>
+  </si>
+  <si>
+    <t>200701_Alfa_generate_integrated(1)</t>
+  </si>
+  <si>
+    <t>200701_Alfa_generate_integrated(2)</t>
+  </si>
+  <si>
+    <t>200702_Alfa_rfMapper_basic</t>
+  </si>
+  <si>
+    <t>200702_Alfa_generate_integrated</t>
+  </si>
+  <si>
+    <t>200702_Alfa_generate_integrated(2)</t>
+  </si>
+  <si>
+    <t>200702_Alfa_generate_integrated(3)</t>
+  </si>
+  <si>
+    <t>200702_Alfa_selectivity_basic</t>
+  </si>
+  <si>
+    <t>200702_Alfa_generate_integrated(4)</t>
+  </si>
+  <si>
+    <t>200703_Alfa_rfMapper_basic</t>
+  </si>
+  <si>
+    <t>200703_Alfa_generate_integrated</t>
+  </si>
+  <si>
+    <t>200703_Alfa_generate_integrated(1)</t>
+  </si>
+  <si>
+    <t>200703_Alfa_generate_integrated(2)</t>
+  </si>
+  <si>
+    <t>200706_Alfa_rfMapper_basic</t>
+  </si>
+  <si>
+    <t>200706_Alfa_generate_integrated(1)</t>
+  </si>
+  <si>
+    <t>200706_Alfa_generate_integrated(2)</t>
+  </si>
+  <si>
+    <t>200706_Alfa_generate_integrated(3)</t>
+  </si>
+  <si>
     <t>N:\Stimuli\2019-06-Evolutions\alfa-191119a</t>
   </si>
   <si>
@@ -3970,19 +4302,73 @@
     <t>N:\Stimuli\2020-Evolutions\2020-06-23-Alfa-03\2020-06-23-10-49-24</t>
   </si>
   <si>
+    <t>N:\Stimuli\2020-Evolutions\2020-06-25-Alfa-01\2020-06-25-13-43-14</t>
+  </si>
+  <si>
     <t>N:\Stimuli\2020-Hessian\alfa-200625-selectivity</t>
   </si>
   <si>
+    <t>N:\Stimuli\2020-Evolutions\2020-06-25-Alfa-02\2020-06-25-15-02-05</t>
+  </si>
+  <si>
     <t>N:\Stimuli\2020-Evolutions\2020-06-26-Alfa-01\2020-06-26-09-44-11</t>
   </si>
   <si>
     <t>N:\Stimuli\2020-Evolutions\2020-06-26-Alfa-02\2020-06-26-10-16-33</t>
   </si>
   <si>
-    <t>N:\Stimuli\2020-Evolutions\2020-06-25-Alfa-02\2020-06-25-15-02-05</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2020-Evolutions\2020-06-25-Alfa-01\2020-06-25-13-43-14</t>
+    <t>N:\Stimuli\2020-Evolutions\2020-06-29-Alfa-01\2020-06-29-10-10-33</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2020-Evolutions\2020-06-29-Alfa-02\2020-06-29-10-34-49</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2020-Evolutions\2020-06-29-Alfa-03\2020-06-29-11-05-35</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2020-Evolutions\2020-06-29-Alfa-04\2020-06-29-11-29-14</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2020-Evolutions\2020-07-01-Alfa-01\2020-07-01-14-51-09</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2020-Evolutions\2020-07-01-Alfa-01\predictions-2020-07-01 15-41-32</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2020-Evolutions\2020-07-01-Alfa-02\2020-07-01-16-03-29</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2020-Evolutions\2020-07-01-Alfa-03\2020-07-01-16-44-50</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-06-RF-mapping\2020-07-02-Alfa</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2020-Evolutions\2020-07-02-Alfa-01\2020-07-02-14-48-56</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2020-Evolutions\2020-07-02-Alfa-02\2020-07-02-15-10-50</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2020-Evolutions\2020-07-02-Alfa-03\2020-07-02-15-28-59</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2020-Evolutions\2020-07-02-Alfa-03\predictions-2020-07-02 15-47-49</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2020-Evolutions\2020-07-02-Alfa-04\2020-07-02-16-05-34</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2020-Evolutions\2020-07-03-Alfa-01\2020-07-03-16-57-08</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2020-Evolutions\2020-07-06-Alfa-01\2020-07-06-10-08-24</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2020-Evolutions\2020-07-06-Alfa-02\2020-07-06-10-35-29</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2020-Evolutions\2020-07-06-Alfa-03\2020-07-06-10-54-26</t>
   </si>
 </sst>
 </file>
@@ -4384,13 +4770,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H254"/>
+  <dimension ref="A1:H278"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A237" workbookViewId="0">
-      <selection activeCell="H250" sqref="H250"/>
+    <sheetView tabSelected="1" topLeftCell="A260" workbookViewId="0">
+      <selection activeCell="A280" sqref="A280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -4429,10 +4818,10 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>267</v>
+        <v>291</v>
       </c>
       <c r="E2" t="s">
-        <v>520</v>
+        <v>567</v>
       </c>
       <c r="F2">
         <v>29</v>
@@ -4441,7 +4830,7 @@
         <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>773</v>
+        <v>844</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -4455,10 +4844,10 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>268</v>
+        <v>292</v>
       </c>
       <c r="E3" t="s">
-        <v>521</v>
+        <v>568</v>
       </c>
       <c r="F3">
         <v>29</v>
@@ -4478,10 +4867,10 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>269</v>
+        <v>293</v>
       </c>
       <c r="E4" t="s">
-        <v>522</v>
+        <v>569</v>
       </c>
       <c r="F4">
         <v>29</v>
@@ -4490,7 +4879,7 @@
         <v>4</v>
       </c>
       <c r="H4" t="s">
-        <v>774</v>
+        <v>845</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -4504,10 +4893,10 @@
         <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>270</v>
+        <v>294</v>
       </c>
       <c r="E5" t="s">
-        <v>523</v>
+        <v>570</v>
       </c>
       <c r="F5">
         <v>29</v>
@@ -4516,7 +4905,7 @@
         <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>775</v>
+        <v>846</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -4530,16 +4919,16 @@
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>271</v>
+        <v>295</v>
       </c>
       <c r="E6" t="s">
-        <v>524</v>
+        <v>571</v>
       </c>
       <c r="F6">
         <v>29</v>
       </c>
       <c r="H6" t="s">
-        <v>776</v>
+        <v>847</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -4553,10 +4942,10 @@
         <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>272</v>
+        <v>296</v>
       </c>
       <c r="E7" t="s">
-        <v>525</v>
+        <v>572</v>
       </c>
       <c r="F7">
         <v>29</v>
@@ -4565,7 +4954,7 @@
         <v>4</v>
       </c>
       <c r="H7" t="s">
-        <v>777</v>
+        <v>848</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -4579,10 +4968,10 @@
         <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="E8" t="s">
-        <v>526</v>
+        <v>573</v>
       </c>
       <c r="F8">
         <v>9</v>
@@ -4591,7 +4980,7 @@
         <v>3</v>
       </c>
       <c r="H8" t="s">
-        <v>778</v>
+        <v>849</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -4605,10 +4994,10 @@
         <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="E9" t="s">
-        <v>527</v>
+        <v>574</v>
       </c>
       <c r="F9">
         <v>9</v>
@@ -4617,7 +5006,7 @@
         <v>3</v>
       </c>
       <c r="H9" t="s">
-        <v>779</v>
+        <v>850</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -4631,10 +5020,10 @@
         <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="E10" t="s">
-        <v>528</v>
+        <v>575</v>
       </c>
       <c r="F10">
         <v>9</v>
@@ -4643,7 +5032,7 @@
         <v>3</v>
       </c>
       <c r="H10" t="s">
-        <v>780</v>
+        <v>851</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -4657,10 +5046,10 @@
         <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>276</v>
+        <v>300</v>
       </c>
       <c r="E11" t="s">
-        <v>529</v>
+        <v>576</v>
       </c>
       <c r="F11">
         <v>32</v>
@@ -4669,7 +5058,7 @@
         <v>3</v>
       </c>
       <c r="H11" t="s">
-        <v>781</v>
+        <v>852</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -4683,10 +5072,10 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>277</v>
+        <v>301</v>
       </c>
       <c r="E12" t="s">
-        <v>530</v>
+        <v>577</v>
       </c>
       <c r="F12">
         <v>32</v>
@@ -4695,7 +5084,7 @@
         <v>3</v>
       </c>
       <c r="H12" t="s">
-        <v>782</v>
+        <v>853</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -4709,10 +5098,10 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>278</v>
+        <v>302</v>
       </c>
       <c r="E13" t="s">
-        <v>531</v>
+        <v>578</v>
       </c>
       <c r="F13">
         <v>32</v>
@@ -4721,7 +5110,7 @@
         <v>3</v>
       </c>
       <c r="H13" t="s">
-        <v>783</v>
+        <v>854</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -4729,10 +5118,10 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>279</v>
+        <v>303</v>
       </c>
       <c r="E14" t="s">
-        <v>532</v>
+        <v>579</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -4746,10 +5135,10 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>280</v>
+        <v>304</v>
       </c>
       <c r="E15" t="s">
-        <v>533</v>
+        <v>580</v>
       </c>
       <c r="F15">
         <v>3</v>
@@ -4758,7 +5147,7 @@
         <v>3</v>
       </c>
       <c r="H15" t="s">
-        <v>784</v>
+        <v>855</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -4772,10 +5161,10 @@
         <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>281</v>
+        <v>305</v>
       </c>
       <c r="E16" t="s">
-        <v>534</v>
+        <v>581</v>
       </c>
       <c r="F16">
         <v>3</v>
@@ -4784,7 +5173,7 @@
         <v>3</v>
       </c>
       <c r="H16" t="s">
-        <v>785</v>
+        <v>856</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -4798,10 +5187,10 @@
         <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>282</v>
+        <v>306</v>
       </c>
       <c r="E17" t="s">
-        <v>535</v>
+        <v>582</v>
       </c>
       <c r="F17">
         <v>3</v>
@@ -4810,7 +5199,7 @@
         <v>3</v>
       </c>
       <c r="H17" t="s">
-        <v>786</v>
+        <v>857</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -4818,10 +5207,10 @@
         <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>283</v>
+        <v>307</v>
       </c>
       <c r="E18" t="s">
-        <v>536</v>
+        <v>583</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -4835,10 +5224,10 @@
         <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>284</v>
+        <v>308</v>
       </c>
       <c r="E19" t="s">
-        <v>537</v>
+        <v>584</v>
       </c>
       <c r="F19">
         <v>7</v>
@@ -4847,7 +5236,7 @@
         <v>3</v>
       </c>
       <c r="H19" t="s">
-        <v>787</v>
+        <v>858</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -4861,10 +5250,10 @@
         <v>32</v>
       </c>
       <c r="D20" t="s">
-        <v>285</v>
+        <v>309</v>
       </c>
       <c r="E20" t="s">
-        <v>538</v>
+        <v>585</v>
       </c>
       <c r="F20">
         <v>7</v>
@@ -4873,7 +5262,7 @@
         <v>3</v>
       </c>
       <c r="H20" t="s">
-        <v>788</v>
+        <v>859</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -4887,10 +5276,10 @@
         <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>286</v>
+        <v>310</v>
       </c>
       <c r="E21" t="s">
-        <v>539</v>
+        <v>586</v>
       </c>
       <c r="F21">
         <v>7</v>
@@ -4899,7 +5288,7 @@
         <v>3</v>
       </c>
       <c r="H21" t="s">
-        <v>789</v>
+        <v>860</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -4907,10 +5296,10 @@
         <v>34</v>
       </c>
       <c r="D22" t="s">
-        <v>287</v>
+        <v>311</v>
       </c>
       <c r="E22" t="s">
-        <v>540</v>
+        <v>587</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -4918,16 +5307,16 @@
         <v>35</v>
       </c>
       <c r="D23" t="s">
-        <v>288</v>
+        <v>312</v>
       </c>
       <c r="E23" t="s">
-        <v>541</v>
+        <v>588</v>
       </c>
       <c r="G23">
         <v>3</v>
       </c>
       <c r="H23" t="s">
-        <v>790</v>
+        <v>861</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -4935,16 +5324,16 @@
         <v>36</v>
       </c>
       <c r="D24" t="s">
-        <v>289</v>
+        <v>313</v>
       </c>
       <c r="E24" t="s">
-        <v>542</v>
+        <v>589</v>
       </c>
       <c r="G24">
         <v>4</v>
       </c>
       <c r="H24" t="s">
-        <v>791</v>
+        <v>862</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -4952,10 +5341,10 @@
         <v>37</v>
       </c>
       <c r="D25" t="s">
-        <v>290</v>
+        <v>314</v>
       </c>
       <c r="E25" t="s">
-        <v>543</v>
+        <v>590</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -4969,10 +5358,10 @@
         <v>38</v>
       </c>
       <c r="D26" t="s">
-        <v>291</v>
+        <v>315</v>
       </c>
       <c r="E26" t="s">
-        <v>544</v>
+        <v>591</v>
       </c>
       <c r="F26">
         <v>51</v>
@@ -4981,7 +5370,7 @@
         <v>3</v>
       </c>
       <c r="H26" t="s">
-        <v>792</v>
+        <v>863</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -4995,10 +5384,10 @@
         <v>39</v>
       </c>
       <c r="D27" t="s">
-        <v>292</v>
+        <v>316</v>
       </c>
       <c r="E27" t="s">
-        <v>545</v>
+        <v>592</v>
       </c>
       <c r="F27">
         <v>51</v>
@@ -5007,7 +5396,7 @@
         <v>3</v>
       </c>
       <c r="H27" t="s">
-        <v>793</v>
+        <v>864</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -5021,10 +5410,10 @@
         <v>40</v>
       </c>
       <c r="D28" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="E28" t="s">
-        <v>546</v>
+        <v>593</v>
       </c>
       <c r="F28">
         <v>51</v>
@@ -5033,7 +5422,7 @@
         <v>3</v>
       </c>
       <c r="H28" t="s">
-        <v>794</v>
+        <v>865</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -5041,10 +5430,10 @@
         <v>41</v>
       </c>
       <c r="D29" t="s">
-        <v>294</v>
+        <v>318</v>
       </c>
       <c r="E29" t="s">
-        <v>547</v>
+        <v>594</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -5058,10 +5447,10 @@
         <v>42</v>
       </c>
       <c r="D30" t="s">
-        <v>295</v>
+        <v>319</v>
       </c>
       <c r="E30" t="s">
-        <v>548</v>
+        <v>595</v>
       </c>
       <c r="F30">
         <v>7</v>
@@ -5070,7 +5459,7 @@
         <v>3</v>
       </c>
       <c r="H30" t="s">
-        <v>795</v>
+        <v>866</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -5084,10 +5473,10 @@
         <v>43</v>
       </c>
       <c r="D31" t="s">
-        <v>296</v>
+        <v>320</v>
       </c>
       <c r="E31" t="s">
-        <v>549</v>
+        <v>596</v>
       </c>
       <c r="F31">
         <v>7</v>
@@ -5096,7 +5485,7 @@
         <v>3</v>
       </c>
       <c r="H31" t="s">
-        <v>796</v>
+        <v>867</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -5110,10 +5499,10 @@
         <v>44</v>
       </c>
       <c r="D32" t="s">
-        <v>297</v>
+        <v>321</v>
       </c>
       <c r="E32" t="s">
-        <v>550</v>
+        <v>597</v>
       </c>
       <c r="F32">
         <v>7</v>
@@ -5122,7 +5511,7 @@
         <v>3</v>
       </c>
       <c r="H32" t="s">
-        <v>797</v>
+        <v>868</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -5130,10 +5519,10 @@
         <v>45</v>
       </c>
       <c r="D33" t="s">
-        <v>298</v>
+        <v>322</v>
       </c>
       <c r="E33" t="s">
-        <v>551</v>
+        <v>598</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -5147,10 +5536,10 @@
         <v>46</v>
       </c>
       <c r="D34" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="E34" t="s">
-        <v>552</v>
+        <v>599</v>
       </c>
       <c r="F34">
         <v>7</v>
@@ -5159,7 +5548,7 @@
         <v>3</v>
       </c>
       <c r="H34" t="s">
-        <v>798</v>
+        <v>869</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -5173,10 +5562,10 @@
         <v>47</v>
       </c>
       <c r="D35" t="s">
-        <v>300</v>
+        <v>324</v>
       </c>
       <c r="E35" t="s">
-        <v>553</v>
+        <v>600</v>
       </c>
       <c r="F35">
         <v>7</v>
@@ -5185,7 +5574,7 @@
         <v>3</v>
       </c>
       <c r="H35" t="s">
-        <v>799</v>
+        <v>870</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -5199,10 +5588,10 @@
         <v>48</v>
       </c>
       <c r="D36" t="s">
-        <v>301</v>
+        <v>325</v>
       </c>
       <c r="E36" t="s">
-        <v>554</v>
+        <v>601</v>
       </c>
       <c r="F36">
         <v>7</v>
@@ -5211,7 +5600,7 @@
         <v>3</v>
       </c>
       <c r="H36" t="s">
-        <v>800</v>
+        <v>871</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -5225,10 +5614,10 @@
         <v>49</v>
       </c>
       <c r="D37" t="s">
-        <v>302</v>
+        <v>326</v>
       </c>
       <c r="E37" t="s">
-        <v>555</v>
+        <v>602</v>
       </c>
       <c r="F37">
         <v>36</v>
@@ -5237,7 +5626,7 @@
         <v>3</v>
       </c>
       <c r="H37" t="s">
-        <v>801</v>
+        <v>872</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -5251,10 +5640,10 @@
         <v>50</v>
       </c>
       <c r="D38" t="s">
-        <v>303</v>
+        <v>327</v>
       </c>
       <c r="E38" t="s">
-        <v>556</v>
+        <v>603</v>
       </c>
       <c r="F38">
         <v>36</v>
@@ -5263,7 +5652,7 @@
         <v>3</v>
       </c>
       <c r="H38" t="s">
-        <v>802</v>
+        <v>873</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -5277,10 +5666,10 @@
         <v>51</v>
       </c>
       <c r="D39" t="s">
-        <v>304</v>
+        <v>328</v>
       </c>
       <c r="E39" t="s">
-        <v>557</v>
+        <v>604</v>
       </c>
       <c r="F39">
         <v>35</v>
@@ -5289,7 +5678,7 @@
         <v>3</v>
       </c>
       <c r="H39" t="s">
-        <v>803</v>
+        <v>874</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -5303,10 +5692,10 @@
         <v>52</v>
       </c>
       <c r="D40" t="s">
-        <v>305</v>
+        <v>329</v>
       </c>
       <c r="E40" t="s">
-        <v>558</v>
+        <v>605</v>
       </c>
       <c r="F40">
         <v>35</v>
@@ -5315,7 +5704,7 @@
         <v>3</v>
       </c>
       <c r="H40" t="s">
-        <v>804</v>
+        <v>875</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -5329,10 +5718,10 @@
         <v>53</v>
       </c>
       <c r="D41" t="s">
-        <v>306</v>
+        <v>330</v>
       </c>
       <c r="E41" t="s">
-        <v>559</v>
+        <v>606</v>
       </c>
       <c r="F41">
         <v>35</v>
@@ -5341,7 +5730,7 @@
         <v>3</v>
       </c>
       <c r="H41" t="s">
-        <v>805</v>
+        <v>876</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -5355,10 +5744,10 @@
         <v>54</v>
       </c>
       <c r="D42" t="s">
-        <v>307</v>
+        <v>331</v>
       </c>
       <c r="E42" t="s">
-        <v>560</v>
+        <v>607</v>
       </c>
       <c r="F42">
         <v>61</v>
@@ -5367,7 +5756,7 @@
         <v>3</v>
       </c>
       <c r="H42" t="s">
-        <v>806</v>
+        <v>877</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -5381,10 +5770,10 @@
         <v>55</v>
       </c>
       <c r="D43" t="s">
-        <v>308</v>
+        <v>332</v>
       </c>
       <c r="E43" t="s">
-        <v>561</v>
+        <v>608</v>
       </c>
       <c r="F43">
         <v>61</v>
@@ -5393,7 +5782,7 @@
         <v>3</v>
       </c>
       <c r="H43" t="s">
-        <v>807</v>
+        <v>878</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -5407,10 +5796,10 @@
         <v>56</v>
       </c>
       <c r="D44" t="s">
-        <v>309</v>
+        <v>333</v>
       </c>
       <c r="E44" t="s">
-        <v>562</v>
+        <v>609</v>
       </c>
       <c r="F44">
         <v>61</v>
@@ -5419,7 +5808,7 @@
         <v>3</v>
       </c>
       <c r="H44" t="s">
-        <v>808</v>
+        <v>879</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -5433,10 +5822,10 @@
         <v>57</v>
       </c>
       <c r="D45" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="E45" t="s">
-        <v>563</v>
+        <v>610</v>
       </c>
       <c r="F45">
         <v>33</v>
@@ -5445,7 +5834,7 @@
         <v>3</v>
       </c>
       <c r="H45" t="s">
-        <v>809</v>
+        <v>880</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -5459,10 +5848,10 @@
         <v>58</v>
       </c>
       <c r="D46" t="s">
-        <v>311</v>
+        <v>335</v>
       </c>
       <c r="E46" t="s">
-        <v>564</v>
+        <v>611</v>
       </c>
       <c r="F46">
         <v>33</v>
@@ -5471,7 +5860,7 @@
         <v>3</v>
       </c>
       <c r="H46" t="s">
-        <v>810</v>
+        <v>881</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -5485,10 +5874,10 @@
         <v>59</v>
       </c>
       <c r="D47" t="s">
-        <v>312</v>
+        <v>336</v>
       </c>
       <c r="E47" t="s">
-        <v>565</v>
+        <v>612</v>
       </c>
       <c r="F47">
         <v>33</v>
@@ -5497,7 +5886,7 @@
         <v>3</v>
       </c>
       <c r="H47" t="s">
-        <v>811</v>
+        <v>882</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -5511,10 +5900,10 @@
         <v>60</v>
       </c>
       <c r="D48" t="s">
-        <v>313</v>
+        <v>337</v>
       </c>
       <c r="E48" t="s">
-        <v>566</v>
+        <v>613</v>
       </c>
       <c r="F48">
         <v>43</v>
@@ -5523,7 +5912,7 @@
         <v>3</v>
       </c>
       <c r="H48" t="s">
-        <v>812</v>
+        <v>883</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -5537,10 +5926,10 @@
         <v>61</v>
       </c>
       <c r="D49" t="s">
-        <v>314</v>
+        <v>338</v>
       </c>
       <c r="E49" t="s">
-        <v>567</v>
+        <v>614</v>
       </c>
       <c r="F49">
         <v>43</v>
@@ -5549,7 +5938,7 @@
         <v>3</v>
       </c>
       <c r="H49" t="s">
-        <v>813</v>
+        <v>884</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -5563,10 +5952,10 @@
         <v>62</v>
       </c>
       <c r="D50" t="s">
-        <v>315</v>
+        <v>339</v>
       </c>
       <c r="E50" t="s">
-        <v>568</v>
+        <v>615</v>
       </c>
       <c r="F50">
         <v>43</v>
@@ -5575,7 +5964,7 @@
         <v>3</v>
       </c>
       <c r="H50" t="s">
-        <v>814</v>
+        <v>885</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -5589,10 +5978,10 @@
         <v>63</v>
       </c>
       <c r="D51" t="s">
-        <v>316</v>
+        <v>340</v>
       </c>
       <c r="E51" t="s">
-        <v>569</v>
+        <v>616</v>
       </c>
       <c r="F51">
         <v>59</v>
@@ -5601,7 +5990,7 @@
         <v>3</v>
       </c>
       <c r="H51" t="s">
-        <v>815</v>
+        <v>886</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -5615,10 +6004,10 @@
         <v>64</v>
       </c>
       <c r="D52" t="s">
-        <v>317</v>
+        <v>341</v>
       </c>
       <c r="E52" t="s">
-        <v>570</v>
+        <v>617</v>
       </c>
       <c r="F52">
         <v>59</v>
@@ -5627,7 +6016,7 @@
         <v>3</v>
       </c>
       <c r="H52" t="s">
-        <v>816</v>
+        <v>887</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -5641,10 +6030,10 @@
         <v>65</v>
       </c>
       <c r="D53" t="s">
-        <v>318</v>
+        <v>342</v>
       </c>
       <c r="E53" t="s">
-        <v>571</v>
+        <v>618</v>
       </c>
       <c r="F53">
         <v>59</v>
@@ -5653,7 +6042,7 @@
         <v>3</v>
       </c>
       <c r="H53" t="s">
-        <v>817</v>
+        <v>888</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -5667,10 +6056,10 @@
         <v>66</v>
       </c>
       <c r="D54" t="s">
-        <v>319</v>
+        <v>343</v>
       </c>
       <c r="E54" t="s">
-        <v>572</v>
+        <v>619</v>
       </c>
       <c r="F54">
         <v>20</v>
@@ -5679,7 +6068,7 @@
         <v>3</v>
       </c>
       <c r="H54" t="s">
-        <v>818</v>
+        <v>889</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -5693,10 +6082,10 @@
         <v>67</v>
       </c>
       <c r="D55" t="s">
-        <v>320</v>
+        <v>344</v>
       </c>
       <c r="E55" t="s">
-        <v>573</v>
+        <v>620</v>
       </c>
       <c r="F55">
         <v>20</v>
@@ -5705,7 +6094,7 @@
         <v>3</v>
       </c>
       <c r="H55" t="s">
-        <v>819</v>
+        <v>890</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -5719,10 +6108,10 @@
         <v>68</v>
       </c>
       <c r="D56" t="s">
-        <v>321</v>
+        <v>345</v>
       </c>
       <c r="E56" t="s">
-        <v>574</v>
+        <v>621</v>
       </c>
       <c r="F56">
         <v>20</v>
@@ -5731,7 +6120,7 @@
         <v>3</v>
       </c>
       <c r="H56" t="s">
-        <v>820</v>
+        <v>891</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -5745,10 +6134,10 @@
         <v>69</v>
       </c>
       <c r="D57" t="s">
-        <v>322</v>
+        <v>346</v>
       </c>
       <c r="E57" t="s">
-        <v>575</v>
+        <v>622</v>
       </c>
       <c r="F57">
         <v>49</v>
@@ -5757,7 +6146,7 @@
         <v>3</v>
       </c>
       <c r="H57" t="s">
-        <v>821</v>
+        <v>892</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -5771,10 +6160,10 @@
         <v>70</v>
       </c>
       <c r="D58" t="s">
-        <v>323</v>
+        <v>347</v>
       </c>
       <c r="E58" t="s">
-        <v>576</v>
+        <v>623</v>
       </c>
       <c r="F58">
         <v>49</v>
@@ -5783,7 +6172,7 @@
         <v>3</v>
       </c>
       <c r="H58" t="s">
-        <v>822</v>
+        <v>893</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -5797,10 +6186,10 @@
         <v>71</v>
       </c>
       <c r="D59" t="s">
-        <v>324</v>
+        <v>348</v>
       </c>
       <c r="E59" t="s">
-        <v>577</v>
+        <v>624</v>
       </c>
       <c r="F59">
         <v>49</v>
@@ -5809,7 +6198,7 @@
         <v>3</v>
       </c>
       <c r="H59" t="s">
-        <v>823</v>
+        <v>894</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -5823,10 +6212,10 @@
         <v>72</v>
       </c>
       <c r="D60" t="s">
-        <v>325</v>
+        <v>349</v>
       </c>
       <c r="E60" t="s">
-        <v>578</v>
+        <v>625</v>
       </c>
       <c r="F60">
         <v>19</v>
@@ -5835,7 +6224,7 @@
         <v>3</v>
       </c>
       <c r="H60" t="s">
-        <v>824</v>
+        <v>895</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -5849,10 +6238,10 @@
         <v>73</v>
       </c>
       <c r="D61" t="s">
-        <v>326</v>
+        <v>350</v>
       </c>
       <c r="E61" t="s">
-        <v>579</v>
+        <v>626</v>
       </c>
       <c r="F61">
         <v>19</v>
@@ -5861,7 +6250,7 @@
         <v>3</v>
       </c>
       <c r="H61" t="s">
-        <v>825</v>
+        <v>896</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -5875,10 +6264,10 @@
         <v>74</v>
       </c>
       <c r="D62" t="s">
-        <v>327</v>
+        <v>351</v>
       </c>
       <c r="E62" t="s">
-        <v>580</v>
+        <v>627</v>
       </c>
       <c r="F62">
         <v>19</v>
@@ -5887,7 +6276,7 @@
         <v>3</v>
       </c>
       <c r="H62" t="s">
-        <v>826</v>
+        <v>897</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -5901,10 +6290,10 @@
         <v>75</v>
       </c>
       <c r="D63" t="s">
-        <v>328</v>
+        <v>352</v>
       </c>
       <c r="E63" t="s">
-        <v>581</v>
+        <v>628</v>
       </c>
       <c r="F63">
         <v>12</v>
@@ -5913,7 +6302,7 @@
         <v>3</v>
       </c>
       <c r="H63" t="s">
-        <v>827</v>
+        <v>898</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -5927,10 +6316,10 @@
         <v>76</v>
       </c>
       <c r="D64" t="s">
-        <v>329</v>
+        <v>353</v>
       </c>
       <c r="E64" t="s">
-        <v>582</v>
+        <v>629</v>
       </c>
       <c r="F64">
         <v>12</v>
@@ -5939,7 +6328,7 @@
         <v>3</v>
       </c>
       <c r="H64" t="s">
-        <v>828</v>
+        <v>899</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -5953,10 +6342,10 @@
         <v>77</v>
       </c>
       <c r="D65" t="s">
-        <v>330</v>
+        <v>354</v>
       </c>
       <c r="E65" t="s">
-        <v>583</v>
+        <v>630</v>
       </c>
       <c r="F65">
         <v>12</v>
@@ -5965,7 +6354,7 @@
         <v>3</v>
       </c>
       <c r="H65" t="s">
-        <v>829</v>
+        <v>900</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -5979,10 +6368,10 @@
         <v>78</v>
       </c>
       <c r="D66" t="s">
-        <v>331</v>
+        <v>355</v>
       </c>
       <c r="E66" t="s">
-        <v>584</v>
+        <v>631</v>
       </c>
       <c r="F66">
         <v>41</v>
@@ -5991,7 +6380,7 @@
         <v>3</v>
       </c>
       <c r="H66" t="s">
-        <v>830</v>
+        <v>901</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -6005,10 +6394,10 @@
         <v>79</v>
       </c>
       <c r="D67" t="s">
-        <v>332</v>
+        <v>356</v>
       </c>
       <c r="E67" t="s">
-        <v>585</v>
+        <v>632</v>
       </c>
       <c r="F67">
         <v>41</v>
@@ -6017,7 +6406,7 @@
         <v>3</v>
       </c>
       <c r="H67" t="s">
-        <v>831</v>
+        <v>902</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -6031,10 +6420,10 @@
         <v>80</v>
       </c>
       <c r="D68" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
       <c r="E68" t="s">
-        <v>586</v>
+        <v>633</v>
       </c>
       <c r="F68">
         <v>41</v>
@@ -6043,7 +6432,7 @@
         <v>3</v>
       </c>
       <c r="H68" t="s">
-        <v>832</v>
+        <v>903</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -6057,10 +6446,10 @@
         <v>81</v>
       </c>
       <c r="D69" t="s">
-        <v>334</v>
+        <v>358</v>
       </c>
       <c r="E69" t="s">
-        <v>587</v>
+        <v>634</v>
       </c>
       <c r="F69">
         <v>63</v>
@@ -6069,7 +6458,7 @@
         <v>3</v>
       </c>
       <c r="H69" t="s">
-        <v>833</v>
+        <v>904</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -6083,10 +6472,10 @@
         <v>82</v>
       </c>
       <c r="D70" t="s">
-        <v>335</v>
+        <v>359</v>
       </c>
       <c r="E70" t="s">
-        <v>588</v>
+        <v>635</v>
       </c>
       <c r="F70">
         <v>63</v>
@@ -6095,7 +6484,7 @@
         <v>3</v>
       </c>
       <c r="H70" t="s">
-        <v>834</v>
+        <v>905</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -6109,10 +6498,10 @@
         <v>83</v>
       </c>
       <c r="D71" t="s">
-        <v>336</v>
+        <v>360</v>
       </c>
       <c r="E71" t="s">
-        <v>589</v>
+        <v>636</v>
       </c>
       <c r="F71">
         <v>63</v>
@@ -6121,7 +6510,7 @@
         <v>3</v>
       </c>
       <c r="H71" t="s">
-        <v>835</v>
+        <v>906</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -6135,10 +6524,10 @@
         <v>84</v>
       </c>
       <c r="D72" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="E72" t="s">
-        <v>590</v>
+        <v>637</v>
       </c>
       <c r="F72">
         <v>38</v>
@@ -6147,7 +6536,7 @@
         <v>3</v>
       </c>
       <c r="H72" t="s">
-        <v>836</v>
+        <v>907</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -6161,10 +6550,10 @@
         <v>85</v>
       </c>
       <c r="D73" t="s">
-        <v>338</v>
+        <v>362</v>
       </c>
       <c r="E73" t="s">
-        <v>591</v>
+        <v>638</v>
       </c>
       <c r="F73">
         <v>38</v>
@@ -6173,7 +6562,7 @@
         <v>3</v>
       </c>
       <c r="H73" t="s">
-        <v>837</v>
+        <v>908</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -6187,10 +6576,10 @@
         <v>86</v>
       </c>
       <c r="D74" t="s">
-        <v>339</v>
+        <v>363</v>
       </c>
       <c r="E74" t="s">
-        <v>592</v>
+        <v>639</v>
       </c>
       <c r="F74">
         <v>38</v>
@@ -6199,7 +6588,7 @@
         <v>3</v>
       </c>
       <c r="H74" t="s">
-        <v>838</v>
+        <v>909</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -6213,10 +6602,10 @@
         <v>87</v>
       </c>
       <c r="D75" t="s">
-        <v>340</v>
+        <v>364</v>
       </c>
       <c r="E75" t="s">
-        <v>593</v>
+        <v>640</v>
       </c>
       <c r="F75">
         <v>39</v>
@@ -6225,7 +6614,7 @@
         <v>3</v>
       </c>
       <c r="H75" t="s">
-        <v>839</v>
+        <v>910</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -6239,10 +6628,10 @@
         <v>88</v>
       </c>
       <c r="D76" t="s">
-        <v>341</v>
+        <v>365</v>
       </c>
       <c r="E76" t="s">
-        <v>594</v>
+        <v>641</v>
       </c>
       <c r="F76">
         <v>39</v>
@@ -6251,7 +6640,7 @@
         <v>3</v>
       </c>
       <c r="H76" t="s">
-        <v>840</v>
+        <v>911</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -6265,10 +6654,10 @@
         <v>89</v>
       </c>
       <c r="D77" t="s">
-        <v>342</v>
+        <v>366</v>
       </c>
       <c r="E77" t="s">
-        <v>595</v>
+        <v>642</v>
       </c>
       <c r="F77">
         <v>39</v>
@@ -6277,7 +6666,7 @@
         <v>3</v>
       </c>
       <c r="H77" t="s">
-        <v>841</v>
+        <v>912</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -6291,10 +6680,10 @@
         <v>90</v>
       </c>
       <c r="D78" t="s">
-        <v>343</v>
+        <v>367</v>
       </c>
       <c r="E78" t="s">
-        <v>596</v>
+        <v>643</v>
       </c>
       <c r="F78">
         <v>44</v>
@@ -6303,7 +6692,7 @@
         <v>3</v>
       </c>
       <c r="H78" t="s">
-        <v>842</v>
+        <v>913</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -6317,10 +6706,10 @@
         <v>91</v>
       </c>
       <c r="D79" t="s">
-        <v>344</v>
+        <v>368</v>
       </c>
       <c r="E79" t="s">
-        <v>597</v>
+        <v>644</v>
       </c>
       <c r="F79">
         <v>44</v>
@@ -6329,7 +6718,7 @@
         <v>3</v>
       </c>
       <c r="H79" t="s">
-        <v>843</v>
+        <v>914</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -6343,10 +6732,10 @@
         <v>92</v>
       </c>
       <c r="D80" t="s">
-        <v>345</v>
+        <v>369</v>
       </c>
       <c r="E80" t="s">
-        <v>598</v>
+        <v>645</v>
       </c>
       <c r="F80">
         <v>44</v>
@@ -6355,7 +6744,7 @@
         <v>3</v>
       </c>
       <c r="H80" t="s">
-        <v>844</v>
+        <v>915</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -6366,13 +6755,13 @@
         <v>93</v>
       </c>
       <c r="D81" t="s">
-        <v>346</v>
+        <v>370</v>
       </c>
       <c r="E81" t="s">
-        <v>599</v>
+        <v>646</v>
       </c>
       <c r="H81" t="s">
-        <v>845</v>
+        <v>916</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -6383,13 +6772,13 @@
         <v>94</v>
       </c>
       <c r="D82" t="s">
-        <v>347</v>
+        <v>371</v>
       </c>
       <c r="E82" t="s">
-        <v>600</v>
+        <v>647</v>
       </c>
       <c r="H82" t="s">
-        <v>845</v>
+        <v>916</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -6403,10 +6792,10 @@
         <v>95</v>
       </c>
       <c r="D83" t="s">
-        <v>348</v>
+        <v>372</v>
       </c>
       <c r="E83" t="s">
-        <v>601</v>
+        <v>648</v>
       </c>
       <c r="F83">
         <v>13</v>
@@ -6415,7 +6804,7 @@
         <v>3</v>
       </c>
       <c r="H83" t="s">
-        <v>846</v>
+        <v>917</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -6429,10 +6818,10 @@
         <v>96</v>
       </c>
       <c r="D84" t="s">
-        <v>349</v>
+        <v>373</v>
       </c>
       <c r="E84" t="s">
-        <v>602</v>
+        <v>649</v>
       </c>
       <c r="F84">
         <v>28</v>
@@ -6441,7 +6830,7 @@
         <v>3</v>
       </c>
       <c r="H84" t="s">
-        <v>847</v>
+        <v>918</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -6455,10 +6844,10 @@
         <v>97</v>
       </c>
       <c r="D85" t="s">
-        <v>350</v>
+        <v>374</v>
       </c>
       <c r="E85" t="s">
-        <v>603</v>
+        <v>650</v>
       </c>
       <c r="F85">
         <v>20</v>
@@ -6467,7 +6856,7 @@
         <v>5</v>
       </c>
       <c r="H85" t="s">
-        <v>848</v>
+        <v>919</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -6481,10 +6870,10 @@
         <v>98</v>
       </c>
       <c r="D86" t="s">
-        <v>351</v>
+        <v>375</v>
       </c>
       <c r="E86" t="s">
-        <v>604</v>
+        <v>651</v>
       </c>
       <c r="F86">
         <v>48</v>
@@ -6493,7 +6882,7 @@
         <v>3</v>
       </c>
       <c r="H86" t="s">
-        <v>849</v>
+        <v>920</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -6504,13 +6893,13 @@
         <v>99</v>
       </c>
       <c r="D87" t="s">
-        <v>352</v>
+        <v>376</v>
       </c>
       <c r="E87" t="s">
-        <v>605</v>
+        <v>652</v>
       </c>
       <c r="H87" t="s">
-        <v>850</v>
+        <v>921</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -6521,13 +6910,13 @@
         <v>100</v>
       </c>
       <c r="D88" t="s">
-        <v>353</v>
+        <v>377</v>
       </c>
       <c r="E88" t="s">
-        <v>606</v>
+        <v>653</v>
       </c>
       <c r="H88" t="s">
-        <v>850</v>
+        <v>921</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -6541,10 +6930,10 @@
         <v>101</v>
       </c>
       <c r="D89" t="s">
-        <v>354</v>
+        <v>378</v>
       </c>
       <c r="E89" t="s">
-        <v>607</v>
+        <v>654</v>
       </c>
       <c r="F89">
         <v>12</v>
@@ -6553,7 +6942,7 @@
         <v>3</v>
       </c>
       <c r="H89" t="s">
-        <v>851</v>
+        <v>922</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -6567,10 +6956,10 @@
         <v>102</v>
       </c>
       <c r="D90" t="s">
-        <v>355</v>
+        <v>379</v>
       </c>
       <c r="E90" t="s">
-        <v>608</v>
+        <v>655</v>
       </c>
       <c r="F90">
         <v>12</v>
@@ -6579,7 +6968,7 @@
         <v>3</v>
       </c>
       <c r="H90" t="s">
-        <v>852</v>
+        <v>923</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -6593,10 +6982,10 @@
         <v>103</v>
       </c>
       <c r="D91" t="s">
-        <v>356</v>
+        <v>380</v>
       </c>
       <c r="E91" t="s">
-        <v>609</v>
+        <v>656</v>
       </c>
       <c r="F91">
         <v>12</v>
@@ -6605,7 +6994,7 @@
         <v>3</v>
       </c>
       <c r="H91" t="s">
-        <v>853</v>
+        <v>924</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -6619,10 +7008,10 @@
         <v>104</v>
       </c>
       <c r="D92" t="s">
-        <v>357</v>
+        <v>381</v>
       </c>
       <c r="E92" t="s">
-        <v>610</v>
+        <v>657</v>
       </c>
       <c r="F92">
         <v>12</v>
@@ -6631,7 +7020,7 @@
         <v>3</v>
       </c>
       <c r="H92" t="s">
-        <v>854</v>
+        <v>925</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -6645,10 +7034,10 @@
         <v>105</v>
       </c>
       <c r="D93" t="s">
-        <v>358</v>
+        <v>382</v>
       </c>
       <c r="E93" t="s">
-        <v>611</v>
+        <v>658</v>
       </c>
       <c r="F93">
         <v>64</v>
@@ -6657,7 +7046,7 @@
         <v>4</v>
       </c>
       <c r="H93" t="s">
-        <v>855</v>
+        <v>926</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -6671,10 +7060,10 @@
         <v>106</v>
       </c>
       <c r="D94" t="s">
-        <v>359</v>
+        <v>383</v>
       </c>
       <c r="E94" t="s">
-        <v>612</v>
+        <v>659</v>
       </c>
       <c r="F94">
         <v>64</v>
@@ -6683,7 +7072,7 @@
         <v>4</v>
       </c>
       <c r="H94" t="s">
-        <v>856</v>
+        <v>927</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -6694,13 +7083,13 @@
         <v>107</v>
       </c>
       <c r="D95" t="s">
-        <v>360</v>
+        <v>384</v>
       </c>
       <c r="E95" t="s">
-        <v>613</v>
+        <v>660</v>
       </c>
       <c r="H95" t="s">
-        <v>857</v>
+        <v>928</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -6711,13 +7100,13 @@
         <v>108</v>
       </c>
       <c r="D96" t="s">
-        <v>361</v>
+        <v>385</v>
       </c>
       <c r="E96" t="s">
-        <v>614</v>
+        <v>661</v>
       </c>
       <c r="H96" t="s">
-        <v>857</v>
+        <v>928</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -6731,10 +7120,10 @@
         <v>109</v>
       </c>
       <c r="D97" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="E97" t="s">
-        <v>615</v>
+        <v>662</v>
       </c>
       <c r="F97">
         <v>31</v>
@@ -6743,7 +7132,7 @@
         <v>4</v>
       </c>
       <c r="H97" t="s">
-        <v>858</v>
+        <v>929</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -6757,10 +7146,10 @@
         <v>110</v>
       </c>
       <c r="D98" t="s">
-        <v>363</v>
+        <v>387</v>
       </c>
       <c r="E98" t="s">
-        <v>616</v>
+        <v>663</v>
       </c>
       <c r="F98">
         <v>21</v>
@@ -6769,7 +7158,7 @@
         <v>4</v>
       </c>
       <c r="H98" t="s">
-        <v>859</v>
+        <v>930</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -6783,10 +7172,10 @@
         <v>111</v>
       </c>
       <c r="D99" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="E99" t="s">
-        <v>617</v>
+        <v>664</v>
       </c>
       <c r="F99">
         <v>21</v>
@@ -6795,7 +7184,7 @@
         <v>4</v>
       </c>
       <c r="H99" t="s">
-        <v>860</v>
+        <v>931</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -6809,10 +7198,10 @@
         <v>112</v>
       </c>
       <c r="D100" t="s">
-        <v>365</v>
+        <v>389</v>
       </c>
       <c r="E100" t="s">
-        <v>618</v>
+        <v>665</v>
       </c>
       <c r="F100">
         <v>21</v>
@@ -6821,7 +7210,7 @@
         <v>4</v>
       </c>
       <c r="H100" t="s">
-        <v>861</v>
+        <v>932</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -6835,10 +7224,10 @@
         <v>113</v>
       </c>
       <c r="D101" t="s">
-        <v>366</v>
+        <v>390</v>
       </c>
       <c r="E101" t="s">
-        <v>619</v>
+        <v>666</v>
       </c>
       <c r="F101">
         <v>21</v>
@@ -6847,7 +7236,7 @@
         <v>4</v>
       </c>
       <c r="H101" t="s">
-        <v>862</v>
+        <v>933</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -6861,13 +7250,13 @@
         <v>114</v>
       </c>
       <c r="D102" t="s">
-        <v>367</v>
+        <v>391</v>
       </c>
       <c r="E102" t="s">
-        <v>620</v>
+        <v>667</v>
       </c>
       <c r="H102" t="s">
-        <v>863</v>
+        <v>934</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -6881,13 +7270,13 @@
         <v>115</v>
       </c>
       <c r="D103" t="s">
-        <v>368</v>
+        <v>392</v>
       </c>
       <c r="E103" t="s">
-        <v>621</v>
+        <v>668</v>
       </c>
       <c r="H103" t="s">
-        <v>864</v>
+        <v>935</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -6901,13 +7290,13 @@
         <v>116</v>
       </c>
       <c r="D104" t="s">
-        <v>369</v>
+        <v>393</v>
       </c>
       <c r="E104" t="s">
-        <v>622</v>
+        <v>669</v>
       </c>
       <c r="H104" t="s">
-        <v>865</v>
+        <v>936</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -6921,13 +7310,13 @@
         <v>117</v>
       </c>
       <c r="D105" t="s">
-        <v>370</v>
+        <v>394</v>
       </c>
       <c r="E105" t="s">
-        <v>623</v>
+        <v>670</v>
       </c>
       <c r="H105" t="s">
-        <v>866</v>
+        <v>937</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -6941,13 +7330,13 @@
         <v>118</v>
       </c>
       <c r="D106" t="s">
-        <v>371</v>
+        <v>395</v>
       </c>
       <c r="E106" t="s">
-        <v>624</v>
+        <v>671</v>
       </c>
       <c r="H106" t="s">
-        <v>867</v>
+        <v>938</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
@@ -6955,13 +7344,13 @@
         <v>119</v>
       </c>
       <c r="D107" t="s">
-        <v>372</v>
+        <v>396</v>
       </c>
       <c r="E107" t="s">
-        <v>625</v>
+        <v>672</v>
       </c>
       <c r="H107" t="s">
-        <v>868</v>
+        <v>939</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
@@ -6972,13 +7361,13 @@
         <v>120</v>
       </c>
       <c r="D108" t="s">
-        <v>373</v>
+        <v>397</v>
       </c>
       <c r="E108" t="s">
-        <v>626</v>
+        <v>673</v>
       </c>
       <c r="H108" t="s">
-        <v>869</v>
+        <v>940</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
@@ -6986,10 +7375,10 @@
         <v>121</v>
       </c>
       <c r="D109" t="s">
-        <v>374</v>
+        <v>398</v>
       </c>
       <c r="E109" t="s">
-        <v>627</v>
+        <v>674</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
@@ -7003,13 +7392,13 @@
         <v>122</v>
       </c>
       <c r="D110" t="s">
-        <v>375</v>
+        <v>399</v>
       </c>
       <c r="E110" t="s">
-        <v>628</v>
+        <v>675</v>
       </c>
       <c r="H110" t="s">
-        <v>870</v>
+        <v>941</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
@@ -7020,10 +7409,10 @@
         <v>123</v>
       </c>
       <c r="D111" t="s">
-        <v>376</v>
+        <v>400</v>
       </c>
       <c r="E111" t="s">
-        <v>629</v>
+        <v>676</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
@@ -7034,10 +7423,10 @@
         <v>124</v>
       </c>
       <c r="D112" t="s">
-        <v>377</v>
+        <v>401</v>
       </c>
       <c r="E112" t="s">
-        <v>630</v>
+        <v>677</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -7051,13 +7440,13 @@
         <v>125</v>
       </c>
       <c r="D113" t="s">
-        <v>378</v>
+        <v>402</v>
       </c>
       <c r="E113" t="s">
-        <v>631</v>
+        <v>678</v>
       </c>
       <c r="H113" t="s">
-        <v>871</v>
+        <v>942</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
@@ -7068,10 +7457,10 @@
         <v>126</v>
       </c>
       <c r="D114" t="s">
-        <v>379</v>
+        <v>403</v>
       </c>
       <c r="E114" t="s">
-        <v>632</v>
+        <v>679</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
@@ -7082,10 +7471,10 @@
         <v>127</v>
       </c>
       <c r="D115" t="s">
-        <v>380</v>
+        <v>404</v>
       </c>
       <c r="E115" t="s">
-        <v>633</v>
+        <v>680</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
@@ -7099,13 +7488,13 @@
         <v>128</v>
       </c>
       <c r="D116" t="s">
-        <v>381</v>
+        <v>405</v>
       </c>
       <c r="E116" t="s">
-        <v>634</v>
+        <v>681</v>
       </c>
       <c r="H116" t="s">
-        <v>872</v>
+        <v>943</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
@@ -7116,10 +7505,10 @@
         <v>129</v>
       </c>
       <c r="D117" t="s">
-        <v>382</v>
+        <v>406</v>
       </c>
       <c r="E117" t="s">
-        <v>635</v>
+        <v>682</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
@@ -7130,10 +7519,10 @@
         <v>130</v>
       </c>
       <c r="D118" t="s">
-        <v>383</v>
+        <v>407</v>
       </c>
       <c r="E118" t="s">
-        <v>636</v>
+        <v>683</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
@@ -7147,13 +7536,13 @@
         <v>131</v>
       </c>
       <c r="D119" t="s">
-        <v>384</v>
+        <v>408</v>
       </c>
       <c r="E119" t="s">
-        <v>637</v>
+        <v>684</v>
       </c>
       <c r="H119" t="s">
-        <v>873</v>
+        <v>944</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
@@ -7164,10 +7553,10 @@
         <v>132</v>
       </c>
       <c r="D120" t="s">
-        <v>385</v>
+        <v>409</v>
       </c>
       <c r="E120" t="s">
-        <v>638</v>
+        <v>685</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
@@ -7178,10 +7567,10 @@
         <v>133</v>
       </c>
       <c r="D121" t="s">
-        <v>386</v>
+        <v>410</v>
       </c>
       <c r="E121" t="s">
-        <v>639</v>
+        <v>686</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -7195,13 +7584,13 @@
         <v>134</v>
       </c>
       <c r="D122" t="s">
-        <v>387</v>
+        <v>411</v>
       </c>
       <c r="E122" t="s">
-        <v>640</v>
+        <v>687</v>
       </c>
       <c r="H122" t="s">
-        <v>874</v>
+        <v>945</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
@@ -7215,13 +7604,13 @@
         <v>135</v>
       </c>
       <c r="D123" t="s">
-        <v>388</v>
+        <v>412</v>
       </c>
       <c r="E123" t="s">
-        <v>641</v>
+        <v>688</v>
       </c>
       <c r="H123" t="s">
-        <v>875</v>
+        <v>946</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
@@ -7235,13 +7624,13 @@
         <v>136</v>
       </c>
       <c r="D124" t="s">
-        <v>389</v>
+        <v>413</v>
       </c>
       <c r="E124" t="s">
-        <v>642</v>
+        <v>689</v>
       </c>
       <c r="H124" t="s">
-        <v>876</v>
+        <v>947</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
@@ -7252,10 +7641,10 @@
         <v>137</v>
       </c>
       <c r="D125" t="s">
-        <v>390</v>
+        <v>414</v>
       </c>
       <c r="E125" t="s">
-        <v>643</v>
+        <v>690</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
@@ -7266,10 +7655,10 @@
         <v>138</v>
       </c>
       <c r="D126" t="s">
-        <v>391</v>
+        <v>415</v>
       </c>
       <c r="E126" t="s">
-        <v>644</v>
+        <v>691</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
@@ -7283,13 +7672,13 @@
         <v>139</v>
       </c>
       <c r="D127" t="s">
-        <v>392</v>
+        <v>416</v>
       </c>
       <c r="E127" t="s">
-        <v>645</v>
+        <v>692</v>
       </c>
       <c r="H127" t="s">
-        <v>877</v>
+        <v>948</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
@@ -7300,10 +7689,10 @@
         <v>140</v>
       </c>
       <c r="D128" t="s">
-        <v>393</v>
+        <v>417</v>
       </c>
       <c r="E128" t="s">
-        <v>646</v>
+        <v>693</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
@@ -7314,10 +7703,10 @@
         <v>141</v>
       </c>
       <c r="D129" t="s">
-        <v>394</v>
+        <v>418</v>
       </c>
       <c r="E129" t="s">
-        <v>647</v>
+        <v>694</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
@@ -7331,13 +7720,13 @@
         <v>142</v>
       </c>
       <c r="D130" t="s">
-        <v>395</v>
+        <v>419</v>
       </c>
       <c r="E130" t="s">
-        <v>648</v>
+        <v>695</v>
       </c>
       <c r="H130" t="s">
-        <v>878</v>
+        <v>949</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
@@ -7351,13 +7740,13 @@
         <v>143</v>
       </c>
       <c r="D131" t="s">
-        <v>396</v>
+        <v>420</v>
       </c>
       <c r="E131" t="s">
-        <v>649</v>
+        <v>696</v>
       </c>
       <c r="H131" t="s">
-        <v>879</v>
+        <v>950</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
@@ -7368,10 +7757,10 @@
         <v>144</v>
       </c>
       <c r="D132" t="s">
-        <v>397</v>
+        <v>421</v>
       </c>
       <c r="E132" t="s">
-        <v>650</v>
+        <v>697</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
@@ -7382,10 +7771,10 @@
         <v>145</v>
       </c>
       <c r="D133" t="s">
-        <v>398</v>
+        <v>422</v>
       </c>
       <c r="E133" t="s">
-        <v>651</v>
+        <v>698</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
@@ -7399,13 +7788,13 @@
         <v>146</v>
       </c>
       <c r="D134" t="s">
-        <v>399</v>
+        <v>423</v>
       </c>
       <c r="E134" t="s">
-        <v>652</v>
+        <v>699</v>
       </c>
       <c r="H134" t="s">
-        <v>880</v>
+        <v>951</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
@@ -7419,13 +7808,13 @@
         <v>147</v>
       </c>
       <c r="D135" t="s">
-        <v>400</v>
+        <v>424</v>
       </c>
       <c r="E135" t="s">
-        <v>653</v>
+        <v>700</v>
       </c>
       <c r="H135" t="s">
-        <v>881</v>
+        <v>952</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
@@ -7439,13 +7828,13 @@
         <v>148</v>
       </c>
       <c r="D136" t="s">
-        <v>401</v>
+        <v>425</v>
       </c>
       <c r="E136" t="s">
-        <v>654</v>
+        <v>701</v>
       </c>
       <c r="H136" t="s">
-        <v>882</v>
+        <v>953</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
@@ -7456,10 +7845,10 @@
         <v>149</v>
       </c>
       <c r="D137" t="s">
-        <v>402</v>
+        <v>426</v>
       </c>
       <c r="E137" t="s">
-        <v>655</v>
+        <v>702</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
@@ -7470,10 +7859,10 @@
         <v>150</v>
       </c>
       <c r="D138" t="s">
-        <v>403</v>
+        <v>427</v>
       </c>
       <c r="E138" t="s">
-        <v>656</v>
+        <v>703</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
@@ -7487,13 +7876,13 @@
         <v>151</v>
       </c>
       <c r="D139" t="s">
-        <v>404</v>
+        <v>428</v>
       </c>
       <c r="E139" t="s">
-        <v>657</v>
+        <v>704</v>
       </c>
       <c r="H139" t="s">
-        <v>883</v>
+        <v>954</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
@@ -7507,13 +7896,13 @@
         <v>152</v>
       </c>
       <c r="D140" t="s">
-        <v>405</v>
+        <v>429</v>
       </c>
       <c r="E140" t="s">
-        <v>658</v>
+        <v>705</v>
       </c>
       <c r="H140" t="s">
-        <v>884</v>
+        <v>955</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
@@ -7524,10 +7913,10 @@
         <v>153</v>
       </c>
       <c r="D141" t="s">
-        <v>406</v>
+        <v>430</v>
       </c>
       <c r="E141" t="s">
-        <v>659</v>
+        <v>706</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
@@ -7538,10 +7927,10 @@
         <v>154</v>
       </c>
       <c r="D142" t="s">
-        <v>407</v>
+        <v>431</v>
       </c>
       <c r="E142" t="s">
-        <v>660</v>
+        <v>707</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
@@ -7555,13 +7944,13 @@
         <v>155</v>
       </c>
       <c r="D143" t="s">
-        <v>408</v>
+        <v>432</v>
       </c>
       <c r="E143" t="s">
-        <v>661</v>
+        <v>708</v>
       </c>
       <c r="H143" t="s">
-        <v>885</v>
+        <v>956</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
@@ -7575,13 +7964,13 @@
         <v>156</v>
       </c>
       <c r="D144" t="s">
-        <v>409</v>
+        <v>433</v>
       </c>
       <c r="E144" t="s">
-        <v>662</v>
+        <v>709</v>
       </c>
       <c r="H144" t="s">
-        <v>886</v>
+        <v>957</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
@@ -7595,13 +7984,13 @@
         <v>157</v>
       </c>
       <c r="D145" t="s">
-        <v>410</v>
+        <v>434</v>
       </c>
       <c r="E145" t="s">
-        <v>663</v>
+        <v>710</v>
       </c>
       <c r="H145" t="s">
-        <v>887</v>
+        <v>958</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
@@ -7615,13 +8004,13 @@
         <v>158</v>
       </c>
       <c r="D146" t="s">
-        <v>411</v>
+        <v>435</v>
       </c>
       <c r="E146" t="s">
-        <v>664</v>
+        <v>711</v>
       </c>
       <c r="H146" t="s">
-        <v>888</v>
+        <v>959</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
@@ -7635,13 +8024,13 @@
         <v>159</v>
       </c>
       <c r="D147" t="s">
-        <v>412</v>
+        <v>436</v>
       </c>
       <c r="E147" t="s">
-        <v>665</v>
+        <v>712</v>
       </c>
       <c r="H147" t="s">
-        <v>889</v>
+        <v>960</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
@@ -7652,13 +8041,13 @@
         <v>160</v>
       </c>
       <c r="D148" t="s">
-        <v>413</v>
+        <v>437</v>
       </c>
       <c r="E148" t="s">
-        <v>666</v>
+        <v>713</v>
       </c>
       <c r="H148" t="s">
-        <v>890</v>
+        <v>961</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
@@ -7669,10 +8058,10 @@
         <v>161</v>
       </c>
       <c r="D149" t="s">
-        <v>414</v>
+        <v>438</v>
       </c>
       <c r="E149" t="s">
-        <v>667</v>
+        <v>714</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
@@ -7683,10 +8072,10 @@
         <v>162</v>
       </c>
       <c r="D150" t="s">
-        <v>415</v>
+        <v>439</v>
       </c>
       <c r="E150" t="s">
-        <v>668</v>
+        <v>715</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
@@ -7697,10 +8086,10 @@
         <v>163</v>
       </c>
       <c r="D151" t="s">
-        <v>416</v>
+        <v>440</v>
       </c>
       <c r="E151" t="s">
-        <v>669</v>
+        <v>716</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
@@ -7714,13 +8103,13 @@
         <v>164</v>
       </c>
       <c r="D152" t="s">
-        <v>417</v>
+        <v>441</v>
       </c>
       <c r="E152" t="s">
-        <v>670</v>
+        <v>717</v>
       </c>
       <c r="H152" t="s">
-        <v>891</v>
+        <v>962</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
@@ -7734,13 +8123,13 @@
         <v>165</v>
       </c>
       <c r="D153" t="s">
-        <v>418</v>
+        <v>442</v>
       </c>
       <c r="E153" t="s">
-        <v>671</v>
+        <v>718</v>
       </c>
       <c r="H153" t="s">
-        <v>892</v>
+        <v>963</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
@@ -7751,13 +8140,13 @@
         <v>166</v>
       </c>
       <c r="D154" t="s">
-        <v>419</v>
+        <v>443</v>
       </c>
       <c r="E154" t="s">
-        <v>672</v>
+        <v>719</v>
       </c>
       <c r="H154" t="s">
-        <v>893</v>
+        <v>964</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
@@ -7768,10 +8157,10 @@
         <v>167</v>
       </c>
       <c r="D155" t="s">
-        <v>420</v>
+        <v>444</v>
       </c>
       <c r="E155" t="s">
-        <v>673</v>
+        <v>720</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
@@ -7782,10 +8171,10 @@
         <v>168</v>
       </c>
       <c r="D156" t="s">
-        <v>421</v>
+        <v>445</v>
       </c>
       <c r="E156" t="s">
-        <v>674</v>
+        <v>721</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
@@ -7799,10 +8188,10 @@
         <v>169</v>
       </c>
       <c r="D157" t="s">
-        <v>422</v>
+        <v>446</v>
       </c>
       <c r="E157" t="s">
-        <v>675</v>
+        <v>722</v>
       </c>
       <c r="F157">
         <v>4</v>
@@ -7811,7 +8200,7 @@
         <v>4</v>
       </c>
       <c r="H157" t="s">
-        <v>894</v>
+        <v>965</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
@@ -7825,10 +8214,10 @@
         <v>170</v>
       </c>
       <c r="D158" t="s">
-        <v>423</v>
+        <v>447</v>
       </c>
       <c r="E158" t="s">
-        <v>676</v>
+        <v>723</v>
       </c>
       <c r="F158">
         <v>4</v>
@@ -7837,7 +8226,7 @@
         <v>4</v>
       </c>
       <c r="H158" t="s">
-        <v>895</v>
+        <v>966</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
@@ -7851,10 +8240,10 @@
         <v>171</v>
       </c>
       <c r="D159" t="s">
-        <v>424</v>
+        <v>448</v>
       </c>
       <c r="E159" t="s">
-        <v>677</v>
+        <v>724</v>
       </c>
       <c r="F159">
         <v>46</v>
@@ -7863,7 +8252,7 @@
         <v>2</v>
       </c>
       <c r="H159" t="s">
-        <v>896</v>
+        <v>967</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
@@ -7877,10 +8266,10 @@
         <v>172</v>
       </c>
       <c r="D160" t="s">
-        <v>425</v>
+        <v>449</v>
       </c>
       <c r="E160" t="s">
-        <v>678</v>
+        <v>725</v>
       </c>
       <c r="F160">
         <v>46</v>
@@ -7889,7 +8278,7 @@
         <v>2</v>
       </c>
       <c r="H160" t="s">
-        <v>897</v>
+        <v>968</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
@@ -7900,10 +8289,10 @@
         <v>173</v>
       </c>
       <c r="D161" t="s">
-        <v>426</v>
+        <v>450</v>
       </c>
       <c r="E161" t="s">
-        <v>679</v>
+        <v>726</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
@@ -7914,10 +8303,10 @@
         <v>174</v>
       </c>
       <c r="D162" t="s">
-        <v>427</v>
+        <v>451</v>
       </c>
       <c r="E162" t="s">
-        <v>680</v>
+        <v>727</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
@@ -7931,10 +8320,10 @@
         <v>175</v>
       </c>
       <c r="D163" t="s">
-        <v>428</v>
+        <v>452</v>
       </c>
       <c r="E163" t="s">
-        <v>681</v>
+        <v>728</v>
       </c>
       <c r="F163">
         <v>27</v>
@@ -7943,7 +8332,7 @@
         <v>6</v>
       </c>
       <c r="H163" t="s">
-        <v>898</v>
+        <v>969</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
@@ -7957,10 +8346,10 @@
         <v>176</v>
       </c>
       <c r="D164" t="s">
-        <v>429</v>
+        <v>453</v>
       </c>
       <c r="E164" t="s">
-        <v>682</v>
+        <v>729</v>
       </c>
       <c r="F164">
         <v>27</v>
@@ -7969,7 +8358,7 @@
         <v>6</v>
       </c>
       <c r="H164" t="s">
-        <v>899</v>
+        <v>970</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
@@ -7983,10 +8372,10 @@
         <v>177</v>
       </c>
       <c r="D165" t="s">
-        <v>430</v>
+        <v>454</v>
       </c>
       <c r="E165" t="s">
-        <v>683</v>
+        <v>730</v>
       </c>
       <c r="F165">
         <v>58</v>
@@ -7995,7 +8384,7 @@
         <v>2</v>
       </c>
       <c r="H165" t="s">
-        <v>900</v>
+        <v>971</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
@@ -8009,10 +8398,10 @@
         <v>178</v>
       </c>
       <c r="D166" t="s">
-        <v>431</v>
+        <v>455</v>
       </c>
       <c r="E166" t="s">
-        <v>684</v>
+        <v>731</v>
       </c>
       <c r="F166">
         <v>58</v>
@@ -8021,7 +8410,7 @@
         <v>2</v>
       </c>
       <c r="H166" t="s">
-        <v>901</v>
+        <v>972</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
@@ -8032,10 +8421,10 @@
         <v>179</v>
       </c>
       <c r="D167" t="s">
-        <v>432</v>
+        <v>456</v>
       </c>
       <c r="E167" t="s">
-        <v>685</v>
+        <v>732</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
@@ -8046,10 +8435,10 @@
         <v>180</v>
       </c>
       <c r="D168" t="s">
-        <v>433</v>
+        <v>457</v>
       </c>
       <c r="E168" t="s">
-        <v>686</v>
+        <v>733</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
@@ -8063,10 +8452,10 @@
         <v>181</v>
       </c>
       <c r="D169" t="s">
-        <v>434</v>
+        <v>458</v>
       </c>
       <c r="E169" t="s">
-        <v>687</v>
+        <v>734</v>
       </c>
       <c r="F169">
         <v>1</v>
@@ -8075,7 +8464,7 @@
         <v>5</v>
       </c>
       <c r="H169" t="s">
-        <v>902</v>
+        <v>973</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
@@ -8089,10 +8478,10 @@
         <v>182</v>
       </c>
       <c r="D170" t="s">
-        <v>435</v>
+        <v>459</v>
       </c>
       <c r="E170" t="s">
-        <v>688</v>
+        <v>735</v>
       </c>
       <c r="F170">
         <v>1</v>
@@ -8101,7 +8490,7 @@
         <v>5</v>
       </c>
       <c r="H170" t="s">
-        <v>903</v>
+        <v>974</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
@@ -8115,10 +8504,10 @@
         <v>183</v>
       </c>
       <c r="D171" t="s">
-        <v>436</v>
+        <v>460</v>
       </c>
       <c r="E171" t="s">
-        <v>689</v>
+        <v>736</v>
       </c>
       <c r="F171">
         <v>53</v>
@@ -8127,7 +8516,7 @@
         <v>3</v>
       </c>
       <c r="H171" t="s">
-        <v>904</v>
+        <v>975</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
@@ -8141,10 +8530,10 @@
         <v>184</v>
       </c>
       <c r="D172" t="s">
-        <v>437</v>
+        <v>461</v>
       </c>
       <c r="E172" t="s">
-        <v>690</v>
+        <v>737</v>
       </c>
       <c r="F172">
         <v>53</v>
@@ -8153,7 +8542,7 @@
         <v>3</v>
       </c>
       <c r="H172" t="s">
-        <v>905</v>
+        <v>976</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
@@ -8167,10 +8556,10 @@
         <v>185</v>
       </c>
       <c r="D173" t="s">
-        <v>438</v>
+        <v>462</v>
       </c>
       <c r="E173" t="s">
-        <v>691</v>
+        <v>738</v>
       </c>
       <c r="F173">
         <v>37</v>
@@ -8179,7 +8568,7 @@
         <v>2</v>
       </c>
       <c r="H173" t="s">
-        <v>906</v>
+        <v>977</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
@@ -8193,10 +8582,10 @@
         <v>186</v>
       </c>
       <c r="D174" t="s">
-        <v>439</v>
+        <v>463</v>
       </c>
       <c r="E174" t="s">
-        <v>692</v>
+        <v>739</v>
       </c>
       <c r="F174">
         <v>37</v>
@@ -8205,7 +8594,7 @@
         <v>2</v>
       </c>
       <c r="H174" t="s">
-        <v>907</v>
+        <v>978</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
@@ -8216,10 +8605,10 @@
         <v>187</v>
       </c>
       <c r="D175" t="s">
-        <v>440</v>
+        <v>464</v>
       </c>
       <c r="E175" t="s">
-        <v>693</v>
+        <v>740</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
@@ -8230,10 +8619,10 @@
         <v>188</v>
       </c>
       <c r="D176" t="s">
-        <v>441</v>
+        <v>465</v>
       </c>
       <c r="E176" t="s">
-        <v>694</v>
+        <v>741</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
@@ -8247,10 +8636,10 @@
         <v>189</v>
       </c>
       <c r="D177" t="s">
-        <v>442</v>
+        <v>466</v>
       </c>
       <c r="E177" t="s">
-        <v>695</v>
+        <v>742</v>
       </c>
       <c r="F177">
         <v>8</v>
@@ -8259,7 +8648,7 @@
         <v>3</v>
       </c>
       <c r="H177" t="s">
-        <v>908</v>
+        <v>979</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
@@ -8273,10 +8662,10 @@
         <v>190</v>
       </c>
       <c r="D178" t="s">
-        <v>443</v>
+        <v>467</v>
       </c>
       <c r="E178" t="s">
-        <v>696</v>
+        <v>743</v>
       </c>
       <c r="F178">
         <v>8</v>
@@ -8285,7 +8674,7 @@
         <v>3</v>
       </c>
       <c r="H178" t="s">
-        <v>909</v>
+        <v>980</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
@@ -8299,10 +8688,10 @@
         <v>191</v>
       </c>
       <c r="D179" t="s">
-        <v>444</v>
+        <v>468</v>
       </c>
       <c r="E179" t="s">
-        <v>697</v>
+        <v>744</v>
       </c>
       <c r="F179">
         <v>50</v>
@@ -8311,7 +8700,7 @@
         <v>3</v>
       </c>
       <c r="H179" t="s">
-        <v>910</v>
+        <v>981</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
@@ -8325,10 +8714,10 @@
         <v>192</v>
       </c>
       <c r="D180" t="s">
-        <v>445</v>
+        <v>469</v>
       </c>
       <c r="E180" t="s">
-        <v>698</v>
+        <v>745</v>
       </c>
       <c r="F180">
         <v>50</v>
@@ -8337,7 +8726,7 @@
         <v>3</v>
       </c>
       <c r="H180" t="s">
-        <v>911</v>
+        <v>982</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
@@ -8348,13 +8737,13 @@
         <v>193</v>
       </c>
       <c r="D181" t="s">
-        <v>446</v>
+        <v>470</v>
       </c>
       <c r="E181" t="s">
-        <v>699</v>
+        <v>746</v>
       </c>
       <c r="H181" t="s">
-        <v>912</v>
+        <v>983</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
@@ -8365,10 +8754,10 @@
         <v>194</v>
       </c>
       <c r="D182" t="s">
-        <v>447</v>
+        <v>471</v>
       </c>
       <c r="E182" t="s">
-        <v>700</v>
+        <v>747</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
@@ -8382,10 +8771,10 @@
         <v>195</v>
       </c>
       <c r="D183" t="s">
-        <v>448</v>
+        <v>472</v>
       </c>
       <c r="E183" t="s">
-        <v>701</v>
+        <v>748</v>
       </c>
       <c r="F183">
         <v>62</v>
@@ -8394,7 +8783,7 @@
         <v>3</v>
       </c>
       <c r="H183" t="s">
-        <v>913</v>
+        <v>984</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
@@ -8408,10 +8797,10 @@
         <v>196</v>
       </c>
       <c r="D184" t="s">
-        <v>449</v>
+        <v>473</v>
       </c>
       <c r="E184" t="s">
-        <v>702</v>
+        <v>749</v>
       </c>
       <c r="F184">
         <v>62</v>
@@ -8420,7 +8809,7 @@
         <v>3</v>
       </c>
       <c r="H184" t="s">
-        <v>914</v>
+        <v>985</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
@@ -8434,10 +8823,10 @@
         <v>197</v>
       </c>
       <c r="D185" t="s">
-        <v>450</v>
+        <v>474</v>
       </c>
       <c r="E185" t="s">
-        <v>703</v>
+        <v>750</v>
       </c>
       <c r="F185">
         <v>48</v>
@@ -8446,7 +8835,7 @@
         <v>2</v>
       </c>
       <c r="H185" t="s">
-        <v>915</v>
+        <v>986</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
@@ -8460,10 +8849,10 @@
         <v>198</v>
       </c>
       <c r="D186" t="s">
-        <v>451</v>
+        <v>475</v>
       </c>
       <c r="E186" t="s">
-        <v>704</v>
+        <v>751</v>
       </c>
       <c r="F186">
         <v>48</v>
@@ -8472,7 +8861,7 @@
         <v>2</v>
       </c>
       <c r="H186" t="s">
-        <v>916</v>
+        <v>987</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
@@ -8486,10 +8875,10 @@
         <v>199</v>
       </c>
       <c r="D187" t="s">
-        <v>452</v>
+        <v>476</v>
       </c>
       <c r="E187" t="s">
-        <v>705</v>
+        <v>752</v>
       </c>
       <c r="F187">
         <v>45</v>
@@ -8498,7 +8887,7 @@
         <v>2</v>
       </c>
       <c r="H187" t="s">
-        <v>917</v>
+        <v>988</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
@@ -8512,10 +8901,10 @@
         <v>200</v>
       </c>
       <c r="D188" t="s">
-        <v>453</v>
+        <v>477</v>
       </c>
       <c r="E188" t="s">
-        <v>706</v>
+        <v>753</v>
       </c>
       <c r="F188">
         <v>45</v>
@@ -8524,7 +8913,7 @@
         <v>2</v>
       </c>
       <c r="H188" t="s">
-        <v>918</v>
+        <v>989</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
@@ -8535,10 +8924,10 @@
         <v>201</v>
       </c>
       <c r="D189" t="s">
-        <v>454</v>
+        <v>478</v>
       </c>
       <c r="E189" t="s">
-        <v>707</v>
+        <v>754</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
@@ -8552,10 +8941,10 @@
         <v>202</v>
       </c>
       <c r="D190" t="s">
-        <v>455</v>
+        <v>479</v>
       </c>
       <c r="E190" t="s">
-        <v>708</v>
+        <v>755</v>
       </c>
       <c r="F190">
         <v>2</v>
@@ -8564,7 +8953,7 @@
         <v>3</v>
       </c>
       <c r="H190" t="s">
-        <v>919</v>
+        <v>990</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
@@ -8578,10 +8967,10 @@
         <v>203</v>
       </c>
       <c r="D191" t="s">
-        <v>456</v>
+        <v>480</v>
       </c>
       <c r="E191" t="s">
-        <v>709</v>
+        <v>756</v>
       </c>
       <c r="F191">
         <v>2</v>
@@ -8590,7 +8979,7 @@
         <v>3</v>
       </c>
       <c r="H191" t="s">
-        <v>920</v>
+        <v>991</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
@@ -8604,10 +8993,10 @@
         <v>204</v>
       </c>
       <c r="D192" t="s">
-        <v>457</v>
+        <v>481</v>
       </c>
       <c r="E192" t="s">
-        <v>710</v>
+        <v>757</v>
       </c>
       <c r="F192">
         <v>19</v>
@@ -8616,7 +9005,7 @@
         <v>6</v>
       </c>
       <c r="H192" t="s">
-        <v>921</v>
+        <v>992</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
@@ -8624,10 +9013,10 @@
         <v>205</v>
       </c>
       <c r="D193" t="s">
-        <v>458</v>
+        <v>482</v>
       </c>
       <c r="E193" t="s">
-        <v>711</v>
+        <v>758</v>
       </c>
       <c r="F193">
         <v>19</v>
@@ -8647,10 +9036,10 @@
         <v>206</v>
       </c>
       <c r="D194" t="s">
-        <v>459</v>
+        <v>483</v>
       </c>
       <c r="E194" t="s">
-        <v>712</v>
+        <v>759</v>
       </c>
       <c r="F194">
         <v>19</v>
@@ -8659,7 +9048,7 @@
         <v>6</v>
       </c>
       <c r="H194" t="s">
-        <v>922</v>
+        <v>993</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
@@ -8670,10 +9059,10 @@
         <v>207</v>
       </c>
       <c r="D195" t="s">
-        <v>460</v>
+        <v>484</v>
       </c>
       <c r="E195" t="s">
-        <v>713</v>
+        <v>760</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
@@ -8687,10 +9076,10 @@
         <v>208</v>
       </c>
       <c r="D196" t="s">
-        <v>461</v>
+        <v>485</v>
       </c>
       <c r="E196" t="s">
-        <v>714</v>
+        <v>761</v>
       </c>
       <c r="F196">
         <v>5</v>
@@ -8699,7 +9088,7 @@
         <v>3</v>
       </c>
       <c r="H196" t="s">
-        <v>923</v>
+        <v>994</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
@@ -8713,10 +9102,10 @@
         <v>209</v>
       </c>
       <c r="D197" t="s">
-        <v>462</v>
+        <v>486</v>
       </c>
       <c r="E197" t="s">
-        <v>715</v>
+        <v>762</v>
       </c>
       <c r="F197">
         <v>5</v>
@@ -8725,7 +9114,7 @@
         <v>3</v>
       </c>
       <c r="H197" t="s">
-        <v>924</v>
+        <v>995</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
@@ -8739,10 +9128,10 @@
         <v>210</v>
       </c>
       <c r="D198" t="s">
-        <v>463</v>
+        <v>487</v>
       </c>
       <c r="E198" t="s">
-        <v>716</v>
+        <v>763</v>
       </c>
       <c r="F198">
         <v>15</v>
@@ -8751,7 +9140,7 @@
         <v>3</v>
       </c>
       <c r="H198" t="s">
-        <v>925</v>
+        <v>996</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
@@ -8765,10 +9154,10 @@
         <v>211</v>
       </c>
       <c r="D199" t="s">
-        <v>464</v>
+        <v>488</v>
       </c>
       <c r="E199" t="s">
-        <v>717</v>
+        <v>764</v>
       </c>
       <c r="F199">
         <v>15</v>
@@ -8777,7 +9166,7 @@
         <v>3</v>
       </c>
       <c r="H199" t="s">
-        <v>926</v>
+        <v>997</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
@@ -8788,10 +9177,10 @@
         <v>212</v>
       </c>
       <c r="D200" t="s">
-        <v>465</v>
+        <v>489</v>
       </c>
       <c r="E200" t="s">
-        <v>718</v>
+        <v>765</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
@@ -8805,10 +9194,10 @@
         <v>213</v>
       </c>
       <c r="D201" t="s">
-        <v>466</v>
+        <v>490</v>
       </c>
       <c r="E201" t="s">
-        <v>719</v>
+        <v>766</v>
       </c>
       <c r="F201">
         <v>30</v>
@@ -8817,7 +9206,7 @@
         <v>4</v>
       </c>
       <c r="H201" t="s">
-        <v>927</v>
+        <v>998</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
@@ -8831,10 +9220,10 @@
         <v>214</v>
       </c>
       <c r="D202" t="s">
-        <v>467</v>
+        <v>491</v>
       </c>
       <c r="E202" t="s">
-        <v>720</v>
+        <v>767</v>
       </c>
       <c r="F202">
         <v>30</v>
@@ -8843,7 +9232,7 @@
         <v>4</v>
       </c>
       <c r="H202" t="s">
-        <v>928</v>
+        <v>999</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
@@ -8857,10 +9246,10 @@
         <v>215</v>
       </c>
       <c r="D203" t="s">
-        <v>468</v>
+        <v>492</v>
       </c>
       <c r="E203" t="s">
-        <v>721</v>
+        <v>768</v>
       </c>
       <c r="F203">
         <v>16</v>
@@ -8869,7 +9258,7 @@
         <v>3</v>
       </c>
       <c r="H203" t="s">
-        <v>929</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
@@ -8883,10 +9272,10 @@
         <v>216</v>
       </c>
       <c r="D204" t="s">
-        <v>469</v>
+        <v>493</v>
       </c>
       <c r="E204" t="s">
-        <v>722</v>
+        <v>769</v>
       </c>
       <c r="F204">
         <v>16</v>
@@ -8895,7 +9284,7 @@
         <v>3</v>
       </c>
       <c r="H204" t="s">
-        <v>930</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
@@ -8909,10 +9298,10 @@
         <v>217</v>
       </c>
       <c r="D205" t="s">
-        <v>470</v>
+        <v>494</v>
       </c>
       <c r="E205" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F205">
         <v>52</v>
@@ -8921,7 +9310,7 @@
         <v>4</v>
       </c>
       <c r="H205" t="s">
-        <v>931</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
@@ -8935,10 +9324,10 @@
         <v>218</v>
       </c>
       <c r="D206" t="s">
-        <v>471</v>
+        <v>495</v>
       </c>
       <c r="E206" t="s">
-        <v>724</v>
+        <v>771</v>
       </c>
       <c r="F206">
         <v>52</v>
@@ -8947,7 +9336,7 @@
         <v>4</v>
       </c>
       <c r="H206" t="s">
-        <v>932</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
@@ -8958,10 +9347,10 @@
         <v>219</v>
       </c>
       <c r="D207" t="s">
-        <v>472</v>
+        <v>496</v>
       </c>
       <c r="E207" t="s">
-        <v>725</v>
+        <v>772</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
@@ -8975,10 +9364,10 @@
         <v>220</v>
       </c>
       <c r="D208" t="s">
-        <v>473</v>
+        <v>497</v>
       </c>
       <c r="E208" t="s">
-        <v>726</v>
+        <v>773</v>
       </c>
       <c r="F208">
         <v>54</v>
@@ -8987,7 +9376,7 @@
         <v>3</v>
       </c>
       <c r="H208" t="s">
-        <v>933</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
@@ -9001,10 +9390,10 @@
         <v>221</v>
       </c>
       <c r="D209" t="s">
-        <v>474</v>
+        <v>498</v>
       </c>
       <c r="E209" t="s">
-        <v>727</v>
+        <v>774</v>
       </c>
       <c r="F209">
         <v>54</v>
@@ -9013,7 +9402,7 @@
         <v>3</v>
       </c>
       <c r="H209" t="s">
-        <v>934</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
@@ -9027,10 +9416,10 @@
         <v>222</v>
       </c>
       <c r="D210" t="s">
-        <v>475</v>
+        <v>499</v>
       </c>
       <c r="E210" t="s">
-        <v>728</v>
+        <v>775</v>
       </c>
       <c r="F210">
         <v>57</v>
@@ -9039,7 +9428,7 @@
         <v>2</v>
       </c>
       <c r="H210" t="s">
-        <v>935</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
@@ -9053,10 +9442,10 @@
         <v>223</v>
       </c>
       <c r="D211" t="s">
-        <v>476</v>
+        <v>500</v>
       </c>
       <c r="E211" t="s">
-        <v>729</v>
+        <v>776</v>
       </c>
       <c r="F211">
         <v>57</v>
@@ -9065,7 +9454,7 @@
         <v>2</v>
       </c>
       <c r="H211" t="s">
-        <v>936</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
@@ -9079,10 +9468,10 @@
         <v>224</v>
       </c>
       <c r="D212" t="s">
-        <v>477</v>
+        <v>501</v>
       </c>
       <c r="E212" t="s">
-        <v>730</v>
+        <v>777</v>
       </c>
       <c r="F212">
         <v>22</v>
@@ -9091,7 +9480,7 @@
         <v>3</v>
       </c>
       <c r="H212" t="s">
-        <v>937</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
@@ -9105,10 +9494,10 @@
         <v>225</v>
       </c>
       <c r="D213" t="s">
-        <v>478</v>
+        <v>502</v>
       </c>
       <c r="E213" t="s">
-        <v>731</v>
+        <v>778</v>
       </c>
       <c r="F213">
         <v>22</v>
@@ -9117,7 +9506,7 @@
         <v>3</v>
       </c>
       <c r="H213" t="s">
-        <v>938</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
@@ -9128,10 +9517,10 @@
         <v>226</v>
       </c>
       <c r="D214" t="s">
-        <v>479</v>
+        <v>503</v>
       </c>
       <c r="E214" t="s">
-        <v>732</v>
+        <v>779</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
@@ -9142,13 +9531,13 @@
         <v>227</v>
       </c>
       <c r="D215" t="s">
-        <v>480</v>
+        <v>504</v>
       </c>
       <c r="E215" t="s">
-        <v>733</v>
+        <v>780</v>
       </c>
       <c r="H215" t="s">
-        <v>939</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
@@ -9159,13 +9548,13 @@
         <v>228</v>
       </c>
       <c r="D216" t="s">
-        <v>481</v>
+        <v>505</v>
       </c>
       <c r="E216" t="s">
-        <v>734</v>
+        <v>781</v>
       </c>
       <c r="H216" t="s">
-        <v>940</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
@@ -9176,13 +9565,13 @@
         <v>229</v>
       </c>
       <c r="D217" t="s">
-        <v>482</v>
+        <v>506</v>
       </c>
       <c r="E217" t="s">
-        <v>735</v>
+        <v>782</v>
       </c>
       <c r="H217" t="s">
-        <v>941</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
@@ -9193,13 +9582,13 @@
         <v>230</v>
       </c>
       <c r="D218" t="s">
-        <v>483</v>
+        <v>507</v>
       </c>
       <c r="E218" t="s">
-        <v>736</v>
+        <v>783</v>
       </c>
       <c r="H218" t="s">
-        <v>941</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
@@ -9213,10 +9602,10 @@
         <v>231</v>
       </c>
       <c r="D219" t="s">
-        <v>484</v>
+        <v>508</v>
       </c>
       <c r="E219" t="s">
-        <v>737</v>
+        <v>784</v>
       </c>
       <c r="F219">
         <v>30</v>
@@ -9225,7 +9614,7 @@
         <v>3</v>
       </c>
       <c r="H219" t="s">
-        <v>942</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
@@ -9239,10 +9628,10 @@
         <v>232</v>
       </c>
       <c r="D220" t="s">
-        <v>485</v>
+        <v>509</v>
       </c>
       <c r="E220" t="s">
-        <v>738</v>
+        <v>785</v>
       </c>
       <c r="F220">
         <v>30</v>
@@ -9251,7 +9640,7 @@
         <v>3</v>
       </c>
       <c r="H220" t="s">
-        <v>943</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
@@ -9265,10 +9654,10 @@
         <v>233</v>
       </c>
       <c r="D221" t="s">
-        <v>486</v>
+        <v>510</v>
       </c>
       <c r="E221" t="s">
-        <v>739</v>
+        <v>786</v>
       </c>
       <c r="F221">
         <v>58</v>
@@ -9277,7 +9666,7 @@
         <v>4</v>
       </c>
       <c r="H221" t="s">
-        <v>944</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
@@ -9291,10 +9680,10 @@
         <v>234</v>
       </c>
       <c r="D222" t="s">
-        <v>487</v>
+        <v>511</v>
       </c>
       <c r="E222" t="s">
-        <v>740</v>
+        <v>787</v>
       </c>
       <c r="F222">
         <v>58</v>
@@ -9303,7 +9692,7 @@
         <v>4</v>
       </c>
       <c r="H222" t="s">
-        <v>945</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
@@ -9317,10 +9706,10 @@
         <v>235</v>
       </c>
       <c r="D223" t="s">
-        <v>488</v>
+        <v>512</v>
       </c>
       <c r="E223" t="s">
-        <v>741</v>
+        <v>788</v>
       </c>
       <c r="F223">
         <v>34</v>
@@ -9329,7 +9718,7 @@
         <v>3</v>
       </c>
       <c r="H223" t="s">
-        <v>946</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
@@ -9340,13 +9729,13 @@
         <v>236</v>
       </c>
       <c r="D224" t="s">
-        <v>489</v>
+        <v>513</v>
       </c>
       <c r="E224" t="s">
-        <v>742</v>
+        <v>789</v>
       </c>
       <c r="H224" t="s">
-        <v>947</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
@@ -9357,13 +9746,13 @@
         <v>237</v>
       </c>
       <c r="D225" t="s">
-        <v>490</v>
+        <v>514</v>
       </c>
       <c r="E225" t="s">
-        <v>743</v>
+        <v>790</v>
       </c>
       <c r="H225" t="s">
-        <v>947</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
@@ -9377,13 +9766,13 @@
         <v>238</v>
       </c>
       <c r="D226" t="s">
-        <v>491</v>
+        <v>515</v>
       </c>
       <c r="E226" t="s">
-        <v>744</v>
+        <v>791</v>
       </c>
       <c r="H226" t="s">
-        <v>948</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
@@ -9397,13 +9786,13 @@
         <v>239</v>
       </c>
       <c r="D227" t="s">
-        <v>492</v>
+        <v>516</v>
       </c>
       <c r="E227" t="s">
-        <v>745</v>
+        <v>792</v>
       </c>
       <c r="H227" t="s">
-        <v>949</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
@@ -9417,13 +9806,13 @@
         <v>240</v>
       </c>
       <c r="D228" t="s">
-        <v>493</v>
+        <v>517</v>
       </c>
       <c r="E228" t="s">
-        <v>746</v>
+        <v>793</v>
       </c>
       <c r="H228" t="s">
-        <v>950</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
@@ -9434,13 +9823,13 @@
         <v>241</v>
       </c>
       <c r="D229" t="s">
-        <v>494</v>
+        <v>518</v>
       </c>
       <c r="E229" t="s">
-        <v>747</v>
+        <v>794</v>
       </c>
       <c r="H229" t="s">
-        <v>951</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
@@ -9451,13 +9840,13 @@
         <v>242</v>
       </c>
       <c r="D230" t="s">
-        <v>495</v>
+        <v>519</v>
       </c>
       <c r="E230" t="s">
-        <v>748</v>
+        <v>795</v>
       </c>
       <c r="H230" t="s">
-        <v>951</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
@@ -9468,13 +9857,13 @@
         <v>243</v>
       </c>
       <c r="D231" t="s">
-        <v>496</v>
+        <v>520</v>
       </c>
       <c r="E231" t="s">
-        <v>749</v>
+        <v>796</v>
       </c>
       <c r="H231" t="s">
-        <v>951</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
@@ -9488,13 +9877,13 @@
         <v>244</v>
       </c>
       <c r="D232" t="s">
-        <v>497</v>
+        <v>521</v>
       </c>
       <c r="E232" t="s">
-        <v>750</v>
+        <v>797</v>
       </c>
       <c r="H232" t="s">
-        <v>952</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
@@ -9508,13 +9897,13 @@
         <v>245</v>
       </c>
       <c r="D233" t="s">
-        <v>498</v>
+        <v>522</v>
       </c>
       <c r="E233" t="s">
-        <v>751</v>
+        <v>798</v>
       </c>
       <c r="H233" t="s">
-        <v>953</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
@@ -9528,13 +9917,13 @@
         <v>246</v>
       </c>
       <c r="D234" t="s">
-        <v>499</v>
+        <v>523</v>
       </c>
       <c r="E234" t="s">
-        <v>752</v>
+        <v>799</v>
       </c>
       <c r="H234" t="s">
-        <v>954</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
@@ -9548,13 +9937,13 @@
         <v>247</v>
       </c>
       <c r="D235" t="s">
-        <v>500</v>
+        <v>524</v>
       </c>
       <c r="E235" t="s">
-        <v>753</v>
+        <v>800</v>
       </c>
       <c r="H235" t="s">
-        <v>955</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
@@ -9565,10 +9954,10 @@
         <v>248</v>
       </c>
       <c r="D236" t="s">
-        <v>501</v>
+        <v>525</v>
       </c>
       <c r="E236" t="s">
-        <v>754</v>
+        <v>801</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
@@ -9579,10 +9968,10 @@
         <v>249</v>
       </c>
       <c r="D237" t="s">
-        <v>502</v>
+        <v>526</v>
       </c>
       <c r="E237" t="s">
-        <v>755</v>
+        <v>802</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
@@ -9593,10 +9982,10 @@
         <v>250</v>
       </c>
       <c r="D238" t="s">
-        <v>503</v>
+        <v>527</v>
       </c>
       <c r="E238" t="s">
-        <v>756</v>
+        <v>803</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
@@ -9607,10 +9996,10 @@
         <v>251</v>
       </c>
       <c r="D239" t="s">
-        <v>504</v>
+        <v>528</v>
       </c>
       <c r="E239" t="s">
-        <v>757</v>
+        <v>804</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
@@ -9621,13 +10010,13 @@
         <v>252</v>
       </c>
       <c r="D240" t="s">
-        <v>505</v>
+        <v>529</v>
       </c>
       <c r="E240" t="s">
-        <v>758</v>
+        <v>805</v>
       </c>
       <c r="H240" t="s">
-        <v>956</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
@@ -9641,10 +10030,10 @@
         <v>253</v>
       </c>
       <c r="D241" t="s">
-        <v>506</v>
+        <v>530</v>
       </c>
       <c r="E241" t="s">
-        <v>759</v>
+        <v>806</v>
       </c>
       <c r="F241">
         <v>8</v>
@@ -9653,7 +10042,7 @@
         <v>4</v>
       </c>
       <c r="H241" t="s">
-        <v>957</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
@@ -9667,10 +10056,10 @@
         <v>254</v>
       </c>
       <c r="D242" t="s">
-        <v>507</v>
+        <v>531</v>
       </c>
       <c r="E242" t="s">
-        <v>760</v>
+        <v>807</v>
       </c>
       <c r="F242">
         <v>37</v>
@@ -9679,7 +10068,7 @@
         <v>3</v>
       </c>
       <c r="H242" t="s">
-        <v>958</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
@@ -9693,10 +10082,10 @@
         <v>255</v>
       </c>
       <c r="D243" t="s">
-        <v>508</v>
+        <v>532</v>
       </c>
       <c r="E243" t="s">
-        <v>761</v>
+        <v>808</v>
       </c>
       <c r="F243">
         <v>64</v>
@@ -9705,7 +10094,7 @@
         <v>3</v>
       </c>
       <c r="H243" t="s">
-        <v>959</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
@@ -9716,10 +10105,10 @@
         <v>256</v>
       </c>
       <c r="D244" t="s">
-        <v>509</v>
+        <v>533</v>
       </c>
       <c r="E244" t="s">
-        <v>762</v>
+        <v>809</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
@@ -9733,10 +10122,10 @@
         <v>257</v>
       </c>
       <c r="D245" t="s">
-        <v>510</v>
+        <v>534</v>
       </c>
       <c r="E245" t="s">
-        <v>763</v>
+        <v>810</v>
       </c>
       <c r="F245">
         <v>44</v>
@@ -9745,7 +10134,7 @@
         <v>3</v>
       </c>
       <c r="H245" t="s">
-        <v>960</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
@@ -9759,10 +10148,10 @@
         <v>258</v>
       </c>
       <c r="D246" t="s">
-        <v>511</v>
+        <v>535</v>
       </c>
       <c r="E246" t="s">
-        <v>764</v>
+        <v>811</v>
       </c>
       <c r="F246">
         <v>45</v>
@@ -9771,7 +10160,7 @@
         <v>3</v>
       </c>
       <c r="H246" t="s">
-        <v>961</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
@@ -9785,10 +10174,10 @@
         <v>259</v>
       </c>
       <c r="D247" t="s">
-        <v>512</v>
+        <v>536</v>
       </c>
       <c r="E247" t="s">
-        <v>765</v>
+        <v>812</v>
       </c>
       <c r="F247">
         <v>59</v>
@@ -9797,7 +10186,7 @@
         <v>3</v>
       </c>
       <c r="H247" t="s">
-        <v>962</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
@@ -9808,10 +10197,10 @@
         <v>260</v>
       </c>
       <c r="D248" t="s">
-        <v>513</v>
+        <v>537</v>
       </c>
       <c r="E248" t="s">
-        <v>766</v>
+        <v>813</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
@@ -9822,10 +10211,10 @@
         <v>261</v>
       </c>
       <c r="D249" t="s">
-        <v>514</v>
+        <v>538</v>
       </c>
       <c r="E249" t="s">
-        <v>767</v>
+        <v>814</v>
       </c>
       <c r="F249">
         <v>3</v>
@@ -9834,7 +10223,7 @@
         <v>4</v>
       </c>
       <c r="H249" t="s">
-        <v>967</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
@@ -9845,10 +10234,10 @@
         <v>262</v>
       </c>
       <c r="D250" t="s">
-        <v>515</v>
+        <v>539</v>
       </c>
       <c r="E250" t="s">
-        <v>768</v>
+        <v>815</v>
       </c>
       <c r="F250">
         <v>3</v>
@@ -9857,7 +10246,7 @@
         <v>4</v>
       </c>
       <c r="H250" t="s">
-        <v>963</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
@@ -9871,10 +10260,10 @@
         <v>263</v>
       </c>
       <c r="D251" t="s">
-        <v>516</v>
+        <v>540</v>
       </c>
       <c r="E251" t="s">
-        <v>769</v>
+        <v>816</v>
       </c>
       <c r="F251">
         <v>3</v>
@@ -9883,7 +10272,7 @@
         <v>4</v>
       </c>
       <c r="H251" t="s">
-        <v>966</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
@@ -9894,10 +10283,10 @@
         <v>264</v>
       </c>
       <c r="D252" t="s">
-        <v>517</v>
+        <v>541</v>
       </c>
       <c r="E252" t="s">
-        <v>770</v>
+        <v>817</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
@@ -9911,10 +10300,10 @@
         <v>265</v>
       </c>
       <c r="D253" t="s">
-        <v>518</v>
+        <v>542</v>
       </c>
       <c r="E253" t="s">
-        <v>771</v>
+        <v>818</v>
       </c>
       <c r="F253">
         <v>32</v>
@@ -9923,7 +10312,7 @@
         <v>3</v>
       </c>
       <c r="H253" t="s">
-        <v>964</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
@@ -9937,10 +10326,10 @@
         <v>266</v>
       </c>
       <c r="D254" t="s">
-        <v>519</v>
+        <v>543</v>
       </c>
       <c r="E254" t="s">
-        <v>772</v>
+        <v>819</v>
       </c>
       <c r="F254">
         <v>27</v>
@@ -9949,7 +10338,520 @@
         <v>3</v>
       </c>
       <c r="H254" t="s">
-        <v>965</v>
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>12</v>
+      </c>
+      <c r="C255" t="s">
+        <v>267</v>
+      </c>
+      <c r="D255" t="s">
+        <v>544</v>
+      </c>
+      <c r="E255" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>12</v>
+      </c>
+      <c r="B256">
+        <v>22</v>
+      </c>
+      <c r="C256" t="s">
+        <v>268</v>
+      </c>
+      <c r="D256" t="s">
+        <v>545</v>
+      </c>
+      <c r="E256" t="s">
+        <v>821</v>
+      </c>
+      <c r="F256">
+        <v>61</v>
+      </c>
+      <c r="G256">
+        <v>3</v>
+      </c>
+      <c r="H256" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>12</v>
+      </c>
+      <c r="B257">
+        <v>23</v>
+      </c>
+      <c r="C257" t="s">
+        <v>269</v>
+      </c>
+      <c r="D257" t="s">
+        <v>546</v>
+      </c>
+      <c r="E257" t="s">
+        <v>822</v>
+      </c>
+      <c r="F257">
+        <v>53</v>
+      </c>
+      <c r="G257">
+        <v>4</v>
+      </c>
+      <c r="H257" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>12</v>
+      </c>
+      <c r="B258">
+        <v>24</v>
+      </c>
+      <c r="C258" t="s">
+        <v>270</v>
+      </c>
+      <c r="D258" t="s">
+        <v>547</v>
+      </c>
+      <c r="E258" t="s">
+        <v>823</v>
+      </c>
+      <c r="F258">
+        <v>43</v>
+      </c>
+      <c r="G258">
+        <v>3</v>
+      </c>
+      <c r="H258" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>12</v>
+      </c>
+      <c r="B259">
+        <v>25</v>
+      </c>
+      <c r="C259" t="s">
+        <v>271</v>
+      </c>
+      <c r="D259" t="s">
+        <v>548</v>
+      </c>
+      <c r="E259" t="s">
+        <v>824</v>
+      </c>
+      <c r="F259">
+        <v>41</v>
+      </c>
+      <c r="G259">
+        <v>3</v>
+      </c>
+      <c r="H259" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>12</v>
+      </c>
+      <c r="C260" t="s">
+        <v>272</v>
+      </c>
+      <c r="D260" t="s">
+        <v>549</v>
+      </c>
+      <c r="E260" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C261" t="s">
+        <v>273</v>
+      </c>
+      <c r="D261" t="s">
+        <v>550</v>
+      </c>
+      <c r="E261" t="s">
+        <v>826</v>
+      </c>
+      <c r="F261">
+        <v>5</v>
+      </c>
+      <c r="G261">
+        <v>3</v>
+      </c>
+      <c r="H261" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C262" t="s">
+        <v>274</v>
+      </c>
+      <c r="D262" t="s">
+        <v>551</v>
+      </c>
+      <c r="E262" t="s">
+        <v>827</v>
+      </c>
+      <c r="F262">
+        <v>5</v>
+      </c>
+      <c r="G262">
+        <v>3</v>
+      </c>
+      <c r="H262" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>12</v>
+      </c>
+      <c r="B263">
+        <v>26</v>
+      </c>
+      <c r="C263" t="s">
+        <v>275</v>
+      </c>
+      <c r="D263" t="s">
+        <v>552</v>
+      </c>
+      <c r="E263" t="s">
+        <v>828</v>
+      </c>
+      <c r="F263">
+        <v>5</v>
+      </c>
+      <c r="G263">
+        <v>3</v>
+      </c>
+      <c r="H263" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>12</v>
+      </c>
+      <c r="B264">
+        <v>27</v>
+      </c>
+      <c r="C264" t="s">
+        <v>276</v>
+      </c>
+      <c r="D264" t="s">
+        <v>553</v>
+      </c>
+      <c r="E264" t="s">
+        <v>829</v>
+      </c>
+      <c r="F264">
+        <v>60</v>
+      </c>
+      <c r="G264">
+        <v>3</v>
+      </c>
+      <c r="H264" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>12</v>
+      </c>
+      <c r="C265" t="s">
+        <v>277</v>
+      </c>
+      <c r="D265" t="s">
+        <v>554</v>
+      </c>
+      <c r="E265" t="s">
+        <v>830</v>
+      </c>
+      <c r="H265" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C266" t="s">
+        <v>278</v>
+      </c>
+      <c r="D266" t="s">
+        <v>555</v>
+      </c>
+      <c r="E266" t="s">
+        <v>831</v>
+      </c>
+      <c r="F266">
+        <v>6</v>
+      </c>
+      <c r="G266">
+        <v>3</v>
+      </c>
+      <c r="H266" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C267" t="s">
+        <v>279</v>
+      </c>
+      <c r="D267" t="s">
+        <v>556</v>
+      </c>
+      <c r="E267" t="s">
+        <v>832</v>
+      </c>
+      <c r="F267">
+        <v>24</v>
+      </c>
+      <c r="G267">
+        <v>4</v>
+      </c>
+      <c r="H267" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C268" t="s">
+        <v>280</v>
+      </c>
+      <c r="D268" t="s">
+        <v>557</v>
+      </c>
+      <c r="E268" t="s">
+        <v>833</v>
+      </c>
+      <c r="F268">
+        <v>7</v>
+      </c>
+      <c r="G268">
+        <v>4</v>
+      </c>
+      <c r="H268" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C269" t="s">
+        <v>281</v>
+      </c>
+      <c r="D269" t="s">
+        <v>558</v>
+      </c>
+      <c r="E269" t="s">
+        <v>834</v>
+      </c>
+      <c r="H269" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>12</v>
+      </c>
+      <c r="B270">
+        <v>28</v>
+      </c>
+      <c r="C270" t="s">
+        <v>282</v>
+      </c>
+      <c r="D270" t="s">
+        <v>558</v>
+      </c>
+      <c r="E270" t="s">
+        <v>835</v>
+      </c>
+      <c r="F270">
+        <v>12</v>
+      </c>
+      <c r="G270">
+        <v>3</v>
+      </c>
+      <c r="H270" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>12</v>
+      </c>
+      <c r="C271" t="s">
+        <v>283</v>
+      </c>
+      <c r="D271" t="s">
+        <v>559</v>
+      </c>
+      <c r="E271" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>12</v>
+      </c>
+      <c r="C272" t="s">
+        <v>284</v>
+      </c>
+      <c r="D272" t="s">
+        <v>560</v>
+      </c>
+      <c r="E272" t="s">
+        <v>837</v>
+      </c>
+      <c r="F272">
+        <v>1</v>
+      </c>
+      <c r="G272">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>12</v>
+      </c>
+      <c r="C273" t="s">
+        <v>285</v>
+      </c>
+      <c r="D273" t="s">
+        <v>561</v>
+      </c>
+      <c r="E273" t="s">
+        <v>838</v>
+      </c>
+      <c r="F273">
+        <v>17</v>
+      </c>
+      <c r="G273">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>12</v>
+      </c>
+      <c r="B274">
+        <v>29</v>
+      </c>
+      <c r="C274" t="s">
+        <v>286</v>
+      </c>
+      <c r="D274" t="s">
+        <v>562</v>
+      </c>
+      <c r="E274" t="s">
+        <v>839</v>
+      </c>
+      <c r="F274">
+        <v>55</v>
+      </c>
+      <c r="G274">
+        <v>4</v>
+      </c>
+      <c r="H274" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>12</v>
+      </c>
+      <c r="C275" t="s">
+        <v>287</v>
+      </c>
+      <c r="D275" t="s">
+        <v>563</v>
+      </c>
+      <c r="E275" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>12</v>
+      </c>
+      <c r="B276">
+        <v>30</v>
+      </c>
+      <c r="C276" t="s">
+        <v>288</v>
+      </c>
+      <c r="D276" t="s">
+        <v>564</v>
+      </c>
+      <c r="E276" t="s">
+        <v>841</v>
+      </c>
+      <c r="F276">
+        <v>6</v>
+      </c>
+      <c r="G276">
+        <v>4</v>
+      </c>
+      <c r="H276" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>12</v>
+      </c>
+      <c r="B277">
+        <v>31</v>
+      </c>
+      <c r="C277" t="s">
+        <v>289</v>
+      </c>
+      <c r="D277" t="s">
+        <v>565</v>
+      </c>
+      <c r="E277" t="s">
+        <v>842</v>
+      </c>
+      <c r="F277">
+        <v>36</v>
+      </c>
+      <c r="G277">
+        <v>3</v>
+      </c>
+      <c r="H277" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>12</v>
+      </c>
+      <c r="B278">
+        <v>32</v>
+      </c>
+      <c r="C278" t="s">
+        <v>290</v>
+      </c>
+      <c r="D278" t="s">
+        <v>566</v>
+      </c>
+      <c r="E278" t="s">
+        <v>843</v>
+      </c>
+      <c r="F278">
+        <v>48</v>
+      </c>
+      <c r="G278">
+        <v>3</v>
+      </c>
+      <c r="H278" t="s">
+        <v>1056</v>
       </c>
     </row>
   </sheetData>

--- a/Exp_Record_Alfa.xlsx
+++ b/Exp_Record_Alfa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA5B54E-5C77-4C51-9F57-C77EAE6FF5AD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F7E3D3-DE46-4F46-AD73-721AFF658347}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8640" yWindow="3840" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8475" yWindow="4050" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="1057">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="1088">
   <si>
     <t>Exp_collection</t>
   </si>
@@ -2073,6 +2073,60 @@
 Still goin up at 19. 28 blocks complete at 1118 . complete</t>
   </si>
   <si>
+    <t>001 Rf mapper start at 947. 4 blocks at 952.
+29 (-0.5, 0) 3 1</t>
+  </si>
+  <si>
+    <t>002 Generate integrated start at 955
+Ch 29 SU 2/5. Very sparse but it lights up when it sees images.
+Ch 29 [-0.5 0]  3  1  ZOHA full
+Ch 29  [-0.5, 0]  3 1  ZOHA red.
+Psth looks good, black line higher than green around 0.6.
+Ugh its not climbing yet, straight line at 15. Its so pretty why not climbing?
+Yay going up finally at 25. It climbed! 32 blocks complete at 1022</t>
+  </si>
+  <si>
+    <t>003 Generate integrated start at 1025
+Ch 33 hash.
+Ch 33 [0 0]  3  1  ZOHA full
+Ch 33  [0, 0]  3 1  ZOHA red.
+Climbed fast, slowed the climb at block 12.
+25 blocks stop at 1045.</t>
+  </si>
+  <si>
+    <t>004 Generate integrated start at 1048
+Ch 39 hash.
+Ch 39 [0 0]  3  1  ZOHA full
+Ch 39  [0, 0]  3 1  ZOHA red.
+Replaced 150 mL water with 150 mL juice.
+25 blocks complete at 1115</t>
+  </si>
+  <si>
+    <t>005 generate integrated start at 1117. 
+45 (0,0) 3 1. MU, 2 SU and 1 hash. We did this one before but it is so pretty and MU I wanna try again and see what we get.
+Ehhh maybe climbing at 16, but alfa is almost done.
+19 blocks stop at 1137. Climbed a bit.</t>
+  </si>
+  <si>
+    <t>Rf mapper start at 908.
+No necessary experiments today, just maintenance
+5 blocks complete stop at 918
+complete</t>
+  </si>
+  <si>
+    <t>Generate integrated start at 926
+Ch 6 (0, -3) 4 1 CMAES, MU, I has one really good unit, one surpressed unit and hash
+Just a cool channel, I had to do it.
+Weird, its not climbing yet at block 20.
+50 blocks complete stop at 946. Didn’t climb much but interesting evolv</t>
+  </si>
+  <si>
+    <t>Selectivity just to get him some water.
+Ch 6 (0, -3) 4 1. images are from previous evolve and predict set
+Start at 947.
+Stop at 957</t>
+  </si>
+  <si>
     <t>Alfa64chan-19112019-009</t>
   </si>
   <si>
@@ -2901,6 +2955,30 @@
     <t>Alfa-06072020-004</t>
   </si>
   <si>
+    <t>Alfa-07072020-001</t>
+  </si>
+  <si>
+    <t>Alfa-07072020-002</t>
+  </si>
+  <si>
+    <t>Alfa-07072020-003</t>
+  </si>
+  <si>
+    <t>Alfa-07072020-004</t>
+  </si>
+  <si>
+    <t>Alfa-07072020-005</t>
+  </si>
+  <si>
+    <t>Alfa-10072020-001</t>
+  </si>
+  <si>
+    <t>Alfa-10072020-002</t>
+  </si>
+  <si>
+    <t>Alfa-10072020-003</t>
+  </si>
+  <si>
     <t>191119_Alfa_generate_parallel(3)</t>
   </si>
   <si>
@@ -3732,6 +3810,30 @@
     <t>200706_Alfa_generate_integrated(3)</t>
   </si>
   <si>
+    <t>200707_Alfa_rfMapper_basic</t>
+  </si>
+  <si>
+    <t>200707_Alfa_generate_integrated</t>
+  </si>
+  <si>
+    <t>200707_Alfa_generate_integrated(1)</t>
+  </si>
+  <si>
+    <t>200707_Alfa_generate_integrated(2)</t>
+  </si>
+  <si>
+    <t>200707_Alfa_generate_integrated(3)</t>
+  </si>
+  <si>
+    <t>200710_Alfa_rfMapper_basic(1)</t>
+  </si>
+  <si>
+    <t>200710_Alfa_generate_integrated</t>
+  </si>
+  <si>
+    <t>200710_Alfa_selectivity_basic</t>
+  </si>
+  <si>
     <t>N:\Stimuli\2019-06-Evolutions\alfa-191119a</t>
   </si>
   <si>
@@ -4107,13 +4209,13 @@
     <t>N:\Stimuli\2019-Manifold\alfa-200407b-selectivity</t>
   </si>
   <si>
-    <t>N:\Stimuli\2019-Manifold\alfa-200409a</t>
+    <t>N:\Stimuli\2019-Manifold\alfa-200409a\2020-04-09-10-16-14</t>
   </si>
   <si>
     <t>N:\Stimuli\2019-Manifold\alfa-200409a-selectivity</t>
   </si>
   <si>
-    <t>N:\Stimuli\2019-Manifold\alfa-200409b</t>
+    <t>N:\Stimuli\2019-Manifold\alfa-200409b\2020-04-09-10-54-58</t>
   </si>
   <si>
     <t>N:\Stimuli\2019-Manifold\alfa-200409b-selectivity</t>
@@ -4369,6 +4471,27 @@
   </si>
   <si>
     <t>N:\Stimuli\2020-Evolutions\2020-07-06-Alfa-03\2020-07-06-10-54-26</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2020-Evolutions\2020-07-07-Alfa-01\2020-07-07-09-58-25</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2020-Evolutions\2020-07-07-Alfa-02\2020-07-07-10-25-59</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2020-Evolutions\2020-07-07-Alfa-03\2020-07-07-10-48-07</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2020-Evolutions\2020-07-07-Alfa-04\2020-07-07-11-17-03</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2020-Evolutions\2020-07-10-Alfa-01\2020-07-10-09-25-37</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-Selectivity\2020-07-10-Alfa-01</t>
+  </si>
+  <si>
+    <t>Alfa-02072020-007</t>
   </si>
 </sst>
 </file>
@@ -4770,15 +4893,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H278"/>
+  <dimension ref="A1:H286"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A260" workbookViewId="0">
-      <selection activeCell="A280" sqref="A280"/>
+      <selection activeCell="E270" sqref="E270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="21.140625" customWidth="1"/>
+    <col min="4" max="4" width="31" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -4818,10 +4941,10 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="E2" t="s">
-        <v>567</v>
+        <v>583</v>
       </c>
       <c r="F2">
         <v>29</v>
@@ -4830,7 +4953,7 @@
         <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>844</v>
+        <v>868</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -4844,10 +4967,10 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="E3" t="s">
-        <v>568</v>
+        <v>584</v>
       </c>
       <c r="F3">
         <v>29</v>
@@ -4867,10 +4990,10 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="E4" t="s">
-        <v>569</v>
+        <v>585</v>
       </c>
       <c r="F4">
         <v>29</v>
@@ -4879,7 +5002,7 @@
         <v>4</v>
       </c>
       <c r="H4" t="s">
-        <v>845</v>
+        <v>869</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -4893,10 +5016,10 @@
         <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="E5" t="s">
-        <v>570</v>
+        <v>586</v>
       </c>
       <c r="F5">
         <v>29</v>
@@ -4905,7 +5028,7 @@
         <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>846</v>
+        <v>870</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -4919,16 +5042,16 @@
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="E6" t="s">
-        <v>571</v>
+        <v>587</v>
       </c>
       <c r="F6">
         <v>29</v>
       </c>
       <c r="H6" t="s">
-        <v>847</v>
+        <v>871</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -4942,10 +5065,10 @@
         <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="E7" t="s">
-        <v>572</v>
+        <v>588</v>
       </c>
       <c r="F7">
         <v>29</v>
@@ -4954,7 +5077,7 @@
         <v>4</v>
       </c>
       <c r="H7" t="s">
-        <v>848</v>
+        <v>872</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -4968,10 +5091,10 @@
         <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="E8" t="s">
-        <v>573</v>
+        <v>589</v>
       </c>
       <c r="F8">
         <v>9</v>
@@ -4980,7 +5103,7 @@
         <v>3</v>
       </c>
       <c r="H8" t="s">
-        <v>849</v>
+        <v>873</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -4994,10 +5117,10 @@
         <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="E9" t="s">
-        <v>574</v>
+        <v>590</v>
       </c>
       <c r="F9">
         <v>9</v>
@@ -5006,7 +5129,7 @@
         <v>3</v>
       </c>
       <c r="H9" t="s">
-        <v>850</v>
+        <v>874</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -5020,10 +5143,10 @@
         <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="E10" t="s">
-        <v>575</v>
+        <v>591</v>
       </c>
       <c r="F10">
         <v>9</v>
@@ -5032,7 +5155,7 @@
         <v>3</v>
       </c>
       <c r="H10" t="s">
-        <v>851</v>
+        <v>875</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -5046,10 +5169,10 @@
         <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="E11" t="s">
-        <v>576</v>
+        <v>592</v>
       </c>
       <c r="F11">
         <v>32</v>
@@ -5058,7 +5181,7 @@
         <v>3</v>
       </c>
       <c r="H11" t="s">
-        <v>852</v>
+        <v>876</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -5072,10 +5195,10 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="E12" t="s">
-        <v>577</v>
+        <v>593</v>
       </c>
       <c r="F12">
         <v>32</v>
@@ -5084,7 +5207,7 @@
         <v>3</v>
       </c>
       <c r="H12" t="s">
-        <v>853</v>
+        <v>877</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -5098,10 +5221,10 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="E13" t="s">
-        <v>578</v>
+        <v>594</v>
       </c>
       <c r="F13">
         <v>32</v>
@@ -5110,7 +5233,7 @@
         <v>3</v>
       </c>
       <c r="H13" t="s">
-        <v>854</v>
+        <v>878</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -5118,10 +5241,10 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="E14" t="s">
-        <v>579</v>
+        <v>595</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -5135,10 +5258,10 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="E15" t="s">
-        <v>580</v>
+        <v>596</v>
       </c>
       <c r="F15">
         <v>3</v>
@@ -5147,7 +5270,7 @@
         <v>3</v>
       </c>
       <c r="H15" t="s">
-        <v>855</v>
+        <v>879</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -5161,10 +5284,10 @@
         <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="E16" t="s">
-        <v>581</v>
+        <v>597</v>
       </c>
       <c r="F16">
         <v>3</v>
@@ -5173,7 +5296,7 @@
         <v>3</v>
       </c>
       <c r="H16" t="s">
-        <v>856</v>
+        <v>880</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -5187,10 +5310,10 @@
         <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="E17" t="s">
-        <v>582</v>
+        <v>598</v>
       </c>
       <c r="F17">
         <v>3</v>
@@ -5199,7 +5322,7 @@
         <v>3</v>
       </c>
       <c r="H17" t="s">
-        <v>857</v>
+        <v>881</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -5207,10 +5330,10 @@
         <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="E18" t="s">
-        <v>583</v>
+        <v>599</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -5224,10 +5347,10 @@
         <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="E19" t="s">
-        <v>584</v>
+        <v>600</v>
       </c>
       <c r="F19">
         <v>7</v>
@@ -5236,7 +5359,7 @@
         <v>3</v>
       </c>
       <c r="H19" t="s">
-        <v>858</v>
+        <v>882</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -5250,10 +5373,10 @@
         <v>32</v>
       </c>
       <c r="D20" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E20" t="s">
-        <v>585</v>
+        <v>601</v>
       </c>
       <c r="F20">
         <v>7</v>
@@ -5262,7 +5385,7 @@
         <v>3</v>
       </c>
       <c r="H20" t="s">
-        <v>859</v>
+        <v>883</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -5276,10 +5399,10 @@
         <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="E21" t="s">
-        <v>586</v>
+        <v>602</v>
       </c>
       <c r="F21">
         <v>7</v>
@@ -5288,7 +5411,7 @@
         <v>3</v>
       </c>
       <c r="H21" t="s">
-        <v>860</v>
+        <v>884</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -5296,10 +5419,10 @@
         <v>34</v>
       </c>
       <c r="D22" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="E22" t="s">
-        <v>587</v>
+        <v>603</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -5307,16 +5430,16 @@
         <v>35</v>
       </c>
       <c r="D23" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="E23" t="s">
-        <v>588</v>
+        <v>604</v>
       </c>
       <c r="G23">
         <v>3</v>
       </c>
       <c r="H23" t="s">
-        <v>861</v>
+        <v>885</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -5324,16 +5447,16 @@
         <v>36</v>
       </c>
       <c r="D24" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="E24" t="s">
-        <v>589</v>
+        <v>605</v>
       </c>
       <c r="G24">
         <v>4</v>
       </c>
       <c r="H24" t="s">
-        <v>862</v>
+        <v>886</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -5341,10 +5464,10 @@
         <v>37</v>
       </c>
       <c r="D25" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="E25" t="s">
-        <v>590</v>
+        <v>606</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -5358,10 +5481,10 @@
         <v>38</v>
       </c>
       <c r="D26" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="E26" t="s">
-        <v>591</v>
+        <v>607</v>
       </c>
       <c r="F26">
         <v>51</v>
@@ -5370,7 +5493,7 @@
         <v>3</v>
       </c>
       <c r="H26" t="s">
-        <v>863</v>
+        <v>887</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -5384,10 +5507,10 @@
         <v>39</v>
       </c>
       <c r="D27" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="E27" t="s">
-        <v>592</v>
+        <v>608</v>
       </c>
       <c r="F27">
         <v>51</v>
@@ -5396,7 +5519,7 @@
         <v>3</v>
       </c>
       <c r="H27" t="s">
-        <v>864</v>
+        <v>888</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -5410,10 +5533,10 @@
         <v>40</v>
       </c>
       <c r="D28" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="E28" t="s">
-        <v>593</v>
+        <v>609</v>
       </c>
       <c r="F28">
         <v>51</v>
@@ -5422,7 +5545,7 @@
         <v>3</v>
       </c>
       <c r="H28" t="s">
-        <v>865</v>
+        <v>889</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -5430,10 +5553,10 @@
         <v>41</v>
       </c>
       <c r="D29" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="E29" t="s">
-        <v>594</v>
+        <v>610</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -5447,10 +5570,10 @@
         <v>42</v>
       </c>
       <c r="D30" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="E30" t="s">
-        <v>595</v>
+        <v>611</v>
       </c>
       <c r="F30">
         <v>7</v>
@@ -5459,7 +5582,7 @@
         <v>3</v>
       </c>
       <c r="H30" t="s">
-        <v>866</v>
+        <v>890</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -5473,10 +5596,10 @@
         <v>43</v>
       </c>
       <c r="D31" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="E31" t="s">
-        <v>596</v>
+        <v>612</v>
       </c>
       <c r="F31">
         <v>7</v>
@@ -5485,7 +5608,7 @@
         <v>3</v>
       </c>
       <c r="H31" t="s">
-        <v>867</v>
+        <v>891</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -5499,10 +5622,10 @@
         <v>44</v>
       </c>
       <c r="D32" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="E32" t="s">
-        <v>597</v>
+        <v>613</v>
       </c>
       <c r="F32">
         <v>7</v>
@@ -5511,7 +5634,7 @@
         <v>3</v>
       </c>
       <c r="H32" t="s">
-        <v>868</v>
+        <v>892</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -5519,10 +5642,10 @@
         <v>45</v>
       </c>
       <c r="D33" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="E33" t="s">
-        <v>598</v>
+        <v>614</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -5536,10 +5659,10 @@
         <v>46</v>
       </c>
       <c r="D34" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="E34" t="s">
-        <v>599</v>
+        <v>615</v>
       </c>
       <c r="F34">
         <v>7</v>
@@ -5548,7 +5671,7 @@
         <v>3</v>
       </c>
       <c r="H34" t="s">
-        <v>869</v>
+        <v>893</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -5562,10 +5685,10 @@
         <v>47</v>
       </c>
       <c r="D35" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="E35" t="s">
-        <v>600</v>
+        <v>616</v>
       </c>
       <c r="F35">
         <v>7</v>
@@ -5574,7 +5697,7 @@
         <v>3</v>
       </c>
       <c r="H35" t="s">
-        <v>870</v>
+        <v>894</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -5588,10 +5711,10 @@
         <v>48</v>
       </c>
       <c r="D36" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="E36" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="F36">
         <v>7</v>
@@ -5600,7 +5723,7 @@
         <v>3</v>
       </c>
       <c r="H36" t="s">
-        <v>871</v>
+        <v>895</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -5614,10 +5737,10 @@
         <v>49</v>
       </c>
       <c r="D37" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="E37" t="s">
-        <v>602</v>
+        <v>618</v>
       </c>
       <c r="F37">
         <v>36</v>
@@ -5626,7 +5749,7 @@
         <v>3</v>
       </c>
       <c r="H37" t="s">
-        <v>872</v>
+        <v>896</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -5640,10 +5763,10 @@
         <v>50</v>
       </c>
       <c r="D38" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="E38" t="s">
-        <v>603</v>
+        <v>619</v>
       </c>
       <c r="F38">
         <v>36</v>
@@ -5652,7 +5775,7 @@
         <v>3</v>
       </c>
       <c r="H38" t="s">
-        <v>873</v>
+        <v>897</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -5666,10 +5789,10 @@
         <v>51</v>
       </c>
       <c r="D39" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="E39" t="s">
-        <v>604</v>
+        <v>620</v>
       </c>
       <c r="F39">
         <v>35</v>
@@ -5678,7 +5801,7 @@
         <v>3</v>
       </c>
       <c r="H39" t="s">
-        <v>874</v>
+        <v>898</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -5692,10 +5815,10 @@
         <v>52</v>
       </c>
       <c r="D40" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="E40" t="s">
-        <v>605</v>
+        <v>621</v>
       </c>
       <c r="F40">
         <v>35</v>
@@ -5704,7 +5827,7 @@
         <v>3</v>
       </c>
       <c r="H40" t="s">
-        <v>875</v>
+        <v>899</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -5718,10 +5841,10 @@
         <v>53</v>
       </c>
       <c r="D41" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="E41" t="s">
-        <v>606</v>
+        <v>622</v>
       </c>
       <c r="F41">
         <v>35</v>
@@ -5730,7 +5853,7 @@
         <v>3</v>
       </c>
       <c r="H41" t="s">
-        <v>876</v>
+        <v>900</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -5744,10 +5867,10 @@
         <v>54</v>
       </c>
       <c r="D42" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="E42" t="s">
-        <v>607</v>
+        <v>623</v>
       </c>
       <c r="F42">
         <v>61</v>
@@ -5756,7 +5879,7 @@
         <v>3</v>
       </c>
       <c r="H42" t="s">
-        <v>877</v>
+        <v>901</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -5770,10 +5893,10 @@
         <v>55</v>
       </c>
       <c r="D43" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="E43" t="s">
-        <v>608</v>
+        <v>624</v>
       </c>
       <c r="F43">
         <v>61</v>
@@ -5782,7 +5905,7 @@
         <v>3</v>
       </c>
       <c r="H43" t="s">
-        <v>878</v>
+        <v>902</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -5796,10 +5919,10 @@
         <v>56</v>
       </c>
       <c r="D44" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="E44" t="s">
-        <v>609</v>
+        <v>625</v>
       </c>
       <c r="F44">
         <v>61</v>
@@ -5808,7 +5931,7 @@
         <v>3</v>
       </c>
       <c r="H44" t="s">
-        <v>879</v>
+        <v>903</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -5822,10 +5945,10 @@
         <v>57</v>
       </c>
       <c r="D45" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="E45" t="s">
-        <v>610</v>
+        <v>626</v>
       </c>
       <c r="F45">
         <v>33</v>
@@ -5834,7 +5957,7 @@
         <v>3</v>
       </c>
       <c r="H45" t="s">
-        <v>880</v>
+        <v>904</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -5848,10 +5971,10 @@
         <v>58</v>
       </c>
       <c r="D46" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="E46" t="s">
-        <v>611</v>
+        <v>627</v>
       </c>
       <c r="F46">
         <v>33</v>
@@ -5860,7 +5983,7 @@
         <v>3</v>
       </c>
       <c r="H46" t="s">
-        <v>881</v>
+        <v>905</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -5874,10 +5997,10 @@
         <v>59</v>
       </c>
       <c r="D47" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="E47" t="s">
-        <v>612</v>
+        <v>628</v>
       </c>
       <c r="F47">
         <v>33</v>
@@ -5886,7 +6009,7 @@
         <v>3</v>
       </c>
       <c r="H47" t="s">
-        <v>882</v>
+        <v>906</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -5900,10 +6023,10 @@
         <v>60</v>
       </c>
       <c r="D48" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="E48" t="s">
-        <v>613</v>
+        <v>629</v>
       </c>
       <c r="F48">
         <v>43</v>
@@ -5912,7 +6035,7 @@
         <v>3</v>
       </c>
       <c r="H48" t="s">
-        <v>883</v>
+        <v>907</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -5926,10 +6049,10 @@
         <v>61</v>
       </c>
       <c r="D49" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="E49" t="s">
-        <v>614</v>
+        <v>630</v>
       </c>
       <c r="F49">
         <v>43</v>
@@ -5938,7 +6061,7 @@
         <v>3</v>
       </c>
       <c r="H49" t="s">
-        <v>884</v>
+        <v>908</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -5952,10 +6075,10 @@
         <v>62</v>
       </c>
       <c r="D50" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="E50" t="s">
-        <v>615</v>
+        <v>631</v>
       </c>
       <c r="F50">
         <v>43</v>
@@ -5964,7 +6087,7 @@
         <v>3</v>
       </c>
       <c r="H50" t="s">
-        <v>885</v>
+        <v>909</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -5978,10 +6101,10 @@
         <v>63</v>
       </c>
       <c r="D51" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="E51" t="s">
-        <v>616</v>
+        <v>632</v>
       </c>
       <c r="F51">
         <v>59</v>
@@ -5990,7 +6113,7 @@
         <v>3</v>
       </c>
       <c r="H51" t="s">
-        <v>886</v>
+        <v>910</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -6004,10 +6127,10 @@
         <v>64</v>
       </c>
       <c r="D52" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="E52" t="s">
-        <v>617</v>
+        <v>633</v>
       </c>
       <c r="F52">
         <v>59</v>
@@ -6016,7 +6139,7 @@
         <v>3</v>
       </c>
       <c r="H52" t="s">
-        <v>887</v>
+        <v>911</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -6030,10 +6153,10 @@
         <v>65</v>
       </c>
       <c r="D53" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="E53" t="s">
-        <v>618</v>
+        <v>634</v>
       </c>
       <c r="F53">
         <v>59</v>
@@ -6042,7 +6165,7 @@
         <v>3</v>
       </c>
       <c r="H53" t="s">
-        <v>888</v>
+        <v>912</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -6056,10 +6179,10 @@
         <v>66</v>
       </c>
       <c r="D54" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="E54" t="s">
-        <v>619</v>
+        <v>635</v>
       </c>
       <c r="F54">
         <v>20</v>
@@ -6068,7 +6191,7 @@
         <v>3</v>
       </c>
       <c r="H54" t="s">
-        <v>889</v>
+        <v>913</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -6082,10 +6205,10 @@
         <v>67</v>
       </c>
       <c r="D55" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="E55" t="s">
-        <v>620</v>
+        <v>636</v>
       </c>
       <c r="F55">
         <v>20</v>
@@ -6094,7 +6217,7 @@
         <v>3</v>
       </c>
       <c r="H55" t="s">
-        <v>890</v>
+        <v>914</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -6108,10 +6231,10 @@
         <v>68</v>
       </c>
       <c r="D56" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="E56" t="s">
-        <v>621</v>
+        <v>637</v>
       </c>
       <c r="F56">
         <v>20</v>
@@ -6120,7 +6243,7 @@
         <v>3</v>
       </c>
       <c r="H56" t="s">
-        <v>891</v>
+        <v>915</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -6134,10 +6257,10 @@
         <v>69</v>
       </c>
       <c r="D57" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="E57" t="s">
-        <v>622</v>
+        <v>638</v>
       </c>
       <c r="F57">
         <v>49</v>
@@ -6146,7 +6269,7 @@
         <v>3</v>
       </c>
       <c r="H57" t="s">
-        <v>892</v>
+        <v>916</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -6160,10 +6283,10 @@
         <v>70</v>
       </c>
       <c r="D58" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="E58" t="s">
-        <v>623</v>
+        <v>639</v>
       </c>
       <c r="F58">
         <v>49</v>
@@ -6172,7 +6295,7 @@
         <v>3</v>
       </c>
       <c r="H58" t="s">
-        <v>893</v>
+        <v>917</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -6186,10 +6309,10 @@
         <v>71</v>
       </c>
       <c r="D59" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="E59" t="s">
-        <v>624</v>
+        <v>640</v>
       </c>
       <c r="F59">
         <v>49</v>
@@ -6198,7 +6321,7 @@
         <v>3</v>
       </c>
       <c r="H59" t="s">
-        <v>894</v>
+        <v>918</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -6212,10 +6335,10 @@
         <v>72</v>
       </c>
       <c r="D60" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="E60" t="s">
-        <v>625</v>
+        <v>641</v>
       </c>
       <c r="F60">
         <v>19</v>
@@ -6224,7 +6347,7 @@
         <v>3</v>
       </c>
       <c r="H60" t="s">
-        <v>895</v>
+        <v>919</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -6238,10 +6361,10 @@
         <v>73</v>
       </c>
       <c r="D61" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="E61" t="s">
-        <v>626</v>
+        <v>642</v>
       </c>
       <c r="F61">
         <v>19</v>
@@ -6250,7 +6373,7 @@
         <v>3</v>
       </c>
       <c r="H61" t="s">
-        <v>896</v>
+        <v>920</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -6264,10 +6387,10 @@
         <v>74</v>
       </c>
       <c r="D62" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="E62" t="s">
-        <v>627</v>
+        <v>643</v>
       </c>
       <c r="F62">
         <v>19</v>
@@ -6276,7 +6399,7 @@
         <v>3</v>
       </c>
       <c r="H62" t="s">
-        <v>897</v>
+        <v>921</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -6290,10 +6413,10 @@
         <v>75</v>
       </c>
       <c r="D63" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="E63" t="s">
-        <v>628</v>
+        <v>644</v>
       </c>
       <c r="F63">
         <v>12</v>
@@ -6302,7 +6425,7 @@
         <v>3</v>
       </c>
       <c r="H63" t="s">
-        <v>898</v>
+        <v>922</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -6316,10 +6439,10 @@
         <v>76</v>
       </c>
       <c r="D64" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="E64" t="s">
-        <v>629</v>
+        <v>645</v>
       </c>
       <c r="F64">
         <v>12</v>
@@ -6328,7 +6451,7 @@
         <v>3</v>
       </c>
       <c r="H64" t="s">
-        <v>899</v>
+        <v>923</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -6342,10 +6465,10 @@
         <v>77</v>
       </c>
       <c r="D65" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="E65" t="s">
-        <v>630</v>
+        <v>646</v>
       </c>
       <c r="F65">
         <v>12</v>
@@ -6354,7 +6477,7 @@
         <v>3</v>
       </c>
       <c r="H65" t="s">
-        <v>900</v>
+        <v>924</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -6368,10 +6491,10 @@
         <v>78</v>
       </c>
       <c r="D66" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="E66" t="s">
-        <v>631</v>
+        <v>647</v>
       </c>
       <c r="F66">
         <v>41</v>
@@ -6380,7 +6503,7 @@
         <v>3</v>
       </c>
       <c r="H66" t="s">
-        <v>901</v>
+        <v>925</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -6394,10 +6517,10 @@
         <v>79</v>
       </c>
       <c r="D67" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="E67" t="s">
-        <v>632</v>
+        <v>648</v>
       </c>
       <c r="F67">
         <v>41</v>
@@ -6406,7 +6529,7 @@
         <v>3</v>
       </c>
       <c r="H67" t="s">
-        <v>902</v>
+        <v>926</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -6420,10 +6543,10 @@
         <v>80</v>
       </c>
       <c r="D68" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="E68" t="s">
-        <v>633</v>
+        <v>649</v>
       </c>
       <c r="F68">
         <v>41</v>
@@ -6432,7 +6555,7 @@
         <v>3</v>
       </c>
       <c r="H68" t="s">
-        <v>903</v>
+        <v>927</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -6446,10 +6569,10 @@
         <v>81</v>
       </c>
       <c r="D69" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="E69" t="s">
-        <v>634</v>
+        <v>650</v>
       </c>
       <c r="F69">
         <v>63</v>
@@ -6458,7 +6581,7 @@
         <v>3</v>
       </c>
       <c r="H69" t="s">
-        <v>904</v>
+        <v>928</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -6472,10 +6595,10 @@
         <v>82</v>
       </c>
       <c r="D70" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="E70" t="s">
-        <v>635</v>
+        <v>651</v>
       </c>
       <c r="F70">
         <v>63</v>
@@ -6484,7 +6607,7 @@
         <v>3</v>
       </c>
       <c r="H70" t="s">
-        <v>905</v>
+        <v>929</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -6498,10 +6621,10 @@
         <v>83</v>
       </c>
       <c r="D71" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="E71" t="s">
-        <v>636</v>
+        <v>652</v>
       </c>
       <c r="F71">
         <v>63</v>
@@ -6510,7 +6633,7 @@
         <v>3</v>
       </c>
       <c r="H71" t="s">
-        <v>906</v>
+        <v>930</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -6524,10 +6647,10 @@
         <v>84</v>
       </c>
       <c r="D72" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="E72" t="s">
-        <v>637</v>
+        <v>653</v>
       </c>
       <c r="F72">
         <v>38</v>
@@ -6536,7 +6659,7 @@
         <v>3</v>
       </c>
       <c r="H72" t="s">
-        <v>907</v>
+        <v>931</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -6550,10 +6673,10 @@
         <v>85</v>
       </c>
       <c r="D73" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="E73" t="s">
-        <v>638</v>
+        <v>654</v>
       </c>
       <c r="F73">
         <v>38</v>
@@ -6562,7 +6685,7 @@
         <v>3</v>
       </c>
       <c r="H73" t="s">
-        <v>908</v>
+        <v>932</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -6576,10 +6699,10 @@
         <v>86</v>
       </c>
       <c r="D74" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="E74" t="s">
-        <v>639</v>
+        <v>655</v>
       </c>
       <c r="F74">
         <v>38</v>
@@ -6588,7 +6711,7 @@
         <v>3</v>
       </c>
       <c r="H74" t="s">
-        <v>909</v>
+        <v>933</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -6602,10 +6725,10 @@
         <v>87</v>
       </c>
       <c r="D75" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="E75" t="s">
-        <v>640</v>
+        <v>656</v>
       </c>
       <c r="F75">
         <v>39</v>
@@ -6614,7 +6737,7 @@
         <v>3</v>
       </c>
       <c r="H75" t="s">
-        <v>910</v>
+        <v>934</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -6628,10 +6751,10 @@
         <v>88</v>
       </c>
       <c r="D76" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="E76" t="s">
-        <v>641</v>
+        <v>657</v>
       </c>
       <c r="F76">
         <v>39</v>
@@ -6640,7 +6763,7 @@
         <v>3</v>
       </c>
       <c r="H76" t="s">
-        <v>911</v>
+        <v>935</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -6654,10 +6777,10 @@
         <v>89</v>
       </c>
       <c r="D77" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="E77" t="s">
-        <v>642</v>
+        <v>658</v>
       </c>
       <c r="F77">
         <v>39</v>
@@ -6666,7 +6789,7 @@
         <v>3</v>
       </c>
       <c r="H77" t="s">
-        <v>912</v>
+        <v>936</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -6680,10 +6803,10 @@
         <v>90</v>
       </c>
       <c r="D78" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="E78" t="s">
-        <v>643</v>
+        <v>659</v>
       </c>
       <c r="F78">
         <v>44</v>
@@ -6692,7 +6815,7 @@
         <v>3</v>
       </c>
       <c r="H78" t="s">
-        <v>913</v>
+        <v>937</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -6706,10 +6829,10 @@
         <v>91</v>
       </c>
       <c r="D79" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="E79" t="s">
-        <v>644</v>
+        <v>660</v>
       </c>
       <c r="F79">
         <v>44</v>
@@ -6718,7 +6841,7 @@
         <v>3</v>
       </c>
       <c r="H79" t="s">
-        <v>914</v>
+        <v>938</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -6732,10 +6855,10 @@
         <v>92</v>
       </c>
       <c r="D80" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="E80" t="s">
-        <v>645</v>
+        <v>661</v>
       </c>
       <c r="F80">
         <v>44</v>
@@ -6744,7 +6867,7 @@
         <v>3</v>
       </c>
       <c r="H80" t="s">
-        <v>915</v>
+        <v>939</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -6755,13 +6878,13 @@
         <v>93</v>
       </c>
       <c r="D81" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="E81" t="s">
-        <v>646</v>
+        <v>662</v>
       </c>
       <c r="H81" t="s">
-        <v>916</v>
+        <v>940</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -6772,13 +6895,13 @@
         <v>94</v>
       </c>
       <c r="D82" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="E82" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="H82" t="s">
-        <v>916</v>
+        <v>940</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -6792,10 +6915,10 @@
         <v>95</v>
       </c>
       <c r="D83" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="E83" t="s">
-        <v>648</v>
+        <v>664</v>
       </c>
       <c r="F83">
         <v>13</v>
@@ -6804,7 +6927,7 @@
         <v>3</v>
       </c>
       <c r="H83" t="s">
-        <v>917</v>
+        <v>941</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -6818,10 +6941,10 @@
         <v>96</v>
       </c>
       <c r="D84" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="E84" t="s">
-        <v>649</v>
+        <v>665</v>
       </c>
       <c r="F84">
         <v>28</v>
@@ -6830,7 +6953,7 @@
         <v>3</v>
       </c>
       <c r="H84" t="s">
-        <v>918</v>
+        <v>942</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -6844,10 +6967,10 @@
         <v>97</v>
       </c>
       <c r="D85" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="E85" t="s">
-        <v>650</v>
+        <v>666</v>
       </c>
       <c r="F85">
         <v>20</v>
@@ -6856,7 +6979,7 @@
         <v>5</v>
       </c>
       <c r="H85" t="s">
-        <v>919</v>
+        <v>943</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -6870,10 +6993,10 @@
         <v>98</v>
       </c>
       <c r="D86" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="E86" t="s">
-        <v>651</v>
+        <v>667</v>
       </c>
       <c r="F86">
         <v>48</v>
@@ -6882,7 +7005,7 @@
         <v>3</v>
       </c>
       <c r="H86" t="s">
-        <v>920</v>
+        <v>944</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -6893,13 +7016,13 @@
         <v>99</v>
       </c>
       <c r="D87" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="E87" t="s">
-        <v>652</v>
+        <v>668</v>
       </c>
       <c r="H87" t="s">
-        <v>921</v>
+        <v>945</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -6910,13 +7033,13 @@
         <v>100</v>
       </c>
       <c r="D88" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="E88" t="s">
-        <v>653</v>
+        <v>669</v>
       </c>
       <c r="H88" t="s">
-        <v>921</v>
+        <v>945</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -6930,10 +7053,10 @@
         <v>101</v>
       </c>
       <c r="D89" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="E89" t="s">
-        <v>654</v>
+        <v>670</v>
       </c>
       <c r="F89">
         <v>12</v>
@@ -6942,7 +7065,7 @@
         <v>3</v>
       </c>
       <c r="H89" t="s">
-        <v>922</v>
+        <v>946</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -6956,10 +7079,10 @@
         <v>102</v>
       </c>
       <c r="D90" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="E90" t="s">
-        <v>655</v>
+        <v>671</v>
       </c>
       <c r="F90">
         <v>12</v>
@@ -6968,7 +7091,7 @@
         <v>3</v>
       </c>
       <c r="H90" t="s">
-        <v>923</v>
+        <v>947</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -6982,10 +7105,10 @@
         <v>103</v>
       </c>
       <c r="D91" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="E91" t="s">
-        <v>656</v>
+        <v>672</v>
       </c>
       <c r="F91">
         <v>12</v>
@@ -6994,7 +7117,7 @@
         <v>3</v>
       </c>
       <c r="H91" t="s">
-        <v>924</v>
+        <v>948</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -7008,10 +7131,10 @@
         <v>104</v>
       </c>
       <c r="D92" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="E92" t="s">
-        <v>657</v>
+        <v>673</v>
       </c>
       <c r="F92">
         <v>12</v>
@@ -7020,7 +7143,7 @@
         <v>3</v>
       </c>
       <c r="H92" t="s">
-        <v>925</v>
+        <v>949</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -7034,10 +7157,10 @@
         <v>105</v>
       </c>
       <c r="D93" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="E93" t="s">
-        <v>658</v>
+        <v>674</v>
       </c>
       <c r="F93">
         <v>64</v>
@@ -7046,7 +7169,7 @@
         <v>4</v>
       </c>
       <c r="H93" t="s">
-        <v>926</v>
+        <v>950</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -7060,10 +7183,10 @@
         <v>106</v>
       </c>
       <c r="D94" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="E94" t="s">
-        <v>659</v>
+        <v>675</v>
       </c>
       <c r="F94">
         <v>64</v>
@@ -7072,7 +7195,7 @@
         <v>4</v>
       </c>
       <c r="H94" t="s">
-        <v>927</v>
+        <v>951</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -7083,13 +7206,13 @@
         <v>107</v>
       </c>
       <c r="D95" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="E95" t="s">
-        <v>660</v>
+        <v>676</v>
       </c>
       <c r="H95" t="s">
-        <v>928</v>
+        <v>952</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -7100,13 +7223,13 @@
         <v>108</v>
       </c>
       <c r="D96" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="E96" t="s">
-        <v>661</v>
+        <v>677</v>
       </c>
       <c r="H96" t="s">
-        <v>928</v>
+        <v>952</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -7120,10 +7243,10 @@
         <v>109</v>
       </c>
       <c r="D97" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="E97" t="s">
-        <v>662</v>
+        <v>678</v>
       </c>
       <c r="F97">
         <v>31</v>
@@ -7132,7 +7255,7 @@
         <v>4</v>
       </c>
       <c r="H97" t="s">
-        <v>929</v>
+        <v>953</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -7146,10 +7269,10 @@
         <v>110</v>
       </c>
       <c r="D98" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="E98" t="s">
-        <v>663</v>
+        <v>679</v>
       </c>
       <c r="F98">
         <v>21</v>
@@ -7158,7 +7281,7 @@
         <v>4</v>
       </c>
       <c r="H98" t="s">
-        <v>930</v>
+        <v>954</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -7172,10 +7295,10 @@
         <v>111</v>
       </c>
       <c r="D99" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="E99" t="s">
-        <v>664</v>
+        <v>680</v>
       </c>
       <c r="F99">
         <v>21</v>
@@ -7184,7 +7307,7 @@
         <v>4</v>
       </c>
       <c r="H99" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -7198,10 +7321,10 @@
         <v>112</v>
       </c>
       <c r="D100" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="E100" t="s">
-        <v>665</v>
+        <v>681</v>
       </c>
       <c r="F100">
         <v>21</v>
@@ -7210,7 +7333,7 @@
         <v>4</v>
       </c>
       <c r="H100" t="s">
-        <v>932</v>
+        <v>956</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -7224,10 +7347,10 @@
         <v>113</v>
       </c>
       <c r="D101" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="E101" t="s">
-        <v>666</v>
+        <v>682</v>
       </c>
       <c r="F101">
         <v>21</v>
@@ -7236,7 +7359,7 @@
         <v>4</v>
       </c>
       <c r="H101" t="s">
-        <v>933</v>
+        <v>957</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -7250,13 +7373,13 @@
         <v>114</v>
       </c>
       <c r="D102" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="E102" t="s">
-        <v>667</v>
+        <v>683</v>
       </c>
       <c r="H102" t="s">
-        <v>934</v>
+        <v>958</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -7270,13 +7393,13 @@
         <v>115</v>
       </c>
       <c r="D103" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="E103" t="s">
-        <v>668</v>
+        <v>684</v>
       </c>
       <c r="H103" t="s">
-        <v>935</v>
+        <v>959</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -7290,13 +7413,13 @@
         <v>116</v>
       </c>
       <c r="D104" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="E104" t="s">
-        <v>669</v>
+        <v>685</v>
       </c>
       <c r="H104" t="s">
-        <v>936</v>
+        <v>960</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -7310,13 +7433,13 @@
         <v>117</v>
       </c>
       <c r="D105" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="E105" t="s">
-        <v>670</v>
+        <v>686</v>
       </c>
       <c r="H105" t="s">
-        <v>937</v>
+        <v>961</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -7330,13 +7453,13 @@
         <v>118</v>
       </c>
       <c r="D106" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="E106" t="s">
-        <v>671</v>
+        <v>687</v>
       </c>
       <c r="H106" t="s">
-        <v>938</v>
+        <v>962</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
@@ -7344,13 +7467,13 @@
         <v>119</v>
       </c>
       <c r="D107" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="E107" t="s">
-        <v>672</v>
+        <v>688</v>
       </c>
       <c r="H107" t="s">
-        <v>939</v>
+        <v>963</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
@@ -7361,13 +7484,13 @@
         <v>120</v>
       </c>
       <c r="D108" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E108" t="s">
-        <v>673</v>
+        <v>689</v>
       </c>
       <c r="H108" t="s">
-        <v>940</v>
+        <v>964</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
@@ -7375,10 +7498,10 @@
         <v>121</v>
       </c>
       <c r="D109" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="E109" t="s">
-        <v>674</v>
+        <v>690</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
@@ -7392,13 +7515,13 @@
         <v>122</v>
       </c>
       <c r="D110" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="E110" t="s">
-        <v>675</v>
+        <v>691</v>
       </c>
       <c r="H110" t="s">
-        <v>941</v>
+        <v>965</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
@@ -7409,10 +7532,10 @@
         <v>123</v>
       </c>
       <c r="D111" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="E111" t="s">
-        <v>676</v>
+        <v>692</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
@@ -7423,10 +7546,10 @@
         <v>124</v>
       </c>
       <c r="D112" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="E112" t="s">
-        <v>677</v>
+        <v>693</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -7440,13 +7563,13 @@
         <v>125</v>
       </c>
       <c r="D113" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="E113" t="s">
-        <v>678</v>
+        <v>694</v>
       </c>
       <c r="H113" t="s">
-        <v>942</v>
+        <v>966</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
@@ -7457,10 +7580,10 @@
         <v>126</v>
       </c>
       <c r="D114" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="E114" t="s">
-        <v>679</v>
+        <v>695</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
@@ -7471,10 +7594,10 @@
         <v>127</v>
       </c>
       <c r="D115" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="E115" t="s">
-        <v>680</v>
+        <v>696</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
@@ -7488,13 +7611,13 @@
         <v>128</v>
       </c>
       <c r="D116" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="E116" t="s">
-        <v>681</v>
+        <v>697</v>
       </c>
       <c r="H116" t="s">
-        <v>943</v>
+        <v>967</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
@@ -7505,10 +7628,10 @@
         <v>129</v>
       </c>
       <c r="D117" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="E117" t="s">
-        <v>682</v>
+        <v>698</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
@@ -7519,10 +7642,10 @@
         <v>130</v>
       </c>
       <c r="D118" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="E118" t="s">
-        <v>683</v>
+        <v>699</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
@@ -7536,13 +7659,13 @@
         <v>131</v>
       </c>
       <c r="D119" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="E119" t="s">
-        <v>684</v>
+        <v>700</v>
       </c>
       <c r="H119" t="s">
-        <v>944</v>
+        <v>968</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
@@ -7553,10 +7676,10 @@
         <v>132</v>
       </c>
       <c r="D120" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="E120" t="s">
-        <v>685</v>
+        <v>701</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
@@ -7567,10 +7690,10 @@
         <v>133</v>
       </c>
       <c r="D121" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="E121" t="s">
-        <v>686</v>
+        <v>702</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -7584,13 +7707,13 @@
         <v>134</v>
       </c>
       <c r="D122" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="E122" t="s">
-        <v>687</v>
+        <v>703</v>
       </c>
       <c r="H122" t="s">
-        <v>945</v>
+        <v>969</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
@@ -7604,13 +7727,13 @@
         <v>135</v>
       </c>
       <c r="D123" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="E123" t="s">
-        <v>688</v>
+        <v>704</v>
       </c>
       <c r="H123" t="s">
-        <v>946</v>
+        <v>970</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
@@ -7624,13 +7747,13 @@
         <v>136</v>
       </c>
       <c r="D124" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="E124" t="s">
-        <v>689</v>
+        <v>705</v>
       </c>
       <c r="H124" t="s">
-        <v>947</v>
+        <v>971</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
@@ -7641,10 +7764,10 @@
         <v>137</v>
       </c>
       <c r="D125" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="E125" t="s">
-        <v>690</v>
+        <v>706</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
@@ -7655,10 +7778,10 @@
         <v>138</v>
       </c>
       <c r="D126" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="E126" t="s">
-        <v>691</v>
+        <v>707</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
@@ -7672,13 +7795,13 @@
         <v>139</v>
       </c>
       <c r="D127" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="E127" t="s">
-        <v>692</v>
+        <v>708</v>
       </c>
       <c r="H127" t="s">
-        <v>948</v>
+        <v>972</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
@@ -7689,10 +7812,10 @@
         <v>140</v>
       </c>
       <c r="D128" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="E128" t="s">
-        <v>693</v>
+        <v>709</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
@@ -7703,10 +7826,10 @@
         <v>141</v>
       </c>
       <c r="D129" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="E129" t="s">
-        <v>694</v>
+        <v>710</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
@@ -7720,13 +7843,13 @@
         <v>142</v>
       </c>
       <c r="D130" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="E130" t="s">
-        <v>695</v>
+        <v>711</v>
       </c>
       <c r="H130" t="s">
-        <v>949</v>
+        <v>973</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
@@ -7740,13 +7863,13 @@
         <v>143</v>
       </c>
       <c r="D131" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="E131" t="s">
-        <v>696</v>
+        <v>712</v>
       </c>
       <c r="H131" t="s">
-        <v>950</v>
+        <v>974</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
@@ -7757,10 +7880,10 @@
         <v>144</v>
       </c>
       <c r="D132" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="E132" t="s">
-        <v>697</v>
+        <v>713</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
@@ -7771,10 +7894,10 @@
         <v>145</v>
       </c>
       <c r="D133" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="E133" t="s">
-        <v>698</v>
+        <v>714</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
@@ -7788,13 +7911,13 @@
         <v>146</v>
       </c>
       <c r="D134" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="E134" t="s">
-        <v>699</v>
+        <v>715</v>
       </c>
       <c r="H134" t="s">
-        <v>951</v>
+        <v>975</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
@@ -7808,13 +7931,13 @@
         <v>147</v>
       </c>
       <c r="D135" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="E135" t="s">
-        <v>700</v>
+        <v>716</v>
       </c>
       <c r="H135" t="s">
-        <v>952</v>
+        <v>976</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
@@ -7828,13 +7951,13 @@
         <v>148</v>
       </c>
       <c r="D136" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="E136" t="s">
-        <v>701</v>
+        <v>717</v>
       </c>
       <c r="H136" t="s">
-        <v>953</v>
+        <v>977</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
@@ -7845,10 +7968,10 @@
         <v>149</v>
       </c>
       <c r="D137" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="E137" t="s">
-        <v>702</v>
+        <v>718</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
@@ -7859,10 +7982,10 @@
         <v>150</v>
       </c>
       <c r="D138" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="E138" t="s">
-        <v>703</v>
+        <v>719</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
@@ -7876,13 +7999,13 @@
         <v>151</v>
       </c>
       <c r="D139" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="E139" t="s">
-        <v>704</v>
+        <v>720</v>
       </c>
       <c r="H139" t="s">
-        <v>954</v>
+        <v>978</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
@@ -7896,13 +8019,13 @@
         <v>152</v>
       </c>
       <c r="D140" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="E140" t="s">
-        <v>705</v>
+        <v>721</v>
       </c>
       <c r="H140" t="s">
-        <v>955</v>
+        <v>979</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
@@ -7913,10 +8036,10 @@
         <v>153</v>
       </c>
       <c r="D141" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="E141" t="s">
-        <v>706</v>
+        <v>722</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
@@ -7927,10 +8050,10 @@
         <v>154</v>
       </c>
       <c r="D142" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="E142" t="s">
-        <v>707</v>
+        <v>723</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
@@ -7944,13 +8067,13 @@
         <v>155</v>
       </c>
       <c r="D143" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="E143" t="s">
-        <v>708</v>
+        <v>724</v>
       </c>
       <c r="H143" t="s">
-        <v>956</v>
+        <v>980</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
@@ -7964,13 +8087,13 @@
         <v>156</v>
       </c>
       <c r="D144" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="E144" t="s">
-        <v>709</v>
+        <v>725</v>
       </c>
       <c r="H144" t="s">
-        <v>957</v>
+        <v>981</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
@@ -7984,13 +8107,13 @@
         <v>157</v>
       </c>
       <c r="D145" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="E145" t="s">
-        <v>710</v>
+        <v>726</v>
       </c>
       <c r="H145" t="s">
-        <v>958</v>
+        <v>982</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
@@ -8004,13 +8127,13 @@
         <v>158</v>
       </c>
       <c r="D146" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="E146" t="s">
-        <v>711</v>
+        <v>727</v>
       </c>
       <c r="H146" t="s">
-        <v>959</v>
+        <v>983</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
@@ -8024,13 +8147,13 @@
         <v>159</v>
       </c>
       <c r="D147" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="E147" t="s">
-        <v>712</v>
+        <v>728</v>
       </c>
       <c r="H147" t="s">
-        <v>960</v>
+        <v>984</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
@@ -8041,13 +8164,13 @@
         <v>160</v>
       </c>
       <c r="D148" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="E148" t="s">
-        <v>713</v>
+        <v>729</v>
       </c>
       <c r="H148" t="s">
-        <v>961</v>
+        <v>985</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
@@ -8058,10 +8181,10 @@
         <v>161</v>
       </c>
       <c r="D149" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="E149" t="s">
-        <v>714</v>
+        <v>730</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
@@ -8072,10 +8195,10 @@
         <v>162</v>
       </c>
       <c r="D150" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="E150" t="s">
-        <v>715</v>
+        <v>731</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
@@ -8086,10 +8209,10 @@
         <v>163</v>
       </c>
       <c r="D151" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="E151" t="s">
-        <v>716</v>
+        <v>732</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
@@ -8103,13 +8226,13 @@
         <v>164</v>
       </c>
       <c r="D152" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="E152" t="s">
-        <v>717</v>
+        <v>733</v>
       </c>
       <c r="H152" t="s">
-        <v>962</v>
+        <v>986</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
@@ -8123,13 +8246,13 @@
         <v>165</v>
       </c>
       <c r="D153" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="E153" t="s">
-        <v>718</v>
+        <v>734</v>
       </c>
       <c r="H153" t="s">
-        <v>963</v>
+        <v>987</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
@@ -8140,13 +8263,13 @@
         <v>166</v>
       </c>
       <c r="D154" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="E154" t="s">
-        <v>719</v>
+        <v>735</v>
       </c>
       <c r="H154" t="s">
-        <v>964</v>
+        <v>988</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
@@ -8157,10 +8280,10 @@
         <v>167</v>
       </c>
       <c r="D155" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="E155" t="s">
-        <v>720</v>
+        <v>736</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
@@ -8171,10 +8294,10 @@
         <v>168</v>
       </c>
       <c r="D156" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="E156" t="s">
-        <v>721</v>
+        <v>737</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
@@ -8188,10 +8311,10 @@
         <v>169</v>
       </c>
       <c r="D157" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="E157" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="F157">
         <v>4</v>
@@ -8200,7 +8323,7 @@
         <v>4</v>
       </c>
       <c r="H157" t="s">
-        <v>965</v>
+        <v>989</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
@@ -8214,10 +8337,10 @@
         <v>170</v>
       </c>
       <c r="D158" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="E158" t="s">
-        <v>723</v>
+        <v>739</v>
       </c>
       <c r="F158">
         <v>4</v>
@@ -8226,7 +8349,7 @@
         <v>4</v>
       </c>
       <c r="H158" t="s">
-        <v>966</v>
+        <v>990</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
@@ -8240,10 +8363,10 @@
         <v>171</v>
       </c>
       <c r="D159" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="E159" t="s">
-        <v>724</v>
+        <v>740</v>
       </c>
       <c r="F159">
         <v>46</v>
@@ -8252,7 +8375,7 @@
         <v>2</v>
       </c>
       <c r="H159" t="s">
-        <v>967</v>
+        <v>991</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
@@ -8266,10 +8389,10 @@
         <v>172</v>
       </c>
       <c r="D160" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="E160" t="s">
-        <v>725</v>
+        <v>741</v>
       </c>
       <c r="F160">
         <v>46</v>
@@ -8278,7 +8401,7 @@
         <v>2</v>
       </c>
       <c r="H160" t="s">
-        <v>968</v>
+        <v>992</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
@@ -8289,10 +8412,10 @@
         <v>173</v>
       </c>
       <c r="D161" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="E161" t="s">
-        <v>726</v>
+        <v>742</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
@@ -8303,10 +8426,10 @@
         <v>174</v>
       </c>
       <c r="D162" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="E162" t="s">
-        <v>727</v>
+        <v>743</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
@@ -8320,10 +8443,10 @@
         <v>175</v>
       </c>
       <c r="D163" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="E163" t="s">
-        <v>728</v>
+        <v>744</v>
       </c>
       <c r="F163">
         <v>27</v>
@@ -8332,7 +8455,7 @@
         <v>6</v>
       </c>
       <c r="H163" t="s">
-        <v>969</v>
+        <v>993</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
@@ -8346,10 +8469,10 @@
         <v>176</v>
       </c>
       <c r="D164" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="E164" t="s">
-        <v>729</v>
+        <v>745</v>
       </c>
       <c r="F164">
         <v>27</v>
@@ -8358,7 +8481,7 @@
         <v>6</v>
       </c>
       <c r="H164" t="s">
-        <v>970</v>
+        <v>994</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
@@ -8372,10 +8495,10 @@
         <v>177</v>
       </c>
       <c r="D165" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="E165" t="s">
-        <v>730</v>
+        <v>746</v>
       </c>
       <c r="F165">
         <v>58</v>
@@ -8384,7 +8507,7 @@
         <v>2</v>
       </c>
       <c r="H165" t="s">
-        <v>971</v>
+        <v>995</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
@@ -8398,10 +8521,10 @@
         <v>178</v>
       </c>
       <c r="D166" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="E166" t="s">
-        <v>731</v>
+        <v>747</v>
       </c>
       <c r="F166">
         <v>58</v>
@@ -8410,7 +8533,7 @@
         <v>2</v>
       </c>
       <c r="H166" t="s">
-        <v>972</v>
+        <v>996</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
@@ -8421,10 +8544,10 @@
         <v>179</v>
       </c>
       <c r="D167" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="E167" t="s">
-        <v>732</v>
+        <v>748</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
@@ -8435,10 +8558,10 @@
         <v>180</v>
       </c>
       <c r="D168" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="E168" t="s">
-        <v>733</v>
+        <v>749</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
@@ -8452,10 +8575,10 @@
         <v>181</v>
       </c>
       <c r="D169" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="E169" t="s">
-        <v>734</v>
+        <v>750</v>
       </c>
       <c r="F169">
         <v>1</v>
@@ -8464,7 +8587,7 @@
         <v>5</v>
       </c>
       <c r="H169" t="s">
-        <v>973</v>
+        <v>997</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
@@ -8478,10 +8601,10 @@
         <v>182</v>
       </c>
       <c r="D170" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="E170" t="s">
-        <v>735</v>
+        <v>751</v>
       </c>
       <c r="F170">
         <v>1</v>
@@ -8490,7 +8613,7 @@
         <v>5</v>
       </c>
       <c r="H170" t="s">
-        <v>974</v>
+        <v>998</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
@@ -8504,10 +8627,10 @@
         <v>183</v>
       </c>
       <c r="D171" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="E171" t="s">
-        <v>736</v>
+        <v>752</v>
       </c>
       <c r="F171">
         <v>53</v>
@@ -8516,7 +8639,7 @@
         <v>3</v>
       </c>
       <c r="H171" t="s">
-        <v>975</v>
+        <v>999</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
@@ -8530,10 +8653,10 @@
         <v>184</v>
       </c>
       <c r="D172" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="E172" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="F172">
         <v>53</v>
@@ -8542,7 +8665,7 @@
         <v>3</v>
       </c>
       <c r="H172" t="s">
-        <v>976</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
@@ -8556,10 +8679,10 @@
         <v>185</v>
       </c>
       <c r="D173" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="E173" t="s">
-        <v>738</v>
+        <v>754</v>
       </c>
       <c r="F173">
         <v>37</v>
@@ -8568,7 +8691,7 @@
         <v>2</v>
       </c>
       <c r="H173" t="s">
-        <v>977</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
@@ -8582,10 +8705,10 @@
         <v>186</v>
       </c>
       <c r="D174" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="E174" t="s">
-        <v>739</v>
+        <v>755</v>
       </c>
       <c r="F174">
         <v>37</v>
@@ -8594,7 +8717,7 @@
         <v>2</v>
       </c>
       <c r="H174" t="s">
-        <v>978</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
@@ -8605,10 +8728,10 @@
         <v>187</v>
       </c>
       <c r="D175" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="E175" t="s">
-        <v>740</v>
+        <v>756</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
@@ -8619,10 +8742,10 @@
         <v>188</v>
       </c>
       <c r="D176" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="E176" t="s">
-        <v>741</v>
+        <v>757</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
@@ -8636,10 +8759,10 @@
         <v>189</v>
       </c>
       <c r="D177" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="E177" t="s">
-        <v>742</v>
+        <v>758</v>
       </c>
       <c r="F177">
         <v>8</v>
@@ -8648,7 +8771,7 @@
         <v>3</v>
       </c>
       <c r="H177" t="s">
-        <v>979</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
@@ -8662,10 +8785,10 @@
         <v>190</v>
       </c>
       <c r="D178" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="E178" t="s">
-        <v>743</v>
+        <v>759</v>
       </c>
       <c r="F178">
         <v>8</v>
@@ -8674,7 +8797,7 @@
         <v>3</v>
       </c>
       <c r="H178" t="s">
-        <v>980</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
@@ -8688,10 +8811,10 @@
         <v>191</v>
       </c>
       <c r="D179" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="E179" t="s">
-        <v>744</v>
+        <v>760</v>
       </c>
       <c r="F179">
         <v>50</v>
@@ -8700,7 +8823,7 @@
         <v>3</v>
       </c>
       <c r="H179" t="s">
-        <v>981</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
@@ -8714,10 +8837,10 @@
         <v>192</v>
       </c>
       <c r="D180" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="E180" t="s">
-        <v>745</v>
+        <v>761</v>
       </c>
       <c r="F180">
         <v>50</v>
@@ -8726,7 +8849,7 @@
         <v>3</v>
       </c>
       <c r="H180" t="s">
-        <v>982</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
@@ -8737,13 +8860,13 @@
         <v>193</v>
       </c>
       <c r="D181" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="E181" t="s">
-        <v>746</v>
+        <v>762</v>
       </c>
       <c r="H181" t="s">
-        <v>983</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
@@ -8754,10 +8877,10 @@
         <v>194</v>
       </c>
       <c r="D182" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="E182" t="s">
-        <v>747</v>
+        <v>763</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
@@ -8771,10 +8894,10 @@
         <v>195</v>
       </c>
       <c r="D183" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="E183" t="s">
-        <v>748</v>
+        <v>764</v>
       </c>
       <c r="F183">
         <v>62</v>
@@ -8783,7 +8906,7 @@
         <v>3</v>
       </c>
       <c r="H183" t="s">
-        <v>984</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
@@ -8797,10 +8920,10 @@
         <v>196</v>
       </c>
       <c r="D184" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="E184" t="s">
-        <v>749</v>
+        <v>765</v>
       </c>
       <c r="F184">
         <v>62</v>
@@ -8809,7 +8932,7 @@
         <v>3</v>
       </c>
       <c r="H184" t="s">
-        <v>985</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
@@ -8823,10 +8946,10 @@
         <v>197</v>
       </c>
       <c r="D185" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="E185" t="s">
-        <v>750</v>
+        <v>766</v>
       </c>
       <c r="F185">
         <v>48</v>
@@ -8835,7 +8958,7 @@
         <v>2</v>
       </c>
       <c r="H185" t="s">
-        <v>986</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
@@ -8849,10 +8972,10 @@
         <v>198</v>
       </c>
       <c r="D186" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="E186" t="s">
-        <v>751</v>
+        <v>767</v>
       </c>
       <c r="F186">
         <v>48</v>
@@ -8861,7 +8984,7 @@
         <v>2</v>
       </c>
       <c r="H186" t="s">
-        <v>987</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
@@ -8875,10 +8998,10 @@
         <v>199</v>
       </c>
       <c r="D187" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="E187" t="s">
-        <v>752</v>
+        <v>768</v>
       </c>
       <c r="F187">
         <v>45</v>
@@ -8887,7 +9010,7 @@
         <v>2</v>
       </c>
       <c r="H187" t="s">
-        <v>988</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
@@ -8901,10 +9024,10 @@
         <v>200</v>
       </c>
       <c r="D188" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="E188" t="s">
-        <v>753</v>
+        <v>769</v>
       </c>
       <c r="F188">
         <v>45</v>
@@ -8913,7 +9036,7 @@
         <v>2</v>
       </c>
       <c r="H188" t="s">
-        <v>989</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
@@ -8924,10 +9047,10 @@
         <v>201</v>
       </c>
       <c r="D189" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="E189" t="s">
-        <v>754</v>
+        <v>770</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
@@ -8941,10 +9064,10 @@
         <v>202</v>
       </c>
       <c r="D190" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="E190" t="s">
-        <v>755</v>
+        <v>771</v>
       </c>
       <c r="F190">
         <v>2</v>
@@ -8953,7 +9076,7 @@
         <v>3</v>
       </c>
       <c r="H190" t="s">
-        <v>990</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
@@ -8967,10 +9090,10 @@
         <v>203</v>
       </c>
       <c r="D191" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="E191" t="s">
-        <v>756</v>
+        <v>772</v>
       </c>
       <c r="F191">
         <v>2</v>
@@ -8979,7 +9102,7 @@
         <v>3</v>
       </c>
       <c r="H191" t="s">
-        <v>991</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
@@ -8993,10 +9116,10 @@
         <v>204</v>
       </c>
       <c r="D192" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="E192" t="s">
-        <v>757</v>
+        <v>773</v>
       </c>
       <c r="F192">
         <v>19</v>
@@ -9005,7 +9128,7 @@
         <v>6</v>
       </c>
       <c r="H192" t="s">
-        <v>992</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
@@ -9013,10 +9136,10 @@
         <v>205</v>
       </c>
       <c r="D193" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="E193" t="s">
-        <v>758</v>
+        <v>774</v>
       </c>
       <c r="F193">
         <v>19</v>
@@ -9036,10 +9159,10 @@
         <v>206</v>
       </c>
       <c r="D194" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="E194" t="s">
-        <v>759</v>
+        <v>775</v>
       </c>
       <c r="F194">
         <v>19</v>
@@ -9048,7 +9171,7 @@
         <v>6</v>
       </c>
       <c r="H194" t="s">
-        <v>993</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
@@ -9059,10 +9182,10 @@
         <v>207</v>
       </c>
       <c r="D195" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="E195" t="s">
-        <v>760</v>
+        <v>776</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
@@ -9076,10 +9199,10 @@
         <v>208</v>
       </c>
       <c r="D196" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="E196" t="s">
-        <v>761</v>
+        <v>777</v>
       </c>
       <c r="F196">
         <v>5</v>
@@ -9088,7 +9211,7 @@
         <v>3</v>
       </c>
       <c r="H196" t="s">
-        <v>994</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
@@ -9102,10 +9225,10 @@
         <v>209</v>
       </c>
       <c r="D197" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="E197" t="s">
-        <v>762</v>
+        <v>778</v>
       </c>
       <c r="F197">
         <v>5</v>
@@ -9114,7 +9237,7 @@
         <v>3</v>
       </c>
       <c r="H197" t="s">
-        <v>995</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
@@ -9128,10 +9251,10 @@
         <v>210</v>
       </c>
       <c r="D198" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="E198" t="s">
-        <v>763</v>
+        <v>779</v>
       </c>
       <c r="F198">
         <v>15</v>
@@ -9140,7 +9263,7 @@
         <v>3</v>
       </c>
       <c r="H198" t="s">
-        <v>996</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
@@ -9154,10 +9277,10 @@
         <v>211</v>
       </c>
       <c r="D199" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="E199" t="s">
-        <v>764</v>
+        <v>780</v>
       </c>
       <c r="F199">
         <v>15</v>
@@ -9166,7 +9289,7 @@
         <v>3</v>
       </c>
       <c r="H199" t="s">
-        <v>997</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
@@ -9177,10 +9300,10 @@
         <v>212</v>
       </c>
       <c r="D200" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="E200" t="s">
-        <v>765</v>
+        <v>781</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
@@ -9194,10 +9317,10 @@
         <v>213</v>
       </c>
       <c r="D201" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="E201" t="s">
-        <v>766</v>
+        <v>782</v>
       </c>
       <c r="F201">
         <v>30</v>
@@ -9206,7 +9329,7 @@
         <v>4</v>
       </c>
       <c r="H201" t="s">
-        <v>998</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
@@ -9220,10 +9343,10 @@
         <v>214</v>
       </c>
       <c r="D202" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="E202" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
       <c r="F202">
         <v>30</v>
@@ -9232,7 +9355,7 @@
         <v>4</v>
       </c>
       <c r="H202" t="s">
-        <v>999</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
@@ -9246,10 +9369,10 @@
         <v>215</v>
       </c>
       <c r="D203" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="E203" t="s">
-        <v>768</v>
+        <v>784</v>
       </c>
       <c r="F203">
         <v>16</v>
@@ -9258,7 +9381,7 @@
         <v>3</v>
       </c>
       <c r="H203" t="s">
-        <v>1000</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
@@ -9272,10 +9395,10 @@
         <v>216</v>
       </c>
       <c r="D204" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="E204" t="s">
-        <v>769</v>
+        <v>785</v>
       </c>
       <c r="F204">
         <v>16</v>
@@ -9284,7 +9407,7 @@
         <v>3</v>
       </c>
       <c r="H204" t="s">
-        <v>1001</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
@@ -9298,10 +9421,10 @@
         <v>217</v>
       </c>
       <c r="D205" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="E205" t="s">
-        <v>770</v>
+        <v>786</v>
       </c>
       <c r="F205">
         <v>52</v>
@@ -9310,7 +9433,7 @@
         <v>4</v>
       </c>
       <c r="H205" t="s">
-        <v>1002</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
@@ -9324,10 +9447,10 @@
         <v>218</v>
       </c>
       <c r="D206" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="E206" t="s">
-        <v>771</v>
+        <v>787</v>
       </c>
       <c r="F206">
         <v>52</v>
@@ -9336,7 +9459,7 @@
         <v>4</v>
       </c>
       <c r="H206" t="s">
-        <v>1003</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
@@ -9347,10 +9470,10 @@
         <v>219</v>
       </c>
       <c r="D207" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="E207" t="s">
-        <v>772</v>
+        <v>788</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
@@ -9364,10 +9487,10 @@
         <v>220</v>
       </c>
       <c r="D208" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="E208" t="s">
-        <v>773</v>
+        <v>789</v>
       </c>
       <c r="F208">
         <v>54</v>
@@ -9376,7 +9499,7 @@
         <v>3</v>
       </c>
       <c r="H208" t="s">
-        <v>1004</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
@@ -9390,10 +9513,10 @@
         <v>221</v>
       </c>
       <c r="D209" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="E209" t="s">
-        <v>774</v>
+        <v>790</v>
       </c>
       <c r="F209">
         <v>54</v>
@@ -9402,7 +9525,7 @@
         <v>3</v>
       </c>
       <c r="H209" t="s">
-        <v>1005</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
@@ -9416,10 +9539,10 @@
         <v>222</v>
       </c>
       <c r="D210" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="E210" t="s">
-        <v>775</v>
+        <v>791</v>
       </c>
       <c r="F210">
         <v>57</v>
@@ -9428,7 +9551,7 @@
         <v>2</v>
       </c>
       <c r="H210" t="s">
-        <v>1006</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
@@ -9442,10 +9565,10 @@
         <v>223</v>
       </c>
       <c r="D211" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="E211" t="s">
-        <v>776</v>
+        <v>792</v>
       </c>
       <c r="F211">
         <v>57</v>
@@ -9454,7 +9577,7 @@
         <v>2</v>
       </c>
       <c r="H211" t="s">
-        <v>1007</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
@@ -9468,10 +9591,10 @@
         <v>224</v>
       </c>
       <c r="D212" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="E212" t="s">
-        <v>777</v>
+        <v>793</v>
       </c>
       <c r="F212">
         <v>22</v>
@@ -9480,7 +9603,7 @@
         <v>3</v>
       </c>
       <c r="H212" t="s">
-        <v>1008</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
@@ -9494,10 +9617,10 @@
         <v>225</v>
       </c>
       <c r="D213" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="E213" t="s">
-        <v>778</v>
+        <v>794</v>
       </c>
       <c r="F213">
         <v>22</v>
@@ -9506,7 +9629,7 @@
         <v>3</v>
       </c>
       <c r="H213" t="s">
-        <v>1009</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
@@ -9517,10 +9640,10 @@
         <v>226</v>
       </c>
       <c r="D214" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="E214" t="s">
-        <v>779</v>
+        <v>795</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
@@ -9531,13 +9654,13 @@
         <v>227</v>
       </c>
       <c r="D215" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="E215" t="s">
-        <v>780</v>
+        <v>796</v>
       </c>
       <c r="H215" t="s">
-        <v>1010</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
@@ -9548,13 +9671,13 @@
         <v>228</v>
       </c>
       <c r="D216" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="E216" t="s">
-        <v>781</v>
+        <v>797</v>
       </c>
       <c r="H216" t="s">
-        <v>1011</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
@@ -9565,13 +9688,13 @@
         <v>229</v>
       </c>
       <c r="D217" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="E217" t="s">
-        <v>782</v>
+        <v>798</v>
       </c>
       <c r="H217" t="s">
-        <v>1012</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
@@ -9582,13 +9705,13 @@
         <v>230</v>
       </c>
       <c r="D218" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="E218" t="s">
-        <v>783</v>
+        <v>799</v>
       </c>
       <c r="H218" t="s">
-        <v>1012</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
@@ -9602,10 +9725,10 @@
         <v>231</v>
       </c>
       <c r="D219" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="E219" t="s">
-        <v>784</v>
+        <v>800</v>
       </c>
       <c r="F219">
         <v>30</v>
@@ -9614,7 +9737,7 @@
         <v>3</v>
       </c>
       <c r="H219" t="s">
-        <v>1013</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
@@ -9628,10 +9751,10 @@
         <v>232</v>
       </c>
       <c r="D220" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="E220" t="s">
-        <v>785</v>
+        <v>801</v>
       </c>
       <c r="F220">
         <v>30</v>
@@ -9640,7 +9763,7 @@
         <v>3</v>
       </c>
       <c r="H220" t="s">
-        <v>1014</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
@@ -9654,10 +9777,10 @@
         <v>233</v>
       </c>
       <c r="D221" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="E221" t="s">
-        <v>786</v>
+        <v>802</v>
       </c>
       <c r="F221">
         <v>58</v>
@@ -9666,7 +9789,7 @@
         <v>4</v>
       </c>
       <c r="H221" t="s">
-        <v>1015</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
@@ -9680,10 +9803,10 @@
         <v>234</v>
       </c>
       <c r="D222" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="E222" t="s">
-        <v>787</v>
+        <v>803</v>
       </c>
       <c r="F222">
         <v>58</v>
@@ -9692,7 +9815,7 @@
         <v>4</v>
       </c>
       <c r="H222" t="s">
-        <v>1016</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
@@ -9706,10 +9829,10 @@
         <v>235</v>
       </c>
       <c r="D223" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="E223" t="s">
-        <v>788</v>
+        <v>804</v>
       </c>
       <c r="F223">
         <v>34</v>
@@ -9718,7 +9841,7 @@
         <v>3</v>
       </c>
       <c r="H223" t="s">
-        <v>1017</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
@@ -9729,13 +9852,13 @@
         <v>236</v>
       </c>
       <c r="D224" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="E224" t="s">
-        <v>789</v>
+        <v>805</v>
       </c>
       <c r="H224" t="s">
-        <v>1018</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
@@ -9746,13 +9869,13 @@
         <v>237</v>
       </c>
       <c r="D225" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="E225" t="s">
-        <v>790</v>
+        <v>806</v>
       </c>
       <c r="H225" t="s">
-        <v>1018</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
@@ -9766,13 +9889,13 @@
         <v>238</v>
       </c>
       <c r="D226" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="E226" t="s">
-        <v>791</v>
+        <v>807</v>
       </c>
       <c r="H226" t="s">
-        <v>1019</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
@@ -9786,13 +9909,13 @@
         <v>239</v>
       </c>
       <c r="D227" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="E227" t="s">
-        <v>792</v>
+        <v>808</v>
       </c>
       <c r="H227" t="s">
-        <v>1020</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
@@ -9806,13 +9929,13 @@
         <v>240</v>
       </c>
       <c r="D228" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="E228" t="s">
-        <v>793</v>
+        <v>809</v>
       </c>
       <c r="H228" t="s">
-        <v>1021</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
@@ -9823,13 +9946,13 @@
         <v>241</v>
       </c>
       <c r="D229" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="E229" t="s">
-        <v>794</v>
+        <v>810</v>
       </c>
       <c r="H229" t="s">
-        <v>1022</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
@@ -9840,13 +9963,13 @@
         <v>242</v>
       </c>
       <c r="D230" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="E230" t="s">
-        <v>795</v>
+        <v>811</v>
       </c>
       <c r="H230" t="s">
-        <v>1022</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
@@ -9857,13 +9980,13 @@
         <v>243</v>
       </c>
       <c r="D231" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="E231" t="s">
-        <v>796</v>
+        <v>812</v>
       </c>
       <c r="H231" t="s">
-        <v>1022</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
@@ -9877,13 +10000,13 @@
         <v>244</v>
       </c>
       <c r="D232" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="E232" t="s">
-        <v>797</v>
+        <v>813</v>
       </c>
       <c r="H232" t="s">
-        <v>1023</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
@@ -9897,13 +10020,13 @@
         <v>245</v>
       </c>
       <c r="D233" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="E233" t="s">
-        <v>798</v>
+        <v>814</v>
       </c>
       <c r="H233" t="s">
-        <v>1024</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
@@ -9917,13 +10040,13 @@
         <v>246</v>
       </c>
       <c r="D234" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="E234" t="s">
-        <v>799</v>
+        <v>815</v>
       </c>
       <c r="H234" t="s">
-        <v>1025</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
@@ -9937,13 +10060,13 @@
         <v>247</v>
       </c>
       <c r="D235" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="E235" t="s">
-        <v>800</v>
+        <v>816</v>
       </c>
       <c r="H235" t="s">
-        <v>1026</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
@@ -9954,10 +10077,10 @@
         <v>248</v>
       </c>
       <c r="D236" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="E236" t="s">
-        <v>801</v>
+        <v>817</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
@@ -9968,10 +10091,10 @@
         <v>249</v>
       </c>
       <c r="D237" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="E237" t="s">
-        <v>802</v>
+        <v>818</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
@@ -9982,10 +10105,10 @@
         <v>250</v>
       </c>
       <c r="D238" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="E238" t="s">
-        <v>803</v>
+        <v>819</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
@@ -9996,10 +10119,10 @@
         <v>251</v>
       </c>
       <c r="D239" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="E239" t="s">
-        <v>804</v>
+        <v>820</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
@@ -10010,13 +10133,13 @@
         <v>252</v>
       </c>
       <c r="D240" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="E240" t="s">
-        <v>805</v>
+        <v>821</v>
       </c>
       <c r="H240" t="s">
-        <v>1027</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
@@ -10030,10 +10153,10 @@
         <v>253</v>
       </c>
       <c r="D241" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="E241" t="s">
-        <v>806</v>
+        <v>822</v>
       </c>
       <c r="F241">
         <v>8</v>
@@ -10042,7 +10165,7 @@
         <v>4</v>
       </c>
       <c r="H241" t="s">
-        <v>1028</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
@@ -10056,10 +10179,10 @@
         <v>254</v>
       </c>
       <c r="D242" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="E242" t="s">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="F242">
         <v>37</v>
@@ -10068,7 +10191,7 @@
         <v>3</v>
       </c>
       <c r="H242" t="s">
-        <v>1029</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
@@ -10082,10 +10205,10 @@
         <v>255</v>
       </c>
       <c r="D243" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="E243" t="s">
-        <v>808</v>
+        <v>824</v>
       </c>
       <c r="F243">
         <v>64</v>
@@ -10094,7 +10217,7 @@
         <v>3</v>
       </c>
       <c r="H243" t="s">
-        <v>1030</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
@@ -10105,10 +10228,10 @@
         <v>256</v>
       </c>
       <c r="D244" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="E244" t="s">
-        <v>809</v>
+        <v>825</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
@@ -10122,10 +10245,10 @@
         <v>257</v>
       </c>
       <c r="D245" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="E245" t="s">
-        <v>810</v>
+        <v>826</v>
       </c>
       <c r="F245">
         <v>44</v>
@@ -10134,7 +10257,7 @@
         <v>3</v>
       </c>
       <c r="H245" t="s">
-        <v>1031</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
@@ -10148,10 +10271,10 @@
         <v>258</v>
       </c>
       <c r="D246" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="E246" t="s">
-        <v>811</v>
+        <v>827</v>
       </c>
       <c r="F246">
         <v>45</v>
@@ -10160,7 +10283,7 @@
         <v>3</v>
       </c>
       <c r="H246" t="s">
-        <v>1032</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
@@ -10174,10 +10297,10 @@
         <v>259</v>
       </c>
       <c r="D247" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="E247" t="s">
-        <v>812</v>
+        <v>828</v>
       </c>
       <c r="F247">
         <v>59</v>
@@ -10186,7 +10309,7 @@
         <v>3</v>
       </c>
       <c r="H247" t="s">
-        <v>1033</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
@@ -10197,10 +10320,10 @@
         <v>260</v>
       </c>
       <c r="D248" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="E248" t="s">
-        <v>813</v>
+        <v>829</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
@@ -10211,10 +10334,10 @@
         <v>261</v>
       </c>
       <c r="D249" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="E249" t="s">
-        <v>814</v>
+        <v>830</v>
       </c>
       <c r="F249">
         <v>3</v>
@@ -10223,7 +10346,7 @@
         <v>4</v>
       </c>
       <c r="H249" t="s">
-        <v>1034</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
@@ -10234,10 +10357,10 @@
         <v>262</v>
       </c>
       <c r="D250" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="E250" t="s">
-        <v>815</v>
+        <v>831</v>
       </c>
       <c r="F250">
         <v>3</v>
@@ -10246,7 +10369,7 @@
         <v>4</v>
       </c>
       <c r="H250" t="s">
-        <v>1035</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
@@ -10260,10 +10383,10 @@
         <v>263</v>
       </c>
       <c r="D251" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="E251" t="s">
-        <v>816</v>
+        <v>832</v>
       </c>
       <c r="F251">
         <v>3</v>
@@ -10272,7 +10395,7 @@
         <v>4</v>
       </c>
       <c r="H251" t="s">
-        <v>1036</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
@@ -10283,10 +10406,10 @@
         <v>264</v>
       </c>
       <c r="D252" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="E252" t="s">
-        <v>817</v>
+        <v>833</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
@@ -10300,10 +10423,10 @@
         <v>265</v>
       </c>
       <c r="D253" t="s">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="E253" t="s">
-        <v>818</v>
+        <v>834</v>
       </c>
       <c r="F253">
         <v>32</v>
@@ -10312,7 +10435,7 @@
         <v>3</v>
       </c>
       <c r="H253" t="s">
-        <v>1037</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
@@ -10326,10 +10449,10 @@
         <v>266</v>
       </c>
       <c r="D254" t="s">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="E254" t="s">
-        <v>819</v>
+        <v>835</v>
       </c>
       <c r="F254">
         <v>27</v>
@@ -10338,7 +10461,7 @@
         <v>3</v>
       </c>
       <c r="H254" t="s">
-        <v>1038</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
@@ -10349,10 +10472,10 @@
         <v>267</v>
       </c>
       <c r="D255" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="E255" t="s">
-        <v>820</v>
+        <v>836</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
@@ -10366,10 +10489,10 @@
         <v>268</v>
       </c>
       <c r="D256" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="E256" t="s">
-        <v>821</v>
+        <v>837</v>
       </c>
       <c r="F256">
         <v>61</v>
@@ -10378,7 +10501,7 @@
         <v>3</v>
       </c>
       <c r="H256" t="s">
-        <v>1039</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
@@ -10392,10 +10515,10 @@
         <v>269</v>
       </c>
       <c r="D257" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="E257" t="s">
-        <v>822</v>
+        <v>838</v>
       </c>
       <c r="F257">
         <v>53</v>
@@ -10404,7 +10527,7 @@
         <v>4</v>
       </c>
       <c r="H257" t="s">
-        <v>1040</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
@@ -10418,10 +10541,10 @@
         <v>270</v>
       </c>
       <c r="D258" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="E258" t="s">
-        <v>823</v>
+        <v>839</v>
       </c>
       <c r="F258">
         <v>43</v>
@@ -10430,7 +10553,7 @@
         <v>3</v>
       </c>
       <c r="H258" t="s">
-        <v>1041</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
@@ -10444,10 +10567,10 @@
         <v>271</v>
       </c>
       <c r="D259" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="E259" t="s">
-        <v>824</v>
+        <v>840</v>
       </c>
       <c r="F259">
         <v>41</v>
@@ -10456,7 +10579,7 @@
         <v>3</v>
       </c>
       <c r="H259" t="s">
-        <v>1042</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
@@ -10467,10 +10590,10 @@
         <v>272</v>
       </c>
       <c r="D260" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="E260" t="s">
-        <v>825</v>
+        <v>841</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
@@ -10478,10 +10601,10 @@
         <v>273</v>
       </c>
       <c r="D261" t="s">
-        <v>550</v>
+        <v>558</v>
       </c>
       <c r="E261" t="s">
-        <v>826</v>
+        <v>842</v>
       </c>
       <c r="F261">
         <v>5</v>
@@ -10490,7 +10613,7 @@
         <v>3</v>
       </c>
       <c r="H261" t="s">
-        <v>1043</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
@@ -10498,10 +10621,10 @@
         <v>274</v>
       </c>
       <c r="D262" t="s">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="E262" t="s">
-        <v>827</v>
+        <v>843</v>
       </c>
       <c r="F262">
         <v>5</v>
@@ -10510,7 +10633,7 @@
         <v>3</v>
       </c>
       <c r="H262" t="s">
-        <v>1044</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
@@ -10524,10 +10647,10 @@
         <v>275</v>
       </c>
       <c r="D263" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="E263" t="s">
-        <v>828</v>
+        <v>844</v>
       </c>
       <c r="F263">
         <v>5</v>
@@ -10536,7 +10659,7 @@
         <v>3</v>
       </c>
       <c r="H263" t="s">
-        <v>1045</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
@@ -10550,10 +10673,10 @@
         <v>276</v>
       </c>
       <c r="D264" t="s">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="E264" t="s">
-        <v>829</v>
+        <v>845</v>
       </c>
       <c r="F264">
         <v>60</v>
@@ -10562,7 +10685,7 @@
         <v>3</v>
       </c>
       <c r="H264" t="s">
-        <v>1046</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
@@ -10573,13 +10696,13 @@
         <v>277</v>
       </c>
       <c r="D265" t="s">
-        <v>554</v>
+        <v>562</v>
       </c>
       <c r="E265" t="s">
-        <v>830</v>
+        <v>846</v>
       </c>
       <c r="H265" t="s">
-        <v>1047</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
@@ -10587,10 +10710,10 @@
         <v>278</v>
       </c>
       <c r="D266" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="E266" t="s">
-        <v>831</v>
+        <v>847</v>
       </c>
       <c r="F266">
         <v>6</v>
@@ -10599,7 +10722,7 @@
         <v>3</v>
       </c>
       <c r="H266" t="s">
-        <v>1048</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
@@ -10607,10 +10730,10 @@
         <v>279</v>
       </c>
       <c r="D267" t="s">
-        <v>556</v>
+        <v>564</v>
       </c>
       <c r="E267" t="s">
-        <v>832</v>
+        <v>848</v>
       </c>
       <c r="F267">
         <v>24</v>
@@ -10619,7 +10742,7 @@
         <v>4</v>
       </c>
       <c r="H267" t="s">
-        <v>1049</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
@@ -10627,10 +10750,10 @@
         <v>280</v>
       </c>
       <c r="D268" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="E268" t="s">
-        <v>833</v>
+        <v>849</v>
       </c>
       <c r="F268">
         <v>7</v>
@@ -10639,7 +10762,7 @@
         <v>4</v>
       </c>
       <c r="H268" t="s">
-        <v>1050</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
@@ -10647,13 +10770,13 @@
         <v>281</v>
       </c>
       <c r="D269" t="s">
-        <v>558</v>
+        <v>566</v>
       </c>
       <c r="E269" t="s">
-        <v>834</v>
+        <v>850</v>
       </c>
       <c r="H269" t="s">
-        <v>1051</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
@@ -10667,10 +10790,10 @@
         <v>282</v>
       </c>
       <c r="D270" t="s">
-        <v>558</v>
+        <v>1087</v>
       </c>
       <c r="E270" t="s">
-        <v>835</v>
+        <v>851</v>
       </c>
       <c r="F270">
         <v>12</v>
@@ -10679,7 +10802,7 @@
         <v>3</v>
       </c>
       <c r="H270" t="s">
-        <v>1052</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
@@ -10690,10 +10813,10 @@
         <v>283</v>
       </c>
       <c r="D271" t="s">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="E271" t="s">
-        <v>836</v>
+        <v>852</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
@@ -10704,10 +10827,10 @@
         <v>284</v>
       </c>
       <c r="D272" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="E272" t="s">
-        <v>837</v>
+        <v>853</v>
       </c>
       <c r="F272">
         <v>1</v>
@@ -10724,10 +10847,10 @@
         <v>285</v>
       </c>
       <c r="D273" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="E273" t="s">
-        <v>838</v>
+        <v>854</v>
       </c>
       <c r="F273">
         <v>17</v>
@@ -10747,10 +10870,10 @@
         <v>286</v>
       </c>
       <c r="D274" t="s">
-        <v>562</v>
+        <v>570</v>
       </c>
       <c r="E274" t="s">
-        <v>839</v>
+        <v>855</v>
       </c>
       <c r="F274">
         <v>55</v>
@@ -10759,7 +10882,7 @@
         <v>4</v>
       </c>
       <c r="H274" t="s">
-        <v>1053</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.25">
@@ -10770,10 +10893,10 @@
         <v>287</v>
       </c>
       <c r="D275" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="E275" t="s">
-        <v>840</v>
+        <v>856</v>
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.25">
@@ -10787,10 +10910,10 @@
         <v>288</v>
       </c>
       <c r="D276" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="E276" t="s">
-        <v>841</v>
+        <v>857</v>
       </c>
       <c r="F276">
         <v>6</v>
@@ -10799,7 +10922,7 @@
         <v>4</v>
       </c>
       <c r="H276" t="s">
-        <v>1054</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.25">
@@ -10813,10 +10936,10 @@
         <v>289</v>
       </c>
       <c r="D277" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="E277" t="s">
-        <v>842</v>
+        <v>858</v>
       </c>
       <c r="F277">
         <v>36</v>
@@ -10825,7 +10948,7 @@
         <v>3</v>
       </c>
       <c r="H277" t="s">
-        <v>1055</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.25">
@@ -10839,10 +10962,10 @@
         <v>290</v>
       </c>
       <c r="D278" t="s">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="E278" t="s">
-        <v>843</v>
+        <v>859</v>
       </c>
       <c r="F278">
         <v>48</v>
@@ -10851,7 +10974,164 @@
         <v>3</v>
       </c>
       <c r="H278" t="s">
-        <v>1056</v>
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>12</v>
+      </c>
+      <c r="C279" t="s">
+        <v>291</v>
+      </c>
+      <c r="D279" t="s">
+        <v>575</v>
+      </c>
+      <c r="E279" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>12</v>
+      </c>
+      <c r="B280">
+        <v>33</v>
+      </c>
+      <c r="C280" t="s">
+        <v>292</v>
+      </c>
+      <c r="D280" t="s">
+        <v>576</v>
+      </c>
+      <c r="E280" t="s">
+        <v>861</v>
+      </c>
+      <c r="F280">
+        <v>29</v>
+      </c>
+      <c r="G280">
+        <v>3</v>
+      </c>
+      <c r="H280" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>12</v>
+      </c>
+      <c r="B281">
+        <v>34</v>
+      </c>
+      <c r="C281" t="s">
+        <v>293</v>
+      </c>
+      <c r="D281" t="s">
+        <v>577</v>
+      </c>
+      <c r="E281" t="s">
+        <v>862</v>
+      </c>
+      <c r="F281">
+        <v>33</v>
+      </c>
+      <c r="G281">
+        <v>3</v>
+      </c>
+      <c r="H281" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>12</v>
+      </c>
+      <c r="B282">
+        <v>35</v>
+      </c>
+      <c r="C282" t="s">
+        <v>294</v>
+      </c>
+      <c r="D282" t="s">
+        <v>578</v>
+      </c>
+      <c r="E282" t="s">
+        <v>863</v>
+      </c>
+      <c r="F282">
+        <v>39</v>
+      </c>
+      <c r="G282">
+        <v>3</v>
+      </c>
+      <c r="H282" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>12</v>
+      </c>
+      <c r="B283">
+        <v>36</v>
+      </c>
+      <c r="C283" t="s">
+        <v>295</v>
+      </c>
+      <c r="D283" t="s">
+        <v>579</v>
+      </c>
+      <c r="E283" t="s">
+        <v>864</v>
+      </c>
+      <c r="F283">
+        <v>45</v>
+      </c>
+      <c r="G283">
+        <v>3</v>
+      </c>
+      <c r="H283" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C284" t="s">
+        <v>296</v>
+      </c>
+      <c r="D284" t="s">
+        <v>580</v>
+      </c>
+      <c r="E284" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C285" t="s">
+        <v>297</v>
+      </c>
+      <c r="D285" t="s">
+        <v>581</v>
+      </c>
+      <c r="E285" t="s">
+        <v>866</v>
+      </c>
+      <c r="H285" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C286" t="s">
+        <v>298</v>
+      </c>
+      <c r="D286" t="s">
+        <v>582</v>
+      </c>
+      <c r="E286" t="s">
+        <v>867</v>
+      </c>
+      <c r="H286" t="s">
+        <v>1086</v>
       </c>
     </row>
   </sheetData>

--- a/Exp_Record_Alfa.xlsx
+++ b/Exp_Record_Alfa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F7E3D3-DE46-4F46-AD73-721AFF658347}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6113DAC-C918-48AA-ADC5-4BD6B371B918}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8475" yWindow="4050" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2325" yWindow="2295" windowWidth="18855" windowHeight="10830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="1088">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="1145">
   <si>
     <t>Exp_collection</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>Hessian</t>
+  </si>
+  <si>
+    <t>BigGAN</t>
   </si>
   <si>
     <t>Ch 29. SU [-0.5 -1.7] 4 1.
@@ -2127,6 +2130,99 @@
 Stop at 957</t>
   </si>
   <si>
+    <t>7/21/20. James chaired and headposted. Chlorhexidine.
+Rf mapper start at 932. He didn’t want to work. Had to give him aq reward and 40 ms. Hes cooing a lot. Eye signal looks fine. 5 blocks stop at 940.
+Complete</t>
+  </si>
+  <si>
+    <t>Generate integrated start at 951.
+CH 12 (0, -0.5) 3 1 CMAES. Hash. It had great rf.
+Sounds visually responsive, lets hope it climbs.
+Block 10, climbing, image is black curve/ball.
+Possibly peak at 25 blocks. Still going up
+White background black ball on leftside, face/monkey furry on right.
+35 blocks complete stop at 1104. Complete
+Entered into Project_BigGan</t>
+  </si>
+  <si>
+    <t>Same thing, but with Big gan
+Generate big gan start at 1006.
+CH 12 (0, -0.5) 3 1 CMAES. Hash.
+Starting off with some cute/weird dogs.
+Climbing at block 13, image is still a weird furry creature. 36 blocks complete. Stop at 1018.
+Image was always a fuzzy animal. Checked in betos rig, changed settings to match his, we are trying again with new gan settings in code. Complete
+Entered into Project_BigGan</t>
+  </si>
+  <si>
+    <t>Generate big gan start at 1019.
+CH 12 (0, -0.5) 3 1 CMAES. Hash.
+Now its just monkeys. Well now we know that works. 15 blocks complete stop at 1023. Complete
+Entered into Project_BigGan</t>
+  </si>
+  <si>
+    <t>Same thing, but with Big gan
+Generate big gan start at 1029.
+CH 12 (0, -0.5) 3 1 CMAES. Hash.
+Okay it did not start as dogs this time? Maybe I had a dog class picked without knowing it? I hope the generate is reliable. Block 10, it is climbing, black object. 43 block com at 1040. Complete
+Entered into Project_BigGan
+Generate int. Start at 1043.
+Ch 29 (0, 0) 3 SU 2/5. Had great rf. Nothing didn’t go anywhere stop at 1048.  didn’t save.</t>
+  </si>
+  <si>
+    <t>Gi start at 1051.
+Ch 1 (-4, -2.5) 4 1  SU 1/5. Very pretty unit. CMAES
+It has got to climb. Sounds VR. Added 100 ml juice.
+Climbing at block 16!! Making a red/brown ball. Starting to be testy, well get it. 26 com at 1106. Complete
+Entered into Project_BigGan</t>
+  </si>
+  <si>
+    <t>Big gan start at 1108.
+Ch 1 (-4, -2.5) 4 1  SU 1/5. BigGan
+Blasting him. Block 14 possibly climbing. Making dog/bird/ferret things. 26 com stop at 1124. Complete
+Entered into Project_BigGan
+7/22/20. Updated big gan code to allow for multiple threads at once.
+Do fc6 and biggan class 1128 0.7</t>
+  </si>
+  <si>
+    <t>Rf map start at 1014. Hes being dif, not wanting to fixated.....wow hes not doing great. 2 blocks com. 1020. Going to check whats wrong. Complete</t>
+  </si>
+  <si>
+    <t>Generate big Gan. Ch 6 (0, -3.5) 3 1 CMAES for fc6 and biggan class. Ugh hes not wanting to fixate. Added juice.. CH 6 SU 1/5. Hes only had 75 ml so far. Upped him to 200 plus aq rew. 5 blocks in 22 min.... geez, he got to the juice and now he is doing okay. 10 blocks stop at 1103. Complete, may not keep</t>
+  </si>
+  <si>
+    <t>Ch 16 (0,0) 3 1, CMAES and bigGan class . Start at 1105. I am trying one with rf in center and see if that helps his work ethic. Stop at 1121. Complete, may not keep
+7/22/20. Alfa did not work great today. Not fixating, did not want to work. He got 200 mL total over 1 hour. After return to cage, we discovered he pooped in his chair.... could be the culprit
+7/23/20, chlorhexidine. In rig at 1015. 3, 5, 6, 7,</t>
+  </si>
+  <si>
+    <t>Rf mapper start at 1022. 5 blocks stop at 1025. Ch 5 SU (0, -2.9) CH 6 (–0.3, -3.3) 7 (-2, -2) 4 degrees. 3 0, -3.8. CH 3 (0, -3)
+complete</t>
+  </si>
+  <si>
+    <t>Generate big Gan start at 1033.
+CH 3 (0, -3) 3 1 CMAES. Fc6 and BigGan class. CH 3 MU 1/5
+Block 5, biggan is climbing quick!!
+Psth from black lines are looking good, its got to climb!
+Looks like both are climbing at 25. Looks like they peaked around 25 blocks. 36 blocks stop at 1102.  complete</t>
+  </si>
+  <si>
+    <t>CH 6 (-0.3, -3.3) 3 1 CMAES fc6 and bigGan. 
+CH 6 hash, rf looked good. Omg, possible SU in 6. I will try after this.
+At block 12, gan has really climbed, fc6 not so much...both going up at 16.
+27 blocks stop at 1130
+complete</t>
+  </si>
+  <si>
+    <t>Picked up unit in 6. rf start at 1131. 2 blocks stop at 1133
+complete</t>
+  </si>
+  <si>
+    <t>Gen bigGan start at 1136.
+CH 6 (0, -3) 3 1 CMAES fc6 and bigGan class. SU 2/5 this time.
+ Added 50 mL juice. 20 blocks com stop at 1205.
+complete</t>
+  </si>
+  <si>
     <t>Alfa64chan-19112019-009</t>
   </si>
   <si>
@@ -2931,6 +3027,9 @@
     <t>Alfa-02072020-006</t>
   </si>
   <si>
+    <t>Alfa-02072020-007</t>
+  </si>
+  <si>
     <t>Alfa-03072020-001</t>
   </si>
   <si>
@@ -2979,6 +3078,51 @@
     <t>Alfa-10072020-003</t>
   </si>
   <si>
+    <t>Alfa-21072020-001</t>
+  </si>
+  <si>
+    <t>Alfa-21072020-002</t>
+  </si>
+  <si>
+    <t>Alfa-21072020-003</t>
+  </si>
+  <si>
+    <t>Alfa-21072020-004</t>
+  </si>
+  <si>
+    <t>Alfa-21072020-005</t>
+  </si>
+  <si>
+    <t>Alfa-21072020-007</t>
+  </si>
+  <si>
+    <t>Alfa-21072020-008</t>
+  </si>
+  <si>
+    <t>Alfa-22072020-001</t>
+  </si>
+  <si>
+    <t>Alfa-22072020-002</t>
+  </si>
+  <si>
+    <t>Alfa-22072020-003</t>
+  </si>
+  <si>
+    <t>Alfa-23072020-001</t>
+  </si>
+  <si>
+    <t>Alfa-23072020-002</t>
+  </si>
+  <si>
+    <t>Alfa-23072020-003</t>
+  </si>
+  <si>
+    <t>Alfa-23072020-004</t>
+  </si>
+  <si>
+    <t>Alfa-23072020-005</t>
+  </si>
+  <si>
     <t>191119_Alfa_generate_parallel(3)</t>
   </si>
   <si>
@@ -3834,6 +3978,51 @@
     <t>200710_Alfa_selectivity_basic</t>
   </si>
   <si>
+    <t>200721_Alfa_rfMapper_basic</t>
+  </si>
+  <si>
+    <t>200721_Alfa_generate_integrated(1)</t>
+  </si>
+  <si>
+    <t>200721_Alfa_generate_BigGAN(2)</t>
+  </si>
+  <si>
+    <t>200721_Alfa_generate_BigGAN(3)</t>
+  </si>
+  <si>
+    <t>200721_Alfa_generate_BigGAN(4)</t>
+  </si>
+  <si>
+    <t>200721_Alfa_generate_integrated(3)</t>
+  </si>
+  <si>
+    <t>200721_Alfa_generate_BigGAN(5)</t>
+  </si>
+  <si>
+    <t>200722_Alfa_rfMapper_basic</t>
+  </si>
+  <si>
+    <t>200722_Alfa_generate_BigGAN(3)</t>
+  </si>
+  <si>
+    <t>200722_Alfa_generate_BigGAN(4)</t>
+  </si>
+  <si>
+    <t>200723_Alfa_rfMapper_basic</t>
+  </si>
+  <si>
+    <t>200723_Alfa_generate_BigGAN(2)</t>
+  </si>
+  <si>
+    <t>200723_Alfa_generate_BigGAN(3)</t>
+  </si>
+  <si>
+    <t>200723_Alfa_rfMapper_basic(1)</t>
+  </si>
+  <si>
+    <t>200723_Alfa_generate_BigGAN(4)</t>
+  </si>
+  <si>
     <t>N:\Stimuli\2019-06-Evolutions\alfa-191119a</t>
   </si>
   <si>
@@ -4491,7 +4680,37 @@
     <t>N:\Stimuli\2019-Selectivity\2020-07-10-Alfa-01</t>
   </si>
   <si>
-    <t>Alfa-02072020-007</t>
+    <t>N:\Stimuli\2020-Evolutions\2020-07-21-Alfa-01\2020-07-21-09-51-23</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2020-BigGAN\2020-07-21-Alfa-01\2020-07-21-10-06-15</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2020-BigGAN\2020-07-21-Alfa-02\2020-07-21-10-19-14</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2020-BigGAN\2020-07-21-Alfa-03\2020-07-21-10-28-52</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2020-Evolutions\2020-07-21-Alfa-02\2020-07-21-10-51-34</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2020-BigGAN\2020-07-21-Alfa-04\2020-07-21-11-08-33</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2020-BigGAN\2020-07-22-Alfa-01\2020-07-22-10-30-01</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2020-BigGAN\2020-07-22-Alfa-02\2020-07-22-11-05-32</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2020-BigGAN\2020-07-23-Alfa-01\2020-07-23-10-33-01</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2020-BigGAN\2020-07-23-Alfa-02\2020-07-23-11-06-08</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2020-BigGAN\2020-07-23-Alfa-02b\2020-07-23-11-36-31</t>
   </si>
 </sst>
 </file>
@@ -4893,15 +5112,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H286"/>
+  <dimension ref="A1:H301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A260" workbookViewId="0">
-      <selection activeCell="E270" sqref="E270"/>
+    <sheetView tabSelected="1" topLeftCell="A289" workbookViewId="0">
+      <selection activeCell="G292" sqref="G292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="31" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -4938,13 +5159,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="E2" t="s">
-        <v>583</v>
+        <v>615</v>
       </c>
       <c r="F2">
         <v>29</v>
@@ -4953,7 +5174,7 @@
         <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>868</v>
+        <v>915</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -4964,13 +5185,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="E3" t="s">
-        <v>584</v>
+        <v>616</v>
       </c>
       <c r="F3">
         <v>29</v>
@@ -4987,13 +5208,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="E4" t="s">
-        <v>585</v>
+        <v>617</v>
       </c>
       <c r="F4">
         <v>29</v>
@@ -5002,7 +5223,7 @@
         <v>4</v>
       </c>
       <c r="H4" t="s">
-        <v>869</v>
+        <v>916</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -5013,13 +5234,13 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="E5" t="s">
-        <v>586</v>
+        <v>618</v>
       </c>
       <c r="F5">
         <v>29</v>
@@ -5028,7 +5249,7 @@
         <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>870</v>
+        <v>917</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -5039,19 +5260,19 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="E6" t="s">
-        <v>587</v>
+        <v>619</v>
       </c>
       <c r="F6">
         <v>29</v>
       </c>
       <c r="H6" t="s">
-        <v>871</v>
+        <v>918</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -5062,13 +5283,13 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="E7" t="s">
-        <v>588</v>
+        <v>620</v>
       </c>
       <c r="F7">
         <v>29</v>
@@ -5077,7 +5298,7 @@
         <v>4</v>
       </c>
       <c r="H7" t="s">
-        <v>872</v>
+        <v>919</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -5088,13 +5309,13 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="E8" t="s">
-        <v>589</v>
+        <v>621</v>
       </c>
       <c r="F8">
         <v>9</v>
@@ -5103,7 +5324,7 @@
         <v>3</v>
       </c>
       <c r="H8" t="s">
-        <v>873</v>
+        <v>920</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -5114,13 +5335,13 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="E9" t="s">
-        <v>590</v>
+        <v>622</v>
       </c>
       <c r="F9">
         <v>9</v>
@@ -5129,7 +5350,7 @@
         <v>3</v>
       </c>
       <c r="H9" t="s">
-        <v>874</v>
+        <v>921</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -5140,13 +5361,13 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="E10" t="s">
-        <v>591</v>
+        <v>623</v>
       </c>
       <c r="F10">
         <v>9</v>
@@ -5155,7 +5376,7 @@
         <v>3</v>
       </c>
       <c r="H10" t="s">
-        <v>875</v>
+        <v>922</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -5166,13 +5387,13 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="E11" t="s">
-        <v>592</v>
+        <v>624</v>
       </c>
       <c r="F11">
         <v>32</v>
@@ -5181,7 +5402,7 @@
         <v>3</v>
       </c>
       <c r="H11" t="s">
-        <v>876</v>
+        <v>923</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -5192,13 +5413,13 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="E12" t="s">
-        <v>593</v>
+        <v>625</v>
       </c>
       <c r="F12">
         <v>32</v>
@@ -5207,7 +5428,7 @@
         <v>3</v>
       </c>
       <c r="H12" t="s">
-        <v>877</v>
+        <v>924</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -5218,13 +5439,13 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="E13" t="s">
-        <v>594</v>
+        <v>626</v>
       </c>
       <c r="F13">
         <v>32</v>
@@ -5233,18 +5454,18 @@
         <v>3</v>
       </c>
       <c r="H13" t="s">
-        <v>878</v>
+        <v>925</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="E14" t="s">
-        <v>595</v>
+        <v>627</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -5255,13 +5476,13 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="E15" t="s">
-        <v>596</v>
+        <v>628</v>
       </c>
       <c r="F15">
         <v>3</v>
@@ -5270,7 +5491,7 @@
         <v>3</v>
       </c>
       <c r="H15" t="s">
-        <v>879</v>
+        <v>926</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -5281,13 +5502,13 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="E16" t="s">
-        <v>597</v>
+        <v>629</v>
       </c>
       <c r="F16">
         <v>3</v>
@@ -5296,7 +5517,7 @@
         <v>3</v>
       </c>
       <c r="H16" t="s">
-        <v>880</v>
+        <v>927</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -5307,13 +5528,13 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="E17" t="s">
-        <v>598</v>
+        <v>630</v>
       </c>
       <c r="F17">
         <v>3</v>
@@ -5322,18 +5543,18 @@
         <v>3</v>
       </c>
       <c r="H17" t="s">
-        <v>881</v>
+        <v>928</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="E18" t="s">
-        <v>599</v>
+        <v>631</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -5344,13 +5565,13 @@
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D19" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="E19" t="s">
-        <v>600</v>
+        <v>632</v>
       </c>
       <c r="F19">
         <v>7</v>
@@ -5359,7 +5580,7 @@
         <v>3</v>
       </c>
       <c r="H19" t="s">
-        <v>882</v>
+        <v>929</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -5370,13 +5591,13 @@
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="E20" t="s">
-        <v>601</v>
+        <v>633</v>
       </c>
       <c r="F20">
         <v>7</v>
@@ -5385,7 +5606,7 @@
         <v>3</v>
       </c>
       <c r="H20" t="s">
-        <v>883</v>
+        <v>930</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -5396,13 +5617,13 @@
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D21" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="E21" t="s">
-        <v>602</v>
+        <v>634</v>
       </c>
       <c r="F21">
         <v>7</v>
@@ -5411,63 +5632,63 @@
         <v>3</v>
       </c>
       <c r="H21" t="s">
-        <v>884</v>
+        <v>931</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D22" t="s">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="E22" t="s">
-        <v>603</v>
+        <v>635</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D23" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="E23" t="s">
-        <v>604</v>
+        <v>636</v>
       </c>
       <c r="G23">
         <v>3</v>
       </c>
       <c r="H23" t="s">
-        <v>885</v>
+        <v>932</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D24" t="s">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="E24" t="s">
-        <v>605</v>
+        <v>637</v>
       </c>
       <c r="G24">
         <v>4</v>
       </c>
       <c r="H24" t="s">
-        <v>886</v>
+        <v>933</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D25" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="E25" t="s">
-        <v>606</v>
+        <v>638</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -5478,13 +5699,13 @@
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D26" t="s">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="E26" t="s">
-        <v>607</v>
+        <v>639</v>
       </c>
       <c r="F26">
         <v>51</v>
@@ -5493,7 +5714,7 @@
         <v>3</v>
       </c>
       <c r="H26" t="s">
-        <v>887</v>
+        <v>934</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -5504,13 +5725,13 @@
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D27" t="s">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="E27" t="s">
-        <v>608</v>
+        <v>640</v>
       </c>
       <c r="F27">
         <v>51</v>
@@ -5519,7 +5740,7 @@
         <v>3</v>
       </c>
       <c r="H27" t="s">
-        <v>888</v>
+        <v>935</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -5530,13 +5751,13 @@
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D28" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="E28" t="s">
-        <v>609</v>
+        <v>641</v>
       </c>
       <c r="F28">
         <v>51</v>
@@ -5545,18 +5766,18 @@
         <v>3</v>
       </c>
       <c r="H28" t="s">
-        <v>889</v>
+        <v>936</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D29" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="E29" t="s">
-        <v>610</v>
+        <v>642</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -5567,13 +5788,13 @@
         <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D30" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="E30" t="s">
-        <v>611</v>
+        <v>643</v>
       </c>
       <c r="F30">
         <v>7</v>
@@ -5582,7 +5803,7 @@
         <v>3</v>
       </c>
       <c r="H30" t="s">
-        <v>890</v>
+        <v>937</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -5593,13 +5814,13 @@
         <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D31" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="E31" t="s">
-        <v>612</v>
+        <v>644</v>
       </c>
       <c r="F31">
         <v>7</v>
@@ -5608,7 +5829,7 @@
         <v>3</v>
       </c>
       <c r="H31" t="s">
-        <v>891</v>
+        <v>938</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -5619,13 +5840,13 @@
         <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D32" t="s">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="E32" t="s">
-        <v>613</v>
+        <v>645</v>
       </c>
       <c r="F32">
         <v>7</v>
@@ -5634,18 +5855,18 @@
         <v>3</v>
       </c>
       <c r="H32" t="s">
-        <v>892</v>
+        <v>939</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D33" t="s">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="E33" t="s">
-        <v>614</v>
+        <v>646</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -5656,13 +5877,13 @@
         <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D34" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="E34" t="s">
-        <v>615</v>
+        <v>647</v>
       </c>
       <c r="F34">
         <v>7</v>
@@ -5671,7 +5892,7 @@
         <v>3</v>
       </c>
       <c r="H34" t="s">
-        <v>893</v>
+        <v>940</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -5682,13 +5903,13 @@
         <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D35" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="E35" t="s">
-        <v>616</v>
+        <v>648</v>
       </c>
       <c r="F35">
         <v>7</v>
@@ -5697,7 +5918,7 @@
         <v>3</v>
       </c>
       <c r="H35" t="s">
-        <v>894</v>
+        <v>941</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -5708,13 +5929,13 @@
         <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D36" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="E36" t="s">
-        <v>617</v>
+        <v>649</v>
       </c>
       <c r="F36">
         <v>7</v>
@@ -5723,7 +5944,7 @@
         <v>3</v>
       </c>
       <c r="H36" t="s">
-        <v>895</v>
+        <v>942</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -5734,13 +5955,13 @@
         <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D37" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="E37" t="s">
-        <v>618</v>
+        <v>650</v>
       </c>
       <c r="F37">
         <v>36</v>
@@ -5749,7 +5970,7 @@
         <v>3</v>
       </c>
       <c r="H37" t="s">
-        <v>896</v>
+        <v>943</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -5760,13 +5981,13 @@
         <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D38" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="E38" t="s">
-        <v>619</v>
+        <v>651</v>
       </c>
       <c r="F38">
         <v>36</v>
@@ -5775,7 +5996,7 @@
         <v>3</v>
       </c>
       <c r="H38" t="s">
-        <v>897</v>
+        <v>944</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -5786,13 +6007,13 @@
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D39" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="E39" t="s">
-        <v>620</v>
+        <v>652</v>
       </c>
       <c r="F39">
         <v>35</v>
@@ -5801,7 +6022,7 @@
         <v>3</v>
       </c>
       <c r="H39" t="s">
-        <v>898</v>
+        <v>945</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -5812,13 +6033,13 @@
         <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D40" t="s">
-        <v>337</v>
+        <v>353</v>
       </c>
       <c r="E40" t="s">
-        <v>621</v>
+        <v>653</v>
       </c>
       <c r="F40">
         <v>35</v>
@@ -5827,7 +6048,7 @@
         <v>3</v>
       </c>
       <c r="H40" t="s">
-        <v>899</v>
+        <v>946</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -5838,13 +6059,13 @@
         <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D41" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="E41" t="s">
-        <v>622</v>
+        <v>654</v>
       </c>
       <c r="F41">
         <v>35</v>
@@ -5853,7 +6074,7 @@
         <v>3</v>
       </c>
       <c r="H41" t="s">
-        <v>900</v>
+        <v>947</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -5864,13 +6085,13 @@
         <v>12</v>
       </c>
       <c r="C42" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D42" t="s">
-        <v>339</v>
+        <v>355</v>
       </c>
       <c r="E42" t="s">
-        <v>623</v>
+        <v>655</v>
       </c>
       <c r="F42">
         <v>61</v>
@@ -5879,7 +6100,7 @@
         <v>3</v>
       </c>
       <c r="H42" t="s">
-        <v>901</v>
+        <v>948</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -5890,13 +6111,13 @@
         <v>12</v>
       </c>
       <c r="C43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D43" t="s">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="E43" t="s">
-        <v>624</v>
+        <v>656</v>
       </c>
       <c r="F43">
         <v>61</v>
@@ -5905,7 +6126,7 @@
         <v>3</v>
       </c>
       <c r="H43" t="s">
-        <v>902</v>
+        <v>949</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -5916,13 +6137,13 @@
         <v>12</v>
       </c>
       <c r="C44" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D44" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="E44" t="s">
-        <v>625</v>
+        <v>657</v>
       </c>
       <c r="F44">
         <v>61</v>
@@ -5931,7 +6152,7 @@
         <v>3</v>
       </c>
       <c r="H44" t="s">
-        <v>903</v>
+        <v>950</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -5942,13 +6163,13 @@
         <v>13</v>
       </c>
       <c r="C45" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D45" t="s">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="E45" t="s">
-        <v>626</v>
+        <v>658</v>
       </c>
       <c r="F45">
         <v>33</v>
@@ -5957,7 +6178,7 @@
         <v>3</v>
       </c>
       <c r="H45" t="s">
-        <v>904</v>
+        <v>951</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -5968,13 +6189,13 @@
         <v>13</v>
       </c>
       <c r="C46" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D46" t="s">
-        <v>343</v>
+        <v>359</v>
       </c>
       <c r="E46" t="s">
-        <v>627</v>
+        <v>659</v>
       </c>
       <c r="F46">
         <v>33</v>
@@ -5983,7 +6204,7 @@
         <v>3</v>
       </c>
       <c r="H46" t="s">
-        <v>905</v>
+        <v>952</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -5994,13 +6215,13 @@
         <v>13</v>
       </c>
       <c r="C47" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D47" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="E47" t="s">
-        <v>628</v>
+        <v>660</v>
       </c>
       <c r="F47">
         <v>33</v>
@@ -6009,7 +6230,7 @@
         <v>3</v>
       </c>
       <c r="H47" t="s">
-        <v>906</v>
+        <v>953</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -6020,13 +6241,13 @@
         <v>14</v>
       </c>
       <c r="C48" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D48" t="s">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="E48" t="s">
-        <v>629</v>
+        <v>661</v>
       </c>
       <c r="F48">
         <v>43</v>
@@ -6035,7 +6256,7 @@
         <v>3</v>
       </c>
       <c r="H48" t="s">
-        <v>907</v>
+        <v>954</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -6046,13 +6267,13 @@
         <v>14</v>
       </c>
       <c r="C49" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D49" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="E49" t="s">
-        <v>630</v>
+        <v>662</v>
       </c>
       <c r="F49">
         <v>43</v>
@@ -6061,7 +6282,7 @@
         <v>3</v>
       </c>
       <c r="H49" t="s">
-        <v>908</v>
+        <v>955</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -6072,13 +6293,13 @@
         <v>14</v>
       </c>
       <c r="C50" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D50" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
       <c r="E50" t="s">
-        <v>631</v>
+        <v>663</v>
       </c>
       <c r="F50">
         <v>43</v>
@@ -6087,7 +6308,7 @@
         <v>3</v>
       </c>
       <c r="H50" t="s">
-        <v>909</v>
+        <v>956</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -6098,13 +6319,13 @@
         <v>15</v>
       </c>
       <c r="C51" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D51" t="s">
-        <v>348</v>
+        <v>364</v>
       </c>
       <c r="E51" t="s">
-        <v>632</v>
+        <v>664</v>
       </c>
       <c r="F51">
         <v>59</v>
@@ -6113,7 +6334,7 @@
         <v>3</v>
       </c>
       <c r="H51" t="s">
-        <v>910</v>
+        <v>957</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -6124,13 +6345,13 @@
         <v>15</v>
       </c>
       <c r="C52" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D52" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="E52" t="s">
-        <v>633</v>
+        <v>665</v>
       </c>
       <c r="F52">
         <v>59</v>
@@ -6139,7 +6360,7 @@
         <v>3</v>
       </c>
       <c r="H52" t="s">
-        <v>911</v>
+        <v>958</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -6150,13 +6371,13 @@
         <v>15</v>
       </c>
       <c r="C53" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D53" t="s">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="E53" t="s">
-        <v>634</v>
+        <v>666</v>
       </c>
       <c r="F53">
         <v>59</v>
@@ -6165,7 +6386,7 @@
         <v>3</v>
       </c>
       <c r="H53" t="s">
-        <v>912</v>
+        <v>959</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -6176,13 +6397,13 @@
         <v>16</v>
       </c>
       <c r="C54" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D54" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="E54" t="s">
-        <v>635</v>
+        <v>667</v>
       </c>
       <c r="F54">
         <v>20</v>
@@ -6191,7 +6412,7 @@
         <v>3</v>
       </c>
       <c r="H54" t="s">
-        <v>913</v>
+        <v>960</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -6202,13 +6423,13 @@
         <v>16</v>
       </c>
       <c r="C55" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D55" t="s">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="E55" t="s">
-        <v>636</v>
+        <v>668</v>
       </c>
       <c r="F55">
         <v>20</v>
@@ -6217,7 +6438,7 @@
         <v>3</v>
       </c>
       <c r="H55" t="s">
-        <v>914</v>
+        <v>961</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -6228,13 +6449,13 @@
         <v>16</v>
       </c>
       <c r="C56" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D56" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="E56" t="s">
-        <v>637</v>
+        <v>669</v>
       </c>
       <c r="F56">
         <v>20</v>
@@ -6243,7 +6464,7 @@
         <v>3</v>
       </c>
       <c r="H56" t="s">
-        <v>915</v>
+        <v>962</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -6254,13 +6475,13 @@
         <v>17</v>
       </c>
       <c r="C57" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D57" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="E57" t="s">
-        <v>638</v>
+        <v>670</v>
       </c>
       <c r="F57">
         <v>49</v>
@@ -6269,7 +6490,7 @@
         <v>3</v>
       </c>
       <c r="H57" t="s">
-        <v>916</v>
+        <v>963</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -6280,13 +6501,13 @@
         <v>17</v>
       </c>
       <c r="C58" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D58" t="s">
-        <v>355</v>
+        <v>371</v>
       </c>
       <c r="E58" t="s">
-        <v>639</v>
+        <v>671</v>
       </c>
       <c r="F58">
         <v>49</v>
@@ -6295,7 +6516,7 @@
         <v>3</v>
       </c>
       <c r="H58" t="s">
-        <v>917</v>
+        <v>964</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -6306,13 +6527,13 @@
         <v>17</v>
       </c>
       <c r="C59" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D59" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="E59" t="s">
-        <v>640</v>
+        <v>672</v>
       </c>
       <c r="F59">
         <v>49</v>
@@ -6321,7 +6542,7 @@
         <v>3</v>
       </c>
       <c r="H59" t="s">
-        <v>918</v>
+        <v>965</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -6332,13 +6553,13 @@
         <v>18</v>
       </c>
       <c r="C60" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D60" t="s">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="E60" t="s">
-        <v>641</v>
+        <v>673</v>
       </c>
       <c r="F60">
         <v>19</v>
@@ -6347,7 +6568,7 @@
         <v>3</v>
       </c>
       <c r="H60" t="s">
-        <v>919</v>
+        <v>966</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -6358,13 +6579,13 @@
         <v>18</v>
       </c>
       <c r="C61" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D61" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="E61" t="s">
-        <v>642</v>
+        <v>674</v>
       </c>
       <c r="F61">
         <v>19</v>
@@ -6373,7 +6594,7 @@
         <v>3</v>
       </c>
       <c r="H61" t="s">
-        <v>920</v>
+        <v>967</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -6384,13 +6605,13 @@
         <v>18</v>
       </c>
       <c r="C62" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D62" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="E62" t="s">
-        <v>643</v>
+        <v>675</v>
       </c>
       <c r="F62">
         <v>19</v>
@@ -6399,7 +6620,7 @@
         <v>3</v>
       </c>
       <c r="H62" t="s">
-        <v>921</v>
+        <v>968</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -6410,13 +6631,13 @@
         <v>19</v>
       </c>
       <c r="C63" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D63" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="E63" t="s">
-        <v>644</v>
+        <v>676</v>
       </c>
       <c r="F63">
         <v>12</v>
@@ -6425,7 +6646,7 @@
         <v>3</v>
       </c>
       <c r="H63" t="s">
-        <v>922</v>
+        <v>969</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -6436,13 +6657,13 @@
         <v>19</v>
       </c>
       <c r="C64" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D64" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="E64" t="s">
-        <v>645</v>
+        <v>677</v>
       </c>
       <c r="F64">
         <v>12</v>
@@ -6451,7 +6672,7 @@
         <v>3</v>
       </c>
       <c r="H64" t="s">
-        <v>923</v>
+        <v>970</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -6462,13 +6683,13 @@
         <v>19</v>
       </c>
       <c r="C65" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D65" t="s">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="E65" t="s">
-        <v>646</v>
+        <v>678</v>
       </c>
       <c r="F65">
         <v>12</v>
@@ -6477,7 +6698,7 @@
         <v>3</v>
       </c>
       <c r="H65" t="s">
-        <v>924</v>
+        <v>971</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -6488,13 +6709,13 @@
         <v>20</v>
       </c>
       <c r="C66" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D66" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="E66" t="s">
-        <v>647</v>
+        <v>679</v>
       </c>
       <c r="F66">
         <v>41</v>
@@ -6503,7 +6724,7 @@
         <v>3</v>
       </c>
       <c r="H66" t="s">
-        <v>925</v>
+        <v>972</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -6514,13 +6735,13 @@
         <v>20</v>
       </c>
       <c r="C67" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D67" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="E67" t="s">
-        <v>648</v>
+        <v>680</v>
       </c>
       <c r="F67">
         <v>41</v>
@@ -6529,7 +6750,7 @@
         <v>3</v>
       </c>
       <c r="H67" t="s">
-        <v>926</v>
+        <v>973</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -6540,13 +6761,13 @@
         <v>20</v>
       </c>
       <c r="C68" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D68" t="s">
-        <v>365</v>
+        <v>381</v>
       </c>
       <c r="E68" t="s">
-        <v>649</v>
+        <v>681</v>
       </c>
       <c r="F68">
         <v>41</v>
@@ -6555,7 +6776,7 @@
         <v>3</v>
       </c>
       <c r="H68" t="s">
-        <v>927</v>
+        <v>974</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -6566,13 +6787,13 @@
         <v>21</v>
       </c>
       <c r="C69" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D69" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="E69" t="s">
-        <v>650</v>
+        <v>682</v>
       </c>
       <c r="F69">
         <v>63</v>
@@ -6581,7 +6802,7 @@
         <v>3</v>
       </c>
       <c r="H69" t="s">
-        <v>928</v>
+        <v>975</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -6592,13 +6813,13 @@
         <v>21</v>
       </c>
       <c r="C70" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D70" t="s">
-        <v>367</v>
+        <v>383</v>
       </c>
       <c r="E70" t="s">
-        <v>651</v>
+        <v>683</v>
       </c>
       <c r="F70">
         <v>63</v>
@@ -6607,7 +6828,7 @@
         <v>3</v>
       </c>
       <c r="H70" t="s">
-        <v>929</v>
+        <v>976</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -6618,13 +6839,13 @@
         <v>21</v>
       </c>
       <c r="C71" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D71" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="E71" t="s">
-        <v>652</v>
+        <v>684</v>
       </c>
       <c r="F71">
         <v>63</v>
@@ -6633,7 +6854,7 @@
         <v>3</v>
       </c>
       <c r="H71" t="s">
-        <v>930</v>
+        <v>977</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -6644,13 +6865,13 @@
         <v>22</v>
       </c>
       <c r="C72" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D72" t="s">
-        <v>369</v>
+        <v>385</v>
       </c>
       <c r="E72" t="s">
-        <v>653</v>
+        <v>685</v>
       </c>
       <c r="F72">
         <v>38</v>
@@ -6659,7 +6880,7 @@
         <v>3</v>
       </c>
       <c r="H72" t="s">
-        <v>931</v>
+        <v>978</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -6670,13 +6891,13 @@
         <v>22</v>
       </c>
       <c r="C73" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D73" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
       <c r="E73" t="s">
-        <v>654</v>
+        <v>686</v>
       </c>
       <c r="F73">
         <v>38</v>
@@ -6685,7 +6906,7 @@
         <v>3</v>
       </c>
       <c r="H73" t="s">
-        <v>932</v>
+        <v>979</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -6696,13 +6917,13 @@
         <v>22</v>
       </c>
       <c r="C74" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D74" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="E74" t="s">
-        <v>655</v>
+        <v>687</v>
       </c>
       <c r="F74">
         <v>38</v>
@@ -6711,7 +6932,7 @@
         <v>3</v>
       </c>
       <c r="H74" t="s">
-        <v>933</v>
+        <v>980</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -6722,13 +6943,13 @@
         <v>23</v>
       </c>
       <c r="C75" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D75" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
       <c r="E75" t="s">
-        <v>656</v>
+        <v>688</v>
       </c>
       <c r="F75">
         <v>39</v>
@@ -6737,7 +6958,7 @@
         <v>3</v>
       </c>
       <c r="H75" t="s">
-        <v>934</v>
+        <v>981</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -6748,13 +6969,13 @@
         <v>23</v>
       </c>
       <c r="C76" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D76" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="E76" t="s">
-        <v>657</v>
+        <v>689</v>
       </c>
       <c r="F76">
         <v>39</v>
@@ -6763,7 +6984,7 @@
         <v>3</v>
       </c>
       <c r="H76" t="s">
-        <v>935</v>
+        <v>982</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -6774,13 +6995,13 @@
         <v>23</v>
       </c>
       <c r="C77" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D77" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="E77" t="s">
-        <v>658</v>
+        <v>690</v>
       </c>
       <c r="F77">
         <v>39</v>
@@ -6789,7 +7010,7 @@
         <v>3</v>
       </c>
       <c r="H77" t="s">
-        <v>936</v>
+        <v>983</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -6800,13 +7021,13 @@
         <v>24</v>
       </c>
       <c r="C78" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D78" t="s">
-        <v>375</v>
+        <v>391</v>
       </c>
       <c r="E78" t="s">
-        <v>659</v>
+        <v>691</v>
       </c>
       <c r="F78">
         <v>44</v>
@@ -6815,7 +7036,7 @@
         <v>3</v>
       </c>
       <c r="H78" t="s">
-        <v>937</v>
+        <v>984</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -6826,13 +7047,13 @@
         <v>24</v>
       </c>
       <c r="C79" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D79" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="E79" t="s">
-        <v>660</v>
+        <v>692</v>
       </c>
       <c r="F79">
         <v>44</v>
@@ -6841,7 +7062,7 @@
         <v>3</v>
       </c>
       <c r="H79" t="s">
-        <v>938</v>
+        <v>985</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -6852,13 +7073,13 @@
         <v>24</v>
       </c>
       <c r="C80" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D80" t="s">
-        <v>377</v>
+        <v>393</v>
       </c>
       <c r="E80" t="s">
-        <v>661</v>
+        <v>693</v>
       </c>
       <c r="F80">
         <v>44</v>
@@ -6867,7 +7088,7 @@
         <v>3</v>
       </c>
       <c r="H80" t="s">
-        <v>939</v>
+        <v>986</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -6875,16 +7096,16 @@
         <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D81" t="s">
-        <v>378</v>
+        <v>394</v>
       </c>
       <c r="E81" t="s">
-        <v>662</v>
+        <v>694</v>
       </c>
       <c r="H81" t="s">
-        <v>940</v>
+        <v>987</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -6892,16 +7113,16 @@
         <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D82" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="E82" t="s">
-        <v>663</v>
+        <v>695</v>
       </c>
       <c r="H82" t="s">
-        <v>940</v>
+        <v>987</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -6912,13 +7133,13 @@
         <v>1</v>
       </c>
       <c r="C83" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D83" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
       <c r="E83" t="s">
-        <v>664</v>
+        <v>696</v>
       </c>
       <c r="F83">
         <v>13</v>
@@ -6927,7 +7148,7 @@
         <v>3</v>
       </c>
       <c r="H83" t="s">
-        <v>941</v>
+        <v>988</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -6938,13 +7159,13 @@
         <v>2</v>
       </c>
       <c r="C84" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D84" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="E84" t="s">
-        <v>665</v>
+        <v>697</v>
       </c>
       <c r="F84">
         <v>28</v>
@@ -6953,7 +7174,7 @@
         <v>3</v>
       </c>
       <c r="H84" t="s">
-        <v>942</v>
+        <v>989</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -6964,13 +7185,13 @@
         <v>3</v>
       </c>
       <c r="C85" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D85" t="s">
-        <v>382</v>
+        <v>398</v>
       </c>
       <c r="E85" t="s">
-        <v>666</v>
+        <v>698</v>
       </c>
       <c r="F85">
         <v>20</v>
@@ -6979,7 +7200,7 @@
         <v>5</v>
       </c>
       <c r="H85" t="s">
-        <v>943</v>
+        <v>990</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -6990,13 +7211,13 @@
         <v>4</v>
       </c>
       <c r="C86" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D86" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="E86" t="s">
-        <v>667</v>
+        <v>699</v>
       </c>
       <c r="F86">
         <v>48</v>
@@ -7005,7 +7226,7 @@
         <v>3</v>
       </c>
       <c r="H86" t="s">
-        <v>944</v>
+        <v>991</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -7013,16 +7234,16 @@
         <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D87" t="s">
-        <v>384</v>
+        <v>400</v>
       </c>
       <c r="E87" t="s">
-        <v>668</v>
+        <v>700</v>
       </c>
       <c r="H87" t="s">
-        <v>945</v>
+        <v>992</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -7030,16 +7251,16 @@
         <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D88" t="s">
-        <v>385</v>
+        <v>401</v>
       </c>
       <c r="E88" t="s">
-        <v>669</v>
+        <v>701</v>
       </c>
       <c r="H88" t="s">
-        <v>945</v>
+        <v>992</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -7050,13 +7271,13 @@
         <v>5</v>
       </c>
       <c r="C89" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D89" t="s">
-        <v>386</v>
+        <v>402</v>
       </c>
       <c r="E89" t="s">
-        <v>670</v>
+        <v>702</v>
       </c>
       <c r="F89">
         <v>12</v>
@@ -7065,7 +7286,7 @@
         <v>3</v>
       </c>
       <c r="H89" t="s">
-        <v>946</v>
+        <v>993</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -7076,13 +7297,13 @@
         <v>6</v>
       </c>
       <c r="C90" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D90" t="s">
-        <v>387</v>
+        <v>403</v>
       </c>
       <c r="E90" t="s">
-        <v>671</v>
+        <v>703</v>
       </c>
       <c r="F90">
         <v>12</v>
@@ -7091,7 +7312,7 @@
         <v>3</v>
       </c>
       <c r="H90" t="s">
-        <v>947</v>
+        <v>994</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -7102,13 +7323,13 @@
         <v>7</v>
       </c>
       <c r="C91" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D91" t="s">
-        <v>388</v>
+        <v>404</v>
       </c>
       <c r="E91" t="s">
-        <v>672</v>
+        <v>704</v>
       </c>
       <c r="F91">
         <v>12</v>
@@ -7117,7 +7338,7 @@
         <v>3</v>
       </c>
       <c r="H91" t="s">
-        <v>948</v>
+        <v>995</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -7128,13 +7349,13 @@
         <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D92" t="s">
-        <v>389</v>
+        <v>405</v>
       </c>
       <c r="E92" t="s">
-        <v>673</v>
+        <v>705</v>
       </c>
       <c r="F92">
         <v>12</v>
@@ -7143,7 +7364,7 @@
         <v>3</v>
       </c>
       <c r="H92" t="s">
-        <v>949</v>
+        <v>996</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -7154,13 +7375,13 @@
         <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D93" t="s">
-        <v>390</v>
+        <v>406</v>
       </c>
       <c r="E93" t="s">
-        <v>674</v>
+        <v>706</v>
       </c>
       <c r="F93">
         <v>64</v>
@@ -7169,7 +7390,7 @@
         <v>4</v>
       </c>
       <c r="H93" t="s">
-        <v>950</v>
+        <v>997</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -7180,13 +7401,13 @@
         <v>10</v>
       </c>
       <c r="C94" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D94" t="s">
-        <v>391</v>
+        <v>407</v>
       </c>
       <c r="E94" t="s">
-        <v>675</v>
+        <v>707</v>
       </c>
       <c r="F94">
         <v>64</v>
@@ -7195,7 +7416,7 @@
         <v>4</v>
       </c>
       <c r="H94" t="s">
-        <v>951</v>
+        <v>998</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -7203,16 +7424,16 @@
         <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D95" t="s">
-        <v>392</v>
+        <v>408</v>
       </c>
       <c r="E95" t="s">
-        <v>676</v>
+        <v>708</v>
       </c>
       <c r="H95" t="s">
-        <v>952</v>
+        <v>999</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -7220,16 +7441,16 @@
         <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D96" t="s">
-        <v>393</v>
+        <v>409</v>
       </c>
       <c r="E96" t="s">
-        <v>677</v>
+        <v>709</v>
       </c>
       <c r="H96" t="s">
-        <v>952</v>
+        <v>999</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -7240,13 +7461,13 @@
         <v>11</v>
       </c>
       <c r="C97" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D97" t="s">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="E97" t="s">
-        <v>678</v>
+        <v>710</v>
       </c>
       <c r="F97">
         <v>31</v>
@@ -7255,7 +7476,7 @@
         <v>4</v>
       </c>
       <c r="H97" t="s">
-        <v>953</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -7266,13 +7487,13 @@
         <v>12</v>
       </c>
       <c r="C98" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D98" t="s">
-        <v>395</v>
+        <v>411</v>
       </c>
       <c r="E98" t="s">
-        <v>679</v>
+        <v>711</v>
       </c>
       <c r="F98">
         <v>21</v>
@@ -7281,7 +7502,7 @@
         <v>4</v>
       </c>
       <c r="H98" t="s">
-        <v>954</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -7292,13 +7513,13 @@
         <v>13</v>
       </c>
       <c r="C99" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D99" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="E99" t="s">
-        <v>680</v>
+        <v>712</v>
       </c>
       <c r="F99">
         <v>21</v>
@@ -7307,7 +7528,7 @@
         <v>4</v>
       </c>
       <c r="H99" t="s">
-        <v>955</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -7318,13 +7539,13 @@
         <v>14</v>
       </c>
       <c r="C100" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D100" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
       <c r="E100" t="s">
-        <v>681</v>
+        <v>713</v>
       </c>
       <c r="F100">
         <v>21</v>
@@ -7333,7 +7554,7 @@
         <v>4</v>
       </c>
       <c r="H100" t="s">
-        <v>956</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -7344,13 +7565,13 @@
         <v>15</v>
       </c>
       <c r="C101" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D101" t="s">
-        <v>398</v>
+        <v>414</v>
       </c>
       <c r="E101" t="s">
-        <v>682</v>
+        <v>714</v>
       </c>
       <c r="F101">
         <v>21</v>
@@ -7359,7 +7580,7 @@
         <v>4</v>
       </c>
       <c r="H101" t="s">
-        <v>957</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -7370,16 +7591,16 @@
         <v>1</v>
       </c>
       <c r="C102" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D102" t="s">
-        <v>399</v>
+        <v>415</v>
       </c>
       <c r="E102" t="s">
-        <v>683</v>
+        <v>715</v>
       </c>
       <c r="H102" t="s">
-        <v>958</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -7390,16 +7611,16 @@
         <v>2</v>
       </c>
       <c r="C103" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D103" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="E103" t="s">
-        <v>684</v>
+        <v>716</v>
       </c>
       <c r="H103" t="s">
-        <v>959</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -7410,16 +7631,16 @@
         <v>3</v>
       </c>
       <c r="C104" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D104" t="s">
-        <v>401</v>
+        <v>417</v>
       </c>
       <c r="E104" t="s">
-        <v>685</v>
+        <v>717</v>
       </c>
       <c r="H104" t="s">
-        <v>960</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -7430,16 +7651,16 @@
         <v>4</v>
       </c>
       <c r="C105" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D105" t="s">
-        <v>402</v>
+        <v>418</v>
       </c>
       <c r="E105" t="s">
-        <v>686</v>
+        <v>718</v>
       </c>
       <c r="H105" t="s">
-        <v>961</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -7450,30 +7671,30 @@
         <v>5</v>
       </c>
       <c r="C106" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D106" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
       <c r="E106" t="s">
-        <v>687</v>
+        <v>719</v>
       </c>
       <c r="H106" t="s">
-        <v>962</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C107" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D107" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="E107" t="s">
-        <v>688</v>
+        <v>720</v>
       </c>
       <c r="H107" t="s">
-        <v>963</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
@@ -7481,27 +7702,27 @@
         <v>10</v>
       </c>
       <c r="C108" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D108" t="s">
-        <v>405</v>
+        <v>421</v>
       </c>
       <c r="E108" t="s">
-        <v>689</v>
+        <v>721</v>
       </c>
       <c r="H108" t="s">
-        <v>964</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C109" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D109" t="s">
-        <v>406</v>
+        <v>422</v>
       </c>
       <c r="E109" t="s">
-        <v>690</v>
+        <v>722</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
@@ -7512,16 +7733,16 @@
         <v>6</v>
       </c>
       <c r="C110" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D110" t="s">
-        <v>407</v>
+        <v>423</v>
       </c>
       <c r="E110" t="s">
-        <v>691</v>
+        <v>723</v>
       </c>
       <c r="H110" t="s">
-        <v>965</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
@@ -7529,13 +7750,13 @@
         <v>10</v>
       </c>
       <c r="C111" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D111" t="s">
-        <v>408</v>
+        <v>424</v>
       </c>
       <c r="E111" t="s">
-        <v>692</v>
+        <v>724</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
@@ -7543,13 +7764,13 @@
         <v>10</v>
       </c>
       <c r="C112" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D112" t="s">
-        <v>409</v>
+        <v>425</v>
       </c>
       <c r="E112" t="s">
-        <v>693</v>
+        <v>725</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -7560,16 +7781,16 @@
         <v>7</v>
       </c>
       <c r="C113" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D113" t="s">
-        <v>410</v>
+        <v>426</v>
       </c>
       <c r="E113" t="s">
-        <v>694</v>
+        <v>726</v>
       </c>
       <c r="H113" t="s">
-        <v>966</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
@@ -7577,13 +7798,13 @@
         <v>10</v>
       </c>
       <c r="C114" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D114" t="s">
-        <v>411</v>
+        <v>427</v>
       </c>
       <c r="E114" t="s">
-        <v>695</v>
+        <v>727</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
@@ -7591,13 +7812,13 @@
         <v>10</v>
       </c>
       <c r="C115" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D115" t="s">
-        <v>412</v>
+        <v>428</v>
       </c>
       <c r="E115" t="s">
-        <v>696</v>
+        <v>728</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
@@ -7608,16 +7829,16 @@
         <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D116" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="E116" t="s">
-        <v>697</v>
+        <v>729</v>
       </c>
       <c r="H116" t="s">
-        <v>967</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
@@ -7625,13 +7846,13 @@
         <v>10</v>
       </c>
       <c r="C117" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D117" t="s">
-        <v>414</v>
+        <v>430</v>
       </c>
       <c r="E117" t="s">
-        <v>698</v>
+        <v>730</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
@@ -7639,13 +7860,13 @@
         <v>10</v>
       </c>
       <c r="C118" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D118" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="E118" t="s">
-        <v>699</v>
+        <v>731</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
@@ -7656,16 +7877,16 @@
         <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D119" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
       <c r="E119" t="s">
-        <v>700</v>
+        <v>732</v>
       </c>
       <c r="H119" t="s">
-        <v>968</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
@@ -7673,13 +7894,13 @@
         <v>10</v>
       </c>
       <c r="C120" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D120" t="s">
-        <v>417</v>
+        <v>433</v>
       </c>
       <c r="E120" t="s">
-        <v>701</v>
+        <v>733</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
@@ -7687,13 +7908,13 @@
         <v>10</v>
       </c>
       <c r="C121" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D121" t="s">
-        <v>418</v>
+        <v>434</v>
       </c>
       <c r="E121" t="s">
-        <v>702</v>
+        <v>734</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -7704,16 +7925,16 @@
         <v>10</v>
       </c>
       <c r="C122" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D122" t="s">
-        <v>419</v>
+        <v>435</v>
       </c>
       <c r="E122" t="s">
-        <v>703</v>
+        <v>735</v>
       </c>
       <c r="H122" t="s">
-        <v>969</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
@@ -7724,16 +7945,16 @@
         <v>11</v>
       </c>
       <c r="C123" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D123" t="s">
-        <v>420</v>
+        <v>436</v>
       </c>
       <c r="E123" t="s">
-        <v>704</v>
+        <v>736</v>
       </c>
       <c r="H123" t="s">
-        <v>970</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
@@ -7744,16 +7965,16 @@
         <v>12</v>
       </c>
       <c r="C124" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D124" t="s">
-        <v>421</v>
+        <v>437</v>
       </c>
       <c r="E124" t="s">
-        <v>705</v>
+        <v>737</v>
       </c>
       <c r="H124" t="s">
-        <v>971</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
@@ -7761,13 +7982,13 @@
         <v>10</v>
       </c>
       <c r="C125" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D125" t="s">
-        <v>422</v>
+        <v>438</v>
       </c>
       <c r="E125" t="s">
-        <v>706</v>
+        <v>738</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
@@ -7775,13 +7996,13 @@
         <v>10</v>
       </c>
       <c r="C126" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D126" t="s">
-        <v>423</v>
+        <v>439</v>
       </c>
       <c r="E126" t="s">
-        <v>707</v>
+        <v>739</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
@@ -7792,16 +8013,16 @@
         <v>13</v>
       </c>
       <c r="C127" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D127" t="s">
-        <v>424</v>
+        <v>440</v>
       </c>
       <c r="E127" t="s">
-        <v>708</v>
+        <v>740</v>
       </c>
       <c r="H127" t="s">
-        <v>972</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
@@ -7809,13 +8030,13 @@
         <v>10</v>
       </c>
       <c r="C128" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D128" t="s">
-        <v>425</v>
+        <v>441</v>
       </c>
       <c r="E128" t="s">
-        <v>709</v>
+        <v>741</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
@@ -7823,13 +8044,13 @@
         <v>10</v>
       </c>
       <c r="C129" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D129" t="s">
-        <v>426</v>
+        <v>442</v>
       </c>
       <c r="E129" t="s">
-        <v>710</v>
+        <v>742</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
@@ -7840,16 +8061,16 @@
         <v>14</v>
       </c>
       <c r="C130" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D130" t="s">
-        <v>427</v>
+        <v>443</v>
       </c>
       <c r="E130" t="s">
-        <v>711</v>
+        <v>743</v>
       </c>
       <c r="H130" t="s">
-        <v>973</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
@@ -7860,16 +8081,16 @@
         <v>15</v>
       </c>
       <c r="C131" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D131" t="s">
-        <v>428</v>
+        <v>444</v>
       </c>
       <c r="E131" t="s">
-        <v>712</v>
+        <v>744</v>
       </c>
       <c r="H131" t="s">
-        <v>974</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
@@ -7877,13 +8098,13 @@
         <v>10</v>
       </c>
       <c r="C132" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D132" t="s">
-        <v>429</v>
+        <v>445</v>
       </c>
       <c r="E132" t="s">
-        <v>713</v>
+        <v>745</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
@@ -7891,13 +8112,13 @@
         <v>10</v>
       </c>
       <c r="C133" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D133" t="s">
-        <v>430</v>
+        <v>446</v>
       </c>
       <c r="E133" t="s">
-        <v>714</v>
+        <v>746</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
@@ -7908,16 +8129,16 @@
         <v>16</v>
       </c>
       <c r="C134" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D134" t="s">
-        <v>431</v>
+        <v>447</v>
       </c>
       <c r="E134" t="s">
-        <v>715</v>
+        <v>747</v>
       </c>
       <c r="H134" t="s">
-        <v>975</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
@@ -7928,16 +8149,16 @@
         <v>17</v>
       </c>
       <c r="C135" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D135" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="E135" t="s">
-        <v>716</v>
+        <v>748</v>
       </c>
       <c r="H135" t="s">
-        <v>976</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
@@ -7948,16 +8169,16 @@
         <v>18</v>
       </c>
       <c r="C136" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D136" t="s">
-        <v>433</v>
+        <v>449</v>
       </c>
       <c r="E136" t="s">
-        <v>717</v>
+        <v>749</v>
       </c>
       <c r="H136" t="s">
-        <v>977</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
@@ -7965,13 +8186,13 @@
         <v>10</v>
       </c>
       <c r="C137" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D137" t="s">
-        <v>434</v>
+        <v>450</v>
       </c>
       <c r="E137" t="s">
-        <v>718</v>
+        <v>750</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
@@ -7979,13 +8200,13 @@
         <v>10</v>
       </c>
       <c r="C138" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D138" t="s">
-        <v>435</v>
+        <v>451</v>
       </c>
       <c r="E138" t="s">
-        <v>719</v>
+        <v>751</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
@@ -7996,16 +8217,16 @@
         <v>19</v>
       </c>
       <c r="C139" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D139" t="s">
-        <v>436</v>
+        <v>452</v>
       </c>
       <c r="E139" t="s">
-        <v>720</v>
+        <v>752</v>
       </c>
       <c r="H139" t="s">
-        <v>978</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
@@ -8016,16 +8237,16 @@
         <v>20</v>
       </c>
       <c r="C140" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D140" t="s">
-        <v>437</v>
+        <v>453</v>
       </c>
       <c r="E140" t="s">
-        <v>721</v>
+        <v>753</v>
       </c>
       <c r="H140" t="s">
-        <v>979</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
@@ -8033,13 +8254,13 @@
         <v>10</v>
       </c>
       <c r="C141" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D141" t="s">
-        <v>438</v>
+        <v>454</v>
       </c>
       <c r="E141" t="s">
-        <v>722</v>
+        <v>754</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
@@ -8047,13 +8268,13 @@
         <v>10</v>
       </c>
       <c r="C142" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D142" t="s">
-        <v>439</v>
+        <v>455</v>
       </c>
       <c r="E142" t="s">
-        <v>723</v>
+        <v>755</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
@@ -8064,16 +8285,16 @@
         <v>21</v>
       </c>
       <c r="C143" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D143" t="s">
-        <v>440</v>
+        <v>456</v>
       </c>
       <c r="E143" t="s">
-        <v>724</v>
+        <v>756</v>
       </c>
       <c r="H143" t="s">
-        <v>980</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
@@ -8084,16 +8305,16 @@
         <v>22</v>
       </c>
       <c r="C144" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D144" t="s">
-        <v>441</v>
+        <v>457</v>
       </c>
       <c r="E144" t="s">
-        <v>725</v>
+        <v>757</v>
       </c>
       <c r="H144" t="s">
-        <v>981</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
@@ -8104,16 +8325,16 @@
         <v>23</v>
       </c>
       <c r="C145" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D145" t="s">
-        <v>442</v>
+        <v>458</v>
       </c>
       <c r="E145" t="s">
-        <v>726</v>
+        <v>758</v>
       </c>
       <c r="H145" t="s">
-        <v>982</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
@@ -8124,16 +8345,16 @@
         <v>24</v>
       </c>
       <c r="C146" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D146" t="s">
-        <v>443</v>
+        <v>459</v>
       </c>
       <c r="E146" t="s">
-        <v>727</v>
+        <v>759</v>
       </c>
       <c r="H146" t="s">
-        <v>983</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
@@ -8144,16 +8365,16 @@
         <v>25</v>
       </c>
       <c r="C147" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D147" t="s">
-        <v>444</v>
+        <v>460</v>
       </c>
       <c r="E147" t="s">
-        <v>728</v>
+        <v>760</v>
       </c>
       <c r="H147" t="s">
-        <v>984</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
@@ -8161,16 +8382,16 @@
         <v>10</v>
       </c>
       <c r="C148" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D148" t="s">
-        <v>445</v>
+        <v>461</v>
       </c>
       <c r="E148" t="s">
-        <v>729</v>
+        <v>761</v>
       </c>
       <c r="H148" t="s">
-        <v>985</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
@@ -8178,13 +8399,13 @@
         <v>10</v>
       </c>
       <c r="C149" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D149" t="s">
-        <v>446</v>
+        <v>462</v>
       </c>
       <c r="E149" t="s">
-        <v>730</v>
+        <v>762</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
@@ -8192,13 +8413,13 @@
         <v>10</v>
       </c>
       <c r="C150" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D150" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
       <c r="E150" t="s">
-        <v>731</v>
+        <v>763</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
@@ -8206,13 +8427,13 @@
         <v>10</v>
       </c>
       <c r="C151" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D151" t="s">
-        <v>448</v>
+        <v>464</v>
       </c>
       <c r="E151" t="s">
-        <v>732</v>
+        <v>764</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
@@ -8223,16 +8444,16 @@
         <v>26</v>
       </c>
       <c r="C152" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D152" t="s">
-        <v>449</v>
+        <v>465</v>
       </c>
       <c r="E152" t="s">
-        <v>733</v>
+        <v>765</v>
       </c>
       <c r="H152" t="s">
-        <v>986</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
@@ -8243,16 +8464,16 @@
         <v>27</v>
       </c>
       <c r="C153" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D153" t="s">
-        <v>450</v>
+        <v>466</v>
       </c>
       <c r="E153" t="s">
-        <v>734</v>
+        <v>766</v>
       </c>
       <c r="H153" t="s">
-        <v>987</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
@@ -8260,16 +8481,16 @@
         <v>10</v>
       </c>
       <c r="C154" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D154" t="s">
-        <v>451</v>
+        <v>467</v>
       </c>
       <c r="E154" t="s">
-        <v>735</v>
+        <v>767</v>
       </c>
       <c r="H154" t="s">
-        <v>988</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
@@ -8277,13 +8498,13 @@
         <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D155" t="s">
-        <v>452</v>
+        <v>468</v>
       </c>
       <c r="E155" t="s">
-        <v>736</v>
+        <v>768</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
@@ -8291,13 +8512,13 @@
         <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D156" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
       <c r="E156" t="s">
-        <v>737</v>
+        <v>769</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
@@ -8308,13 +8529,13 @@
         <v>25</v>
       </c>
       <c r="C157" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D157" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="E157" t="s">
-        <v>738</v>
+        <v>770</v>
       </c>
       <c r="F157">
         <v>4</v>
@@ -8323,7 +8544,7 @@
         <v>4</v>
       </c>
       <c r="H157" t="s">
-        <v>989</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
@@ -8334,13 +8555,13 @@
         <v>25</v>
       </c>
       <c r="C158" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D158" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="E158" t="s">
-        <v>739</v>
+        <v>771</v>
       </c>
       <c r="F158">
         <v>4</v>
@@ -8349,7 +8570,7 @@
         <v>4</v>
       </c>
       <c r="H158" t="s">
-        <v>990</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
@@ -8360,13 +8581,13 @@
         <v>26</v>
       </c>
       <c r="C159" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D159" t="s">
-        <v>456</v>
+        <v>472</v>
       </c>
       <c r="E159" t="s">
-        <v>740</v>
+        <v>772</v>
       </c>
       <c r="F159">
         <v>46</v>
@@ -8375,7 +8596,7 @@
         <v>2</v>
       </c>
       <c r="H159" t="s">
-        <v>991</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
@@ -8386,13 +8607,13 @@
         <v>26</v>
       </c>
       <c r="C160" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D160" t="s">
-        <v>457</v>
+        <v>473</v>
       </c>
       <c r="E160" t="s">
-        <v>741</v>
+        <v>773</v>
       </c>
       <c r="F160">
         <v>46</v>
@@ -8401,7 +8622,7 @@
         <v>2</v>
       </c>
       <c r="H160" t="s">
-        <v>992</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
@@ -8409,13 +8630,13 @@
         <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D161" t="s">
-        <v>458</v>
+        <v>474</v>
       </c>
       <c r="E161" t="s">
-        <v>742</v>
+        <v>774</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
@@ -8423,13 +8644,13 @@
         <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D162" t="s">
-        <v>459</v>
+        <v>475</v>
       </c>
       <c r="E162" t="s">
-        <v>743</v>
+        <v>775</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
@@ -8440,13 +8661,13 @@
         <v>27</v>
       </c>
       <c r="C163" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D163" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="E163" t="s">
-        <v>744</v>
+        <v>776</v>
       </c>
       <c r="F163">
         <v>27</v>
@@ -8455,7 +8676,7 @@
         <v>6</v>
       </c>
       <c r="H163" t="s">
-        <v>993</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
@@ -8466,13 +8687,13 @@
         <v>27</v>
       </c>
       <c r="C164" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D164" t="s">
-        <v>461</v>
+        <v>477</v>
       </c>
       <c r="E164" t="s">
-        <v>745</v>
+        <v>777</v>
       </c>
       <c r="F164">
         <v>27</v>
@@ -8481,7 +8702,7 @@
         <v>6</v>
       </c>
       <c r="H164" t="s">
-        <v>994</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
@@ -8492,13 +8713,13 @@
         <v>28</v>
       </c>
       <c r="C165" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D165" t="s">
-        <v>462</v>
+        <v>478</v>
       </c>
       <c r="E165" t="s">
-        <v>746</v>
+        <v>778</v>
       </c>
       <c r="F165">
         <v>58</v>
@@ -8507,7 +8728,7 @@
         <v>2</v>
       </c>
       <c r="H165" t="s">
-        <v>995</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
@@ -8518,13 +8739,13 @@
         <v>28</v>
       </c>
       <c r="C166" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D166" t="s">
-        <v>463</v>
+        <v>479</v>
       </c>
       <c r="E166" t="s">
-        <v>747</v>
+        <v>779</v>
       </c>
       <c r="F166">
         <v>58</v>
@@ -8533,7 +8754,7 @@
         <v>2</v>
       </c>
       <c r="H166" t="s">
-        <v>996</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
@@ -8541,13 +8762,13 @@
         <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D167" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
       <c r="E167" t="s">
-        <v>748</v>
+        <v>780</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
@@ -8555,13 +8776,13 @@
         <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D168" t="s">
-        <v>465</v>
+        <v>481</v>
       </c>
       <c r="E168" t="s">
-        <v>749</v>
+        <v>781</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
@@ -8572,13 +8793,13 @@
         <v>29</v>
       </c>
       <c r="C169" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D169" t="s">
-        <v>466</v>
+        <v>482</v>
       </c>
       <c r="E169" t="s">
-        <v>750</v>
+        <v>782</v>
       </c>
       <c r="F169">
         <v>1</v>
@@ -8587,7 +8808,7 @@
         <v>5</v>
       </c>
       <c r="H169" t="s">
-        <v>997</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
@@ -8598,13 +8819,13 @@
         <v>29</v>
       </c>
       <c r="C170" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D170" t="s">
-        <v>467</v>
+        <v>483</v>
       </c>
       <c r="E170" t="s">
-        <v>751</v>
+        <v>783</v>
       </c>
       <c r="F170">
         <v>1</v>
@@ -8613,7 +8834,7 @@
         <v>5</v>
       </c>
       <c r="H170" t="s">
-        <v>998</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
@@ -8624,13 +8845,13 @@
         <v>30</v>
       </c>
       <c r="C171" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D171" t="s">
-        <v>468</v>
+        <v>484</v>
       </c>
       <c r="E171" t="s">
-        <v>752</v>
+        <v>784</v>
       </c>
       <c r="F171">
         <v>53</v>
@@ -8639,7 +8860,7 @@
         <v>3</v>
       </c>
       <c r="H171" t="s">
-        <v>999</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
@@ -8650,13 +8871,13 @@
         <v>30</v>
       </c>
       <c r="C172" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D172" t="s">
-        <v>469</v>
+        <v>485</v>
       </c>
       <c r="E172" t="s">
-        <v>753</v>
+        <v>785</v>
       </c>
       <c r="F172">
         <v>53</v>
@@ -8665,7 +8886,7 @@
         <v>3</v>
       </c>
       <c r="H172" t="s">
-        <v>1000</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
@@ -8676,13 +8897,13 @@
         <v>31</v>
       </c>
       <c r="C173" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D173" t="s">
-        <v>470</v>
+        <v>486</v>
       </c>
       <c r="E173" t="s">
-        <v>754</v>
+        <v>786</v>
       </c>
       <c r="F173">
         <v>37</v>
@@ -8691,7 +8912,7 @@
         <v>2</v>
       </c>
       <c r="H173" t="s">
-        <v>1001</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
@@ -8702,13 +8923,13 @@
         <v>31</v>
       </c>
       <c r="C174" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D174" t="s">
-        <v>471</v>
+        <v>487</v>
       </c>
       <c r="E174" t="s">
-        <v>755</v>
+        <v>787</v>
       </c>
       <c r="F174">
         <v>37</v>
@@ -8717,7 +8938,7 @@
         <v>2</v>
       </c>
       <c r="H174" t="s">
-        <v>1002</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
@@ -8725,13 +8946,13 @@
         <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D175" t="s">
-        <v>472</v>
+        <v>488</v>
       </c>
       <c r="E175" t="s">
-        <v>756</v>
+        <v>788</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
@@ -8739,13 +8960,13 @@
         <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D176" t="s">
-        <v>473</v>
+        <v>489</v>
       </c>
       <c r="E176" t="s">
-        <v>757</v>
+        <v>789</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
@@ -8756,13 +8977,13 @@
         <v>32</v>
       </c>
       <c r="C177" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D177" t="s">
-        <v>474</v>
+        <v>490</v>
       </c>
       <c r="E177" t="s">
-        <v>758</v>
+        <v>790</v>
       </c>
       <c r="F177">
         <v>8</v>
@@ -8771,7 +8992,7 @@
         <v>3</v>
       </c>
       <c r="H177" t="s">
-        <v>1003</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
@@ -8782,13 +9003,13 @@
         <v>32</v>
       </c>
       <c r="C178" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D178" t="s">
-        <v>475</v>
+        <v>491</v>
       </c>
       <c r="E178" t="s">
-        <v>759</v>
+        <v>791</v>
       </c>
       <c r="F178">
         <v>8</v>
@@ -8797,7 +9018,7 @@
         <v>3</v>
       </c>
       <c r="H178" t="s">
-        <v>1004</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
@@ -8808,13 +9029,13 @@
         <v>33</v>
       </c>
       <c r="C179" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D179" t="s">
-        <v>476</v>
+        <v>492</v>
       </c>
       <c r="E179" t="s">
-        <v>760</v>
+        <v>792</v>
       </c>
       <c r="F179">
         <v>50</v>
@@ -8823,7 +9044,7 @@
         <v>3</v>
       </c>
       <c r="H179" t="s">
-        <v>1005</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
@@ -8834,13 +9055,13 @@
         <v>33</v>
       </c>
       <c r="C180" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D180" t="s">
-        <v>477</v>
+        <v>493</v>
       </c>
       <c r="E180" t="s">
-        <v>761</v>
+        <v>793</v>
       </c>
       <c r="F180">
         <v>50</v>
@@ -8849,7 +9070,7 @@
         <v>3</v>
       </c>
       <c r="H180" t="s">
-        <v>1006</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
@@ -8857,16 +9078,16 @@
         <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D181" t="s">
-        <v>478</v>
+        <v>494</v>
       </c>
       <c r="E181" t="s">
-        <v>762</v>
+        <v>794</v>
       </c>
       <c r="H181" t="s">
-        <v>1007</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
@@ -8874,13 +9095,13 @@
         <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D182" t="s">
-        <v>479</v>
+        <v>495</v>
       </c>
       <c r="E182" t="s">
-        <v>763</v>
+        <v>795</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
@@ -8891,13 +9112,13 @@
         <v>34</v>
       </c>
       <c r="C183" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D183" t="s">
-        <v>480</v>
+        <v>496</v>
       </c>
       <c r="E183" t="s">
-        <v>764</v>
+        <v>796</v>
       </c>
       <c r="F183">
         <v>62</v>
@@ -8906,7 +9127,7 @@
         <v>3</v>
       </c>
       <c r="H183" t="s">
-        <v>1008</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
@@ -8917,13 +9138,13 @@
         <v>34</v>
       </c>
       <c r="C184" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D184" t="s">
-        <v>481</v>
+        <v>497</v>
       </c>
       <c r="E184" t="s">
-        <v>765</v>
+        <v>797</v>
       </c>
       <c r="F184">
         <v>62</v>
@@ -8932,7 +9153,7 @@
         <v>3</v>
       </c>
       <c r="H184" t="s">
-        <v>1009</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
@@ -8943,13 +9164,13 @@
         <v>35</v>
       </c>
       <c r="C185" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D185" t="s">
-        <v>482</v>
+        <v>498</v>
       </c>
       <c r="E185" t="s">
-        <v>766</v>
+        <v>798</v>
       </c>
       <c r="F185">
         <v>48</v>
@@ -8958,7 +9179,7 @@
         <v>2</v>
       </c>
       <c r="H185" t="s">
-        <v>1010</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
@@ -8969,13 +9190,13 @@
         <v>35</v>
       </c>
       <c r="C186" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D186" t="s">
-        <v>483</v>
+        <v>499</v>
       </c>
       <c r="E186" t="s">
-        <v>767</v>
+        <v>799</v>
       </c>
       <c r="F186">
         <v>48</v>
@@ -8984,7 +9205,7 @@
         <v>2</v>
       </c>
       <c r="H186" t="s">
-        <v>1011</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
@@ -8995,13 +9216,13 @@
         <v>36</v>
       </c>
       <c r="C187" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D187" t="s">
-        <v>484</v>
+        <v>500</v>
       </c>
       <c r="E187" t="s">
-        <v>768</v>
+        <v>800</v>
       </c>
       <c r="F187">
         <v>45</v>
@@ -9010,7 +9231,7 @@
         <v>2</v>
       </c>
       <c r="H187" t="s">
-        <v>1012</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
@@ -9021,13 +9242,13 @@
         <v>36</v>
       </c>
       <c r="C188" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D188" t="s">
-        <v>485</v>
+        <v>501</v>
       </c>
       <c r="E188" t="s">
-        <v>769</v>
+        <v>801</v>
       </c>
       <c r="F188">
         <v>45</v>
@@ -9036,7 +9257,7 @@
         <v>2</v>
       </c>
       <c r="H188" t="s">
-        <v>1013</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
@@ -9044,13 +9265,13 @@
         <v>8</v>
       </c>
       <c r="C189" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D189" t="s">
-        <v>486</v>
+        <v>502</v>
       </c>
       <c r="E189" t="s">
-        <v>770</v>
+        <v>802</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
@@ -9061,13 +9282,13 @@
         <v>37</v>
       </c>
       <c r="C190" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D190" t="s">
-        <v>487</v>
+        <v>503</v>
       </c>
       <c r="E190" t="s">
-        <v>771</v>
+        <v>803</v>
       </c>
       <c r="F190">
         <v>2</v>
@@ -9076,7 +9297,7 @@
         <v>3</v>
       </c>
       <c r="H190" t="s">
-        <v>1014</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
@@ -9087,13 +9308,13 @@
         <v>37</v>
       </c>
       <c r="C191" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D191" t="s">
-        <v>488</v>
+        <v>504</v>
       </c>
       <c r="E191" t="s">
-        <v>772</v>
+        <v>804</v>
       </c>
       <c r="F191">
         <v>2</v>
@@ -9102,7 +9323,7 @@
         <v>3</v>
       </c>
       <c r="H191" t="s">
-        <v>1015</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
@@ -9113,13 +9334,13 @@
         <v>38</v>
       </c>
       <c r="C192" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D192" t="s">
-        <v>489</v>
+        <v>505</v>
       </c>
       <c r="E192" t="s">
-        <v>773</v>
+        <v>805</v>
       </c>
       <c r="F192">
         <v>19</v>
@@ -9128,18 +9349,18 @@
         <v>6</v>
       </c>
       <c r="H192" t="s">
-        <v>1016</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C193" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D193" t="s">
-        <v>490</v>
+        <v>506</v>
       </c>
       <c r="E193" t="s">
-        <v>774</v>
+        <v>806</v>
       </c>
       <c r="F193">
         <v>19</v>
@@ -9156,13 +9377,13 @@
         <v>38</v>
       </c>
       <c r="C194" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D194" t="s">
-        <v>491</v>
+        <v>507</v>
       </c>
       <c r="E194" t="s">
-        <v>775</v>
+        <v>807</v>
       </c>
       <c r="F194">
         <v>19</v>
@@ -9171,7 +9392,7 @@
         <v>6</v>
       </c>
       <c r="H194" t="s">
-        <v>1017</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
@@ -9179,13 +9400,13 @@
         <v>8</v>
       </c>
       <c r="C195" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D195" t="s">
-        <v>492</v>
+        <v>508</v>
       </c>
       <c r="E195" t="s">
-        <v>776</v>
+        <v>808</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
@@ -9196,13 +9417,13 @@
         <v>39</v>
       </c>
       <c r="C196" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D196" t="s">
-        <v>493</v>
+        <v>509</v>
       </c>
       <c r="E196" t="s">
-        <v>777</v>
+        <v>809</v>
       </c>
       <c r="F196">
         <v>5</v>
@@ -9211,7 +9432,7 @@
         <v>3</v>
       </c>
       <c r="H196" t="s">
-        <v>1018</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
@@ -9222,13 +9443,13 @@
         <v>39</v>
       </c>
       <c r="C197" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D197" t="s">
-        <v>494</v>
+        <v>510</v>
       </c>
       <c r="E197" t="s">
-        <v>778</v>
+        <v>810</v>
       </c>
       <c r="F197">
         <v>5</v>
@@ -9237,7 +9458,7 @@
         <v>3</v>
       </c>
       <c r="H197" t="s">
-        <v>1019</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
@@ -9248,13 +9469,13 @@
         <v>40</v>
       </c>
       <c r="C198" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D198" t="s">
-        <v>495</v>
+        <v>511</v>
       </c>
       <c r="E198" t="s">
-        <v>779</v>
+        <v>811</v>
       </c>
       <c r="F198">
         <v>15</v>
@@ -9263,7 +9484,7 @@
         <v>3</v>
       </c>
       <c r="H198" t="s">
-        <v>1020</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
@@ -9274,13 +9495,13 @@
         <v>40</v>
       </c>
       <c r="C199" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D199" t="s">
-        <v>496</v>
+        <v>512</v>
       </c>
       <c r="E199" t="s">
-        <v>780</v>
+        <v>812</v>
       </c>
       <c r="F199">
         <v>15</v>
@@ -9289,7 +9510,7 @@
         <v>3</v>
       </c>
       <c r="H199" t="s">
-        <v>1021</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
@@ -9297,13 +9518,13 @@
         <v>8</v>
       </c>
       <c r="C200" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D200" t="s">
-        <v>497</v>
+        <v>513</v>
       </c>
       <c r="E200" t="s">
-        <v>781</v>
+        <v>813</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
@@ -9314,13 +9535,13 @@
         <v>41</v>
       </c>
       <c r="C201" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D201" t="s">
-        <v>498</v>
+        <v>514</v>
       </c>
       <c r="E201" t="s">
-        <v>782</v>
+        <v>814</v>
       </c>
       <c r="F201">
         <v>30</v>
@@ -9329,7 +9550,7 @@
         <v>4</v>
       </c>
       <c r="H201" t="s">
-        <v>1022</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
@@ -9340,13 +9561,13 @@
         <v>41</v>
       </c>
       <c r="C202" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D202" t="s">
-        <v>499</v>
+        <v>515</v>
       </c>
       <c r="E202" t="s">
-        <v>783</v>
+        <v>815</v>
       </c>
       <c r="F202">
         <v>30</v>
@@ -9355,7 +9576,7 @@
         <v>4</v>
       </c>
       <c r="H202" t="s">
-        <v>1023</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
@@ -9366,13 +9587,13 @@
         <v>42</v>
       </c>
       <c r="C203" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D203" t="s">
-        <v>500</v>
+        <v>516</v>
       </c>
       <c r="E203" t="s">
-        <v>784</v>
+        <v>816</v>
       </c>
       <c r="F203">
         <v>16</v>
@@ -9381,7 +9602,7 @@
         <v>3</v>
       </c>
       <c r="H203" t="s">
-        <v>1024</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
@@ -9392,13 +9613,13 @@
         <v>42</v>
       </c>
       <c r="C204" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D204" t="s">
-        <v>501</v>
+        <v>517</v>
       </c>
       <c r="E204" t="s">
-        <v>785</v>
+        <v>817</v>
       </c>
       <c r="F204">
         <v>16</v>
@@ -9407,7 +9628,7 @@
         <v>3</v>
       </c>
       <c r="H204" t="s">
-        <v>1025</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
@@ -9418,13 +9639,13 @@
         <v>43</v>
       </c>
       <c r="C205" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D205" t="s">
-        <v>502</v>
+        <v>518</v>
       </c>
       <c r="E205" t="s">
-        <v>786</v>
+        <v>818</v>
       </c>
       <c r="F205">
         <v>52</v>
@@ -9433,7 +9654,7 @@
         <v>4</v>
       </c>
       <c r="H205" t="s">
-        <v>1026</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
@@ -9444,13 +9665,13 @@
         <v>43</v>
       </c>
       <c r="C206" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D206" t="s">
-        <v>503</v>
+        <v>519</v>
       </c>
       <c r="E206" t="s">
-        <v>787</v>
+        <v>819</v>
       </c>
       <c r="F206">
         <v>52</v>
@@ -9459,7 +9680,7 @@
         <v>4</v>
       </c>
       <c r="H206" t="s">
-        <v>1027</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
@@ -9467,13 +9688,13 @@
         <v>8</v>
       </c>
       <c r="C207" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D207" t="s">
-        <v>504</v>
+        <v>520</v>
       </c>
       <c r="E207" t="s">
-        <v>788</v>
+        <v>820</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
@@ -9484,13 +9705,13 @@
         <v>44</v>
       </c>
       <c r="C208" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D208" t="s">
-        <v>505</v>
+        <v>521</v>
       </c>
       <c r="E208" t="s">
-        <v>789</v>
+        <v>821</v>
       </c>
       <c r="F208">
         <v>54</v>
@@ -9499,7 +9720,7 @@
         <v>3</v>
       </c>
       <c r="H208" t="s">
-        <v>1028</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
@@ -9510,13 +9731,13 @@
         <v>44</v>
       </c>
       <c r="C209" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D209" t="s">
-        <v>506</v>
+        <v>522</v>
       </c>
       <c r="E209" t="s">
-        <v>790</v>
+        <v>822</v>
       </c>
       <c r="F209">
         <v>54</v>
@@ -9525,7 +9746,7 @@
         <v>3</v>
       </c>
       <c r="H209" t="s">
-        <v>1029</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
@@ -9536,13 +9757,13 @@
         <v>45</v>
       </c>
       <c r="C210" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D210" t="s">
-        <v>507</v>
+        <v>523</v>
       </c>
       <c r="E210" t="s">
-        <v>791</v>
+        <v>823</v>
       </c>
       <c r="F210">
         <v>57</v>
@@ -9551,7 +9772,7 @@
         <v>2</v>
       </c>
       <c r="H210" t="s">
-        <v>1030</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
@@ -9562,13 +9783,13 @@
         <v>45</v>
       </c>
       <c r="C211" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D211" t="s">
-        <v>508</v>
+        <v>524</v>
       </c>
       <c r="E211" t="s">
-        <v>792</v>
+        <v>824</v>
       </c>
       <c r="F211">
         <v>57</v>
@@ -9577,7 +9798,7 @@
         <v>2</v>
       </c>
       <c r="H211" t="s">
-        <v>1031</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
@@ -9588,13 +9809,13 @@
         <v>46</v>
       </c>
       <c r="C212" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D212" t="s">
-        <v>509</v>
+        <v>525</v>
       </c>
       <c r="E212" t="s">
-        <v>793</v>
+        <v>825</v>
       </c>
       <c r="F212">
         <v>22</v>
@@ -9603,7 +9824,7 @@
         <v>3</v>
       </c>
       <c r="H212" t="s">
-        <v>1032</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
@@ -9614,13 +9835,13 @@
         <v>46</v>
       </c>
       <c r="C213" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D213" t="s">
-        <v>510</v>
+        <v>526</v>
       </c>
       <c r="E213" t="s">
-        <v>794</v>
+        <v>826</v>
       </c>
       <c r="F213">
         <v>22</v>
@@ -9629,7 +9850,7 @@
         <v>3</v>
       </c>
       <c r="H213" t="s">
-        <v>1033</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
@@ -9637,13 +9858,13 @@
         <v>11</v>
       </c>
       <c r="C214" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D214" t="s">
-        <v>511</v>
+        <v>527</v>
       </c>
       <c r="E214" t="s">
-        <v>795</v>
+        <v>827</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
@@ -9651,16 +9872,16 @@
         <v>11</v>
       </c>
       <c r="C215" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D215" t="s">
-        <v>512</v>
+        <v>528</v>
       </c>
       <c r="E215" t="s">
-        <v>796</v>
+        <v>828</v>
       </c>
       <c r="H215" t="s">
-        <v>1034</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
@@ -9668,16 +9889,16 @@
         <v>11</v>
       </c>
       <c r="C216" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D216" t="s">
-        <v>513</v>
+        <v>529</v>
       </c>
       <c r="E216" t="s">
-        <v>797</v>
+        <v>829</v>
       </c>
       <c r="H216" t="s">
-        <v>1035</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
@@ -9685,16 +9906,16 @@
         <v>12</v>
       </c>
       <c r="C217" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D217" t="s">
-        <v>514</v>
+        <v>530</v>
       </c>
       <c r="E217" t="s">
-        <v>798</v>
+        <v>830</v>
       </c>
       <c r="H217" t="s">
-        <v>1036</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
@@ -9702,16 +9923,16 @@
         <v>12</v>
       </c>
       <c r="C218" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D218" t="s">
-        <v>515</v>
+        <v>531</v>
       </c>
       <c r="E218" t="s">
-        <v>799</v>
+        <v>831</v>
       </c>
       <c r="H218" t="s">
-        <v>1036</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
@@ -9722,13 +9943,13 @@
         <v>1</v>
       </c>
       <c r="C219" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D219" t="s">
-        <v>516</v>
+        <v>532</v>
       </c>
       <c r="E219" t="s">
-        <v>800</v>
+        <v>832</v>
       </c>
       <c r="F219">
         <v>30</v>
@@ -9737,7 +9958,7 @@
         <v>3</v>
       </c>
       <c r="H219" t="s">
-        <v>1037</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
@@ -9748,13 +9969,13 @@
         <v>2</v>
       </c>
       <c r="C220" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D220" t="s">
-        <v>517</v>
+        <v>533</v>
       </c>
       <c r="E220" t="s">
-        <v>801</v>
+        <v>833</v>
       </c>
       <c r="F220">
         <v>30</v>
@@ -9763,7 +9984,7 @@
         <v>3</v>
       </c>
       <c r="H220" t="s">
-        <v>1038</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
@@ -9774,13 +9995,13 @@
         <v>3</v>
       </c>
       <c r="C221" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D221" t="s">
-        <v>518</v>
+        <v>534</v>
       </c>
       <c r="E221" t="s">
-        <v>802</v>
+        <v>834</v>
       </c>
       <c r="F221">
         <v>58</v>
@@ -9789,7 +10010,7 @@
         <v>4</v>
       </c>
       <c r="H221" t="s">
-        <v>1039</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
@@ -9800,13 +10021,13 @@
         <v>4</v>
       </c>
       <c r="C222" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D222" t="s">
-        <v>519</v>
+        <v>535</v>
       </c>
       <c r="E222" t="s">
-        <v>803</v>
+        <v>835</v>
       </c>
       <c r="F222">
         <v>58</v>
@@ -9815,7 +10036,7 @@
         <v>4</v>
       </c>
       <c r="H222" t="s">
-        <v>1040</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
@@ -9826,13 +10047,13 @@
         <v>5</v>
       </c>
       <c r="C223" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D223" t="s">
-        <v>520</v>
+        <v>536</v>
       </c>
       <c r="E223" t="s">
-        <v>804</v>
+        <v>836</v>
       </c>
       <c r="F223">
         <v>34</v>
@@ -9841,7 +10062,7 @@
         <v>3</v>
       </c>
       <c r="H223" t="s">
-        <v>1041</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
@@ -9849,16 +10070,16 @@
         <v>12</v>
       </c>
       <c r="C224" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D224" t="s">
-        <v>521</v>
+        <v>537</v>
       </c>
       <c r="E224" t="s">
-        <v>805</v>
+        <v>837</v>
       </c>
       <c r="H224" t="s">
-        <v>1042</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
@@ -9866,16 +10087,16 @@
         <v>12</v>
       </c>
       <c r="C225" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D225" t="s">
-        <v>522</v>
+        <v>538</v>
       </c>
       <c r="E225" t="s">
-        <v>806</v>
+        <v>838</v>
       </c>
       <c r="H225" t="s">
-        <v>1042</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
@@ -9886,16 +10107,16 @@
         <v>6</v>
       </c>
       <c r="C226" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D226" t="s">
-        <v>523</v>
+        <v>539</v>
       </c>
       <c r="E226" t="s">
-        <v>807</v>
+        <v>839</v>
       </c>
       <c r="H226" t="s">
-        <v>1043</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
@@ -9906,16 +10127,16 @@
         <v>7</v>
       </c>
       <c r="C227" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D227" t="s">
-        <v>524</v>
+        <v>540</v>
       </c>
       <c r="E227" t="s">
-        <v>808</v>
+        <v>840</v>
       </c>
       <c r="H227" t="s">
-        <v>1044</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
@@ -9926,16 +10147,16 @@
         <v>8</v>
       </c>
       <c r="C228" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D228" t="s">
-        <v>525</v>
+        <v>541</v>
       </c>
       <c r="E228" t="s">
-        <v>809</v>
+        <v>841</v>
       </c>
       <c r="H228" t="s">
-        <v>1045</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
@@ -9943,16 +10164,16 @@
         <v>12</v>
       </c>
       <c r="C229" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D229" t="s">
-        <v>526</v>
+        <v>542</v>
       </c>
       <c r="E229" t="s">
-        <v>810</v>
+        <v>842</v>
       </c>
       <c r="H229" t="s">
-        <v>1046</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
@@ -9960,16 +10181,16 @@
         <v>12</v>
       </c>
       <c r="C230" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D230" t="s">
-        <v>527</v>
+        <v>543</v>
       </c>
       <c r="E230" t="s">
-        <v>811</v>
+        <v>843</v>
       </c>
       <c r="H230" t="s">
-        <v>1046</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
@@ -9977,16 +10198,16 @@
         <v>12</v>
       </c>
       <c r="C231" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D231" t="s">
-        <v>528</v>
+        <v>544</v>
       </c>
       <c r="E231" t="s">
-        <v>812</v>
+        <v>844</v>
       </c>
       <c r="H231" t="s">
-        <v>1046</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
@@ -9997,16 +10218,16 @@
         <v>9</v>
       </c>
       <c r="C232" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D232" t="s">
-        <v>529</v>
+        <v>545</v>
       </c>
       <c r="E232" t="s">
-        <v>813</v>
+        <v>845</v>
       </c>
       <c r="H232" t="s">
-        <v>1047</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
@@ -10017,16 +10238,16 @@
         <v>10</v>
       </c>
       <c r="C233" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D233" t="s">
-        <v>530</v>
+        <v>546</v>
       </c>
       <c r="E233" t="s">
-        <v>814</v>
+        <v>846</v>
       </c>
       <c r="H233" t="s">
-        <v>1048</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
@@ -10037,16 +10258,16 @@
         <v>11</v>
       </c>
       <c r="C234" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D234" t="s">
-        <v>531</v>
+        <v>547</v>
       </c>
       <c r="E234" t="s">
-        <v>815</v>
+        <v>847</v>
       </c>
       <c r="H234" t="s">
-        <v>1049</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
@@ -10057,16 +10278,16 @@
         <v>12</v>
       </c>
       <c r="C235" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D235" t="s">
-        <v>532</v>
+        <v>548</v>
       </c>
       <c r="E235" t="s">
-        <v>816</v>
+        <v>848</v>
       </c>
       <c r="H235" t="s">
-        <v>1050</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
@@ -10074,13 +10295,13 @@
         <v>12</v>
       </c>
       <c r="C236" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D236" t="s">
-        <v>533</v>
+        <v>549</v>
       </c>
       <c r="E236" t="s">
-        <v>817</v>
+        <v>849</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
@@ -10088,13 +10309,13 @@
         <v>12</v>
       </c>
       <c r="C237" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D237" t="s">
-        <v>534</v>
+        <v>550</v>
       </c>
       <c r="E237" t="s">
-        <v>818</v>
+        <v>850</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
@@ -10102,13 +10323,13 @@
         <v>12</v>
       </c>
       <c r="C238" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D238" t="s">
-        <v>535</v>
+        <v>551</v>
       </c>
       <c r="E238" t="s">
-        <v>819</v>
+        <v>851</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
@@ -10116,13 +10337,13 @@
         <v>12</v>
       </c>
       <c r="C239" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D239" t="s">
-        <v>536</v>
+        <v>552</v>
       </c>
       <c r="E239" t="s">
-        <v>820</v>
+        <v>852</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
@@ -10130,16 +10351,16 @@
         <v>10</v>
       </c>
       <c r="C240" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D240" t="s">
-        <v>537</v>
+        <v>553</v>
       </c>
       <c r="E240" t="s">
-        <v>821</v>
+        <v>853</v>
       </c>
       <c r="H240" t="s">
-        <v>1051</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
@@ -10150,13 +10371,13 @@
         <v>13</v>
       </c>
       <c r="C241" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D241" t="s">
-        <v>538</v>
+        <v>554</v>
       </c>
       <c r="E241" t="s">
-        <v>822</v>
+        <v>854</v>
       </c>
       <c r="F241">
         <v>8</v>
@@ -10165,7 +10386,7 @@
         <v>4</v>
       </c>
       <c r="H241" t="s">
-        <v>1052</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
@@ -10176,13 +10397,13 @@
         <v>14</v>
       </c>
       <c r="C242" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D242" t="s">
-        <v>539</v>
+        <v>555</v>
       </c>
       <c r="E242" t="s">
-        <v>823</v>
+        <v>855</v>
       </c>
       <c r="F242">
         <v>37</v>
@@ -10191,7 +10412,7 @@
         <v>3</v>
       </c>
       <c r="H242" t="s">
-        <v>1053</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
@@ -10202,13 +10423,13 @@
         <v>15</v>
       </c>
       <c r="C243" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D243" t="s">
-        <v>540</v>
+        <v>556</v>
       </c>
       <c r="E243" t="s">
-        <v>824</v>
+        <v>856</v>
       </c>
       <c r="F243">
         <v>64</v>
@@ -10217,7 +10438,7 @@
         <v>3</v>
       </c>
       <c r="H243" t="s">
-        <v>1054</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
@@ -10225,13 +10446,13 @@
         <v>12</v>
       </c>
       <c r="C244" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D244" t="s">
-        <v>541</v>
+        <v>557</v>
       </c>
       <c r="E244" t="s">
-        <v>825</v>
+        <v>857</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
@@ -10242,13 +10463,13 @@
         <v>16</v>
       </c>
       <c r="C245" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D245" t="s">
-        <v>542</v>
+        <v>558</v>
       </c>
       <c r="E245" t="s">
-        <v>826</v>
+        <v>858</v>
       </c>
       <c r="F245">
         <v>44</v>
@@ -10257,7 +10478,7 @@
         <v>3</v>
       </c>
       <c r="H245" t="s">
-        <v>1055</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
@@ -10268,13 +10489,13 @@
         <v>17</v>
       </c>
       <c r="C246" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D246" t="s">
-        <v>543</v>
+        <v>559</v>
       </c>
       <c r="E246" t="s">
-        <v>827</v>
+        <v>859</v>
       </c>
       <c r="F246">
         <v>45</v>
@@ -10283,7 +10504,7 @@
         <v>3</v>
       </c>
       <c r="H246" t="s">
-        <v>1056</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
@@ -10294,13 +10515,13 @@
         <v>18</v>
       </c>
       <c r="C247" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D247" t="s">
-        <v>544</v>
+        <v>560</v>
       </c>
       <c r="E247" t="s">
-        <v>828</v>
+        <v>860</v>
       </c>
       <c r="F247">
         <v>59</v>
@@ -10309,7 +10530,7 @@
         <v>3</v>
       </c>
       <c r="H247" t="s">
-        <v>1057</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
@@ -10317,13 +10538,13 @@
         <v>12</v>
       </c>
       <c r="C248" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D248" t="s">
-        <v>545</v>
+        <v>561</v>
       </c>
       <c r="E248" t="s">
-        <v>829</v>
+        <v>861</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
@@ -10331,13 +10552,13 @@
         <v>13</v>
       </c>
       <c r="C249" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D249" t="s">
-        <v>546</v>
+        <v>562</v>
       </c>
       <c r="E249" t="s">
-        <v>830</v>
+        <v>862</v>
       </c>
       <c r="F249">
         <v>3</v>
@@ -10346,7 +10567,7 @@
         <v>4</v>
       </c>
       <c r="H249" t="s">
-        <v>1058</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
@@ -10354,13 +10575,13 @@
         <v>13</v>
       </c>
       <c r="C250" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D250" t="s">
-        <v>547</v>
+        <v>563</v>
       </c>
       <c r="E250" t="s">
-        <v>831</v>
+        <v>863</v>
       </c>
       <c r="F250">
         <v>3</v>
@@ -10369,7 +10590,7 @@
         <v>4</v>
       </c>
       <c r="H250" t="s">
-        <v>1059</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
@@ -10380,13 +10601,13 @@
         <v>19</v>
       </c>
       <c r="C251" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D251" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
       <c r="E251" t="s">
-        <v>832</v>
+        <v>864</v>
       </c>
       <c r="F251">
         <v>3</v>
@@ -10395,7 +10616,7 @@
         <v>4</v>
       </c>
       <c r="H251" t="s">
-        <v>1060</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
@@ -10403,13 +10624,13 @@
         <v>12</v>
       </c>
       <c r="C252" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D252" t="s">
-        <v>549</v>
+        <v>565</v>
       </c>
       <c r="E252" t="s">
-        <v>833</v>
+        <v>865</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
@@ -10420,13 +10641,13 @@
         <v>20</v>
       </c>
       <c r="C253" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D253" t="s">
-        <v>550</v>
+        <v>566</v>
       </c>
       <c r="E253" t="s">
-        <v>834</v>
+        <v>866</v>
       </c>
       <c r="F253">
         <v>32</v>
@@ -10435,7 +10656,7 @@
         <v>3</v>
       </c>
       <c r="H253" t="s">
-        <v>1061</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
@@ -10446,13 +10667,13 @@
         <v>21</v>
       </c>
       <c r="C254" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D254" t="s">
-        <v>551</v>
+        <v>567</v>
       </c>
       <c r="E254" t="s">
-        <v>835</v>
+        <v>867</v>
       </c>
       <c r="F254">
         <v>27</v>
@@ -10461,7 +10682,7 @@
         <v>3</v>
       </c>
       <c r="H254" t="s">
-        <v>1062</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
@@ -10469,13 +10690,13 @@
         <v>12</v>
       </c>
       <c r="C255" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D255" t="s">
-        <v>552</v>
+        <v>568</v>
       </c>
       <c r="E255" t="s">
-        <v>836</v>
+        <v>868</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
@@ -10486,13 +10707,13 @@
         <v>22</v>
       </c>
       <c r="C256" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D256" t="s">
-        <v>553</v>
+        <v>569</v>
       </c>
       <c r="E256" t="s">
-        <v>837</v>
+        <v>869</v>
       </c>
       <c r="F256">
         <v>61</v>
@@ -10501,7 +10722,7 @@
         <v>3</v>
       </c>
       <c r="H256" t="s">
-        <v>1063</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
@@ -10512,13 +10733,13 @@
         <v>23</v>
       </c>
       <c r="C257" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D257" t="s">
-        <v>554</v>
+        <v>570</v>
       </c>
       <c r="E257" t="s">
-        <v>838</v>
+        <v>870</v>
       </c>
       <c r="F257">
         <v>53</v>
@@ -10527,7 +10748,7 @@
         <v>4</v>
       </c>
       <c r="H257" t="s">
-        <v>1064</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
@@ -10538,13 +10759,13 @@
         <v>24</v>
       </c>
       <c r="C258" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D258" t="s">
-        <v>555</v>
+        <v>571</v>
       </c>
       <c r="E258" t="s">
-        <v>839</v>
+        <v>871</v>
       </c>
       <c r="F258">
         <v>43</v>
@@ -10553,7 +10774,7 @@
         <v>3</v>
       </c>
       <c r="H258" t="s">
-        <v>1065</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
@@ -10564,13 +10785,13 @@
         <v>25</v>
       </c>
       <c r="C259" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D259" t="s">
-        <v>556</v>
+        <v>572</v>
       </c>
       <c r="E259" t="s">
-        <v>840</v>
+        <v>872</v>
       </c>
       <c r="F259">
         <v>41</v>
@@ -10579,7 +10800,7 @@
         <v>3</v>
       </c>
       <c r="H259" t="s">
-        <v>1066</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
@@ -10587,24 +10808,24 @@
         <v>12</v>
       </c>
       <c r="C260" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D260" t="s">
-        <v>557</v>
+        <v>573</v>
       </c>
       <c r="E260" t="s">
-        <v>841</v>
+        <v>873</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C261" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D261" t="s">
-        <v>558</v>
+        <v>574</v>
       </c>
       <c r="E261" t="s">
-        <v>842</v>
+        <v>874</v>
       </c>
       <c r="F261">
         <v>5</v>
@@ -10613,18 +10834,18 @@
         <v>3</v>
       </c>
       <c r="H261" t="s">
-        <v>1067</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C262" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D262" t="s">
-        <v>559</v>
+        <v>575</v>
       </c>
       <c r="E262" t="s">
-        <v>843</v>
+        <v>875</v>
       </c>
       <c r="F262">
         <v>5</v>
@@ -10633,7 +10854,7 @@
         <v>3</v>
       </c>
       <c r="H262" t="s">
-        <v>1068</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
@@ -10644,13 +10865,13 @@
         <v>26</v>
       </c>
       <c r="C263" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D263" t="s">
-        <v>560</v>
+        <v>576</v>
       </c>
       <c r="E263" t="s">
-        <v>844</v>
+        <v>876</v>
       </c>
       <c r="F263">
         <v>5</v>
@@ -10659,7 +10880,7 @@
         <v>3</v>
       </c>
       <c r="H263" t="s">
-        <v>1069</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
@@ -10670,13 +10891,13 @@
         <v>27</v>
       </c>
       <c r="C264" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D264" t="s">
-        <v>561</v>
+        <v>577</v>
       </c>
       <c r="E264" t="s">
-        <v>845</v>
+        <v>877</v>
       </c>
       <c r="F264">
         <v>60</v>
@@ -10685,7 +10906,7 @@
         <v>3</v>
       </c>
       <c r="H264" t="s">
-        <v>1070</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
@@ -10693,27 +10914,27 @@
         <v>12</v>
       </c>
       <c r="C265" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D265" t="s">
-        <v>562</v>
+        <v>578</v>
       </c>
       <c r="E265" t="s">
-        <v>846</v>
+        <v>878</v>
       </c>
       <c r="H265" t="s">
-        <v>1071</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C266" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D266" t="s">
-        <v>563</v>
+        <v>579</v>
       </c>
       <c r="E266" t="s">
-        <v>847</v>
+        <v>879</v>
       </c>
       <c r="F266">
         <v>6</v>
@@ -10722,18 +10943,18 @@
         <v>3</v>
       </c>
       <c r="H266" t="s">
-        <v>1072</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C267" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D267" t="s">
-        <v>564</v>
+        <v>580</v>
       </c>
       <c r="E267" t="s">
-        <v>848</v>
+        <v>880</v>
       </c>
       <c r="F267">
         <v>24</v>
@@ -10742,18 +10963,18 @@
         <v>4</v>
       </c>
       <c r="H267" t="s">
-        <v>1073</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C268" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D268" t="s">
-        <v>565</v>
+        <v>581</v>
       </c>
       <c r="E268" t="s">
-        <v>849</v>
+        <v>881</v>
       </c>
       <c r="F268">
         <v>7</v>
@@ -10762,21 +10983,21 @@
         <v>4</v>
       </c>
       <c r="H268" t="s">
-        <v>1074</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C269" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D269" t="s">
-        <v>566</v>
+        <v>582</v>
       </c>
       <c r="E269" t="s">
-        <v>850</v>
+        <v>882</v>
       </c>
       <c r="H269" t="s">
-        <v>1075</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
@@ -10787,13 +11008,13 @@
         <v>28</v>
       </c>
       <c r="C270" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D270" t="s">
-        <v>1087</v>
+        <v>583</v>
       </c>
       <c r="E270" t="s">
-        <v>851</v>
+        <v>883</v>
       </c>
       <c r="F270">
         <v>12</v>
@@ -10802,7 +11023,7 @@
         <v>3</v>
       </c>
       <c r="H270" t="s">
-        <v>1076</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
@@ -10810,13 +11031,13 @@
         <v>12</v>
       </c>
       <c r="C271" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D271" t="s">
-        <v>567</v>
+        <v>584</v>
       </c>
       <c r="E271" t="s">
-        <v>852</v>
+        <v>884</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
@@ -10824,13 +11045,13 @@
         <v>12</v>
       </c>
       <c r="C272" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D272" t="s">
-        <v>568</v>
+        <v>585</v>
       </c>
       <c r="E272" t="s">
-        <v>853</v>
+        <v>885</v>
       </c>
       <c r="F272">
         <v>1</v>
@@ -10844,13 +11065,13 @@
         <v>12</v>
       </c>
       <c r="C273" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D273" t="s">
-        <v>569</v>
+        <v>586</v>
       </c>
       <c r="E273" t="s">
-        <v>854</v>
+        <v>886</v>
       </c>
       <c r="F273">
         <v>17</v>
@@ -10867,13 +11088,13 @@
         <v>29</v>
       </c>
       <c r="C274" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D274" t="s">
-        <v>570</v>
+        <v>587</v>
       </c>
       <c r="E274" t="s">
-        <v>855</v>
+        <v>887</v>
       </c>
       <c r="F274">
         <v>55</v>
@@ -10882,7 +11103,7 @@
         <v>4</v>
       </c>
       <c r="H274" t="s">
-        <v>1077</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.25">
@@ -10890,13 +11111,13 @@
         <v>12</v>
       </c>
       <c r="C275" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D275" t="s">
-        <v>571</v>
+        <v>588</v>
       </c>
       <c r="E275" t="s">
-        <v>856</v>
+        <v>888</v>
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.25">
@@ -10907,13 +11128,13 @@
         <v>30</v>
       </c>
       <c r="C276" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D276" t="s">
-        <v>572</v>
+        <v>589</v>
       </c>
       <c r="E276" t="s">
-        <v>857</v>
+        <v>889</v>
       </c>
       <c r="F276">
         <v>6</v>
@@ -10922,7 +11143,7 @@
         <v>4</v>
       </c>
       <c r="H276" t="s">
-        <v>1078</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.25">
@@ -10933,13 +11154,13 @@
         <v>31</v>
       </c>
       <c r="C277" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D277" t="s">
-        <v>573</v>
+        <v>590</v>
       </c>
       <c r="E277" t="s">
-        <v>858</v>
+        <v>890</v>
       </c>
       <c r="F277">
         <v>36</v>
@@ -10948,7 +11169,7 @@
         <v>3</v>
       </c>
       <c r="H277" t="s">
-        <v>1079</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.25">
@@ -10959,13 +11180,13 @@
         <v>32</v>
       </c>
       <c r="C278" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D278" t="s">
-        <v>574</v>
+        <v>591</v>
       </c>
       <c r="E278" t="s">
-        <v>859</v>
+        <v>891</v>
       </c>
       <c r="F278">
         <v>48</v>
@@ -10974,7 +11195,7 @@
         <v>3</v>
       </c>
       <c r="H278" t="s">
-        <v>1080</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.25">
@@ -10982,13 +11203,13 @@
         <v>12</v>
       </c>
       <c r="C279" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D279" t="s">
-        <v>575</v>
+        <v>592</v>
       </c>
       <c r="E279" t="s">
-        <v>860</v>
+        <v>892</v>
       </c>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.25">
@@ -10999,13 +11220,13 @@
         <v>33</v>
       </c>
       <c r="C280" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D280" t="s">
-        <v>576</v>
+        <v>593</v>
       </c>
       <c r="E280" t="s">
-        <v>861</v>
+        <v>893</v>
       </c>
       <c r="F280">
         <v>29</v>
@@ -11014,7 +11235,7 @@
         <v>3</v>
       </c>
       <c r="H280" t="s">
-        <v>1081</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.25">
@@ -11025,13 +11246,13 @@
         <v>34</v>
       </c>
       <c r="C281" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D281" t="s">
-        <v>577</v>
+        <v>594</v>
       </c>
       <c r="E281" t="s">
-        <v>862</v>
+        <v>894</v>
       </c>
       <c r="F281">
         <v>33</v>
@@ -11040,7 +11261,7 @@
         <v>3</v>
       </c>
       <c r="H281" t="s">
-        <v>1082</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.25">
@@ -11051,13 +11272,13 @@
         <v>35</v>
       </c>
       <c r="C282" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D282" t="s">
-        <v>578</v>
+        <v>595</v>
       </c>
       <c r="E282" t="s">
-        <v>863</v>
+        <v>895</v>
       </c>
       <c r="F282">
         <v>39</v>
@@ -11066,7 +11287,7 @@
         <v>3</v>
       </c>
       <c r="H282" t="s">
-        <v>1083</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.25">
@@ -11077,13 +11298,13 @@
         <v>36</v>
       </c>
       <c r="C283" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D283" t="s">
-        <v>579</v>
+        <v>596</v>
       </c>
       <c r="E283" t="s">
-        <v>864</v>
+        <v>896</v>
       </c>
       <c r="F283">
         <v>45</v>
@@ -11092,46 +11313,331 @@
         <v>3</v>
       </c>
       <c r="H283" t="s">
-        <v>1084</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C284" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D284" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
       <c r="E284" t="s">
-        <v>865</v>
+        <v>897</v>
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C285" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D285" t="s">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="E285" t="s">
-        <v>866</v>
+        <v>898</v>
       </c>
       <c r="H285" t="s">
-        <v>1085</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C286" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D286" t="s">
-        <v>582</v>
+        <v>599</v>
       </c>
       <c r="E286" t="s">
-        <v>867</v>
+        <v>899</v>
       </c>
       <c r="H286" t="s">
-        <v>1086</v>
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>14</v>
+      </c>
+      <c r="C287" t="s">
+        <v>300</v>
+      </c>
+      <c r="D287" t="s">
+        <v>600</v>
+      </c>
+      <c r="E287" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>14</v>
+      </c>
+      <c r="B288">
+        <v>0</v>
+      </c>
+      <c r="C288" t="s">
+        <v>301</v>
+      </c>
+      <c r="D288" t="s">
+        <v>601</v>
+      </c>
+      <c r="E288" t="s">
+        <v>901</v>
+      </c>
+      <c r="H288" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>14</v>
+      </c>
+      <c r="B289">
+        <v>0</v>
+      </c>
+      <c r="C289" t="s">
+        <v>302</v>
+      </c>
+      <c r="D289" t="s">
+        <v>602</v>
+      </c>
+      <c r="E289" t="s">
+        <v>902</v>
+      </c>
+      <c r="H289" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>14</v>
+      </c>
+      <c r="C290" t="s">
+        <v>303</v>
+      </c>
+      <c r="D290" t="s">
+        <v>603</v>
+      </c>
+      <c r="E290" t="s">
+        <v>903</v>
+      </c>
+      <c r="H290" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>14</v>
+      </c>
+      <c r="C291" t="s">
+        <v>304</v>
+      </c>
+      <c r="D291" t="s">
+        <v>604</v>
+      </c>
+      <c r="E291" t="s">
+        <v>904</v>
+      </c>
+      <c r="H291" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>14</v>
+      </c>
+      <c r="C292" t="s">
+        <v>305</v>
+      </c>
+      <c r="D292" t="s">
+        <v>605</v>
+      </c>
+      <c r="E292" t="s">
+        <v>905</v>
+      </c>
+      <c r="F292">
+        <v>1</v>
+      </c>
+      <c r="G292">
+        <v>4</v>
+      </c>
+      <c r="H292" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>14</v>
+      </c>
+      <c r="C293" t="s">
+        <v>306</v>
+      </c>
+      <c r="D293" t="s">
+        <v>606</v>
+      </c>
+      <c r="E293" t="s">
+        <v>906</v>
+      </c>
+      <c r="F293">
+        <v>1</v>
+      </c>
+      <c r="G293">
+        <v>4</v>
+      </c>
+      <c r="H293" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>14</v>
+      </c>
+      <c r="C294" t="s">
+        <v>307</v>
+      </c>
+      <c r="D294" t="s">
+        <v>607</v>
+      </c>
+      <c r="E294" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>14</v>
+      </c>
+      <c r="C295" t="s">
+        <v>308</v>
+      </c>
+      <c r="D295" t="s">
+        <v>608</v>
+      </c>
+      <c r="E295" t="s">
+        <v>908</v>
+      </c>
+      <c r="F295">
+        <v>6</v>
+      </c>
+      <c r="G295">
+        <v>3</v>
+      </c>
+      <c r="H295" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>14</v>
+      </c>
+      <c r="C296" t="s">
+        <v>309</v>
+      </c>
+      <c r="D296" t="s">
+        <v>609</v>
+      </c>
+      <c r="E296" t="s">
+        <v>909</v>
+      </c>
+      <c r="F296">
+        <v>16</v>
+      </c>
+      <c r="G296">
+        <v>3</v>
+      </c>
+      <c r="H296" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>14</v>
+      </c>
+      <c r="C297" t="s">
+        <v>310</v>
+      </c>
+      <c r="D297" t="s">
+        <v>610</v>
+      </c>
+      <c r="E297" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>14</v>
+      </c>
+      <c r="C298" t="s">
+        <v>311</v>
+      </c>
+      <c r="D298" t="s">
+        <v>611</v>
+      </c>
+      <c r="E298" t="s">
+        <v>911</v>
+      </c>
+      <c r="F298">
+        <v>3</v>
+      </c>
+      <c r="G298">
+        <v>3</v>
+      </c>
+      <c r="H298" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>14</v>
+      </c>
+      <c r="C299" t="s">
+        <v>312</v>
+      </c>
+      <c r="D299" t="s">
+        <v>612</v>
+      </c>
+      <c r="E299" t="s">
+        <v>912</v>
+      </c>
+      <c r="F299">
+        <v>6</v>
+      </c>
+      <c r="G299">
+        <v>3</v>
+      </c>
+      <c r="H299" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>14</v>
+      </c>
+      <c r="C300" t="s">
+        <v>313</v>
+      </c>
+      <c r="D300" t="s">
+        <v>613</v>
+      </c>
+      <c r="E300" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>14</v>
+      </c>
+      <c r="C301" t="s">
+        <v>314</v>
+      </c>
+      <c r="D301" t="s">
+        <v>614</v>
+      </c>
+      <c r="E301" t="s">
+        <v>914</v>
+      </c>
+      <c r="H301" t="s">
+        <v>1144</v>
       </c>
     </row>
   </sheetData>

--- a/Exp_Record_Alfa.xlsx
+++ b/Exp_Record_Alfa.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6113DAC-C918-48AA-ADC5-4BD6B371B918}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2325" yWindow="2295" windowWidth="18855" windowHeight="10830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="1145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1468" uniqueCount="1179">
   <si>
     <t>Exp_collection</t>
   </si>
@@ -2223,6 +2217,42 @@
 complete</t>
   </si>
   <si>
+    <t>Rf map start at 935. 5 blocks at 938. Complete</t>
+  </si>
+  <si>
+    <t>CH 28 (-2, -2.5) 4 1 cmaes fc6 and bigGan class.
+Start at 947. Hes working well today. Good job alfaman. Looks like biggan is climbing. Big gan still climbing 15. Biggan shot up at 28. Fc6 still nothing. 37 blocks com. Stop at 1012. Biggan climbed, fc6 did not. Image was very simple white background with one object. Complete</t>
+  </si>
+  <si>
+    <t>CH 2 (-2, -3.5) 3 1 cmaes. Fc6 and bigGan. Start at 10:18.
+BigGan maybe climbing at 19. Biggn is making a black furry ball. 32 blocks complete. Biggan climbed a tiny bit, fc6 was close, but did not climb. Complete
+Moved to project validate&gt;&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>CH 45 (0, 0) 3 1 . CMAES regular generate integrated start at 1053.
+CH 45 MU 2/5. Very visually responsive. Climbing off the bat. 25 blocks complete. At 1107. Complete</t>
+  </si>
+  <si>
+    <t>Selectivity with 12 gabors. Start at 11:10. 17 complete stop at 1114.
+Complete</t>
+  </si>
+  <si>
+    <t>Rf start at 1034. 4 blocks stop at 1039. Complete</t>
+  </si>
+  <si>
+    <t>Biggan start at. 1056
+CH 27 (-0.2, -0.2) 3 1 CMAES fc6 vs BigGan. SU 2/5. Very active unit, sounds vr.
+15 blocks, both are climbing slightly. Hes working well. 20 blocks, both still climbing slightly. It also likes natural images too. Looks done at block 33. 1126. Both climbed, just not much. Biggan made dog on left side, f6c was kinda busy.  Complete</t>
+  </si>
+  <si>
+    <t>Selectivity start at 1130. Olivia LFP experiments. Pictures of A. (0, 0) size 3 and 5.  took alfa 20 min for 5 blocks. . 5 blocks at 1151.  Complete</t>
+  </si>
+  <si>
+    <t>Generate bigGan start at 1157. Fc6 and BigGan.
+Ch 9  (–2.2, -2.2) 4 1 CMAES. Hash, rf looked good.
+Replaced 150 ml water for juice. Block 10, bigGan is climbing, fc6 not yet. But the 2 evolutions do look similar, both gray blobby so far. 18 blocks, bigGan doing well, fc6 still nothing....... hes almost done, blasting him. 21 at 1233. Fc6 stayed flat(may have climbed a tiny bit) GinGan climbed.  Complete</t>
+  </si>
+  <si>
     <t>Alfa64chan-19112019-009</t>
   </si>
   <si>
@@ -3123,6 +3153,33 @@
     <t>Alfa-23072020-005</t>
   </si>
   <si>
+    <t>Alfa-27072020-001</t>
+  </si>
+  <si>
+    <t>Alfa-27072020-002</t>
+  </si>
+  <si>
+    <t>Alfa-27072020-003</t>
+  </si>
+  <si>
+    <t>Alfa-27072020-004</t>
+  </si>
+  <si>
+    <t>Alfa-27072020-005</t>
+  </si>
+  <si>
+    <t>Alfa-28072020-001</t>
+  </si>
+  <si>
+    <t>Alfa-28072020-002</t>
+  </si>
+  <si>
+    <t>Alfa-28072020-003</t>
+  </si>
+  <si>
+    <t>Alfa-28072020-004</t>
+  </si>
+  <si>
     <t>191119_Alfa_generate_parallel(3)</t>
   </si>
   <si>
@@ -4023,6 +4080,33 @@
     <t>200723_Alfa_generate_BigGAN(4)</t>
   </si>
   <si>
+    <t>200727_Alfa_rfMapper_basic</t>
+  </si>
+  <si>
+    <t>200727_Alfa_generate_BigGAN(1)</t>
+  </si>
+  <si>
+    <t>200727_Alfa_generate_BigGAN(2)</t>
+  </si>
+  <si>
+    <t>200727_Alfa_generate_integrated</t>
+  </si>
+  <si>
+    <t>200727_Alfa_selectivity_basic</t>
+  </si>
+  <si>
+    <t>200728_Alfa_rfMapper_basic</t>
+  </si>
+  <si>
+    <t>200728_Alfa_generate_BigGAN(1)</t>
+  </si>
+  <si>
+    <t>200728_Alfa_selectivity_basic</t>
+  </si>
+  <si>
+    <t>200728_Alfa_generate_BigGAN(2)</t>
+  </si>
+  <si>
     <t>N:\Stimuli\2019-06-Evolutions\alfa-191119a</t>
   </si>
   <si>
@@ -4711,13 +4795,34 @@
   </si>
   <si>
     <t>N:\Stimuli\2020-BigGAN\2020-07-23-Alfa-02b\2020-07-23-11-36-31</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2020-BigGAN\2020-07-27-Alfa-01\2020-07-27-09-47-40</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2020-BigGAN\2020-07-27-Alfa-02\2020-07-27-10-18-57</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2020-Evolutions\2020-07-27-Alfa-03\2020-07-27-10-53-44</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2020-Evolutions\2020-07-27-Alfa-03\selectivity</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2020-BigGAN\2020-07-28-Alfa-01\2020-07-28-10-56-05</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2020-Selectivity\pilotLFP_ORB\2020-07-28-Alfa-01</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2020-BigGAN\2020-07-28-Alfa-02\2020-07-28-11-57-40</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4776,23 +4881,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4834,7 +4931,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4866,27 +4963,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4918,24 +4997,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5111,21 +5172,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H301"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H310"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A289" workbookViewId="0">
-      <selection activeCell="G292" sqref="G292"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5151,7 +5205,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -5162,10 +5216,10 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="E2" t="s">
-        <v>615</v>
+        <v>633</v>
       </c>
       <c r="F2">
         <v>29</v>
@@ -5174,10 +5228,10 @@
         <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -5188,10 +5242,10 @@
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="E3" t="s">
-        <v>616</v>
+        <v>634</v>
       </c>
       <c r="F3">
         <v>29</v>
@@ -5200,7 +5254,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -5211,10 +5265,10 @@
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="E4" t="s">
-        <v>617</v>
+        <v>635</v>
       </c>
       <c r="F4">
         <v>29</v>
@@ -5223,10 +5277,10 @@
         <v>4</v>
       </c>
       <c r="H4" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -5237,10 +5291,10 @@
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="E5" t="s">
-        <v>618</v>
+        <v>636</v>
       </c>
       <c r="F5">
         <v>29</v>
@@ -5249,10 +5303,10 @@
         <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -5263,19 +5317,19 @@
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="E6" t="s">
-        <v>619</v>
+        <v>637</v>
       </c>
       <c r="F6">
         <v>29</v>
       </c>
       <c r="H6" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -5286,10 +5340,10 @@
         <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="E7" t="s">
-        <v>620</v>
+        <v>638</v>
       </c>
       <c r="F7">
         <v>29</v>
@@ -5298,10 +5352,10 @@
         <v>4</v>
       </c>
       <c r="H7" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -5312,10 +5366,10 @@
         <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="E8" t="s">
-        <v>621</v>
+        <v>639</v>
       </c>
       <c r="F8">
         <v>9</v>
@@ -5324,10 +5378,10 @@
         <v>3</v>
       </c>
       <c r="H8" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -5338,10 +5392,10 @@
         <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="E9" t="s">
-        <v>622</v>
+        <v>640</v>
       </c>
       <c r="F9">
         <v>9</v>
@@ -5350,10 +5404,10 @@
         <v>3</v>
       </c>
       <c r="H9" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -5364,10 +5418,10 @@
         <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="E10" t="s">
-        <v>623</v>
+        <v>641</v>
       </c>
       <c r="F10">
         <v>9</v>
@@ -5376,10 +5430,10 @@
         <v>3</v>
       </c>
       <c r="H10" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -5390,10 +5444,10 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="E11" t="s">
-        <v>624</v>
+        <v>642</v>
       </c>
       <c r="F11">
         <v>32</v>
@@ -5402,10 +5456,10 @@
         <v>3</v>
       </c>
       <c r="H11" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -5416,10 +5470,10 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="E12" t="s">
-        <v>625</v>
+        <v>643</v>
       </c>
       <c r="F12">
         <v>32</v>
@@ -5428,10 +5482,10 @@
         <v>3</v>
       </c>
       <c r="H12" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -5442,10 +5496,10 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="E13" t="s">
-        <v>626</v>
+        <v>644</v>
       </c>
       <c r="F13">
         <v>32</v>
@@ -5454,21 +5508,21 @@
         <v>3</v>
       </c>
       <c r="H13" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="C14" t="s">
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="E14" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -5479,10 +5533,10 @@
         <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="E15" t="s">
-        <v>628</v>
+        <v>646</v>
       </c>
       <c r="F15">
         <v>3</v>
@@ -5491,10 +5545,10 @@
         <v>3</v>
       </c>
       <c r="H15" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -5505,10 +5559,10 @@
         <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="E16" t="s">
-        <v>629</v>
+        <v>647</v>
       </c>
       <c r="F16">
         <v>3</v>
@@ -5517,10 +5571,10 @@
         <v>3</v>
       </c>
       <c r="H16" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -5531,10 +5585,10 @@
         <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="E17" t="s">
-        <v>630</v>
+        <v>648</v>
       </c>
       <c r="F17">
         <v>3</v>
@@ -5543,21 +5597,21 @@
         <v>3</v>
       </c>
       <c r="H17" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="C18" t="s">
         <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="E18" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -5568,10 +5622,10 @@
         <v>32</v>
       </c>
       <c r="D19" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="E19" t="s">
-        <v>632</v>
+        <v>650</v>
       </c>
       <c r="F19">
         <v>7</v>
@@ -5580,10 +5634,10 @@
         <v>3</v>
       </c>
       <c r="H19" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -5594,10 +5648,10 @@
         <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="E20" t="s">
-        <v>633</v>
+        <v>651</v>
       </c>
       <c r="F20">
         <v>7</v>
@@ -5606,10 +5660,10 @@
         <v>3</v>
       </c>
       <c r="H20" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -5620,10 +5674,10 @@
         <v>34</v>
       </c>
       <c r="D21" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="E21" t="s">
-        <v>634</v>
+        <v>652</v>
       </c>
       <c r="F21">
         <v>7</v>
@@ -5632,66 +5686,66 @@
         <v>3</v>
       </c>
       <c r="H21" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="C22" t="s">
         <v>35</v>
       </c>
       <c r="D22" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="E22" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="C23" t="s">
         <v>36</v>
       </c>
       <c r="D23" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="E23" t="s">
-        <v>636</v>
+        <v>654</v>
       </c>
       <c r="G23">
         <v>3</v>
       </c>
       <c r="H23" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="C24" t="s">
         <v>37</v>
       </c>
       <c r="D24" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="E24" t="s">
-        <v>637</v>
+        <v>655</v>
       </c>
       <c r="G24">
         <v>4</v>
       </c>
       <c r="H24" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="C25" t="s">
         <v>38</v>
       </c>
       <c r="D25" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="E25" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -5702,10 +5756,10 @@
         <v>39</v>
       </c>
       <c r="D26" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="E26" t="s">
-        <v>639</v>
+        <v>657</v>
       </c>
       <c r="F26">
         <v>51</v>
@@ -5714,10 +5768,10 @@
         <v>3</v>
       </c>
       <c r="H26" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -5728,10 +5782,10 @@
         <v>40</v>
       </c>
       <c r="D27" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="E27" t="s">
-        <v>640</v>
+        <v>658</v>
       </c>
       <c r="F27">
         <v>51</v>
@@ -5740,10 +5794,10 @@
         <v>3</v>
       </c>
       <c r="H27" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -5754,10 +5808,10 @@
         <v>41</v>
       </c>
       <c r="D28" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="E28" t="s">
-        <v>641</v>
+        <v>659</v>
       </c>
       <c r="F28">
         <v>51</v>
@@ -5766,21 +5820,21 @@
         <v>3</v>
       </c>
       <c r="H28" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="C29" t="s">
         <v>42</v>
       </c>
       <c r="D29" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="E29" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -5791,10 +5845,10 @@
         <v>43</v>
       </c>
       <c r="D30" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="E30" t="s">
-        <v>643</v>
+        <v>661</v>
       </c>
       <c r="F30">
         <v>7</v>
@@ -5803,10 +5857,10 @@
         <v>3</v>
       </c>
       <c r="H30" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -5817,10 +5871,10 @@
         <v>44</v>
       </c>
       <c r="D31" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="E31" t="s">
-        <v>644</v>
+        <v>662</v>
       </c>
       <c r="F31">
         <v>7</v>
@@ -5829,10 +5883,10 @@
         <v>3</v>
       </c>
       <c r="H31" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -5843,10 +5897,10 @@
         <v>45</v>
       </c>
       <c r="D32" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="E32" t="s">
-        <v>645</v>
+        <v>663</v>
       </c>
       <c r="F32">
         <v>7</v>
@@ -5855,21 +5909,21 @@
         <v>3</v>
       </c>
       <c r="H32" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="C33" t="s">
         <v>46</v>
       </c>
       <c r="D33" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="E33" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -5880,10 +5934,10 @@
         <v>47</v>
       </c>
       <c r="D34" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="E34" t="s">
-        <v>647</v>
+        <v>665</v>
       </c>
       <c r="F34">
         <v>7</v>
@@ -5892,10 +5946,10 @@
         <v>3</v>
       </c>
       <c r="H34" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -5906,10 +5960,10 @@
         <v>48</v>
       </c>
       <c r="D35" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="E35" t="s">
-        <v>648</v>
+        <v>666</v>
       </c>
       <c r="F35">
         <v>7</v>
@@ -5918,10 +5972,10 @@
         <v>3</v>
       </c>
       <c r="H35" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -5932,10 +5986,10 @@
         <v>49</v>
       </c>
       <c r="D36" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="E36" t="s">
-        <v>649</v>
+        <v>667</v>
       </c>
       <c r="F36">
         <v>7</v>
@@ -5944,10 +5998,10 @@
         <v>3</v>
       </c>
       <c r="H36" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -5958,10 +6012,10 @@
         <v>50</v>
       </c>
       <c r="D37" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="E37" t="s">
-        <v>650</v>
+        <v>668</v>
       </c>
       <c r="F37">
         <v>36</v>
@@ -5970,10 +6024,10 @@
         <v>3</v>
       </c>
       <c r="H37" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -5984,10 +6038,10 @@
         <v>51</v>
       </c>
       <c r="D38" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="E38" t="s">
-        <v>651</v>
+        <v>669</v>
       </c>
       <c r="F38">
         <v>36</v>
@@ -5996,10 +6050,10 @@
         <v>3</v>
       </c>
       <c r="H38" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -6010,10 +6064,10 @@
         <v>52</v>
       </c>
       <c r="D39" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="E39" t="s">
-        <v>652</v>
+        <v>670</v>
       </c>
       <c r="F39">
         <v>35</v>
@@ -6022,10 +6076,10 @@
         <v>3</v>
       </c>
       <c r="H39" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -6036,10 +6090,10 @@
         <v>53</v>
       </c>
       <c r="D40" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="E40" t="s">
-        <v>653</v>
+        <v>671</v>
       </c>
       <c r="F40">
         <v>35</v>
@@ -6048,10 +6102,10 @@
         <v>3</v>
       </c>
       <c r="H40" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -6062,10 +6116,10 @@
         <v>54</v>
       </c>
       <c r="D41" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="E41" t="s">
-        <v>654</v>
+        <v>672</v>
       </c>
       <c r="F41">
         <v>35</v>
@@ -6074,10 +6128,10 @@
         <v>3</v>
       </c>
       <c r="H41" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -6088,10 +6142,10 @@
         <v>55</v>
       </c>
       <c r="D42" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="E42" t="s">
-        <v>655</v>
+        <v>673</v>
       </c>
       <c r="F42">
         <v>61</v>
@@ -6100,10 +6154,10 @@
         <v>3</v>
       </c>
       <c r="H42" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
         <v>8</v>
       </c>
@@ -6114,10 +6168,10 @@
         <v>56</v>
       </c>
       <c r="D43" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="E43" t="s">
-        <v>656</v>
+        <v>674</v>
       </c>
       <c r="F43">
         <v>61</v>
@@ -6126,10 +6180,10 @@
         <v>3</v>
       </c>
       <c r="H43" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -6140,10 +6194,10 @@
         <v>57</v>
       </c>
       <c r="D44" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="E44" t="s">
-        <v>657</v>
+        <v>675</v>
       </c>
       <c r="F44">
         <v>61</v>
@@ -6152,10 +6206,10 @@
         <v>3</v>
       </c>
       <c r="H44" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -6166,10 +6220,10 @@
         <v>58</v>
       </c>
       <c r="D45" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="E45" t="s">
-        <v>658</v>
+        <v>676</v>
       </c>
       <c r="F45">
         <v>33</v>
@@ -6178,10 +6232,10 @@
         <v>3</v>
       </c>
       <c r="H45" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -6192,10 +6246,10 @@
         <v>59</v>
       </c>
       <c r="D46" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="E46" t="s">
-        <v>659</v>
+        <v>677</v>
       </c>
       <c r="F46">
         <v>33</v>
@@ -6204,10 +6258,10 @@
         <v>3</v>
       </c>
       <c r="H46" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -6218,10 +6272,10 @@
         <v>60</v>
       </c>
       <c r="D47" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="E47" t="s">
-        <v>660</v>
+        <v>678</v>
       </c>
       <c r="F47">
         <v>33</v>
@@ -6230,10 +6284,10 @@
         <v>3</v>
       </c>
       <c r="H47" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -6244,10 +6298,10 @@
         <v>61</v>
       </c>
       <c r="D48" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="E48" t="s">
-        <v>661</v>
+        <v>679</v>
       </c>
       <c r="F48">
         <v>43</v>
@@ -6256,10 +6310,10 @@
         <v>3</v>
       </c>
       <c r="H48" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -6270,10 +6324,10 @@
         <v>62</v>
       </c>
       <c r="D49" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="E49" t="s">
-        <v>662</v>
+        <v>680</v>
       </c>
       <c r="F49">
         <v>43</v>
@@ -6282,10 +6336,10 @@
         <v>3</v>
       </c>
       <c r="H49" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
         <v>8</v>
       </c>
@@ -6296,10 +6350,10 @@
         <v>63</v>
       </c>
       <c r="D50" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="E50" t="s">
-        <v>663</v>
+        <v>681</v>
       </c>
       <c r="F50">
         <v>43</v>
@@ -6308,10 +6362,10 @@
         <v>3</v>
       </c>
       <c r="H50" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
         <v>8</v>
       </c>
@@ -6322,10 +6376,10 @@
         <v>64</v>
       </c>
       <c r="D51" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="E51" t="s">
-        <v>664</v>
+        <v>682</v>
       </c>
       <c r="F51">
         <v>59</v>
@@ -6334,10 +6388,10 @@
         <v>3</v>
       </c>
       <c r="H51" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -6348,10 +6402,10 @@
         <v>65</v>
       </c>
       <c r="D52" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="E52" t="s">
-        <v>665</v>
+        <v>683</v>
       </c>
       <c r="F52">
         <v>59</v>
@@ -6360,10 +6414,10 @@
         <v>3</v>
       </c>
       <c r="H52" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
         <v>8</v>
       </c>
@@ -6374,10 +6428,10 @@
         <v>66</v>
       </c>
       <c r="D53" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="E53" t="s">
-        <v>666</v>
+        <v>684</v>
       </c>
       <c r="F53">
         <v>59</v>
@@ -6386,10 +6440,10 @@
         <v>3</v>
       </c>
       <c r="H53" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -6400,10 +6454,10 @@
         <v>67</v>
       </c>
       <c r="D54" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="E54" t="s">
-        <v>667</v>
+        <v>685</v>
       </c>
       <c r="F54">
         <v>20</v>
@@ -6412,10 +6466,10 @@
         <v>3</v>
       </c>
       <c r="H54" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -6426,10 +6480,10 @@
         <v>68</v>
       </c>
       <c r="D55" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="E55" t="s">
-        <v>668</v>
+        <v>686</v>
       </c>
       <c r="F55">
         <v>20</v>
@@ -6438,10 +6492,10 @@
         <v>3</v>
       </c>
       <c r="H55" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
         <v>8</v>
       </c>
@@ -6452,10 +6506,10 @@
         <v>69</v>
       </c>
       <c r="D56" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="E56" t="s">
-        <v>669</v>
+        <v>687</v>
       </c>
       <c r="F56">
         <v>20</v>
@@ -6464,10 +6518,10 @@
         <v>3</v>
       </c>
       <c r="H56" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
         <v>8</v>
       </c>
@@ -6478,10 +6532,10 @@
         <v>70</v>
       </c>
       <c r="D57" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="E57" t="s">
-        <v>670</v>
+        <v>688</v>
       </c>
       <c r="F57">
         <v>49</v>
@@ -6490,10 +6544,10 @@
         <v>3</v>
       </c>
       <c r="H57" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -6504,10 +6558,10 @@
         <v>71</v>
       </c>
       <c r="D58" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="E58" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="F58">
         <v>49</v>
@@ -6516,10 +6570,10 @@
         <v>3</v>
       </c>
       <c r="H58" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" t="s">
         <v>8</v>
       </c>
@@ -6530,10 +6584,10 @@
         <v>72</v>
       </c>
       <c r="D59" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="E59" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
       <c r="F59">
         <v>49</v>
@@ -6542,10 +6596,10 @@
         <v>3</v>
       </c>
       <c r="H59" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" t="s">
         <v>8</v>
       </c>
@@ -6556,10 +6610,10 @@
         <v>73</v>
       </c>
       <c r="D60" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="E60" t="s">
-        <v>673</v>
+        <v>691</v>
       </c>
       <c r="F60">
         <v>19</v>
@@ -6568,10 +6622,10 @@
         <v>3</v>
       </c>
       <c r="H60" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" t="s">
         <v>8</v>
       </c>
@@ -6582,10 +6636,10 @@
         <v>74</v>
       </c>
       <c r="D61" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="E61" t="s">
-        <v>674</v>
+        <v>692</v>
       </c>
       <c r="F61">
         <v>19</v>
@@ -6594,10 +6648,10 @@
         <v>3</v>
       </c>
       <c r="H61" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" t="s">
         <v>8</v>
       </c>
@@ -6608,10 +6662,10 @@
         <v>75</v>
       </c>
       <c r="D62" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="E62" t="s">
-        <v>675</v>
+        <v>693</v>
       </c>
       <c r="F62">
         <v>19</v>
@@ -6620,10 +6674,10 @@
         <v>3</v>
       </c>
       <c r="H62" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" t="s">
         <v>8</v>
       </c>
@@ -6634,10 +6688,10 @@
         <v>76</v>
       </c>
       <c r="D63" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="E63" t="s">
-        <v>676</v>
+        <v>694</v>
       </c>
       <c r="F63">
         <v>12</v>
@@ -6646,10 +6700,10 @@
         <v>3</v>
       </c>
       <c r="H63" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" t="s">
         <v>8</v>
       </c>
@@ -6660,10 +6714,10 @@
         <v>77</v>
       </c>
       <c r="D64" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="E64" t="s">
-        <v>677</v>
+        <v>695</v>
       </c>
       <c r="F64">
         <v>12</v>
@@ -6672,10 +6726,10 @@
         <v>3</v>
       </c>
       <c r="H64" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" t="s">
         <v>8</v>
       </c>
@@ -6686,10 +6740,10 @@
         <v>78</v>
       </c>
       <c r="D65" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="E65" t="s">
-        <v>678</v>
+        <v>696</v>
       </c>
       <c r="F65">
         <v>12</v>
@@ -6698,10 +6752,10 @@
         <v>3</v>
       </c>
       <c r="H65" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" t="s">
         <v>8</v>
       </c>
@@ -6712,10 +6766,10 @@
         <v>79</v>
       </c>
       <c r="D66" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="E66" t="s">
-        <v>679</v>
+        <v>697</v>
       </c>
       <c r="F66">
         <v>41</v>
@@ -6724,10 +6778,10 @@
         <v>3</v>
       </c>
       <c r="H66" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" t="s">
         <v>8</v>
       </c>
@@ -6738,10 +6792,10 @@
         <v>80</v>
       </c>
       <c r="D67" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="E67" t="s">
-        <v>680</v>
+        <v>698</v>
       </c>
       <c r="F67">
         <v>41</v>
@@ -6750,10 +6804,10 @@
         <v>3</v>
       </c>
       <c r="H67" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" t="s">
         <v>8</v>
       </c>
@@ -6764,10 +6818,10 @@
         <v>81</v>
       </c>
       <c r="D68" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="E68" t="s">
-        <v>681</v>
+        <v>699</v>
       </c>
       <c r="F68">
         <v>41</v>
@@ -6776,10 +6830,10 @@
         <v>3</v>
       </c>
       <c r="H68" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" t="s">
         <v>8</v>
       </c>
@@ -6790,10 +6844,10 @@
         <v>82</v>
       </c>
       <c r="D69" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="E69" t="s">
-        <v>682</v>
+        <v>700</v>
       </c>
       <c r="F69">
         <v>63</v>
@@ -6802,10 +6856,10 @@
         <v>3</v>
       </c>
       <c r="H69" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" t="s">
         <v>8</v>
       </c>
@@ -6816,10 +6870,10 @@
         <v>83</v>
       </c>
       <c r="D70" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="E70" t="s">
-        <v>683</v>
+        <v>701</v>
       </c>
       <c r="F70">
         <v>63</v>
@@ -6828,10 +6882,10 @@
         <v>3</v>
       </c>
       <c r="H70" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" t="s">
         <v>8</v>
       </c>
@@ -6842,10 +6896,10 @@
         <v>84</v>
       </c>
       <c r="D71" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="E71" t="s">
-        <v>684</v>
+        <v>702</v>
       </c>
       <c r="F71">
         <v>63</v>
@@ -6854,10 +6908,10 @@
         <v>3</v>
       </c>
       <c r="H71" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" t="s">
         <v>8</v>
       </c>
@@ -6868,10 +6922,10 @@
         <v>85</v>
       </c>
       <c r="D72" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="E72" t="s">
-        <v>685</v>
+        <v>703</v>
       </c>
       <c r="F72">
         <v>38</v>
@@ -6880,10 +6934,10 @@
         <v>3</v>
       </c>
       <c r="H72" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" t="s">
         <v>8</v>
       </c>
@@ -6894,10 +6948,10 @@
         <v>86</v>
       </c>
       <c r="D73" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="E73" t="s">
-        <v>686</v>
+        <v>704</v>
       </c>
       <c r="F73">
         <v>38</v>
@@ -6906,10 +6960,10 @@
         <v>3</v>
       </c>
       <c r="H73" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" t="s">
         <v>8</v>
       </c>
@@ -6920,10 +6974,10 @@
         <v>87</v>
       </c>
       <c r="D74" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="E74" t="s">
-        <v>687</v>
+        <v>705</v>
       </c>
       <c r="F74">
         <v>38</v>
@@ -6932,10 +6986,10 @@
         <v>3</v>
       </c>
       <c r="H74" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" t="s">
         <v>8</v>
       </c>
@@ -6946,10 +7000,10 @@
         <v>88</v>
       </c>
       <c r="D75" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="E75" t="s">
-        <v>688</v>
+        <v>706</v>
       </c>
       <c r="F75">
         <v>39</v>
@@ -6958,10 +7012,10 @@
         <v>3</v>
       </c>
       <c r="H75" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" t="s">
         <v>8</v>
       </c>
@@ -6972,10 +7026,10 @@
         <v>89</v>
       </c>
       <c r="D76" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="E76" t="s">
-        <v>689</v>
+        <v>707</v>
       </c>
       <c r="F76">
         <v>39</v>
@@ -6984,10 +7038,10 @@
         <v>3</v>
       </c>
       <c r="H76" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" t="s">
         <v>8</v>
       </c>
@@ -6998,10 +7052,10 @@
         <v>90</v>
       </c>
       <c r="D77" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="E77" t="s">
-        <v>690</v>
+        <v>708</v>
       </c>
       <c r="F77">
         <v>39</v>
@@ -7010,10 +7064,10 @@
         <v>3</v>
       </c>
       <c r="H77" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" t="s">
         <v>8</v>
       </c>
@@ -7024,10 +7078,10 @@
         <v>91</v>
       </c>
       <c r="D78" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="E78" t="s">
-        <v>691</v>
+        <v>709</v>
       </c>
       <c r="F78">
         <v>44</v>
@@ -7036,10 +7090,10 @@
         <v>3</v>
       </c>
       <c r="H78" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" t="s">
         <v>8</v>
       </c>
@@ -7050,10 +7104,10 @@
         <v>92</v>
       </c>
       <c r="D79" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="E79" t="s">
-        <v>692</v>
+        <v>710</v>
       </c>
       <c r="F79">
         <v>44</v>
@@ -7062,10 +7116,10 @@
         <v>3</v>
       </c>
       <c r="H79" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" t="s">
         <v>8</v>
       </c>
@@ -7076,10 +7130,10 @@
         <v>93</v>
       </c>
       <c r="D80" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="E80" t="s">
-        <v>693</v>
+        <v>711</v>
       </c>
       <c r="F80">
         <v>44</v>
@@ -7088,10 +7142,10 @@
         <v>3</v>
       </c>
       <c r="H80" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" t="s">
         <v>9</v>
       </c>
@@ -7099,16 +7153,16 @@
         <v>94</v>
       </c>
       <c r="D81" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="E81" t="s">
-        <v>694</v>
+        <v>712</v>
       </c>
       <c r="H81" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" t="s">
         <v>9</v>
       </c>
@@ -7116,16 +7170,16 @@
         <v>95</v>
       </c>
       <c r="D82" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="E82" t="s">
-        <v>695</v>
+        <v>713</v>
       </c>
       <c r="H82" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" t="s">
         <v>9</v>
       </c>
@@ -7136,10 +7190,10 @@
         <v>96</v>
       </c>
       <c r="D83" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="E83" t="s">
-        <v>696</v>
+        <v>714</v>
       </c>
       <c r="F83">
         <v>13</v>
@@ -7148,10 +7202,10 @@
         <v>3</v>
       </c>
       <c r="H83" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" t="s">
         <v>9</v>
       </c>
@@ -7162,10 +7216,10 @@
         <v>97</v>
       </c>
       <c r="D84" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="E84" t="s">
-        <v>697</v>
+        <v>715</v>
       </c>
       <c r="F84">
         <v>28</v>
@@ -7174,10 +7228,10 @@
         <v>3</v>
       </c>
       <c r="H84" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" t="s">
         <v>9</v>
       </c>
@@ -7188,10 +7242,10 @@
         <v>98</v>
       </c>
       <c r="D85" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="E85" t="s">
-        <v>698</v>
+        <v>716</v>
       </c>
       <c r="F85">
         <v>20</v>
@@ -7200,10 +7254,10 @@
         <v>5</v>
       </c>
       <c r="H85" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" t="s">
         <v>9</v>
       </c>
@@ -7214,10 +7268,10 @@
         <v>99</v>
       </c>
       <c r="D86" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="E86" t="s">
-        <v>699</v>
+        <v>717</v>
       </c>
       <c r="F86">
         <v>48</v>
@@ -7226,10 +7280,10 @@
         <v>3</v>
       </c>
       <c r="H86" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" t="s">
         <v>9</v>
       </c>
@@ -7237,16 +7291,16 @@
         <v>100</v>
       </c>
       <c r="D87" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="E87" t="s">
-        <v>700</v>
+        <v>718</v>
       </c>
       <c r="H87" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" t="s">
         <v>9</v>
       </c>
@@ -7254,16 +7308,16 @@
         <v>101</v>
       </c>
       <c r="D88" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="E88" t="s">
-        <v>701</v>
+        <v>719</v>
       </c>
       <c r="H88" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" t="s">
         <v>9</v>
       </c>
@@ -7274,10 +7328,10 @@
         <v>102</v>
       </c>
       <c r="D89" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="E89" t="s">
-        <v>702</v>
+        <v>720</v>
       </c>
       <c r="F89">
         <v>12</v>
@@ -7286,10 +7340,10 @@
         <v>3</v>
       </c>
       <c r="H89" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" t="s">
         <v>9</v>
       </c>
@@ -7300,10 +7354,10 @@
         <v>103</v>
       </c>
       <c r="D90" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="E90" t="s">
-        <v>703</v>
+        <v>721</v>
       </c>
       <c r="F90">
         <v>12</v>
@@ -7312,10 +7366,10 @@
         <v>3</v>
       </c>
       <c r="H90" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" t="s">
         <v>9</v>
       </c>
@@ -7326,10 +7380,10 @@
         <v>104</v>
       </c>
       <c r="D91" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="E91" t="s">
-        <v>704</v>
+        <v>722</v>
       </c>
       <c r="F91">
         <v>12</v>
@@ -7338,10 +7392,10 @@
         <v>3</v>
       </c>
       <c r="H91" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" t="s">
         <v>9</v>
       </c>
@@ -7352,10 +7406,10 @@
         <v>105</v>
       </c>
       <c r="D92" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="E92" t="s">
-        <v>705</v>
+        <v>723</v>
       </c>
       <c r="F92">
         <v>12</v>
@@ -7364,10 +7418,10 @@
         <v>3</v>
       </c>
       <c r="H92" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" t="s">
         <v>9</v>
       </c>
@@ -7378,10 +7432,10 @@
         <v>106</v>
       </c>
       <c r="D93" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="E93" t="s">
-        <v>706</v>
+        <v>724</v>
       </c>
       <c r="F93">
         <v>64</v>
@@ -7390,10 +7444,10 @@
         <v>4</v>
       </c>
       <c r="H93" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" t="s">
         <v>9</v>
       </c>
@@ -7404,10 +7458,10 @@
         <v>107</v>
       </c>
       <c r="D94" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="E94" t="s">
-        <v>707</v>
+        <v>725</v>
       </c>
       <c r="F94">
         <v>64</v>
@@ -7416,10 +7470,10 @@
         <v>4</v>
       </c>
       <c r="H94" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" t="s">
         <v>9</v>
       </c>
@@ -7427,16 +7481,16 @@
         <v>108</v>
       </c>
       <c r="D95" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="E95" t="s">
-        <v>708</v>
+        <v>726</v>
       </c>
       <c r="H95" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" t="s">
         <v>9</v>
       </c>
@@ -7444,16 +7498,16 @@
         <v>109</v>
       </c>
       <c r="D96" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="E96" t="s">
-        <v>709</v>
+        <v>727</v>
       </c>
       <c r="H96" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" t="s">
         <v>9</v>
       </c>
@@ -7464,10 +7518,10 @@
         <v>110</v>
       </c>
       <c r="D97" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="E97" t="s">
-        <v>710</v>
+        <v>728</v>
       </c>
       <c r="F97">
         <v>31</v>
@@ -7476,10 +7530,10 @@
         <v>4</v>
       </c>
       <c r="H97" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" t="s">
         <v>9</v>
       </c>
@@ -7490,10 +7544,10 @@
         <v>111</v>
       </c>
       <c r="D98" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="E98" t="s">
-        <v>711</v>
+        <v>729</v>
       </c>
       <c r="F98">
         <v>21</v>
@@ -7502,10 +7556,10 @@
         <v>4</v>
       </c>
       <c r="H98" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" t="s">
         <v>9</v>
       </c>
@@ -7516,10 +7570,10 @@
         <v>112</v>
       </c>
       <c r="D99" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="E99" t="s">
-        <v>712</v>
+        <v>730</v>
       </c>
       <c r="F99">
         <v>21</v>
@@ -7528,10 +7582,10 @@
         <v>4</v>
       </c>
       <c r="H99" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" t="s">
         <v>9</v>
       </c>
@@ -7542,10 +7596,10 @@
         <v>113</v>
       </c>
       <c r="D100" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="E100" t="s">
-        <v>713</v>
+        <v>731</v>
       </c>
       <c r="F100">
         <v>21</v>
@@ -7554,10 +7608,10 @@
         <v>4</v>
       </c>
       <c r="H100" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" t="s">
         <v>9</v>
       </c>
@@ -7568,10 +7622,10 @@
         <v>114</v>
       </c>
       <c r="D101" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="E101" t="s">
-        <v>714</v>
+        <v>732</v>
       </c>
       <c r="F101">
         <v>21</v>
@@ -7580,10 +7634,10 @@
         <v>4</v>
       </c>
       <c r="H101" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" t="s">
         <v>10</v>
       </c>
@@ -7594,16 +7648,16 @@
         <v>115</v>
       </c>
       <c r="D102" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="E102" t="s">
-        <v>715</v>
+        <v>733</v>
       </c>
       <c r="H102" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" t="s">
         <v>10</v>
       </c>
@@ -7614,16 +7668,16 @@
         <v>116</v>
       </c>
       <c r="D103" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="E103" t="s">
-        <v>716</v>
+        <v>734</v>
       </c>
       <c r="H103" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" t="s">
         <v>10</v>
       </c>
@@ -7634,16 +7688,16 @@
         <v>117</v>
       </c>
       <c r="D104" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="E104" t="s">
-        <v>717</v>
+        <v>735</v>
       </c>
       <c r="H104" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105" t="s">
         <v>10</v>
       </c>
@@ -7654,16 +7708,16 @@
         <v>118</v>
       </c>
       <c r="D105" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="E105" t="s">
-        <v>718</v>
+        <v>736</v>
       </c>
       <c r="H105" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106" t="s">
         <v>10</v>
       </c>
@@ -7674,30 +7728,30 @@
         <v>119</v>
       </c>
       <c r="D106" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="E106" t="s">
-        <v>719</v>
+        <v>737</v>
       </c>
       <c r="H106" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="C107" t="s">
         <v>120</v>
       </c>
       <c r="D107" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="E107" t="s">
-        <v>720</v>
+        <v>738</v>
       </c>
       <c r="H107" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108" t="s">
         <v>10</v>
       </c>
@@ -7705,27 +7759,27 @@
         <v>121</v>
       </c>
       <c r="D108" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="E108" t="s">
-        <v>721</v>
+        <v>739</v>
       </c>
       <c r="H108" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="C109" t="s">
         <v>122</v>
       </c>
       <c r="D109" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="E109" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110" t="s">
         <v>10</v>
       </c>
@@ -7736,16 +7790,16 @@
         <v>123</v>
       </c>
       <c r="D110" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="E110" t="s">
-        <v>723</v>
+        <v>741</v>
       </c>
       <c r="H110" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111" t="s">
         <v>10</v>
       </c>
@@ -7753,13 +7807,13 @@
         <v>124</v>
       </c>
       <c r="D111" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="E111" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112" t="s">
         <v>10</v>
       </c>
@@ -7767,13 +7821,13 @@
         <v>125</v>
       </c>
       <c r="D112" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="E112" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113" t="s">
         <v>10</v>
       </c>
@@ -7784,16 +7838,16 @@
         <v>126</v>
       </c>
       <c r="D113" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="E113" t="s">
-        <v>726</v>
+        <v>744</v>
       </c>
       <c r="H113" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114" t="s">
         <v>10</v>
       </c>
@@ -7801,13 +7855,13 @@
         <v>127</v>
       </c>
       <c r="D114" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="E114" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115" t="s">
         <v>10</v>
       </c>
@@ -7815,13 +7869,13 @@
         <v>128</v>
       </c>
       <c r="D115" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="E115" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116" t="s">
         <v>10</v>
       </c>
@@ -7832,16 +7886,16 @@
         <v>129</v>
       </c>
       <c r="D116" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="E116" t="s">
-        <v>729</v>
+        <v>747</v>
       </c>
       <c r="H116" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117" t="s">
         <v>10</v>
       </c>
@@ -7849,13 +7903,13 @@
         <v>130</v>
       </c>
       <c r="D117" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="E117" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118" t="s">
         <v>10</v>
       </c>
@@ -7863,13 +7917,13 @@
         <v>131</v>
       </c>
       <c r="D118" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="E118" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119" t="s">
         <v>10</v>
       </c>
@@ -7880,16 +7934,16 @@
         <v>132</v>
       </c>
       <c r="D119" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="E119" t="s">
-        <v>732</v>
+        <v>750</v>
       </c>
       <c r="H119" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120" t="s">
         <v>10</v>
       </c>
@@ -7897,13 +7951,13 @@
         <v>133</v>
       </c>
       <c r="D120" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="E120" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121" t="s">
         <v>10</v>
       </c>
@@ -7911,13 +7965,13 @@
         <v>134</v>
       </c>
       <c r="D121" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="E121" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122" t="s">
         <v>10</v>
       </c>
@@ -7928,16 +7982,16 @@
         <v>135</v>
       </c>
       <c r="D122" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="E122" t="s">
-        <v>735</v>
+        <v>753</v>
       </c>
       <c r="H122" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123" t="s">
         <v>10</v>
       </c>
@@ -7948,16 +8002,16 @@
         <v>136</v>
       </c>
       <c r="D123" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="E123" t="s">
-        <v>736</v>
+        <v>754</v>
       </c>
       <c r="H123" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124" t="s">
         <v>10</v>
       </c>
@@ -7968,16 +8022,16 @@
         <v>137</v>
       </c>
       <c r="D124" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="E124" t="s">
-        <v>737</v>
+        <v>755</v>
       </c>
       <c r="H124" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
       <c r="A125" t="s">
         <v>10</v>
       </c>
@@ -7985,13 +8039,13 @@
         <v>138</v>
       </c>
       <c r="D125" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="E125" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
       <c r="A126" t="s">
         <v>10</v>
       </c>
@@ -7999,13 +8053,13 @@
         <v>139</v>
       </c>
       <c r="D126" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="E126" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127" t="s">
         <v>10</v>
       </c>
@@ -8016,16 +8070,16 @@
         <v>140</v>
       </c>
       <c r="D127" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="E127" t="s">
-        <v>740</v>
+        <v>758</v>
       </c>
       <c r="H127" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
       <c r="A128" t="s">
         <v>10</v>
       </c>
@@ -8033,13 +8087,13 @@
         <v>141</v>
       </c>
       <c r="D128" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="E128" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
       <c r="A129" t="s">
         <v>10</v>
       </c>
@@ -8047,13 +8101,13 @@
         <v>142</v>
       </c>
       <c r="D129" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="E129" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
       <c r="A130" t="s">
         <v>10</v>
       </c>
@@ -8064,16 +8118,16 @@
         <v>143</v>
       </c>
       <c r="D130" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="E130" t="s">
-        <v>743</v>
+        <v>761</v>
       </c>
       <c r="H130" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
       <c r="A131" t="s">
         <v>10</v>
       </c>
@@ -8084,16 +8138,16 @@
         <v>144</v>
       </c>
       <c r="D131" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="E131" t="s">
-        <v>744</v>
+        <v>762</v>
       </c>
       <c r="H131" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
       <c r="A132" t="s">
         <v>10</v>
       </c>
@@ -8101,13 +8155,13 @@
         <v>145</v>
       </c>
       <c r="D132" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="E132" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
       <c r="A133" t="s">
         <v>10</v>
       </c>
@@ -8115,13 +8169,13 @@
         <v>146</v>
       </c>
       <c r="D133" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="E133" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
       <c r="A134" t="s">
         <v>10</v>
       </c>
@@ -8132,16 +8186,16 @@
         <v>147</v>
       </c>
       <c r="D134" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="E134" t="s">
-        <v>747</v>
+        <v>765</v>
       </c>
       <c r="H134" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
       <c r="A135" t="s">
         <v>10</v>
       </c>
@@ -8152,16 +8206,16 @@
         <v>148</v>
       </c>
       <c r="D135" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="E135" t="s">
-        <v>748</v>
+        <v>766</v>
       </c>
       <c r="H135" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
       <c r="A136" t="s">
         <v>10</v>
       </c>
@@ -8172,16 +8226,16 @@
         <v>149</v>
       </c>
       <c r="D136" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="E136" t="s">
-        <v>749</v>
+        <v>767</v>
       </c>
       <c r="H136" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
       <c r="A137" t="s">
         <v>10</v>
       </c>
@@ -8189,13 +8243,13 @@
         <v>150</v>
       </c>
       <c r="D137" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="E137" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
       <c r="A138" t="s">
         <v>10</v>
       </c>
@@ -8203,13 +8257,13 @@
         <v>151</v>
       </c>
       <c r="D138" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="E138" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
       <c r="A139" t="s">
         <v>10</v>
       </c>
@@ -8220,16 +8274,16 @@
         <v>152</v>
       </c>
       <c r="D139" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="E139" t="s">
-        <v>752</v>
+        <v>770</v>
       </c>
       <c r="H139" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
       <c r="A140" t="s">
         <v>10</v>
       </c>
@@ -8240,16 +8294,16 @@
         <v>153</v>
       </c>
       <c r="D140" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="E140" t="s">
-        <v>753</v>
+        <v>771</v>
       </c>
       <c r="H140" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
       <c r="A141" t="s">
         <v>10</v>
       </c>
@@ -8257,13 +8311,13 @@
         <v>154</v>
       </c>
       <c r="D141" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="E141" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
       <c r="A142" t="s">
         <v>10</v>
       </c>
@@ -8271,13 +8325,13 @@
         <v>155</v>
       </c>
       <c r="D142" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="E142" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
       <c r="A143" t="s">
         <v>10</v>
       </c>
@@ -8288,16 +8342,16 @@
         <v>156</v>
       </c>
       <c r="D143" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="E143" t="s">
-        <v>756</v>
+        <v>774</v>
       </c>
       <c r="H143" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
       <c r="A144" t="s">
         <v>10</v>
       </c>
@@ -8308,16 +8362,16 @@
         <v>157</v>
       </c>
       <c r="D144" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="E144" t="s">
-        <v>757</v>
+        <v>775</v>
       </c>
       <c r="H144" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
       <c r="A145" t="s">
         <v>10</v>
       </c>
@@ -8328,16 +8382,16 @@
         <v>158</v>
       </c>
       <c r="D145" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="E145" t="s">
-        <v>758</v>
+        <v>776</v>
       </c>
       <c r="H145" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
       <c r="A146" t="s">
         <v>10</v>
       </c>
@@ -8348,16 +8402,16 @@
         <v>159</v>
       </c>
       <c r="D146" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="E146" t="s">
-        <v>759</v>
+        <v>777</v>
       </c>
       <c r="H146" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
       <c r="A147" t="s">
         <v>10</v>
       </c>
@@ -8368,16 +8422,16 @@
         <v>160</v>
       </c>
       <c r="D147" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="E147" t="s">
-        <v>760</v>
+        <v>778</v>
       </c>
       <c r="H147" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
       <c r="A148" t="s">
         <v>10</v>
       </c>
@@ -8385,16 +8439,16 @@
         <v>161</v>
       </c>
       <c r="D148" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="E148" t="s">
-        <v>761</v>
+        <v>779</v>
       </c>
       <c r="H148" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
       <c r="A149" t="s">
         <v>10</v>
       </c>
@@ -8402,13 +8456,13 @@
         <v>162</v>
       </c>
       <c r="D149" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="E149" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
       <c r="A150" t="s">
         <v>10</v>
       </c>
@@ -8416,13 +8470,13 @@
         <v>163</v>
       </c>
       <c r="D150" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="E150" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
       <c r="A151" t="s">
         <v>10</v>
       </c>
@@ -8430,13 +8484,13 @@
         <v>164</v>
       </c>
       <c r="D151" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="E151" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
       <c r="A152" t="s">
         <v>10</v>
       </c>
@@ -8447,16 +8501,16 @@
         <v>165</v>
       </c>
       <c r="D152" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="E152" t="s">
-        <v>765</v>
+        <v>783</v>
       </c>
       <c r="H152" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
       <c r="A153" t="s">
         <v>10</v>
       </c>
@@ -8467,16 +8521,16 @@
         <v>166</v>
       </c>
       <c r="D153" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="E153" t="s">
-        <v>766</v>
+        <v>784</v>
       </c>
       <c r="H153" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
       <c r="A154" t="s">
         <v>10</v>
       </c>
@@ -8484,16 +8538,16 @@
         <v>167</v>
       </c>
       <c r="D154" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="E154" t="s">
-        <v>767</v>
+        <v>785</v>
       </c>
       <c r="H154" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
       <c r="A155" t="s">
         <v>8</v>
       </c>
@@ -8501,13 +8555,13 @@
         <v>168</v>
       </c>
       <c r="D155" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="E155" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
       <c r="A156" t="s">
         <v>8</v>
       </c>
@@ -8515,13 +8569,13 @@
         <v>169</v>
       </c>
       <c r="D156" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="E156" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
       <c r="A157" t="s">
         <v>8</v>
       </c>
@@ -8532,10 +8586,10 @@
         <v>170</v>
       </c>
       <c r="D157" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="E157" t="s">
-        <v>770</v>
+        <v>788</v>
       </c>
       <c r="F157">
         <v>4</v>
@@ -8544,10 +8598,10 @@
         <v>4</v>
       </c>
       <c r="H157" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
       <c r="A158" t="s">
         <v>8</v>
       </c>
@@ -8558,10 +8612,10 @@
         <v>171</v>
       </c>
       <c r="D158" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="E158" t="s">
-        <v>771</v>
+        <v>789</v>
       </c>
       <c r="F158">
         <v>4</v>
@@ -8570,10 +8624,10 @@
         <v>4</v>
       </c>
       <c r="H158" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
       <c r="A159" t="s">
         <v>8</v>
       </c>
@@ -8584,10 +8638,10 @@
         <v>172</v>
       </c>
       <c r="D159" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="E159" t="s">
-        <v>772</v>
+        <v>790</v>
       </c>
       <c r="F159">
         <v>46</v>
@@ -8596,10 +8650,10 @@
         <v>2</v>
       </c>
       <c r="H159" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
       <c r="A160" t="s">
         <v>8</v>
       </c>
@@ -8610,10 +8664,10 @@
         <v>173</v>
       </c>
       <c r="D160" t="s">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="E160" t="s">
-        <v>773</v>
+        <v>791</v>
       </c>
       <c r="F160">
         <v>46</v>
@@ -8622,10 +8676,10 @@
         <v>2</v>
       </c>
       <c r="H160" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
       <c r="A161" t="s">
         <v>8</v>
       </c>
@@ -8633,13 +8687,13 @@
         <v>174</v>
       </c>
       <c r="D161" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="E161" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
       <c r="A162" t="s">
         <v>8</v>
       </c>
@@ -8647,13 +8701,13 @@
         <v>175</v>
       </c>
       <c r="D162" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="E162" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
       <c r="A163" t="s">
         <v>8</v>
       </c>
@@ -8664,10 +8718,10 @@
         <v>176</v>
       </c>
       <c r="D163" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="E163" t="s">
-        <v>776</v>
+        <v>794</v>
       </c>
       <c r="F163">
         <v>27</v>
@@ -8676,10 +8730,10 @@
         <v>6</v>
       </c>
       <c r="H163" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
       <c r="A164" t="s">
         <v>8</v>
       </c>
@@ -8690,10 +8744,10 @@
         <v>177</v>
       </c>
       <c r="D164" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="E164" t="s">
-        <v>777</v>
+        <v>795</v>
       </c>
       <c r="F164">
         <v>27</v>
@@ -8702,10 +8756,10 @@
         <v>6</v>
       </c>
       <c r="H164" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
       <c r="A165" t="s">
         <v>8</v>
       </c>
@@ -8716,10 +8770,10 @@
         <v>178</v>
       </c>
       <c r="D165" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="E165" t="s">
-        <v>778</v>
+        <v>796</v>
       </c>
       <c r="F165">
         <v>58</v>
@@ -8728,10 +8782,10 @@
         <v>2</v>
       </c>
       <c r="H165" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
       <c r="A166" t="s">
         <v>8</v>
       </c>
@@ -8742,10 +8796,10 @@
         <v>179</v>
       </c>
       <c r="D166" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="E166" t="s">
-        <v>779</v>
+        <v>797</v>
       </c>
       <c r="F166">
         <v>58</v>
@@ -8754,10 +8808,10 @@
         <v>2</v>
       </c>
       <c r="H166" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
       <c r="A167" t="s">
         <v>8</v>
       </c>
@@ -8765,13 +8819,13 @@
         <v>180</v>
       </c>
       <c r="D167" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="E167" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
       <c r="A168" t="s">
         <v>8</v>
       </c>
@@ -8779,13 +8833,13 @@
         <v>181</v>
       </c>
       <c r="D168" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="E168" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
       <c r="A169" t="s">
         <v>8</v>
       </c>
@@ -8796,10 +8850,10 @@
         <v>182</v>
       </c>
       <c r="D169" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="E169" t="s">
-        <v>782</v>
+        <v>800</v>
       </c>
       <c r="F169">
         <v>1</v>
@@ -8808,10 +8862,10 @@
         <v>5</v>
       </c>
       <c r="H169" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
       <c r="A170" t="s">
         <v>8</v>
       </c>
@@ -8822,10 +8876,10 @@
         <v>183</v>
       </c>
       <c r="D170" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="E170" t="s">
-        <v>783</v>
+        <v>801</v>
       </c>
       <c r="F170">
         <v>1</v>
@@ -8834,10 +8888,10 @@
         <v>5</v>
       </c>
       <c r="H170" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
       <c r="A171" t="s">
         <v>8</v>
       </c>
@@ -8848,10 +8902,10 @@
         <v>184</v>
       </c>
       <c r="D171" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="E171" t="s">
-        <v>784</v>
+        <v>802</v>
       </c>
       <c r="F171">
         <v>53</v>
@@ -8860,10 +8914,10 @@
         <v>3</v>
       </c>
       <c r="H171" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
       <c r="A172" t="s">
         <v>8</v>
       </c>
@@ -8874,10 +8928,10 @@
         <v>185</v>
       </c>
       <c r="D172" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="E172" t="s">
-        <v>785</v>
+        <v>803</v>
       </c>
       <c r="F172">
         <v>53</v>
@@ -8886,10 +8940,10 @@
         <v>3</v>
       </c>
       <c r="H172" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
       <c r="A173" t="s">
         <v>8</v>
       </c>
@@ -8900,10 +8954,10 @@
         <v>186</v>
       </c>
       <c r="D173" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="E173" t="s">
-        <v>786</v>
+        <v>804</v>
       </c>
       <c r="F173">
         <v>37</v>
@@ -8912,10 +8966,10 @@
         <v>2</v>
       </c>
       <c r="H173" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
       <c r="A174" t="s">
         <v>8</v>
       </c>
@@ -8926,10 +8980,10 @@
         <v>187</v>
       </c>
       <c r="D174" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="E174" t="s">
-        <v>787</v>
+        <v>805</v>
       </c>
       <c r="F174">
         <v>37</v>
@@ -8938,10 +8992,10 @@
         <v>2</v>
       </c>
       <c r="H174" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
       <c r="A175" t="s">
         <v>8</v>
       </c>
@@ -8949,13 +9003,13 @@
         <v>188</v>
       </c>
       <c r="D175" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="E175" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
       <c r="A176" t="s">
         <v>8</v>
       </c>
@@ -8963,13 +9017,13 @@
         <v>189</v>
       </c>
       <c r="D176" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="E176" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
       <c r="A177" t="s">
         <v>8</v>
       </c>
@@ -8980,10 +9034,10 @@
         <v>190</v>
       </c>
       <c r="D177" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="E177" t="s">
-        <v>790</v>
+        <v>808</v>
       </c>
       <c r="F177">
         <v>8</v>
@@ -8992,10 +9046,10 @@
         <v>3</v>
       </c>
       <c r="H177" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
       <c r="A178" t="s">
         <v>8</v>
       </c>
@@ -9006,10 +9060,10 @@
         <v>191</v>
       </c>
       <c r="D178" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="E178" t="s">
-        <v>791</v>
+        <v>809</v>
       </c>
       <c r="F178">
         <v>8</v>
@@ -9018,10 +9072,10 @@
         <v>3</v>
       </c>
       <c r="H178" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
       <c r="A179" t="s">
         <v>8</v>
       </c>
@@ -9032,10 +9086,10 @@
         <v>192</v>
       </c>
       <c r="D179" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="E179" t="s">
-        <v>792</v>
+        <v>810</v>
       </c>
       <c r="F179">
         <v>50</v>
@@ -9044,10 +9098,10 @@
         <v>3</v>
       </c>
       <c r="H179" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
       <c r="A180" t="s">
         <v>8</v>
       </c>
@@ -9058,10 +9112,10 @@
         <v>193</v>
       </c>
       <c r="D180" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="E180" t="s">
-        <v>793</v>
+        <v>811</v>
       </c>
       <c r="F180">
         <v>50</v>
@@ -9070,10 +9124,10 @@
         <v>3</v>
       </c>
       <c r="H180" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
       <c r="A181" t="s">
         <v>8</v>
       </c>
@@ -9081,16 +9135,16 @@
         <v>194</v>
       </c>
       <c r="D181" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="E181" t="s">
-        <v>794</v>
+        <v>812</v>
       </c>
       <c r="H181" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
       <c r="A182" t="s">
         <v>8</v>
       </c>
@@ -9098,13 +9152,13 @@
         <v>195</v>
       </c>
       <c r="D182" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="E182" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
       <c r="A183" t="s">
         <v>8</v>
       </c>
@@ -9115,10 +9169,10 @@
         <v>196</v>
       </c>
       <c r="D183" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="E183" t="s">
-        <v>796</v>
+        <v>814</v>
       </c>
       <c r="F183">
         <v>62</v>
@@ -9127,10 +9181,10 @@
         <v>3</v>
       </c>
       <c r="H183" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
       <c r="A184" t="s">
         <v>8</v>
       </c>
@@ -9141,10 +9195,10 @@
         <v>197</v>
       </c>
       <c r="D184" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="E184" t="s">
-        <v>797</v>
+        <v>815</v>
       </c>
       <c r="F184">
         <v>62</v>
@@ -9153,10 +9207,10 @@
         <v>3</v>
       </c>
       <c r="H184" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
       <c r="A185" t="s">
         <v>8</v>
       </c>
@@ -9167,10 +9221,10 @@
         <v>198</v>
       </c>
       <c r="D185" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="E185" t="s">
-        <v>798</v>
+        <v>816</v>
       </c>
       <c r="F185">
         <v>48</v>
@@ -9179,10 +9233,10 @@
         <v>2</v>
       </c>
       <c r="H185" t="s">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
       <c r="A186" t="s">
         <v>8</v>
       </c>
@@ -9193,10 +9247,10 @@
         <v>199</v>
       </c>
       <c r="D186" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="E186" t="s">
-        <v>799</v>
+        <v>817</v>
       </c>
       <c r="F186">
         <v>48</v>
@@ -9205,10 +9259,10 @@
         <v>2</v>
       </c>
       <c r="H186" t="s">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
       <c r="A187" t="s">
         <v>8</v>
       </c>
@@ -9219,10 +9273,10 @@
         <v>200</v>
       </c>
       <c r="D187" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="E187" t="s">
-        <v>800</v>
+        <v>818</v>
       </c>
       <c r="F187">
         <v>45</v>
@@ -9231,10 +9285,10 @@
         <v>2</v>
       </c>
       <c r="H187" t="s">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
       <c r="A188" t="s">
         <v>8</v>
       </c>
@@ -9245,10 +9299,10 @@
         <v>201</v>
       </c>
       <c r="D188" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="E188" t="s">
-        <v>801</v>
+        <v>819</v>
       </c>
       <c r="F188">
         <v>45</v>
@@ -9257,10 +9311,10 @@
         <v>2</v>
       </c>
       <c r="H188" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
       <c r="A189" t="s">
         <v>8</v>
       </c>
@@ -9268,13 +9322,13 @@
         <v>202</v>
       </c>
       <c r="D189" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="E189" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
       <c r="A190" t="s">
         <v>8</v>
       </c>
@@ -9285,10 +9339,10 @@
         <v>203</v>
       </c>
       <c r="D190" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="E190" t="s">
-        <v>803</v>
+        <v>821</v>
       </c>
       <c r="F190">
         <v>2</v>
@@ -9297,10 +9351,10 @@
         <v>3</v>
       </c>
       <c r="H190" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
       <c r="A191" t="s">
         <v>8</v>
       </c>
@@ -9311,10 +9365,10 @@
         <v>204</v>
       </c>
       <c r="D191" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="E191" t="s">
-        <v>804</v>
+        <v>822</v>
       </c>
       <c r="F191">
         <v>2</v>
@@ -9323,10 +9377,10 @@
         <v>3</v>
       </c>
       <c r="H191" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
       <c r="A192" t="s">
         <v>8</v>
       </c>
@@ -9337,10 +9391,10 @@
         <v>205</v>
       </c>
       <c r="D192" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="E192" t="s">
-        <v>805</v>
+        <v>823</v>
       </c>
       <c r="F192">
         <v>19</v>
@@ -9349,18 +9403,18 @@
         <v>6</v>
       </c>
       <c r="H192" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
       <c r="C193" t="s">
         <v>206</v>
       </c>
       <c r="D193" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="E193" t="s">
-        <v>806</v>
+        <v>824</v>
       </c>
       <c r="F193">
         <v>19</v>
@@ -9369,7 +9423,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8">
       <c r="A194" t="s">
         <v>8</v>
       </c>
@@ -9380,10 +9434,10 @@
         <v>207</v>
       </c>
       <c r="D194" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="E194" t="s">
-        <v>807</v>
+        <v>825</v>
       </c>
       <c r="F194">
         <v>19</v>
@@ -9392,10 +9446,10 @@
         <v>6</v>
       </c>
       <c r="H194" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
       <c r="A195" t="s">
         <v>8</v>
       </c>
@@ -9403,13 +9457,13 @@
         <v>208</v>
       </c>
       <c r="D195" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="E195" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
       <c r="A196" t="s">
         <v>8</v>
       </c>
@@ -9420,10 +9474,10 @@
         <v>209</v>
       </c>
       <c r="D196" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="E196" t="s">
-        <v>809</v>
+        <v>827</v>
       </c>
       <c r="F196">
         <v>5</v>
@@ -9432,10 +9486,10 @@
         <v>3</v>
       </c>
       <c r="H196" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
       <c r="A197" t="s">
         <v>8</v>
       </c>
@@ -9446,10 +9500,10 @@
         <v>210</v>
       </c>
       <c r="D197" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="E197" t="s">
-        <v>810</v>
+        <v>828</v>
       </c>
       <c r="F197">
         <v>5</v>
@@ -9458,10 +9512,10 @@
         <v>3</v>
       </c>
       <c r="H197" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
       <c r="A198" t="s">
         <v>8</v>
       </c>
@@ -9472,10 +9526,10 @@
         <v>211</v>
       </c>
       <c r="D198" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="E198" t="s">
-        <v>811</v>
+        <v>829</v>
       </c>
       <c r="F198">
         <v>15</v>
@@ -9484,10 +9538,10 @@
         <v>3</v>
       </c>
       <c r="H198" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
       <c r="A199" t="s">
         <v>8</v>
       </c>
@@ -9498,10 +9552,10 @@
         <v>212</v>
       </c>
       <c r="D199" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="E199" t="s">
-        <v>812</v>
+        <v>830</v>
       </c>
       <c r="F199">
         <v>15</v>
@@ -9510,10 +9564,10 @@
         <v>3</v>
       </c>
       <c r="H199" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
       <c r="A200" t="s">
         <v>8</v>
       </c>
@@ -9521,13 +9575,13 @@
         <v>213</v>
       </c>
       <c r="D200" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="E200" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8">
       <c r="A201" t="s">
         <v>8</v>
       </c>
@@ -9538,10 +9592,10 @@
         <v>214</v>
       </c>
       <c r="D201" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="E201" t="s">
-        <v>814</v>
+        <v>832</v>
       </c>
       <c r="F201">
         <v>30</v>
@@ -9550,10 +9604,10 @@
         <v>4</v>
       </c>
       <c r="H201" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
       <c r="A202" t="s">
         <v>8</v>
       </c>
@@ -9564,10 +9618,10 @@
         <v>215</v>
       </c>
       <c r="D202" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="E202" t="s">
-        <v>815</v>
+        <v>833</v>
       </c>
       <c r="F202">
         <v>30</v>
@@ -9576,10 +9630,10 @@
         <v>4</v>
       </c>
       <c r="H202" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
       <c r="A203" t="s">
         <v>8</v>
       </c>
@@ -9590,10 +9644,10 @@
         <v>216</v>
       </c>
       <c r="D203" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="E203" t="s">
-        <v>816</v>
+        <v>834</v>
       </c>
       <c r="F203">
         <v>16</v>
@@ -9602,10 +9656,10 @@
         <v>3</v>
       </c>
       <c r="H203" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8">
       <c r="A204" t="s">
         <v>8</v>
       </c>
@@ -9616,10 +9670,10 @@
         <v>217</v>
       </c>
       <c r="D204" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="E204" t="s">
-        <v>817</v>
+        <v>835</v>
       </c>
       <c r="F204">
         <v>16</v>
@@ -9628,10 +9682,10 @@
         <v>3</v>
       </c>
       <c r="H204" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8">
       <c r="A205" t="s">
         <v>8</v>
       </c>
@@ -9642,10 +9696,10 @@
         <v>218</v>
       </c>
       <c r="D205" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="E205" t="s">
-        <v>818</v>
+        <v>836</v>
       </c>
       <c r="F205">
         <v>52</v>
@@ -9654,10 +9708,10 @@
         <v>4</v>
       </c>
       <c r="H205" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8">
       <c r="A206" t="s">
         <v>8</v>
       </c>
@@ -9668,10 +9722,10 @@
         <v>219</v>
       </c>
       <c r="D206" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="E206" t="s">
-        <v>819</v>
+        <v>837</v>
       </c>
       <c r="F206">
         <v>52</v>
@@ -9680,10 +9734,10 @@
         <v>4</v>
       </c>
       <c r="H206" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
       <c r="A207" t="s">
         <v>8</v>
       </c>
@@ -9691,13 +9745,13 @@
         <v>220</v>
       </c>
       <c r="D207" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="E207" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
       <c r="A208" t="s">
         <v>8</v>
       </c>
@@ -9708,10 +9762,10 @@
         <v>221</v>
       </c>
       <c r="D208" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="E208" t="s">
-        <v>821</v>
+        <v>839</v>
       </c>
       <c r="F208">
         <v>54</v>
@@ -9720,10 +9774,10 @@
         <v>3</v>
       </c>
       <c r="H208" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8">
       <c r="A209" t="s">
         <v>8</v>
       </c>
@@ -9734,10 +9788,10 @@
         <v>222</v>
       </c>
       <c r="D209" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="E209" t="s">
-        <v>822</v>
+        <v>840</v>
       </c>
       <c r="F209">
         <v>54</v>
@@ -9746,10 +9800,10 @@
         <v>3</v>
       </c>
       <c r="H209" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8">
       <c r="A210" t="s">
         <v>8</v>
       </c>
@@ -9760,10 +9814,10 @@
         <v>223</v>
       </c>
       <c r="D210" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="E210" t="s">
-        <v>823</v>
+        <v>841</v>
       </c>
       <c r="F210">
         <v>57</v>
@@ -9772,10 +9826,10 @@
         <v>2</v>
       </c>
       <c r="H210" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
       <c r="A211" t="s">
         <v>8</v>
       </c>
@@ -9786,10 +9840,10 @@
         <v>224</v>
       </c>
       <c r="D211" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="E211" t="s">
-        <v>824</v>
+        <v>842</v>
       </c>
       <c r="F211">
         <v>57</v>
@@ -9798,10 +9852,10 @@
         <v>2</v>
       </c>
       <c r="H211" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8">
       <c r="A212" t="s">
         <v>8</v>
       </c>
@@ -9812,10 +9866,10 @@
         <v>225</v>
       </c>
       <c r="D212" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="E212" t="s">
-        <v>825</v>
+        <v>843</v>
       </c>
       <c r="F212">
         <v>22</v>
@@ -9824,10 +9878,10 @@
         <v>3</v>
       </c>
       <c r="H212" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8">
       <c r="A213" t="s">
         <v>8</v>
       </c>
@@ -9838,10 +9892,10 @@
         <v>226</v>
       </c>
       <c r="D213" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="E213" t="s">
-        <v>826</v>
+        <v>844</v>
       </c>
       <c r="F213">
         <v>22</v>
@@ -9850,10 +9904,10 @@
         <v>3</v>
       </c>
       <c r="H213" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
       <c r="A214" t="s">
         <v>11</v>
       </c>
@@ -9861,13 +9915,13 @@
         <v>227</v>
       </c>
       <c r="D214" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="E214" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8">
       <c r="A215" t="s">
         <v>11</v>
       </c>
@@ -9875,16 +9929,16 @@
         <v>228</v>
       </c>
       <c r="D215" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="E215" t="s">
-        <v>828</v>
+        <v>846</v>
       </c>
       <c r="H215" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8">
       <c r="A216" t="s">
         <v>11</v>
       </c>
@@ -9892,16 +9946,16 @@
         <v>229</v>
       </c>
       <c r="D216" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="E216" t="s">
-        <v>829</v>
+        <v>847</v>
       </c>
       <c r="H216" t="s">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8">
       <c r="A217" t="s">
         <v>12</v>
       </c>
@@ -9909,16 +9963,16 @@
         <v>230</v>
       </c>
       <c r="D217" t="s">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="E217" t="s">
-        <v>830</v>
+        <v>848</v>
       </c>
       <c r="H217" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8">
       <c r="A218" t="s">
         <v>12</v>
       </c>
@@ -9926,16 +9980,16 @@
         <v>231</v>
       </c>
       <c r="D218" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="E218" t="s">
-        <v>831</v>
+        <v>849</v>
       </c>
       <c r="H218" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8">
       <c r="A219" t="s">
         <v>12</v>
       </c>
@@ -9946,10 +10000,10 @@
         <v>232</v>
       </c>
       <c r="D219" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="E219" t="s">
-        <v>832</v>
+        <v>850</v>
       </c>
       <c r="F219">
         <v>30</v>
@@ -9958,10 +10012,10 @@
         <v>3</v>
       </c>
       <c r="H219" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8">
       <c r="A220" t="s">
         <v>12</v>
       </c>
@@ -9972,10 +10026,10 @@
         <v>233</v>
       </c>
       <c r="D220" t="s">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="E220" t="s">
-        <v>833</v>
+        <v>851</v>
       </c>
       <c r="F220">
         <v>30</v>
@@ -9984,10 +10038,10 @@
         <v>3</v>
       </c>
       <c r="H220" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8">
       <c r="A221" t="s">
         <v>12</v>
       </c>
@@ -9998,10 +10052,10 @@
         <v>234</v>
       </c>
       <c r="D221" t="s">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="E221" t="s">
-        <v>834</v>
+        <v>852</v>
       </c>
       <c r="F221">
         <v>58</v>
@@ -10010,10 +10064,10 @@
         <v>4</v>
       </c>
       <c r="H221" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8">
       <c r="A222" t="s">
         <v>12</v>
       </c>
@@ -10024,10 +10078,10 @@
         <v>235</v>
       </c>
       <c r="D222" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="E222" t="s">
-        <v>835</v>
+        <v>853</v>
       </c>
       <c r="F222">
         <v>58</v>
@@ -10036,10 +10090,10 @@
         <v>4</v>
       </c>
       <c r="H222" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8">
       <c r="A223" t="s">
         <v>12</v>
       </c>
@@ -10050,10 +10104,10 @@
         <v>236</v>
       </c>
       <c r="D223" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="E223" t="s">
-        <v>836</v>
+        <v>854</v>
       </c>
       <c r="F223">
         <v>34</v>
@@ -10062,10 +10116,10 @@
         <v>3</v>
       </c>
       <c r="H223" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8">
       <c r="A224" t="s">
         <v>12</v>
       </c>
@@ -10073,16 +10127,16 @@
         <v>237</v>
       </c>
       <c r="D224" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="E224" t="s">
-        <v>837</v>
+        <v>855</v>
       </c>
       <c r="H224" t="s">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8">
       <c r="A225" t="s">
         <v>12</v>
       </c>
@@ -10090,16 +10144,16 @@
         <v>238</v>
       </c>
       <c r="D225" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="E225" t="s">
-        <v>838</v>
+        <v>856</v>
       </c>
       <c r="H225" t="s">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8">
       <c r="A226" t="s">
         <v>12</v>
       </c>
@@ -10110,16 +10164,16 @@
         <v>239</v>
       </c>
       <c r="D226" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="E226" t="s">
-        <v>839</v>
+        <v>857</v>
       </c>
       <c r="H226" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8">
       <c r="A227" t="s">
         <v>12</v>
       </c>
@@ -10130,16 +10184,16 @@
         <v>240</v>
       </c>
       <c r="D227" t="s">
-        <v>540</v>
+        <v>549</v>
       </c>
       <c r="E227" t="s">
-        <v>840</v>
+        <v>858</v>
       </c>
       <c r="H227" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8">
       <c r="A228" t="s">
         <v>12</v>
       </c>
@@ -10150,16 +10204,16 @@
         <v>241</v>
       </c>
       <c r="D228" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="E228" t="s">
-        <v>841</v>
+        <v>859</v>
       </c>
       <c r="H228" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8">
       <c r="A229" t="s">
         <v>12</v>
       </c>
@@ -10167,16 +10221,16 @@
         <v>242</v>
       </c>
       <c r="D229" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="E229" t="s">
-        <v>842</v>
+        <v>860</v>
       </c>
       <c r="H229" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8">
       <c r="A230" t="s">
         <v>12</v>
       </c>
@@ -10184,16 +10238,16 @@
         <v>243</v>
       </c>
       <c r="D230" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="E230" t="s">
-        <v>843</v>
+        <v>861</v>
       </c>
       <c r="H230" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8">
       <c r="A231" t="s">
         <v>12</v>
       </c>
@@ -10201,16 +10255,16 @@
         <v>244</v>
       </c>
       <c r="D231" t="s">
-        <v>544</v>
+        <v>553</v>
       </c>
       <c r="E231" t="s">
-        <v>844</v>
+        <v>862</v>
       </c>
       <c r="H231" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8">
       <c r="A232" t="s">
         <v>12</v>
       </c>
@@ -10221,16 +10275,16 @@
         <v>245</v>
       </c>
       <c r="D232" t="s">
-        <v>545</v>
+        <v>554</v>
       </c>
       <c r="E232" t="s">
-        <v>845</v>
+        <v>863</v>
       </c>
       <c r="H232" t="s">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8">
       <c r="A233" t="s">
         <v>12</v>
       </c>
@@ -10241,16 +10295,16 @@
         <v>246</v>
       </c>
       <c r="D233" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="E233" t="s">
-        <v>846</v>
+        <v>864</v>
       </c>
       <c r="H233" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8">
       <c r="A234" t="s">
         <v>12</v>
       </c>
@@ -10261,16 +10315,16 @@
         <v>247</v>
       </c>
       <c r="D234" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="E234" t="s">
-        <v>847</v>
+        <v>865</v>
       </c>
       <c r="H234" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8">
       <c r="A235" t="s">
         <v>12</v>
       </c>
@@ -10281,16 +10335,16 @@
         <v>248</v>
       </c>
       <c r="D235" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="E235" t="s">
-        <v>848</v>
+        <v>866</v>
       </c>
       <c r="H235" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8">
       <c r="A236" t="s">
         <v>12</v>
       </c>
@@ -10298,13 +10352,13 @@
         <v>249</v>
       </c>
       <c r="D236" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="E236" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8">
       <c r="A237" t="s">
         <v>12</v>
       </c>
@@ -10312,13 +10366,13 @@
         <v>250</v>
       </c>
       <c r="D237" t="s">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="E237" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8">
       <c r="A238" t="s">
         <v>12</v>
       </c>
@@ -10326,13 +10380,13 @@
         <v>251</v>
       </c>
       <c r="D238" t="s">
-        <v>551</v>
+        <v>560</v>
       </c>
       <c r="E238" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8">
       <c r="A239" t="s">
         <v>12</v>
       </c>
@@ -10340,13 +10394,13 @@
         <v>252</v>
       </c>
       <c r="D239" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="E239" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8">
       <c r="A240" t="s">
         <v>10</v>
       </c>
@@ -10354,16 +10408,16 @@
         <v>253</v>
       </c>
       <c r="D240" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="E240" t="s">
-        <v>853</v>
+        <v>871</v>
       </c>
       <c r="H240" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8">
       <c r="A241" t="s">
         <v>12</v>
       </c>
@@ -10374,10 +10428,10 @@
         <v>254</v>
       </c>
       <c r="D241" t="s">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="E241" t="s">
-        <v>854</v>
+        <v>872</v>
       </c>
       <c r="F241">
         <v>8</v>
@@ -10386,10 +10440,10 @@
         <v>4</v>
       </c>
       <c r="H241" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8">
       <c r="A242" t="s">
         <v>12</v>
       </c>
@@ -10400,10 +10454,10 @@
         <v>255</v>
       </c>
       <c r="D242" t="s">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="E242" t="s">
-        <v>855</v>
+        <v>873</v>
       </c>
       <c r="F242">
         <v>37</v>
@@ -10412,10 +10466,10 @@
         <v>3</v>
       </c>
       <c r="H242" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8">
       <c r="A243" t="s">
         <v>12</v>
       </c>
@@ -10426,10 +10480,10 @@
         <v>256</v>
       </c>
       <c r="D243" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="E243" t="s">
-        <v>856</v>
+        <v>874</v>
       </c>
       <c r="F243">
         <v>64</v>
@@ -10438,10 +10492,10 @@
         <v>3</v>
       </c>
       <c r="H243" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8">
       <c r="A244" t="s">
         <v>12</v>
       </c>
@@ -10449,13 +10503,13 @@
         <v>257</v>
       </c>
       <c r="D244" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
       <c r="E244" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8">
       <c r="A245" t="s">
         <v>12</v>
       </c>
@@ -10466,10 +10520,10 @@
         <v>258</v>
       </c>
       <c r="D245" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
       <c r="E245" t="s">
-        <v>858</v>
+        <v>876</v>
       </c>
       <c r="F245">
         <v>44</v>
@@ -10478,10 +10532,10 @@
         <v>3</v>
       </c>
       <c r="H245" t="s">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8">
       <c r="A246" t="s">
         <v>12</v>
       </c>
@@ -10492,10 +10546,10 @@
         <v>259</v>
       </c>
       <c r="D246" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="E246" t="s">
-        <v>859</v>
+        <v>877</v>
       </c>
       <c r="F246">
         <v>45</v>
@@ -10504,10 +10558,10 @@
         <v>3</v>
       </c>
       <c r="H246" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8">
       <c r="A247" t="s">
         <v>12</v>
       </c>
@@ -10518,10 +10572,10 @@
         <v>260</v>
       </c>
       <c r="D247" t="s">
-        <v>560</v>
+        <v>569</v>
       </c>
       <c r="E247" t="s">
-        <v>860</v>
+        <v>878</v>
       </c>
       <c r="F247">
         <v>59</v>
@@ -10530,10 +10584,10 @@
         <v>3</v>
       </c>
       <c r="H247" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8">
       <c r="A248" t="s">
         <v>12</v>
       </c>
@@ -10541,13 +10595,13 @@
         <v>261</v>
       </c>
       <c r="D248" t="s">
-        <v>561</v>
+        <v>570</v>
       </c>
       <c r="E248" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8">
       <c r="A249" t="s">
         <v>13</v>
       </c>
@@ -10555,10 +10609,10 @@
         <v>262</v>
       </c>
       <c r="D249" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="E249" t="s">
-        <v>862</v>
+        <v>880</v>
       </c>
       <c r="F249">
         <v>3</v>
@@ -10567,10 +10621,10 @@
         <v>4</v>
       </c>
       <c r="H249" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8">
       <c r="A250" t="s">
         <v>13</v>
       </c>
@@ -10578,10 +10632,10 @@
         <v>263</v>
       </c>
       <c r="D250" t="s">
-        <v>563</v>
+        <v>572</v>
       </c>
       <c r="E250" t="s">
-        <v>863</v>
+        <v>881</v>
       </c>
       <c r="F250">
         <v>3</v>
@@ -10590,10 +10644,10 @@
         <v>4</v>
       </c>
       <c r="H250" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8">
       <c r="A251" t="s">
         <v>12</v>
       </c>
@@ -10604,10 +10658,10 @@
         <v>264</v>
       </c>
       <c r="D251" t="s">
-        <v>564</v>
+        <v>573</v>
       </c>
       <c r="E251" t="s">
-        <v>864</v>
+        <v>882</v>
       </c>
       <c r="F251">
         <v>3</v>
@@ -10616,10 +10670,10 @@
         <v>4</v>
       </c>
       <c r="H251" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8">
       <c r="A252" t="s">
         <v>12</v>
       </c>
@@ -10627,13 +10681,13 @@
         <v>265</v>
       </c>
       <c r="D252" t="s">
-        <v>565</v>
+        <v>574</v>
       </c>
       <c r="E252" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8">
       <c r="A253" t="s">
         <v>12</v>
       </c>
@@ -10644,10 +10698,10 @@
         <v>266</v>
       </c>
       <c r="D253" t="s">
-        <v>566</v>
+        <v>575</v>
       </c>
       <c r="E253" t="s">
-        <v>866</v>
+        <v>884</v>
       </c>
       <c r="F253">
         <v>32</v>
@@ -10656,10 +10710,10 @@
         <v>3</v>
       </c>
       <c r="H253" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8">
       <c r="A254" t="s">
         <v>12</v>
       </c>
@@ -10670,10 +10724,10 @@
         <v>267</v>
       </c>
       <c r="D254" t="s">
-        <v>567</v>
+        <v>576</v>
       </c>
       <c r="E254" t="s">
-        <v>867</v>
+        <v>885</v>
       </c>
       <c r="F254">
         <v>27</v>
@@ -10682,10 +10736,10 @@
         <v>3</v>
       </c>
       <c r="H254" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8">
       <c r="A255" t="s">
         <v>12</v>
       </c>
@@ -10693,13 +10747,13 @@
         <v>268</v>
       </c>
       <c r="D255" t="s">
-        <v>568</v>
+        <v>577</v>
       </c>
       <c r="E255" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8">
       <c r="A256" t="s">
         <v>12</v>
       </c>
@@ -10710,10 +10764,10 @@
         <v>269</v>
       </c>
       <c r="D256" t="s">
-        <v>569</v>
+        <v>578</v>
       </c>
       <c r="E256" t="s">
-        <v>869</v>
+        <v>887</v>
       </c>
       <c r="F256">
         <v>61</v>
@@ -10722,10 +10776,10 @@
         <v>3</v>
       </c>
       <c r="H256" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8">
       <c r="A257" t="s">
         <v>12</v>
       </c>
@@ -10736,10 +10790,10 @@
         <v>270</v>
       </c>
       <c r="D257" t="s">
-        <v>570</v>
+        <v>579</v>
       </c>
       <c r="E257" t="s">
-        <v>870</v>
+        <v>888</v>
       </c>
       <c r="F257">
         <v>53</v>
@@ -10748,10 +10802,10 @@
         <v>4</v>
       </c>
       <c r="H257" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8">
       <c r="A258" t="s">
         <v>12</v>
       </c>
@@ -10762,10 +10816,10 @@
         <v>271</v>
       </c>
       <c r="D258" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="E258" t="s">
-        <v>871</v>
+        <v>889</v>
       </c>
       <c r="F258">
         <v>43</v>
@@ -10774,10 +10828,10 @@
         <v>3</v>
       </c>
       <c r="H258" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8">
       <c r="A259" t="s">
         <v>12</v>
       </c>
@@ -10788,10 +10842,10 @@
         <v>272</v>
       </c>
       <c r="D259" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="E259" t="s">
-        <v>872</v>
+        <v>890</v>
       </c>
       <c r="F259">
         <v>41</v>
@@ -10800,10 +10854,10 @@
         <v>3</v>
       </c>
       <c r="H259" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8">
       <c r="A260" t="s">
         <v>12</v>
       </c>
@@ -10811,21 +10865,21 @@
         <v>273</v>
       </c>
       <c r="D260" t="s">
-        <v>573</v>
+        <v>582</v>
       </c>
       <c r="E260" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8">
       <c r="C261" t="s">
         <v>274</v>
       </c>
       <c r="D261" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="E261" t="s">
-        <v>874</v>
+        <v>892</v>
       </c>
       <c r="F261">
         <v>5</v>
@@ -10834,18 +10888,18 @@
         <v>3</v>
       </c>
       <c r="H261" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8">
       <c r="C262" t="s">
         <v>275</v>
       </c>
       <c r="D262" t="s">
-        <v>575</v>
+        <v>584</v>
       </c>
       <c r="E262" t="s">
-        <v>875</v>
+        <v>893</v>
       </c>
       <c r="F262">
         <v>5</v>
@@ -10854,10 +10908,10 @@
         <v>3</v>
       </c>
       <c r="H262" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8">
       <c r="A263" t="s">
         <v>12</v>
       </c>
@@ -10868,10 +10922,10 @@
         <v>276</v>
       </c>
       <c r="D263" t="s">
-        <v>576</v>
+        <v>585</v>
       </c>
       <c r="E263" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="F263">
         <v>5</v>
@@ -10880,10 +10934,10 @@
         <v>3</v>
       </c>
       <c r="H263" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8">
       <c r="A264" t="s">
         <v>12</v>
       </c>
@@ -10894,10 +10948,10 @@
         <v>277</v>
       </c>
       <c r="D264" t="s">
-        <v>577</v>
+        <v>586</v>
       </c>
       <c r="E264" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="F264">
         <v>60</v>
@@ -10906,10 +10960,10 @@
         <v>3</v>
       </c>
       <c r="H264" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8">
       <c r="A265" t="s">
         <v>12</v>
       </c>
@@ -10917,24 +10971,24 @@
         <v>278</v>
       </c>
       <c r="D265" t="s">
-        <v>578</v>
+        <v>587</v>
       </c>
       <c r="E265" t="s">
-        <v>878</v>
+        <v>896</v>
       </c>
       <c r="H265" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8">
       <c r="C266" t="s">
         <v>279</v>
       </c>
       <c r="D266" t="s">
-        <v>579</v>
+        <v>588</v>
       </c>
       <c r="E266" t="s">
-        <v>879</v>
+        <v>897</v>
       </c>
       <c r="F266">
         <v>6</v>
@@ -10943,18 +10997,18 @@
         <v>3</v>
       </c>
       <c r="H266" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8">
       <c r="C267" t="s">
         <v>280</v>
       </c>
       <c r="D267" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="E267" t="s">
-        <v>880</v>
+        <v>898</v>
       </c>
       <c r="F267">
         <v>24</v>
@@ -10963,18 +11017,18 @@
         <v>4</v>
       </c>
       <c r="H267" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8">
       <c r="C268" t="s">
         <v>281</v>
       </c>
       <c r="D268" t="s">
-        <v>581</v>
+        <v>590</v>
       </c>
       <c r="E268" t="s">
-        <v>881</v>
+        <v>899</v>
       </c>
       <c r="F268">
         <v>7</v>
@@ -10983,24 +11037,24 @@
         <v>4</v>
       </c>
       <c r="H268" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8">
       <c r="C269" t="s">
         <v>282</v>
       </c>
       <c r="D269" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
       <c r="E269" t="s">
-        <v>882</v>
+        <v>900</v>
       </c>
       <c r="H269" t="s">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8">
       <c r="A270" t="s">
         <v>12</v>
       </c>
@@ -11011,10 +11065,10 @@
         <v>283</v>
       </c>
       <c r="D270" t="s">
-        <v>583</v>
+        <v>592</v>
       </c>
       <c r="E270" t="s">
-        <v>883</v>
+        <v>901</v>
       </c>
       <c r="F270">
         <v>12</v>
@@ -11023,10 +11077,10 @@
         <v>3</v>
       </c>
       <c r="H270" t="s">
-        <v>1123</v>
-      </c>
-    </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8">
       <c r="A271" t="s">
         <v>12</v>
       </c>
@@ -11034,13 +11088,13 @@
         <v>284</v>
       </c>
       <c r="D271" t="s">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="E271" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8">
       <c r="A272" t="s">
         <v>12</v>
       </c>
@@ -11048,10 +11102,10 @@
         <v>285</v>
       </c>
       <c r="D272" t="s">
-        <v>585</v>
+        <v>594</v>
       </c>
       <c r="E272" t="s">
-        <v>885</v>
+        <v>903</v>
       </c>
       <c r="F272">
         <v>1</v>
@@ -11060,7 +11114,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8">
       <c r="A273" t="s">
         <v>12</v>
       </c>
@@ -11068,10 +11122,10 @@
         <v>286</v>
       </c>
       <c r="D273" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="E273" t="s">
-        <v>886</v>
+        <v>904</v>
       </c>
       <c r="F273">
         <v>17</v>
@@ -11080,7 +11134,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8">
       <c r="A274" t="s">
         <v>12</v>
       </c>
@@ -11091,10 +11145,10 @@
         <v>287</v>
       </c>
       <c r="D274" t="s">
-        <v>587</v>
+        <v>596</v>
       </c>
       <c r="E274" t="s">
-        <v>887</v>
+        <v>905</v>
       </c>
       <c r="F274">
         <v>55</v>
@@ -11103,10 +11157,10 @@
         <v>4</v>
       </c>
       <c r="H274" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8">
       <c r="A275" t="s">
         <v>12</v>
       </c>
@@ -11114,13 +11168,13 @@
         <v>288</v>
       </c>
       <c r="D275" t="s">
-        <v>588</v>
+        <v>597</v>
       </c>
       <c r="E275" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8">
       <c r="A276" t="s">
         <v>12</v>
       </c>
@@ -11131,10 +11185,10 @@
         <v>289</v>
       </c>
       <c r="D276" t="s">
-        <v>589</v>
+        <v>598</v>
       </c>
       <c r="E276" t="s">
-        <v>889</v>
+        <v>907</v>
       </c>
       <c r="F276">
         <v>6</v>
@@ -11143,10 +11197,10 @@
         <v>4</v>
       </c>
       <c r="H276" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8">
       <c r="A277" t="s">
         <v>12</v>
       </c>
@@ -11157,10 +11211,10 @@
         <v>290</v>
       </c>
       <c r="D277" t="s">
-        <v>590</v>
+        <v>599</v>
       </c>
       <c r="E277" t="s">
-        <v>890</v>
+        <v>908</v>
       </c>
       <c r="F277">
         <v>36</v>
@@ -11169,10 +11223,10 @@
         <v>3</v>
       </c>
       <c r="H277" t="s">
-        <v>1126</v>
-      </c>
-    </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8">
       <c r="A278" t="s">
         <v>12</v>
       </c>
@@ -11183,10 +11237,10 @@
         <v>291</v>
       </c>
       <c r="D278" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
       <c r="E278" t="s">
-        <v>891</v>
+        <v>909</v>
       </c>
       <c r="F278">
         <v>48</v>
@@ -11195,10 +11249,10 @@
         <v>3</v>
       </c>
       <c r="H278" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8">
       <c r="A279" t="s">
         <v>12</v>
       </c>
@@ -11206,13 +11260,13 @@
         <v>292</v>
       </c>
       <c r="D279" t="s">
-        <v>592</v>
+        <v>601</v>
       </c>
       <c r="E279" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8">
       <c r="A280" t="s">
         <v>12</v>
       </c>
@@ -11223,10 +11277,10 @@
         <v>293</v>
       </c>
       <c r="D280" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
       <c r="E280" t="s">
-        <v>893</v>
+        <v>911</v>
       </c>
       <c r="F280">
         <v>29</v>
@@ -11235,10 +11289,10 @@
         <v>3</v>
       </c>
       <c r="H280" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8">
       <c r="A281" t="s">
         <v>12</v>
       </c>
@@ -11249,10 +11303,10 @@
         <v>294</v>
       </c>
       <c r="D281" t="s">
-        <v>594</v>
+        <v>603</v>
       </c>
       <c r="E281" t="s">
-        <v>894</v>
+        <v>912</v>
       </c>
       <c r="F281">
         <v>33</v>
@@ -11261,10 +11315,10 @@
         <v>3</v>
       </c>
       <c r="H281" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8">
       <c r="A282" t="s">
         <v>12</v>
       </c>
@@ -11275,10 +11329,10 @@
         <v>295</v>
       </c>
       <c r="D282" t="s">
-        <v>595</v>
+        <v>604</v>
       </c>
       <c r="E282" t="s">
-        <v>895</v>
+        <v>913</v>
       </c>
       <c r="F282">
         <v>39</v>
@@ -11287,10 +11341,10 @@
         <v>3</v>
       </c>
       <c r="H282" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8">
       <c r="A283" t="s">
         <v>12</v>
       </c>
@@ -11301,10 +11355,10 @@
         <v>296</v>
       </c>
       <c r="D283" t="s">
-        <v>596</v>
+        <v>605</v>
       </c>
       <c r="E283" t="s">
-        <v>896</v>
+        <v>914</v>
       </c>
       <c r="F283">
         <v>45</v>
@@ -11313,49 +11367,49 @@
         <v>3</v>
       </c>
       <c r="H283" t="s">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8">
       <c r="C284" t="s">
         <v>297</v>
       </c>
       <c r="D284" t="s">
-        <v>597</v>
+        <v>606</v>
       </c>
       <c r="E284" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8">
       <c r="C285" t="s">
         <v>298</v>
       </c>
       <c r="D285" t="s">
-        <v>598</v>
+        <v>607</v>
       </c>
       <c r="E285" t="s">
-        <v>898</v>
+        <v>916</v>
       </c>
       <c r="H285" t="s">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8">
       <c r="C286" t="s">
         <v>299</v>
       </c>
       <c r="D286" t="s">
-        <v>599</v>
+        <v>608</v>
       </c>
       <c r="E286" t="s">
-        <v>899</v>
+        <v>917</v>
       </c>
       <c r="H286" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8">
       <c r="A287" t="s">
         <v>14</v>
       </c>
@@ -11363,13 +11417,13 @@
         <v>300</v>
       </c>
       <c r="D287" t="s">
-        <v>600</v>
+        <v>609</v>
       </c>
       <c r="E287" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8">
       <c r="A288" t="s">
         <v>14</v>
       </c>
@@ -11380,16 +11434,16 @@
         <v>301</v>
       </c>
       <c r="D288" t="s">
-        <v>601</v>
+        <v>610</v>
       </c>
       <c r="E288" t="s">
-        <v>901</v>
+        <v>919</v>
       </c>
       <c r="H288" t="s">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8">
       <c r="A289" t="s">
         <v>14</v>
       </c>
@@ -11400,16 +11454,16 @@
         <v>302</v>
       </c>
       <c r="D289" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
       <c r="E289" t="s">
-        <v>902</v>
+        <v>920</v>
       </c>
       <c r="H289" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8">
       <c r="A290" t="s">
         <v>14</v>
       </c>
@@ -11417,16 +11471,16 @@
         <v>303</v>
       </c>
       <c r="D290" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
       <c r="E290" t="s">
-        <v>903</v>
+        <v>921</v>
       </c>
       <c r="H290" t="s">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8">
       <c r="A291" t="s">
         <v>14</v>
       </c>
@@ -11434,16 +11488,16 @@
         <v>304</v>
       </c>
       <c r="D291" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
       <c r="E291" t="s">
-        <v>904</v>
+        <v>922</v>
       </c>
       <c r="H291" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8">
       <c r="A292" t="s">
         <v>14</v>
       </c>
@@ -11451,10 +11505,10 @@
         <v>305</v>
       </c>
       <c r="D292" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
       <c r="E292" t="s">
-        <v>905</v>
+        <v>923</v>
       </c>
       <c r="F292">
         <v>1</v>
@@ -11463,10 +11517,10 @@
         <v>4</v>
       </c>
       <c r="H292" t="s">
-        <v>1138</v>
-      </c>
-    </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8">
       <c r="A293" t="s">
         <v>14</v>
       </c>
@@ -11474,10 +11528,10 @@
         <v>306</v>
       </c>
       <c r="D293" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
       <c r="E293" t="s">
-        <v>906</v>
+        <v>924</v>
       </c>
       <c r="F293">
         <v>1</v>
@@ -11486,10 +11540,10 @@
         <v>4</v>
       </c>
       <c r="H293" t="s">
-        <v>1139</v>
-      </c>
-    </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8">
       <c r="A294" t="s">
         <v>14</v>
       </c>
@@ -11497,13 +11551,13 @@
         <v>307</v>
       </c>
       <c r="D294" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="E294" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8">
       <c r="A295" t="s">
         <v>14</v>
       </c>
@@ -11511,10 +11565,10 @@
         <v>308</v>
       </c>
       <c r="D295" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
       <c r="E295" t="s">
-        <v>908</v>
+        <v>926</v>
       </c>
       <c r="F295">
         <v>6</v>
@@ -11523,10 +11577,10 @@
         <v>3</v>
       </c>
       <c r="H295" t="s">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8">
       <c r="A296" t="s">
         <v>14</v>
       </c>
@@ -11534,10 +11588,10 @@
         <v>309</v>
       </c>
       <c r="D296" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
       <c r="E296" t="s">
-        <v>909</v>
+        <v>927</v>
       </c>
       <c r="F296">
         <v>16</v>
@@ -11546,10 +11600,10 @@
         <v>3</v>
       </c>
       <c r="H296" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8">
       <c r="A297" t="s">
         <v>14</v>
       </c>
@@ -11557,13 +11611,13 @@
         <v>310</v>
       </c>
       <c r="D297" t="s">
-        <v>610</v>
+        <v>619</v>
       </c>
       <c r="E297" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8">
       <c r="A298" t="s">
         <v>14</v>
       </c>
@@ -11571,10 +11625,10 @@
         <v>311</v>
       </c>
       <c r="D298" t="s">
-        <v>611</v>
+        <v>620</v>
       </c>
       <c r="E298" t="s">
-        <v>911</v>
+        <v>929</v>
       </c>
       <c r="F298">
         <v>3</v>
@@ -11583,10 +11637,10 @@
         <v>3</v>
       </c>
       <c r="H298" t="s">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8">
       <c r="A299" t="s">
         <v>14</v>
       </c>
@@ -11594,10 +11648,10 @@
         <v>312</v>
       </c>
       <c r="D299" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
       <c r="E299" t="s">
-        <v>912</v>
+        <v>930</v>
       </c>
       <c r="F299">
         <v>6</v>
@@ -11606,10 +11660,10 @@
         <v>3</v>
       </c>
       <c r="H299" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8">
       <c r="A300" t="s">
         <v>14</v>
       </c>
@@ -11617,13 +11671,13 @@
         <v>313</v>
       </c>
       <c r="D300" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
       <c r="E300" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8">
       <c r="A301" t="s">
         <v>14</v>
       </c>
@@ -11631,13 +11685,160 @@
         <v>314</v>
       </c>
       <c r="D301" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
       <c r="E301" t="s">
-        <v>914</v>
+        <v>932</v>
       </c>
       <c r="H301" t="s">
-        <v>1144</v>
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8">
+      <c r="A302" t="s">
+        <v>14</v>
+      </c>
+      <c r="C302" t="s">
+        <v>315</v>
+      </c>
+      <c r="D302" t="s">
+        <v>624</v>
+      </c>
+      <c r="E302" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8">
+      <c r="A303" t="s">
+        <v>14</v>
+      </c>
+      <c r="C303" t="s">
+        <v>316</v>
+      </c>
+      <c r="D303" t="s">
+        <v>625</v>
+      </c>
+      <c r="E303" t="s">
+        <v>934</v>
+      </c>
+      <c r="H303" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8">
+      <c r="A304" t="s">
+        <v>14</v>
+      </c>
+      <c r="C304" t="s">
+        <v>317</v>
+      </c>
+      <c r="D304" t="s">
+        <v>626</v>
+      </c>
+      <c r="E304" t="s">
+        <v>935</v>
+      </c>
+      <c r="H304" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8">
+      <c r="A305" t="s">
+        <v>14</v>
+      </c>
+      <c r="C305" t="s">
+        <v>318</v>
+      </c>
+      <c r="D305" t="s">
+        <v>627</v>
+      </c>
+      <c r="E305" t="s">
+        <v>936</v>
+      </c>
+      <c r="H305" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8">
+      <c r="A306" t="s">
+        <v>14</v>
+      </c>
+      <c r="C306" t="s">
+        <v>319</v>
+      </c>
+      <c r="D306" t="s">
+        <v>628</v>
+      </c>
+      <c r="E306" t="s">
+        <v>937</v>
+      </c>
+      <c r="H306" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8">
+      <c r="A307" t="s">
+        <v>14</v>
+      </c>
+      <c r="C307" t="s">
+        <v>320</v>
+      </c>
+      <c r="D307" t="s">
+        <v>629</v>
+      </c>
+      <c r="E307" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8">
+      <c r="A308" t="s">
+        <v>14</v>
+      </c>
+      <c r="C308" t="s">
+        <v>321</v>
+      </c>
+      <c r="D308" t="s">
+        <v>630</v>
+      </c>
+      <c r="E308" t="s">
+        <v>939</v>
+      </c>
+      <c r="H308" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8">
+      <c r="A309" t="s">
+        <v>14</v>
+      </c>
+      <c r="C309" t="s">
+        <v>322</v>
+      </c>
+      <c r="D309" t="s">
+        <v>631</v>
+      </c>
+      <c r="E309" t="s">
+        <v>940</v>
+      </c>
+      <c r="H309" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8">
+      <c r="A310" t="s">
+        <v>14</v>
+      </c>
+      <c r="C310" t="s">
+        <v>323</v>
+      </c>
+      <c r="D310" t="s">
+        <v>632</v>
+      </c>
+      <c r="E310" t="s">
+        <v>941</v>
+      </c>
+      <c r="H310" t="s">
+        <v>1178</v>
       </c>
     </row>
   </sheetData>

--- a/Exp_Record_Alfa.xlsx
+++ b/Exp_Record_Alfa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1468" uniqueCount="1179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="1248">
   <si>
     <t>Exp_collection</t>
   </si>
@@ -59,6 +59,12 @@
   </si>
   <si>
     <t>BigGAN</t>
+  </si>
+  <si>
+    <t>BigGan</t>
+  </si>
+  <si>
+    <t>BigGAN_Hessian</t>
   </si>
   <si>
     <t>Ch 29. SU [-0.5 -1.7] 4 1.
@@ -2253,6 +2259,113 @@
 Replaced 150 ml water for juice. Block 10, bigGan is climbing, fc6 not yet. But the 2 evolutions do look similar, both gray blobby so far. 18 blocks, bigGan doing well, fc6 still nothing....... hes almost done, blasting him. 21 at 1233. Fc6 stayed flat(may have climbed a tiny bit) GinGan climbed.  Complete</t>
   </si>
   <si>
+    <t>001 Starts 14:51 RFMapp
+1 3 6 3 different degrees.
+32 has a beautiful SU 1/5 let's do it maybe
+14:59 finished</t>
+  </si>
+  <si>
+    <t xml:space="preserve">002 Starts 15：11
+Spent some time desciding which channel to evolve.
+FC6 space CMAES
+BigGAN class space CMAES
+Forget to save the initial generation's code .....
+Forget to change the reference images
+This will be successful Aborted </t>
+  </si>
+  <si>
+    <t>003 starts 15:18
+Same setting as 002
+32  [-4 -4]  4  1  'CMAES'  'fc6'
+32  [-4 -4]  4  1  'CMAES'  'BigGAN_class'   0.7 * truncnorm
+BigGAN is doing great, climb like crazy since gen 8
+GC6 GAN Climbs as well.
+both are successful.
+Both are pretty successful.
+FC6 GAN is still climbing ~ 20-25 But I still cannot see a clear shape there.
+BigGAN Stuck in the middle for a while.
+2 threads begin to converge again.
+So CMA is definitely struggling. BigGAN thread is oscilating....One gen good one gen bad, Seems to me like an overshoot problem.
+29 min.
+So BigGAN CMA is finding something but not stable.
+Completed</t>
+  </si>
+  <si>
+    <t>004 starts 15:52
+BigGAN class space  New optimizer CMAES-Hessian
+32  [-4 -4]  4  1  'CMAES_Hessian'
+Pilot test
+Start climbing around gen 6.
+Late activity is recruited largely.
+CMAES grows slowly. But in a steady pace.
+Finally match FC6 generation from last</t>
+  </si>
+  <si>
+    <t>LFP Selectivity pilot
+[0 0] 3 &amp; 5 degs, set B
+Start: 4:15 pm
+5 blocks, complete</t>
+  </si>
+  <si>
+    <t>Rf mapper start at 1006. Stop at 1013.</t>
+  </si>
+  <si>
+    <t>Start: 10:25 pm
+[0 0] 3 degrees, set C
+8 blocks, complete</t>
+  </si>
+  <si>
+    <t>Start: 10:33 pm
+[0 0] 3 degrees, set D
+5 blocks, complete</t>
+  </si>
+  <si>
+    <t>Start: 10:39 pm
+[0 0] 3 degrees, set E
+5 blocks, complete</t>
+  </si>
+  <si>
+    <t>Gen biggan start at 1051.
+Ch 7  hash. (-0.5, -0.5) 3 1 CMAES fc6 and BigGan class.
+ Block 8, biggan climbing, fc6 not yet....both climbing at 12 blocks!!!
+Wahooo both climbing still at 21. Monkey not working. Ugh, might be last exp. Fc6 totally making grape in lower left corner. Biggan making dog? 224 blocks complete stop at 1139. Both climbed but fc6 was more successful</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rf start at 942 . 5 blocks at 948.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gen bigGan fc6 vs BigGan class. start at 954. 
+CH 22 SU 2/5. (0, -2.5) 3 1 CMAES for both. They are both climbing slightly. 30 blocks complete stop at 1021. SUcsessful!!!  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selectivity of Hess images from CH 22 evolution. 4 blocks at 1049 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gen bigGan fc6 vs BigGan class. start at 1054. 
+CH 14 SU hash. (0, -2.5) 3 1 CMAES for both. Stop at 1121. 18 blocks.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rf start at 1006. 4 blocks at 1012.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generate biggan start at 1018. Fc6 vs BigGan class, both with cmaes optimizer 
+CH 6 (-0.3, -3) 3 1  cmaes. Hash.  
+At block 21, not climbing ….. gan climbed a little but not steady, more up and down. Biggan is making a grape/applelooking object, fc6 not doing much. Stop 29 blocks com at 1048 
+I tried doing hessian selectivity with this, it was working earlier..... now its not? It said not enough memory, I ran the pytorchcuda command in matlab and it still telling me  not enough memory error? Idk.  
+Binxu: Yeah not enough memory is a common issue in these experiments. Usually if we restart the python kernel / session in Spyder memory will be released.  
+Generate biggan start at 1103. Fc6 vs BigGan class, both with cmaes optimizer 
+CH 29 (0.5, -2.5) 3 1  cmaes. SU 2/5, stop at 14 blocks, nothing. Did not save </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selectivity of Hessian images from previous evolution. start at 1124. 
+CH 6 (-0.3, -3) 3 1. Big Gan evolution was making a grape/apple looking object, which is similar to what this channel has evolved before with fc6. 4 blocks at 1138 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generate biggan start at 1142. Fc6 vs BigGan class, both with cmaes optimizer 
+CH 15 (0, 0) 3 1  cmaes. Hash.  
+Both climbing. 22 block stop at 1205 </t>
+  </si>
+  <si>
     <t>Alfa64chan-19112019-009</t>
   </si>
   <si>
@@ -3180,6 +3293,60 @@
     <t>Alfa-28072020-004</t>
   </si>
   <si>
+    <t>Alfa-29072020-001</t>
+  </si>
+  <si>
+    <t>Alfa-29072020-002</t>
+  </si>
+  <si>
+    <t>Alfa-29072020-003</t>
+  </si>
+  <si>
+    <t>Alfa-29072020-004</t>
+  </si>
+  <si>
+    <t>Alfa-29072020-005</t>
+  </si>
+  <si>
+    <t>Alfa-30072020-001</t>
+  </si>
+  <si>
+    <t>Alfa-30072020-002</t>
+  </si>
+  <si>
+    <t>Alfa-30072020-003</t>
+  </si>
+  <si>
+    <t>Alfa-30072020-004</t>
+  </si>
+  <si>
+    <t>Alfa-30072020-005</t>
+  </si>
+  <si>
+    <t>Alfa-04082020-001</t>
+  </si>
+  <si>
+    <t>Alfa-04082020-002</t>
+  </si>
+  <si>
+    <t>Alfa-04082020-003</t>
+  </si>
+  <si>
+    <t>Alfa-04082020-004</t>
+  </si>
+  <si>
+    <t>Alfa-06082020-001</t>
+  </si>
+  <si>
+    <t>Alfa-06082020-002</t>
+  </si>
+  <si>
+    <t>Alfa-06082020-004</t>
+  </si>
+  <si>
+    <t>Alfa-06082020-005</t>
+  </si>
+  <si>
     <t>191119_Alfa_generate_parallel(3)</t>
   </si>
   <si>
@@ -4107,6 +4274,60 @@
     <t>200728_Alfa_generate_BigGAN(2)</t>
   </si>
   <si>
+    <t>200729_Alfa_rfMapper_basic</t>
+  </si>
+  <si>
+    <t>200729_Alfa_generate_BigGAN(1)</t>
+  </si>
+  <si>
+    <t>200729_Alfa_generate_BigGAN(2)</t>
+  </si>
+  <si>
+    <t>200729_Alfa_generate_BigGAN(3)</t>
+  </si>
+  <si>
+    <t>200729_Alfa_selectivity_basic</t>
+  </si>
+  <si>
+    <t>200730_Alfa_rfMapper_basic</t>
+  </si>
+  <si>
+    <t>200730_Alfa_selectivity_basic</t>
+  </si>
+  <si>
+    <t>200730_Alfa_selectivity_basic(1)</t>
+  </si>
+  <si>
+    <t>200730_Alfa_selectivity_basic(2)</t>
+  </si>
+  <si>
+    <t>200730_Alfa_generate_BigGAN</t>
+  </si>
+  <si>
+    <t>200804_Alfa_rfMapper_basic</t>
+  </si>
+  <si>
+    <t>200804_Alfa_generate_BigGAN</t>
+  </si>
+  <si>
+    <t>200804_Alfa_selectivity_basic(1)</t>
+  </si>
+  <si>
+    <t>200804_Alfa_generate_BigGAN(1)</t>
+  </si>
+  <si>
+    <t>200806_Alfa_rfMapper_basic</t>
+  </si>
+  <si>
+    <t>200806_Alfa_generate_BigGAN</t>
+  </si>
+  <si>
+    <t>200806_Alfa_selectivity_basic(1)</t>
+  </si>
+  <si>
+    <t>200806_Alfa_generate_BigGAN(2)</t>
+  </si>
+  <si>
     <t>N:\Stimuli\2019-06-Evolutions\alfa-191119a</t>
   </si>
   <si>
@@ -4816,6 +5037,45 @@
   </si>
   <si>
     <t>N:\Stimuli\2020-BigGAN\2020-07-28-Alfa-02\2020-07-28-11-57-40</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2020-BigGAN\2020-07-29-Alfa-01\2020-07-29-15-19-16</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2020-BigGAN\2020-07-29-Alfa-02\2020-07-29-15-54-57</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2020-Selectivity\pilotLFP_ORB\2020-07-29-Alfa-01</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2020-Selectivity\pilotLFP_ORB\2020-07-30-Alfa-01</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2020-Selectivity\pilotLFP_ORB\2020-07-30-Alfa-02</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2020-Selectivity\pilotLFP_ORB\2020-07-30-Alfa-03</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2020-BigGAN\2020-07-30-Alfa-01\2020-07-30-10-51-34</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2020-BigGAN\2020-08-04-Alfa-01\2020-08-04-09-54-25</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2020-BigGAN\2020-08-04-Alfa-01\selectivity</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2020-BigGAN\2020-08-04-Alfa-02\2020-08-04-10-54-57</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2020-BigGAN\2020-08-06-Alfa-01\2020-08-06-10-18-55</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2020-BigGAN\2020-08-06-Alfa-01\selectivity</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2020-BigGAN\2020-08-06-Alfa-02\2020-08-06-11-41-51</t>
   </si>
 </sst>
 </file>
@@ -5173,7 +5433,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H310"/>
+  <dimension ref="A1:H328"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5213,13 +5473,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>324</v>
+        <v>344</v>
       </c>
       <c r="E2" t="s">
-        <v>633</v>
+        <v>671</v>
       </c>
       <c r="F2">
         <v>29</v>
@@ -5228,7 +5488,7 @@
         <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>942</v>
+        <v>998</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -5239,13 +5499,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>325</v>
+        <v>345</v>
       </c>
       <c r="E3" t="s">
-        <v>634</v>
+        <v>672</v>
       </c>
       <c r="F3">
         <v>29</v>
@@ -5262,13 +5522,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>326</v>
+        <v>346</v>
       </c>
       <c r="E4" t="s">
-        <v>635</v>
+        <v>673</v>
       </c>
       <c r="F4">
         <v>29</v>
@@ -5277,7 +5537,7 @@
         <v>4</v>
       </c>
       <c r="H4" t="s">
-        <v>943</v>
+        <v>999</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -5288,13 +5548,13 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>327</v>
+        <v>347</v>
       </c>
       <c r="E5" t="s">
-        <v>636</v>
+        <v>674</v>
       </c>
       <c r="F5">
         <v>29</v>
@@ -5303,7 +5563,7 @@
         <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>944</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -5314,19 +5574,19 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>328</v>
+        <v>348</v>
       </c>
       <c r="E6" t="s">
-        <v>637</v>
+        <v>675</v>
       </c>
       <c r="F6">
         <v>29</v>
       </c>
       <c r="H6" t="s">
-        <v>945</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -5337,13 +5597,13 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>329</v>
+        <v>349</v>
       </c>
       <c r="E7" t="s">
-        <v>638</v>
+        <v>676</v>
       </c>
       <c r="F7">
         <v>29</v>
@@ -5352,7 +5612,7 @@
         <v>4</v>
       </c>
       <c r="H7" t="s">
-        <v>946</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -5363,13 +5623,13 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="E8" t="s">
-        <v>639</v>
+        <v>677</v>
       </c>
       <c r="F8">
         <v>9</v>
@@ -5378,7 +5638,7 @@
         <v>3</v>
       </c>
       <c r="H8" t="s">
-        <v>947</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -5389,13 +5649,13 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>331</v>
+        <v>351</v>
       </c>
       <c r="E9" t="s">
-        <v>640</v>
+        <v>678</v>
       </c>
       <c r="F9">
         <v>9</v>
@@ -5404,7 +5664,7 @@
         <v>3</v>
       </c>
       <c r="H9" t="s">
-        <v>948</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -5415,13 +5675,13 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E10" t="s">
-        <v>641</v>
+        <v>679</v>
       </c>
       <c r="F10">
         <v>9</v>
@@ -5430,7 +5690,7 @@
         <v>3</v>
       </c>
       <c r="H10" t="s">
-        <v>949</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -5441,13 +5701,13 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="E11" t="s">
-        <v>642</v>
+        <v>680</v>
       </c>
       <c r="F11">
         <v>32</v>
@@ -5456,7 +5716,7 @@
         <v>3</v>
       </c>
       <c r="H11" t="s">
-        <v>950</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -5467,13 +5727,13 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="E12" t="s">
-        <v>643</v>
+        <v>681</v>
       </c>
       <c r="F12">
         <v>32</v>
@@ -5482,7 +5742,7 @@
         <v>3</v>
       </c>
       <c r="H12" t="s">
-        <v>951</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -5493,13 +5753,13 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="E13" t="s">
-        <v>644</v>
+        <v>682</v>
       </c>
       <c r="F13">
         <v>32</v>
@@ -5508,18 +5768,18 @@
         <v>3</v>
       </c>
       <c r="H13" t="s">
-        <v>952</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="C14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="E14" t="s">
-        <v>645</v>
+        <v>683</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -5530,13 +5790,13 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="E15" t="s">
-        <v>646</v>
+        <v>684</v>
       </c>
       <c r="F15">
         <v>3</v>
@@ -5545,7 +5805,7 @@
         <v>3</v>
       </c>
       <c r="H15" t="s">
-        <v>953</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -5556,13 +5816,13 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>338</v>
+        <v>358</v>
       </c>
       <c r="E16" t="s">
-        <v>647</v>
+        <v>685</v>
       </c>
       <c r="F16">
         <v>3</v>
@@ -5571,7 +5831,7 @@
         <v>3</v>
       </c>
       <c r="H16" t="s">
-        <v>954</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -5582,13 +5842,13 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>339</v>
+        <v>359</v>
       </c>
       <c r="E17" t="s">
-        <v>648</v>
+        <v>686</v>
       </c>
       <c r="F17">
         <v>3</v>
@@ -5597,18 +5857,18 @@
         <v>3</v>
       </c>
       <c r="H17" t="s">
-        <v>955</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="C18" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="E18" t="s">
-        <v>649</v>
+        <v>687</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -5619,13 +5879,13 @@
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D19" t="s">
-        <v>341</v>
+        <v>361</v>
       </c>
       <c r="E19" t="s">
-        <v>650</v>
+        <v>688</v>
       </c>
       <c r="F19">
         <v>7</v>
@@ -5634,7 +5894,7 @@
         <v>3</v>
       </c>
       <c r="H19" t="s">
-        <v>956</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -5645,13 +5905,13 @@
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D20" t="s">
-        <v>342</v>
+        <v>362</v>
       </c>
       <c r="E20" t="s">
-        <v>651</v>
+        <v>689</v>
       </c>
       <c r="F20">
         <v>7</v>
@@ -5660,7 +5920,7 @@
         <v>3</v>
       </c>
       <c r="H20" t="s">
-        <v>957</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -5671,13 +5931,13 @@
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D21" t="s">
-        <v>343</v>
+        <v>363</v>
       </c>
       <c r="E21" t="s">
-        <v>652</v>
+        <v>690</v>
       </c>
       <c r="F21">
         <v>7</v>
@@ -5686,63 +5946,63 @@
         <v>3</v>
       </c>
       <c r="H21" t="s">
-        <v>958</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="C22" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D22" t="s">
-        <v>344</v>
+        <v>364</v>
       </c>
       <c r="E22" t="s">
-        <v>653</v>
+        <v>691</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="C23" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D23" t="s">
-        <v>345</v>
+        <v>365</v>
       </c>
       <c r="E23" t="s">
-        <v>654</v>
+        <v>692</v>
       </c>
       <c r="G23">
         <v>3</v>
       </c>
       <c r="H23" t="s">
-        <v>959</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="C24" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D24" t="s">
-        <v>346</v>
+        <v>366</v>
       </c>
       <c r="E24" t="s">
-        <v>655</v>
+        <v>693</v>
       </c>
       <c r="G24">
         <v>4</v>
       </c>
       <c r="H24" t="s">
-        <v>960</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="C25" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D25" t="s">
-        <v>347</v>
+        <v>367</v>
       </c>
       <c r="E25" t="s">
-        <v>656</v>
+        <v>694</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -5753,13 +6013,13 @@
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D26" t="s">
-        <v>348</v>
+        <v>368</v>
       </c>
       <c r="E26" t="s">
-        <v>657</v>
+        <v>695</v>
       </c>
       <c r="F26">
         <v>51</v>
@@ -5768,7 +6028,7 @@
         <v>3</v>
       </c>
       <c r="H26" t="s">
-        <v>961</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -5779,13 +6039,13 @@
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D27" t="s">
-        <v>349</v>
+        <v>369</v>
       </c>
       <c r="E27" t="s">
-        <v>658</v>
+        <v>696</v>
       </c>
       <c r="F27">
         <v>51</v>
@@ -5794,7 +6054,7 @@
         <v>3</v>
       </c>
       <c r="H27" t="s">
-        <v>962</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -5805,13 +6065,13 @@
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D28" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="E28" t="s">
-        <v>659</v>
+        <v>697</v>
       </c>
       <c r="F28">
         <v>51</v>
@@ -5820,18 +6080,18 @@
         <v>3</v>
       </c>
       <c r="H28" t="s">
-        <v>963</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="C29" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D29" t="s">
-        <v>351</v>
+        <v>371</v>
       </c>
       <c r="E29" t="s">
-        <v>660</v>
+        <v>698</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -5842,13 +6102,13 @@
         <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D30" t="s">
-        <v>352</v>
+        <v>372</v>
       </c>
       <c r="E30" t="s">
-        <v>661</v>
+        <v>699</v>
       </c>
       <c r="F30">
         <v>7</v>
@@ -5857,7 +6117,7 @@
         <v>3</v>
       </c>
       <c r="H30" t="s">
-        <v>964</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -5868,13 +6128,13 @@
         <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D31" t="s">
-        <v>353</v>
+        <v>373</v>
       </c>
       <c r="E31" t="s">
-        <v>662</v>
+        <v>700</v>
       </c>
       <c r="F31">
         <v>7</v>
@@ -5883,7 +6143,7 @@
         <v>3</v>
       </c>
       <c r="H31" t="s">
-        <v>965</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -5894,13 +6154,13 @@
         <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D32" t="s">
-        <v>354</v>
+        <v>374</v>
       </c>
       <c r="E32" t="s">
-        <v>663</v>
+        <v>701</v>
       </c>
       <c r="F32">
         <v>7</v>
@@ -5909,18 +6169,18 @@
         <v>3</v>
       </c>
       <c r="H32" t="s">
-        <v>966</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="C33" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D33" t="s">
-        <v>355</v>
+        <v>375</v>
       </c>
       <c r="E33" t="s">
-        <v>664</v>
+        <v>702</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -5931,13 +6191,13 @@
         <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D34" t="s">
-        <v>356</v>
+        <v>376</v>
       </c>
       <c r="E34" t="s">
-        <v>665</v>
+        <v>703</v>
       </c>
       <c r="F34">
         <v>7</v>
@@ -5946,7 +6206,7 @@
         <v>3</v>
       </c>
       <c r="H34" t="s">
-        <v>967</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -5957,13 +6217,13 @@
         <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D35" t="s">
-        <v>357</v>
+        <v>377</v>
       </c>
       <c r="E35" t="s">
-        <v>666</v>
+        <v>704</v>
       </c>
  